--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.03166</v>
+        <v>2.45814</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8608</v>
+        <v>2.53581</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8724</v>
+        <v>2.72298</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7981</v>
+        <v>3.53716</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0362</v>
+        <v>3.57633</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2389</v>
+        <v>4.50726</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6321</v>
+        <v>4.55403</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3729</v>
+        <v>4.59606</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3914</v>
+        <v>6.12481</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4983</v>
+        <v>5.62381</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3645</v>
+        <v>5.59065</v>
       </c>
       <c r="D5" t="n">
-        <v>46.7246</v>
+        <v>7.60002</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3461</v>
+        <v>6.79189</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2238</v>
+        <v>6.49074</v>
       </c>
       <c r="D6" t="n">
-        <v>37.2077</v>
+        <v>9.004670000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.6712</v>
+        <v>7.74487</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7423</v>
+        <v>7.25911</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1229</v>
+        <v>10.332</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.4853</v>
+        <v>8.52031</v>
       </c>
       <c r="C8" t="n">
-        <v>17.3418</v>
+        <v>7.90477</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9239</v>
+        <v>11.594</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7456</v>
+        <v>9.92305</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2322</v>
+        <v>8.66742</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0778</v>
+        <v>13.3414</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4338</v>
+        <v>8.153549999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6247</v>
+        <v>7.56986</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2448</v>
+        <v>11.0666</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.6039</v>
+        <v>8.59721</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9514</v>
+        <v>7.52176</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7777</v>
+        <v>11.0456</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1041</v>
+        <v>8.864050000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>16.085</v>
+        <v>7.68123</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8479</v>
+        <v>11.911</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.3986</v>
+        <v>8.82194</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1092</v>
+        <v>7.75449</v>
       </c>
       <c r="D13" t="n">
-        <v>38.9921</v>
+        <v>12.2104</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8368</v>
+        <v>8.739050000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6269</v>
+        <v>7.88648</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0483</v>
+        <v>11.6799</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6258</v>
+        <v>9.01365</v>
       </c>
       <c r="C15" t="n">
-        <v>17.1519</v>
+        <v>8.046239999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>36.9075</v>
+        <v>11.8787</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4138</v>
+        <v>9.15325</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4714</v>
+        <v>8.1326</v>
       </c>
       <c r="D16" t="n">
-        <v>39.772</v>
+        <v>12.243</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.019</v>
+        <v>9.21536</v>
       </c>
       <c r="C17" t="n">
-        <v>15.655</v>
+        <v>8.077959999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>40.061</v>
+        <v>12.2844</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.02237</v>
+        <v>2.96819</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7334</v>
+        <v>3.09248</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5767</v>
+        <v>3.25468</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.718</v>
+        <v>4.1045</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9533</v>
+        <v>4.1461</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8368</v>
+        <v>5.21634</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.0151</v>
+        <v>5.17243</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2748</v>
+        <v>5.18287</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7464</v>
+        <v>6.93866</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.5299</v>
+        <v>6.33142</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3041</v>
+        <v>6.02222</v>
       </c>
       <c r="D5" t="n">
-        <v>42.4143</v>
+        <v>8.560499999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9747</v>
+        <v>7.34722</v>
       </c>
       <c r="C6" t="n">
-        <v>22.978</v>
+        <v>6.91663</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0704</v>
+        <v>10.0214</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.0203</v>
+        <v>8.42604</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7073</v>
+        <v>7.67757</v>
       </c>
       <c r="D7" t="n">
-        <v>36.458</v>
+        <v>11.4692</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.29</v>
+        <v>9.4861</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0985</v>
+        <v>8.323560000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>23.002</v>
+        <v>12.7869</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1501</v>
+        <v>10.9713</v>
       </c>
       <c r="C9" t="n">
-        <v>16.3237</v>
+        <v>8.83511</v>
       </c>
       <c r="D9" t="n">
-        <v>27.6495</v>
+        <v>14.7646</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.693</v>
+        <v>9.097720000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2385</v>
+        <v>8.02117</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3916</v>
+        <v>12.2867</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3848</v>
+        <v>9.49396</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3554</v>
+        <v>7.89161</v>
       </c>
       <c r="D11" t="n">
-        <v>28.931</v>
+        <v>12.3921</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2453</v>
+        <v>9.421010000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4606</v>
+        <v>8.12241</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6498</v>
+        <v>13.1582</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.102</v>
+        <v>9.77436</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3376</v>
+        <v>8.168469999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>38.0142</v>
+        <v>13.7113</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1789</v>
+        <v>9.66545</v>
       </c>
       <c r="C14" t="n">
-        <v>15.463</v>
+        <v>8.30885</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6072</v>
+        <v>12.9751</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6105</v>
+        <v>9.813409999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3018</v>
+        <v>8.38405</v>
       </c>
       <c r="D15" t="n">
-        <v>35.8512</v>
+        <v>13.3358</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7213</v>
+        <v>9.998989999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5868</v>
+        <v>8.47353</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8967</v>
+        <v>13.5999</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7943</v>
+        <v>9.71364</v>
       </c>
       <c r="C17" t="n">
-        <v>15.644</v>
+        <v>8.4345</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2418</v>
+        <v>13.3976</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.721830000000001</v>
+        <v>2.73497</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5423</v>
+        <v>2.70919</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2373</v>
+        <v>2.86168</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6542</v>
+        <v>3.94963</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3335</v>
+        <v>3.84189</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2214</v>
+        <v>4.78799</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9056</v>
+        <v>5.12062</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0841</v>
+        <v>4.92104</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1562</v>
+        <v>6.58421</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.78</v>
+        <v>6.34358</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7009</v>
+        <v>5.85584</v>
       </c>
       <c r="D5" t="n">
-        <v>44.6243</v>
+        <v>8.281610000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4044</v>
+        <v>7.47843</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4901</v>
+        <v>6.78063</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8592</v>
+        <v>9.957050000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3201</v>
+        <v>8.61176</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3911</v>
+        <v>7.57078</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2415</v>
+        <v>11.5473</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8948</v>
+        <v>9.745609999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6362</v>
+        <v>8.263159999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6323</v>
+        <v>13.1064</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3348</v>
+        <v>11.2348</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9527</v>
+        <v>8.93638</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9031</v>
+        <v>15.0036</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1561</v>
+        <v>9.11205</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2955</v>
+        <v>8.00155</v>
       </c>
       <c r="D10" t="n">
-        <v>24.4438</v>
+        <v>11.5629</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2055</v>
+        <v>9.21809</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4582</v>
+        <v>7.90466</v>
       </c>
       <c r="D11" t="n">
-        <v>37.008</v>
+        <v>11.9213</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.3474</v>
+        <v>9.442589999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3526</v>
+        <v>7.9913</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1498</v>
+        <v>12.4049</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5834</v>
+        <v>9.67998</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0951</v>
+        <v>8.10798</v>
       </c>
       <c r="D13" t="n">
-        <v>32.052</v>
+        <v>13.1147</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6443</v>
+        <v>9.840159999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3318</v>
+        <v>8.23217</v>
       </c>
       <c r="D14" t="n">
-        <v>34.897</v>
+        <v>12.6735</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6539</v>
+        <v>10.0272</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6808</v>
+        <v>8.353730000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2887</v>
+        <v>13.1202</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.9711</v>
+        <v>10.3931</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4452</v>
+        <v>8.50004</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1082</v>
+        <v>13.5714</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8797</v>
+        <v>9.99235</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4801</v>
+        <v>8.4069</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6256</v>
+        <v>13.4579</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.09721</v>
+        <v>2.38405</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2228</v>
+        <v>2.54065</v>
       </c>
       <c r="D2" t="n">
-        <v>14.457</v>
+        <v>2.71482</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3393</v>
+        <v>3.55386</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5166</v>
+        <v>3.59111</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2626</v>
+        <v>4.48605</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.6084</v>
+        <v>4.54147</v>
       </c>
       <c r="C4" t="n">
-        <v>24.131</v>
+        <v>4.60349</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5167</v>
+        <v>6.03971</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.1248</v>
+        <v>5.69064</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0307</v>
+        <v>5.49761</v>
       </c>
       <c r="D5" t="n">
-        <v>46.978</v>
+        <v>7.45441</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.2707</v>
+        <v>6.57448</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3957</v>
+        <v>6.39727</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3822</v>
+        <v>8.87283</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7996</v>
+        <v>7.61836</v>
       </c>
       <c r="C7" t="n">
-        <v>17.186</v>
+        <v>7.1741</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5344</v>
+        <v>10.1651</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.566</v>
+        <v>8.459989999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5087</v>
+        <v>7.82213</v>
       </c>
       <c r="D8" t="n">
-        <v>37.081</v>
+        <v>11.3818</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.767</v>
+        <v>9.84042</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2737</v>
+        <v>8.52923</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1716</v>
+        <v>13.2357</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.6641</v>
+        <v>8.699669999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5234</v>
+        <v>7.7415</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5998</v>
+        <v>11.2807</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.5379</v>
+        <v>8.924849999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6429</v>
+        <v>7.87615</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4112</v>
+        <v>11.6197</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.3604</v>
+        <v>9.18679</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6123</v>
+        <v>7.94185</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3708</v>
+        <v>12.0736</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.6947</v>
+        <v>9.14273</v>
       </c>
       <c r="C13" t="n">
-        <v>17.4415</v>
+        <v>8.09037</v>
       </c>
       <c r="D13" t="n">
-        <v>40.8286</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.4647</v>
+        <v>9.32099</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3753</v>
+        <v>8.217180000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>41.991</v>
+        <v>12.2938</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.5319</v>
+        <v>9.47756</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2072</v>
+        <v>8.248849999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8606</v>
+        <v>12.412</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.7085</v>
+        <v>9.47484</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9204</v>
+        <v>8.34042</v>
       </c>
       <c r="D16" t="n">
-        <v>41.79</v>
+        <v>12.3739</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6776</v>
+        <v>9.378550000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3752</v>
+        <v>8.425890000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0192</v>
+        <v>11.8364</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.11683</v>
+        <v>2.90186</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2075</v>
+        <v>3.11996</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1602</v>
+        <v>3.29527</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3919</v>
+        <v>3.96912</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5231</v>
+        <v>4.12538</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7837</v>
+        <v>5.1908</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.8325</v>
+        <v>5.29166</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3355</v>
+        <v>5.208</v>
       </c>
       <c r="D4" t="n">
-        <v>35.9034</v>
+        <v>6.93674</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.3215</v>
+        <v>6.28191</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5111</v>
+        <v>6.05114</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2761</v>
+        <v>8.4711</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3642</v>
+        <v>7.44845</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7466</v>
+        <v>6.96457</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4859</v>
+        <v>9.962020000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.0959</v>
+        <v>8.335419999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0759</v>
+        <v>7.7522</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5639</v>
+        <v>11.2906</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.7657</v>
+        <v>9.35126</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3538</v>
+        <v>8.39113</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5905</v>
+        <v>12.568</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3259</v>
+        <v>10.8159</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5549</v>
+        <v>9.091480000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>38.999</v>
+        <v>14.7091</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0359</v>
+        <v>9.57549</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0648</v>
+        <v>8.333449999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1417</v>
+        <v>12.5648</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.6602</v>
+        <v>9.823040000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>18.7322</v>
+        <v>8.34313</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1172</v>
+        <v>13.0919</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8642</v>
+        <v>10.0358</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5728</v>
+        <v>8.56743</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7898</v>
+        <v>13.3102</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.0399</v>
+        <v>10.1719</v>
       </c>
       <c r="C13" t="n">
-        <v>17.75</v>
+        <v>8.67027</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3517</v>
+        <v>13.4002</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.0543</v>
+        <v>10.3014</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7311</v>
+        <v>8.751480000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8393</v>
+        <v>13.6722</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.925</v>
+        <v>10.3872</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2257</v>
+        <v>8.799569999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>42.4861</v>
+        <v>13.8555</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5843</v>
+        <v>10.3585</v>
       </c>
       <c r="C16" t="n">
-        <v>17.5159</v>
+        <v>8.86037</v>
       </c>
       <c r="D16" t="n">
-        <v>41.032</v>
+        <v>13.5644</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.8074</v>
+        <v>10.2648</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6133</v>
+        <v>8.9503</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4521</v>
+        <v>13.2782</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.525180000000001</v>
+        <v>2.7086</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5313</v>
+        <v>2.73682</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4697</v>
+        <v>2.88196</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8214</v>
+        <v>3.923</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4755</v>
+        <v>3.80681</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9184</v>
+        <v>4.81065</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.2949</v>
+        <v>5.33703</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7548</v>
+        <v>4.96308</v>
       </c>
       <c r="D4" t="n">
-        <v>35.253</v>
+        <v>6.82357</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.2062</v>
+        <v>6.45832</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4337</v>
+        <v>5.9105</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2382</v>
+        <v>8.562760000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.8263</v>
+        <v>7.78066</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3607</v>
+        <v>6.93833</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0898</v>
+        <v>10.3361</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3088</v>
+        <v>8.95993</v>
       </c>
       <c r="C7" t="n">
-        <v>17.932</v>
+        <v>7.72299</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6881</v>
+        <v>12.0459</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.3772</v>
+        <v>10.1492</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2234</v>
+        <v>8.45607</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6808</v>
+        <v>13.7284</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.1281</v>
+        <v>11.7853</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0313</v>
+        <v>9.213050000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0055</v>
+        <v>16.0475</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.0241</v>
+        <v>10.2306</v>
       </c>
       <c r="C10" t="n">
-        <v>18.8306</v>
+        <v>8.21124</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9198</v>
+        <v>13.5027</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.8548</v>
+        <v>10.5992</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9468</v>
+        <v>8.417759999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1388</v>
+        <v>13.7546</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8403</v>
+        <v>10.781</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3933</v>
+        <v>8.64974</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6115</v>
+        <v>14.2291</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.7732</v>
+        <v>10.9172</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2664</v>
+        <v>8.73846</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5397</v>
+        <v>14.7078</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.0313</v>
+        <v>11.169</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3828</v>
+        <v>8.848089999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2313</v>
+        <v>14.7059</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.0344</v>
+        <v>11.3837</v>
       </c>
       <c r="C15" t="n">
-        <v>17.6861</v>
+        <v>8.876060000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2848</v>
+        <v>14.7745</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.9617</v>
+        <v>11.2289</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7581</v>
+        <v>8.971880000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>43.1151</v>
+        <v>14.9285</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.1113</v>
+        <v>11.2542</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6398</v>
+        <v>9.06574</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9754</v>
+        <v>15.0553</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.46214</v>
+        <v>4.25245</v>
       </c>
       <c r="C2" t="n">
-        <v>2.51879</v>
+        <v>4.55357</v>
       </c>
       <c r="D2" t="n">
-        <v>2.72274</v>
+        <v>4.9364</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.46946</v>
+        <v>5.06819</v>
       </c>
       <c r="C3" t="n">
-        <v>3.58992</v>
+        <v>5.42276</v>
       </c>
       <c r="D3" t="n">
-        <v>4.48932</v>
+        <v>7.05199</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.63447</v>
+        <v>6.22622</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0398</v>
+        <v>7.17816</v>
       </c>
       <c r="D4" t="n">
-        <v>6.15527</v>
+        <v>9.113849999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.58931</v>
+        <v>7.27443</v>
       </c>
       <c r="C5" t="n">
-        <v>6.47581</v>
+        <v>8.94448</v>
       </c>
       <c r="D5" t="n">
-        <v>7.60435</v>
+        <v>10.7078</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.80062</v>
+        <v>8.470039999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>7.8757</v>
+        <v>10.8033</v>
       </c>
       <c r="D6" t="n">
-        <v>9.00183</v>
+        <v>12.4298</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.63137</v>
+        <v>9.579219999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>9.225440000000001</v>
+        <v>12.671</v>
       </c>
       <c r="D7" t="n">
-        <v>10.3015</v>
+        <v>13.9195</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.51614</v>
+        <v>10.6273</v>
       </c>
       <c r="C8" t="n">
-        <v>10.6553</v>
+        <v>14.6683</v>
       </c>
       <c r="D8" t="n">
-        <v>11.5511</v>
+        <v>15.3323</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.94872</v>
+        <v>12.1228</v>
       </c>
       <c r="C9" t="n">
-        <v>12.0472</v>
+        <v>16.4795</v>
       </c>
       <c r="D9" t="n">
-        <v>13.3177</v>
+        <v>16.8962</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.0939</v>
+        <v>10.7047</v>
       </c>
       <c r="C10" t="n">
-        <v>10.3298</v>
+        <v>13.9248</v>
       </c>
       <c r="D10" t="n">
-        <v>11.0759</v>
+        <v>15.0156</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.56326</v>
+        <v>10.3832</v>
       </c>
       <c r="C11" t="n">
-        <v>10.3302</v>
+        <v>13.5868</v>
       </c>
       <c r="D11" t="n">
-        <v>11.1865</v>
+        <v>15.0157</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.7278</v>
+        <v>10.6473</v>
       </c>
       <c r="C12" t="n">
-        <v>10.4239</v>
+        <v>13.7747</v>
       </c>
       <c r="D12" t="n">
-        <v>11.7028</v>
+        <v>15.4662</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.874370000000001</v>
+        <v>10.682</v>
       </c>
       <c r="C13" t="n">
-        <v>10.6221</v>
+        <v>13.9472</v>
       </c>
       <c r="D13" t="n">
-        <v>12.2971</v>
+        <v>16.1777</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.838150000000001</v>
+        <v>10.8954</v>
       </c>
       <c r="C14" t="n">
-        <v>10.8594</v>
+        <v>14.271</v>
       </c>
       <c r="D14" t="n">
-        <v>11.6043</v>
+        <v>15.5308</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.068820000000001</v>
+        <v>11.0261</v>
       </c>
       <c r="C15" t="n">
-        <v>11.1433</v>
+        <v>14.3255</v>
       </c>
       <c r="D15" t="n">
-        <v>12.0727</v>
+        <v>15.6556</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.940580000000001</v>
+        <v>11.0905</v>
       </c>
       <c r="C16" t="n">
-        <v>11.1741</v>
+        <v>14.3167</v>
       </c>
       <c r="D16" t="n">
-        <v>12.1615</v>
+        <v>16.0762</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.06198</v>
+        <v>10.8583</v>
       </c>
       <c r="C17" t="n">
-        <v>11.2432</v>
+        <v>14.4859</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8468</v>
+        <v>16.2964</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.97036</v>
+        <v>6.09059</v>
       </c>
       <c r="C2" t="n">
-        <v>3.08578</v>
+        <v>6.70104</v>
       </c>
       <c r="D2" t="n">
-        <v>3.27666</v>
+        <v>7.45551</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.0862</v>
+        <v>6.23582</v>
       </c>
       <c r="C3" t="n">
-        <v>4.23188</v>
+        <v>6.70726</v>
       </c>
       <c r="D3" t="n">
-        <v>5.17141</v>
+        <v>9.07762</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.27382</v>
+        <v>7.43565</v>
       </c>
       <c r="C4" t="n">
-        <v>5.80325</v>
+        <v>8.615500000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>6.97352</v>
+        <v>11.2318</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.35381</v>
+        <v>8.307219999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>7.35229</v>
+        <v>10.3216</v>
       </c>
       <c r="D5" t="n">
-        <v>8.53525</v>
+        <v>12.8575</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.47508</v>
+        <v>9.71721</v>
       </c>
       <c r="C6" t="n">
-        <v>8.91685</v>
+        <v>12.6797</v>
       </c>
       <c r="D6" t="n">
-        <v>10.078</v>
+        <v>14.8323</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.50867</v>
+        <v>11.2553</v>
       </c>
       <c r="C7" t="n">
-        <v>10.5009</v>
+        <v>14.8172</v>
       </c>
       <c r="D7" t="n">
-        <v>11.4759</v>
+        <v>16.3747</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.479150000000001</v>
+        <v>12.3777</v>
       </c>
       <c r="C8" t="n">
-        <v>12.1487</v>
+        <v>17.1076</v>
       </c>
       <c r="D8" t="n">
-        <v>12.7935</v>
+        <v>17.9297</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.9296</v>
+        <v>13.9528</v>
       </c>
       <c r="C9" t="n">
-        <v>13.5436</v>
+        <v>19.1946</v>
       </c>
       <c r="D9" t="n">
-        <v>14.6959</v>
+        <v>19.5729</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.165660000000001</v>
+        <v>12.3786</v>
       </c>
       <c r="C10" t="n">
-        <v>11.5049</v>
+        <v>16.7324</v>
       </c>
       <c r="D10" t="n">
-        <v>12.4602</v>
+        <v>17.8362</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.55312</v>
+        <v>12.2748</v>
       </c>
       <c r="C11" t="n">
-        <v>11.5094</v>
+        <v>15.7306</v>
       </c>
       <c r="D11" t="n">
-        <v>12.5955</v>
+        <v>17.5247</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.40465</v>
+        <v>12.2532</v>
       </c>
       <c r="C12" t="n">
-        <v>11.6599</v>
+        <v>15.7682</v>
       </c>
       <c r="D12" t="n">
-        <v>13.0586</v>
+        <v>17.5415</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.54941</v>
+        <v>12.4687</v>
       </c>
       <c r="C13" t="n">
-        <v>11.7679</v>
+        <v>15.7969</v>
       </c>
       <c r="D13" t="n">
-        <v>13.5014</v>
+        <v>17.855</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.449339999999999</v>
+        <v>12.3441</v>
       </c>
       <c r="C14" t="n">
-        <v>11.9641</v>
+        <v>16.2405</v>
       </c>
       <c r="D14" t="n">
-        <v>12.8206</v>
+        <v>18.3695</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.771929999999999</v>
+        <v>12.57</v>
       </c>
       <c r="C15" t="n">
-        <v>12.1618</v>
+        <v>16.4953</v>
       </c>
       <c r="D15" t="n">
-        <v>13.0693</v>
+        <v>18.5859</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.916270000000001</v>
+        <v>12.8694</v>
       </c>
       <c r="C16" t="n">
-        <v>12.2893</v>
+        <v>16.4171</v>
       </c>
       <c r="D16" t="n">
-        <v>13.6003</v>
+        <v>19.1038</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.75216</v>
+        <v>12.7203</v>
       </c>
       <c r="C17" t="n">
-        <v>12.3759</v>
+        <v>16.4185</v>
       </c>
       <c r="D17" t="n">
-        <v>13.2935</v>
+        <v>18.9024</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.73864</v>
+        <v>4.9842</v>
       </c>
       <c r="C2" t="n">
-        <v>2.7053</v>
+        <v>4.97594</v>
       </c>
       <c r="D2" t="n">
-        <v>2.87138</v>
+        <v>5.33996</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.93588</v>
+        <v>5.75318</v>
       </c>
       <c r="C3" t="n">
-        <v>3.91661</v>
+        <v>5.80309</v>
       </c>
       <c r="D3" t="n">
-        <v>4.74648</v>
+        <v>7.65371</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.21217</v>
+        <v>7.16602</v>
       </c>
       <c r="C4" t="n">
-        <v>5.43628</v>
+        <v>7.60836</v>
       </c>
       <c r="D4" t="n">
-        <v>6.58588</v>
+        <v>10.1549</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.2429</v>
+        <v>8.49427</v>
       </c>
       <c r="C5" t="n">
-        <v>6.78224</v>
+        <v>9.41958</v>
       </c>
       <c r="D5" t="n">
-        <v>8.3988</v>
+        <v>12.3689</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.47501</v>
+        <v>9.89165</v>
       </c>
       <c r="C6" t="n">
-        <v>8.23887</v>
+        <v>11.3194</v>
       </c>
       <c r="D6" t="n">
-        <v>9.97879</v>
+        <v>14.5728</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.61228</v>
+        <v>11.2119</v>
       </c>
       <c r="C7" t="n">
-        <v>9.684839999999999</v>
+        <v>13.194</v>
       </c>
       <c r="D7" t="n">
-        <v>11.5781</v>
+        <v>16.5779</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.74267</v>
+        <v>12.5565</v>
       </c>
       <c r="C8" t="n">
-        <v>11.1881</v>
+        <v>15.2272</v>
       </c>
       <c r="D8" t="n">
-        <v>13.1354</v>
+        <v>18.623</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.2229</v>
+        <v>14.2249</v>
       </c>
       <c r="C9" t="n">
-        <v>12.4486</v>
+        <v>16.7997</v>
       </c>
       <c r="D9" t="n">
-        <v>14.997</v>
+        <v>20.7999</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.089449999999999</v>
+        <v>12.0813</v>
       </c>
       <c r="C10" t="n">
-        <v>10.6685</v>
+        <v>14.5548</v>
       </c>
       <c r="D10" t="n">
-        <v>11.4038</v>
+        <v>16.8582</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.27871</v>
+        <v>11.9529</v>
       </c>
       <c r="C11" t="n">
-        <v>10.6344</v>
+        <v>13.9743</v>
       </c>
       <c r="D11" t="n">
-        <v>12.1363</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.401350000000001</v>
+        <v>12.1213</v>
       </c>
       <c r="C12" t="n">
-        <v>10.7282</v>
+        <v>14.0557</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4255</v>
+        <v>16.8446</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.6107</v>
+        <v>12.358</v>
       </c>
       <c r="C13" t="n">
-        <v>11.0217</v>
+        <v>14.1599</v>
       </c>
       <c r="D13" t="n">
-        <v>12.9047</v>
+        <v>17.3648</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.849690000000001</v>
+        <v>12.6029</v>
       </c>
       <c r="C14" t="n">
-        <v>11.2249</v>
+        <v>14.5318</v>
       </c>
       <c r="D14" t="n">
-        <v>13.0144</v>
+        <v>18.0338</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.2423</v>
+        <v>12.9086</v>
       </c>
       <c r="C15" t="n">
-        <v>11.3785</v>
+        <v>14.762</v>
       </c>
       <c r="D15" t="n">
-        <v>13.4182</v>
+        <v>19.1356</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.4507</v>
+        <v>13.0229</v>
       </c>
       <c r="C16" t="n">
-        <v>11.4753</v>
+        <v>14.8993</v>
       </c>
       <c r="D16" t="n">
-        <v>13.7004</v>
+        <v>19.5179</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.2439</v>
+        <v>13.1776</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7243</v>
+        <v>14.8465</v>
       </c>
       <c r="D17" t="n">
-        <v>13.6008</v>
+        <v>20.3964</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.3983</v>
+        <v>3.9049</v>
       </c>
       <c r="C2" t="n">
-        <v>2.52552</v>
+        <v>4.42907</v>
       </c>
       <c r="D2" t="n">
-        <v>2.71723</v>
+        <v>4.74646</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.47142</v>
+        <v>5.09183</v>
       </c>
       <c r="C3" t="n">
-        <v>3.73089</v>
+        <v>5.52348</v>
       </c>
       <c r="D3" t="n">
-        <v>4.4746</v>
+        <v>6.89331</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.70981</v>
+        <v>6.13683</v>
       </c>
       <c r="C4" t="n">
-        <v>5.13775</v>
+        <v>7.1794</v>
       </c>
       <c r="D4" t="n">
-        <v>6.10383</v>
+        <v>8.821</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.73231</v>
+        <v>7.12672</v>
       </c>
       <c r="C5" t="n">
-        <v>6.54757</v>
+        <v>8.887180000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>7.52061</v>
+        <v>10.369</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.75572</v>
+        <v>8.292619999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>7.95683</v>
+        <v>10.6773</v>
       </c>
       <c r="D6" t="n">
-        <v>8.916399999999999</v>
+        <v>12.0323</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.69913</v>
+        <v>9.375389999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>9.377039999999999</v>
+        <v>12.5027</v>
       </c>
       <c r="D7" t="n">
-        <v>10.2019</v>
+        <v>13.4843</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.59685</v>
+        <v>10.3414</v>
       </c>
       <c r="C8" t="n">
-        <v>10.872</v>
+        <v>14.5087</v>
       </c>
       <c r="D8" t="n">
-        <v>11.4064</v>
+        <v>14.7893</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.934519999999999</v>
+        <v>11.948</v>
       </c>
       <c r="C9" t="n">
-        <v>12.5458</v>
+        <v>16.4561</v>
       </c>
       <c r="D9" t="n">
-        <v>13.272</v>
+        <v>16.9929</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.62682</v>
+        <v>10.6318</v>
       </c>
       <c r="C10" t="n">
-        <v>10.8005</v>
+        <v>13.9879</v>
       </c>
       <c r="D10" t="n">
-        <v>11.3526</v>
+        <v>14.7929</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.886340000000001</v>
+        <v>10.8876</v>
       </c>
       <c r="C11" t="n">
-        <v>10.8526</v>
+        <v>14.4664</v>
       </c>
       <c r="D11" t="n">
-        <v>11.769</v>
+        <v>15.2657</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.142720000000001</v>
+        <v>10.9937</v>
       </c>
       <c r="C12" t="n">
-        <v>11.2534</v>
+        <v>14.8659</v>
       </c>
       <c r="D12" t="n">
-        <v>11.9782</v>
+        <v>15.5489</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.126010000000001</v>
+        <v>11.2118</v>
       </c>
       <c r="C13" t="n">
-        <v>11.5979</v>
+        <v>15.3538</v>
       </c>
       <c r="D13" t="n">
-        <v>12.1739</v>
+        <v>15.8335</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.33142</v>
+        <v>11.2981</v>
       </c>
       <c r="C14" t="n">
-        <v>11.73</v>
+        <v>15.4741</v>
       </c>
       <c r="D14" t="n">
-        <v>12.2581</v>
+        <v>15.7784</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.3819</v>
+        <v>11.4605</v>
       </c>
       <c r="C15" t="n">
-        <v>11.8541</v>
+        <v>15.6071</v>
       </c>
       <c r="D15" t="n">
-        <v>12.3702</v>
+        <v>15.4461</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.519259999999999</v>
+        <v>11.5206</v>
       </c>
       <c r="C16" t="n">
-        <v>11.8385</v>
+        <v>15.763</v>
       </c>
       <c r="D16" t="n">
-        <v>12.403</v>
+        <v>15.9725</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.481009999999999</v>
+        <v>11.4127</v>
       </c>
       <c r="C17" t="n">
-        <v>11.979</v>
+        <v>15.7538</v>
       </c>
       <c r="D17" t="n">
-        <v>12.3559</v>
+        <v>14.7876</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.87939</v>
+        <v>5.44988</v>
       </c>
       <c r="C2" t="n">
-        <v>3.10825</v>
+        <v>6.48822</v>
       </c>
       <c r="D2" t="n">
-        <v>3.28896</v>
+        <v>7.05482</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.93831</v>
+        <v>6.26386</v>
       </c>
       <c r="C3" t="n">
-        <v>4.34137</v>
+        <v>6.90006</v>
       </c>
       <c r="D3" t="n">
-        <v>5.1711</v>
+        <v>8.885719999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.28693</v>
+        <v>7.29144</v>
       </c>
       <c r="C4" t="n">
-        <v>5.89989</v>
+        <v>8.647919999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>6.93252</v>
+        <v>10.7631</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.34467</v>
+        <v>8.23138</v>
       </c>
       <c r="C5" t="n">
-        <v>7.41809</v>
+        <v>10.3926</v>
       </c>
       <c r="D5" t="n">
-        <v>8.381930000000001</v>
+        <v>12.3654</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.43263</v>
+        <v>9.77886</v>
       </c>
       <c r="C6" t="n">
-        <v>9.049390000000001</v>
+        <v>12.5101</v>
       </c>
       <c r="D6" t="n">
-        <v>9.88242</v>
+        <v>14.2303</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.453010000000001</v>
+        <v>10.9835</v>
       </c>
       <c r="C7" t="n">
-        <v>10.6441</v>
+        <v>14.5808</v>
       </c>
       <c r="D7" t="n">
-        <v>11.2757</v>
+        <v>15.7991</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.38382</v>
+        <v>12.0746</v>
       </c>
       <c r="C8" t="n">
-        <v>12.3747</v>
+        <v>16.8848</v>
       </c>
       <c r="D8" t="n">
-        <v>12.8907</v>
+        <v>17.2671</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.8843</v>
+        <v>13.7746</v>
       </c>
       <c r="C9" t="n">
-        <v>14.121</v>
+        <v>19.3327</v>
       </c>
       <c r="D9" t="n">
-        <v>14.7018</v>
+        <v>19.6064</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.433400000000001</v>
+        <v>12.2855</v>
       </c>
       <c r="C10" t="n">
-        <v>11.8036</v>
+        <v>16.7158</v>
       </c>
       <c r="D10" t="n">
-        <v>12.6889</v>
+        <v>17.4687</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.76343</v>
+        <v>12.5615</v>
       </c>
       <c r="C11" t="n">
-        <v>12.2422</v>
+        <v>16.8736</v>
       </c>
       <c r="D11" t="n">
-        <v>13.0023</v>
+        <v>17.811</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.0726</v>
+        <v>12.6839</v>
       </c>
       <c r="C12" t="n">
-        <v>12.6097</v>
+        <v>17.4246</v>
       </c>
       <c r="D12" t="n">
-        <v>13.3706</v>
+        <v>17.9187</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.1749</v>
+        <v>12.9969</v>
       </c>
       <c r="C13" t="n">
-        <v>12.9604</v>
+        <v>17.8544</v>
       </c>
       <c r="D13" t="n">
-        <v>13.4656</v>
+        <v>18.2286</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.2425</v>
+        <v>12.9883</v>
       </c>
       <c r="C14" t="n">
-        <v>13.1627</v>
+        <v>17.827</v>
       </c>
       <c r="D14" t="n">
-        <v>13.5864</v>
+        <v>18.0773</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.5021</v>
+        <v>13.3443</v>
       </c>
       <c r="C15" t="n">
-        <v>13.4378</v>
+        <v>18.0891</v>
       </c>
       <c r="D15" t="n">
-        <v>13.709</v>
+        <v>17.6355</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.5063</v>
+        <v>13.2939</v>
       </c>
       <c r="C16" t="n">
-        <v>13.4362</v>
+        <v>18.3043</v>
       </c>
       <c r="D16" t="n">
-        <v>13.6704</v>
+        <v>17.7578</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.2814</v>
+        <v>13.1526</v>
       </c>
       <c r="C17" t="n">
-        <v>13.483</v>
+        <v>18.569</v>
       </c>
       <c r="D17" t="n">
-        <v>13.7033</v>
+        <v>17.4044</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.70873</v>
+        <v>4.75949</v>
       </c>
       <c r="C2" t="n">
-        <v>2.72885</v>
+        <v>4.88217</v>
       </c>
       <c r="D2" t="n">
-        <v>2.88983</v>
+        <v>5.20287</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.84378</v>
+        <v>5.79581</v>
       </c>
       <c r="C3" t="n">
-        <v>3.88159</v>
+        <v>5.82107</v>
       </c>
       <c r="D3" t="n">
-        <v>4.83305</v>
+        <v>7.6859</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.26765</v>
+        <v>7.30668</v>
       </c>
       <c r="C4" t="n">
-        <v>5.52217</v>
+        <v>7.64946</v>
       </c>
       <c r="D4" t="n">
-        <v>6.81019</v>
+        <v>10.3206</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.57026</v>
+        <v>8.366199999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>6.85288</v>
+        <v>9.253080000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>8.608779999999999</v>
+        <v>12.4784</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.87905</v>
+        <v>9.90174</v>
       </c>
       <c r="C6" t="n">
-        <v>8.37194</v>
+        <v>11.2215</v>
       </c>
       <c r="D6" t="n">
-        <v>10.3589</v>
+        <v>14.849</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.9252</v>
+        <v>11.4401</v>
       </c>
       <c r="C7" t="n">
-        <v>9.829090000000001</v>
+        <v>13.2727</v>
       </c>
       <c r="D7" t="n">
-        <v>12.0279</v>
+        <v>17.0938</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.1247</v>
+        <v>13.3657</v>
       </c>
       <c r="C8" t="n">
-        <v>11.3451</v>
+        <v>15.5121</v>
       </c>
       <c r="D8" t="n">
-        <v>13.6884</v>
+        <v>19.9013</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.7938</v>
+        <v>15.029</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0747</v>
+        <v>17.4006</v>
       </c>
       <c r="D9" t="n">
-        <v>16.0306</v>
+        <v>22.4621</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.3481</v>
+        <v>13.116</v>
       </c>
       <c r="C10" t="n">
-        <v>11.2962</v>
+        <v>14.8468</v>
       </c>
       <c r="D10" t="n">
-        <v>13.3578</v>
+        <v>19.1174</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.5028</v>
+        <v>13.3797</v>
       </c>
       <c r="C11" t="n">
-        <v>11.3338</v>
+        <v>15.1768</v>
       </c>
       <c r="D11" t="n">
-        <v>13.7033</v>
+        <v>19.3709</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.7935</v>
+        <v>13.8629</v>
       </c>
       <c r="C12" t="n">
-        <v>11.9011</v>
+        <v>15.6757</v>
       </c>
       <c r="D12" t="n">
-        <v>14.1951</v>
+        <v>20.0961</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.9558</v>
+        <v>13.9611</v>
       </c>
       <c r="C13" t="n">
-        <v>12.1458</v>
+        <v>16.0136</v>
       </c>
       <c r="D13" t="n">
-        <v>14.6427</v>
+        <v>20.2331</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.1748</v>
+        <v>14.037</v>
       </c>
       <c r="C14" t="n">
-        <v>12.2664</v>
+        <v>16.0543</v>
       </c>
       <c r="D14" t="n">
-        <v>14.717</v>
+        <v>20.4316</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.373</v>
+        <v>14.4886</v>
       </c>
       <c r="C15" t="n">
-        <v>12.5054</v>
+        <v>16.3293</v>
       </c>
       <c r="D15" t="n">
-        <v>14.6464</v>
+        <v>20.1847</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.1277</v>
+        <v>14.3465</v>
       </c>
       <c r="C16" t="n">
-        <v>12.6017</v>
+        <v>16.5859</v>
       </c>
       <c r="D16" t="n">
-        <v>14.6041</v>
+        <v>20.5383</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.1614</v>
+        <v>14.1477</v>
       </c>
       <c r="C17" t="n">
-        <v>12.6632</v>
+        <v>16.6675</v>
       </c>
       <c r="D17" t="n">
-        <v>14.6806</v>
+        <v>19.6669</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.25245</v>
+        <v>4.24162</v>
       </c>
       <c r="C2" t="n">
-        <v>4.55357</v>
+        <v>4.55156</v>
       </c>
       <c r="D2" t="n">
-        <v>4.9364</v>
+        <v>4.93777</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.06819</v>
+        <v>5.05401</v>
       </c>
       <c r="C3" t="n">
-        <v>5.42276</v>
+        <v>5.40359</v>
       </c>
       <c r="D3" t="n">
-        <v>7.05199</v>
+        <v>7.05359</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.22622</v>
+        <v>6.25792</v>
       </c>
       <c r="C4" t="n">
-        <v>7.17816</v>
+        <v>7.07863</v>
       </c>
       <c r="D4" t="n">
-        <v>9.113849999999999</v>
+        <v>9.142720000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.27443</v>
+        <v>7.05681</v>
       </c>
       <c r="C5" t="n">
-        <v>8.94448</v>
+        <v>8.858790000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.7078</v>
+        <v>10.7224</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.470039999999999</v>
+        <v>8.48301</v>
       </c>
       <c r="C6" t="n">
-        <v>10.8033</v>
+        <v>10.7693</v>
       </c>
       <c r="D6" t="n">
-        <v>12.4298</v>
+        <v>12.3639</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.579219999999999</v>
+        <v>9.57349</v>
       </c>
       <c r="C7" t="n">
-        <v>12.671</v>
+        <v>12.6009</v>
       </c>
       <c r="D7" t="n">
-        <v>13.9195</v>
+        <v>13.9067</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.6273</v>
+        <v>10.5614</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6683</v>
+        <v>14.6844</v>
       </c>
       <c r="D8" t="n">
-        <v>15.3323</v>
+        <v>15.2746</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.1228</v>
+        <v>12.1081</v>
       </c>
       <c r="C9" t="n">
-        <v>16.4795</v>
+        <v>16.4818</v>
       </c>
       <c r="D9" t="n">
-        <v>16.8962</v>
+        <v>16.9401</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.7047</v>
+        <v>10.7319</v>
       </c>
       <c r="C10" t="n">
-        <v>13.9248</v>
+        <v>14.1261</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0156</v>
+        <v>14.9581</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.3832</v>
+        <v>10.5589</v>
       </c>
       <c r="C11" t="n">
-        <v>13.5868</v>
+        <v>13.5073</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0157</v>
+        <v>15.1428</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.6473</v>
+        <v>10.5709</v>
       </c>
       <c r="C12" t="n">
-        <v>13.7747</v>
+        <v>13.8891</v>
       </c>
       <c r="D12" t="n">
-        <v>15.4662</v>
+        <v>15.3685</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.682</v>
+        <v>10.6294</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9472</v>
+        <v>13.8178</v>
       </c>
       <c r="D13" t="n">
-        <v>16.1777</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8954</v>
+        <v>11.0295</v>
       </c>
       <c r="C14" t="n">
-        <v>14.271</v>
+        <v>14.1112</v>
       </c>
       <c r="D14" t="n">
-        <v>15.5308</v>
+        <v>15.7161</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0261</v>
+        <v>11.0109</v>
       </c>
       <c r="C15" t="n">
-        <v>14.3255</v>
+        <v>14.2575</v>
       </c>
       <c r="D15" t="n">
-        <v>15.6556</v>
+        <v>15.9877</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.0905</v>
+        <v>11.0723</v>
       </c>
       <c r="C16" t="n">
-        <v>14.3167</v>
+        <v>14.5183</v>
       </c>
       <c r="D16" t="n">
-        <v>16.0762</v>
+        <v>16.4538</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.8583</v>
+        <v>10.9597</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4859</v>
+        <v>14.4063</v>
       </c>
       <c r="D17" t="n">
-        <v>16.2964</v>
+        <v>15.9912</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.09059</v>
+        <v>6.08109</v>
       </c>
       <c r="C2" t="n">
-        <v>6.70104</v>
+        <v>6.70163</v>
       </c>
       <c r="D2" t="n">
-        <v>7.45551</v>
+        <v>7.46048</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.23582</v>
+        <v>6.24811</v>
       </c>
       <c r="C3" t="n">
-        <v>6.70726</v>
+        <v>6.67713</v>
       </c>
       <c r="D3" t="n">
-        <v>9.07762</v>
+        <v>9.064450000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.43565</v>
+        <v>7.46888</v>
       </c>
       <c r="C4" t="n">
-        <v>8.615500000000001</v>
+        <v>8.593819999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>11.2318</v>
+        <v>11.2448</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.307219999999999</v>
+        <v>8.667920000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3216</v>
+        <v>10.5857</v>
       </c>
       <c r="D5" t="n">
-        <v>12.8575</v>
+        <v>12.9249</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.71721</v>
+        <v>10.0147</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6797</v>
+        <v>12.6766</v>
       </c>
       <c r="D6" t="n">
-        <v>14.8323</v>
+        <v>14.8799</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2553</v>
+        <v>11.2417</v>
       </c>
       <c r="C7" t="n">
-        <v>14.8172</v>
+        <v>14.8561</v>
       </c>
       <c r="D7" t="n">
-        <v>16.3747</v>
+        <v>16.4154</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.3777</v>
+        <v>12.3567</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1076</v>
+        <v>17.2089</v>
       </c>
       <c r="D8" t="n">
-        <v>17.9297</v>
+        <v>17.933</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.9528</v>
+        <v>13.9772</v>
       </c>
       <c r="C9" t="n">
-        <v>19.1946</v>
+        <v>19.1585</v>
       </c>
       <c r="D9" t="n">
-        <v>19.5729</v>
+        <v>19.6001</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.3786</v>
+        <v>12.3417</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7324</v>
+        <v>16.6557</v>
       </c>
       <c r="D10" t="n">
-        <v>17.8362</v>
+        <v>17.9418</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.2748</v>
+        <v>12.2427</v>
       </c>
       <c r="C11" t="n">
-        <v>15.7306</v>
+        <v>15.605</v>
       </c>
       <c r="D11" t="n">
-        <v>17.5247</v>
+        <v>17.7189</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2532</v>
+        <v>12.3631</v>
       </c>
       <c r="C12" t="n">
-        <v>15.7682</v>
+        <v>15.6239</v>
       </c>
       <c r="D12" t="n">
-        <v>17.5415</v>
+        <v>17.7201</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4687</v>
+        <v>12.3164</v>
       </c>
       <c r="C13" t="n">
-        <v>15.7969</v>
+        <v>15.8717</v>
       </c>
       <c r="D13" t="n">
-        <v>17.855</v>
+        <v>18.0548</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.3441</v>
+        <v>12.5464</v>
       </c>
       <c r="C14" t="n">
-        <v>16.2405</v>
+        <v>16.2439</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3695</v>
+        <v>18.3591</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.57</v>
+        <v>12.4909</v>
       </c>
       <c r="C15" t="n">
-        <v>16.4953</v>
+        <v>16.5539</v>
       </c>
       <c r="D15" t="n">
-        <v>18.5859</v>
+        <v>18.5906</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.8694</v>
+        <v>12.8153</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4171</v>
+        <v>16.5307</v>
       </c>
       <c r="D16" t="n">
-        <v>19.1038</v>
+        <v>19.2038</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7203</v>
+        <v>12.8584</v>
       </c>
       <c r="C17" t="n">
-        <v>16.4185</v>
+        <v>16.3819</v>
       </c>
       <c r="D17" t="n">
-        <v>18.9024</v>
+        <v>18.9119</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.9842</v>
+        <v>4.98492</v>
       </c>
       <c r="C2" t="n">
-        <v>4.97594</v>
+        <v>4.97164</v>
       </c>
       <c r="D2" t="n">
-        <v>5.33996</v>
+        <v>5.34011</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.75318</v>
+        <v>5.73281</v>
       </c>
       <c r="C3" t="n">
-        <v>5.80309</v>
+        <v>5.8192</v>
       </c>
       <c r="D3" t="n">
-        <v>7.65371</v>
+        <v>7.60547</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.16602</v>
+        <v>7.20773</v>
       </c>
       <c r="C4" t="n">
-        <v>7.60836</v>
+        <v>7.59252</v>
       </c>
       <c r="D4" t="n">
-        <v>10.1549</v>
+        <v>10.1835</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.49427</v>
+        <v>8.48935</v>
       </c>
       <c r="C5" t="n">
-        <v>9.41958</v>
+        <v>9.3514</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3689</v>
+        <v>12.2411</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.89165</v>
+        <v>9.700150000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3194</v>
+        <v>11.1871</v>
       </c>
       <c r="D6" t="n">
-        <v>14.5728</v>
+        <v>14.364</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2119</v>
+        <v>11.2134</v>
       </c>
       <c r="C7" t="n">
-        <v>13.194</v>
+        <v>13.1872</v>
       </c>
       <c r="D7" t="n">
-        <v>16.5779</v>
+        <v>16.5284</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5565</v>
+        <v>12.5676</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2272</v>
+        <v>15.2086</v>
       </c>
       <c r="D8" t="n">
-        <v>18.623</v>
+        <v>18.5206</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.2249</v>
+        <v>14.2153</v>
       </c>
       <c r="C9" t="n">
-        <v>16.7997</v>
+        <v>16.8252</v>
       </c>
       <c r="D9" t="n">
-        <v>20.7999</v>
+        <v>20.6746</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0813</v>
+        <v>12.034</v>
       </c>
       <c r="C10" t="n">
-        <v>14.5548</v>
+        <v>14.6187</v>
       </c>
       <c r="D10" t="n">
-        <v>16.8582</v>
+        <v>16.6361</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9529</v>
+        <v>11.9283</v>
       </c>
       <c r="C11" t="n">
-        <v>13.9743</v>
+        <v>14.0485</v>
       </c>
       <c r="D11" t="n">
-        <v>16.71</v>
+        <v>16.7571</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1213</v>
+        <v>11.871</v>
       </c>
       <c r="C12" t="n">
-        <v>14.0557</v>
+        <v>14.008</v>
       </c>
       <c r="D12" t="n">
-        <v>16.8446</v>
+        <v>17.0018</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.358</v>
+        <v>12.2302</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1599</v>
+        <v>14.3221</v>
       </c>
       <c r="D13" t="n">
-        <v>17.3648</v>
+        <v>17.3227</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.6029</v>
+        <v>12.6077</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5318</v>
+        <v>14.5961</v>
       </c>
       <c r="D14" t="n">
-        <v>18.0338</v>
+        <v>17.9654</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.9086</v>
+        <v>12.8417</v>
       </c>
       <c r="C15" t="n">
-        <v>14.762</v>
+        <v>14.8546</v>
       </c>
       <c r="D15" t="n">
-        <v>19.1356</v>
+        <v>19.0118</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.0229</v>
+        <v>13.1763</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8993</v>
+        <v>14.8031</v>
       </c>
       <c r="D16" t="n">
-        <v>19.5179</v>
+        <v>19.5548</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.1776</v>
+        <v>13.0808</v>
       </c>
       <c r="C17" t="n">
-        <v>14.8465</v>
+        <v>14.9074</v>
       </c>
       <c r="D17" t="n">
-        <v>20.3964</v>
+        <v>20.2105</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9049</v>
+        <v>3.89658</v>
       </c>
       <c r="C2" t="n">
-        <v>4.42907</v>
+        <v>4.43201</v>
       </c>
       <c r="D2" t="n">
-        <v>4.74646</v>
+        <v>4.74635</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.09183</v>
+        <v>4.94824</v>
       </c>
       <c r="C3" t="n">
-        <v>5.52348</v>
+        <v>5.53346</v>
       </c>
       <c r="D3" t="n">
-        <v>6.89331</v>
+        <v>6.89367</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.13683</v>
+        <v>6.10106</v>
       </c>
       <c r="C4" t="n">
-        <v>7.1794</v>
+        <v>7.0909</v>
       </c>
       <c r="D4" t="n">
-        <v>8.821</v>
+        <v>8.80705</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.12672</v>
+        <v>7.10206</v>
       </c>
       <c r="C5" t="n">
-        <v>8.887180000000001</v>
+        <v>8.785170000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.369</v>
+        <v>10.335</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.292619999999999</v>
+        <v>8.321529999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6773</v>
+        <v>10.5414</v>
       </c>
       <c r="D6" t="n">
-        <v>12.0323</v>
+        <v>12.0298</v>
       </c>
     </row>
     <row r="7">
@@ -4949,10 +4949,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.375389999999999</v>
+        <v>9.39326</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5027</v>
+        <v>12.3622</v>
       </c>
       <c r="D7" t="n">
         <v>13.4843</v>
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.3414</v>
+        <v>10.3379</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5087</v>
+        <v>14.367</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7893</v>
+        <v>14.7627</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.948</v>
+        <v>11.923</v>
       </c>
       <c r="C9" t="n">
-        <v>16.4561</v>
+        <v>16.4333</v>
       </c>
       <c r="D9" t="n">
-        <v>16.9929</v>
+        <v>16.956</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.6318</v>
+        <v>10.6392</v>
       </c>
       <c r="C10" t="n">
-        <v>13.9879</v>
+        <v>14.0538</v>
       </c>
       <c r="D10" t="n">
-        <v>14.7929</v>
+        <v>15.2186</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.8876</v>
+        <v>10.7338</v>
       </c>
       <c r="C11" t="n">
-        <v>14.4664</v>
+        <v>14.3507</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2657</v>
+        <v>15.0941</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.9937</v>
+        <v>11.0059</v>
       </c>
       <c r="C12" t="n">
-        <v>14.8659</v>
+        <v>14.9634</v>
       </c>
       <c r="D12" t="n">
-        <v>15.5489</v>
+        <v>15.4615</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.2118</v>
+        <v>11.1261</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3538</v>
+        <v>15.2673</v>
       </c>
       <c r="D13" t="n">
-        <v>15.8335</v>
+        <v>15.6889</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.2981</v>
+        <v>11.3898</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4741</v>
+        <v>15.4772</v>
       </c>
       <c r="D14" t="n">
-        <v>15.7784</v>
+        <v>15.4415</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.4605</v>
+        <v>11.5534</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6071</v>
+        <v>15.4943</v>
       </c>
       <c r="D15" t="n">
-        <v>15.4461</v>
+        <v>15.5804</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5206</v>
+        <v>11.465</v>
       </c>
       <c r="C16" t="n">
-        <v>15.763</v>
+        <v>15.4884</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9725</v>
+        <v>15.8831</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.4127</v>
+        <v>11.3825</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7538</v>
+        <v>15.7998</v>
       </c>
       <c r="D17" t="n">
-        <v>14.7876</v>
+        <v>14.4475</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.44988</v>
+        <v>5.4458</v>
       </c>
       <c r="C2" t="n">
-        <v>6.48822</v>
+        <v>6.49244</v>
       </c>
       <c r="D2" t="n">
-        <v>7.05482</v>
+        <v>7.05596</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.26386</v>
+        <v>5.86185</v>
       </c>
       <c r="C3" t="n">
-        <v>6.90006</v>
+        <v>6.62065</v>
       </c>
       <c r="D3" t="n">
-        <v>8.885719999999999</v>
+        <v>8.67062</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.29144</v>
+        <v>7.04159</v>
       </c>
       <c r="C4" t="n">
-        <v>8.647919999999999</v>
+        <v>8.5152</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7631</v>
+        <v>10.8284</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.23138</v>
+        <v>8.24207</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3926</v>
+        <v>10.3509</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3654</v>
+        <v>12.3892</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.77886</v>
+        <v>9.584849999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5101</v>
+        <v>12.5013</v>
       </c>
       <c r="D6" t="n">
-        <v>14.2303</v>
+        <v>14.1917</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.9835</v>
+        <v>10.952</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5808</v>
+        <v>14.5618</v>
       </c>
       <c r="D7" t="n">
-        <v>15.7991</v>
+        <v>15.7856</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0746</v>
+        <v>12.0768</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8848</v>
+        <v>16.8553</v>
       </c>
       <c r="D8" t="n">
-        <v>17.2671</v>
+        <v>17.2524</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7746</v>
+        <v>13.8084</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3327</v>
+        <v>19.3596</v>
       </c>
       <c r="D9" t="n">
-        <v>19.6064</v>
+        <v>19.6384</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.2855</v>
+        <v>12.4733</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7158</v>
+        <v>16.5109</v>
       </c>
       <c r="D10" t="n">
-        <v>17.4687</v>
+        <v>17.5885</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.5615</v>
+        <v>12.6795</v>
       </c>
       <c r="C11" t="n">
-        <v>16.8736</v>
+        <v>16.7582</v>
       </c>
       <c r="D11" t="n">
-        <v>17.811</v>
+        <v>17.729</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.6839</v>
+        <v>12.7602</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4246</v>
+        <v>17.5657</v>
       </c>
       <c r="D12" t="n">
-        <v>17.9187</v>
+        <v>18.0852</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.9969</v>
+        <v>12.8947</v>
       </c>
       <c r="C13" t="n">
-        <v>17.8544</v>
+        <v>17.9836</v>
       </c>
       <c r="D13" t="n">
-        <v>18.2286</v>
+        <v>18.1247</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.9883</v>
+        <v>13.0643</v>
       </c>
       <c r="C14" t="n">
-        <v>17.827</v>
+        <v>18.2552</v>
       </c>
       <c r="D14" t="n">
-        <v>18.0773</v>
+        <v>18.2479</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3443</v>
+        <v>13.2307</v>
       </c>
       <c r="C15" t="n">
-        <v>18.0891</v>
+        <v>18.3151</v>
       </c>
       <c r="D15" t="n">
-        <v>17.6355</v>
+        <v>17.9784</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.2939</v>
+        <v>13.1942</v>
       </c>
       <c r="C16" t="n">
-        <v>18.3043</v>
+        <v>18.3036</v>
       </c>
       <c r="D16" t="n">
-        <v>17.7578</v>
+        <v>17.7426</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.1526</v>
+        <v>13.0783</v>
       </c>
       <c r="C17" t="n">
-        <v>18.569</v>
+        <v>18.4344</v>
       </c>
       <c r="D17" t="n">
-        <v>17.4044</v>
+        <v>17.8225</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.75949</v>
+        <v>4.74904</v>
       </c>
       <c r="C2" t="n">
-        <v>4.88217</v>
+        <v>4.8797</v>
       </c>
       <c r="D2" t="n">
-        <v>5.20287</v>
+        <v>5.20345</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.79581</v>
+        <v>5.68142</v>
       </c>
       <c r="C3" t="n">
-        <v>5.82107</v>
+        <v>5.7921</v>
       </c>
       <c r="D3" t="n">
-        <v>7.6859</v>
+        <v>7.57355</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.30668</v>
+        <v>7.04989</v>
       </c>
       <c r="C4" t="n">
-        <v>7.64946</v>
+        <v>7.60908</v>
       </c>
       <c r="D4" t="n">
-        <v>10.3206</v>
+        <v>10.3092</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.366199999999999</v>
+        <v>8.753450000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.253080000000001</v>
+        <v>9.43956</v>
       </c>
       <c r="D5" t="n">
-        <v>12.4784</v>
+        <v>12.7132</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.90174</v>
+        <v>9.940720000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>11.2215</v>
+        <v>11.2547</v>
       </c>
       <c r="D6" t="n">
-        <v>14.849</v>
+        <v>14.9511</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.4401</v>
+        <v>11.6211</v>
       </c>
       <c r="C7" t="n">
-        <v>13.2727</v>
+        <v>13.0828</v>
       </c>
       <c r="D7" t="n">
-        <v>17.0938</v>
+        <v>17.2058</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3657</v>
+        <v>13.0982</v>
       </c>
       <c r="C8" t="n">
-        <v>15.5121</v>
+        <v>15.0537</v>
       </c>
       <c r="D8" t="n">
-        <v>19.9013</v>
+        <v>19.3764</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.029</v>
+        <v>15.0329</v>
       </c>
       <c r="C9" t="n">
-        <v>17.4006</v>
+        <v>17.2327</v>
       </c>
       <c r="D9" t="n">
-        <v>22.4621</v>
+        <v>22.517</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.116</v>
+        <v>13.3139</v>
       </c>
       <c r="C10" t="n">
-        <v>14.8468</v>
+        <v>14.598</v>
       </c>
       <c r="D10" t="n">
-        <v>19.1174</v>
+        <v>19.0619</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.3797</v>
+        <v>13.4156</v>
       </c>
       <c r="C11" t="n">
-        <v>15.1768</v>
+        <v>14.9481</v>
       </c>
       <c r="D11" t="n">
-        <v>19.3709</v>
+        <v>19.2426</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.8629</v>
+        <v>13.7659</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6757</v>
+        <v>15.6778</v>
       </c>
       <c r="D12" t="n">
-        <v>20.0961</v>
+        <v>20.1748</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.9611</v>
+        <v>14.0269</v>
       </c>
       <c r="C13" t="n">
-        <v>16.0136</v>
+        <v>16.131</v>
       </c>
       <c r="D13" t="n">
-        <v>20.2331</v>
+        <v>20.3935</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.037</v>
+        <v>14.0203</v>
       </c>
       <c r="C14" t="n">
-        <v>16.0543</v>
+        <v>16.2205</v>
       </c>
       <c r="D14" t="n">
-        <v>20.4316</v>
+        <v>20.6137</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4886</v>
+        <v>14.5911</v>
       </c>
       <c r="C15" t="n">
-        <v>16.3293</v>
+        <v>16.2576</v>
       </c>
       <c r="D15" t="n">
-        <v>20.1847</v>
+        <v>20.8243</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3465</v>
+        <v>14.4667</v>
       </c>
       <c r="C16" t="n">
-        <v>16.5859</v>
+        <v>16.5506</v>
       </c>
       <c r="D16" t="n">
-        <v>20.5383</v>
+        <v>19.3576</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1477</v>
+        <v>14.1552</v>
       </c>
       <c r="C17" t="n">
-        <v>16.6675</v>
+        <v>16.6945</v>
       </c>
       <c r="D17" t="n">
-        <v>19.6669</v>
+        <v>18.74</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.24162</v>
+        <v>4.22462</v>
       </c>
       <c r="C2" t="n">
-        <v>4.55156</v>
+        <v>4.52379</v>
       </c>
       <c r="D2" t="n">
-        <v>4.93777</v>
+        <v>4.92578</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.05401</v>
+        <v>4.94474</v>
       </c>
       <c r="C3" t="n">
-        <v>5.40359</v>
+        <v>5.40274</v>
       </c>
       <c r="D3" t="n">
-        <v>7.05359</v>
+        <v>7.16456</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.25792</v>
+        <v>6.24093</v>
       </c>
       <c r="C4" t="n">
-        <v>7.07863</v>
+        <v>7.08912</v>
       </c>
       <c r="D4" t="n">
-        <v>9.142720000000001</v>
+        <v>9.07569</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.05681</v>
+        <v>7.20823</v>
       </c>
       <c r="C5" t="n">
-        <v>8.858790000000001</v>
+        <v>8.82053</v>
       </c>
       <c r="D5" t="n">
-        <v>10.7224</v>
+        <v>10.6595</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.48301</v>
+        <v>8.454280000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.7693</v>
+        <v>10.7121</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3639</v>
+        <v>12.4257</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.57349</v>
+        <v>9.566090000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>12.6009</v>
+        <v>12.615</v>
       </c>
       <c r="D7" t="n">
-        <v>13.9067</v>
+        <v>13.9022</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.5614</v>
+        <v>10.5845</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6844</v>
+        <v>14.6244</v>
       </c>
       <c r="D8" t="n">
-        <v>15.2746</v>
+        <v>15.2802</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.1081</v>
+        <v>12.1326</v>
       </c>
       <c r="C9" t="n">
-        <v>16.4818</v>
+        <v>16.3693</v>
       </c>
       <c r="D9" t="n">
-        <v>16.9401</v>
+        <v>16.9103</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.7319</v>
+        <v>10.5881</v>
       </c>
       <c r="C10" t="n">
-        <v>14.1261</v>
+        <v>14.0225</v>
       </c>
       <c r="D10" t="n">
-        <v>14.9581</v>
+        <v>15.1153</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.5589</v>
+        <v>10.3214</v>
       </c>
       <c r="C11" t="n">
-        <v>13.5073</v>
+        <v>13.5723</v>
       </c>
       <c r="D11" t="n">
-        <v>15.1428</v>
+        <v>15.0732</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.5709</v>
+        <v>10.4367</v>
       </c>
       <c r="C12" t="n">
-        <v>13.8891</v>
+        <v>13.6335</v>
       </c>
       <c r="D12" t="n">
-        <v>15.3685</v>
+        <v>15.5141</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.6294</v>
+        <v>10.7229</v>
       </c>
       <c r="C13" t="n">
-        <v>13.8178</v>
+        <v>13.9329</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>15.9745</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.0295</v>
+        <v>10.7437</v>
       </c>
       <c r="C14" t="n">
-        <v>14.1112</v>
+        <v>14.0021</v>
       </c>
       <c r="D14" t="n">
-        <v>15.7161</v>
+        <v>15.6274</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0109</v>
+        <v>10.7699</v>
       </c>
       <c r="C15" t="n">
-        <v>14.2575</v>
+        <v>14.388</v>
       </c>
       <c r="D15" t="n">
-        <v>15.9877</v>
+        <v>15.8581</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.0723</v>
+        <v>10.944</v>
       </c>
       <c r="C16" t="n">
-        <v>14.5183</v>
+        <v>14.5276</v>
       </c>
       <c r="D16" t="n">
-        <v>16.4538</v>
+        <v>15.9983</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.9597</v>
+        <v>10.8179</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4063</v>
+        <v>14.4947</v>
       </c>
       <c r="D17" t="n">
-        <v>15.9912</v>
+        <v>16.008</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.08109</v>
+        <v>6.0468</v>
       </c>
       <c r="C2" t="n">
-        <v>6.70163</v>
+        <v>6.70023</v>
       </c>
       <c r="D2" t="n">
-        <v>7.46048</v>
+        <v>7.44873</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24811</v>
+        <v>6.30279</v>
       </c>
       <c r="C3" t="n">
-        <v>6.67713</v>
+        <v>6.70531</v>
       </c>
       <c r="D3" t="n">
-        <v>9.064450000000001</v>
+        <v>9.10515</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.46888</v>
+        <v>7.20463</v>
       </c>
       <c r="C4" t="n">
-        <v>8.593819999999999</v>
+        <v>8.5159</v>
       </c>
       <c r="D4" t="n">
-        <v>11.2448</v>
+        <v>11.1109</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.667920000000001</v>
+        <v>8.4278</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5857</v>
+        <v>10.3706</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9249</v>
+        <v>12.9165</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0147</v>
+        <v>9.97706</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6766</v>
+        <v>12.5787</v>
       </c>
       <c r="D6" t="n">
-        <v>14.8799</v>
+        <v>14.7609</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2417</v>
+        <v>11.2306</v>
       </c>
       <c r="C7" t="n">
-        <v>14.8561</v>
+        <v>14.8466</v>
       </c>
       <c r="D7" t="n">
-        <v>16.4154</v>
+        <v>16.519</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.3567</v>
+        <v>12.3355</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2089</v>
+        <v>17.1901</v>
       </c>
       <c r="D8" t="n">
-        <v>17.933</v>
+        <v>18.0484</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.9772</v>
+        <v>13.9026</v>
       </c>
       <c r="C9" t="n">
-        <v>19.1585</v>
+        <v>19.2523</v>
       </c>
       <c r="D9" t="n">
-        <v>19.6001</v>
+        <v>19.6247</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.3417</v>
+        <v>12.4405</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6557</v>
+        <v>16.7417</v>
       </c>
       <c r="D10" t="n">
-        <v>17.9418</v>
+        <v>17.9008</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.2427</v>
+        <v>12.2198</v>
       </c>
       <c r="C11" t="n">
-        <v>15.605</v>
+        <v>15.7414</v>
       </c>
       <c r="D11" t="n">
-        <v>17.7189</v>
+        <v>17.7726</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3631</v>
+        <v>12.3306</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6239</v>
+        <v>15.6734</v>
       </c>
       <c r="D12" t="n">
-        <v>17.7201</v>
+        <v>17.9274</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3164</v>
+        <v>12.4854</v>
       </c>
       <c r="C13" t="n">
-        <v>15.8717</v>
+        <v>15.8526</v>
       </c>
       <c r="D13" t="n">
-        <v>18.0548</v>
+        <v>18.0349</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5464</v>
+        <v>12.3239</v>
       </c>
       <c r="C14" t="n">
-        <v>16.2439</v>
+        <v>16.1576</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3591</v>
+        <v>18.3852</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4909</v>
+        <v>12.5159</v>
       </c>
       <c r="C15" t="n">
-        <v>16.5539</v>
+        <v>16.2889</v>
       </c>
       <c r="D15" t="n">
-        <v>18.5906</v>
+        <v>18.6568</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.8153</v>
+        <v>12.6113</v>
       </c>
       <c r="C16" t="n">
-        <v>16.5307</v>
+        <v>16.563</v>
       </c>
       <c r="D16" t="n">
-        <v>19.2038</v>
+        <v>19.2961</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.8584</v>
+        <v>12.7067</v>
       </c>
       <c r="C17" t="n">
-        <v>16.3819</v>
+        <v>16.4536</v>
       </c>
       <c r="D17" t="n">
-        <v>18.9119</v>
+        <v>18.9188</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.98492</v>
+        <v>4.96376</v>
       </c>
       <c r="C2" t="n">
-        <v>4.97164</v>
+        <v>4.97121</v>
       </c>
       <c r="D2" t="n">
-        <v>5.34011</v>
+        <v>5.33651</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.73281</v>
+        <v>5.90299</v>
       </c>
       <c r="C3" t="n">
-        <v>5.8192</v>
+        <v>5.94151</v>
       </c>
       <c r="D3" t="n">
-        <v>7.60547</v>
+        <v>7.69563</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.20773</v>
+        <v>7.03053</v>
       </c>
       <c r="C4" t="n">
-        <v>7.59252</v>
+        <v>7.46001</v>
       </c>
       <c r="D4" t="n">
-        <v>10.1835</v>
+        <v>10.0806</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.48935</v>
+        <v>8.5099</v>
       </c>
       <c r="C5" t="n">
-        <v>9.3514</v>
+        <v>9.352830000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2411</v>
+        <v>12.1708</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.700150000000001</v>
+        <v>9.89842</v>
       </c>
       <c r="C6" t="n">
-        <v>11.1871</v>
+        <v>11.3292</v>
       </c>
       <c r="D6" t="n">
-        <v>14.364</v>
+        <v>14.4961</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2134</v>
+        <v>11.188</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1872</v>
+        <v>13.1916</v>
       </c>
       <c r="D7" t="n">
-        <v>16.5284</v>
+        <v>16.5001</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5676</v>
+        <v>12.4841</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2086</v>
+        <v>15.1809</v>
       </c>
       <c r="D8" t="n">
-        <v>18.5206</v>
+        <v>18.4076</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.2153</v>
+        <v>14.1776</v>
       </c>
       <c r="C9" t="n">
-        <v>16.8252</v>
+        <v>16.816</v>
       </c>
       <c r="D9" t="n">
-        <v>20.6746</v>
+        <v>20.7026</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.034</v>
+        <v>12.083</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6187</v>
+        <v>14.6413</v>
       </c>
       <c r="D10" t="n">
-        <v>16.6361</v>
+        <v>16.8536</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9283</v>
+        <v>11.9758</v>
       </c>
       <c r="C11" t="n">
-        <v>14.0485</v>
+        <v>13.9017</v>
       </c>
       <c r="D11" t="n">
-        <v>16.7571</v>
+        <v>16.7549</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.871</v>
+        <v>11.9987</v>
       </c>
       <c r="C12" t="n">
-        <v>14.008</v>
+        <v>13.9951</v>
       </c>
       <c r="D12" t="n">
-        <v>17.0018</v>
+        <v>16.9222</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2302</v>
+        <v>12.292</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3221</v>
+        <v>14.2105</v>
       </c>
       <c r="D13" t="n">
-        <v>17.3227</v>
+        <v>17.3591</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.6077</v>
+        <v>12.5375</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5961</v>
+        <v>14.6027</v>
       </c>
       <c r="D14" t="n">
-        <v>17.9654</v>
+        <v>17.7942</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.8417</v>
+        <v>12.8475</v>
       </c>
       <c r="C15" t="n">
-        <v>14.8546</v>
+        <v>14.7117</v>
       </c>
       <c r="D15" t="n">
-        <v>19.0118</v>
+        <v>18.7746</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1763</v>
+        <v>13.1092</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8031</v>
+        <v>14.8489</v>
       </c>
       <c r="D16" t="n">
-        <v>19.5548</v>
+        <v>19.5363</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0808</v>
+        <v>13.0073</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9074</v>
+        <v>14.7708</v>
       </c>
       <c r="D17" t="n">
-        <v>20.2105</v>
+        <v>20.3127</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.89658</v>
+        <v>3.89208</v>
       </c>
       <c r="C2" t="n">
-        <v>4.43201</v>
+        <v>4.39622</v>
       </c>
       <c r="D2" t="n">
-        <v>4.74635</v>
+        <v>4.74097</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.94824</v>
+        <v>4.83756</v>
       </c>
       <c r="C3" t="n">
-        <v>5.53346</v>
+        <v>5.32012</v>
       </c>
       <c r="D3" t="n">
-        <v>6.89367</v>
+        <v>6.78484</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.10106</v>
+        <v>6.15431</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0909</v>
+        <v>7.17071</v>
       </c>
       <c r="D4" t="n">
-        <v>8.80705</v>
+        <v>8.85073</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.10206</v>
+        <v>7.17608</v>
       </c>
       <c r="C5" t="n">
-        <v>8.785170000000001</v>
+        <v>8.836270000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.335</v>
+        <v>10.3913</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.321529999999999</v>
+        <v>8.291270000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.5414</v>
+        <v>10.5808</v>
       </c>
       <c r="D6" t="n">
-        <v>12.0298</v>
+        <v>12.0323</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.39326</v>
+        <v>9.33028</v>
       </c>
       <c r="C7" t="n">
-        <v>12.3622</v>
+        <v>12.3157</v>
       </c>
       <c r="D7" t="n">
-        <v>13.4843</v>
+        <v>13.4517</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.3379</v>
+        <v>10.3002</v>
       </c>
       <c r="C8" t="n">
-        <v>14.367</v>
+        <v>14.2321</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7627</v>
+        <v>14.7842</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.923</v>
+        <v>11.9431</v>
       </c>
       <c r="C9" t="n">
-        <v>16.4333</v>
+        <v>16.432</v>
       </c>
       <c r="D9" t="n">
-        <v>16.956</v>
+        <v>16.9459</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.6392</v>
+        <v>10.5619</v>
       </c>
       <c r="C10" t="n">
-        <v>14.0538</v>
+        <v>14.1207</v>
       </c>
       <c r="D10" t="n">
-        <v>15.2186</v>
+        <v>14.6931</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.7338</v>
+        <v>10.8718</v>
       </c>
       <c r="C11" t="n">
-        <v>14.3507</v>
+        <v>14.2806</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0941</v>
+        <v>15.1267</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.0059</v>
+        <v>11.0406</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9634</v>
+        <v>14.9638</v>
       </c>
       <c r="D12" t="n">
-        <v>15.4615</v>
+        <v>15.5786</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.1261</v>
+        <v>11.2795</v>
       </c>
       <c r="C13" t="n">
-        <v>15.2673</v>
+        <v>15.335</v>
       </c>
       <c r="D13" t="n">
-        <v>15.6889</v>
+        <v>15.6011</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.3898</v>
+        <v>11.3452</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4772</v>
+        <v>15.4337</v>
       </c>
       <c r="D14" t="n">
-        <v>15.4415</v>
+        <v>15.9058</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5534</v>
+        <v>11.4904</v>
       </c>
       <c r="C15" t="n">
-        <v>15.4943</v>
+        <v>15.5991</v>
       </c>
       <c r="D15" t="n">
-        <v>15.5804</v>
+        <v>15.4909</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.465</v>
+        <v>11.4877</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4884</v>
+        <v>15.5772</v>
       </c>
       <c r="D16" t="n">
-        <v>15.8831</v>
+        <v>14.7968</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.3825</v>
+        <v>11.372</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7998</v>
+        <v>15.6977</v>
       </c>
       <c r="D17" t="n">
-        <v>14.4475</v>
+        <v>14.9441</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.4458</v>
+        <v>5.452</v>
       </c>
       <c r="C2" t="n">
-        <v>6.49244</v>
+        <v>6.48734</v>
       </c>
       <c r="D2" t="n">
-        <v>7.05596</v>
+        <v>7.05851</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.86185</v>
+        <v>6.17185</v>
       </c>
       <c r="C3" t="n">
-        <v>6.62065</v>
+        <v>6.75359</v>
       </c>
       <c r="D3" t="n">
-        <v>8.67062</v>
+        <v>8.76515</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.04159</v>
+        <v>7.11558</v>
       </c>
       <c r="C4" t="n">
-        <v>8.5152</v>
+        <v>8.46359</v>
       </c>
       <c r="D4" t="n">
-        <v>10.8284</v>
+        <v>10.695</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.24207</v>
+        <v>8.41235</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3509</v>
+        <v>10.3484</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3892</v>
+        <v>12.4307</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.584849999999999</v>
+        <v>9.558920000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5013</v>
+        <v>12.532</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1917</v>
+        <v>14.1997</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.952</v>
+        <v>10.9704</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5618</v>
+        <v>14.8065</v>
       </c>
       <c r="D7" t="n">
-        <v>15.7856</v>
+        <v>15.8329</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0768</v>
+        <v>12.0454</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8553</v>
+        <v>16.8208</v>
       </c>
       <c r="D8" t="n">
-        <v>17.2524</v>
+        <v>17.2768</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.8084</v>
+        <v>13.7215</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3596</v>
+        <v>19.3456</v>
       </c>
       <c r="D9" t="n">
-        <v>19.6384</v>
+        <v>19.6026</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4733</v>
+        <v>12.4137</v>
       </c>
       <c r="C10" t="n">
-        <v>16.5109</v>
+        <v>16.7542</v>
       </c>
       <c r="D10" t="n">
-        <v>17.5885</v>
+        <v>17.3097</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.6795</v>
+        <v>12.5382</v>
       </c>
       <c r="C11" t="n">
-        <v>16.7582</v>
+        <v>16.8885</v>
       </c>
       <c r="D11" t="n">
-        <v>17.729</v>
+        <v>17.8082</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.7602</v>
+        <v>12.6974</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5657</v>
+        <v>17.499</v>
       </c>
       <c r="D12" t="n">
-        <v>18.0852</v>
+        <v>17.9782</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.8947</v>
+        <v>12.9836</v>
       </c>
       <c r="C13" t="n">
-        <v>17.9836</v>
+        <v>17.9583</v>
       </c>
       <c r="D13" t="n">
-        <v>18.1247</v>
+        <v>18.2652</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0643</v>
+        <v>12.9843</v>
       </c>
       <c r="C14" t="n">
-        <v>18.2552</v>
+        <v>17.9392</v>
       </c>
       <c r="D14" t="n">
-        <v>18.2479</v>
+        <v>17.9671</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.2307</v>
+        <v>13.2689</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3151</v>
+        <v>18.3566</v>
       </c>
       <c r="D15" t="n">
-        <v>17.9784</v>
+        <v>18.0137</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1942</v>
+        <v>13.2578</v>
       </c>
       <c r="C16" t="n">
-        <v>18.3036</v>
+        <v>18.3793</v>
       </c>
       <c r="D16" t="n">
-        <v>17.7426</v>
+        <v>17.8078</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0783</v>
+        <v>13.0249</v>
       </c>
       <c r="C17" t="n">
-        <v>18.4344</v>
+        <v>18.237</v>
       </c>
       <c r="D17" t="n">
-        <v>17.8225</v>
+        <v>17.9175</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.74904</v>
+        <v>4.73515</v>
       </c>
       <c r="C2" t="n">
-        <v>4.8797</v>
+        <v>4.88688</v>
       </c>
       <c r="D2" t="n">
-        <v>5.20345</v>
+        <v>5.1982</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.68142</v>
+        <v>5.78278</v>
       </c>
       <c r="C3" t="n">
-        <v>5.7921</v>
+        <v>5.81635</v>
       </c>
       <c r="D3" t="n">
-        <v>7.57355</v>
+        <v>7.64699</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.04989</v>
+        <v>7.30082</v>
       </c>
       <c r="C4" t="n">
-        <v>7.60908</v>
+        <v>7.63757</v>
       </c>
       <c r="D4" t="n">
-        <v>10.3092</v>
+        <v>10.2874</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.753450000000001</v>
+        <v>8.487880000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.43956</v>
+        <v>9.333299999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>12.7132</v>
+        <v>12.4438</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.940720000000001</v>
+        <v>9.96428</v>
       </c>
       <c r="C6" t="n">
-        <v>11.2547</v>
+        <v>11.245</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9511</v>
+        <v>14.7516</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.6211</v>
+        <v>11.4257</v>
       </c>
       <c r="C7" t="n">
-        <v>13.0828</v>
+        <v>13.2788</v>
       </c>
       <c r="D7" t="n">
-        <v>17.2058</v>
+        <v>17.0091</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0982</v>
+        <v>13.273</v>
       </c>
       <c r="C8" t="n">
-        <v>15.0537</v>
+        <v>15.5214</v>
       </c>
       <c r="D8" t="n">
-        <v>19.3764</v>
+        <v>19.7411</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.0329</v>
+        <v>14.9636</v>
       </c>
       <c r="C9" t="n">
-        <v>17.2327</v>
+        <v>17.247</v>
       </c>
       <c r="D9" t="n">
-        <v>22.517</v>
+        <v>22.3539</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.3139</v>
+        <v>13.3105</v>
       </c>
       <c r="C10" t="n">
-        <v>14.598</v>
+        <v>14.9325</v>
       </c>
       <c r="D10" t="n">
-        <v>19.0619</v>
+        <v>19.0965</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.4156</v>
+        <v>13.4347</v>
       </c>
       <c r="C11" t="n">
-        <v>14.9481</v>
+        <v>15.0812</v>
       </c>
       <c r="D11" t="n">
-        <v>19.2426</v>
+        <v>19.4776</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.7659</v>
+        <v>13.6636</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6778</v>
+        <v>15.8115</v>
       </c>
       <c r="D12" t="n">
-        <v>20.1748</v>
+        <v>20.3127</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.0269</v>
+        <v>13.7807</v>
       </c>
       <c r="C13" t="n">
-        <v>16.131</v>
+        <v>16.0775</v>
       </c>
       <c r="D13" t="n">
-        <v>20.3935</v>
+        <v>20.3175</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.0203</v>
+        <v>14.1745</v>
       </c>
       <c r="C14" t="n">
-        <v>16.2205</v>
+        <v>16.2366</v>
       </c>
       <c r="D14" t="n">
-        <v>20.6137</v>
+        <v>20.0375</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5911</v>
+        <v>14.2683</v>
       </c>
       <c r="C15" t="n">
-        <v>16.2576</v>
+        <v>16.2975</v>
       </c>
       <c r="D15" t="n">
-        <v>20.8243</v>
+        <v>20.124</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4667</v>
+        <v>14.2416</v>
       </c>
       <c r="C16" t="n">
-        <v>16.5506</v>
+        <v>16.5743</v>
       </c>
       <c r="D16" t="n">
-        <v>19.3576</v>
+        <v>20.1526</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1552</v>
+        <v>14.2997</v>
       </c>
       <c r="C17" t="n">
-        <v>16.6945</v>
+        <v>16.5945</v>
       </c>
       <c r="D17" t="n">
-        <v>18.74</v>
+        <v>18.8079</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.22462</v>
+        <v>4.43364</v>
       </c>
       <c r="C2" t="n">
-        <v>4.52379</v>
+        <v>4.4132</v>
       </c>
       <c r="D2" t="n">
-        <v>4.92578</v>
+        <v>4.68915</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.94474</v>
+        <v>5.96316</v>
       </c>
       <c r="C3" t="n">
-        <v>5.40274</v>
+        <v>5.41968</v>
       </c>
       <c r="D3" t="n">
-        <v>7.16456</v>
+        <v>6.83285</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.24093</v>
+        <v>7.67388</v>
       </c>
       <c r="C4" t="n">
-        <v>7.08912</v>
+        <v>7.17245</v>
       </c>
       <c r="D4" t="n">
-        <v>9.07569</v>
+        <v>9.07673</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.20823</v>
+        <v>9.457789999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.82053</v>
+        <v>8.95894</v>
       </c>
       <c r="D5" t="n">
-        <v>10.6595</v>
+        <v>10.8509</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.454280000000001</v>
+        <v>10.7579</v>
       </c>
       <c r="C6" t="n">
-        <v>10.7121</v>
+        <v>10.692</v>
       </c>
       <c r="D6" t="n">
-        <v>12.4257</v>
+        <v>12.8682</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.566090000000001</v>
+        <v>12.8337</v>
       </c>
       <c r="C7" t="n">
-        <v>12.615</v>
+        <v>12.7025</v>
       </c>
       <c r="D7" t="n">
-        <v>13.9022</v>
+        <v>14.5737</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.5845</v>
+        <v>14.3716</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6244</v>
+        <v>14.5491</v>
       </c>
       <c r="D8" t="n">
-        <v>15.2802</v>
+        <v>15.9224</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.1326</v>
+        <v>16.9053</v>
       </c>
       <c r="C9" t="n">
-        <v>16.3693</v>
+        <v>16.8159</v>
       </c>
       <c r="D9" t="n">
-        <v>16.9103</v>
+        <v>18.5197</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.5881</v>
+        <v>14.051</v>
       </c>
       <c r="C10" t="n">
-        <v>14.0225</v>
+        <v>14.2036</v>
       </c>
       <c r="D10" t="n">
-        <v>15.1153</v>
+        <v>16.0031</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.3214</v>
+        <v>14.3779</v>
       </c>
       <c r="C11" t="n">
-        <v>13.5723</v>
+        <v>14.375</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0732</v>
+        <v>16.1484</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.4367</v>
+        <v>14.984</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6335</v>
+        <v>14.9693</v>
       </c>
       <c r="D12" t="n">
-        <v>15.5141</v>
+        <v>16.4243</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.7229</v>
+        <v>15.8584</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9329</v>
+        <v>15.3756</v>
       </c>
       <c r="D13" t="n">
-        <v>15.9745</v>
+        <v>17.0205</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.7437</v>
+        <v>15.3814</v>
       </c>
       <c r="C14" t="n">
-        <v>14.0021</v>
+        <v>15.4261</v>
       </c>
       <c r="D14" t="n">
-        <v>15.6274</v>
+        <v>16.4521</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.7699</v>
+        <v>15.8286</v>
       </c>
       <c r="C15" t="n">
-        <v>14.388</v>
+        <v>15.5688</v>
       </c>
       <c r="D15" t="n">
-        <v>15.8581</v>
+        <v>16.7302</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.944</v>
+        <v>16.2434</v>
       </c>
       <c r="C16" t="n">
-        <v>14.5276</v>
+        <v>15.7654</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9983</v>
+        <v>16.7173</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.8179</v>
+        <v>16.0247</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4947</v>
+        <v>16.0191</v>
       </c>
       <c r="D17" t="n">
-        <v>16.008</v>
+        <v>16.742</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0468</v>
+        <v>6.60142</v>
       </c>
       <c r="C2" t="n">
-        <v>6.70023</v>
+        <v>6.5077</v>
       </c>
       <c r="D2" t="n">
-        <v>7.44873</v>
+        <v>6.98892</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.30279</v>
+        <v>7.74973</v>
       </c>
       <c r="C3" t="n">
-        <v>6.70531</v>
+        <v>6.79431</v>
       </c>
       <c r="D3" t="n">
-        <v>9.10515</v>
+        <v>9.032030000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.20463</v>
+        <v>8.870100000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>8.5159</v>
+        <v>8.3971</v>
       </c>
       <c r="D4" t="n">
-        <v>11.1109</v>
+        <v>11.2027</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.4278</v>
+        <v>10.8524</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3706</v>
+        <v>10.4271</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9165</v>
+        <v>13.3697</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.97706</v>
+        <v>12.981</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5787</v>
+        <v>12.6121</v>
       </c>
       <c r="D6" t="n">
-        <v>14.7609</v>
+        <v>15.6229</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2306</v>
+        <v>15.8959</v>
       </c>
       <c r="C7" t="n">
-        <v>14.8466</v>
+        <v>15.0035</v>
       </c>
       <c r="D7" t="n">
-        <v>16.519</v>
+        <v>18.0144</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.3355</v>
+        <v>17.7502</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1901</v>
+        <v>17.1618</v>
       </c>
       <c r="D8" t="n">
-        <v>18.0484</v>
+        <v>19.5488</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.9026</v>
+        <v>20.6726</v>
       </c>
       <c r="C9" t="n">
-        <v>19.2523</v>
+        <v>19.6484</v>
       </c>
       <c r="D9" t="n">
-        <v>19.6247</v>
+        <v>22.4645</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4405</v>
+        <v>18.0335</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7417</v>
+        <v>16.9972</v>
       </c>
       <c r="D10" t="n">
-        <v>17.9008</v>
+        <v>19.6288</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.2198</v>
+        <v>17.9152</v>
       </c>
       <c r="C11" t="n">
-        <v>15.7414</v>
+        <v>17.0861</v>
       </c>
       <c r="D11" t="n">
-        <v>17.7726</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3306</v>
+        <v>18.8795</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6734</v>
+        <v>17.6487</v>
       </c>
       <c r="D12" t="n">
-        <v>17.9274</v>
+        <v>20.0626</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4854</v>
+        <v>19.6752</v>
       </c>
       <c r="C13" t="n">
-        <v>15.8526</v>
+        <v>17.9824</v>
       </c>
       <c r="D13" t="n">
-        <v>18.0349</v>
+        <v>20.3032</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.3239</v>
+        <v>18.8832</v>
       </c>
       <c r="C14" t="n">
-        <v>16.1576</v>
+        <v>18.0275</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3852</v>
+        <v>20.328</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5159</v>
+        <v>19.2166</v>
       </c>
       <c r="C15" t="n">
-        <v>16.2889</v>
+        <v>18.1128</v>
       </c>
       <c r="D15" t="n">
-        <v>18.6568</v>
+        <v>20.3442</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.6113</v>
+        <v>19.5036</v>
       </c>
       <c r="C16" t="n">
-        <v>16.563</v>
+        <v>18.6542</v>
       </c>
       <c r="D16" t="n">
-        <v>19.2961</v>
+        <v>20.1764</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7067</v>
+        <v>19.8926</v>
       </c>
       <c r="C17" t="n">
-        <v>16.4536</v>
+        <v>18.7344</v>
       </c>
       <c r="D17" t="n">
-        <v>18.9188</v>
+        <v>19.5971</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.96376</v>
+        <v>5.2748</v>
       </c>
       <c r="C2" t="n">
-        <v>4.97121</v>
+        <v>4.90293</v>
       </c>
       <c r="D2" t="n">
-        <v>5.33651</v>
+        <v>5.20012</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.90299</v>
+        <v>6.65681</v>
       </c>
       <c r="C3" t="n">
-        <v>5.94151</v>
+        <v>5.91478</v>
       </c>
       <c r="D3" t="n">
-        <v>7.69563</v>
+        <v>7.78079</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.03053</v>
+        <v>8.26154</v>
       </c>
       <c r="C4" t="n">
-        <v>7.46001</v>
+        <v>7.70507</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0806</v>
+        <v>10.2852</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.5099</v>
+        <v>10.3385</v>
       </c>
       <c r="C5" t="n">
-        <v>9.352830000000001</v>
+        <v>9.601559999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1708</v>
+        <v>13.1527</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.89842</v>
+        <v>12.3134</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3292</v>
+        <v>11.5362</v>
       </c>
       <c r="D6" t="n">
-        <v>14.4961</v>
+        <v>15.7243</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.188</v>
+        <v>14.4579</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1916</v>
+        <v>13.5265</v>
       </c>
       <c r="D7" t="n">
-        <v>16.5001</v>
+        <v>18.3588</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4841</v>
+        <v>15.627</v>
       </c>
       <c r="C8" t="n">
-        <v>15.1809</v>
+        <v>15.2496</v>
       </c>
       <c r="D8" t="n">
-        <v>18.4076</v>
+        <v>20.4468</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.1776</v>
+        <v>18.052</v>
       </c>
       <c r="C9" t="n">
-        <v>16.816</v>
+        <v>17.3605</v>
       </c>
       <c r="D9" t="n">
-        <v>20.7026</v>
+        <v>23.658</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.083</v>
+        <v>16.0476</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6413</v>
+        <v>15.0686</v>
       </c>
       <c r="D10" t="n">
-        <v>16.8536</v>
+        <v>19.718</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9758</v>
+        <v>16.0239</v>
       </c>
       <c r="C11" t="n">
-        <v>13.9017</v>
+        <v>15.0245</v>
       </c>
       <c r="D11" t="n">
-        <v>16.7549</v>
+        <v>20.0953</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.9987</v>
+        <v>16.9075</v>
       </c>
       <c r="C12" t="n">
-        <v>13.9951</v>
+        <v>15.6152</v>
       </c>
       <c r="D12" t="n">
-        <v>16.9222</v>
+        <v>20.6208</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.292</v>
+        <v>17.6141</v>
       </c>
       <c r="C13" t="n">
-        <v>14.2105</v>
+        <v>15.9921</v>
       </c>
       <c r="D13" t="n">
-        <v>17.3591</v>
+        <v>21.2084</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5375</v>
+        <v>16.9351</v>
       </c>
       <c r="C14" t="n">
-        <v>14.6027</v>
+        <v>16.1692</v>
       </c>
       <c r="D14" t="n">
-        <v>17.7942</v>
+        <v>20.9061</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.8475</v>
+        <v>17.1829</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7117</v>
+        <v>16.2616</v>
       </c>
       <c r="D15" t="n">
-        <v>18.7746</v>
+        <v>20.6978</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1092</v>
+        <v>17.9076</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8489</v>
+        <v>16.6223</v>
       </c>
       <c r="D16" t="n">
-        <v>19.5363</v>
+        <v>20.7765</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0073</v>
+        <v>18.2005</v>
       </c>
       <c r="C17" t="n">
-        <v>14.7708</v>
+        <v>17.1213</v>
       </c>
       <c r="D17" t="n">
-        <v>20.3127</v>
+        <v>20.7428</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.89208</v>
+        <v>2.81883</v>
       </c>
       <c r="C2" t="n">
-        <v>4.39622</v>
+        <v>3.97653</v>
       </c>
       <c r="D2" t="n">
-        <v>4.74097</v>
+        <v>4.16583</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.83756</v>
+        <v>4.8999</v>
       </c>
       <c r="C3" t="n">
-        <v>5.32012</v>
+        <v>5.28975</v>
       </c>
       <c r="D3" t="n">
-        <v>6.78484</v>
+        <v>6.62265</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.15431</v>
+        <v>6.90225</v>
       </c>
       <c r="C4" t="n">
-        <v>7.17071</v>
+        <v>7.03891</v>
       </c>
       <c r="D4" t="n">
-        <v>8.85073</v>
+        <v>8.799569999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.17608</v>
+        <v>8.74269</v>
       </c>
       <c r="C5" t="n">
-        <v>8.836270000000001</v>
+        <v>8.82377</v>
       </c>
       <c r="D5" t="n">
-        <v>10.3913</v>
+        <v>10.6943</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.291270000000001</v>
+        <v>10.4714</v>
       </c>
       <c r="C6" t="n">
-        <v>10.5808</v>
+        <v>10.6017</v>
       </c>
       <c r="D6" t="n">
-        <v>12.0323</v>
+        <v>12.5558</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.33028</v>
+        <v>12.0937</v>
       </c>
       <c r="C7" t="n">
-        <v>12.3157</v>
+        <v>12.4139</v>
       </c>
       <c r="D7" t="n">
-        <v>13.4517</v>
+        <v>14.236</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.3002</v>
+        <v>13.5822</v>
       </c>
       <c r="C8" t="n">
-        <v>14.2321</v>
+        <v>14.3254</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7842</v>
+        <v>15.8551</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.9431</v>
+        <v>15.722</v>
       </c>
       <c r="C9" t="n">
-        <v>16.432</v>
+        <v>16.5747</v>
       </c>
       <c r="D9" t="n">
-        <v>16.9459</v>
+        <v>18.5854</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.5619</v>
+        <v>14.9793</v>
       </c>
       <c r="C10" t="n">
-        <v>14.1207</v>
+        <v>15.5889</v>
       </c>
       <c r="D10" t="n">
-        <v>14.6931</v>
+        <v>17.7049</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.8718</v>
+        <v>14.936</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2806</v>
+        <v>15.5384</v>
       </c>
       <c r="D11" t="n">
-        <v>15.1267</v>
+        <v>17.4765</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.0406</v>
+        <v>15.2848</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9638</v>
+        <v>15.4149</v>
       </c>
       <c r="D12" t="n">
-        <v>15.5786</v>
+        <v>17.6692</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.2795</v>
+        <v>15.4158</v>
       </c>
       <c r="C13" t="n">
-        <v>15.335</v>
+        <v>15.6916</v>
       </c>
       <c r="D13" t="n">
-        <v>15.6011</v>
+        <v>17.8423</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.3452</v>
+        <v>14.8159</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4337</v>
+        <v>15.7026</v>
       </c>
       <c r="D14" t="n">
-        <v>15.9058</v>
+        <v>17.2089</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.4904</v>
+        <v>15.5307</v>
       </c>
       <c r="C15" t="n">
-        <v>15.5991</v>
+        <v>15.7603</v>
       </c>
       <c r="D15" t="n">
-        <v>15.4909</v>
+        <v>17.7482</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.4877</v>
+        <v>15.4517</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5772</v>
+        <v>15.8663</v>
       </c>
       <c r="D16" t="n">
-        <v>14.7968</v>
+        <v>17.534</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.372</v>
+        <v>15.4396</v>
       </c>
       <c r="C17" t="n">
-        <v>15.6977</v>
+        <v>15.926</v>
       </c>
       <c r="D17" t="n">
-        <v>14.9441</v>
+        <v>17.5427</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.452</v>
+        <v>3.76171</v>
       </c>
       <c r="C2" t="n">
-        <v>6.48734</v>
+        <v>5.70686</v>
       </c>
       <c r="D2" t="n">
-        <v>7.05851</v>
+        <v>5.92856</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.17185</v>
+        <v>6.08813</v>
       </c>
       <c r="C3" t="n">
-        <v>6.75359</v>
+        <v>6.55893</v>
       </c>
       <c r="D3" t="n">
-        <v>8.76515</v>
+        <v>8.55827</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.11558</v>
+        <v>8.472049999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>8.46359</v>
+        <v>8.50994</v>
       </c>
       <c r="D4" t="n">
-        <v>10.695</v>
+        <v>11.1406</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.41235</v>
+        <v>10.7054</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3484</v>
+        <v>10.5225</v>
       </c>
       <c r="D5" t="n">
-        <v>12.4307</v>
+        <v>13.337</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.558920000000001</v>
+        <v>12.7766</v>
       </c>
       <c r="C6" t="n">
-        <v>12.532</v>
+        <v>12.583</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1997</v>
+        <v>15.4654</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.9704</v>
+        <v>14.7593</v>
       </c>
       <c r="C7" t="n">
-        <v>14.8065</v>
+        <v>14.6347</v>
       </c>
       <c r="D7" t="n">
-        <v>15.8329</v>
+        <v>17.4213</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0454</v>
+        <v>16.6253</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8208</v>
+        <v>16.8749</v>
       </c>
       <c r="D8" t="n">
-        <v>17.2768</v>
+        <v>19.2567</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7215</v>
+        <v>19.3845</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3456</v>
+        <v>19.3172</v>
       </c>
       <c r="D9" t="n">
-        <v>19.6026</v>
+        <v>22.5894</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4137</v>
+        <v>18.1129</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7542</v>
+        <v>18.298</v>
       </c>
       <c r="D10" t="n">
-        <v>17.3097</v>
+        <v>21.5524</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.5382</v>
+        <v>17.9766</v>
       </c>
       <c r="C11" t="n">
-        <v>16.8885</v>
+        <v>18.2664</v>
       </c>
       <c r="D11" t="n">
-        <v>17.8082</v>
+        <v>21.3266</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.6974</v>
+        <v>18.4235</v>
       </c>
       <c r="C12" t="n">
-        <v>17.499</v>
+        <v>18.3071</v>
       </c>
       <c r="D12" t="n">
-        <v>17.9782</v>
+        <v>21.3462</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.9836</v>
+        <v>18.7241</v>
       </c>
       <c r="C13" t="n">
-        <v>17.9583</v>
+        <v>18.2437</v>
       </c>
       <c r="D13" t="n">
-        <v>18.2652</v>
+        <v>21.7452</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.9843</v>
+        <v>18.1288</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9392</v>
+        <v>18.3947</v>
       </c>
       <c r="D14" t="n">
-        <v>17.9671</v>
+        <v>21.148</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.2689</v>
+        <v>18.6704</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3566</v>
+        <v>18.4319</v>
       </c>
       <c r="D15" t="n">
-        <v>18.0137</v>
+        <v>21.3119</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.2578</v>
+        <v>18.7769</v>
       </c>
       <c r="C16" t="n">
-        <v>18.3793</v>
+        <v>18.6216</v>
       </c>
       <c r="D16" t="n">
-        <v>17.8078</v>
+        <v>21.2288</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0249</v>
+        <v>18.7971</v>
       </c>
       <c r="C17" t="n">
-        <v>18.237</v>
+        <v>18.6454</v>
       </c>
       <c r="D17" t="n">
-        <v>17.9175</v>
+        <v>21.2133</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.73515</v>
+        <v>4.40549</v>
       </c>
       <c r="C2" t="n">
-        <v>4.88688</v>
+        <v>4.75376</v>
       </c>
       <c r="D2" t="n">
-        <v>5.1982</v>
+        <v>4.96083</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.78278</v>
+        <v>6.14899</v>
       </c>
       <c r="C3" t="n">
-        <v>5.81635</v>
+        <v>5.97001</v>
       </c>
       <c r="D3" t="n">
-        <v>7.64699</v>
+        <v>7.72089</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.30082</v>
+        <v>8.302630000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>7.63757</v>
+        <v>7.45292</v>
       </c>
       <c r="D4" t="n">
-        <v>10.2874</v>
+        <v>10.4186</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.487880000000001</v>
+        <v>10.2821</v>
       </c>
       <c r="C5" t="n">
-        <v>9.333299999999999</v>
+        <v>9.29926</v>
       </c>
       <c r="D5" t="n">
-        <v>12.4438</v>
+        <v>12.9468</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.96428</v>
+        <v>12.3024</v>
       </c>
       <c r="C6" t="n">
-        <v>11.245</v>
+        <v>11.4992</v>
       </c>
       <c r="D6" t="n">
-        <v>14.7516</v>
+        <v>15.7752</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.4257</v>
+        <v>14.2999</v>
       </c>
       <c r="C7" t="n">
-        <v>13.2788</v>
+        <v>13.4162</v>
       </c>
       <c r="D7" t="n">
-        <v>17.0091</v>
+        <v>18.2942</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.273</v>
+        <v>16.2095</v>
       </c>
       <c r="C8" t="n">
-        <v>15.5214</v>
+        <v>15.4387</v>
       </c>
       <c r="D8" t="n">
-        <v>19.7411</v>
+        <v>20.7844</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9636</v>
+        <v>18.5351</v>
       </c>
       <c r="C9" t="n">
-        <v>17.247</v>
+        <v>17.393</v>
       </c>
       <c r="D9" t="n">
-        <v>22.3539</v>
+        <v>24.1858</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.3105</v>
+        <v>18.1525</v>
       </c>
       <c r="C10" t="n">
-        <v>14.9325</v>
+        <v>16.6952</v>
       </c>
       <c r="D10" t="n">
-        <v>19.0965</v>
+        <v>22.7519</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.4347</v>
+        <v>17.843</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0812</v>
+        <v>16.5382</v>
       </c>
       <c r="D11" t="n">
-        <v>19.4776</v>
+        <v>22.3112</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.6636</v>
+        <v>17.7493</v>
       </c>
       <c r="C12" t="n">
-        <v>15.8115</v>
+        <v>16.6806</v>
       </c>
       <c r="D12" t="n">
-        <v>20.3127</v>
+        <v>22.6906</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.7807</v>
+        <v>18.2138</v>
       </c>
       <c r="C13" t="n">
-        <v>16.0775</v>
+        <v>16.7923</v>
       </c>
       <c r="D13" t="n">
-        <v>20.3175</v>
+        <v>23.1124</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.1745</v>
+        <v>17.7006</v>
       </c>
       <c r="C14" t="n">
-        <v>16.2366</v>
+        <v>16.6951</v>
       </c>
       <c r="D14" t="n">
-        <v>20.0375</v>
+        <v>22.1637</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2683</v>
+        <v>17.9946</v>
       </c>
       <c r="C15" t="n">
-        <v>16.2975</v>
+        <v>16.8417</v>
       </c>
       <c r="D15" t="n">
-        <v>20.124</v>
+        <v>22.8982</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.2416</v>
+        <v>17.996</v>
       </c>
       <c r="C16" t="n">
-        <v>16.5743</v>
+        <v>17.0349</v>
       </c>
       <c r="D16" t="n">
-        <v>20.1526</v>
+        <v>22.8958</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2997</v>
+        <v>17.8454</v>
       </c>
       <c r="C17" t="n">
-        <v>16.5945</v>
+        <v>17.0437</v>
       </c>
       <c r="D17" t="n">
-        <v>18.8079</v>
+        <v>22.7955</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.43364</v>
+        <v>4.27645</v>
       </c>
       <c r="C2" t="n">
-        <v>4.4132</v>
+        <v>4.29483</v>
       </c>
       <c r="D2" t="n">
-        <v>4.68915</v>
+        <v>3.68744</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.96316</v>
+        <v>5.55333</v>
       </c>
       <c r="C3" t="n">
-        <v>5.41968</v>
+        <v>5.34033</v>
       </c>
       <c r="D3" t="n">
-        <v>6.83285</v>
+        <v>5.81674</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.67388</v>
+        <v>6.91668</v>
       </c>
       <c r="C4" t="n">
-        <v>7.17245</v>
+        <v>7.01152</v>
       </c>
       <c r="D4" t="n">
-        <v>9.07673</v>
+        <v>7.82402</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.457789999999999</v>
+        <v>8.512449999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.95894</v>
+        <v>8.797879999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.8509</v>
+        <v>9.567410000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7579</v>
+        <v>10.0757</v>
       </c>
       <c r="C6" t="n">
-        <v>10.692</v>
+        <v>10.468</v>
       </c>
       <c r="D6" t="n">
-        <v>12.8682</v>
+        <v>11.3209</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.8337</v>
+        <v>11.5255</v>
       </c>
       <c r="C7" t="n">
-        <v>12.7025</v>
+        <v>12.4959</v>
       </c>
       <c r="D7" t="n">
-        <v>14.5737</v>
+        <v>12.9949</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.3716</v>
+        <v>12.9227</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5491</v>
+        <v>14.3547</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9224</v>
+        <v>14.4411</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.9053</v>
+        <v>15.0802</v>
       </c>
       <c r="C9" t="n">
-        <v>16.8159</v>
+        <v>16.6496</v>
       </c>
       <c r="D9" t="n">
-        <v>18.5197</v>
+        <v>16.6975</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.051</v>
+        <v>12.8109</v>
       </c>
       <c r="C10" t="n">
-        <v>14.2036</v>
+        <v>14.2477</v>
       </c>
       <c r="D10" t="n">
-        <v>16.0031</v>
+        <v>14.633</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3779</v>
+        <v>12.9828</v>
       </c>
       <c r="C11" t="n">
-        <v>14.375</v>
+        <v>13.9333</v>
       </c>
       <c r="D11" t="n">
-        <v>16.1484</v>
+        <v>14.3398</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.984</v>
+        <v>13.6331</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9693</v>
+        <v>14.7067</v>
       </c>
       <c r="D12" t="n">
-        <v>16.4243</v>
+        <v>14.7418</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.8584</v>
+        <v>13.5768</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3756</v>
+        <v>15.0895</v>
       </c>
       <c r="D13" t="n">
-        <v>17.0205</v>
+        <v>15.3387</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.3814</v>
+        <v>13.6778</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4261</v>
+        <v>15.4106</v>
       </c>
       <c r="D14" t="n">
-        <v>16.4521</v>
+        <v>14.9707</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.8286</v>
+        <v>13.9804</v>
       </c>
       <c r="C15" t="n">
-        <v>15.5688</v>
+        <v>15.309</v>
       </c>
       <c r="D15" t="n">
-        <v>16.7302</v>
+        <v>15.2147</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.2434</v>
+        <v>13.8177</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7654</v>
+        <v>15.6785</v>
       </c>
       <c r="D16" t="n">
-        <v>16.7173</v>
+        <v>14.9581</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.0247</v>
+        <v>13.9039</v>
       </c>
       <c r="C17" t="n">
-        <v>16.0191</v>
+        <v>15.7266</v>
       </c>
       <c r="D17" t="n">
-        <v>16.742</v>
+        <v>15.323</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.60142</v>
+        <v>6.22805</v>
       </c>
       <c r="C2" t="n">
-        <v>6.5077</v>
+        <v>6.09483</v>
       </c>
       <c r="D2" t="n">
-        <v>6.98892</v>
+        <v>5.48505</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.74973</v>
+        <v>7.27194</v>
       </c>
       <c r="C3" t="n">
-        <v>6.79431</v>
+        <v>6.72918</v>
       </c>
       <c r="D3" t="n">
-        <v>9.032030000000001</v>
+        <v>7.6993</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.870100000000001</v>
+        <v>8.265879999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>8.3971</v>
+        <v>8.23109</v>
       </c>
       <c r="D4" t="n">
-        <v>11.2027</v>
+        <v>10.0235</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8524</v>
+        <v>10.0855</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4271</v>
+        <v>10.4679</v>
       </c>
       <c r="D5" t="n">
-        <v>13.3697</v>
+        <v>12.3484</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.981</v>
+        <v>12.3019</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6121</v>
+        <v>12.6108</v>
       </c>
       <c r="D6" t="n">
-        <v>15.6229</v>
+        <v>14.394</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8959</v>
+        <v>13.9854</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0035</v>
+        <v>14.6109</v>
       </c>
       <c r="D7" t="n">
-        <v>18.0144</v>
+        <v>16.1654</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.7502</v>
+        <v>15.6993</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1618</v>
+        <v>16.823</v>
       </c>
       <c r="D8" t="n">
-        <v>19.5488</v>
+        <v>17.8365</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6726</v>
+        <v>18.4763</v>
       </c>
       <c r="C9" t="n">
-        <v>19.6484</v>
+        <v>19.4099</v>
       </c>
       <c r="D9" t="n">
-        <v>22.4645</v>
+        <v>20.6747</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.0335</v>
+        <v>15.9842</v>
       </c>
       <c r="C10" t="n">
-        <v>16.9972</v>
+        <v>16.5661</v>
       </c>
       <c r="D10" t="n">
-        <v>19.6288</v>
+        <v>17.5841</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9152</v>
+        <v>15.7223</v>
       </c>
       <c r="C11" t="n">
-        <v>17.0861</v>
+        <v>16.5036</v>
       </c>
       <c r="D11" t="n">
-        <v>19.79</v>
+        <v>18.1793</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.8795</v>
+        <v>16.2559</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6487</v>
+        <v>17.2635</v>
       </c>
       <c r="D12" t="n">
-        <v>20.0626</v>
+        <v>18.799</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6752</v>
+        <v>16.8498</v>
       </c>
       <c r="C13" t="n">
-        <v>17.9824</v>
+        <v>17.8092</v>
       </c>
       <c r="D13" t="n">
-        <v>20.3032</v>
+        <v>18.6947</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.8832</v>
+        <v>16.6121</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0275</v>
+        <v>17.6631</v>
       </c>
       <c r="D14" t="n">
-        <v>20.328</v>
+        <v>18.1759</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.2166</v>
+        <v>16.8323</v>
       </c>
       <c r="C15" t="n">
-        <v>18.1128</v>
+        <v>17.9184</v>
       </c>
       <c r="D15" t="n">
-        <v>20.3442</v>
+        <v>18.6622</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5036</v>
+        <v>16.5057</v>
       </c>
       <c r="C16" t="n">
-        <v>18.6542</v>
+        <v>18.1751</v>
       </c>
       <c r="D16" t="n">
-        <v>20.1764</v>
+        <v>17.8621</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8926</v>
+        <v>16.7624</v>
       </c>
       <c r="C17" t="n">
-        <v>18.7344</v>
+        <v>18.4419</v>
       </c>
       <c r="D17" t="n">
-        <v>19.5971</v>
+        <v>18.4665</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.2748</v>
+        <v>5.04543</v>
       </c>
       <c r="C2" t="n">
-        <v>4.90293</v>
+        <v>4.69743</v>
       </c>
       <c r="D2" t="n">
-        <v>5.20012</v>
+        <v>4.08057</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.65681</v>
+        <v>6.2144</v>
       </c>
       <c r="C3" t="n">
-        <v>5.91478</v>
+        <v>5.74136</v>
       </c>
       <c r="D3" t="n">
-        <v>7.78079</v>
+        <v>6.50058</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.26154</v>
+        <v>7.93819</v>
       </c>
       <c r="C4" t="n">
-        <v>7.70507</v>
+        <v>7.54299</v>
       </c>
       <c r="D4" t="n">
-        <v>10.2852</v>
+        <v>8.953189999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3385</v>
+        <v>9.201919999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.601559999999999</v>
+        <v>9.339169999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>13.1527</v>
+        <v>11.2679</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3134</v>
+        <v>11.1714</v>
       </c>
       <c r="C6" t="n">
-        <v>11.5362</v>
+        <v>11.249</v>
       </c>
       <c r="D6" t="n">
-        <v>15.7243</v>
+        <v>13.5284</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4579</v>
+        <v>12.9354</v>
       </c>
       <c r="C7" t="n">
-        <v>13.5265</v>
+        <v>12.9677</v>
       </c>
       <c r="D7" t="n">
-        <v>18.3588</v>
+        <v>15.7675</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.627</v>
+        <v>14.9313</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2496</v>
+        <v>15.0915</v>
       </c>
       <c r="D8" t="n">
-        <v>20.4468</v>
+        <v>17.8098</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.052</v>
+        <v>17.0367</v>
       </c>
       <c r="C9" t="n">
-        <v>17.3605</v>
+        <v>17.013</v>
       </c>
       <c r="D9" t="n">
-        <v>23.658</v>
+        <v>20.5994</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.0476</v>
+        <v>14.9507</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0686</v>
+        <v>14.4963</v>
       </c>
       <c r="D10" t="n">
-        <v>19.718</v>
+        <v>16.7292</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0239</v>
+        <v>14.7985</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0245</v>
+        <v>14.7997</v>
       </c>
       <c r="D11" t="n">
-        <v>20.0953</v>
+        <v>17.447</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.9075</v>
+        <v>15.4327</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6152</v>
+        <v>15.3833</v>
       </c>
       <c r="D12" t="n">
-        <v>20.6208</v>
+        <v>18.2097</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6141</v>
+        <v>16.1499</v>
       </c>
       <c r="C13" t="n">
-        <v>15.9921</v>
+        <v>15.6503</v>
       </c>
       <c r="D13" t="n">
-        <v>21.2084</v>
+        <v>18.7211</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9351</v>
+        <v>15.6558</v>
       </c>
       <c r="C14" t="n">
-        <v>16.1692</v>
+        <v>15.9884</v>
       </c>
       <c r="D14" t="n">
-        <v>20.9061</v>
+        <v>18.3671</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.1829</v>
+        <v>15.5219</v>
       </c>
       <c r="C15" t="n">
-        <v>16.2616</v>
+        <v>16.0795</v>
       </c>
       <c r="D15" t="n">
-        <v>20.6978</v>
+        <v>18.0537</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9076</v>
+        <v>15.6024</v>
       </c>
       <c r="C16" t="n">
-        <v>16.6223</v>
+        <v>16.4188</v>
       </c>
       <c r="D16" t="n">
-        <v>20.7765</v>
+        <v>18.6249</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.2005</v>
+        <v>16.3729</v>
       </c>
       <c r="C17" t="n">
-        <v>17.1213</v>
+        <v>16.7862</v>
       </c>
       <c r="D17" t="n">
-        <v>20.7428</v>
+        <v>18.8366</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.81883</v>
+        <v>2.66761</v>
       </c>
       <c r="C2" t="n">
-        <v>3.97653</v>
+        <v>3.87724</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16583</v>
+        <v>3.35886</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.8999</v>
+        <v>4.41393</v>
       </c>
       <c r="C3" t="n">
-        <v>5.28975</v>
+        <v>5.20115</v>
       </c>
       <c r="D3" t="n">
-        <v>6.62265</v>
+        <v>5.63469</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.90225</v>
+        <v>6.0438</v>
       </c>
       <c r="C4" t="n">
-        <v>7.03891</v>
+        <v>6.93389</v>
       </c>
       <c r="D4" t="n">
-        <v>8.799569999999999</v>
+        <v>7.64619</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.74269</v>
+        <v>7.47851</v>
       </c>
       <c r="C5" t="n">
-        <v>8.82377</v>
+        <v>8.69435</v>
       </c>
       <c r="D5" t="n">
-        <v>10.6943</v>
+        <v>9.445729999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.4714</v>
+        <v>8.98634</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6017</v>
+        <v>10.4725</v>
       </c>
       <c r="D6" t="n">
-        <v>12.5558</v>
+        <v>11.1764</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.0937</v>
+        <v>10.4394</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4139</v>
+        <v>12.2496</v>
       </c>
       <c r="D7" t="n">
-        <v>14.236</v>
+        <v>12.8078</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.5822</v>
+        <v>11.8736</v>
       </c>
       <c r="C8" t="n">
-        <v>14.3254</v>
+        <v>13.9541</v>
       </c>
       <c r="D8" t="n">
-        <v>15.8551</v>
+        <v>14.2924</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.722</v>
+        <v>13.7998</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5747</v>
+        <v>16.417</v>
       </c>
       <c r="D9" t="n">
-        <v>18.5854</v>
+        <v>16.7316</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.9793</v>
+        <v>12.9995</v>
       </c>
       <c r="C10" t="n">
-        <v>15.5889</v>
+        <v>15.4014</v>
       </c>
       <c r="D10" t="n">
-        <v>17.7049</v>
+        <v>15.8048</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.936</v>
+        <v>13.0655</v>
       </c>
       <c r="C11" t="n">
-        <v>15.5384</v>
+        <v>15.1893</v>
       </c>
       <c r="D11" t="n">
-        <v>17.4765</v>
+        <v>15.8795</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.2848</v>
+        <v>13.1476</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4149</v>
+        <v>15.3265</v>
       </c>
       <c r="D12" t="n">
-        <v>17.6692</v>
+        <v>15.995</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.4158</v>
+        <v>13.4591</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6916</v>
+        <v>15.3663</v>
       </c>
       <c r="D13" t="n">
-        <v>17.8423</v>
+        <v>16.0613</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8159</v>
+        <v>12.9987</v>
       </c>
       <c r="C14" t="n">
-        <v>15.7026</v>
+        <v>15.4731</v>
       </c>
       <c r="D14" t="n">
-        <v>17.2089</v>
+        <v>15.7233</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.5307</v>
+        <v>13.4562</v>
       </c>
       <c r="C15" t="n">
-        <v>15.7603</v>
+        <v>15.5234</v>
       </c>
       <c r="D15" t="n">
-        <v>17.7482</v>
+        <v>15.9785</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4517</v>
+        <v>13.1657</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8663</v>
+        <v>15.6709</v>
       </c>
       <c r="D16" t="n">
-        <v>17.534</v>
+        <v>16.0056</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4396</v>
+        <v>13.11</v>
       </c>
       <c r="C17" t="n">
-        <v>15.926</v>
+        <v>15.716</v>
       </c>
       <c r="D17" t="n">
-        <v>17.5427</v>
+        <v>16.111</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.76171</v>
+        <v>3.35375</v>
       </c>
       <c r="C2" t="n">
-        <v>5.70686</v>
+        <v>5.36016</v>
       </c>
       <c r="D2" t="n">
-        <v>5.92856</v>
+        <v>4.81537</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.08813</v>
+        <v>5.31928</v>
       </c>
       <c r="C3" t="n">
-        <v>6.55893</v>
+        <v>6.39134</v>
       </c>
       <c r="D3" t="n">
-        <v>8.55827</v>
+        <v>7.48993</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.472049999999999</v>
+        <v>7.17802</v>
       </c>
       <c r="C4" t="n">
-        <v>8.50994</v>
+        <v>8.299329999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>11.1406</v>
+        <v>9.920640000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.7054</v>
+        <v>8.989330000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5225</v>
+        <v>10.291</v>
       </c>
       <c r="D5" t="n">
-        <v>13.337</v>
+        <v>12.0448</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.7766</v>
+        <v>10.7119</v>
       </c>
       <c r="C6" t="n">
-        <v>12.583</v>
+        <v>12.3059</v>
       </c>
       <c r="D6" t="n">
-        <v>15.4654</v>
+        <v>13.9827</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7593</v>
+        <v>12.3828</v>
       </c>
       <c r="C7" t="n">
-        <v>14.6347</v>
+        <v>14.3342</v>
       </c>
       <c r="D7" t="n">
-        <v>17.4213</v>
+        <v>15.9281</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.6253</v>
+        <v>14.0121</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8749</v>
+        <v>16.5418</v>
       </c>
       <c r="D8" t="n">
-        <v>19.2567</v>
+        <v>17.7359</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.3845</v>
+        <v>16.2802</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3172</v>
+        <v>18.9792</v>
       </c>
       <c r="D9" t="n">
-        <v>22.5894</v>
+        <v>20.6482</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1129</v>
+        <v>15.5931</v>
       </c>
       <c r="C10" t="n">
-        <v>18.298</v>
+        <v>17.9626</v>
       </c>
       <c r="D10" t="n">
-        <v>21.5524</v>
+        <v>19.7183</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9766</v>
+        <v>15.5313</v>
       </c>
       <c r="C11" t="n">
-        <v>18.2664</v>
+        <v>17.5958</v>
       </c>
       <c r="D11" t="n">
-        <v>21.3266</v>
+        <v>19.7457</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4235</v>
+        <v>15.3822</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3071</v>
+        <v>17.8889</v>
       </c>
       <c r="D12" t="n">
-        <v>21.3462</v>
+        <v>19.556</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.7241</v>
+        <v>15.6951</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2437</v>
+        <v>17.9064</v>
       </c>
       <c r="D13" t="n">
-        <v>21.7452</v>
+        <v>20.0013</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.1288</v>
+        <v>15.1625</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3947</v>
+        <v>17.9896</v>
       </c>
       <c r="D14" t="n">
-        <v>21.148</v>
+        <v>19.2788</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6704</v>
+        <v>15.8244</v>
       </c>
       <c r="C15" t="n">
-        <v>18.4319</v>
+        <v>18.0472</v>
       </c>
       <c r="D15" t="n">
-        <v>21.3119</v>
+        <v>19.8517</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.7769</v>
+        <v>15.4666</v>
       </c>
       <c r="C16" t="n">
-        <v>18.6216</v>
+        <v>18.2062</v>
       </c>
       <c r="D16" t="n">
-        <v>21.2288</v>
+        <v>19.4938</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.7971</v>
+        <v>15.3003</v>
       </c>
       <c r="C17" t="n">
-        <v>18.6454</v>
+        <v>18.2405</v>
       </c>
       <c r="D17" t="n">
-        <v>21.2133</v>
+        <v>19.7057</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.40549</v>
+        <v>4.33522</v>
       </c>
       <c r="C2" t="n">
-        <v>4.75376</v>
+        <v>4.55113</v>
       </c>
       <c r="D2" t="n">
-        <v>4.96083</v>
+        <v>3.92086</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.14899</v>
+        <v>5.8648</v>
       </c>
       <c r="C3" t="n">
-        <v>5.97001</v>
+        <v>5.68295</v>
       </c>
       <c r="D3" t="n">
-        <v>7.72089</v>
+        <v>6.36322</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.302630000000001</v>
+        <v>7.78998</v>
       </c>
       <c r="C4" t="n">
-        <v>7.45292</v>
+        <v>7.51147</v>
       </c>
       <c r="D4" t="n">
-        <v>10.4186</v>
+        <v>8.855499999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2821</v>
+        <v>9.653969999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.29926</v>
+        <v>9.3658</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9468</v>
+        <v>11.2084</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3024</v>
+        <v>11.5177</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4992</v>
+        <v>11.2573</v>
       </c>
       <c r="D6" t="n">
-        <v>15.7752</v>
+        <v>13.5198</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2999</v>
+        <v>13.3596</v>
       </c>
       <c r="C7" t="n">
-        <v>13.4162</v>
+        <v>13.1317</v>
       </c>
       <c r="D7" t="n">
-        <v>18.2942</v>
+        <v>15.7379</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2095</v>
+        <v>15.324</v>
       </c>
       <c r="C8" t="n">
-        <v>15.4387</v>
+        <v>15.0811</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7844</v>
+        <v>17.9219</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5351</v>
+        <v>18.027</v>
       </c>
       <c r="C9" t="n">
-        <v>17.393</v>
+        <v>17.1099</v>
       </c>
       <c r="D9" t="n">
-        <v>24.1858</v>
+        <v>20.8324</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1525</v>
+        <v>16.9192</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6952</v>
+        <v>16.2426</v>
       </c>
       <c r="D10" t="n">
-        <v>22.7519</v>
+        <v>19.5962</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.843</v>
+        <v>16.7849</v>
       </c>
       <c r="C11" t="n">
-        <v>16.5382</v>
+        <v>16.0234</v>
       </c>
       <c r="D11" t="n">
-        <v>22.3112</v>
+        <v>19.5162</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7493</v>
+        <v>16.9031</v>
       </c>
       <c r="C12" t="n">
-        <v>16.6806</v>
+        <v>16.2348</v>
       </c>
       <c r="D12" t="n">
-        <v>22.6906</v>
+        <v>19.6743</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.2138</v>
+        <v>16.9921</v>
       </c>
       <c r="C13" t="n">
-        <v>16.7923</v>
+        <v>16.462</v>
       </c>
       <c r="D13" t="n">
-        <v>23.1124</v>
+        <v>20.0315</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.7006</v>
+        <v>16.6051</v>
       </c>
       <c r="C14" t="n">
-        <v>16.6951</v>
+        <v>16.5511</v>
       </c>
       <c r="D14" t="n">
-        <v>22.1637</v>
+        <v>19.2525</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9946</v>
+        <v>16.9536</v>
       </c>
       <c r="C15" t="n">
-        <v>16.8417</v>
+        <v>16.5723</v>
       </c>
       <c r="D15" t="n">
-        <v>22.8982</v>
+        <v>19.8178</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.996</v>
+        <v>16.951</v>
       </c>
       <c r="C16" t="n">
-        <v>17.0349</v>
+        <v>16.6378</v>
       </c>
       <c r="D16" t="n">
-        <v>22.8958</v>
+        <v>19.7719</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8454</v>
+        <v>16.6458</v>
       </c>
       <c r="C17" t="n">
-        <v>17.0437</v>
+        <v>16.793</v>
       </c>
       <c r="D17" t="n">
-        <v>22.7955</v>
+        <v>19.9492</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.27645</v>
+        <v>4.28885</v>
       </c>
       <c r="C2" t="n">
-        <v>4.29483</v>
+        <v>4.43877</v>
       </c>
       <c r="D2" t="n">
-        <v>3.68744</v>
+        <v>4.6927</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.55333</v>
+        <v>5.5906</v>
       </c>
       <c r="C3" t="n">
-        <v>5.34033</v>
+        <v>5.46154</v>
       </c>
       <c r="D3" t="n">
-        <v>5.81674</v>
+        <v>7.13267</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.91668</v>
+        <v>6.94094</v>
       </c>
       <c r="C4" t="n">
-        <v>7.01152</v>
+        <v>6.96384</v>
       </c>
       <c r="D4" t="n">
-        <v>7.82402</v>
+        <v>9.460050000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.512449999999999</v>
+        <v>8.49295</v>
       </c>
       <c r="C5" t="n">
-        <v>8.797879999999999</v>
+        <v>8.85027</v>
       </c>
       <c r="D5" t="n">
-        <v>9.567410000000001</v>
+        <v>11.828</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0757</v>
+        <v>10.0253</v>
       </c>
       <c r="C6" t="n">
-        <v>10.468</v>
+        <v>10.8096</v>
       </c>
       <c r="D6" t="n">
-        <v>11.3209</v>
+        <v>14.194</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5255</v>
+        <v>11.529</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4959</v>
+        <v>12.7907</v>
       </c>
       <c r="D7" t="n">
-        <v>12.9949</v>
+        <v>16.8424</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9227</v>
+        <v>12.9562</v>
       </c>
       <c r="C8" t="n">
-        <v>14.3547</v>
+        <v>14.5863</v>
       </c>
       <c r="D8" t="n">
-        <v>14.4411</v>
+        <v>18.7153</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.0802</v>
+        <v>15.3043</v>
       </c>
       <c r="C9" t="n">
-        <v>16.6496</v>
+        <v>16.9163</v>
       </c>
       <c r="D9" t="n">
-        <v>16.6975</v>
+        <v>22.0974</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.8109</v>
+        <v>13.2544</v>
       </c>
       <c r="C10" t="n">
-        <v>14.2477</v>
+        <v>14.2397</v>
       </c>
       <c r="D10" t="n">
-        <v>14.633</v>
+        <v>18.1543</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.9828</v>
+        <v>13.0441</v>
       </c>
       <c r="C11" t="n">
-        <v>13.9333</v>
+        <v>14.3841</v>
       </c>
       <c r="D11" t="n">
-        <v>14.3398</v>
+        <v>18.4386</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.6331</v>
+        <v>13.7091</v>
       </c>
       <c r="C12" t="n">
-        <v>14.7067</v>
+        <v>14.8072</v>
       </c>
       <c r="D12" t="n">
-        <v>14.7418</v>
+        <v>19.3499</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5768</v>
+        <v>13.8846</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0895</v>
+        <v>15.3704</v>
       </c>
       <c r="D13" t="n">
-        <v>15.3387</v>
+        <v>19.94</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.6778</v>
+        <v>13.6319</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4106</v>
+        <v>15.5547</v>
       </c>
       <c r="D14" t="n">
-        <v>14.9707</v>
+        <v>19.1888</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9804</v>
+        <v>13.9277</v>
       </c>
       <c r="C15" t="n">
-        <v>15.309</v>
+        <v>15.5904</v>
       </c>
       <c r="D15" t="n">
-        <v>15.2147</v>
+        <v>19.1612</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.8177</v>
+        <v>13.7021</v>
       </c>
       <c r="C16" t="n">
-        <v>15.6785</v>
+        <v>15.838</v>
       </c>
       <c r="D16" t="n">
-        <v>14.9581</v>
+        <v>19.3455</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9039</v>
+        <v>13.895</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7266</v>
+        <v>16.0913</v>
       </c>
       <c r="D17" t="n">
-        <v>15.323</v>
+        <v>19.3589</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.22805</v>
+        <v>6.25583</v>
       </c>
       <c r="C2" t="n">
-        <v>6.09483</v>
+        <v>6.49876</v>
       </c>
       <c r="D2" t="n">
-        <v>5.48505</v>
+        <v>6.98908</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.27194</v>
+        <v>7.16333</v>
       </c>
       <c r="C3" t="n">
-        <v>6.72918</v>
+        <v>6.79536</v>
       </c>
       <c r="D3" t="n">
-        <v>7.6993</v>
+        <v>9.455399999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.265879999999999</v>
+        <v>8.25872</v>
       </c>
       <c r="C4" t="n">
-        <v>8.23109</v>
+        <v>8.394399999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0235</v>
+        <v>12.2318</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0855</v>
+        <v>10.4217</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4679</v>
+        <v>10.6934</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3484</v>
+        <v>14.7557</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3019</v>
+        <v>12.3355</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6108</v>
+        <v>12.8153</v>
       </c>
       <c r="D6" t="n">
-        <v>14.394</v>
+        <v>17.6218</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9854</v>
+        <v>13.996</v>
       </c>
       <c r="C7" t="n">
-        <v>14.6109</v>
+        <v>15.015</v>
       </c>
       <c r="D7" t="n">
-        <v>16.1654</v>
+        <v>20.7073</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6993</v>
+        <v>15.7791</v>
       </c>
       <c r="C8" t="n">
-        <v>16.823</v>
+        <v>17.1687</v>
       </c>
       <c r="D8" t="n">
-        <v>17.8365</v>
+        <v>22.8846</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.4763</v>
+        <v>18.6125</v>
       </c>
       <c r="C9" t="n">
-        <v>19.4099</v>
+        <v>19.769</v>
       </c>
       <c r="D9" t="n">
-        <v>20.6747</v>
+        <v>27.0202</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.9842</v>
+        <v>15.9903</v>
       </c>
       <c r="C10" t="n">
-        <v>16.5661</v>
+        <v>17.0287</v>
       </c>
       <c r="D10" t="n">
-        <v>17.5841</v>
+        <v>22.6626</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.7223</v>
+        <v>15.7217</v>
       </c>
       <c r="C11" t="n">
-        <v>16.5036</v>
+        <v>17.0183</v>
       </c>
       <c r="D11" t="n">
-        <v>18.1793</v>
+        <v>23.1212</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.2559</v>
+        <v>16.2313</v>
       </c>
       <c r="C12" t="n">
-        <v>17.2635</v>
+        <v>17.5079</v>
       </c>
       <c r="D12" t="n">
-        <v>18.799</v>
+        <v>23.4481</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.8498</v>
+        <v>16.6607</v>
       </c>
       <c r="C13" t="n">
-        <v>17.8092</v>
+        <v>18.0168</v>
       </c>
       <c r="D13" t="n">
-        <v>18.6947</v>
+        <v>23.7893</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.6121</v>
+        <v>16.4583</v>
       </c>
       <c r="C14" t="n">
-        <v>17.6631</v>
+        <v>18.0287</v>
       </c>
       <c r="D14" t="n">
-        <v>18.1759</v>
+        <v>23.2145</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.8323</v>
+        <v>16.5777</v>
       </c>
       <c r="C15" t="n">
-        <v>17.9184</v>
+        <v>18.3612</v>
       </c>
       <c r="D15" t="n">
-        <v>18.6622</v>
+        <v>23.0429</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.5057</v>
+        <v>16.8164</v>
       </c>
       <c r="C16" t="n">
-        <v>18.1751</v>
+        <v>18.4128</v>
       </c>
       <c r="D16" t="n">
-        <v>17.8621</v>
+        <v>23.2953</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.7624</v>
+        <v>16.5719</v>
       </c>
       <c r="C17" t="n">
-        <v>18.4419</v>
+        <v>18.6775</v>
       </c>
       <c r="D17" t="n">
-        <v>18.4665</v>
+        <v>23.0843</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.04543</v>
+        <v>5.05175</v>
       </c>
       <c r="C2" t="n">
-        <v>4.69743</v>
+        <v>4.89727</v>
       </c>
       <c r="D2" t="n">
-        <v>4.08057</v>
+        <v>5.20635</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.2144</v>
+        <v>6.1774</v>
       </c>
       <c r="C3" t="n">
-        <v>5.74136</v>
+        <v>5.85058</v>
       </c>
       <c r="D3" t="n">
-        <v>6.50058</v>
+        <v>7.82455</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.93819</v>
+        <v>7.96312</v>
       </c>
       <c r="C4" t="n">
-        <v>7.54299</v>
+        <v>7.69435</v>
       </c>
       <c r="D4" t="n">
-        <v>8.953189999999999</v>
+        <v>10.765</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.201919999999999</v>
+        <v>9.73766</v>
       </c>
       <c r="C5" t="n">
-        <v>9.339169999999999</v>
+        <v>9.58957</v>
       </c>
       <c r="D5" t="n">
-        <v>11.2679</v>
+        <v>13.5434</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1714</v>
+        <v>11.516</v>
       </c>
       <c r="C6" t="n">
-        <v>11.249</v>
+        <v>11.4963</v>
       </c>
       <c r="D6" t="n">
-        <v>13.5284</v>
+        <v>16.3711</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.9354</v>
+        <v>13.2531</v>
       </c>
       <c r="C7" t="n">
-        <v>12.9677</v>
+        <v>13.3743</v>
       </c>
       <c r="D7" t="n">
-        <v>15.7675</v>
+        <v>18.9596</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.9313</v>
+        <v>15.0793</v>
       </c>
       <c r="C8" t="n">
-        <v>15.0915</v>
+        <v>15.503</v>
       </c>
       <c r="D8" t="n">
-        <v>17.8098</v>
+        <v>22.1819</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.0367</v>
+        <v>17.0233</v>
       </c>
       <c r="C9" t="n">
-        <v>17.013</v>
+        <v>17.3317</v>
       </c>
       <c r="D9" t="n">
-        <v>20.5994</v>
+        <v>24.8781</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.9507</v>
+        <v>14.7876</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4963</v>
+        <v>14.9916</v>
       </c>
       <c r="D10" t="n">
-        <v>16.7292</v>
+        <v>20.2683</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.7985</v>
+        <v>14.6991</v>
       </c>
       <c r="C11" t="n">
-        <v>14.7997</v>
+        <v>14.9888</v>
       </c>
       <c r="D11" t="n">
-        <v>17.447</v>
+        <v>20.5066</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4327</v>
+        <v>15.4906</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3833</v>
+        <v>15.7275</v>
       </c>
       <c r="D12" t="n">
-        <v>18.2097</v>
+        <v>21.7026</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.1499</v>
+        <v>16.0559</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6503</v>
+        <v>16.2783</v>
       </c>
       <c r="D13" t="n">
-        <v>18.7211</v>
+        <v>22.5518</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.6558</v>
+        <v>15.8476</v>
       </c>
       <c r="C14" t="n">
-        <v>15.9884</v>
+        <v>16.2357</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3671</v>
+        <v>21.7481</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.5219</v>
+        <v>15.9559</v>
       </c>
       <c r="C15" t="n">
-        <v>16.0795</v>
+        <v>16.3988</v>
       </c>
       <c r="D15" t="n">
-        <v>18.0537</v>
+        <v>21.7976</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.6024</v>
+        <v>15.5622</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4188</v>
+        <v>16.6235</v>
       </c>
       <c r="D16" t="n">
-        <v>18.6249</v>
+        <v>22.4105</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.3729</v>
+        <v>15.6085</v>
       </c>
       <c r="C17" t="n">
-        <v>16.7862</v>
+        <v>16.9553</v>
       </c>
       <c r="D17" t="n">
-        <v>18.8366</v>
+        <v>22.4577</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.66761</v>
+        <v>2.71124</v>
       </c>
       <c r="C2" t="n">
-        <v>3.87724</v>
+        <v>4.01089</v>
       </c>
       <c r="D2" t="n">
-        <v>3.35886</v>
+        <v>4.17361</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.41393</v>
+        <v>4.47314</v>
       </c>
       <c r="C3" t="n">
-        <v>5.20115</v>
+        <v>5.41364</v>
       </c>
       <c r="D3" t="n">
-        <v>5.63469</v>
+        <v>6.86575</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.0438</v>
+        <v>6.10672</v>
       </c>
       <c r="C4" t="n">
-        <v>6.93389</v>
+        <v>7.10363</v>
       </c>
       <c r="D4" t="n">
-        <v>7.64619</v>
+        <v>9.4533</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.47851</v>
+        <v>7.58998</v>
       </c>
       <c r="C5" t="n">
-        <v>8.69435</v>
+        <v>8.86312</v>
       </c>
       <c r="D5" t="n">
-        <v>9.445729999999999</v>
+        <v>11.7958</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.98634</v>
+        <v>9.0396</v>
       </c>
       <c r="C6" t="n">
-        <v>10.4725</v>
+        <v>10.6719</v>
       </c>
       <c r="D6" t="n">
-        <v>11.1764</v>
+        <v>14.1425</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4394</v>
+        <v>10.4845</v>
       </c>
       <c r="C7" t="n">
-        <v>12.2496</v>
+        <v>12.487</v>
       </c>
       <c r="D7" t="n">
-        <v>12.8078</v>
+        <v>16.4287</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8736</v>
+        <v>11.8841</v>
       </c>
       <c r="C8" t="n">
-        <v>13.9541</v>
+        <v>14.3139</v>
       </c>
       <c r="D8" t="n">
-        <v>14.2924</v>
+        <v>18.5585</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7998</v>
+        <v>13.829</v>
       </c>
       <c r="C9" t="n">
-        <v>16.417</v>
+        <v>16.686</v>
       </c>
       <c r="D9" t="n">
-        <v>16.7316</v>
+        <v>22.1776</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.9995</v>
+        <v>13.2299</v>
       </c>
       <c r="C10" t="n">
-        <v>15.4014</v>
+        <v>15.747</v>
       </c>
       <c r="D10" t="n">
-        <v>15.8048</v>
+        <v>20.5573</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.0655</v>
+        <v>13.2685</v>
       </c>
       <c r="C11" t="n">
-        <v>15.1893</v>
+        <v>15.4989</v>
       </c>
       <c r="D11" t="n">
-        <v>15.8795</v>
+        <v>20.3457</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.1476</v>
+        <v>13.095</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3265</v>
+        <v>15.6167</v>
       </c>
       <c r="D12" t="n">
-        <v>15.995</v>
+        <v>20.796</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.4591</v>
+        <v>13.492</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3663</v>
+        <v>15.6646</v>
       </c>
       <c r="D13" t="n">
-        <v>16.0613</v>
+        <v>21.1118</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.9987</v>
+        <v>13.0614</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4731</v>
+        <v>15.8129</v>
       </c>
       <c r="D14" t="n">
-        <v>15.7233</v>
+        <v>20.3236</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4562</v>
+        <v>13.3655</v>
       </c>
       <c r="C15" t="n">
-        <v>15.5234</v>
+        <v>15.8125</v>
       </c>
       <c r="D15" t="n">
-        <v>15.9785</v>
+        <v>21.0593</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1657</v>
+        <v>13.4622</v>
       </c>
       <c r="C16" t="n">
-        <v>15.6709</v>
+        <v>15.8649</v>
       </c>
       <c r="D16" t="n">
-        <v>16.0056</v>
+        <v>20.7448</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.11</v>
+        <v>13.2872</v>
       </c>
       <c r="C17" t="n">
-        <v>15.716</v>
+        <v>16.0139</v>
       </c>
       <c r="D17" t="n">
-        <v>16.111</v>
+        <v>21.0434</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.35375</v>
+        <v>3.40475</v>
       </c>
       <c r="C2" t="n">
-        <v>5.36016</v>
+        <v>5.68832</v>
       </c>
       <c r="D2" t="n">
-        <v>4.81537</v>
+        <v>5.92212</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.31928</v>
+        <v>5.30411</v>
       </c>
       <c r="C3" t="n">
-        <v>6.39134</v>
+        <v>6.55144</v>
       </c>
       <c r="D3" t="n">
-        <v>7.48993</v>
+        <v>8.94807</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.17802</v>
+        <v>7.19948</v>
       </c>
       <c r="C4" t="n">
-        <v>8.299329999999999</v>
+        <v>8.51261</v>
       </c>
       <c r="D4" t="n">
-        <v>9.920640000000001</v>
+        <v>12.0191</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.989330000000001</v>
+        <v>9.000780000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.291</v>
+        <v>10.5188</v>
       </c>
       <c r="D5" t="n">
-        <v>12.0448</v>
+        <v>14.8037</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7119</v>
+        <v>10.7213</v>
       </c>
       <c r="C6" t="n">
-        <v>12.3059</v>
+        <v>12.5816</v>
       </c>
       <c r="D6" t="n">
-        <v>13.9827</v>
+        <v>17.5421</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3828</v>
+        <v>12.3818</v>
       </c>
       <c r="C7" t="n">
-        <v>14.3342</v>
+        <v>14.6313</v>
       </c>
       <c r="D7" t="n">
-        <v>15.9281</v>
+        <v>20.1623</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0121</v>
+        <v>13.923</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5418</v>
+        <v>16.8879</v>
       </c>
       <c r="D8" t="n">
-        <v>17.7359</v>
+        <v>22.7142</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2802</v>
+        <v>16.2641</v>
       </c>
       <c r="C9" t="n">
-        <v>18.9792</v>
+        <v>19.3326</v>
       </c>
       <c r="D9" t="n">
-        <v>20.6482</v>
+        <v>27.1197</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.5931</v>
+        <v>15.6158</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9626</v>
+        <v>17.9583</v>
       </c>
       <c r="D10" t="n">
-        <v>19.7183</v>
+        <v>25.5035</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.5313</v>
+        <v>15.4383</v>
       </c>
       <c r="C11" t="n">
-        <v>17.5958</v>
+        <v>18.1195</v>
       </c>
       <c r="D11" t="n">
-        <v>19.7457</v>
+        <v>24.8953</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.3822</v>
+        <v>15.453</v>
       </c>
       <c r="C12" t="n">
-        <v>17.8889</v>
+        <v>18.2828</v>
       </c>
       <c r="D12" t="n">
-        <v>19.556</v>
+        <v>25.3815</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.6951</v>
+        <v>15.8427</v>
       </c>
       <c r="C13" t="n">
-        <v>17.9064</v>
+        <v>18.4224</v>
       </c>
       <c r="D13" t="n">
-        <v>20.0013</v>
+        <v>25.6254</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1625</v>
+        <v>15.2291</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9896</v>
+        <v>18.3595</v>
       </c>
       <c r="D14" t="n">
-        <v>19.2788</v>
+        <v>24.8528</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.8244</v>
+        <v>15.7577</v>
       </c>
       <c r="C15" t="n">
-        <v>18.0472</v>
+        <v>18.3186</v>
       </c>
       <c r="D15" t="n">
-        <v>19.8517</v>
+        <v>25.3105</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4666</v>
+        <v>15.7425</v>
       </c>
       <c r="C16" t="n">
-        <v>18.2062</v>
+        <v>18.4509</v>
       </c>
       <c r="D16" t="n">
-        <v>19.4938</v>
+        <v>25.4753</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3003</v>
+        <v>15.4571</v>
       </c>
       <c r="C17" t="n">
-        <v>18.2405</v>
+        <v>18.5586</v>
       </c>
       <c r="D17" t="n">
-        <v>19.7057</v>
+        <v>25.1201</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.33522</v>
+        <v>4.31174</v>
       </c>
       <c r="C2" t="n">
-        <v>4.55113</v>
+        <v>4.73849</v>
       </c>
       <c r="D2" t="n">
-        <v>3.92086</v>
+        <v>4.95722</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.8648</v>
+        <v>5.87699</v>
       </c>
       <c r="C3" t="n">
-        <v>5.68295</v>
+        <v>5.83146</v>
       </c>
       <c r="D3" t="n">
-        <v>6.36322</v>
+        <v>7.68559</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.78998</v>
+        <v>7.82284</v>
       </c>
       <c r="C4" t="n">
-        <v>7.51147</v>
+        <v>7.67873</v>
       </c>
       <c r="D4" t="n">
-        <v>8.855499999999999</v>
+        <v>10.6569</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.653969999999999</v>
+        <v>9.67815</v>
       </c>
       <c r="C5" t="n">
-        <v>9.3658</v>
+        <v>9.552709999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.2084</v>
+        <v>13.5238</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5177</v>
+        <v>11.5321</v>
       </c>
       <c r="C6" t="n">
-        <v>11.2573</v>
+        <v>11.475</v>
       </c>
       <c r="D6" t="n">
-        <v>13.5198</v>
+        <v>16.3398</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3596</v>
+        <v>13.3729</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1317</v>
+        <v>13.3825</v>
       </c>
       <c r="D7" t="n">
-        <v>15.7379</v>
+        <v>19.0674</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.324</v>
+        <v>15.329</v>
       </c>
       <c r="C8" t="n">
-        <v>15.0811</v>
+        <v>15.2157</v>
       </c>
       <c r="D8" t="n">
-        <v>17.9219</v>
+        <v>21.7299</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.027</v>
+        <v>18.0691</v>
       </c>
       <c r="C9" t="n">
-        <v>17.1099</v>
+        <v>17.56</v>
       </c>
       <c r="D9" t="n">
-        <v>20.8324</v>
+        <v>25.588</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9192</v>
+        <v>17.0667</v>
       </c>
       <c r="C10" t="n">
-        <v>16.2426</v>
+        <v>16.7007</v>
       </c>
       <c r="D10" t="n">
-        <v>19.5962</v>
+        <v>23.8286</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.7849</v>
+        <v>16.6899</v>
       </c>
       <c r="C11" t="n">
-        <v>16.0234</v>
+        <v>16.5695</v>
       </c>
       <c r="D11" t="n">
-        <v>19.5162</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.9031</v>
+        <v>17.0156</v>
       </c>
       <c r="C12" t="n">
-        <v>16.2348</v>
+        <v>16.6037</v>
       </c>
       <c r="D12" t="n">
-        <v>19.6743</v>
+        <v>23.9503</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.9921</v>
+        <v>16.9149</v>
       </c>
       <c r="C13" t="n">
-        <v>16.462</v>
+        <v>16.6871</v>
       </c>
       <c r="D13" t="n">
-        <v>20.0315</v>
+        <v>24.222</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.6051</v>
+        <v>16.5865</v>
       </c>
       <c r="C14" t="n">
-        <v>16.5511</v>
+        <v>16.7817</v>
       </c>
       <c r="D14" t="n">
-        <v>19.2525</v>
+        <v>23.6155</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.9536</v>
+        <v>17.1912</v>
       </c>
       <c r="C15" t="n">
-        <v>16.5723</v>
+        <v>16.8929</v>
       </c>
       <c r="D15" t="n">
-        <v>19.8178</v>
+        <v>24.0187</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.951</v>
+        <v>16.869</v>
       </c>
       <c r="C16" t="n">
-        <v>16.6378</v>
+        <v>16.9458</v>
       </c>
       <c r="D16" t="n">
-        <v>19.7719</v>
+        <v>24.1401</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.6458</v>
+        <v>16.8156</v>
       </c>
       <c r="C17" t="n">
-        <v>16.793</v>
+        <v>17.0697</v>
       </c>
       <c r="D17" t="n">
-        <v>19.9492</v>
+        <v>24.4187</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.28885</v>
+        <v>4.29146</v>
       </c>
       <c r="C2" t="n">
-        <v>4.43877</v>
+        <v>4.44026</v>
       </c>
       <c r="D2" t="n">
-        <v>4.6927</v>
+        <v>4.68568</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5906</v>
+        <v>5.1317</v>
       </c>
       <c r="C3" t="n">
-        <v>5.46154</v>
+        <v>5.29555</v>
       </c>
       <c r="D3" t="n">
-        <v>7.13267</v>
+        <v>7.11111</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.94094</v>
+        <v>6.66327</v>
       </c>
       <c r="C4" t="n">
-        <v>6.96384</v>
+        <v>7.11712</v>
       </c>
       <c r="D4" t="n">
-        <v>9.460050000000001</v>
+        <v>10.0925</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.49295</v>
+        <v>8.548360000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>8.85027</v>
+        <v>9.00656</v>
       </c>
       <c r="D5" t="n">
-        <v>11.828</v>
+        <v>12.9633</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0253</v>
+        <v>10.0857</v>
       </c>
       <c r="C6" t="n">
-        <v>10.8096</v>
+        <v>10.8606</v>
       </c>
       <c r="D6" t="n">
-        <v>14.194</v>
+        <v>15.6886</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.529</v>
+        <v>11.534</v>
       </c>
       <c r="C7" t="n">
-        <v>12.7907</v>
+        <v>12.5379</v>
       </c>
       <c r="D7" t="n">
-        <v>16.8424</v>
+        <v>18.1883</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9562</v>
+        <v>12.9229</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5863</v>
+        <v>14.5877</v>
       </c>
       <c r="D8" t="n">
-        <v>18.7153</v>
+        <v>20.7252</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.3043</v>
+        <v>15.1923</v>
       </c>
       <c r="C9" t="n">
-        <v>16.9163</v>
+        <v>16.9539</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0974</v>
+        <v>24.3738</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.2544</v>
+        <v>13.1718</v>
       </c>
       <c r="C10" t="n">
-        <v>14.2397</v>
+        <v>14.2326</v>
       </c>
       <c r="D10" t="n">
-        <v>18.1543</v>
+        <v>19.5873</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.0441</v>
+        <v>13.1847</v>
       </c>
       <c r="C11" t="n">
-        <v>14.3841</v>
+        <v>14.4827</v>
       </c>
       <c r="D11" t="n">
-        <v>18.4386</v>
+        <v>20.1685</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.7091</v>
+        <v>13.5083</v>
       </c>
       <c r="C12" t="n">
-        <v>14.8072</v>
+        <v>14.9925</v>
       </c>
       <c r="D12" t="n">
-        <v>19.3499</v>
+        <v>20.8417</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.8846</v>
+        <v>13.6985</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3704</v>
+        <v>15.3649</v>
       </c>
       <c r="D13" t="n">
-        <v>19.94</v>
+        <v>21.8795</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.6319</v>
+        <v>13.5529</v>
       </c>
       <c r="C14" t="n">
-        <v>15.5547</v>
+        <v>15.3944</v>
       </c>
       <c r="D14" t="n">
-        <v>19.1888</v>
+        <v>21.3241</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9277</v>
+        <v>13.9327</v>
       </c>
       <c r="C15" t="n">
-        <v>15.5904</v>
+        <v>15.5468</v>
       </c>
       <c r="D15" t="n">
-        <v>19.1612</v>
+        <v>21.0721</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.7021</v>
+        <v>14.0637</v>
       </c>
       <c r="C16" t="n">
-        <v>15.838</v>
+        <v>15.8377</v>
       </c>
       <c r="D16" t="n">
-        <v>19.3455</v>
+        <v>21.3625</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.895</v>
+        <v>13.9331</v>
       </c>
       <c r="C17" t="n">
-        <v>16.0913</v>
+        <v>16.0387</v>
       </c>
       <c r="D17" t="n">
-        <v>19.3589</v>
+        <v>21.551</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.25583</v>
+        <v>6.2359</v>
       </c>
       <c r="C2" t="n">
-        <v>6.49876</v>
+        <v>6.4926</v>
       </c>
       <c r="D2" t="n">
-        <v>6.98908</v>
+        <v>6.97347</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.16333</v>
+        <v>7.28949</v>
       </c>
       <c r="C3" t="n">
-        <v>6.79536</v>
+        <v>6.82339</v>
       </c>
       <c r="D3" t="n">
-        <v>9.455399999999999</v>
+        <v>9.643190000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.25872</v>
+        <v>8.6469</v>
       </c>
       <c r="C4" t="n">
-        <v>8.394399999999999</v>
+        <v>8.742789999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>12.2318</v>
+        <v>13.1124</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4217</v>
+        <v>10.4628</v>
       </c>
       <c r="C5" t="n">
-        <v>10.6934</v>
+        <v>10.7064</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7557</v>
+        <v>16.7067</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3355</v>
+        <v>12.3498</v>
       </c>
       <c r="C6" t="n">
-        <v>12.8153</v>
+        <v>12.8697</v>
       </c>
       <c r="D6" t="n">
-        <v>17.6218</v>
+        <v>20.0599</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.996</v>
+        <v>14.0039</v>
       </c>
       <c r="C7" t="n">
-        <v>15.015</v>
+        <v>15.0043</v>
       </c>
       <c r="D7" t="n">
-        <v>20.7073</v>
+        <v>23.4776</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7791</v>
+        <v>15.7303</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1687</v>
+        <v>17.192</v>
       </c>
       <c r="D8" t="n">
-        <v>22.8846</v>
+        <v>26.195</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6125</v>
+        <v>18.5826</v>
       </c>
       <c r="C9" t="n">
-        <v>19.769</v>
+        <v>19.8174</v>
       </c>
       <c r="D9" t="n">
-        <v>27.0202</v>
+        <v>30.9598</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.9903</v>
+        <v>15.8794</v>
       </c>
       <c r="C10" t="n">
-        <v>17.0287</v>
+        <v>17.0601</v>
       </c>
       <c r="D10" t="n">
-        <v>22.6626</v>
+        <v>25.3356</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.7217</v>
+        <v>15.7083</v>
       </c>
       <c r="C11" t="n">
-        <v>17.0183</v>
+        <v>16.8681</v>
       </c>
       <c r="D11" t="n">
-        <v>23.1212</v>
+        <v>25.7297</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.2313</v>
+        <v>16.1882</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5079</v>
+        <v>17.7152</v>
       </c>
       <c r="D12" t="n">
-        <v>23.4481</v>
+        <v>26.4719</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.6607</v>
+        <v>16.7086</v>
       </c>
       <c r="C13" t="n">
-        <v>18.0168</v>
+        <v>17.8539</v>
       </c>
       <c r="D13" t="n">
-        <v>23.7893</v>
+        <v>26.3494</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.4583</v>
+        <v>16.5951</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0287</v>
+        <v>18.0525</v>
       </c>
       <c r="D14" t="n">
-        <v>23.2145</v>
+        <v>26.5682</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.5777</v>
+        <v>16.3155</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3612</v>
+        <v>18.1599</v>
       </c>
       <c r="D15" t="n">
-        <v>23.0429</v>
+        <v>26.351</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.8164</v>
+        <v>16.215</v>
       </c>
       <c r="C16" t="n">
-        <v>18.4128</v>
+        <v>18.2924</v>
       </c>
       <c r="D16" t="n">
-        <v>23.2953</v>
+        <v>26.8585</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.5719</v>
+        <v>16.7933</v>
       </c>
       <c r="C17" t="n">
-        <v>18.6775</v>
+        <v>18.738</v>
       </c>
       <c r="D17" t="n">
-        <v>23.0843</v>
+        <v>26.8706</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.05175</v>
+        <v>5.05088</v>
       </c>
       <c r="C2" t="n">
-        <v>4.89727</v>
+        <v>4.89411</v>
       </c>
       <c r="D2" t="n">
-        <v>5.20635</v>
+        <v>5.19259</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1774</v>
+        <v>6.22989</v>
       </c>
       <c r="C3" t="n">
-        <v>5.85058</v>
+        <v>5.8855</v>
       </c>
       <c r="D3" t="n">
-        <v>7.82455</v>
+        <v>8.02782</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.96312</v>
+        <v>7.49791</v>
       </c>
       <c r="C4" t="n">
-        <v>7.69435</v>
+        <v>7.55156</v>
       </c>
       <c r="D4" t="n">
-        <v>10.765</v>
+        <v>11.1368</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.73766</v>
+        <v>9.726470000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.58957</v>
+        <v>9.50756</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5434</v>
+        <v>13.8954</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.516</v>
+        <v>11.1497</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4963</v>
+        <v>11.3332</v>
       </c>
       <c r="D6" t="n">
-        <v>16.3711</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.2531</v>
+        <v>12.9602</v>
       </c>
       <c r="C7" t="n">
-        <v>13.3743</v>
+        <v>13.2312</v>
       </c>
       <c r="D7" t="n">
-        <v>18.9596</v>
+        <v>20.2145</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.0793</v>
+        <v>15.1876</v>
       </c>
       <c r="C8" t="n">
-        <v>15.503</v>
+        <v>15.3439</v>
       </c>
       <c r="D8" t="n">
-        <v>22.1819</v>
+        <v>23.2541</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.0233</v>
+        <v>17.6818</v>
       </c>
       <c r="C9" t="n">
-        <v>17.3317</v>
+        <v>17.5934</v>
       </c>
       <c r="D9" t="n">
-        <v>24.8781</v>
+        <v>27.0486</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.7876</v>
+        <v>15.0463</v>
       </c>
       <c r="C10" t="n">
-        <v>14.9916</v>
+        <v>14.8662</v>
       </c>
       <c r="D10" t="n">
-        <v>20.2683</v>
+        <v>21.7815</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.6991</v>
+        <v>14.9491</v>
       </c>
       <c r="C11" t="n">
-        <v>14.9888</v>
+        <v>14.9546</v>
       </c>
       <c r="D11" t="n">
-        <v>20.5066</v>
+        <v>21.8513</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4906</v>
+        <v>15.6545</v>
       </c>
       <c r="C12" t="n">
-        <v>15.7275</v>
+        <v>15.724</v>
       </c>
       <c r="D12" t="n">
-        <v>21.7026</v>
+        <v>23.4721</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.0559</v>
+        <v>15.8962</v>
       </c>
       <c r="C13" t="n">
-        <v>16.2783</v>
+        <v>16.1503</v>
       </c>
       <c r="D13" t="n">
-        <v>22.5518</v>
+        <v>24.485</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.8476</v>
+        <v>15.9189</v>
       </c>
       <c r="C14" t="n">
-        <v>16.2357</v>
+        <v>16.3244</v>
       </c>
       <c r="D14" t="n">
-        <v>21.7481</v>
+        <v>23.1365</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.9559</v>
+        <v>15.9659</v>
       </c>
       <c r="C15" t="n">
-        <v>16.3988</v>
+        <v>16.2608</v>
       </c>
       <c r="D15" t="n">
-        <v>21.7976</v>
+        <v>23.331</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5622</v>
+        <v>15.9151</v>
       </c>
       <c r="C16" t="n">
-        <v>16.6235</v>
+        <v>16.7246</v>
       </c>
       <c r="D16" t="n">
-        <v>22.4105</v>
+        <v>23.0973</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.6085</v>
+        <v>15.6012</v>
       </c>
       <c r="C17" t="n">
-        <v>16.9553</v>
+        <v>16.9972</v>
       </c>
       <c r="D17" t="n">
-        <v>22.4577</v>
+        <v>24.4518</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.71124</v>
+        <v>2.67175</v>
       </c>
       <c r="C2" t="n">
-        <v>4.01089</v>
+        <v>3.99728</v>
       </c>
       <c r="D2" t="n">
-        <v>4.17361</v>
+        <v>4.15977</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.47314</v>
+        <v>4.44535</v>
       </c>
       <c r="C3" t="n">
-        <v>5.41364</v>
+        <v>5.3217</v>
       </c>
       <c r="D3" t="n">
-        <v>6.86575</v>
+        <v>7.08448</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.10672</v>
+        <v>6.06153</v>
       </c>
       <c r="C4" t="n">
-        <v>7.10363</v>
+        <v>7.06631</v>
       </c>
       <c r="D4" t="n">
-        <v>9.4533</v>
+        <v>9.94852</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.58998</v>
+        <v>7.53784</v>
       </c>
       <c r="C5" t="n">
-        <v>8.86312</v>
+        <v>8.866490000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>11.7958</v>
+        <v>12.6852</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.0396</v>
+        <v>9.0487</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6719</v>
+        <v>10.6533</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1425</v>
+        <v>15.3895</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4845</v>
+        <v>10.5246</v>
       </c>
       <c r="C7" t="n">
-        <v>12.487</v>
+        <v>12.4595</v>
       </c>
       <c r="D7" t="n">
-        <v>16.4287</v>
+        <v>17.9927</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8841</v>
+        <v>11.9186</v>
       </c>
       <c r="C8" t="n">
-        <v>14.3139</v>
+        <v>14.375</v>
       </c>
       <c r="D8" t="n">
-        <v>18.5585</v>
+        <v>20.6581</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.829</v>
+        <v>13.8667</v>
       </c>
       <c r="C9" t="n">
-        <v>16.686</v>
+        <v>16.6569</v>
       </c>
       <c r="D9" t="n">
-        <v>22.1776</v>
+        <v>24.409</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.2299</v>
+        <v>13.0709</v>
       </c>
       <c r="C10" t="n">
-        <v>15.747</v>
+        <v>15.5835</v>
       </c>
       <c r="D10" t="n">
-        <v>20.5573</v>
+        <v>22.6649</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.2685</v>
+        <v>13.2584</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4989</v>
+        <v>15.3241</v>
       </c>
       <c r="D11" t="n">
-        <v>20.3457</v>
+        <v>22.4955</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.095</v>
+        <v>13.2529</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6167</v>
+        <v>15.5991</v>
       </c>
       <c r="D12" t="n">
-        <v>20.796</v>
+        <v>22.5342</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.492</v>
+        <v>13.534</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6646</v>
+        <v>15.6946</v>
       </c>
       <c r="D13" t="n">
-        <v>21.1118</v>
+        <v>23.067</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0614</v>
+        <v>12.9634</v>
       </c>
       <c r="C14" t="n">
-        <v>15.8129</v>
+        <v>15.6496</v>
       </c>
       <c r="D14" t="n">
-        <v>20.3236</v>
+        <v>22.2112</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3655</v>
+        <v>13.4542</v>
       </c>
       <c r="C15" t="n">
-        <v>15.8125</v>
+        <v>15.8153</v>
       </c>
       <c r="D15" t="n">
-        <v>21.0593</v>
+        <v>22.7553</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.4622</v>
+        <v>13.4096</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8649</v>
+        <v>15.912</v>
       </c>
       <c r="D16" t="n">
-        <v>20.7448</v>
+        <v>22.709</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2872</v>
+        <v>13.1264</v>
       </c>
       <c r="C17" t="n">
-        <v>16.0139</v>
+        <v>15.9585</v>
       </c>
       <c r="D17" t="n">
-        <v>21.0434</v>
+        <v>22.7809</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.40475</v>
+        <v>3.40016</v>
       </c>
       <c r="C2" t="n">
-        <v>5.68832</v>
+        <v>5.68906</v>
       </c>
       <c r="D2" t="n">
-        <v>5.92212</v>
+        <v>5.91083</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.30411</v>
+        <v>5.33174</v>
       </c>
       <c r="C3" t="n">
-        <v>6.55144</v>
+        <v>6.73804</v>
       </c>
       <c r="D3" t="n">
-        <v>8.94807</v>
+        <v>9.3588</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.19948</v>
+        <v>7.29491</v>
       </c>
       <c r="C4" t="n">
-        <v>8.51261</v>
+        <v>8.57254</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0191</v>
+        <v>12.9387</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.000780000000001</v>
+        <v>9.029</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5188</v>
+        <v>10.5425</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8037</v>
+        <v>16.3163</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7213</v>
+        <v>10.7142</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5816</v>
+        <v>12.6166</v>
       </c>
       <c r="D6" t="n">
-        <v>17.5421</v>
+        <v>19.6832</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3818</v>
+        <v>12.4059</v>
       </c>
       <c r="C7" t="n">
-        <v>14.6313</v>
+        <v>14.6826</v>
       </c>
       <c r="D7" t="n">
-        <v>20.1623</v>
+        <v>23.0952</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.923</v>
+        <v>14.0212</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8879</v>
+        <v>16.851</v>
       </c>
       <c r="D8" t="n">
-        <v>22.7142</v>
+        <v>26.2141</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2641</v>
+        <v>16.2931</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3326</v>
+        <v>19.285</v>
       </c>
       <c r="D9" t="n">
-        <v>27.1197</v>
+        <v>31.0939</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.6158</v>
+        <v>15.4915</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9583</v>
+        <v>18.038</v>
       </c>
       <c r="D10" t="n">
-        <v>25.5035</v>
+        <v>28.6367</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4383</v>
+        <v>15.363</v>
       </c>
       <c r="C11" t="n">
-        <v>18.1195</v>
+        <v>18.0507</v>
       </c>
       <c r="D11" t="n">
-        <v>24.8953</v>
+        <v>28.0788</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.453</v>
+        <v>15.5287</v>
       </c>
       <c r="C12" t="n">
-        <v>18.2828</v>
+        <v>18.0703</v>
       </c>
       <c r="D12" t="n">
-        <v>25.3815</v>
+        <v>28.8615</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.8427</v>
+        <v>15.7289</v>
       </c>
       <c r="C13" t="n">
-        <v>18.4224</v>
+        <v>18.1895</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6254</v>
+        <v>29.3824</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.2291</v>
+        <v>15.3379</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3595</v>
+        <v>18.3497</v>
       </c>
       <c r="D14" t="n">
-        <v>24.8528</v>
+        <v>27.835</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.7577</v>
+        <v>15.6942</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3186</v>
+        <v>18.3887</v>
       </c>
       <c r="D15" t="n">
-        <v>25.3105</v>
+        <v>28.5864</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.7425</v>
+        <v>15.6208</v>
       </c>
       <c r="C16" t="n">
-        <v>18.4509</v>
+        <v>18.495</v>
       </c>
       <c r="D16" t="n">
-        <v>25.4753</v>
+        <v>28.3777</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4571</v>
+        <v>15.6</v>
       </c>
       <c r="C17" t="n">
-        <v>18.5586</v>
+        <v>18.5843</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1201</v>
+        <v>28.3237</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.31174</v>
+        <v>4.29032</v>
       </c>
       <c r="C2" t="n">
-        <v>4.73849</v>
+        <v>4.74177</v>
       </c>
       <c r="D2" t="n">
-        <v>4.95722</v>
+        <v>4.94104</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.87699</v>
+        <v>5.93472</v>
       </c>
       <c r="C3" t="n">
-        <v>5.83146</v>
+        <v>5.84855</v>
       </c>
       <c r="D3" t="n">
-        <v>7.68559</v>
+        <v>7.84813</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.82284</v>
+        <v>7.80817</v>
       </c>
       <c r="C4" t="n">
-        <v>7.67873</v>
+        <v>7.67305</v>
       </c>
       <c r="D4" t="n">
-        <v>10.6569</v>
+        <v>10.8919</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.67815</v>
+        <v>9.69477</v>
       </c>
       <c r="C5" t="n">
-        <v>9.552709999999999</v>
+        <v>9.55691</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5238</v>
+        <v>14.015</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5321</v>
+        <v>11.5419</v>
       </c>
       <c r="C6" t="n">
-        <v>11.475</v>
+        <v>11.4814</v>
       </c>
       <c r="D6" t="n">
-        <v>16.3398</v>
+        <v>17.1291</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3729</v>
+        <v>13.3662</v>
       </c>
       <c r="C7" t="n">
-        <v>13.3825</v>
+        <v>13.217</v>
       </c>
       <c r="D7" t="n">
-        <v>19.0674</v>
+        <v>20.2175</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.329</v>
+        <v>15.3429</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2157</v>
+        <v>15.18</v>
       </c>
       <c r="D8" t="n">
-        <v>21.7299</v>
+        <v>23.312</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0691</v>
+        <v>18.015</v>
       </c>
       <c r="C9" t="n">
-        <v>17.56</v>
+        <v>17.6795</v>
       </c>
       <c r="D9" t="n">
-        <v>25.588</v>
+        <v>27.1986</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0667</v>
+        <v>16.888</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7007</v>
+        <v>16.7514</v>
       </c>
       <c r="D10" t="n">
-        <v>23.8286</v>
+        <v>24.8368</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.6899</v>
+        <v>16.9518</v>
       </c>
       <c r="C11" t="n">
-        <v>16.5695</v>
+        <v>16.427</v>
       </c>
       <c r="D11" t="n">
-        <v>23.49</v>
+        <v>24.713</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.0156</v>
+        <v>16.9384</v>
       </c>
       <c r="C12" t="n">
-        <v>16.6037</v>
+        <v>16.591</v>
       </c>
       <c r="D12" t="n">
-        <v>23.9503</v>
+        <v>25.2134</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.9149</v>
+        <v>17.194</v>
       </c>
       <c r="C13" t="n">
-        <v>16.6871</v>
+        <v>16.7282</v>
       </c>
       <c r="D13" t="n">
-        <v>24.222</v>
+        <v>25.6614</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.5865</v>
+        <v>16.6506</v>
       </c>
       <c r="C14" t="n">
-        <v>16.7817</v>
+        <v>16.8084</v>
       </c>
       <c r="D14" t="n">
-        <v>23.6155</v>
+        <v>24.8914</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.1912</v>
+        <v>17.0901</v>
       </c>
       <c r="C15" t="n">
-        <v>16.8929</v>
+        <v>16.9437</v>
       </c>
       <c r="D15" t="n">
-        <v>24.0187</v>
+        <v>25.531</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.869</v>
+        <v>16.9925</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9458</v>
+        <v>17.0151</v>
       </c>
       <c r="D16" t="n">
-        <v>24.1401</v>
+        <v>25.432</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.8156</v>
+        <v>16.8189</v>
       </c>
       <c r="C17" t="n">
-        <v>17.0697</v>
+        <v>17.1173</v>
       </c>
       <c r="D17" t="n">
-        <v>24.4187</v>
+        <v>25.7809</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.29146</v>
+        <v>4.27823</v>
       </c>
       <c r="C2" t="n">
-        <v>4.44026</v>
+        <v>4.46245</v>
       </c>
       <c r="D2" t="n">
-        <v>4.68568</v>
+        <v>4.68111</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.1317</v>
+        <v>5.52293</v>
       </c>
       <c r="C3" t="n">
-        <v>5.29555</v>
+        <v>5.43985</v>
       </c>
       <c r="D3" t="n">
-        <v>7.11111</v>
+        <v>7.33636</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.66327</v>
+        <v>7.114</v>
       </c>
       <c r="C4" t="n">
-        <v>7.11712</v>
+        <v>7.25601</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0925</v>
+        <v>10.2561</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.548360000000001</v>
+        <v>8.264419999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.00656</v>
+        <v>8.852130000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9633</v>
+        <v>12.9777</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0857</v>
+        <v>10.0803</v>
       </c>
       <c r="C6" t="n">
-        <v>10.8606</v>
+        <v>10.7048</v>
       </c>
       <c r="D6" t="n">
-        <v>15.6886</v>
+        <v>15.4173</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.534</v>
+        <v>11.5419</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5379</v>
+        <v>12.796</v>
       </c>
       <c r="D7" t="n">
-        <v>18.1883</v>
+        <v>18.4475</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9229</v>
+        <v>12.9313</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5877</v>
+        <v>14.6107</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7252</v>
+        <v>20.7452</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.1923</v>
+        <v>15.2738</v>
       </c>
       <c r="C9" t="n">
-        <v>16.9539</v>
+        <v>16.9294</v>
       </c>
       <c r="D9" t="n">
-        <v>24.3738</v>
+        <v>24.4259</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.1718</v>
+        <v>13.2598</v>
       </c>
       <c r="C10" t="n">
-        <v>14.2326</v>
+        <v>14.1419</v>
       </c>
       <c r="D10" t="n">
-        <v>19.5873</v>
+        <v>19.3674</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.1847</v>
+        <v>13.0489</v>
       </c>
       <c r="C11" t="n">
-        <v>14.4827</v>
+        <v>14.4918</v>
       </c>
       <c r="D11" t="n">
-        <v>20.1685</v>
+        <v>20.2354</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.5083</v>
+        <v>13.4775</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9925</v>
+        <v>14.9296</v>
       </c>
       <c r="D12" t="n">
-        <v>20.8417</v>
+        <v>20.9255</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6985</v>
+        <v>13.8727</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3649</v>
+        <v>15.3447</v>
       </c>
       <c r="D13" t="n">
-        <v>21.8795</v>
+        <v>21.5944</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.5529</v>
+        <v>13.7836</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3944</v>
+        <v>15.4922</v>
       </c>
       <c r="D14" t="n">
-        <v>21.3241</v>
+        <v>20.9969</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9327</v>
+        <v>13.8255</v>
       </c>
       <c r="C15" t="n">
-        <v>15.5468</v>
+        <v>15.7021</v>
       </c>
       <c r="D15" t="n">
-        <v>21.0721</v>
+        <v>21.0348</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0637</v>
+        <v>13.984</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8377</v>
+        <v>15.8775</v>
       </c>
       <c r="D16" t="n">
-        <v>21.3625</v>
+        <v>21.1933</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9331</v>
+        <v>13.9645</v>
       </c>
       <c r="C17" t="n">
-        <v>16.0387</v>
+        <v>15.921</v>
       </c>
       <c r="D17" t="n">
-        <v>21.551</v>
+        <v>21.0476</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.2359</v>
+        <v>6.232</v>
       </c>
       <c r="C2" t="n">
-        <v>6.4926</v>
+        <v>6.49762</v>
       </c>
       <c r="D2" t="n">
-        <v>6.97347</v>
+        <v>6.95875</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.28949</v>
+        <v>7.06461</v>
       </c>
       <c r="C3" t="n">
-        <v>6.82339</v>
+        <v>6.74482</v>
       </c>
       <c r="D3" t="n">
-        <v>9.643190000000001</v>
+        <v>9.85721</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.6469</v>
+        <v>8.9077</v>
       </c>
       <c r="C4" t="n">
-        <v>8.742789999999999</v>
+        <v>8.737869999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.1124</v>
+        <v>13.4651</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4628</v>
+        <v>10.5828</v>
       </c>
       <c r="C5" t="n">
-        <v>10.7064</v>
+        <v>10.7147</v>
       </c>
       <c r="D5" t="n">
-        <v>16.7067</v>
+        <v>16.807</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3498</v>
+        <v>12.33</v>
       </c>
       <c r="C6" t="n">
-        <v>12.8697</v>
+        <v>12.6453</v>
       </c>
       <c r="D6" t="n">
-        <v>20.0599</v>
+        <v>19.7835</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.0039</v>
+        <v>14.0737</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0043</v>
+        <v>14.7535</v>
       </c>
       <c r="D7" t="n">
-        <v>23.4776</v>
+        <v>23.0558</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7303</v>
+        <v>15.7437</v>
       </c>
       <c r="C8" t="n">
-        <v>17.192</v>
+        <v>17.181</v>
       </c>
       <c r="D8" t="n">
-        <v>26.195</v>
+        <v>26.1784</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5826</v>
+        <v>18.5949</v>
       </c>
       <c r="C9" t="n">
-        <v>19.8174</v>
+        <v>19.8258</v>
       </c>
       <c r="D9" t="n">
-        <v>30.9598</v>
+        <v>31.0411</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.8794</v>
+        <v>16.0617</v>
       </c>
       <c r="C10" t="n">
-        <v>17.0601</v>
+        <v>16.9758</v>
       </c>
       <c r="D10" t="n">
-        <v>25.3356</v>
+        <v>25.7005</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.7083</v>
+        <v>15.8102</v>
       </c>
       <c r="C11" t="n">
-        <v>16.8681</v>
+        <v>16.8934</v>
       </c>
       <c r="D11" t="n">
-        <v>25.7297</v>
+        <v>25.9964</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.1882</v>
+        <v>16.155</v>
       </c>
       <c r="C12" t="n">
-        <v>17.7152</v>
+        <v>17.4937</v>
       </c>
       <c r="D12" t="n">
-        <v>26.4719</v>
+        <v>26.4277</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.7086</v>
+        <v>16.6826</v>
       </c>
       <c r="C13" t="n">
-        <v>17.8539</v>
+        <v>17.769</v>
       </c>
       <c r="D13" t="n">
-        <v>26.3494</v>
+        <v>28.2321</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.5951</v>
+        <v>16.7417</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0525</v>
+        <v>18.0022</v>
       </c>
       <c r="D14" t="n">
-        <v>26.5682</v>
+        <v>26.8653</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.3155</v>
+        <v>16.5218</v>
       </c>
       <c r="C15" t="n">
-        <v>18.1599</v>
+        <v>18.3272</v>
       </c>
       <c r="D15" t="n">
-        <v>26.351</v>
+        <v>26.7888</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.215</v>
+        <v>16.744</v>
       </c>
       <c r="C16" t="n">
-        <v>18.2924</v>
+        <v>18.5861</v>
       </c>
       <c r="D16" t="n">
-        <v>26.8585</v>
+        <v>26.1715</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.7933</v>
+        <v>16.307</v>
       </c>
       <c r="C17" t="n">
-        <v>18.738</v>
+        <v>18.6769</v>
       </c>
       <c r="D17" t="n">
-        <v>26.8706</v>
+        <v>26.4028</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.05088</v>
+        <v>5.04322</v>
       </c>
       <c r="C2" t="n">
-        <v>4.89411</v>
+        <v>4.89342</v>
       </c>
       <c r="D2" t="n">
-        <v>5.19259</v>
+        <v>5.18436</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.22989</v>
+        <v>6.23409</v>
       </c>
       <c r="C3" t="n">
-        <v>5.8855</v>
+        <v>5.88387</v>
       </c>
       <c r="D3" t="n">
-        <v>8.02782</v>
+        <v>8.01965</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.49791</v>
+        <v>7.49315</v>
       </c>
       <c r="C4" t="n">
-        <v>7.55156</v>
+        <v>7.47792</v>
       </c>
       <c r="D4" t="n">
-        <v>11.1368</v>
+        <v>10.8276</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.726470000000001</v>
+        <v>9.21203</v>
       </c>
       <c r="C5" t="n">
-        <v>9.50756</v>
+        <v>9.53293</v>
       </c>
       <c r="D5" t="n">
-        <v>13.8954</v>
+        <v>13.9684</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1497</v>
+        <v>11.1367</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3332</v>
+        <v>11.3069</v>
       </c>
       <c r="D6" t="n">
-        <v>17.18</v>
+        <v>16.8466</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.9602</v>
+        <v>12.9312</v>
       </c>
       <c r="C7" t="n">
-        <v>13.2312</v>
+        <v>13.2316</v>
       </c>
       <c r="D7" t="n">
-        <v>20.2145</v>
+        <v>20.0361</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.1876</v>
+        <v>14.8019</v>
       </c>
       <c r="C8" t="n">
-        <v>15.3439</v>
+        <v>15.1645</v>
       </c>
       <c r="D8" t="n">
-        <v>23.2541</v>
+        <v>22.9382</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.6818</v>
+        <v>17.0168</v>
       </c>
       <c r="C9" t="n">
-        <v>17.5934</v>
+        <v>17.2903</v>
       </c>
       <c r="D9" t="n">
-        <v>27.0486</v>
+        <v>26.4908</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.0463</v>
+        <v>14.579</v>
       </c>
       <c r="C10" t="n">
-        <v>14.8662</v>
+        <v>14.9089</v>
       </c>
       <c r="D10" t="n">
-        <v>21.7815</v>
+        <v>21.6145</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.9491</v>
+        <v>14.8405</v>
       </c>
       <c r="C11" t="n">
-        <v>14.9546</v>
+        <v>14.8128</v>
       </c>
       <c r="D11" t="n">
-        <v>21.8513</v>
+        <v>22.198</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.6545</v>
+        <v>15.0388</v>
       </c>
       <c r="C12" t="n">
-        <v>15.724</v>
+        <v>15.5158</v>
       </c>
       <c r="D12" t="n">
-        <v>23.4721</v>
+        <v>23.3661</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.8962</v>
+        <v>15.3699</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1503</v>
+        <v>15.9574</v>
       </c>
       <c r="D13" t="n">
-        <v>24.485</v>
+        <v>23.6975</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.9189</v>
+        <v>15.4908</v>
       </c>
       <c r="C14" t="n">
-        <v>16.3244</v>
+        <v>16.0481</v>
       </c>
       <c r="D14" t="n">
-        <v>23.1365</v>
+        <v>23.352</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.9659</v>
+        <v>15.2136</v>
       </c>
       <c r="C15" t="n">
-        <v>16.2608</v>
+        <v>16.3561</v>
       </c>
       <c r="D15" t="n">
-        <v>23.331</v>
+        <v>23.5769</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.9151</v>
+        <v>15.8711</v>
       </c>
       <c r="C16" t="n">
-        <v>16.7246</v>
+        <v>16.4065</v>
       </c>
       <c r="D16" t="n">
-        <v>23.0973</v>
+        <v>23.2766</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.6012</v>
+        <v>15.7846</v>
       </c>
       <c r="C17" t="n">
-        <v>16.9972</v>
+        <v>16.8679</v>
       </c>
       <c r="D17" t="n">
-        <v>24.4518</v>
+        <v>23.4107</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.67175</v>
+        <v>2.69857</v>
       </c>
       <c r="C2" t="n">
-        <v>3.99728</v>
+        <v>4.02736</v>
       </c>
       <c r="D2" t="n">
-        <v>4.15977</v>
+        <v>4.16479</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.44535</v>
+        <v>4.46683</v>
       </c>
       <c r="C3" t="n">
-        <v>5.3217</v>
+        <v>5.42556</v>
       </c>
       <c r="D3" t="n">
-        <v>7.08448</v>
+        <v>7.06911</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.06153</v>
+        <v>6.10007</v>
       </c>
       <c r="C4" t="n">
-        <v>7.06631</v>
+        <v>7.11464</v>
       </c>
       <c r="D4" t="n">
-        <v>9.94852</v>
+        <v>9.93923</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.53784</v>
+        <v>7.59335</v>
       </c>
       <c r="C5" t="n">
-        <v>8.866490000000001</v>
+        <v>8.87738</v>
       </c>
       <c r="D5" t="n">
-        <v>12.6852</v>
+        <v>12.6511</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.0487</v>
+        <v>9.10031</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6533</v>
+        <v>10.6913</v>
       </c>
       <c r="D6" t="n">
-        <v>15.3895</v>
+        <v>15.376</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.5246</v>
+        <v>10.5029</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4595</v>
+        <v>12.5225</v>
       </c>
       <c r="D7" t="n">
-        <v>17.9927</v>
+        <v>18.0645</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9186</v>
+        <v>11.8295</v>
       </c>
       <c r="C8" t="n">
-        <v>14.375</v>
+        <v>14.3933</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6581</v>
+        <v>20.6813</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.8667</v>
+        <v>13.8689</v>
       </c>
       <c r="C9" t="n">
-        <v>16.6569</v>
+        <v>16.6656</v>
       </c>
       <c r="D9" t="n">
-        <v>24.409</v>
+        <v>24.3944</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.0709</v>
+        <v>13.3845</v>
       </c>
       <c r="C10" t="n">
-        <v>15.5835</v>
+        <v>15.8807</v>
       </c>
       <c r="D10" t="n">
-        <v>22.6649</v>
+        <v>22.6618</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.2584</v>
+        <v>13.1387</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3241</v>
+        <v>15.4912</v>
       </c>
       <c r="D11" t="n">
-        <v>22.4955</v>
+        <v>22.4597</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.2529</v>
+        <v>13.2652</v>
       </c>
       <c r="C12" t="n">
-        <v>15.5991</v>
+        <v>15.6117</v>
       </c>
       <c r="D12" t="n">
-        <v>22.5342</v>
+        <v>22.5961</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.534</v>
+        <v>13.3519</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6946</v>
+        <v>15.6868</v>
       </c>
       <c r="D13" t="n">
-        <v>23.067</v>
+        <v>23.0565</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.9634</v>
+        <v>13.0339</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6496</v>
+        <v>15.8104</v>
       </c>
       <c r="D14" t="n">
-        <v>22.2112</v>
+        <v>22.1907</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4542</v>
+        <v>13.4048</v>
       </c>
       <c r="C15" t="n">
-        <v>15.8153</v>
+        <v>15.8693</v>
       </c>
       <c r="D15" t="n">
-        <v>22.7553</v>
+        <v>22.8535</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.4096</v>
+        <v>13.3476</v>
       </c>
       <c r="C16" t="n">
-        <v>15.912</v>
+        <v>15.91</v>
       </c>
       <c r="D16" t="n">
-        <v>22.709</v>
+        <v>22.6685</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.1264</v>
+        <v>13.2035</v>
       </c>
       <c r="C17" t="n">
-        <v>15.9585</v>
+        <v>15.9893</v>
       </c>
       <c r="D17" t="n">
-        <v>22.7809</v>
+        <v>22.9457</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.40016</v>
+        <v>3.37552</v>
       </c>
       <c r="C2" t="n">
-        <v>5.68906</v>
+        <v>5.67522</v>
       </c>
       <c r="D2" t="n">
-        <v>5.91083</v>
+        <v>5.88899</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.33174</v>
+        <v>5.30892</v>
       </c>
       <c r="C3" t="n">
-        <v>6.73804</v>
+        <v>6.55544</v>
       </c>
       <c r="D3" t="n">
-        <v>9.3588</v>
+        <v>9.33534</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.29491</v>
+        <v>7.3314</v>
       </c>
       <c r="C4" t="n">
-        <v>8.57254</v>
+        <v>8.57382</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9387</v>
+        <v>12.9399</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.029</v>
+        <v>8.99789</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5425</v>
+        <v>10.5296</v>
       </c>
       <c r="D5" t="n">
-        <v>16.3163</v>
+        <v>16.2663</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7142</v>
+        <v>10.7715</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6166</v>
+        <v>12.595</v>
       </c>
       <c r="D6" t="n">
-        <v>19.6832</v>
+        <v>19.6899</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4059</v>
+        <v>12.3676</v>
       </c>
       <c r="C7" t="n">
-        <v>14.6826</v>
+        <v>14.6524</v>
       </c>
       <c r="D7" t="n">
-        <v>23.0952</v>
+        <v>22.933</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0212</v>
+        <v>14.0557</v>
       </c>
       <c r="C8" t="n">
-        <v>16.851</v>
+        <v>16.8648</v>
       </c>
       <c r="D8" t="n">
-        <v>26.2141</v>
+        <v>26.3779</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2931</v>
+        <v>16.4037</v>
       </c>
       <c r="C9" t="n">
-        <v>19.285</v>
+        <v>19.2096</v>
       </c>
       <c r="D9" t="n">
-        <v>31.0939</v>
+        <v>31.0506</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.4915</v>
+        <v>15.5539</v>
       </c>
       <c r="C10" t="n">
-        <v>18.038</v>
+        <v>17.9654</v>
       </c>
       <c r="D10" t="n">
-        <v>28.6367</v>
+        <v>28.6232</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.363</v>
+        <v>15.4523</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0507</v>
+        <v>18.0879</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0788</v>
+        <v>28.0256</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.5287</v>
+        <v>15.5422</v>
       </c>
       <c r="C12" t="n">
-        <v>18.0703</v>
+        <v>18.239</v>
       </c>
       <c r="D12" t="n">
-        <v>28.8615</v>
+        <v>28.6214</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.7289</v>
+        <v>15.8489</v>
       </c>
       <c r="C13" t="n">
-        <v>18.1895</v>
+        <v>18.2443</v>
       </c>
       <c r="D13" t="n">
-        <v>29.3824</v>
+        <v>28.8466</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.3379</v>
+        <v>15.2161</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3497</v>
+        <v>18.2939</v>
       </c>
       <c r="D14" t="n">
-        <v>27.835</v>
+        <v>28.0041</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.6942</v>
+        <v>15.4955</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3887</v>
+        <v>18.4427</v>
       </c>
       <c r="D15" t="n">
-        <v>28.5864</v>
+        <v>28.8032</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.6208</v>
+        <v>15.7046</v>
       </c>
       <c r="C16" t="n">
-        <v>18.495</v>
+        <v>18.517</v>
       </c>
       <c r="D16" t="n">
-        <v>28.3777</v>
+        <v>28.9432</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.6</v>
+        <v>15.5117</v>
       </c>
       <c r="C17" t="n">
-        <v>18.5843</v>
+        <v>18.5504</v>
       </c>
       <c r="D17" t="n">
-        <v>28.3237</v>
+        <v>28.301</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.29032</v>
+        <v>4.29214</v>
       </c>
       <c r="C2" t="n">
-        <v>4.74177</v>
+        <v>4.74222</v>
       </c>
       <c r="D2" t="n">
-        <v>4.94104</v>
+        <v>4.94184</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.93472</v>
+        <v>5.88536</v>
       </c>
       <c r="C3" t="n">
-        <v>5.84855</v>
+        <v>5.83138</v>
       </c>
       <c r="D3" t="n">
-        <v>7.84813</v>
+        <v>7.79812</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.80817</v>
+        <v>7.87266</v>
       </c>
       <c r="C4" t="n">
-        <v>7.67305</v>
+        <v>7.72255</v>
       </c>
       <c r="D4" t="n">
-        <v>10.8919</v>
+        <v>10.9125</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.69477</v>
+        <v>9.65865</v>
       </c>
       <c r="C5" t="n">
-        <v>9.55691</v>
+        <v>9.563000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>14.015</v>
+        <v>14.0316</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5419</v>
+        <v>11.5179</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4814</v>
+        <v>11.4664</v>
       </c>
       <c r="D6" t="n">
-        <v>17.1291</v>
+        <v>17.1251</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3662</v>
+        <v>13.3028</v>
       </c>
       <c r="C7" t="n">
-        <v>13.217</v>
+        <v>13.3195</v>
       </c>
       <c r="D7" t="n">
-        <v>20.2175</v>
+        <v>20.2177</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3429</v>
+        <v>15.3449</v>
       </c>
       <c r="C8" t="n">
-        <v>15.18</v>
+        <v>15.4313</v>
       </c>
       <c r="D8" t="n">
-        <v>23.312</v>
+        <v>23.4688</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.015</v>
+        <v>17.8199</v>
       </c>
       <c r="C9" t="n">
-        <v>17.6795</v>
+        <v>17.539</v>
       </c>
       <c r="D9" t="n">
-        <v>27.1986</v>
+        <v>27.2107</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.888</v>
+        <v>16.9227</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7514</v>
+        <v>16.7065</v>
       </c>
       <c r="D10" t="n">
-        <v>24.8368</v>
+        <v>25.1151</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9518</v>
+        <v>16.6463</v>
       </c>
       <c r="C11" t="n">
-        <v>16.427</v>
+        <v>16.4147</v>
       </c>
       <c r="D11" t="n">
-        <v>24.713</v>
+        <v>25.1759</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.9384</v>
+        <v>17.0497</v>
       </c>
       <c r="C12" t="n">
-        <v>16.591</v>
+        <v>16.5795</v>
       </c>
       <c r="D12" t="n">
-        <v>25.2134</v>
+        <v>25.5207</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.194</v>
+        <v>16.849</v>
       </c>
       <c r="C13" t="n">
-        <v>16.7282</v>
+        <v>16.5235</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6614</v>
+        <v>25.7805</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.6506</v>
+        <v>16.5703</v>
       </c>
       <c r="C14" t="n">
-        <v>16.8084</v>
+        <v>16.8053</v>
       </c>
       <c r="D14" t="n">
-        <v>24.8914</v>
+        <v>24.7037</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.0901</v>
+        <v>16.9128</v>
       </c>
       <c r="C15" t="n">
-        <v>16.9437</v>
+        <v>16.8723</v>
       </c>
       <c r="D15" t="n">
-        <v>25.531</v>
+        <v>25.615</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.9925</v>
+        <v>16.943</v>
       </c>
       <c r="C16" t="n">
-        <v>17.0151</v>
+        <v>16.9146</v>
       </c>
       <c r="D16" t="n">
-        <v>25.432</v>
+        <v>25.607</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.8189</v>
+        <v>16.6407</v>
       </c>
       <c r="C17" t="n">
-        <v>17.1173</v>
+        <v>17.0675</v>
       </c>
       <c r="D17" t="n">
-        <v>25.7809</v>
+        <v>25.7011</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.27823</v>
+        <v>4.29559</v>
       </c>
       <c r="C2" t="n">
-        <v>4.46245</v>
+        <v>4.45855</v>
       </c>
       <c r="D2" t="n">
-        <v>4.68111</v>
+        <v>4.68379</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.52293</v>
+        <v>5.65319</v>
       </c>
       <c r="C3" t="n">
-        <v>5.43985</v>
+        <v>5.52017</v>
       </c>
       <c r="D3" t="n">
-        <v>7.33636</v>
+        <v>7.41586</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.114</v>
+        <v>7.09692</v>
       </c>
       <c r="C4" t="n">
-        <v>7.25601</v>
+        <v>7.20035</v>
       </c>
       <c r="D4" t="n">
-        <v>10.2561</v>
+        <v>10.2621</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.264419999999999</v>
+        <v>8.56465</v>
       </c>
       <c r="C5" t="n">
-        <v>8.852130000000001</v>
+        <v>8.99971</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9777</v>
+        <v>12.9878</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0803</v>
+        <v>10.1172</v>
       </c>
       <c r="C6" t="n">
-        <v>10.7048</v>
+        <v>10.8676</v>
       </c>
       <c r="D6" t="n">
-        <v>15.4173</v>
+        <v>15.6646</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5419</v>
+        <v>11.5562</v>
       </c>
       <c r="C7" t="n">
-        <v>12.796</v>
+        <v>12.745</v>
       </c>
       <c r="D7" t="n">
-        <v>18.4475</v>
+        <v>18.341</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9313</v>
+        <v>13.0237</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6107</v>
+        <v>14.6595</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7452</v>
+        <v>20.8194</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.2738</v>
+        <v>15.3194</v>
       </c>
       <c r="C9" t="n">
-        <v>16.9294</v>
+        <v>16.9703</v>
       </c>
       <c r="D9" t="n">
-        <v>24.4259</v>
+        <v>24.3281</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.2598</v>
+        <v>13.155</v>
       </c>
       <c r="C10" t="n">
-        <v>14.1419</v>
+        <v>14.189</v>
       </c>
       <c r="D10" t="n">
-        <v>19.3674</v>
+        <v>19.5038</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.0489</v>
+        <v>13.1422</v>
       </c>
       <c r="C11" t="n">
-        <v>14.4918</v>
+        <v>14.4071</v>
       </c>
       <c r="D11" t="n">
-        <v>20.2354</v>
+        <v>20.522</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.4775</v>
+        <v>13.5706</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9296</v>
+        <v>14.9791</v>
       </c>
       <c r="D12" t="n">
-        <v>20.9255</v>
+        <v>20.9847</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.8727</v>
+        <v>13.7734</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3447</v>
+        <v>15.41</v>
       </c>
       <c r="D13" t="n">
-        <v>21.5944</v>
+        <v>22.5353</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7836</v>
+        <v>13.8378</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4922</v>
+        <v>15.4587</v>
       </c>
       <c r="D14" t="n">
-        <v>20.9969</v>
+        <v>21.545</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.8255</v>
+        <v>14.076</v>
       </c>
       <c r="C15" t="n">
-        <v>15.7021</v>
+        <v>15.689</v>
       </c>
       <c r="D15" t="n">
-        <v>21.0348</v>
+        <v>21.5362</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.984</v>
+        <v>13.8725</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8775</v>
+        <v>15.9095</v>
       </c>
       <c r="D16" t="n">
-        <v>21.1933</v>
+        <v>21.9628</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9645</v>
+        <v>14.1866</v>
       </c>
       <c r="C17" t="n">
-        <v>15.921</v>
+        <v>15.8213</v>
       </c>
       <c r="D17" t="n">
-        <v>21.0476</v>
+        <v>21.8584</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.232</v>
+        <v>6.23455</v>
       </c>
       <c r="C2" t="n">
-        <v>6.49762</v>
+        <v>6.48987</v>
       </c>
       <c r="D2" t="n">
-        <v>6.95875</v>
+        <v>6.95248</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.06461</v>
+        <v>7.24835</v>
       </c>
       <c r="C3" t="n">
-        <v>6.74482</v>
+        <v>6.88593</v>
       </c>
       <c r="D3" t="n">
-        <v>9.85721</v>
+        <v>9.984159999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.9077</v>
+        <v>8.87349</v>
       </c>
       <c r="C4" t="n">
-        <v>8.737869999999999</v>
+        <v>8.717280000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.4651</v>
+        <v>13.4951</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5828</v>
+        <v>10.5372</v>
       </c>
       <c r="C5" t="n">
-        <v>10.7147</v>
+        <v>10.6998</v>
       </c>
       <c r="D5" t="n">
-        <v>16.807</v>
+        <v>16.8237</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.33</v>
+        <v>12.3524</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6453</v>
+        <v>12.8492</v>
       </c>
       <c r="D6" t="n">
-        <v>19.7835</v>
+        <v>20.0318</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.0737</v>
+        <v>14.035</v>
       </c>
       <c r="C7" t="n">
-        <v>14.7535</v>
+        <v>15.0304</v>
       </c>
       <c r="D7" t="n">
-        <v>23.0558</v>
+        <v>23.6447</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7437</v>
+        <v>15.7825</v>
       </c>
       <c r="C8" t="n">
-        <v>17.181</v>
+        <v>17.2399</v>
       </c>
       <c r="D8" t="n">
-        <v>26.1784</v>
+        <v>26.3846</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5949</v>
+        <v>18.6595</v>
       </c>
       <c r="C9" t="n">
-        <v>19.8258</v>
+        <v>19.8834</v>
       </c>
       <c r="D9" t="n">
-        <v>31.0411</v>
+        <v>31.1125</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.0617</v>
+        <v>16.086</v>
       </c>
       <c r="C10" t="n">
-        <v>16.9758</v>
+        <v>17.2433</v>
       </c>
       <c r="D10" t="n">
-        <v>25.7005</v>
+        <v>25.4991</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.8102</v>
+        <v>15.7996</v>
       </c>
       <c r="C11" t="n">
-        <v>16.8934</v>
+        <v>16.915</v>
       </c>
       <c r="D11" t="n">
-        <v>25.9964</v>
+        <v>26.4989</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.155</v>
+        <v>16.035</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4937</v>
+        <v>17.459</v>
       </c>
       <c r="D12" t="n">
-        <v>26.4277</v>
+        <v>27.1918</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.6826</v>
+        <v>16.3945</v>
       </c>
       <c r="C13" t="n">
-        <v>17.769</v>
+        <v>18.2603</v>
       </c>
       <c r="D13" t="n">
-        <v>28.2321</v>
+        <v>27.6602</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7417</v>
+        <v>16.4617</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0022</v>
+        <v>18.263</v>
       </c>
       <c r="D14" t="n">
-        <v>26.8653</v>
+        <v>26.5017</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.5218</v>
+        <v>16.6639</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3272</v>
+        <v>18.2075</v>
       </c>
       <c r="D15" t="n">
-        <v>26.7888</v>
+        <v>26.9282</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.744</v>
+        <v>16.9581</v>
       </c>
       <c r="C16" t="n">
-        <v>18.5861</v>
+        <v>18.5441</v>
       </c>
       <c r="D16" t="n">
-        <v>26.1715</v>
+        <v>27.1578</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.307</v>
+        <v>16.0866</v>
       </c>
       <c r="C17" t="n">
-        <v>18.6769</v>
+        <v>18.8906</v>
       </c>
       <c r="D17" t="n">
-        <v>26.4028</v>
+        <v>27.8682</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.04322</v>
+        <v>5.03599</v>
       </c>
       <c r="C2" t="n">
-        <v>4.89342</v>
+        <v>4.88777</v>
       </c>
       <c r="D2" t="n">
-        <v>5.18436</v>
+        <v>5.1618</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.23409</v>
+        <v>6.2847</v>
       </c>
       <c r="C3" t="n">
-        <v>5.88387</v>
+        <v>5.93935</v>
       </c>
       <c r="D3" t="n">
-        <v>8.01965</v>
+        <v>8.03172</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.49315</v>
+        <v>7.99453</v>
       </c>
       <c r="C4" t="n">
-        <v>7.47792</v>
+        <v>7.73841</v>
       </c>
       <c r="D4" t="n">
-        <v>10.8276</v>
+        <v>11.1333</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.21203</v>
+        <v>9.70645</v>
       </c>
       <c r="C5" t="n">
-        <v>9.53293</v>
+        <v>9.61267</v>
       </c>
       <c r="D5" t="n">
-        <v>13.9684</v>
+        <v>14.1432</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1367</v>
+        <v>11.5685</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3069</v>
+        <v>11.4852</v>
       </c>
       <c r="D6" t="n">
-        <v>16.8466</v>
+        <v>17.074</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.9312</v>
+        <v>13.253</v>
       </c>
       <c r="C7" t="n">
-        <v>13.2316</v>
+        <v>13.4104</v>
       </c>
       <c r="D7" t="n">
-        <v>20.0361</v>
+        <v>20.3898</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.8019</v>
+        <v>15.1613</v>
       </c>
       <c r="C8" t="n">
-        <v>15.1645</v>
+        <v>15.403</v>
       </c>
       <c r="D8" t="n">
-        <v>22.9382</v>
+        <v>23.2373</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.0168</v>
+        <v>17.6043</v>
       </c>
       <c r="C9" t="n">
-        <v>17.2903</v>
+        <v>17.6566</v>
       </c>
       <c r="D9" t="n">
-        <v>26.4908</v>
+        <v>26.9776</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.579</v>
+        <v>15.2143</v>
       </c>
       <c r="C10" t="n">
-        <v>14.9089</v>
+        <v>15.0024</v>
       </c>
       <c r="D10" t="n">
-        <v>21.6145</v>
+        <v>21.9768</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.8405</v>
+        <v>15.0236</v>
       </c>
       <c r="C11" t="n">
-        <v>14.8128</v>
+        <v>15.0748</v>
       </c>
       <c r="D11" t="n">
-        <v>22.198</v>
+        <v>22.0649</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.0388</v>
+        <v>15.3991</v>
       </c>
       <c r="C12" t="n">
-        <v>15.5158</v>
+        <v>15.8676</v>
       </c>
       <c r="D12" t="n">
-        <v>23.3661</v>
+        <v>23.8968</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.3699</v>
+        <v>15.8015</v>
       </c>
       <c r="C13" t="n">
-        <v>15.9574</v>
+        <v>16.4032</v>
       </c>
       <c r="D13" t="n">
-        <v>23.6975</v>
+        <v>24.176</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.4908</v>
+        <v>15.6792</v>
       </c>
       <c r="C14" t="n">
-        <v>16.0481</v>
+        <v>16.1964</v>
       </c>
       <c r="D14" t="n">
-        <v>23.352</v>
+        <v>23.3961</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2136</v>
+        <v>15.8448</v>
       </c>
       <c r="C15" t="n">
-        <v>16.3561</v>
+        <v>16.4806</v>
       </c>
       <c r="D15" t="n">
-        <v>23.5769</v>
+        <v>23.8352</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.8711</v>
+        <v>15.4186</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4065</v>
+        <v>16.6872</v>
       </c>
       <c r="D16" t="n">
-        <v>23.2766</v>
+        <v>24.0937</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.7846</v>
+        <v>15.8741</v>
       </c>
       <c r="C17" t="n">
-        <v>16.8679</v>
+        <v>17.1341</v>
       </c>
       <c r="D17" t="n">
-        <v>23.4107</v>
+        <v>24.6617</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.69857</v>
+        <v>2.69982</v>
       </c>
       <c r="C2" t="n">
-        <v>4.02736</v>
+        <v>4.02487</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16479</v>
+        <v>4.16385</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.46683</v>
+        <v>4.42829</v>
       </c>
       <c r="C3" t="n">
-        <v>5.42556</v>
+        <v>5.31136</v>
       </c>
       <c r="D3" t="n">
-        <v>7.06911</v>
+        <v>7.07003</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.10007</v>
+        <v>6.08332</v>
       </c>
       <c r="C4" t="n">
-        <v>7.11464</v>
+        <v>7.0944</v>
       </c>
       <c r="D4" t="n">
-        <v>9.93923</v>
+        <v>9.97278</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.59335</v>
+        <v>7.56507</v>
       </c>
       <c r="C5" t="n">
-        <v>8.87738</v>
+        <v>8.891780000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>12.6511</v>
+        <v>12.7035</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.10031</v>
+        <v>9.098599999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6913</v>
+        <v>10.7012</v>
       </c>
       <c r="D6" t="n">
-        <v>15.376</v>
+        <v>15.4616</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.5029</v>
+        <v>10.5347</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5225</v>
+        <v>12.4927</v>
       </c>
       <c r="D7" t="n">
-        <v>18.0645</v>
+        <v>18.0638</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8295</v>
+        <v>11.9256</v>
       </c>
       <c r="C8" t="n">
-        <v>14.3933</v>
+        <v>14.413</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6813</v>
+        <v>20.7762</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.8689</v>
+        <v>13.8931</v>
       </c>
       <c r="C9" t="n">
-        <v>16.6656</v>
+        <v>16.7941</v>
       </c>
       <c r="D9" t="n">
-        <v>24.3944</v>
+        <v>24.4785</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.3845</v>
+        <v>13.2268</v>
       </c>
       <c r="C10" t="n">
-        <v>15.8807</v>
+        <v>15.7549</v>
       </c>
       <c r="D10" t="n">
-        <v>22.6618</v>
+        <v>22.7376</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.1387</v>
+        <v>13.2992</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4912</v>
+        <v>15.5058</v>
       </c>
       <c r="D11" t="n">
-        <v>22.4597</v>
+        <v>22.933</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.2652</v>
+        <v>13.3258</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6117</v>
+        <v>15.604</v>
       </c>
       <c r="D12" t="n">
-        <v>22.5961</v>
+        <v>22.7293</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.3519</v>
+        <v>13.5276</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6868</v>
+        <v>15.8716</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0565</v>
+        <v>23.379</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0339</v>
+        <v>13.0106</v>
       </c>
       <c r="C14" t="n">
-        <v>15.8104</v>
+        <v>15.8741</v>
       </c>
       <c r="D14" t="n">
-        <v>22.1907</v>
+        <v>22.3289</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4048</v>
+        <v>13.5688</v>
       </c>
       <c r="C15" t="n">
-        <v>15.8693</v>
+        <v>15.9173</v>
       </c>
       <c r="D15" t="n">
-        <v>22.8535</v>
+        <v>22.8133</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.3476</v>
+        <v>13.3315</v>
       </c>
       <c r="C16" t="n">
-        <v>15.91</v>
+        <v>15.9861</v>
       </c>
       <c r="D16" t="n">
-        <v>22.6685</v>
+        <v>22.7122</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2035</v>
+        <v>13.2991</v>
       </c>
       <c r="C17" t="n">
-        <v>15.9893</v>
+        <v>16.105</v>
       </c>
       <c r="D17" t="n">
-        <v>22.9457</v>
+        <v>22.2098</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.37552</v>
+        <v>3.37906</v>
       </c>
       <c r="C2" t="n">
-        <v>5.67522</v>
+        <v>5.6794</v>
       </c>
       <c r="D2" t="n">
-        <v>5.88899</v>
+        <v>5.89231</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.30892</v>
+        <v>5.38945</v>
       </c>
       <c r="C3" t="n">
-        <v>6.55544</v>
+        <v>6.69123</v>
       </c>
       <c r="D3" t="n">
-        <v>9.33534</v>
+        <v>9.390750000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.3314</v>
+        <v>7.28383</v>
       </c>
       <c r="C4" t="n">
-        <v>8.57382</v>
+        <v>8.56071</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9399</v>
+        <v>13.0155</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.99789</v>
+        <v>9.07066</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5296</v>
+        <v>10.5499</v>
       </c>
       <c r="D5" t="n">
-        <v>16.2663</v>
+        <v>16.3472</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7715</v>
+        <v>10.7649</v>
       </c>
       <c r="C6" t="n">
-        <v>12.595</v>
+        <v>12.6147</v>
       </c>
       <c r="D6" t="n">
-        <v>19.6899</v>
+        <v>19.7291</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3676</v>
+        <v>12.4486</v>
       </c>
       <c r="C7" t="n">
-        <v>14.6524</v>
+        <v>14.6805</v>
       </c>
       <c r="D7" t="n">
-        <v>22.933</v>
+        <v>23.1191</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0557</v>
+        <v>14.072</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8648</v>
+        <v>16.9316</v>
       </c>
       <c r="D8" t="n">
-        <v>26.3779</v>
+        <v>26.4173</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4037</v>
+        <v>16.3173</v>
       </c>
       <c r="C9" t="n">
-        <v>19.2096</v>
+        <v>19.602</v>
       </c>
       <c r="D9" t="n">
-        <v>31.0506</v>
+        <v>31.2096</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.5539</v>
+        <v>15.7412</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9654</v>
+        <v>18.0584</v>
       </c>
       <c r="D10" t="n">
-        <v>28.6232</v>
+        <v>28.8176</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4523</v>
+        <v>15.5537</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0879</v>
+        <v>18.0629</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0256</v>
+        <v>28.489</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.5422</v>
+        <v>15.5851</v>
       </c>
       <c r="C12" t="n">
-        <v>18.239</v>
+        <v>18.1616</v>
       </c>
       <c r="D12" t="n">
-        <v>28.6214</v>
+        <v>28.998</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.8489</v>
+        <v>15.8059</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2443</v>
+        <v>18.4192</v>
       </c>
       <c r="D13" t="n">
-        <v>28.8466</v>
+        <v>28.8207</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.2161</v>
+        <v>15.3797</v>
       </c>
       <c r="C14" t="n">
-        <v>18.2939</v>
+        <v>18.4644</v>
       </c>
       <c r="D14" t="n">
-        <v>28.0041</v>
+        <v>27.9271</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.4955</v>
+        <v>15.9275</v>
       </c>
       <c r="C15" t="n">
-        <v>18.4427</v>
+        <v>18.4223</v>
       </c>
       <c r="D15" t="n">
-        <v>28.8032</v>
+        <v>28.873</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.7046</v>
+        <v>15.727</v>
       </c>
       <c r="C16" t="n">
-        <v>18.517</v>
+        <v>18.6352</v>
       </c>
       <c r="D16" t="n">
-        <v>28.9432</v>
+        <v>28.3164</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5117</v>
+        <v>15.6918</v>
       </c>
       <c r="C17" t="n">
-        <v>18.5504</v>
+        <v>18.7179</v>
       </c>
       <c r="D17" t="n">
-        <v>28.301</v>
+        <v>28.1917</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.29214</v>
+        <v>4.30728</v>
       </c>
       <c r="C2" t="n">
-        <v>4.74222</v>
+        <v>4.73077</v>
       </c>
       <c r="D2" t="n">
-        <v>4.94184</v>
+        <v>4.92756</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.88536</v>
+        <v>5.89352</v>
       </c>
       <c r="C3" t="n">
-        <v>5.83138</v>
+        <v>5.82631</v>
       </c>
       <c r="D3" t="n">
-        <v>7.79812</v>
+        <v>7.79765</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.87266</v>
+        <v>7.84729</v>
       </c>
       <c r="C4" t="n">
-        <v>7.72255</v>
+        <v>7.69955</v>
       </c>
       <c r="D4" t="n">
-        <v>10.9125</v>
+        <v>10.9122</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.65865</v>
+        <v>9.68347</v>
       </c>
       <c r="C5" t="n">
-        <v>9.563000000000001</v>
+        <v>9.56484</v>
       </c>
       <c r="D5" t="n">
-        <v>14.0316</v>
+        <v>14.0148</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5179</v>
+        <v>11.543</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4664</v>
+        <v>11.5074</v>
       </c>
       <c r="D6" t="n">
-        <v>17.1251</v>
+        <v>17.1192</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3028</v>
+        <v>13.4022</v>
       </c>
       <c r="C7" t="n">
-        <v>13.3195</v>
+        <v>13.4133</v>
       </c>
       <c r="D7" t="n">
-        <v>20.2177</v>
+        <v>20.2088</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3449</v>
+        <v>15.3773</v>
       </c>
       <c r="C8" t="n">
-        <v>15.4313</v>
+        <v>15.4523</v>
       </c>
       <c r="D8" t="n">
-        <v>23.4688</v>
+        <v>23.3885</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.8199</v>
+        <v>18.1182</v>
       </c>
       <c r="C9" t="n">
-        <v>17.539</v>
+        <v>17.7297</v>
       </c>
       <c r="D9" t="n">
-        <v>27.2107</v>
+        <v>27.2765</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9227</v>
+        <v>17.1228</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7065</v>
+        <v>16.8359</v>
       </c>
       <c r="D10" t="n">
-        <v>25.1151</v>
+        <v>25.0848</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.6463</v>
+        <v>17.0843</v>
       </c>
       <c r="C11" t="n">
-        <v>16.4147</v>
+        <v>16.7154</v>
       </c>
       <c r="D11" t="n">
-        <v>25.1759</v>
+        <v>25.1213</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.0497</v>
+        <v>17.1444</v>
       </c>
       <c r="C12" t="n">
-        <v>16.5795</v>
+        <v>16.6204</v>
       </c>
       <c r="D12" t="n">
-        <v>25.5207</v>
+        <v>25.3843</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.849</v>
+        <v>17.2553</v>
       </c>
       <c r="C13" t="n">
-        <v>16.5235</v>
+        <v>16.8419</v>
       </c>
       <c r="D13" t="n">
-        <v>25.7805</v>
+        <v>25.8537</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.5703</v>
+        <v>16.7377</v>
       </c>
       <c r="C14" t="n">
-        <v>16.8053</v>
+        <v>16.9963</v>
       </c>
       <c r="D14" t="n">
-        <v>24.7037</v>
+        <v>24.8609</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.9128</v>
+        <v>17.2808</v>
       </c>
       <c r="C15" t="n">
-        <v>16.8723</v>
+        <v>17.0253</v>
       </c>
       <c r="D15" t="n">
-        <v>25.615</v>
+        <v>25.5638</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.943</v>
+        <v>17.1782</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9146</v>
+        <v>17.1523</v>
       </c>
       <c r="D16" t="n">
-        <v>25.607</v>
+        <v>25.7458</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.6407</v>
+        <v>16.9447</v>
       </c>
       <c r="C17" t="n">
-        <v>17.0675</v>
+        <v>17.2225</v>
       </c>
       <c r="D17" t="n">
-        <v>25.7011</v>
+        <v>25.5401</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.29559</v>
+        <v>4.29087</v>
       </c>
       <c r="C2" t="n">
-        <v>4.45855</v>
+        <v>4.46242</v>
       </c>
       <c r="D2" t="n">
-        <v>4.68379</v>
+        <v>4.68584</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.65319</v>
+        <v>5.67883</v>
       </c>
       <c r="C3" t="n">
-        <v>5.52017</v>
+        <v>5.55273</v>
       </c>
       <c r="D3" t="n">
-        <v>7.41586</v>
+        <v>7.40114</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.09692</v>
+        <v>6.68195</v>
       </c>
       <c r="C4" t="n">
-        <v>7.20035</v>
+        <v>7.0809</v>
       </c>
       <c r="D4" t="n">
-        <v>10.2621</v>
+        <v>9.951510000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.56465</v>
+        <v>8.152520000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>8.99971</v>
+        <v>9.02</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9878</v>
+        <v>12.8392</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.1172</v>
+        <v>10.0827</v>
       </c>
       <c r="C6" t="n">
-        <v>10.8676</v>
+        <v>10.6536</v>
       </c>
       <c r="D6" t="n">
-        <v>15.6646</v>
+        <v>15.2599</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5562</v>
+        <v>11.5474</v>
       </c>
       <c r="C7" t="n">
-        <v>12.745</v>
+        <v>12.5477</v>
       </c>
       <c r="D7" t="n">
-        <v>18.341</v>
+        <v>18.028</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0237</v>
+        <v>12.9911</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6595</v>
+        <v>14.5012</v>
       </c>
       <c r="D8" t="n">
-        <v>20.8194</v>
+        <v>20.5651</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.3194</v>
+        <v>15.3281</v>
       </c>
       <c r="C9" t="n">
-        <v>16.9703</v>
+        <v>16.9591</v>
       </c>
       <c r="D9" t="n">
-        <v>24.3281</v>
+        <v>24.3763</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.155</v>
+        <v>12.8598</v>
       </c>
       <c r="C10" t="n">
-        <v>14.189</v>
+        <v>14.2177</v>
       </c>
       <c r="D10" t="n">
-        <v>19.5038</v>
+        <v>19.2245</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.1422</v>
+        <v>12.9088</v>
       </c>
       <c r="C11" t="n">
-        <v>14.4071</v>
+        <v>14.219</v>
       </c>
       <c r="D11" t="n">
-        <v>20.522</v>
+        <v>19.8321</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.5706</v>
+        <v>13.5463</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9791</v>
+        <v>14.9021</v>
       </c>
       <c r="D12" t="n">
-        <v>20.9847</v>
+        <v>20.9528</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.7734</v>
+        <v>13.7634</v>
       </c>
       <c r="C13" t="n">
-        <v>15.41</v>
+        <v>15.3075</v>
       </c>
       <c r="D13" t="n">
-        <v>22.5353</v>
+        <v>22.1626</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8378</v>
+        <v>13.8415</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4587</v>
+        <v>15.5073</v>
       </c>
       <c r="D14" t="n">
-        <v>21.545</v>
+        <v>21.2869</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.076</v>
+        <v>13.9259</v>
       </c>
       <c r="C15" t="n">
-        <v>15.689</v>
+        <v>15.6353</v>
       </c>
       <c r="D15" t="n">
-        <v>21.5362</v>
+        <v>21.2558</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.8725</v>
+        <v>13.9636</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9095</v>
+        <v>15.9442</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9628</v>
+        <v>21.9208</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1866</v>
+        <v>14.1233</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8213</v>
+        <v>15.9906</v>
       </c>
       <c r="D17" t="n">
-        <v>21.8584</v>
+        <v>21.3874</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.23455</v>
+        <v>6.23378</v>
       </c>
       <c r="C2" t="n">
-        <v>6.48987</v>
+        <v>6.48254</v>
       </c>
       <c r="D2" t="n">
-        <v>6.95248</v>
+        <v>6.93854</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.24835</v>
+        <v>6.746</v>
       </c>
       <c r="C3" t="n">
-        <v>6.88593</v>
+        <v>6.65224</v>
       </c>
       <c r="D3" t="n">
-        <v>9.984159999999999</v>
+        <v>9.70646</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.87349</v>
+        <v>8.075340000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>8.717280000000001</v>
+        <v>8.347049999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.4951</v>
+        <v>12.7774</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5372</v>
+        <v>9.68338</v>
       </c>
       <c r="C5" t="n">
-        <v>10.6998</v>
+        <v>10.2899</v>
       </c>
       <c r="D5" t="n">
-        <v>16.8237</v>
+        <v>16.2498</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3524</v>
+        <v>12.0197</v>
       </c>
       <c r="C6" t="n">
-        <v>12.8492</v>
+        <v>12.4684</v>
       </c>
       <c r="D6" t="n">
-        <v>20.0318</v>
+        <v>19.4594</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.035</v>
+        <v>14.0248</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0304</v>
+        <v>14.5375</v>
       </c>
       <c r="D7" t="n">
-        <v>23.6447</v>
+        <v>22.6181</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7825</v>
+        <v>15.7253</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2399</v>
+        <v>17.1291</v>
       </c>
       <c r="D8" t="n">
-        <v>26.3846</v>
+        <v>27.4761</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6595</v>
+        <v>18.6479</v>
       </c>
       <c r="C9" t="n">
-        <v>19.8834</v>
+        <v>19.829</v>
       </c>
       <c r="D9" t="n">
-        <v>31.1125</v>
+        <v>30.7066</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.086</v>
+        <v>16.0018</v>
       </c>
       <c r="C10" t="n">
-        <v>17.2433</v>
+        <v>16.9848</v>
       </c>
       <c r="D10" t="n">
-        <v>25.4991</v>
+        <v>25.2034</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.7996</v>
+        <v>15.6719</v>
       </c>
       <c r="C11" t="n">
-        <v>16.915</v>
+        <v>16.8849</v>
       </c>
       <c r="D11" t="n">
-        <v>26.4989</v>
+        <v>25.542</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.035</v>
+        <v>16.1332</v>
       </c>
       <c r="C12" t="n">
-        <v>17.459</v>
+        <v>17.4814</v>
       </c>
       <c r="D12" t="n">
-        <v>27.1918</v>
+        <v>26.6258</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.3945</v>
+        <v>16.7613</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2603</v>
+        <v>18.2016</v>
       </c>
       <c r="D13" t="n">
-        <v>27.6602</v>
+        <v>28.2424</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.4617</v>
+        <v>16.4329</v>
       </c>
       <c r="C14" t="n">
-        <v>18.263</v>
+        <v>18.0368</v>
       </c>
       <c r="D14" t="n">
-        <v>26.5017</v>
+        <v>27.1515</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.6639</v>
+        <v>16.7208</v>
       </c>
       <c r="C15" t="n">
-        <v>18.2075</v>
+        <v>18.1634</v>
       </c>
       <c r="D15" t="n">
-        <v>26.9282</v>
+        <v>27.0138</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.9581</v>
+        <v>16.4649</v>
       </c>
       <c r="C16" t="n">
-        <v>18.5441</v>
+        <v>18.4901</v>
       </c>
       <c r="D16" t="n">
-        <v>27.1578</v>
+        <v>27.2787</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.0866</v>
+        <v>16.2421</v>
       </c>
       <c r="C17" t="n">
-        <v>18.8906</v>
+        <v>18.8586</v>
       </c>
       <c r="D17" t="n">
-        <v>27.8682</v>
+        <v>26.8762</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.03599</v>
+        <v>5.03926</v>
       </c>
       <c r="C2" t="n">
-        <v>4.88777</v>
+        <v>4.89639</v>
       </c>
       <c r="D2" t="n">
-        <v>5.1618</v>
+        <v>5.16814</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.2847</v>
+        <v>6.00105</v>
       </c>
       <c r="C3" t="n">
-        <v>5.93935</v>
+        <v>5.74234</v>
       </c>
       <c r="D3" t="n">
-        <v>8.03172</v>
+        <v>7.67661</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.99453</v>
+        <v>7.51149</v>
       </c>
       <c r="C4" t="n">
-        <v>7.73841</v>
+        <v>7.50012</v>
       </c>
       <c r="D4" t="n">
-        <v>11.1333</v>
+        <v>10.8038</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.70645</v>
+        <v>8.95547</v>
       </c>
       <c r="C5" t="n">
-        <v>9.61267</v>
+        <v>9.319319999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>14.1432</v>
+        <v>13.7487</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5685</v>
+        <v>10.8814</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4852</v>
+        <v>11.2359</v>
       </c>
       <c r="D6" t="n">
-        <v>17.074</v>
+        <v>16.6154</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.253</v>
+        <v>12.5272</v>
       </c>
       <c r="C7" t="n">
-        <v>13.4104</v>
+        <v>13.2888</v>
       </c>
       <c r="D7" t="n">
-        <v>20.3898</v>
+        <v>19.6624</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.1613</v>
+        <v>14.2382</v>
       </c>
       <c r="C8" t="n">
-        <v>15.403</v>
+        <v>15.197</v>
       </c>
       <c r="D8" t="n">
-        <v>23.2373</v>
+        <v>23.2213</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.6043</v>
+        <v>16.2155</v>
       </c>
       <c r="C9" t="n">
-        <v>17.6566</v>
+        <v>16.9566</v>
       </c>
       <c r="D9" t="n">
-        <v>26.9776</v>
+        <v>25.9506</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.2143</v>
+        <v>14.6073</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0024</v>
+        <v>14.8596</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9768</v>
+        <v>21.4677</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.0236</v>
+        <v>14.4866</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0748</v>
+        <v>14.8193</v>
       </c>
       <c r="D11" t="n">
-        <v>22.0649</v>
+        <v>21.5526</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.3991</v>
+        <v>14.709</v>
       </c>
       <c r="C12" t="n">
-        <v>15.8676</v>
+        <v>15.4897</v>
       </c>
       <c r="D12" t="n">
-        <v>23.8968</v>
+        <v>23.1587</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.8015</v>
+        <v>15.3811</v>
       </c>
       <c r="C13" t="n">
-        <v>16.4032</v>
+        <v>15.9462</v>
       </c>
       <c r="D13" t="n">
-        <v>24.176</v>
+        <v>24.565</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.6792</v>
+        <v>15.6679</v>
       </c>
       <c r="C14" t="n">
-        <v>16.1964</v>
+        <v>16.1573</v>
       </c>
       <c r="D14" t="n">
-        <v>23.3961</v>
+        <v>23.2772</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.8448</v>
+        <v>15.6007</v>
       </c>
       <c r="C15" t="n">
-        <v>16.4806</v>
+        <v>16.3473</v>
       </c>
       <c r="D15" t="n">
-        <v>23.8352</v>
+        <v>23.9374</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4186</v>
+        <v>15.9792</v>
       </c>
       <c r="C16" t="n">
-        <v>16.6872</v>
+        <v>16.6747</v>
       </c>
       <c r="D16" t="n">
-        <v>24.0937</v>
+        <v>23.7322</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8741</v>
+        <v>15.8848</v>
       </c>
       <c r="C17" t="n">
-        <v>17.1341</v>
+        <v>17.03</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6617</v>
+        <v>24.4448</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.69982</v>
+        <v>2.67608</v>
       </c>
       <c r="C2" t="n">
-        <v>4.02487</v>
+        <v>4.01931</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16385</v>
+        <v>4.15867</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.42829</v>
+        <v>4.42703</v>
       </c>
       <c r="C3" t="n">
-        <v>5.31136</v>
+        <v>5.32666</v>
       </c>
       <c r="D3" t="n">
-        <v>7.07003</v>
+        <v>7.0258</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.08332</v>
+        <v>6.04771</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0944</v>
+        <v>7.06946</v>
       </c>
       <c r="D4" t="n">
-        <v>9.97278</v>
+        <v>9.880660000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.56507</v>
+        <v>7.53784</v>
       </c>
       <c r="C5" t="n">
-        <v>8.891780000000001</v>
+        <v>8.865819999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>12.7035</v>
+        <v>12.5942</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.098599999999999</v>
+        <v>9.052680000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.7012</v>
+        <v>10.6125</v>
       </c>
       <c r="D6" t="n">
-        <v>15.4616</v>
+        <v>15.2798</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.5347</v>
+        <v>10.4977</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4927</v>
+        <v>12.482</v>
       </c>
       <c r="D7" t="n">
-        <v>18.0638</v>
+        <v>17.9005</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9256</v>
+        <v>11.8411</v>
       </c>
       <c r="C8" t="n">
-        <v>14.413</v>
+        <v>14.3355</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7762</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.8931</v>
+        <v>13.8097</v>
       </c>
       <c r="C9" t="n">
-        <v>16.7941</v>
+        <v>16.5896</v>
       </c>
       <c r="D9" t="n">
-        <v>24.4785</v>
+        <v>24.3155</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.2268</v>
+        <v>12.9778</v>
       </c>
       <c r="C10" t="n">
-        <v>15.7549</v>
+        <v>15.6682</v>
       </c>
       <c r="D10" t="n">
-        <v>22.7376</v>
+        <v>22.7629</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.2992</v>
+        <v>12.9368</v>
       </c>
       <c r="C11" t="n">
-        <v>15.5058</v>
+        <v>15.5961</v>
       </c>
       <c r="D11" t="n">
-        <v>22.933</v>
+        <v>22.4256</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.3258</v>
+        <v>13.1781</v>
       </c>
       <c r="C12" t="n">
-        <v>15.604</v>
+        <v>15.6599</v>
       </c>
       <c r="D12" t="n">
-        <v>22.7293</v>
+        <v>22.5274</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5276</v>
+        <v>13.4185</v>
       </c>
       <c r="C13" t="n">
-        <v>15.8716</v>
+        <v>15.6235</v>
       </c>
       <c r="D13" t="n">
-        <v>23.379</v>
+        <v>23.0316</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0106</v>
+        <v>12.859</v>
       </c>
       <c r="C14" t="n">
-        <v>15.8741</v>
+        <v>15.7387</v>
       </c>
       <c r="D14" t="n">
-        <v>22.3289</v>
+        <v>22.3263</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.5688</v>
+        <v>13.2859</v>
       </c>
       <c r="C15" t="n">
-        <v>15.9173</v>
+        <v>15.735</v>
       </c>
       <c r="D15" t="n">
-        <v>22.8133</v>
+        <v>22.9489</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.3315</v>
+        <v>13.1642</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9861</v>
+        <v>15.9044</v>
       </c>
       <c r="D16" t="n">
-        <v>22.7122</v>
+        <v>22.531</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2991</v>
+        <v>13.2366</v>
       </c>
       <c r="C17" t="n">
-        <v>16.105</v>
+        <v>15.9752</v>
       </c>
       <c r="D17" t="n">
-        <v>22.2098</v>
+        <v>22.6937</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.37906</v>
+        <v>3.3583</v>
       </c>
       <c r="C2" t="n">
-        <v>5.6794</v>
+        <v>5.66413</v>
       </c>
       <c r="D2" t="n">
-        <v>5.89231</v>
+        <v>5.87503</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.38945</v>
+        <v>5.24014</v>
       </c>
       <c r="C3" t="n">
-        <v>6.69123</v>
+        <v>6.52393</v>
       </c>
       <c r="D3" t="n">
-        <v>9.390750000000001</v>
+        <v>9.264760000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.28383</v>
+        <v>7.17844</v>
       </c>
       <c r="C4" t="n">
-        <v>8.56071</v>
+        <v>8.536350000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0155</v>
+        <v>12.9031</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.07066</v>
+        <v>9.03796</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5499</v>
+        <v>10.4481</v>
       </c>
       <c r="D5" t="n">
-        <v>16.3472</v>
+        <v>16.2495</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7649</v>
+        <v>10.7175</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6147</v>
+        <v>12.5549</v>
       </c>
       <c r="D6" t="n">
-        <v>19.7291</v>
+        <v>19.639</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4486</v>
+        <v>12.3764</v>
       </c>
       <c r="C7" t="n">
-        <v>14.6805</v>
+        <v>14.5837</v>
       </c>
       <c r="D7" t="n">
-        <v>23.1191</v>
+        <v>22.9364</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.072</v>
+        <v>14.0116</v>
       </c>
       <c r="C8" t="n">
-        <v>16.9316</v>
+        <v>16.8351</v>
       </c>
       <c r="D8" t="n">
-        <v>26.4173</v>
+        <v>25.9568</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.3173</v>
+        <v>16.2666</v>
       </c>
       <c r="C9" t="n">
-        <v>19.602</v>
+        <v>19.1442</v>
       </c>
       <c r="D9" t="n">
-        <v>31.2096</v>
+        <v>30.9847</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.7412</v>
+        <v>15.1916</v>
       </c>
       <c r="C10" t="n">
-        <v>18.0584</v>
+        <v>18.2011</v>
       </c>
       <c r="D10" t="n">
-        <v>28.8176</v>
+        <v>28.6693</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.5537</v>
+        <v>15.4201</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0629</v>
+        <v>17.9793</v>
       </c>
       <c r="D11" t="n">
-        <v>28.489</v>
+        <v>28.7779</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.5851</v>
+        <v>15.4069</v>
       </c>
       <c r="C12" t="n">
-        <v>18.1616</v>
+        <v>17.9845</v>
       </c>
       <c r="D12" t="n">
-        <v>28.998</v>
+        <v>28.769</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.8059</v>
+        <v>15.4113</v>
       </c>
       <c r="C13" t="n">
-        <v>18.4192</v>
+        <v>18.2243</v>
       </c>
       <c r="D13" t="n">
-        <v>28.8207</v>
+        <v>29.3971</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.3797</v>
+        <v>15.0773</v>
       </c>
       <c r="C14" t="n">
-        <v>18.4644</v>
+        <v>18.3072</v>
       </c>
       <c r="D14" t="n">
-        <v>27.9271</v>
+        <v>28.0902</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.9275</v>
+        <v>15.4381</v>
       </c>
       <c r="C15" t="n">
-        <v>18.4223</v>
+        <v>18.3351</v>
       </c>
       <c r="D15" t="n">
-        <v>28.873</v>
+        <v>28.6319</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.727</v>
+        <v>15.7559</v>
       </c>
       <c r="C16" t="n">
-        <v>18.6352</v>
+        <v>18.4209</v>
       </c>
       <c r="D16" t="n">
-        <v>28.3164</v>
+        <v>28.145</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.6918</v>
+        <v>15.482</v>
       </c>
       <c r="C17" t="n">
-        <v>18.7179</v>
+        <v>18.4956</v>
       </c>
       <c r="D17" t="n">
-        <v>28.1917</v>
+        <v>28.4477</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.30728</v>
+        <v>4.32872</v>
       </c>
       <c r="C2" t="n">
-        <v>4.73077</v>
+        <v>4.74464</v>
       </c>
       <c r="D2" t="n">
-        <v>4.92756</v>
+        <v>4.92812</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.89352</v>
+        <v>5.97643</v>
       </c>
       <c r="C3" t="n">
-        <v>5.82631</v>
+        <v>5.95094</v>
       </c>
       <c r="D3" t="n">
-        <v>7.79765</v>
+        <v>7.81141</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.84729</v>
+        <v>7.84682</v>
       </c>
       <c r="C4" t="n">
-        <v>7.69955</v>
+        <v>7.52084</v>
       </c>
       <c r="D4" t="n">
-        <v>10.9122</v>
+        <v>10.9004</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.68347</v>
+        <v>9.662789999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.56484</v>
+        <v>9.240170000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>14.0148</v>
+        <v>13.9474</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.543</v>
+        <v>11.2489</v>
       </c>
       <c r="C6" t="n">
-        <v>11.5074</v>
+        <v>11.1877</v>
       </c>
       <c r="D6" t="n">
-        <v>17.1192</v>
+        <v>17.0734</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.4022</v>
+        <v>13.331</v>
       </c>
       <c r="C7" t="n">
-        <v>13.4133</v>
+        <v>13.1877</v>
       </c>
       <c r="D7" t="n">
-        <v>20.2088</v>
+        <v>20.168</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3773</v>
+        <v>14.7923</v>
       </c>
       <c r="C8" t="n">
-        <v>15.4523</v>
+        <v>14.9167</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3885</v>
+        <v>23.2967</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1182</v>
+        <v>16.6203</v>
       </c>
       <c r="C9" t="n">
-        <v>17.7297</v>
+        <v>16.7202</v>
       </c>
       <c r="D9" t="n">
-        <v>27.2765</v>
+        <v>26.8379</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1228</v>
+        <v>16.4804</v>
       </c>
       <c r="C10" t="n">
-        <v>16.8359</v>
+        <v>16.5158</v>
       </c>
       <c r="D10" t="n">
-        <v>25.0848</v>
+        <v>25.0038</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0843</v>
+        <v>16.4702</v>
       </c>
       <c r="C11" t="n">
-        <v>16.7154</v>
+        <v>16.494</v>
       </c>
       <c r="D11" t="n">
-        <v>25.1213</v>
+        <v>24.8246</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.1444</v>
+        <v>16.3495</v>
       </c>
       <c r="C12" t="n">
-        <v>16.6204</v>
+        <v>16.4724</v>
       </c>
       <c r="D12" t="n">
-        <v>25.3843</v>
+        <v>25.3465</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2553</v>
+        <v>16.2338</v>
       </c>
       <c r="C13" t="n">
-        <v>16.8419</v>
+        <v>16.574</v>
       </c>
       <c r="D13" t="n">
-        <v>25.8537</v>
+        <v>25.7582</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7377</v>
+        <v>16.0099</v>
       </c>
       <c r="C14" t="n">
-        <v>16.9963</v>
+        <v>16.5518</v>
       </c>
       <c r="D14" t="n">
-        <v>24.8609</v>
+        <v>24.7781</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.2808</v>
+        <v>16.2198</v>
       </c>
       <c r="C15" t="n">
-        <v>17.0253</v>
+        <v>16.6819</v>
       </c>
       <c r="D15" t="n">
-        <v>25.5638</v>
+        <v>25.6144</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.1782</v>
+        <v>16.3987</v>
       </c>
       <c r="C16" t="n">
-        <v>17.1523</v>
+        <v>16.7398</v>
       </c>
       <c r="D16" t="n">
-        <v>25.7458</v>
+        <v>25.0044</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.9447</v>
+        <v>16.0188</v>
       </c>
       <c r="C17" t="n">
-        <v>17.2225</v>
+        <v>16.8398</v>
       </c>
       <c r="D17" t="n">
-        <v>25.5401</v>
+        <v>25.3699</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.29087</v>
+        <v>4.28406</v>
       </c>
       <c r="C2" t="n">
-        <v>4.46242</v>
+        <v>4.39129</v>
       </c>
       <c r="D2" t="n">
-        <v>4.68584</v>
+        <v>4.67772</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.67883</v>
+        <v>5.10681</v>
       </c>
       <c r="C3" t="n">
-        <v>5.55273</v>
+        <v>5.71421</v>
       </c>
       <c r="D3" t="n">
-        <v>7.40114</v>
+        <v>7.24243</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.68195</v>
+        <v>6.44533</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0809</v>
+        <v>7.53948</v>
       </c>
       <c r="D4" t="n">
-        <v>9.951510000000001</v>
+        <v>10.0712</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.152520000000001</v>
+        <v>8.18998</v>
       </c>
       <c r="C5" t="n">
-        <v>9.02</v>
+        <v>9.435650000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>12.8392</v>
+        <v>12.5875</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0827</v>
+        <v>10.047</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6536</v>
+        <v>10.8457</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2599</v>
+        <v>15.1766</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5474</v>
+        <v>11.5406</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5477</v>
+        <v>13.656</v>
       </c>
       <c r="D7" t="n">
-        <v>18.028</v>
+        <v>18.1292</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9911</v>
+        <v>12.9689</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5012</v>
+        <v>15.2197</v>
       </c>
       <c r="D8" t="n">
-        <v>20.5651</v>
+        <v>20.6206</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.3281</v>
+        <v>15.3581</v>
       </c>
       <c r="C9" t="n">
-        <v>16.9591</v>
+        <v>18.2356</v>
       </c>
       <c r="D9" t="n">
-        <v>24.3763</v>
+        <v>24.077</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.8598</v>
+        <v>13.2299</v>
       </c>
       <c r="C10" t="n">
-        <v>14.2177</v>
+        <v>15.1452</v>
       </c>
       <c r="D10" t="n">
-        <v>19.2245</v>
+        <v>19.4975</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.9088</v>
+        <v>13.1241</v>
       </c>
       <c r="C11" t="n">
-        <v>14.219</v>
+        <v>15.5654</v>
       </c>
       <c r="D11" t="n">
-        <v>19.8321</v>
+        <v>19.9885</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.5463</v>
+        <v>13.6473</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9021</v>
+        <v>15.7545</v>
       </c>
       <c r="D12" t="n">
-        <v>20.9528</v>
+        <v>21.1745</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.7634</v>
+        <v>13.7164</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3075</v>
+        <v>16.7871</v>
       </c>
       <c r="D13" t="n">
-        <v>22.1626</v>
+        <v>22.2006</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8415</v>
+        <v>13.7835</v>
       </c>
       <c r="C14" t="n">
-        <v>15.5073</v>
+        <v>16.8594</v>
       </c>
       <c r="D14" t="n">
-        <v>21.2869</v>
+        <v>20.8365</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9259</v>
+        <v>13.8482</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6353</v>
+        <v>16.5986</v>
       </c>
       <c r="D15" t="n">
-        <v>21.2558</v>
+        <v>21.2064</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9636</v>
+        <v>14.0507</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9442</v>
+        <v>17.3625</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9208</v>
+        <v>21.5233</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1233</v>
+        <v>13.8766</v>
       </c>
       <c r="C17" t="n">
-        <v>15.9906</v>
+        <v>17.441</v>
       </c>
       <c r="D17" t="n">
-        <v>21.3874</v>
+        <v>21.6857</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.23378</v>
+        <v>6.25763</v>
       </c>
       <c r="C2" t="n">
-        <v>6.48254</v>
+        <v>6.47333</v>
       </c>
       <c r="D2" t="n">
-        <v>6.93854</v>
+        <v>6.93432</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.746</v>
+        <v>6.79529</v>
       </c>
       <c r="C3" t="n">
-        <v>6.65224</v>
+        <v>7.30617</v>
       </c>
       <c r="D3" t="n">
-        <v>9.70646</v>
+        <v>9.5214</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.075340000000001</v>
+        <v>8.27788</v>
       </c>
       <c r="C4" t="n">
-        <v>8.347049999999999</v>
+        <v>8.88016</v>
       </c>
       <c r="D4" t="n">
-        <v>12.7774</v>
+        <v>12.9893</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.68338</v>
+        <v>9.71397</v>
       </c>
       <c r="C5" t="n">
-        <v>10.2899</v>
+        <v>10.6447</v>
       </c>
       <c r="D5" t="n">
-        <v>16.2498</v>
+        <v>16.1678</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0197</v>
+        <v>12.0796</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4684</v>
+        <v>13.478</v>
       </c>
       <c r="D6" t="n">
-        <v>19.4594</v>
+        <v>19.7059</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.0248</v>
+        <v>14.0118</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5375</v>
+        <v>16.1653</v>
       </c>
       <c r="D7" t="n">
-        <v>22.6181</v>
+        <v>22.7642</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7253</v>
+        <v>15.7218</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1291</v>
+        <v>18.9053</v>
       </c>
       <c r="D8" t="n">
-        <v>27.4761</v>
+        <v>26.2875</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6479</v>
+        <v>18.3405</v>
       </c>
       <c r="C9" t="n">
-        <v>19.829</v>
+        <v>21.8765</v>
       </c>
       <c r="D9" t="n">
-        <v>30.7066</v>
+        <v>30.9345</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.0018</v>
+        <v>15.5472</v>
       </c>
       <c r="C10" t="n">
-        <v>16.9848</v>
+        <v>18.5106</v>
       </c>
       <c r="D10" t="n">
-        <v>25.2034</v>
+        <v>25.4306</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.6719</v>
+        <v>15.7408</v>
       </c>
       <c r="C11" t="n">
-        <v>16.8849</v>
+        <v>18.6748</v>
       </c>
       <c r="D11" t="n">
-        <v>25.542</v>
+        <v>25.7636</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.1332</v>
+        <v>16.2577</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4814</v>
+        <v>19.5409</v>
       </c>
       <c r="D12" t="n">
-        <v>26.6258</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.7613</v>
+        <v>16.124</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2016</v>
+        <v>19.5121</v>
       </c>
       <c r="D13" t="n">
-        <v>28.2424</v>
+        <v>27.653</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.4329</v>
+        <v>16.4885</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0368</v>
+        <v>20.225</v>
       </c>
       <c r="D14" t="n">
-        <v>27.1515</v>
+        <v>26.7473</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.7208</v>
+        <v>16.7221</v>
       </c>
       <c r="C15" t="n">
-        <v>18.1634</v>
+        <v>20.3887</v>
       </c>
       <c r="D15" t="n">
-        <v>27.0138</v>
+        <v>27.0924</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.4649</v>
+        <v>16.5988</v>
       </c>
       <c r="C16" t="n">
-        <v>18.4901</v>
+        <v>20.6203</v>
       </c>
       <c r="D16" t="n">
-        <v>27.2787</v>
+        <v>27.3153</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.2421</v>
+        <v>16.9975</v>
       </c>
       <c r="C17" t="n">
-        <v>18.8586</v>
+        <v>21.0065</v>
       </c>
       <c r="D17" t="n">
-        <v>26.8762</v>
+        <v>27.1797</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.03926</v>
+        <v>5.04285</v>
       </c>
       <c r="C2" t="n">
-        <v>4.89639</v>
+        <v>4.8811</v>
       </c>
       <c r="D2" t="n">
-        <v>5.16814</v>
+        <v>5.15815</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.00105</v>
+        <v>6.28244</v>
       </c>
       <c r="C3" t="n">
-        <v>5.74234</v>
+        <v>6.19727</v>
       </c>
       <c r="D3" t="n">
-        <v>7.67661</v>
+        <v>7.77363</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.51149</v>
+        <v>7.49334</v>
       </c>
       <c r="C4" t="n">
-        <v>7.50012</v>
+        <v>7.72797</v>
       </c>
       <c r="D4" t="n">
-        <v>10.8038</v>
+        <v>10.7423</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.95547</v>
+        <v>9.014379999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.319319999999999</v>
+        <v>9.43108</v>
       </c>
       <c r="D5" t="n">
-        <v>13.7487</v>
+        <v>13.6147</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8814</v>
+        <v>10.7291</v>
       </c>
       <c r="C6" t="n">
-        <v>11.2359</v>
+        <v>11.3504</v>
       </c>
       <c r="D6" t="n">
-        <v>16.6154</v>
+        <v>16.471</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5272</v>
+        <v>12.4705</v>
       </c>
       <c r="C7" t="n">
-        <v>13.2888</v>
+        <v>13.9434</v>
       </c>
       <c r="D7" t="n">
-        <v>19.6624</v>
+        <v>20.3693</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.2382</v>
+        <v>14.3595</v>
       </c>
       <c r="C8" t="n">
-        <v>15.197</v>
+        <v>15.2482</v>
       </c>
       <c r="D8" t="n">
-        <v>23.2213</v>
+        <v>22.2561</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2155</v>
+        <v>16.2291</v>
       </c>
       <c r="C9" t="n">
-        <v>16.9566</v>
+        <v>17.4048</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9506</v>
+        <v>25.6127</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.6073</v>
+        <v>14.5481</v>
       </c>
       <c r="C10" t="n">
-        <v>14.8596</v>
+        <v>15.8494</v>
       </c>
       <c r="D10" t="n">
-        <v>21.4677</v>
+        <v>21.8804</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4866</v>
+        <v>14.3563</v>
       </c>
       <c r="C11" t="n">
-        <v>14.8193</v>
+        <v>15.6851</v>
       </c>
       <c r="D11" t="n">
-        <v>21.5526</v>
+        <v>21.8412</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.709</v>
+        <v>14.6472</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4897</v>
+        <v>16.0318</v>
       </c>
       <c r="D12" t="n">
-        <v>23.1587</v>
+        <v>23.1134</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.3811</v>
+        <v>15.2465</v>
       </c>
       <c r="C13" t="n">
-        <v>15.9462</v>
+        <v>16.7483</v>
       </c>
       <c r="D13" t="n">
-        <v>24.565</v>
+        <v>23.5018</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.6679</v>
+        <v>15.5599</v>
       </c>
       <c r="C14" t="n">
-        <v>16.1573</v>
+        <v>16.9343</v>
       </c>
       <c r="D14" t="n">
-        <v>23.2772</v>
+        <v>22.9351</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.6007</v>
+        <v>15.7785</v>
       </c>
       <c r="C15" t="n">
-        <v>16.3473</v>
+        <v>17.9045</v>
       </c>
       <c r="D15" t="n">
-        <v>23.9374</v>
+        <v>23.8367</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.9792</v>
+        <v>15.6003</v>
       </c>
       <c r="C16" t="n">
-        <v>16.6747</v>
+        <v>18.341</v>
       </c>
       <c r="D16" t="n">
-        <v>23.7322</v>
+        <v>24.0195</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8848</v>
+        <v>15.7524</v>
       </c>
       <c r="C17" t="n">
-        <v>17.03</v>
+        <v>18.6597</v>
       </c>
       <c r="D17" t="n">
-        <v>24.4448</v>
+        <v>24.029</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.67608</v>
+        <v>2.64877</v>
       </c>
       <c r="C2" t="n">
-        <v>4.01931</v>
+        <v>3.95557</v>
       </c>
       <c r="D2" t="n">
-        <v>4.15867</v>
+        <v>4.16104</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.42703</v>
+        <v>4.37096</v>
       </c>
       <c r="C3" t="n">
-        <v>5.32666</v>
+        <v>5.56347</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0258</v>
+        <v>7.00273</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.04771</v>
+        <v>6.02939</v>
       </c>
       <c r="C4" t="n">
-        <v>7.06946</v>
+        <v>7.54703</v>
       </c>
       <c r="D4" t="n">
-        <v>9.880660000000001</v>
+        <v>9.88869</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.53784</v>
+        <v>7.52591</v>
       </c>
       <c r="C5" t="n">
-        <v>8.865819999999999</v>
+        <v>9.41766</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5942</v>
+        <v>12.6325</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.052680000000001</v>
+        <v>9.07389</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6125</v>
+        <v>11.3942</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2798</v>
+        <v>15.292</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4977</v>
+        <v>10.5116</v>
       </c>
       <c r="C7" t="n">
-        <v>12.482</v>
+        <v>13.3435</v>
       </c>
       <c r="D7" t="n">
-        <v>17.9005</v>
+        <v>17.9386</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8411</v>
+        <v>11.8509</v>
       </c>
       <c r="C8" t="n">
-        <v>14.3355</v>
+        <v>15.4498</v>
       </c>
       <c r="D8" t="n">
-        <v>20.58</v>
+        <v>20.7786</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.8097</v>
+        <v>13.7645</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5896</v>
+        <v>18.1582</v>
       </c>
       <c r="D9" t="n">
-        <v>24.3155</v>
+        <v>24.3697</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.9778</v>
+        <v>13.4197</v>
       </c>
       <c r="C10" t="n">
-        <v>15.6682</v>
+        <v>16.9259</v>
       </c>
       <c r="D10" t="n">
-        <v>22.7629</v>
+        <v>22.5445</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.9368</v>
+        <v>13.1812</v>
       </c>
       <c r="C11" t="n">
-        <v>15.5961</v>
+        <v>16.9955</v>
       </c>
       <c r="D11" t="n">
-        <v>22.4256</v>
+        <v>22.4058</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.1781</v>
+        <v>13.2317</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6599</v>
+        <v>16.924</v>
       </c>
       <c r="D12" t="n">
-        <v>22.5274</v>
+        <v>22.8132</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.4185</v>
+        <v>13.3119</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6235</v>
+        <v>17.1391</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0316</v>
+        <v>23.2849</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.859</v>
+        <v>12.9902</v>
       </c>
       <c r="C14" t="n">
-        <v>15.7387</v>
+        <v>17.1165</v>
       </c>
       <c r="D14" t="n">
-        <v>22.3263</v>
+        <v>22.1712</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.2859</v>
+        <v>13.4431</v>
       </c>
       <c r="C15" t="n">
-        <v>15.735</v>
+        <v>17.2484</v>
       </c>
       <c r="D15" t="n">
-        <v>22.9489</v>
+        <v>22.829</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1642</v>
+        <v>13.3218</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9044</v>
+        <v>17.4089</v>
       </c>
       <c r="D16" t="n">
-        <v>22.531</v>
+        <v>22.6892</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2366</v>
+        <v>13.2109</v>
       </c>
       <c r="C17" t="n">
-        <v>15.9752</v>
+        <v>17.5158</v>
       </c>
       <c r="D17" t="n">
-        <v>22.6937</v>
+        <v>22.6816</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.3583</v>
+        <v>3.38908</v>
       </c>
       <c r="C2" t="n">
-        <v>5.66413</v>
+        <v>5.65712</v>
       </c>
       <c r="D2" t="n">
-        <v>5.87503</v>
+        <v>5.89101</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.24014</v>
+        <v>5.39656</v>
       </c>
       <c r="C3" t="n">
-        <v>6.52393</v>
+        <v>7.143</v>
       </c>
       <c r="D3" t="n">
-        <v>9.264760000000001</v>
+        <v>9.37818</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.17844</v>
+        <v>7.21774</v>
       </c>
       <c r="C4" t="n">
-        <v>8.536350000000001</v>
+        <v>9.28844</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9031</v>
+        <v>12.9098</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.03796</v>
+        <v>9.00652</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4481</v>
+        <v>11.4384</v>
       </c>
       <c r="D5" t="n">
-        <v>16.2495</v>
+        <v>16.2616</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7175</v>
+        <v>10.7202</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5549</v>
+        <v>13.7104</v>
       </c>
       <c r="D6" t="n">
-        <v>19.639</v>
+        <v>19.6499</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3764</v>
+        <v>12.3546</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5837</v>
+        <v>15.9817</v>
       </c>
       <c r="D7" t="n">
-        <v>22.9364</v>
+        <v>22.9373</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0116</v>
+        <v>14.0014</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8351</v>
+        <v>18.4938</v>
       </c>
       <c r="D8" t="n">
-        <v>25.9568</v>
+        <v>26.4422</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2666</v>
+        <v>16.2114</v>
       </c>
       <c r="C9" t="n">
-        <v>19.1442</v>
+        <v>21.7149</v>
       </c>
       <c r="D9" t="n">
-        <v>30.9847</v>
+        <v>31.0495</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.1916</v>
+        <v>15.5355</v>
       </c>
       <c r="C10" t="n">
-        <v>18.2011</v>
+        <v>20.1298</v>
       </c>
       <c r="D10" t="n">
-        <v>28.6693</v>
+        <v>28.721</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4201</v>
+        <v>15.3078</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9793</v>
+        <v>19.72</v>
       </c>
       <c r="D11" t="n">
-        <v>28.7779</v>
+        <v>28.4546</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4069</v>
+        <v>15.5497</v>
       </c>
       <c r="C12" t="n">
-        <v>17.9845</v>
+        <v>20.0631</v>
       </c>
       <c r="D12" t="n">
-        <v>28.769</v>
+        <v>29.2084</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.4113</v>
+        <v>15.5747</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2243</v>
+        <v>20.3154</v>
       </c>
       <c r="D13" t="n">
-        <v>29.3971</v>
+        <v>29.1931</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0773</v>
+        <v>15.3083</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3072</v>
+        <v>20.3861</v>
       </c>
       <c r="D14" t="n">
-        <v>28.0902</v>
+        <v>28.1417</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.4381</v>
+        <v>15.4969</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3351</v>
+        <v>20.5522</v>
       </c>
       <c r="D15" t="n">
-        <v>28.6319</v>
+        <v>28.533</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.7559</v>
+        <v>15.3892</v>
       </c>
       <c r="C16" t="n">
-        <v>18.4209</v>
+        <v>20.7384</v>
       </c>
       <c r="D16" t="n">
-        <v>28.145</v>
+        <v>28.7249</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.482</v>
+        <v>15.5463</v>
       </c>
       <c r="C17" t="n">
-        <v>18.4956</v>
+        <v>20.8017</v>
       </c>
       <c r="D17" t="n">
-        <v>28.4477</v>
+        <v>28.3356</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.32872</v>
+        <v>4.30622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.74464</v>
+        <v>4.71306</v>
       </c>
       <c r="D2" t="n">
-        <v>4.92812</v>
+        <v>4.92544</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.97643</v>
+        <v>5.87942</v>
       </c>
       <c r="C3" t="n">
-        <v>5.95094</v>
+        <v>6.14682</v>
       </c>
       <c r="D3" t="n">
-        <v>7.81141</v>
+        <v>7.76391</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.84682</v>
+        <v>7.83804</v>
       </c>
       <c r="C4" t="n">
-        <v>7.52084</v>
+        <v>8.23227</v>
       </c>
       <c r="D4" t="n">
-        <v>10.9004</v>
+        <v>10.9475</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.662789999999999</v>
+        <v>9.67844</v>
       </c>
       <c r="C5" t="n">
-        <v>9.240170000000001</v>
+        <v>10.0226</v>
       </c>
       <c r="D5" t="n">
-        <v>13.9474</v>
+        <v>13.9717</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.2489</v>
+        <v>11.5434</v>
       </c>
       <c r="C6" t="n">
-        <v>11.1877</v>
+        <v>12.0983</v>
       </c>
       <c r="D6" t="n">
-        <v>17.0734</v>
+        <v>17.0801</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.331</v>
+        <v>13.3776</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1877</v>
+        <v>14.2525</v>
       </c>
       <c r="D7" t="n">
-        <v>20.168</v>
+        <v>20.1652</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.7923</v>
+        <v>15.3776</v>
       </c>
       <c r="C8" t="n">
-        <v>14.9167</v>
+        <v>15.7901</v>
       </c>
       <c r="D8" t="n">
-        <v>23.2967</v>
+        <v>23.2667</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.6203</v>
+        <v>16.9288</v>
       </c>
       <c r="C9" t="n">
-        <v>16.7202</v>
+        <v>17.8098</v>
       </c>
       <c r="D9" t="n">
-        <v>26.8379</v>
+        <v>26.8867</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.4804</v>
+        <v>16.6458</v>
       </c>
       <c r="C10" t="n">
-        <v>16.5158</v>
+        <v>17.6355</v>
       </c>
       <c r="D10" t="n">
-        <v>25.0038</v>
+        <v>25.0911</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.4702</v>
+        <v>16.4115</v>
       </c>
       <c r="C11" t="n">
-        <v>16.494</v>
+        <v>17.4877</v>
       </c>
       <c r="D11" t="n">
-        <v>24.8246</v>
+        <v>24.8547</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.3495</v>
+        <v>16.6269</v>
       </c>
       <c r="C12" t="n">
-        <v>16.4724</v>
+        <v>17.4437</v>
       </c>
       <c r="D12" t="n">
-        <v>25.3465</v>
+        <v>25.3046</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.2338</v>
+        <v>16.3232</v>
       </c>
       <c r="C13" t="n">
-        <v>16.574</v>
+        <v>17.6766</v>
       </c>
       <c r="D13" t="n">
-        <v>25.7582</v>
+        <v>25.8135</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.0099</v>
+        <v>16.2333</v>
       </c>
       <c r="C14" t="n">
-        <v>16.5518</v>
+        <v>17.6751</v>
       </c>
       <c r="D14" t="n">
-        <v>24.7781</v>
+        <v>24.6922</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.2198</v>
+        <v>16.5003</v>
       </c>
       <c r="C15" t="n">
-        <v>16.6819</v>
+        <v>17.8244</v>
       </c>
       <c r="D15" t="n">
-        <v>25.6144</v>
+        <v>25.7812</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.3987</v>
+        <v>16.2852</v>
       </c>
       <c r="C16" t="n">
-        <v>16.7398</v>
+        <v>17.5714</v>
       </c>
       <c r="D16" t="n">
-        <v>25.0044</v>
+        <v>25.4039</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.0188</v>
+        <v>16.464</v>
       </c>
       <c r="C17" t="n">
-        <v>16.8398</v>
+        <v>17.7231</v>
       </c>
       <c r="D17" t="n">
-        <v>25.3699</v>
+        <v>25.5064</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.28406</v>
+        <v>3.86896</v>
       </c>
       <c r="C2" t="n">
-        <v>4.39129</v>
+        <v>4.53083</v>
       </c>
       <c r="D2" t="n">
-        <v>4.67772</v>
+        <v>4.55026</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.10681</v>
+        <v>5.2989</v>
       </c>
       <c r="C3" t="n">
-        <v>5.71421</v>
+        <v>5.89763</v>
       </c>
       <c r="D3" t="n">
-        <v>7.24243</v>
+        <v>7.18701</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.44533</v>
+        <v>6.35369</v>
       </c>
       <c r="C4" t="n">
-        <v>7.53948</v>
+        <v>7.72013</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0712</v>
+        <v>9.96768</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.18998</v>
+        <v>8.1759</v>
       </c>
       <c r="C5" t="n">
-        <v>9.435650000000001</v>
+        <v>9.657550000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5875</v>
+        <v>12.5846</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.047</v>
+        <v>9.647130000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.8457</v>
+        <v>11.4044</v>
       </c>
       <c r="D6" t="n">
-        <v>15.1766</v>
+        <v>14.9491</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5406</v>
+        <v>11.0663</v>
       </c>
       <c r="C7" t="n">
-        <v>13.656</v>
+        <v>13.7981</v>
       </c>
       <c r="D7" t="n">
-        <v>18.1292</v>
+        <v>17.8152</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9689</v>
+        <v>12.4361</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2197</v>
+        <v>15.8354</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6206</v>
+        <v>20.098</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.3581</v>
+        <v>14.6921</v>
       </c>
       <c r="C9" t="n">
-        <v>18.2356</v>
+        <v>18.5125</v>
       </c>
       <c r="D9" t="n">
-        <v>24.077</v>
+        <v>23.8647</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.2299</v>
+        <v>12.5251</v>
       </c>
       <c r="C10" t="n">
-        <v>15.1452</v>
+        <v>15.4311</v>
       </c>
       <c r="D10" t="n">
-        <v>19.4975</v>
+        <v>18.8092</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.1241</v>
+        <v>12.658</v>
       </c>
       <c r="C11" t="n">
-        <v>15.5654</v>
+        <v>15.7643</v>
       </c>
       <c r="D11" t="n">
-        <v>19.9885</v>
+        <v>19.3238</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.6473</v>
+        <v>13.0395</v>
       </c>
       <c r="C12" t="n">
-        <v>15.7545</v>
+        <v>16.3819</v>
       </c>
       <c r="D12" t="n">
-        <v>21.1745</v>
+        <v>20.1361</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.7164</v>
+        <v>13.2213</v>
       </c>
       <c r="C13" t="n">
-        <v>16.7871</v>
+        <v>16.8902</v>
       </c>
       <c r="D13" t="n">
-        <v>22.2006</v>
+        <v>21.5549</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7835</v>
+        <v>13.2497</v>
       </c>
       <c r="C14" t="n">
-        <v>16.8594</v>
+        <v>16.9133</v>
       </c>
       <c r="D14" t="n">
-        <v>20.8365</v>
+        <v>20.1871</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.8482</v>
+        <v>13.2774</v>
       </c>
       <c r="C15" t="n">
-        <v>16.5986</v>
+        <v>17.121</v>
       </c>
       <c r="D15" t="n">
-        <v>21.2064</v>
+        <v>20.8737</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0507</v>
+        <v>13.3281</v>
       </c>
       <c r="C16" t="n">
-        <v>17.3625</v>
+        <v>17.4274</v>
       </c>
       <c r="D16" t="n">
-        <v>21.5233</v>
+        <v>21.1563</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.8766</v>
+        <v>13.2464</v>
       </c>
       <c r="C17" t="n">
-        <v>17.441</v>
+        <v>17.6712</v>
       </c>
       <c r="D17" t="n">
-        <v>21.6857</v>
+        <v>20.9096</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.25763</v>
+        <v>5.5208</v>
       </c>
       <c r="C2" t="n">
-        <v>6.47333</v>
+        <v>6.83637</v>
       </c>
       <c r="D2" t="n">
-        <v>6.93432</v>
+        <v>6.81275</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.79529</v>
+        <v>6.8919</v>
       </c>
       <c r="C3" t="n">
-        <v>7.30617</v>
+        <v>7.69723</v>
       </c>
       <c r="D3" t="n">
-        <v>9.5214</v>
+        <v>9.73152</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.27788</v>
+        <v>7.97179</v>
       </c>
       <c r="C4" t="n">
-        <v>8.88016</v>
+        <v>9.150230000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9893</v>
+        <v>12.7202</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.71397</v>
+        <v>9.68024</v>
       </c>
       <c r="C5" t="n">
-        <v>10.6447</v>
+        <v>11.4475</v>
       </c>
       <c r="D5" t="n">
-        <v>16.1678</v>
+        <v>16.1066</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0796</v>
+        <v>11.6896</v>
       </c>
       <c r="C6" t="n">
-        <v>13.478</v>
+        <v>14.1988</v>
       </c>
       <c r="D6" t="n">
-        <v>19.7059</v>
+        <v>19.473</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.0118</v>
+        <v>13.5899</v>
       </c>
       <c r="C7" t="n">
-        <v>16.1653</v>
+        <v>17.0043</v>
       </c>
       <c r="D7" t="n">
-        <v>22.7642</v>
+        <v>22.9324</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7218</v>
+        <v>15.2432</v>
       </c>
       <c r="C8" t="n">
-        <v>18.9053</v>
+        <v>18.5257</v>
       </c>
       <c r="D8" t="n">
-        <v>26.2875</v>
+        <v>25.325</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3405</v>
+        <v>17.4952</v>
       </c>
       <c r="C9" t="n">
-        <v>21.8765</v>
+        <v>22.3821</v>
       </c>
       <c r="D9" t="n">
-        <v>30.9345</v>
+        <v>30.0613</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.5472</v>
+        <v>15.1492</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5106</v>
+        <v>19.1561</v>
       </c>
       <c r="D10" t="n">
-        <v>25.4306</v>
+        <v>25.0715</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.7408</v>
+        <v>15.2445</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6748</v>
+        <v>19.2913</v>
       </c>
       <c r="D11" t="n">
-        <v>25.7636</v>
+        <v>25.3418</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.2577</v>
+        <v>15.7697</v>
       </c>
       <c r="C12" t="n">
-        <v>19.5409</v>
+        <v>20.3973</v>
       </c>
       <c r="D12" t="n">
-        <v>26.26</v>
+        <v>26.8404</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.124</v>
+        <v>15.9862</v>
       </c>
       <c r="C13" t="n">
-        <v>19.5121</v>
+        <v>20.7606</v>
       </c>
       <c r="D13" t="n">
-        <v>27.653</v>
+        <v>26.5646</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.4885</v>
+        <v>16.1554</v>
       </c>
       <c r="C14" t="n">
-        <v>20.225</v>
+        <v>20.5594</v>
       </c>
       <c r="D14" t="n">
-        <v>26.7473</v>
+        <v>26.082</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.7221</v>
+        <v>16.1345</v>
       </c>
       <c r="C15" t="n">
-        <v>20.3887</v>
+        <v>20.899</v>
       </c>
       <c r="D15" t="n">
-        <v>27.0924</v>
+        <v>26.0434</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.5988</v>
+        <v>16.0729</v>
       </c>
       <c r="C16" t="n">
-        <v>20.6203</v>
+        <v>20.9211</v>
       </c>
       <c r="D16" t="n">
-        <v>27.3153</v>
+        <v>26.1451</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.9975</v>
+        <v>15.8164</v>
       </c>
       <c r="C17" t="n">
-        <v>21.0065</v>
+        <v>21.3839</v>
       </c>
       <c r="D17" t="n">
-        <v>27.1797</v>
+        <v>26.3195</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.04285</v>
+        <v>4.58808</v>
       </c>
       <c r="C2" t="n">
-        <v>4.8811</v>
+        <v>5.08488</v>
       </c>
       <c r="D2" t="n">
-        <v>5.15815</v>
+        <v>5.0878</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.28244</v>
+        <v>5.62122</v>
       </c>
       <c r="C3" t="n">
-        <v>6.19727</v>
+        <v>6.15833</v>
       </c>
       <c r="D3" t="n">
-        <v>7.77363</v>
+        <v>7.67301</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.49334</v>
+        <v>7.17316</v>
       </c>
       <c r="C4" t="n">
-        <v>7.72797</v>
+        <v>7.88868</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7423</v>
+        <v>10.6618</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.014379999999999</v>
+        <v>8.909369999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.43108</v>
+        <v>9.75366</v>
       </c>
       <c r="D5" t="n">
-        <v>13.6147</v>
+        <v>13.6858</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7291</v>
+        <v>10.6637</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3504</v>
+        <v>11.8799</v>
       </c>
       <c r="D6" t="n">
-        <v>16.471</v>
+        <v>16.4928</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4705</v>
+        <v>12.3626</v>
       </c>
       <c r="C7" t="n">
-        <v>13.9434</v>
+        <v>13.8661</v>
       </c>
       <c r="D7" t="n">
-        <v>20.3693</v>
+        <v>19.6042</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.3595</v>
+        <v>14.217</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2482</v>
+        <v>16.2003</v>
       </c>
       <c r="D8" t="n">
-        <v>22.2561</v>
+        <v>22.9534</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2291</v>
+        <v>15.8725</v>
       </c>
       <c r="C9" t="n">
-        <v>17.4048</v>
+        <v>17.9092</v>
       </c>
       <c r="D9" t="n">
-        <v>25.6127</v>
+        <v>25.5441</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.5481</v>
+        <v>13.9633</v>
       </c>
       <c r="C10" t="n">
-        <v>15.8494</v>
+        <v>15.7248</v>
       </c>
       <c r="D10" t="n">
-        <v>21.8804</v>
+        <v>21.057</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3563</v>
+        <v>14.1758</v>
       </c>
       <c r="C11" t="n">
-        <v>15.6851</v>
+        <v>15.9882</v>
       </c>
       <c r="D11" t="n">
-        <v>21.8412</v>
+        <v>21.5703</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6472</v>
+        <v>14.5372</v>
       </c>
       <c r="C12" t="n">
-        <v>16.0318</v>
+        <v>16.4322</v>
       </c>
       <c r="D12" t="n">
-        <v>23.1134</v>
+        <v>22.7887</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.2465</v>
+        <v>15.1152</v>
       </c>
       <c r="C13" t="n">
-        <v>16.7483</v>
+        <v>17.4042</v>
       </c>
       <c r="D13" t="n">
-        <v>23.5018</v>
+        <v>23.198</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.5599</v>
+        <v>15.2914</v>
       </c>
       <c r="C14" t="n">
-        <v>16.9343</v>
+        <v>17.9627</v>
       </c>
       <c r="D14" t="n">
-        <v>22.9351</v>
+        <v>23.024</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.7785</v>
+        <v>15.3936</v>
       </c>
       <c r="C15" t="n">
-        <v>17.9045</v>
+        <v>18.2282</v>
       </c>
       <c r="D15" t="n">
-        <v>23.8367</v>
+        <v>23.2405</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.6003</v>
+        <v>15.4569</v>
       </c>
       <c r="C16" t="n">
-        <v>18.341</v>
+        <v>18.5512</v>
       </c>
       <c r="D16" t="n">
-        <v>24.0195</v>
+        <v>23.7806</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.7524</v>
+        <v>15.4056</v>
       </c>
       <c r="C17" t="n">
-        <v>18.6597</v>
+        <v>18.903</v>
       </c>
       <c r="D17" t="n">
-        <v>24.029</v>
+        <v>23.3461</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.64877</v>
+        <v>2.50941</v>
       </c>
       <c r="C2" t="n">
-        <v>3.95557</v>
+        <v>4.07345</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16104</v>
+        <v>4.06561</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.37096</v>
+        <v>4.25989</v>
       </c>
       <c r="C3" t="n">
-        <v>5.56347</v>
+        <v>5.75622</v>
       </c>
       <c r="D3" t="n">
-        <v>7.00273</v>
+        <v>6.89992</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.02939</v>
+        <v>5.78268</v>
       </c>
       <c r="C4" t="n">
-        <v>7.54703</v>
+        <v>7.65886</v>
       </c>
       <c r="D4" t="n">
-        <v>9.88869</v>
+        <v>9.695589999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.52591</v>
+        <v>7.24791</v>
       </c>
       <c r="C5" t="n">
-        <v>9.41766</v>
+        <v>9.573969999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>12.6325</v>
+        <v>12.3694</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.07389</v>
+        <v>8.718120000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3942</v>
+        <v>11.5542</v>
       </c>
       <c r="D6" t="n">
-        <v>15.292</v>
+        <v>15.0555</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.5116</v>
+        <v>10.0818</v>
       </c>
       <c r="C7" t="n">
-        <v>13.3435</v>
+        <v>13.5171</v>
       </c>
       <c r="D7" t="n">
-        <v>17.9386</v>
+        <v>17.6408</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8509</v>
+        <v>11.4765</v>
       </c>
       <c r="C8" t="n">
-        <v>15.4498</v>
+        <v>15.6485</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7786</v>
+        <v>20.2511</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7645</v>
+        <v>13.3103</v>
       </c>
       <c r="C9" t="n">
-        <v>18.1582</v>
+        <v>18.3948</v>
       </c>
       <c r="D9" t="n">
-        <v>24.3697</v>
+        <v>23.8239</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.4197</v>
+        <v>12.6833</v>
       </c>
       <c r="C10" t="n">
-        <v>16.9259</v>
+        <v>17.2765</v>
       </c>
       <c r="D10" t="n">
-        <v>22.5445</v>
+        <v>22.1976</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.1812</v>
+        <v>12.4965</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9955</v>
+        <v>16.9608</v>
       </c>
       <c r="D11" t="n">
-        <v>22.4058</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.2317</v>
+        <v>12.7432</v>
       </c>
       <c r="C12" t="n">
-        <v>16.924</v>
+        <v>17.1363</v>
       </c>
       <c r="D12" t="n">
-        <v>22.8132</v>
+        <v>22.197</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.3119</v>
+        <v>12.9723</v>
       </c>
       <c r="C13" t="n">
-        <v>17.1391</v>
+        <v>17.3185</v>
       </c>
       <c r="D13" t="n">
-        <v>23.2849</v>
+        <v>22.6667</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.9902</v>
+        <v>12.5361</v>
       </c>
       <c r="C14" t="n">
-        <v>17.1165</v>
+        <v>17.3609</v>
       </c>
       <c r="D14" t="n">
-        <v>22.1712</v>
+        <v>21.8232</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4431</v>
+        <v>12.9449</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2484</v>
+        <v>17.3906</v>
       </c>
       <c r="D15" t="n">
-        <v>22.829</v>
+        <v>22.699</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.3218</v>
+        <v>12.6661</v>
       </c>
       <c r="C16" t="n">
-        <v>17.4089</v>
+        <v>17.6151</v>
       </c>
       <c r="D16" t="n">
-        <v>22.6892</v>
+        <v>22.0617</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2109</v>
+        <v>12.5698</v>
       </c>
       <c r="C17" t="n">
-        <v>17.5158</v>
+        <v>17.7504</v>
       </c>
       <c r="D17" t="n">
-        <v>22.6816</v>
+        <v>22.0478</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.38908</v>
+        <v>3.19492</v>
       </c>
       <c r="C2" t="n">
-        <v>5.65712</v>
+        <v>5.92322</v>
       </c>
       <c r="D2" t="n">
-        <v>5.89101</v>
+        <v>5.79322</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.39656</v>
+        <v>5.13454</v>
       </c>
       <c r="C3" t="n">
-        <v>7.143</v>
+        <v>7.30368</v>
       </c>
       <c r="D3" t="n">
-        <v>9.37818</v>
+        <v>9.150320000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.21774</v>
+        <v>6.96711</v>
       </c>
       <c r="C4" t="n">
-        <v>9.28844</v>
+        <v>9.44617</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9098</v>
+        <v>12.6272</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.00652</v>
+        <v>8.71951</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4384</v>
+        <v>11.674</v>
       </c>
       <c r="D5" t="n">
-        <v>16.2616</v>
+        <v>15.9655</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7202</v>
+        <v>10.369</v>
       </c>
       <c r="C6" t="n">
-        <v>13.7104</v>
+        <v>13.9662</v>
       </c>
       <c r="D6" t="n">
-        <v>19.6499</v>
+        <v>19.2719</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3546</v>
+        <v>11.9561</v>
       </c>
       <c r="C7" t="n">
-        <v>15.9817</v>
+        <v>16.3059</v>
       </c>
       <c r="D7" t="n">
-        <v>22.9373</v>
+        <v>22.4847</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0014</v>
+        <v>13.4844</v>
       </c>
       <c r="C8" t="n">
-        <v>18.4938</v>
+        <v>18.8894</v>
       </c>
       <c r="D8" t="n">
-        <v>26.4422</v>
+        <v>25.8813</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2114</v>
+        <v>15.7423</v>
       </c>
       <c r="C9" t="n">
-        <v>21.7149</v>
+        <v>22.1322</v>
       </c>
       <c r="D9" t="n">
-        <v>31.0495</v>
+        <v>30.4339</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.5355</v>
+        <v>14.8487</v>
       </c>
       <c r="C10" t="n">
-        <v>20.1298</v>
+        <v>20.6375</v>
       </c>
       <c r="D10" t="n">
-        <v>28.721</v>
+        <v>27.8915</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.3078</v>
+        <v>14.8278</v>
       </c>
       <c r="C11" t="n">
-        <v>19.72</v>
+        <v>20.0706</v>
       </c>
       <c r="D11" t="n">
-        <v>28.4546</v>
+        <v>27.9082</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.5497</v>
+        <v>14.8646</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0631</v>
+        <v>20.4398</v>
       </c>
       <c r="D12" t="n">
-        <v>29.2084</v>
+        <v>28.2429</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.5747</v>
+        <v>15.1533</v>
       </c>
       <c r="C13" t="n">
-        <v>20.3154</v>
+        <v>20.6851</v>
       </c>
       <c r="D13" t="n">
-        <v>29.1931</v>
+        <v>28.495</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.3083</v>
+        <v>14.6985</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3861</v>
+        <v>20.8661</v>
       </c>
       <c r="D14" t="n">
-        <v>28.1417</v>
+        <v>27.5553</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.4969</v>
+        <v>15.3441</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5522</v>
+        <v>20.9494</v>
       </c>
       <c r="D15" t="n">
-        <v>28.533</v>
+        <v>27.6719</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3892</v>
+        <v>15.0841</v>
       </c>
       <c r="C16" t="n">
-        <v>20.7384</v>
+        <v>21.0882</v>
       </c>
       <c r="D16" t="n">
-        <v>28.7249</v>
+        <v>27.5806</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5463</v>
+        <v>14.8996</v>
       </c>
       <c r="C17" t="n">
-        <v>20.8017</v>
+        <v>21.2862</v>
       </c>
       <c r="D17" t="n">
-        <v>28.3356</v>
+        <v>27.8061</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.30622</v>
+        <v>3.98509</v>
       </c>
       <c r="C2" t="n">
-        <v>4.71306</v>
+        <v>4.90034</v>
       </c>
       <c r="D2" t="n">
-        <v>4.92544</v>
+        <v>4.86047</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.87942</v>
+        <v>5.68452</v>
       </c>
       <c r="C3" t="n">
-        <v>6.14682</v>
+        <v>6.39518</v>
       </c>
       <c r="D3" t="n">
-        <v>7.76391</v>
+        <v>7.72425</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.83804</v>
+        <v>7.51771</v>
       </c>
       <c r="C4" t="n">
-        <v>8.23227</v>
+        <v>8.19483</v>
       </c>
       <c r="D4" t="n">
-        <v>10.9475</v>
+        <v>10.8183</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.67844</v>
+        <v>9.326140000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0226</v>
+        <v>10.4071</v>
       </c>
       <c r="D5" t="n">
-        <v>13.9717</v>
+        <v>13.8878</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5434</v>
+        <v>11.1674</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0983</v>
+        <v>12.5215</v>
       </c>
       <c r="D6" t="n">
-        <v>17.0801</v>
+        <v>16.9805</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3776</v>
+        <v>12.9438</v>
       </c>
       <c r="C7" t="n">
-        <v>14.2525</v>
+        <v>14.506</v>
       </c>
       <c r="D7" t="n">
-        <v>20.1652</v>
+        <v>20.0345</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3776</v>
+        <v>14.8615</v>
       </c>
       <c r="C8" t="n">
-        <v>15.7901</v>
+        <v>16.1373</v>
       </c>
       <c r="D8" t="n">
-        <v>23.2667</v>
+        <v>23.0112</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.9288</v>
+        <v>16.4601</v>
       </c>
       <c r="C9" t="n">
-        <v>17.8098</v>
+        <v>18.3964</v>
       </c>
       <c r="D9" t="n">
-        <v>26.8867</v>
+        <v>26.8965</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.6458</v>
+        <v>16.3653</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6355</v>
+        <v>17.9429</v>
       </c>
       <c r="D10" t="n">
-        <v>25.0911</v>
+        <v>25.0857</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.4115</v>
+        <v>16.4294</v>
       </c>
       <c r="C11" t="n">
-        <v>17.4877</v>
+        <v>17.9001</v>
       </c>
       <c r="D11" t="n">
-        <v>24.8547</v>
+        <v>24.6797</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.6269</v>
+        <v>16.3265</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4437</v>
+        <v>18.0765</v>
       </c>
       <c r="D12" t="n">
-        <v>25.3046</v>
+        <v>25.0471</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.3232</v>
+        <v>16.4599</v>
       </c>
       <c r="C13" t="n">
-        <v>17.6766</v>
+        <v>18.023</v>
       </c>
       <c r="D13" t="n">
-        <v>25.8135</v>
+        <v>25.6013</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.2333</v>
+        <v>15.9772</v>
       </c>
       <c r="C14" t="n">
-        <v>17.6751</v>
+        <v>18.2774</v>
       </c>
       <c r="D14" t="n">
-        <v>24.6922</v>
+        <v>24.749</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.5003</v>
+        <v>16.1908</v>
       </c>
       <c r="C15" t="n">
-        <v>17.8244</v>
+        <v>18.3119</v>
       </c>
       <c r="D15" t="n">
-        <v>25.7812</v>
+        <v>25.548</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.2852</v>
+        <v>16.187</v>
       </c>
       <c r="C16" t="n">
-        <v>17.5714</v>
+        <v>18.6612</v>
       </c>
       <c r="D16" t="n">
-        <v>25.4039</v>
+        <v>25.3253</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.464</v>
+        <v>16.0349</v>
       </c>
       <c r="C17" t="n">
-        <v>17.7231</v>
+        <v>18.266</v>
       </c>
       <c r="D17" t="n">
-        <v>25.5064</v>
+        <v>25.2003</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.86896</v>
+        <v>5.29724</v>
       </c>
       <c r="C2" t="n">
-        <v>4.53083</v>
+        <v>5.79102</v>
       </c>
       <c r="D2" t="n">
-        <v>4.55026</v>
+        <v>6.08855</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.2989</v>
+        <v>6.39588</v>
       </c>
       <c r="C3" t="n">
-        <v>5.89763</v>
+        <v>6.82262</v>
       </c>
       <c r="D3" t="n">
-        <v>7.18701</v>
+        <v>9.058020000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.35369</v>
+        <v>7.45204</v>
       </c>
       <c r="C4" t="n">
-        <v>7.72013</v>
+        <v>8.801869999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.96768</v>
+        <v>12.3282</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.1759</v>
+        <v>9.387499999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.657550000000001</v>
+        <v>10.8961</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5846</v>
+        <v>15.4652</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.647130000000001</v>
+        <v>10.9861</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4044</v>
+        <v>13.2115</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9491</v>
+        <v>18.3546</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0663</v>
+        <v>12.7183</v>
       </c>
       <c r="C7" t="n">
-        <v>13.7981</v>
+        <v>15.5357</v>
       </c>
       <c r="D7" t="n">
-        <v>17.8152</v>
+        <v>21.4438</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4361</v>
+        <v>14.0709</v>
       </c>
       <c r="C8" t="n">
-        <v>15.8354</v>
+        <v>17.971</v>
       </c>
       <c r="D8" t="n">
-        <v>20.098</v>
+        <v>24.3845</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6921</v>
+        <v>16.5276</v>
       </c>
       <c r="C9" t="n">
-        <v>18.5125</v>
+        <v>20.9405</v>
       </c>
       <c r="D9" t="n">
-        <v>23.8647</v>
+        <v>28.5695</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.5251</v>
+        <v>13.997</v>
       </c>
       <c r="C10" t="n">
-        <v>15.4311</v>
+        <v>17.5127</v>
       </c>
       <c r="D10" t="n">
-        <v>18.8092</v>
+        <v>23.2127</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.658</v>
+        <v>14.1411</v>
       </c>
       <c r="C11" t="n">
-        <v>15.7643</v>
+        <v>17.6389</v>
       </c>
       <c r="D11" t="n">
-        <v>19.3238</v>
+        <v>23.637</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.0395</v>
+        <v>14.7092</v>
       </c>
       <c r="C12" t="n">
-        <v>16.3819</v>
+        <v>18.4907</v>
       </c>
       <c r="D12" t="n">
-        <v>20.1361</v>
+        <v>24.7202</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.2213</v>
+        <v>15.1581</v>
       </c>
       <c r="C13" t="n">
-        <v>16.8902</v>
+        <v>19.0324</v>
       </c>
       <c r="D13" t="n">
-        <v>21.5549</v>
+        <v>25.7021</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.2497</v>
+        <v>15.1559</v>
       </c>
       <c r="C14" t="n">
-        <v>16.9133</v>
+        <v>19.2285</v>
       </c>
       <c r="D14" t="n">
-        <v>20.1871</v>
+        <v>24.1226</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.2774</v>
+        <v>15.2097</v>
       </c>
       <c r="C15" t="n">
-        <v>17.121</v>
+        <v>19.3687</v>
       </c>
       <c r="D15" t="n">
-        <v>20.8737</v>
+        <v>24.4218</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.3281</v>
+        <v>15.3913</v>
       </c>
       <c r="C16" t="n">
-        <v>17.4274</v>
+        <v>19.6462</v>
       </c>
       <c r="D16" t="n">
-        <v>21.1563</v>
+        <v>25.6314</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2464</v>
+        <v>15.3301</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6712</v>
+        <v>19.9446</v>
       </c>
       <c r="D17" t="n">
-        <v>20.9096</v>
+        <v>24.6419</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5208</v>
+        <v>9.04205</v>
       </c>
       <c r="C2" t="n">
-        <v>6.83637</v>
+        <v>10.2473</v>
       </c>
       <c r="D2" t="n">
-        <v>6.81275</v>
+        <v>11.0483</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.8919</v>
+        <v>8.7774</v>
       </c>
       <c r="C3" t="n">
-        <v>7.69723</v>
+        <v>9.395250000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>9.73152</v>
+        <v>13.4372</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.97179</v>
+        <v>10.3916</v>
       </c>
       <c r="C4" t="n">
-        <v>9.150230000000001</v>
+        <v>11.466</v>
       </c>
       <c r="D4" t="n">
-        <v>12.7202</v>
+        <v>17.4716</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.68024</v>
+        <v>12.0261</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4475</v>
+        <v>13.1383</v>
       </c>
       <c r="D5" t="n">
-        <v>16.1066</v>
+        <v>20.9361</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.6896</v>
+        <v>14.0366</v>
       </c>
       <c r="C6" t="n">
-        <v>14.1988</v>
+        <v>16.7662</v>
       </c>
       <c r="D6" t="n">
-        <v>19.473</v>
+        <v>25.0372</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5899</v>
+        <v>16.2071</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0043</v>
+        <v>19.6547</v>
       </c>
       <c r="D7" t="n">
-        <v>22.9324</v>
+        <v>29.6667</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.2432</v>
+        <v>17.9775</v>
       </c>
       <c r="C8" t="n">
-        <v>18.5257</v>
+        <v>22.4773</v>
       </c>
       <c r="D8" t="n">
-        <v>25.325</v>
+        <v>32.7481</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.4952</v>
+        <v>20.9886</v>
       </c>
       <c r="C9" t="n">
-        <v>22.3821</v>
+        <v>25.9407</v>
       </c>
       <c r="D9" t="n">
-        <v>30.0613</v>
+        <v>38.0981</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.1492</v>
+        <v>18.7419</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1561</v>
+        <v>23.2533</v>
       </c>
       <c r="D10" t="n">
-        <v>25.0715</v>
+        <v>33.2849</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.2445</v>
+        <v>18.0288</v>
       </c>
       <c r="C11" t="n">
-        <v>19.2913</v>
+        <v>22.4971</v>
       </c>
       <c r="D11" t="n">
-        <v>25.3418</v>
+        <v>32.6344</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.7697</v>
+        <v>18.517</v>
       </c>
       <c r="C12" t="n">
-        <v>20.3973</v>
+        <v>22.9599</v>
       </c>
       <c r="D12" t="n">
-        <v>26.8404</v>
+        <v>32.7757</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.9862</v>
+        <v>19.1753</v>
       </c>
       <c r="C13" t="n">
-        <v>20.7606</v>
+        <v>23.5613</v>
       </c>
       <c r="D13" t="n">
-        <v>26.5646</v>
+        <v>34.3715</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.1554</v>
+        <v>19.0051</v>
       </c>
       <c r="C14" t="n">
-        <v>20.5594</v>
+        <v>24.0686</v>
       </c>
       <c r="D14" t="n">
-        <v>26.082</v>
+        <v>32.7745</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.1345</v>
+        <v>19.3459</v>
       </c>
       <c r="C15" t="n">
-        <v>20.899</v>
+        <v>24.0918</v>
       </c>
       <c r="D15" t="n">
-        <v>26.0434</v>
+        <v>33.0669</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.0729</v>
+        <v>19.7724</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9211</v>
+        <v>24.4987</v>
       </c>
       <c r="D16" t="n">
-        <v>26.1451</v>
+        <v>32.833</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8164</v>
+        <v>19.0682</v>
       </c>
       <c r="C17" t="n">
-        <v>21.3839</v>
+        <v>24.8172</v>
       </c>
       <c r="D17" t="n">
-        <v>26.3195</v>
+        <v>33.3109</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.58808</v>
+        <v>6.74051</v>
       </c>
       <c r="C2" t="n">
-        <v>5.08488</v>
+        <v>6.80378</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0878</v>
+        <v>7.09801</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.62122</v>
+        <v>7.28563</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15833</v>
+        <v>7.55364</v>
       </c>
       <c r="D3" t="n">
-        <v>7.67301</v>
+        <v>9.841340000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.17316</v>
+        <v>8.53412</v>
       </c>
       <c r="C4" t="n">
-        <v>7.88868</v>
+        <v>9.201919999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>10.6618</v>
+        <v>13.0708</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.909369999999999</v>
+        <v>10.2943</v>
       </c>
       <c r="C5" t="n">
-        <v>9.75366</v>
+        <v>11.0799</v>
       </c>
       <c r="D5" t="n">
-        <v>13.6858</v>
+        <v>16.3868</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.6637</v>
+        <v>12.3461</v>
       </c>
       <c r="C6" t="n">
-        <v>11.8799</v>
+        <v>13.3234</v>
       </c>
       <c r="D6" t="n">
-        <v>16.4928</v>
+        <v>20.0886</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3626</v>
+        <v>14.2233</v>
       </c>
       <c r="C7" t="n">
-        <v>13.8661</v>
+        <v>15.815</v>
       </c>
       <c r="D7" t="n">
-        <v>19.6042</v>
+        <v>23.9731</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.217</v>
+        <v>16.7</v>
       </c>
       <c r="C8" t="n">
-        <v>16.2003</v>
+        <v>18.3791</v>
       </c>
       <c r="D8" t="n">
-        <v>22.9534</v>
+        <v>27.9113</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.8725</v>
+        <v>18.5015</v>
       </c>
       <c r="C9" t="n">
-        <v>17.9092</v>
+        <v>20.1366</v>
       </c>
       <c r="D9" t="n">
-        <v>25.5441</v>
+        <v>30.8492</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.9633</v>
+        <v>16.8945</v>
       </c>
       <c r="C10" t="n">
-        <v>15.7248</v>
+        <v>18.302</v>
       </c>
       <c r="D10" t="n">
-        <v>21.057</v>
+        <v>26.9028</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1758</v>
+        <v>16.4311</v>
       </c>
       <c r="C11" t="n">
-        <v>15.9882</v>
+        <v>17.8106</v>
       </c>
       <c r="D11" t="n">
-        <v>21.5703</v>
+        <v>26.5004</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5372</v>
+        <v>16.7704</v>
       </c>
       <c r="C12" t="n">
-        <v>16.4322</v>
+        <v>18.5046</v>
       </c>
       <c r="D12" t="n">
-        <v>22.7887</v>
+        <v>27.6274</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1152</v>
+        <v>17.3593</v>
       </c>
       <c r="C13" t="n">
-        <v>17.4042</v>
+        <v>19.1458</v>
       </c>
       <c r="D13" t="n">
-        <v>23.198</v>
+        <v>28.0732</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.2914</v>
+        <v>17.1468</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9627</v>
+        <v>18.9744</v>
       </c>
       <c r="D14" t="n">
-        <v>23.024</v>
+        <v>27.4556</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.3936</v>
+        <v>17.1198</v>
       </c>
       <c r="C15" t="n">
-        <v>18.2282</v>
+        <v>19.5903</v>
       </c>
       <c r="D15" t="n">
-        <v>23.2405</v>
+        <v>27.6875</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4569</v>
+        <v>17.301</v>
       </c>
       <c r="C16" t="n">
-        <v>18.5512</v>
+        <v>19.499</v>
       </c>
       <c r="D16" t="n">
-        <v>23.7806</v>
+        <v>27.9746</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4056</v>
+        <v>17.833</v>
       </c>
       <c r="C17" t="n">
-        <v>18.903</v>
+        <v>19.7715</v>
       </c>
       <c r="D17" t="n">
-        <v>23.3461</v>
+        <v>28.8127</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.50941</v>
+        <v>3.05418</v>
       </c>
       <c r="C2" t="n">
-        <v>4.07345</v>
+        <v>5.04116</v>
       </c>
       <c r="D2" t="n">
-        <v>4.06561</v>
+        <v>5.24179</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.25989</v>
+        <v>4.93358</v>
       </c>
       <c r="C3" t="n">
-        <v>5.75622</v>
+        <v>6.61847</v>
       </c>
       <c r="D3" t="n">
-        <v>6.89992</v>
+        <v>8.58403</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.78268</v>
+        <v>6.6582</v>
       </c>
       <c r="C4" t="n">
-        <v>7.65886</v>
+        <v>8.69739</v>
       </c>
       <c r="D4" t="n">
-        <v>9.695589999999999</v>
+        <v>11.903</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.24791</v>
+        <v>8.22279</v>
       </c>
       <c r="C5" t="n">
-        <v>9.573969999999999</v>
+        <v>10.8023</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3694</v>
+        <v>15.0513</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.718120000000001</v>
+        <v>9.803739999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>11.5542</v>
+        <v>12.9856</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0555</v>
+        <v>18.1567</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0818</v>
+        <v>11.2538</v>
       </c>
       <c r="C7" t="n">
-        <v>13.5171</v>
+        <v>15.1633</v>
       </c>
       <c r="D7" t="n">
-        <v>17.6408</v>
+        <v>21.147</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.4765</v>
+        <v>12.7024</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6485</v>
+        <v>17.56</v>
       </c>
       <c r="D8" t="n">
-        <v>20.2511</v>
+        <v>24.2328</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.3103</v>
+        <v>14.9143</v>
       </c>
       <c r="C9" t="n">
-        <v>18.3948</v>
+        <v>20.5922</v>
       </c>
       <c r="D9" t="n">
-        <v>23.8239</v>
+        <v>28.7897</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.6833</v>
+        <v>14.3025</v>
       </c>
       <c r="C10" t="n">
-        <v>17.2765</v>
+        <v>19.2565</v>
       </c>
       <c r="D10" t="n">
-        <v>22.1976</v>
+        <v>26.7718</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.4965</v>
+        <v>14.0897</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9608</v>
+        <v>19.0584</v>
       </c>
       <c r="D11" t="n">
-        <v>22.08</v>
+        <v>26.3612</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.7432</v>
+        <v>14.3163</v>
       </c>
       <c r="C12" t="n">
-        <v>17.1363</v>
+        <v>19.3341</v>
       </c>
       <c r="D12" t="n">
-        <v>22.197</v>
+        <v>26.9622</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.9723</v>
+        <v>14.3363</v>
       </c>
       <c r="C13" t="n">
-        <v>17.3185</v>
+        <v>19.391</v>
       </c>
       <c r="D13" t="n">
-        <v>22.6667</v>
+        <v>26.9255</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5361</v>
+        <v>13.9804</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3609</v>
+        <v>19.3661</v>
       </c>
       <c r="D14" t="n">
-        <v>21.8232</v>
+        <v>25.905</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.9449</v>
+        <v>14.4951</v>
       </c>
       <c r="C15" t="n">
-        <v>17.3906</v>
+        <v>19.6133</v>
       </c>
       <c r="D15" t="n">
-        <v>22.699</v>
+        <v>26.2746</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.6661</v>
+        <v>14.4854</v>
       </c>
       <c r="C16" t="n">
-        <v>17.6151</v>
+        <v>19.7585</v>
       </c>
       <c r="D16" t="n">
-        <v>22.0617</v>
+        <v>26.4735</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.5698</v>
+        <v>14.2065</v>
       </c>
       <c r="C17" t="n">
-        <v>17.7504</v>
+        <v>19.8528</v>
       </c>
       <c r="D17" t="n">
-        <v>22.0478</v>
+        <v>26.4379</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.19492</v>
+        <v>4.06914</v>
       </c>
       <c r="C2" t="n">
-        <v>5.92322</v>
+        <v>8.20485</v>
       </c>
       <c r="D2" t="n">
-        <v>5.79322</v>
+        <v>8.47885</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.13454</v>
+        <v>6.06376</v>
       </c>
       <c r="C3" t="n">
-        <v>7.30368</v>
+        <v>8.74583</v>
       </c>
       <c r="D3" t="n">
-        <v>9.150320000000001</v>
+        <v>12.2963</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.96711</v>
+        <v>8.321569999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.44617</v>
+        <v>11.1647</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6272</v>
+        <v>16.5901</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.71951</v>
+        <v>10.1698</v>
       </c>
       <c r="C5" t="n">
-        <v>11.674</v>
+        <v>13.5769</v>
       </c>
       <c r="D5" t="n">
-        <v>15.9655</v>
+        <v>20.5763</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.369</v>
+        <v>12.0881</v>
       </c>
       <c r="C6" t="n">
-        <v>13.9662</v>
+        <v>16.1511</v>
       </c>
       <c r="D6" t="n">
-        <v>19.2719</v>
+        <v>24.5737</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.9561</v>
+        <v>13.9018</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3059</v>
+        <v>18.758</v>
       </c>
       <c r="D7" t="n">
-        <v>22.4847</v>
+        <v>28.4191</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.4844</v>
+        <v>15.661</v>
       </c>
       <c r="C8" t="n">
-        <v>18.8894</v>
+        <v>21.7909</v>
       </c>
       <c r="D8" t="n">
-        <v>25.8813</v>
+        <v>32.2208</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.7423</v>
+        <v>18.293</v>
       </c>
       <c r="C9" t="n">
-        <v>22.1322</v>
+        <v>25.4539</v>
       </c>
       <c r="D9" t="n">
-        <v>30.4339</v>
+        <v>38.6923</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.8487</v>
+        <v>17.2737</v>
       </c>
       <c r="C10" t="n">
-        <v>20.6375</v>
+        <v>23.469</v>
       </c>
       <c r="D10" t="n">
-        <v>27.8915</v>
+        <v>35.2141</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.8278</v>
+        <v>17.2604</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0706</v>
+        <v>23.3601</v>
       </c>
       <c r="D11" t="n">
-        <v>27.9082</v>
+        <v>34.7635</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.8646</v>
+        <v>17.2574</v>
       </c>
       <c r="C12" t="n">
-        <v>20.4398</v>
+        <v>23.729</v>
       </c>
       <c r="D12" t="n">
-        <v>28.2429</v>
+        <v>35.3826</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1533</v>
+        <v>17.501</v>
       </c>
       <c r="C13" t="n">
-        <v>20.6851</v>
+        <v>23.7834</v>
       </c>
       <c r="D13" t="n">
-        <v>28.495</v>
+        <v>35.5601</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.6985</v>
+        <v>17.0613</v>
       </c>
       <c r="C14" t="n">
-        <v>20.8661</v>
+        <v>24.0887</v>
       </c>
       <c r="D14" t="n">
-        <v>27.5553</v>
+        <v>34.5546</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.3441</v>
+        <v>17.4649</v>
       </c>
       <c r="C15" t="n">
-        <v>20.9494</v>
+        <v>23.9674</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6719</v>
+        <v>34.7708</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0841</v>
+        <v>17.4189</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0882</v>
+        <v>24.3638</v>
       </c>
       <c r="D16" t="n">
-        <v>27.5806</v>
+        <v>34.6133</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.8996</v>
+        <v>17.4157</v>
       </c>
       <c r="C17" t="n">
-        <v>21.2862</v>
+        <v>24.4888</v>
       </c>
       <c r="D17" t="n">
-        <v>27.8061</v>
+        <v>33.9092</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98509</v>
+        <v>5.46785</v>
       </c>
       <c r="C2" t="n">
-        <v>4.90034</v>
+        <v>6.46879</v>
       </c>
       <c r="D2" t="n">
-        <v>4.86047</v>
+        <v>6.6272</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.68452</v>
+        <v>7.04909</v>
       </c>
       <c r="C3" t="n">
-        <v>6.39518</v>
+        <v>7.5714</v>
       </c>
       <c r="D3" t="n">
-        <v>7.72425</v>
+        <v>9.729369999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.51771</v>
+        <v>9.01178</v>
       </c>
       <c r="C4" t="n">
-        <v>8.19483</v>
+        <v>9.684889999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>10.8183</v>
+        <v>13.2985</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.326140000000001</v>
+        <v>11.0412</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4071</v>
+        <v>11.9026</v>
       </c>
       <c r="D5" t="n">
-        <v>13.8878</v>
+        <v>17.0213</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1674</v>
+        <v>13.0817</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5215</v>
+        <v>14.2239</v>
       </c>
       <c r="D6" t="n">
-        <v>16.9805</v>
+        <v>20.7027</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.9438</v>
+        <v>15.1187</v>
       </c>
       <c r="C7" t="n">
-        <v>14.506</v>
+        <v>16.6308</v>
       </c>
       <c r="D7" t="n">
-        <v>20.0345</v>
+        <v>24.3792</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.8615</v>
+        <v>17.2865</v>
       </c>
       <c r="C8" t="n">
-        <v>16.1373</v>
+        <v>18.6623</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0112</v>
+        <v>28.1144</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4601</v>
+        <v>20.0418</v>
       </c>
       <c r="C9" t="n">
-        <v>18.3964</v>
+        <v>20.6948</v>
       </c>
       <c r="D9" t="n">
-        <v>26.8965</v>
+        <v>32.7588</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.3653</v>
+        <v>19.1401</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9429</v>
+        <v>20.3515</v>
       </c>
       <c r="D10" t="n">
-        <v>25.0857</v>
+        <v>30.6339</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.4294</v>
+        <v>19.239</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9001</v>
+        <v>20.0562</v>
       </c>
       <c r="D11" t="n">
-        <v>24.6797</v>
+        <v>29.8134</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.3265</v>
+        <v>18.8737</v>
       </c>
       <c r="C12" t="n">
-        <v>18.0765</v>
+        <v>20.161</v>
       </c>
       <c r="D12" t="n">
-        <v>25.0471</v>
+        <v>30.3475</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.4599</v>
+        <v>19.1418</v>
       </c>
       <c r="C13" t="n">
-        <v>18.023</v>
+        <v>20.4297</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6013</v>
+        <v>30.7028</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.9772</v>
+        <v>18.7064</v>
       </c>
       <c r="C14" t="n">
-        <v>18.2774</v>
+        <v>20.0453</v>
       </c>
       <c r="D14" t="n">
-        <v>24.749</v>
+        <v>29.903</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.1908</v>
+        <v>19.1257</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3119</v>
+        <v>20.2411</v>
       </c>
       <c r="D15" t="n">
-        <v>25.548</v>
+        <v>30.4431</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.187</v>
+        <v>19.0668</v>
       </c>
       <c r="C16" t="n">
-        <v>18.6612</v>
+        <v>20.7228</v>
       </c>
       <c r="D16" t="n">
-        <v>25.3253</v>
+        <v>30.7733</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.0349</v>
+        <v>19.0586</v>
       </c>
       <c r="C17" t="n">
-        <v>18.266</v>
+        <v>20.677</v>
       </c>
       <c r="D17" t="n">
-        <v>25.2003</v>
+        <v>30.1669</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.30401</v>
+        <v>5.35081</v>
       </c>
       <c r="C2" t="n">
-        <v>4.68018</v>
+        <v>6.15078</v>
       </c>
       <c r="D2" t="n">
-        <v>5.07603</v>
+        <v>6.62959</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.68796</v>
+        <v>5.99278</v>
       </c>
       <c r="C3" t="n">
-        <v>7.42018</v>
+        <v>8.744949999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>8.27342</v>
+        <v>9.954980000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.70068</v>
+        <v>7.45474</v>
       </c>
       <c r="C4" t="n">
-        <v>10.0633</v>
+        <v>12.3154</v>
       </c>
       <c r="D4" t="n">
-        <v>11.4125</v>
+        <v>14.2446</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.97495</v>
+        <v>9.44355</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7253</v>
+        <v>15.4809</v>
       </c>
       <c r="D5" t="n">
-        <v>14.5757</v>
+        <v>17.8575</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.069</v>
+        <v>11.0526</v>
       </c>
       <c r="C6" t="n">
-        <v>15.4139</v>
+        <v>18.537</v>
       </c>
       <c r="D6" t="n">
-        <v>17.9784</v>
+        <v>22.1662</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5006</v>
+        <v>12.8116</v>
       </c>
       <c r="C7" t="n">
-        <v>18.1594</v>
+        <v>22.1182</v>
       </c>
       <c r="D7" t="n">
-        <v>20.9996</v>
+        <v>26.0561</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9399</v>
+        <v>14.0874</v>
       </c>
       <c r="C8" t="n">
-        <v>21.3403</v>
+        <v>24.4746</v>
       </c>
       <c r="D8" t="n">
-        <v>24.7173</v>
+        <v>29.6354</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.2481</v>
+        <v>16.578</v>
       </c>
       <c r="C9" t="n">
-        <v>24.5622</v>
+        <v>28.604</v>
       </c>
       <c r="D9" t="n">
-        <v>27.9504</v>
+        <v>33.5695</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.7983</v>
+        <v>14.4935</v>
       </c>
       <c r="C10" t="n">
-        <v>19.7668</v>
+        <v>23.2711</v>
       </c>
       <c r="D10" t="n">
-        <v>22.2757</v>
+        <v>27.0289</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.0455</v>
+        <v>14.1671</v>
       </c>
       <c r="C11" t="n">
-        <v>19.931</v>
+        <v>23.6653</v>
       </c>
       <c r="D11" t="n">
-        <v>22.662</v>
+        <v>27.8517</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.505</v>
+        <v>14.6531</v>
       </c>
       <c r="C12" t="n">
-        <v>21.2471</v>
+        <v>24.6259</v>
       </c>
       <c r="D12" t="n">
-        <v>24.5107</v>
+        <v>28.4468</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6949</v>
+        <v>15.1307</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3865</v>
+        <v>25.8655</v>
       </c>
       <c r="D13" t="n">
-        <v>24.3882</v>
+        <v>28.2526</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8006</v>
+        <v>15.23</v>
       </c>
       <c r="C14" t="n">
-        <v>20.9605</v>
+        <v>25.0152</v>
       </c>
       <c r="D14" t="n">
-        <v>24.7042</v>
+        <v>28.7464</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9532</v>
+        <v>14.9773</v>
       </c>
       <c r="C15" t="n">
-        <v>20.9581</v>
+        <v>25.131</v>
       </c>
       <c r="D15" t="n">
-        <v>24.804</v>
+        <v>28.8143</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.6927</v>
+        <v>15.5334</v>
       </c>
       <c r="C16" t="n">
-        <v>21.6729</v>
+        <v>25.5337</v>
       </c>
       <c r="D16" t="n">
-        <v>25.5039</v>
+        <v>28.7081</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.8568</v>
+        <v>15.5546</v>
       </c>
       <c r="C17" t="n">
-        <v>21.1865</v>
+        <v>24.8462</v>
       </c>
       <c r="D17" t="n">
-        <v>25.2092</v>
+        <v>29.5003</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.24107</v>
+        <v>9.04368</v>
       </c>
       <c r="C2" t="n">
-        <v>6.97989</v>
+        <v>11.2503</v>
       </c>
       <c r="D2" t="n">
-        <v>7.56913</v>
+        <v>11.3907</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.91229</v>
+        <v>8.79609</v>
       </c>
       <c r="C3" t="n">
-        <v>9.974360000000001</v>
+        <v>13.505</v>
       </c>
       <c r="D3" t="n">
-        <v>11.2996</v>
+        <v>15.0543</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.237500000000001</v>
+        <v>9.91934</v>
       </c>
       <c r="C4" t="n">
-        <v>13.0689</v>
+        <v>16.9682</v>
       </c>
       <c r="D4" t="n">
-        <v>14.897</v>
+        <v>19.5206</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.65089</v>
+        <v>11.4657</v>
       </c>
       <c r="C5" t="n">
-        <v>16.1995</v>
+        <v>20.8876</v>
       </c>
       <c r="D5" t="n">
-        <v>19.0825</v>
+        <v>25.0973</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9912</v>
+        <v>13.9798</v>
       </c>
       <c r="C6" t="n">
-        <v>20.0609</v>
+        <v>25.0548</v>
       </c>
       <c r="D6" t="n">
-        <v>23.9166</v>
+        <v>29.752</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9595</v>
+        <v>16.18</v>
       </c>
       <c r="C7" t="n">
-        <v>23.104</v>
+        <v>29.5767</v>
       </c>
       <c r="D7" t="n">
-        <v>27.2162</v>
+        <v>35.5565</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7136</v>
+        <v>18.0087</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8264</v>
+        <v>32.649</v>
       </c>
       <c r="D8" t="n">
-        <v>31.738</v>
+        <v>39.8869</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5556</v>
+        <v>21.2019</v>
       </c>
       <c r="C9" t="n">
-        <v>31.0159</v>
+        <v>38.184</v>
       </c>
       <c r="D9" t="n">
-        <v>36.6239</v>
+        <v>45.288</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.6547</v>
+        <v>18.1849</v>
       </c>
       <c r="C10" t="n">
-        <v>25.2278</v>
+        <v>33.176</v>
       </c>
       <c r="D10" t="n">
-        <v>29.3129</v>
+        <v>38.6878</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.6352</v>
+        <v>18.0121</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0099</v>
+        <v>32.3454</v>
       </c>
       <c r="D11" t="n">
-        <v>30.0476</v>
+        <v>36.8467</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.3477</v>
+        <v>18.6589</v>
       </c>
       <c r="C12" t="n">
-        <v>26.6849</v>
+        <v>32.6223</v>
       </c>
       <c r="D12" t="n">
-        <v>30.9694</v>
+        <v>37.9047</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.4535</v>
+        <v>19.4989</v>
       </c>
       <c r="C13" t="n">
-        <v>27.3467</v>
+        <v>34.129</v>
       </c>
       <c r="D13" t="n">
-        <v>32.3637</v>
+        <v>38.346</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.5781</v>
+        <v>19.0687</v>
       </c>
       <c r="C14" t="n">
-        <v>26.8699</v>
+        <v>33.6071</v>
       </c>
       <c r="D14" t="n">
-        <v>30.92</v>
+        <v>37.2768</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.1886</v>
+        <v>19.2007</v>
       </c>
       <c r="C15" t="n">
-        <v>26.9822</v>
+        <v>32.9197</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4985</v>
+        <v>38.22</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.4987</v>
+        <v>19.574</v>
       </c>
       <c r="C16" t="n">
-        <v>26.3381</v>
+        <v>32.8938</v>
       </c>
       <c r="D16" t="n">
-        <v>31.772</v>
+        <v>37.8565</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.4674</v>
+        <v>19.555</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5183</v>
+        <v>32.7407</v>
       </c>
       <c r="D17" t="n">
-        <v>32.0982</v>
+        <v>38.6887</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.07618</v>
+        <v>6.72617</v>
       </c>
       <c r="C2" t="n">
-        <v>5.19191</v>
+        <v>7.13354</v>
       </c>
       <c r="D2" t="n">
-        <v>5.55165</v>
+        <v>7.58983</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.87584</v>
+        <v>7.44556</v>
       </c>
       <c r="C3" t="n">
-        <v>7.8585</v>
+        <v>10.0126</v>
       </c>
       <c r="D3" t="n">
-        <v>8.763260000000001</v>
+        <v>11.4635</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.32484</v>
+        <v>9.20523</v>
       </c>
       <c r="C4" t="n">
-        <v>10.7393</v>
+        <v>13.1945</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4568</v>
+        <v>15.5483</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.96458</v>
+        <v>10.9474</v>
       </c>
       <c r="C5" t="n">
-        <v>14.1108</v>
+        <v>16.8399</v>
       </c>
       <c r="D5" t="n">
-        <v>15.8282</v>
+        <v>19.8564</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7533</v>
+        <v>12.5404</v>
       </c>
       <c r="C6" t="n">
-        <v>17.1661</v>
+        <v>20.7447</v>
       </c>
       <c r="D6" t="n">
-        <v>19.3247</v>
+        <v>24.8884</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5431</v>
+        <v>14.7257</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1152</v>
+        <v>24.2116</v>
       </c>
       <c r="D7" t="n">
-        <v>22.6311</v>
+        <v>28.8905</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.3132</v>
+        <v>16.6761</v>
       </c>
       <c r="C8" t="n">
-        <v>23.2093</v>
+        <v>27.5839</v>
       </c>
       <c r="D8" t="n">
-        <v>26.5996</v>
+        <v>32.9357</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.1342</v>
+        <v>19.1892</v>
       </c>
       <c r="C9" t="n">
-        <v>26.6143</v>
+        <v>31.7453</v>
       </c>
       <c r="D9" t="n">
-        <v>29.6541</v>
+        <v>37.4698</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2749</v>
+        <v>16.9601</v>
       </c>
       <c r="C10" t="n">
-        <v>21.2359</v>
+        <v>26.8041</v>
       </c>
       <c r="D10" t="n">
-        <v>23.851</v>
+        <v>30.9168</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.2541</v>
+        <v>16.7184</v>
       </c>
       <c r="C11" t="n">
-        <v>22.3343</v>
+        <v>27.1531</v>
       </c>
       <c r="D11" t="n">
-        <v>24.5756</v>
+        <v>30.8861</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5341</v>
+        <v>17.3177</v>
       </c>
       <c r="C12" t="n">
-        <v>23.169</v>
+        <v>27.9228</v>
       </c>
       <c r="D12" t="n">
-        <v>26.2544</v>
+        <v>32.9827</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.7207</v>
+        <v>17.8792</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5248</v>
+        <v>29.107</v>
       </c>
       <c r="D13" t="n">
-        <v>26.6899</v>
+        <v>33.2856</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9693</v>
+        <v>17.6507</v>
       </c>
       <c r="C14" t="n">
-        <v>23.4671</v>
+        <v>27.9719</v>
       </c>
       <c r="D14" t="n">
-        <v>26.1804</v>
+        <v>32.8082</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.7323</v>
+        <v>17.8942</v>
       </c>
       <c r="C15" t="n">
-        <v>23.0287</v>
+        <v>27.7623</v>
       </c>
       <c r="D15" t="n">
-        <v>26.4072</v>
+        <v>30.4094</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.8387</v>
+        <v>18.2398</v>
       </c>
       <c r="C16" t="n">
-        <v>23.8561</v>
+        <v>27.9289</v>
       </c>
       <c r="D16" t="n">
-        <v>26.4395</v>
+        <v>31.8946</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2564</v>
+        <v>18.4221</v>
       </c>
       <c r="C17" t="n">
-        <v>23.2483</v>
+        <v>28.3054</v>
       </c>
       <c r="D17" t="n">
-        <v>27.0739</v>
+        <v>30.6156</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.73433</v>
+        <v>3.0664</v>
       </c>
       <c r="C2" t="n">
-        <v>4.17783</v>
+        <v>5.28062</v>
       </c>
       <c r="D2" t="n">
-        <v>4.67059</v>
+        <v>5.93681</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.37148</v>
+        <v>4.89972</v>
       </c>
       <c r="C3" t="n">
-        <v>7.04376</v>
+        <v>8.55301</v>
       </c>
       <c r="D3" t="n">
-        <v>8.091939999999999</v>
+        <v>9.91114</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.06713</v>
+        <v>6.69439</v>
       </c>
       <c r="C4" t="n">
-        <v>9.96496</v>
+        <v>11.893</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6161</v>
+        <v>14.0892</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.51351</v>
+        <v>8.20818</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7265</v>
+        <v>15.1028</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0416</v>
+        <v>18.0539</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.04646</v>
+        <v>9.801360000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>15.4169</v>
+        <v>18.1771</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4071</v>
+        <v>22.0427</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4621</v>
+        <v>11.301</v>
       </c>
       <c r="C7" t="n">
-        <v>18.0579</v>
+        <v>21.1891</v>
       </c>
       <c r="D7" t="n">
-        <v>21.6783</v>
+        <v>25.8253</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8221</v>
+        <v>12.7375</v>
       </c>
       <c r="C8" t="n">
-        <v>20.5938</v>
+        <v>24.2515</v>
       </c>
       <c r="D8" t="n">
-        <v>24.9645</v>
+        <v>29.9847</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7857</v>
+        <v>14.9094</v>
       </c>
       <c r="C9" t="n">
-        <v>24.4899</v>
+        <v>28.8588</v>
       </c>
       <c r="D9" t="n">
-        <v>28.8232</v>
+        <v>34.3175</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.156</v>
+        <v>14.3071</v>
       </c>
       <c r="C10" t="n">
-        <v>22.4227</v>
+        <v>26.8637</v>
       </c>
       <c r="D10" t="n">
-        <v>26.6198</v>
+        <v>31.6076</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.8403</v>
+        <v>14.2063</v>
       </c>
       <c r="C11" t="n">
-        <v>22.1922</v>
+        <v>26.3965</v>
       </c>
       <c r="D11" t="n">
-        <v>26.4389</v>
+        <v>31.3437</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.1248</v>
+        <v>14.3292</v>
       </c>
       <c r="C12" t="n">
-        <v>22.6257</v>
+        <v>26.5366</v>
       </c>
       <c r="D12" t="n">
-        <v>26.9149</v>
+        <v>31.4627</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.2143</v>
+        <v>14.4115</v>
       </c>
       <c r="C13" t="n">
-        <v>23.2829</v>
+        <v>27.1668</v>
       </c>
       <c r="D13" t="n">
-        <v>27.4014</v>
+        <v>31.7814</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.8577</v>
+        <v>14.032</v>
       </c>
       <c r="C14" t="n">
-        <v>22.4372</v>
+        <v>26.0323</v>
       </c>
       <c r="D14" t="n">
-        <v>26.226</v>
+        <v>30.859</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4282</v>
+        <v>14.529</v>
       </c>
       <c r="C15" t="n">
-        <v>22.6836</v>
+        <v>26.8418</v>
       </c>
       <c r="D15" t="n">
-        <v>26.7661</v>
+        <v>31.3268</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1367</v>
+        <v>14.4482</v>
       </c>
       <c r="C16" t="n">
-        <v>22.6959</v>
+        <v>26.3858</v>
       </c>
       <c r="D16" t="n">
-        <v>26.7535</v>
+        <v>30.9469</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.9424</v>
+        <v>14.126</v>
       </c>
       <c r="C17" t="n">
-        <v>22.8815</v>
+        <v>26.2914</v>
       </c>
       <c r="D17" t="n">
-        <v>26.2278</v>
+        <v>31.2076</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.46036</v>
+        <v>4.0585</v>
       </c>
       <c r="C2" t="n">
-        <v>5.92974</v>
+        <v>8.62195</v>
       </c>
       <c r="D2" t="n">
-        <v>6.80099</v>
+        <v>9.65268</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.2346</v>
+        <v>6.22942</v>
       </c>
       <c r="C3" t="n">
-        <v>9.360609999999999</v>
+        <v>12.4949</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0275</v>
+        <v>14.6349</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.23086</v>
+        <v>8.218909999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.9725</v>
+        <v>16.7796</v>
       </c>
       <c r="D4" t="n">
-        <v>15.559</v>
+        <v>20.1912</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.99357</v>
+        <v>10.2036</v>
       </c>
       <c r="C5" t="n">
-        <v>16.3416</v>
+        <v>20.7628</v>
       </c>
       <c r="D5" t="n">
-        <v>19.8451</v>
+        <v>25.2481</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.5429</v>
+        <v>12.1252</v>
       </c>
       <c r="C6" t="n">
-        <v>19.7396</v>
+        <v>24.811</v>
       </c>
       <c r="D6" t="n">
-        <v>24.0993</v>
+        <v>30.537</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3005</v>
+        <v>13.9253</v>
       </c>
       <c r="C7" t="n">
-        <v>22.9359</v>
+        <v>28.7262</v>
       </c>
       <c r="D7" t="n">
-        <v>28.3554</v>
+        <v>35.7734</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8889</v>
+        <v>15.6529</v>
       </c>
       <c r="C8" t="n">
-        <v>26.1791</v>
+        <v>32.6311</v>
       </c>
       <c r="D8" t="n">
-        <v>32.4348</v>
+        <v>40.7998</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.1693</v>
+        <v>18.3908</v>
       </c>
       <c r="C9" t="n">
-        <v>31.1452</v>
+        <v>38.9613</v>
       </c>
       <c r="D9" t="n">
-        <v>37.402</v>
+        <v>46.9348</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.5293</v>
+        <v>17.1748</v>
       </c>
       <c r="C10" t="n">
-        <v>29.176</v>
+        <v>35.4205</v>
       </c>
       <c r="D10" t="n">
-        <v>34.2821</v>
+        <v>43.0174</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.2654</v>
+        <v>17.1527</v>
       </c>
       <c r="C11" t="n">
-        <v>28.0947</v>
+        <v>35.247</v>
       </c>
       <c r="D11" t="n">
-        <v>33.9778</v>
+        <v>41.9587</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.3371</v>
+        <v>17.3494</v>
       </c>
       <c r="C12" t="n">
-        <v>28.7821</v>
+        <v>35.5084</v>
       </c>
       <c r="D12" t="n">
-        <v>34.0871</v>
+        <v>42.9077</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.5961</v>
+        <v>17.6803</v>
       </c>
       <c r="C13" t="n">
-        <v>29.1358</v>
+        <v>35.694</v>
       </c>
       <c r="D13" t="n">
-        <v>34.8841</v>
+        <v>42.7326</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1185</v>
+        <v>17.0846</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0065</v>
+        <v>34.2674</v>
       </c>
       <c r="D14" t="n">
-        <v>33.5295</v>
+        <v>41.1206</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.5008</v>
+        <v>17.4819</v>
       </c>
       <c r="C15" t="n">
-        <v>28.6987</v>
+        <v>35.1174</v>
       </c>
       <c r="D15" t="n">
-        <v>34.3314</v>
+        <v>41.3859</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.6041</v>
+        <v>17.4464</v>
       </c>
       <c r="C16" t="n">
-        <v>28.5716</v>
+        <v>34.5636</v>
       </c>
       <c r="D16" t="n">
-        <v>33.938</v>
+        <v>41.3778</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4345</v>
+        <v>17.2487</v>
       </c>
       <c r="C17" t="n">
-        <v>28.4023</v>
+        <v>34.4116</v>
       </c>
       <c r="D17" t="n">
-        <v>34.108</v>
+        <v>40.349</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.34781</v>
+        <v>5.43676</v>
       </c>
       <c r="C2" t="n">
-        <v>4.95047</v>
+        <v>6.69322</v>
       </c>
       <c r="D2" t="n">
-        <v>5.40481</v>
+        <v>7.36563</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.89829</v>
+        <v>7.04354</v>
       </c>
       <c r="C3" t="n">
-        <v>7.85972</v>
+        <v>9.8964</v>
       </c>
       <c r="D3" t="n">
-        <v>8.8833</v>
+        <v>11.4389</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.6555</v>
+        <v>9.03149</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9353</v>
+        <v>13.6385</v>
       </c>
       <c r="D4" t="n">
-        <v>12.7002</v>
+        <v>16.0197</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.671329999999999</v>
+        <v>10.924</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0286</v>
+        <v>17.3363</v>
       </c>
       <c r="D5" t="n">
-        <v>16.4167</v>
+        <v>20.6551</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5497</v>
+        <v>13.0596</v>
       </c>
       <c r="C6" t="n">
-        <v>17.2782</v>
+        <v>21.0765</v>
       </c>
       <c r="D6" t="n">
-        <v>20.1342</v>
+        <v>25.3177</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.2625</v>
+        <v>14.8378</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4142</v>
+        <v>24.7542</v>
       </c>
       <c r="D7" t="n">
-        <v>23.8044</v>
+        <v>29.7809</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.0996</v>
+        <v>17.008</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5687</v>
+        <v>28.5587</v>
       </c>
       <c r="D8" t="n">
-        <v>27.533</v>
+        <v>34.2225</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.2759</v>
+        <v>19.5783</v>
       </c>
       <c r="C9" t="n">
-        <v>27.095</v>
+        <v>33.1538</v>
       </c>
       <c r="D9" t="n">
-        <v>31.3074</v>
+        <v>39.314</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.5889</v>
+        <v>18.8272</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4201</v>
+        <v>30.7289</v>
       </c>
       <c r="D10" t="n">
-        <v>29.4561</v>
+        <v>36.7924</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.6728</v>
+        <v>18.5749</v>
       </c>
       <c r="C11" t="n">
-        <v>25.4677</v>
+        <v>30.6819</v>
       </c>
       <c r="D11" t="n">
-        <v>29.1783</v>
+        <v>35.9109</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.2139</v>
+        <v>18.7765</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5933</v>
+        <v>30.7151</v>
       </c>
       <c r="D12" t="n">
-        <v>29.1877</v>
+        <v>36.4933</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.3604</v>
+        <v>19.3795</v>
       </c>
       <c r="C13" t="n">
-        <v>26.0027</v>
+        <v>31.356</v>
       </c>
       <c r="D13" t="n">
-        <v>29.6648</v>
+        <v>36.813</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.9764</v>
+        <v>18.8486</v>
       </c>
       <c r="C14" t="n">
-        <v>24.9115</v>
+        <v>30.0944</v>
       </c>
       <c r="D14" t="n">
-        <v>28.8684</v>
+        <v>35.8224</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.1435</v>
+        <v>18.8057</v>
       </c>
       <c r="C15" t="n">
-        <v>25.5864</v>
+        <v>31.3283</v>
       </c>
       <c r="D15" t="n">
-        <v>29.7472</v>
+        <v>36.6781</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.4157</v>
+        <v>18.9083</v>
       </c>
       <c r="C16" t="n">
-        <v>25.5301</v>
+        <v>30.9884</v>
       </c>
       <c r="D16" t="n">
-        <v>29.6767</v>
+        <v>36.3367</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.1638</v>
+        <v>18.8919</v>
       </c>
       <c r="C17" t="n">
-        <v>25.6853</v>
+        <v>30.7381</v>
       </c>
       <c r="D17" t="n">
-        <v>29.8226</v>
+        <v>36.3421</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.29724</v>
+        <v>5.29295</v>
       </c>
       <c r="C2" t="n">
-        <v>5.79102</v>
+        <v>5.85851</v>
       </c>
       <c r="D2" t="n">
-        <v>6.08855</v>
+        <v>6.20369</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.39588</v>
+        <v>6.30374</v>
       </c>
       <c r="C3" t="n">
-        <v>6.82262</v>
+        <v>6.83891</v>
       </c>
       <c r="D3" t="n">
-        <v>9.058020000000001</v>
+        <v>9.069739999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.45204</v>
+        <v>7.86236</v>
       </c>
       <c r="C4" t="n">
-        <v>8.801869999999999</v>
+        <v>8.960940000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.3282</v>
+        <v>12.4537</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.387499999999999</v>
+        <v>9.354609999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8961</v>
+        <v>11.0392</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4652</v>
+        <v>15.5939</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9861</v>
+        <v>11.0305</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2115</v>
+        <v>13.412</v>
       </c>
       <c r="D6" t="n">
-        <v>18.3546</v>
+        <v>18.742</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7183</v>
+        <v>12.6337</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5357</v>
+        <v>15.7995</v>
       </c>
       <c r="D7" t="n">
-        <v>21.4438</v>
+        <v>21.5621</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0709</v>
+        <v>13.9905</v>
       </c>
       <c r="C8" t="n">
-        <v>17.971</v>
+        <v>18.2164</v>
       </c>
       <c r="D8" t="n">
-        <v>24.3845</v>
+        <v>24.6401</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5276</v>
+        <v>16.4505</v>
       </c>
       <c r="C9" t="n">
-        <v>20.9405</v>
+        <v>21.0129</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5695</v>
+        <v>28.8983</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.997</v>
+        <v>13.9943</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5127</v>
+        <v>17.6879</v>
       </c>
       <c r="D10" t="n">
-        <v>23.2127</v>
+        <v>23.5235</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1411</v>
+        <v>14.1676</v>
       </c>
       <c r="C11" t="n">
-        <v>17.6389</v>
+        <v>18.0896</v>
       </c>
       <c r="D11" t="n">
-        <v>23.637</v>
+        <v>24.0867</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.7092</v>
+        <v>14.5795</v>
       </c>
       <c r="C12" t="n">
-        <v>18.4907</v>
+        <v>18.7551</v>
       </c>
       <c r="D12" t="n">
-        <v>24.7202</v>
+        <v>25.1802</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1581</v>
+        <v>15.0922</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0324</v>
+        <v>19.2144</v>
       </c>
       <c r="D13" t="n">
-        <v>25.7021</v>
+        <v>25.8851</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1559</v>
+        <v>14.9074</v>
       </c>
       <c r="C14" t="n">
-        <v>19.2285</v>
+        <v>19.2244</v>
       </c>
       <c r="D14" t="n">
-        <v>24.1226</v>
+        <v>25.5969</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2097</v>
+        <v>15.0156</v>
       </c>
       <c r="C15" t="n">
-        <v>19.3687</v>
+        <v>19.8735</v>
       </c>
       <c r="D15" t="n">
-        <v>24.4218</v>
+        <v>25.8152</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3913</v>
+        <v>15.1869</v>
       </c>
       <c r="C16" t="n">
-        <v>19.6462</v>
+        <v>19.9795</v>
       </c>
       <c r="D16" t="n">
-        <v>25.6314</v>
+        <v>25.9315</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3301</v>
+        <v>15.7268</v>
       </c>
       <c r="C17" t="n">
-        <v>19.9446</v>
+        <v>20.2714</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6419</v>
+        <v>25.3848</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.04205</v>
+        <v>9.162280000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2473</v>
+        <v>10.2552</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0483</v>
+        <v>11.2435</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.7774</v>
+        <v>8.639390000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.395250000000001</v>
+        <v>9.26205</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4372</v>
+        <v>13.4043</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3916</v>
+        <v>10.4314</v>
       </c>
       <c r="C4" t="n">
-        <v>11.466</v>
+        <v>11.4797</v>
       </c>
       <c r="D4" t="n">
-        <v>17.4716</v>
+        <v>17.5973</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0261</v>
+        <v>12.1972</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1383</v>
+        <v>13.8951</v>
       </c>
       <c r="D5" t="n">
-        <v>20.9361</v>
+        <v>21.6215</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.0366</v>
+        <v>14.2091</v>
       </c>
       <c r="C6" t="n">
-        <v>16.7662</v>
+        <v>16.856</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0372</v>
+        <v>25.3852</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2071</v>
+        <v>16.058</v>
       </c>
       <c r="C7" t="n">
-        <v>19.6547</v>
+        <v>19.9004</v>
       </c>
       <c r="D7" t="n">
-        <v>29.6667</v>
+        <v>29.0365</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.9775</v>
+        <v>18.0313</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4773</v>
+        <v>22.7616</v>
       </c>
       <c r="D8" t="n">
-        <v>32.7481</v>
+        <v>33.1092</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9886</v>
+        <v>21.1316</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9407</v>
+        <v>25.9927</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0981</v>
+        <v>37.2825</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.7419</v>
+        <v>18.3223</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2533</v>
+        <v>23.0363</v>
       </c>
       <c r="D10" t="n">
-        <v>33.2849</v>
+        <v>33.3014</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0288</v>
+        <v>18.2364</v>
       </c>
       <c r="C11" t="n">
-        <v>22.4971</v>
+        <v>22.7319</v>
       </c>
       <c r="D11" t="n">
-        <v>32.6344</v>
+        <v>32.6997</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.517</v>
+        <v>18.5924</v>
       </c>
       <c r="C12" t="n">
-        <v>22.9599</v>
+        <v>23.2731</v>
       </c>
       <c r="D12" t="n">
-        <v>32.7757</v>
+        <v>33.5941</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1753</v>
+        <v>19.4283</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5613</v>
+        <v>23.627</v>
       </c>
       <c r="D13" t="n">
-        <v>34.3715</v>
+        <v>34.2943</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0051</v>
+        <v>19.1273</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0686</v>
+        <v>23.8473</v>
       </c>
       <c r="D14" t="n">
-        <v>32.7745</v>
+        <v>33.0651</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3459</v>
+        <v>19.2128</v>
       </c>
       <c r="C15" t="n">
-        <v>24.0918</v>
+        <v>24.3261</v>
       </c>
       <c r="D15" t="n">
-        <v>33.0669</v>
+        <v>32.929</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7724</v>
+        <v>19.851</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4987</v>
+        <v>24.5514</v>
       </c>
       <c r="D16" t="n">
-        <v>32.833</v>
+        <v>34.0535</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0682</v>
+        <v>20.0941</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8172</v>
+        <v>24.8708</v>
       </c>
       <c r="D17" t="n">
-        <v>33.3109</v>
+        <v>32.0549</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.74051</v>
+        <v>6.84058</v>
       </c>
       <c r="C2" t="n">
-        <v>6.80378</v>
+        <v>6.82183</v>
       </c>
       <c r="D2" t="n">
-        <v>7.09801</v>
+        <v>7.22867</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.28563</v>
+        <v>7.50253</v>
       </c>
       <c r="C3" t="n">
-        <v>7.55364</v>
+        <v>7.76712</v>
       </c>
       <c r="D3" t="n">
-        <v>9.841340000000001</v>
+        <v>10.2411</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.53412</v>
+        <v>9.28307</v>
       </c>
       <c r="C4" t="n">
-        <v>9.201919999999999</v>
+        <v>9.92239</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0708</v>
+        <v>13.9541</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2943</v>
+        <v>11.1846</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0799</v>
+        <v>12.2338</v>
       </c>
       <c r="D5" t="n">
-        <v>16.3868</v>
+        <v>17.8024</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3461</v>
+        <v>13.2455</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3234</v>
+        <v>14.6161</v>
       </c>
       <c r="D6" t="n">
-        <v>20.0886</v>
+        <v>21.4962</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2233</v>
+        <v>15.3273</v>
       </c>
       <c r="C7" t="n">
-        <v>15.815</v>
+        <v>17.1054</v>
       </c>
       <c r="D7" t="n">
-        <v>23.9731</v>
+        <v>25.3512</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.7</v>
+        <v>17.3156</v>
       </c>
       <c r="C8" t="n">
-        <v>18.3791</v>
+        <v>19.4247</v>
       </c>
       <c r="D8" t="n">
-        <v>27.9113</v>
+        <v>28.7595</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5015</v>
+        <v>20.0223</v>
       </c>
       <c r="C9" t="n">
-        <v>20.1366</v>
+        <v>22.2855</v>
       </c>
       <c r="D9" t="n">
-        <v>30.8492</v>
+        <v>33.5832</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.8945</v>
+        <v>17.6995</v>
       </c>
       <c r="C10" t="n">
-        <v>18.302</v>
+        <v>19.5799</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9028</v>
+        <v>27.1256</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.4311</v>
+        <v>17.1286</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8106</v>
+        <v>19.2186</v>
       </c>
       <c r="D11" t="n">
-        <v>26.5004</v>
+        <v>27.7142</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.7704</v>
+        <v>17.9686</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5046</v>
+        <v>19.9037</v>
       </c>
       <c r="D12" t="n">
-        <v>27.6274</v>
+        <v>29.0261</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.3593</v>
+        <v>18.8712</v>
       </c>
       <c r="C13" t="n">
-        <v>19.1458</v>
+        <v>20.4245</v>
       </c>
       <c r="D13" t="n">
-        <v>28.0732</v>
+        <v>30.2231</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1468</v>
+        <v>18.1988</v>
       </c>
       <c r="C14" t="n">
-        <v>18.9744</v>
+        <v>20.5466</v>
       </c>
       <c r="D14" t="n">
-        <v>27.4556</v>
+        <v>28.2241</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.1198</v>
+        <v>18.232</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5903</v>
+        <v>20.7101</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6875</v>
+        <v>28.4161</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.301</v>
+        <v>18.973</v>
       </c>
       <c r="C16" t="n">
-        <v>19.499</v>
+        <v>21.207</v>
       </c>
       <c r="D16" t="n">
-        <v>27.9746</v>
+        <v>28.7901</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.833</v>
+        <v>18.8232</v>
       </c>
       <c r="C17" t="n">
-        <v>19.7715</v>
+        <v>21.7249</v>
       </c>
       <c r="D17" t="n">
-        <v>28.8127</v>
+        <v>29.9658</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.05418</v>
+        <v>3.04277</v>
       </c>
       <c r="C2" t="n">
-        <v>5.04116</v>
+        <v>5.11613</v>
       </c>
       <c r="D2" t="n">
-        <v>5.24179</v>
+        <v>5.32772</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.93358</v>
+        <v>4.96187</v>
       </c>
       <c r="C3" t="n">
-        <v>6.61847</v>
+        <v>6.70866</v>
       </c>
       <c r="D3" t="n">
-        <v>8.58403</v>
+        <v>8.686959999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.6582</v>
+        <v>6.59589</v>
       </c>
       <c r="C4" t="n">
-        <v>8.69739</v>
+        <v>8.770630000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>11.903</v>
+        <v>12.0256</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.22279</v>
+        <v>8.204330000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8023</v>
+        <v>10.8863</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0513</v>
+        <v>15.2369</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.803739999999999</v>
+        <v>9.77196</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9856</v>
+        <v>13.0746</v>
       </c>
       <c r="D6" t="n">
-        <v>18.1567</v>
+        <v>18.3075</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2538</v>
+        <v>11.2537</v>
       </c>
       <c r="C7" t="n">
-        <v>15.1633</v>
+        <v>15.3352</v>
       </c>
       <c r="D7" t="n">
-        <v>21.147</v>
+        <v>21.3862</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7024</v>
+        <v>12.6677</v>
       </c>
       <c r="C8" t="n">
-        <v>17.56</v>
+        <v>17.7694</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2328</v>
+        <v>24.3949</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9143</v>
+        <v>14.8282</v>
       </c>
       <c r="C9" t="n">
-        <v>20.5922</v>
+        <v>20.8123</v>
       </c>
       <c r="D9" t="n">
-        <v>28.7897</v>
+        <v>29.057</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3025</v>
+        <v>14.1408</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2565</v>
+        <v>19.2442</v>
       </c>
       <c r="D10" t="n">
-        <v>26.7718</v>
+        <v>26.8899</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0897</v>
+        <v>14.0093</v>
       </c>
       <c r="C11" t="n">
-        <v>19.0584</v>
+        <v>19.1519</v>
       </c>
       <c r="D11" t="n">
-        <v>26.3612</v>
+        <v>26.8454</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3163</v>
+        <v>14.1878</v>
       </c>
       <c r="C12" t="n">
-        <v>19.3341</v>
+        <v>19.4655</v>
       </c>
       <c r="D12" t="n">
-        <v>26.9622</v>
+        <v>26.6482</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3363</v>
+        <v>14.4639</v>
       </c>
       <c r="C13" t="n">
-        <v>19.391</v>
+        <v>19.5979</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9255</v>
+        <v>27.2953</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9804</v>
+        <v>13.9206</v>
       </c>
       <c r="C14" t="n">
-        <v>19.3661</v>
+        <v>19.6928</v>
       </c>
       <c r="D14" t="n">
-        <v>25.905</v>
+        <v>25.9458</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4951</v>
+        <v>14.4382</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6133</v>
+        <v>19.7741</v>
       </c>
       <c r="D15" t="n">
-        <v>26.2746</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4854</v>
+        <v>14.5011</v>
       </c>
       <c r="C16" t="n">
-        <v>19.7585</v>
+        <v>19.9355</v>
       </c>
       <c r="D16" t="n">
-        <v>26.4735</v>
+        <v>26.238</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2065</v>
+        <v>14.2426</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8528</v>
+        <v>20.0094</v>
       </c>
       <c r="D17" t="n">
-        <v>26.4379</v>
+        <v>26.9015</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.06914</v>
+        <v>4.11218</v>
       </c>
       <c r="C2" t="n">
-        <v>8.20485</v>
+        <v>8.266069999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.47885</v>
+        <v>8.652570000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.06376</v>
+        <v>6.14641</v>
       </c>
       <c r="C3" t="n">
-        <v>8.74583</v>
+        <v>8.789569999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2963</v>
+        <v>12.5451</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.321569999999999</v>
+        <v>8.32869</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1647</v>
+        <v>11.23</v>
       </c>
       <c r="D4" t="n">
-        <v>16.5901</v>
+        <v>16.887</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1698</v>
+        <v>10.1585</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5769</v>
+        <v>13.6599</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5763</v>
+        <v>20.8964</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0881</v>
+        <v>12.1202</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1511</v>
+        <v>16.2529</v>
       </c>
       <c r="D6" t="n">
-        <v>24.5737</v>
+        <v>24.8895</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9018</v>
+        <v>13.9334</v>
       </c>
       <c r="C7" t="n">
-        <v>18.758</v>
+        <v>18.8925</v>
       </c>
       <c r="D7" t="n">
-        <v>28.4191</v>
+        <v>28.8577</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.661</v>
+        <v>15.6847</v>
       </c>
       <c r="C8" t="n">
-        <v>21.7909</v>
+        <v>21.9095</v>
       </c>
       <c r="D8" t="n">
-        <v>32.2208</v>
+        <v>32.8452</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.293</v>
+        <v>18.305</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4539</v>
+        <v>25.5734</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6923</v>
+        <v>39.0248</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2737</v>
+        <v>17.5617</v>
       </c>
       <c r="C10" t="n">
-        <v>23.469</v>
+        <v>23.3653</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2141</v>
+        <v>35.8797</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2604</v>
+        <v>17.2624</v>
       </c>
       <c r="C11" t="n">
-        <v>23.3601</v>
+        <v>23.8743</v>
       </c>
       <c r="D11" t="n">
-        <v>34.7635</v>
+        <v>35.5268</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2574</v>
+        <v>17.3278</v>
       </c>
       <c r="C12" t="n">
-        <v>23.729</v>
+        <v>23.6916</v>
       </c>
       <c r="D12" t="n">
-        <v>35.3826</v>
+        <v>35.6304</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.501</v>
+        <v>17.7198</v>
       </c>
       <c r="C13" t="n">
-        <v>23.7834</v>
+        <v>23.932</v>
       </c>
       <c r="D13" t="n">
-        <v>35.5601</v>
+        <v>35.9715</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0613</v>
+        <v>17.1454</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0887</v>
+        <v>24.2085</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5546</v>
+        <v>34.986</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4649</v>
+        <v>17.7849</v>
       </c>
       <c r="C15" t="n">
-        <v>23.9674</v>
+        <v>24.3488</v>
       </c>
       <c r="D15" t="n">
-        <v>34.7708</v>
+        <v>35.5487</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.4189</v>
+        <v>17.7542</v>
       </c>
       <c r="C16" t="n">
-        <v>24.3638</v>
+        <v>24.535</v>
       </c>
       <c r="D16" t="n">
-        <v>34.6133</v>
+        <v>34.9889</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4157</v>
+        <v>17.744</v>
       </c>
       <c r="C17" t="n">
-        <v>24.4888</v>
+        <v>24.6966</v>
       </c>
       <c r="D17" t="n">
-        <v>33.9092</v>
+        <v>34.462</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.46785</v>
+        <v>5.52783</v>
       </c>
       <c r="C2" t="n">
-        <v>6.46879</v>
+        <v>6.51061</v>
       </c>
       <c r="D2" t="n">
-        <v>6.6272</v>
+        <v>6.78024</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.04909</v>
+        <v>6.93957</v>
       </c>
       <c r="C3" t="n">
-        <v>7.5714</v>
+        <v>7.52122</v>
       </c>
       <c r="D3" t="n">
-        <v>9.729369999999999</v>
+        <v>9.98903</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.01178</v>
+        <v>9.0787</v>
       </c>
       <c r="C4" t="n">
-        <v>9.684889999999999</v>
+        <v>9.80082</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2985</v>
+        <v>13.8329</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0412</v>
+        <v>11.0755</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9026</v>
+        <v>12.0385</v>
       </c>
       <c r="D5" t="n">
-        <v>17.0213</v>
+        <v>17.5959</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.0817</v>
+        <v>13.1415</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2239</v>
+        <v>14.3845</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7027</v>
+        <v>21.3773</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1187</v>
+        <v>15.1878</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6308</v>
+        <v>16.7403</v>
       </c>
       <c r="D7" t="n">
-        <v>24.3792</v>
+        <v>25.1261</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.2865</v>
+        <v>17.4397</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6623</v>
+        <v>19.3173</v>
       </c>
       <c r="D8" t="n">
-        <v>28.1144</v>
+        <v>29.086</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0418</v>
+        <v>20.5307</v>
       </c>
       <c r="C9" t="n">
-        <v>20.6948</v>
+        <v>22.2292</v>
       </c>
       <c r="D9" t="n">
-        <v>32.7588</v>
+        <v>33.886</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1401</v>
+        <v>19.5054</v>
       </c>
       <c r="C10" t="n">
-        <v>20.3515</v>
+        <v>20.9657</v>
       </c>
       <c r="D10" t="n">
-        <v>30.6339</v>
+        <v>31.585</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.239</v>
+        <v>19.168</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0562</v>
+        <v>20.7316</v>
       </c>
       <c r="D11" t="n">
-        <v>29.8134</v>
+        <v>31.4089</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.8737</v>
+        <v>19.5081</v>
       </c>
       <c r="C12" t="n">
-        <v>20.161</v>
+        <v>20.9052</v>
       </c>
       <c r="D12" t="n">
-        <v>30.3475</v>
+        <v>31.2082</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1418</v>
+        <v>19.5918</v>
       </c>
       <c r="C13" t="n">
-        <v>20.4297</v>
+        <v>21.1574</v>
       </c>
       <c r="D13" t="n">
-        <v>30.7028</v>
+        <v>32.1281</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7064</v>
+        <v>18.9075</v>
       </c>
       <c r="C14" t="n">
-        <v>20.0453</v>
+        <v>21.2005</v>
       </c>
       <c r="D14" t="n">
-        <v>29.903</v>
+        <v>30.993</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1257</v>
+        <v>19.6664</v>
       </c>
       <c r="C15" t="n">
-        <v>20.2411</v>
+        <v>21.3344</v>
       </c>
       <c r="D15" t="n">
-        <v>30.4431</v>
+        <v>31.6151</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.0668</v>
+        <v>19.7362</v>
       </c>
       <c r="C16" t="n">
-        <v>20.7228</v>
+        <v>21.5697</v>
       </c>
       <c r="D16" t="n">
-        <v>30.7733</v>
+        <v>31.3271</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0586</v>
+        <v>19.2639</v>
       </c>
       <c r="C17" t="n">
-        <v>20.677</v>
+        <v>21.827</v>
       </c>
       <c r="D17" t="n">
-        <v>30.1669</v>
+        <v>31.182</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.35081</v>
+        <v>5.15944</v>
       </c>
       <c r="C2" t="n">
-        <v>6.15078</v>
+        <v>6.19787</v>
       </c>
       <c r="D2" t="n">
-        <v>6.62959</v>
+        <v>6.65926</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.99278</v>
+        <v>6.34751</v>
       </c>
       <c r="C3" t="n">
-        <v>8.744949999999999</v>
+        <v>9.15732</v>
       </c>
       <c r="D3" t="n">
-        <v>9.954980000000001</v>
+        <v>10.3419</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.45474</v>
+        <v>7.80095</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3154</v>
+        <v>12.4915</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2446</v>
+        <v>14.4838</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.44355</v>
+        <v>9.272539999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4809</v>
+        <v>15.672</v>
       </c>
       <c r="D5" t="n">
-        <v>17.8575</v>
+        <v>18.4714</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0526</v>
+        <v>10.844</v>
       </c>
       <c r="C6" t="n">
-        <v>18.537</v>
+        <v>18.6377</v>
       </c>
       <c r="D6" t="n">
-        <v>22.1662</v>
+        <v>22.2598</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.8116</v>
+        <v>12.5656</v>
       </c>
       <c r="C7" t="n">
-        <v>22.1182</v>
+        <v>21.9554</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0561</v>
+        <v>26.4246</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0874</v>
+        <v>13.8969</v>
       </c>
       <c r="C8" t="n">
-        <v>24.4746</v>
+        <v>24.7095</v>
       </c>
       <c r="D8" t="n">
-        <v>29.6354</v>
+        <v>29.9287</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.578</v>
+        <v>16.3475</v>
       </c>
       <c r="C9" t="n">
-        <v>28.604</v>
+        <v>28.9491</v>
       </c>
       <c r="D9" t="n">
-        <v>33.5695</v>
+        <v>34.0372</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4935</v>
+        <v>13.9351</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2711</v>
+        <v>23.7217</v>
       </c>
       <c r="D10" t="n">
-        <v>27.0289</v>
+        <v>27.0819</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1671</v>
+        <v>14.0187</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6653</v>
+        <v>24.4634</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8517</v>
+        <v>27.7571</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6531</v>
+        <v>14.6694</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6259</v>
+        <v>24.8293</v>
       </c>
       <c r="D12" t="n">
-        <v>28.4468</v>
+        <v>28.9478</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1307</v>
+        <v>15.0312</v>
       </c>
       <c r="C13" t="n">
-        <v>25.8655</v>
+        <v>25.1872</v>
       </c>
       <c r="D13" t="n">
-        <v>28.2526</v>
+        <v>29.296</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.23</v>
+        <v>14.9036</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0152</v>
+        <v>25.394</v>
       </c>
       <c r="D14" t="n">
-        <v>28.7464</v>
+        <v>28.5758</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9773</v>
+        <v>15.0564</v>
       </c>
       <c r="C15" t="n">
-        <v>25.131</v>
+        <v>25.4174</v>
       </c>
       <c r="D15" t="n">
-        <v>28.8143</v>
+        <v>28.6685</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5334</v>
+        <v>14.9258</v>
       </c>
       <c r="C16" t="n">
-        <v>25.5337</v>
+        <v>24.9265</v>
       </c>
       <c r="D16" t="n">
-        <v>28.7081</v>
+        <v>29.6477</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5546</v>
+        <v>15.6683</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8462</v>
+        <v>26.6968</v>
       </c>
       <c r="D17" t="n">
-        <v>29.5003</v>
+        <v>29.2486</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.04368</v>
+        <v>8.35615</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2503</v>
+        <v>11.2829</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3907</v>
+        <v>11.2585</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.79609</v>
+        <v>8.29016</v>
       </c>
       <c r="C3" t="n">
-        <v>13.505</v>
+        <v>13.4428</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0543</v>
+        <v>14.8646</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.91934</v>
+        <v>10.1043</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9682</v>
+        <v>17.6018</v>
       </c>
       <c r="D4" t="n">
-        <v>19.5206</v>
+        <v>20.3423</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.4657</v>
+        <v>11.8517</v>
       </c>
       <c r="C5" t="n">
-        <v>20.8876</v>
+        <v>21.5949</v>
       </c>
       <c r="D5" t="n">
-        <v>25.0973</v>
+        <v>25.5386</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9798</v>
+        <v>13.7688</v>
       </c>
       <c r="C6" t="n">
-        <v>25.0548</v>
+        <v>25.3685</v>
       </c>
       <c r="D6" t="n">
-        <v>29.752</v>
+        <v>30.5466</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.18</v>
+        <v>15.6284</v>
       </c>
       <c r="C7" t="n">
-        <v>29.5767</v>
+        <v>29.0001</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5565</v>
+        <v>35.4302</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0087</v>
+        <v>17.5665</v>
       </c>
       <c r="C8" t="n">
-        <v>32.649</v>
+        <v>33.1253</v>
       </c>
       <c r="D8" t="n">
-        <v>39.8869</v>
+        <v>40.2514</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.2019</v>
+        <v>20.6294</v>
       </c>
       <c r="C9" t="n">
-        <v>38.184</v>
+        <v>38.3605</v>
       </c>
       <c r="D9" t="n">
-        <v>45.288</v>
+        <v>45.9955</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1849</v>
+        <v>17.7834</v>
       </c>
       <c r="C10" t="n">
-        <v>33.176</v>
+        <v>33.4416</v>
       </c>
       <c r="D10" t="n">
-        <v>38.6878</v>
+        <v>38.0782</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0121</v>
+        <v>17.8121</v>
       </c>
       <c r="C11" t="n">
-        <v>32.3454</v>
+        <v>32.3542</v>
       </c>
       <c r="D11" t="n">
-        <v>36.8467</v>
+        <v>37.326</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.6589</v>
+        <v>18.5777</v>
       </c>
       <c r="C12" t="n">
-        <v>32.6223</v>
+        <v>31.882</v>
       </c>
       <c r="D12" t="n">
-        <v>37.9047</v>
+        <v>38.6246</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4989</v>
+        <v>18.9266</v>
       </c>
       <c r="C13" t="n">
-        <v>34.129</v>
+        <v>34.145</v>
       </c>
       <c r="D13" t="n">
-        <v>38.346</v>
+        <v>39.0967</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0687</v>
+        <v>18.5172</v>
       </c>
       <c r="C14" t="n">
-        <v>33.6071</v>
+        <v>34.0284</v>
       </c>
       <c r="D14" t="n">
-        <v>37.2768</v>
+        <v>38.8815</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.2007</v>
+        <v>18.8434</v>
       </c>
       <c r="C15" t="n">
-        <v>32.9197</v>
+        <v>34.2938</v>
       </c>
       <c r="D15" t="n">
-        <v>38.22</v>
+        <v>37.6352</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.574</v>
+        <v>19.2734</v>
       </c>
       <c r="C16" t="n">
-        <v>32.8938</v>
+        <v>32.8805</v>
       </c>
       <c r="D16" t="n">
-        <v>37.8565</v>
+        <v>38.3777</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.555</v>
+        <v>18.8008</v>
       </c>
       <c r="C17" t="n">
-        <v>32.7407</v>
+        <v>33.3126</v>
       </c>
       <c r="D17" t="n">
-        <v>38.6887</v>
+        <v>38.223</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.72617</v>
+        <v>6.41317</v>
       </c>
       <c r="C2" t="n">
-        <v>7.13354</v>
+        <v>7.21315</v>
       </c>
       <c r="D2" t="n">
-        <v>7.58983</v>
+        <v>7.61931</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.44556</v>
+        <v>7.27293</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0126</v>
+        <v>10.1961</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4635</v>
+        <v>11.5399</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.20523</v>
+        <v>9.061260000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.1945</v>
+        <v>13.9469</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5483</v>
+        <v>16.2279</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9474</v>
+        <v>10.8717</v>
       </c>
       <c r="C5" t="n">
-        <v>16.8399</v>
+        <v>17.737</v>
       </c>
       <c r="D5" t="n">
-        <v>19.8564</v>
+        <v>20.7328</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5404</v>
+        <v>12.8314</v>
       </c>
       <c r="C6" t="n">
-        <v>20.7447</v>
+        <v>21.3923</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8884</v>
+        <v>25.3561</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7257</v>
+        <v>15.0106</v>
       </c>
       <c r="C7" t="n">
-        <v>24.2116</v>
+        <v>25.3581</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8905</v>
+        <v>29.8563</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.6761</v>
+        <v>16.9373</v>
       </c>
       <c r="C8" t="n">
-        <v>27.5839</v>
+        <v>28.7105</v>
       </c>
       <c r="D8" t="n">
-        <v>32.9357</v>
+        <v>34.0819</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.1892</v>
+        <v>19.6426</v>
       </c>
       <c r="C9" t="n">
-        <v>31.7453</v>
+        <v>33.1249</v>
       </c>
       <c r="D9" t="n">
-        <v>37.4698</v>
+        <v>38.8924</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9601</v>
+        <v>17.3718</v>
       </c>
       <c r="C10" t="n">
-        <v>26.8041</v>
+        <v>27.973</v>
       </c>
       <c r="D10" t="n">
-        <v>30.9168</v>
+        <v>31.8203</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.7184</v>
+        <v>16.8245</v>
       </c>
       <c r="C11" t="n">
-        <v>27.1531</v>
+        <v>27.8787</v>
       </c>
       <c r="D11" t="n">
-        <v>30.8861</v>
+        <v>32.3346</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3177</v>
+        <v>17.5359</v>
       </c>
       <c r="C12" t="n">
-        <v>27.9228</v>
+        <v>29.3349</v>
       </c>
       <c r="D12" t="n">
-        <v>32.9827</v>
+        <v>32.9982</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8792</v>
+        <v>18.1957</v>
       </c>
       <c r="C13" t="n">
-        <v>29.107</v>
+        <v>29.164</v>
       </c>
       <c r="D13" t="n">
-        <v>33.2856</v>
+        <v>33.9753</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.6507</v>
+        <v>18.0102</v>
       </c>
       <c r="C14" t="n">
-        <v>27.9719</v>
+        <v>28.7857</v>
       </c>
       <c r="D14" t="n">
-        <v>32.8082</v>
+        <v>32.5211</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8942</v>
+        <v>17.7438</v>
       </c>
       <c r="C15" t="n">
-        <v>27.7623</v>
+        <v>27.9503</v>
       </c>
       <c r="D15" t="n">
-        <v>30.4094</v>
+        <v>31.7349</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2398</v>
+        <v>18.494</v>
       </c>
       <c r="C16" t="n">
-        <v>27.9289</v>
+        <v>28.9246</v>
       </c>
       <c r="D16" t="n">
-        <v>31.8946</v>
+        <v>31.6696</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.4221</v>
+        <v>18.3287</v>
       </c>
       <c r="C17" t="n">
-        <v>28.3054</v>
+        <v>29.8503</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6156</v>
+        <v>33.3253</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0664</v>
+        <v>2.99994</v>
       </c>
       <c r="C2" t="n">
-        <v>5.28062</v>
+        <v>5.30376</v>
       </c>
       <c r="D2" t="n">
-        <v>5.93681</v>
+        <v>5.98504</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.89972</v>
+        <v>4.85718</v>
       </c>
       <c r="C3" t="n">
-        <v>8.55301</v>
+        <v>8.68399</v>
       </c>
       <c r="D3" t="n">
-        <v>9.91114</v>
+        <v>10.1367</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.69439</v>
+        <v>6.58431</v>
       </c>
       <c r="C4" t="n">
-        <v>11.893</v>
+        <v>12.0401</v>
       </c>
       <c r="D4" t="n">
-        <v>14.0892</v>
+        <v>14.3469</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.20818</v>
+        <v>8.122070000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1028</v>
+        <v>15.2711</v>
       </c>
       <c r="D5" t="n">
-        <v>18.0539</v>
+        <v>18.4749</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.801360000000001</v>
+        <v>9.70373</v>
       </c>
       <c r="C6" t="n">
-        <v>18.1771</v>
+        <v>18.3664</v>
       </c>
       <c r="D6" t="n">
-        <v>22.0427</v>
+        <v>22.5231</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.301</v>
+        <v>11.1621</v>
       </c>
       <c r="C7" t="n">
-        <v>21.1891</v>
+        <v>21.383</v>
       </c>
       <c r="D7" t="n">
-        <v>25.8253</v>
+        <v>26.4873</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7375</v>
+        <v>12.6573</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2515</v>
+        <v>24.4476</v>
       </c>
       <c r="D8" t="n">
-        <v>29.9847</v>
+        <v>30.4025</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9094</v>
+        <v>14.6859</v>
       </c>
       <c r="C9" t="n">
-        <v>28.8588</v>
+        <v>28.9545</v>
       </c>
       <c r="D9" t="n">
-        <v>34.3175</v>
+        <v>34.95</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3071</v>
+        <v>14.0168</v>
       </c>
       <c r="C10" t="n">
-        <v>26.8637</v>
+        <v>26.4744</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6076</v>
+        <v>32.1351</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.2063</v>
+        <v>13.9349</v>
       </c>
       <c r="C11" t="n">
-        <v>26.3965</v>
+        <v>26.9143</v>
       </c>
       <c r="D11" t="n">
-        <v>31.3437</v>
+        <v>32.0248</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3292</v>
+        <v>14.0431</v>
       </c>
       <c r="C12" t="n">
-        <v>26.5366</v>
+        <v>26.607</v>
       </c>
       <c r="D12" t="n">
-        <v>31.4627</v>
+        <v>31.8307</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4115</v>
+        <v>14.3311</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1668</v>
+        <v>27.2191</v>
       </c>
       <c r="D13" t="n">
-        <v>31.7814</v>
+        <v>32.5006</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.032</v>
+        <v>13.8389</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0323</v>
+        <v>26.0211</v>
       </c>
       <c r="D14" t="n">
-        <v>30.859</v>
+        <v>31.3017</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.529</v>
+        <v>14.4747</v>
       </c>
       <c r="C15" t="n">
-        <v>26.8418</v>
+        <v>26.801</v>
       </c>
       <c r="D15" t="n">
-        <v>31.3268</v>
+        <v>32.1634</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4482</v>
+        <v>14.3377</v>
       </c>
       <c r="C16" t="n">
-        <v>26.3858</v>
+        <v>26.7674</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9469</v>
+        <v>31.566</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.126</v>
+        <v>14.1971</v>
       </c>
       <c r="C17" t="n">
-        <v>26.2914</v>
+        <v>26.7719</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2076</v>
+        <v>31.3909</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0585</v>
+        <v>3.98405</v>
       </c>
       <c r="C2" t="n">
-        <v>8.62195</v>
+        <v>8.63969</v>
       </c>
       <c r="D2" t="n">
-        <v>9.65268</v>
+        <v>9.61749</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.22942</v>
+        <v>5.95827</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4949</v>
+        <v>12.4692</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6349</v>
+        <v>14.6487</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.218909999999999</v>
+        <v>7.9821</v>
       </c>
       <c r="C4" t="n">
-        <v>16.7796</v>
+        <v>16.7808</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1912</v>
+        <v>20.298</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2036</v>
+        <v>9.896929999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>20.7628</v>
+        <v>20.7933</v>
       </c>
       <c r="D5" t="n">
-        <v>25.2481</v>
+        <v>25.5582</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1252</v>
+        <v>11.7433</v>
       </c>
       <c r="C6" t="n">
-        <v>24.811</v>
+        <v>24.7992</v>
       </c>
       <c r="D6" t="n">
-        <v>30.537</v>
+        <v>30.9342</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9253</v>
+        <v>13.5057</v>
       </c>
       <c r="C7" t="n">
-        <v>28.7262</v>
+        <v>28.7697</v>
       </c>
       <c r="D7" t="n">
-        <v>35.7734</v>
+        <v>36.171</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6529</v>
+        <v>15.3081</v>
       </c>
       <c r="C8" t="n">
-        <v>32.6311</v>
+        <v>32.5363</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7998</v>
+        <v>41.2145</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3908</v>
+        <v>17.8435</v>
       </c>
       <c r="C9" t="n">
-        <v>38.9613</v>
+        <v>39.0471</v>
       </c>
       <c r="D9" t="n">
-        <v>46.9348</v>
+        <v>47.4131</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1748</v>
+        <v>17.0469</v>
       </c>
       <c r="C10" t="n">
-        <v>35.4205</v>
+        <v>35.9181</v>
       </c>
       <c r="D10" t="n">
-        <v>43.0174</v>
+        <v>42.0355</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1527</v>
+        <v>16.8762</v>
       </c>
       <c r="C11" t="n">
-        <v>35.247</v>
+        <v>35.2431</v>
       </c>
       <c r="D11" t="n">
-        <v>41.9587</v>
+        <v>41.8334</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3494</v>
+        <v>16.9405</v>
       </c>
       <c r="C12" t="n">
-        <v>35.5084</v>
+        <v>35.5625</v>
       </c>
       <c r="D12" t="n">
-        <v>42.9077</v>
+        <v>42.3857</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6803</v>
+        <v>17.284</v>
       </c>
       <c r="C13" t="n">
-        <v>35.694</v>
+        <v>35.9843</v>
       </c>
       <c r="D13" t="n">
-        <v>42.7326</v>
+        <v>43.1473</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0846</v>
+        <v>16.7156</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2674</v>
+        <v>33.9544</v>
       </c>
       <c r="D14" t="n">
-        <v>41.1206</v>
+        <v>41.2973</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4819</v>
+        <v>17.3916</v>
       </c>
       <c r="C15" t="n">
-        <v>35.1174</v>
+        <v>34.9175</v>
       </c>
       <c r="D15" t="n">
-        <v>41.3859</v>
+        <v>41.9252</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.4464</v>
+        <v>17.305</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5636</v>
+        <v>34.3474</v>
       </c>
       <c r="D16" t="n">
-        <v>41.3778</v>
+        <v>40.7895</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.2487</v>
+        <v>17.5301</v>
       </c>
       <c r="C17" t="n">
-        <v>34.4116</v>
+        <v>34.0317</v>
       </c>
       <c r="D17" t="n">
-        <v>40.349</v>
+        <v>40.1318</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.43676</v>
+        <v>5.20125</v>
       </c>
       <c r="C2" t="n">
-        <v>6.69322</v>
+        <v>6.73565</v>
       </c>
       <c r="D2" t="n">
-        <v>7.36563</v>
+        <v>7.4084</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.04354</v>
+        <v>6.79603</v>
       </c>
       <c r="C3" t="n">
-        <v>9.8964</v>
+        <v>9.99006</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4389</v>
+        <v>11.5081</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.03149</v>
+        <v>8.81066</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6385</v>
+        <v>13.7612</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0197</v>
+        <v>16.3264</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.924</v>
+        <v>10.8148</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3363</v>
+        <v>17.5187</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6551</v>
+        <v>21.064</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.0596</v>
+        <v>12.8288</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0765</v>
+        <v>21.2969</v>
       </c>
       <c r="D6" t="n">
-        <v>25.3177</v>
+        <v>25.6343</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.8378</v>
+        <v>14.8482</v>
       </c>
       <c r="C7" t="n">
-        <v>24.7542</v>
+        <v>25.017</v>
       </c>
       <c r="D7" t="n">
-        <v>29.7809</v>
+        <v>30.2975</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.008</v>
+        <v>17.0512</v>
       </c>
       <c r="C8" t="n">
-        <v>28.5587</v>
+        <v>28.8047</v>
       </c>
       <c r="D8" t="n">
-        <v>34.2225</v>
+        <v>34.9135</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.5783</v>
+        <v>20.0108</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1538</v>
+        <v>33.6839</v>
       </c>
       <c r="D9" t="n">
-        <v>39.314</v>
+        <v>40.4408</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.8272</v>
+        <v>18.9151</v>
       </c>
       <c r="C10" t="n">
-        <v>30.7289</v>
+        <v>31.4844</v>
       </c>
       <c r="D10" t="n">
-        <v>36.7924</v>
+        <v>36.9124</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.5749</v>
+        <v>18.9007</v>
       </c>
       <c r="C11" t="n">
-        <v>30.6819</v>
+        <v>30.7865</v>
       </c>
       <c r="D11" t="n">
-        <v>35.9109</v>
+        <v>36.0267</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.7765</v>
+        <v>19.0337</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7151</v>
+        <v>31.0783</v>
       </c>
       <c r="D12" t="n">
-        <v>36.4933</v>
+        <v>36.8839</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.3795</v>
+        <v>19.2614</v>
       </c>
       <c r="C13" t="n">
-        <v>31.356</v>
+        <v>31.7186</v>
       </c>
       <c r="D13" t="n">
-        <v>36.813</v>
+        <v>37.7223</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.8486</v>
+        <v>18.5565</v>
       </c>
       <c r="C14" t="n">
-        <v>30.0944</v>
+        <v>30.599</v>
       </c>
       <c r="D14" t="n">
-        <v>35.8224</v>
+        <v>36.1782</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8057</v>
+        <v>19.2056</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3283</v>
+        <v>31.0692</v>
       </c>
       <c r="D15" t="n">
-        <v>36.6781</v>
+        <v>36.6534</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.9083</v>
+        <v>19.2351</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9884</v>
+        <v>31.3409</v>
       </c>
       <c r="D16" t="n">
-        <v>36.3367</v>
+        <v>37.1287</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.8919</v>
+        <v>19.015</v>
       </c>
       <c r="C17" t="n">
-        <v>30.7381</v>
+        <v>30.8918</v>
       </c>
       <c r="D17" t="n">
-        <v>36.3421</v>
+        <v>36.7663</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.15944</v>
+        <v>5.16937</v>
       </c>
       <c r="C2" t="n">
-        <v>6.19787</v>
+        <v>6.18909</v>
       </c>
       <c r="D2" t="n">
-        <v>6.65926</v>
+        <v>6.19501</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.34751</v>
+        <v>6.35832</v>
       </c>
       <c r="C3" t="n">
-        <v>9.15732</v>
+        <v>9.17211</v>
       </c>
       <c r="D3" t="n">
-        <v>10.3419</v>
+        <v>9.770910000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.80095</v>
+        <v>7.81795</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4915</v>
+        <v>12.4858</v>
       </c>
       <c r="D4" t="n">
-        <v>14.4838</v>
+        <v>13.7094</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.272539999999999</v>
+        <v>9.26459</v>
       </c>
       <c r="C5" t="n">
-        <v>15.672</v>
+        <v>15.5481</v>
       </c>
       <c r="D5" t="n">
-        <v>18.4714</v>
+        <v>17.5301</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.844</v>
+        <v>10.8599</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6377</v>
+        <v>18.5842</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2598</v>
+        <v>21.139</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5656</v>
+        <v>12.5401</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9554</v>
+        <v>21.9053</v>
       </c>
       <c r="D7" t="n">
-        <v>26.4246</v>
+        <v>24.8415</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8969</v>
+        <v>13.8475</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7095</v>
+        <v>24.6139</v>
       </c>
       <c r="D8" t="n">
-        <v>29.9287</v>
+        <v>28.4988</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.3475</v>
+        <v>16.3697</v>
       </c>
       <c r="C9" t="n">
-        <v>28.9491</v>
+        <v>28.8486</v>
       </c>
       <c r="D9" t="n">
-        <v>34.0372</v>
+        <v>32.3748</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.9351</v>
+        <v>13.9373</v>
       </c>
       <c r="C10" t="n">
-        <v>23.7217</v>
+        <v>23.4746</v>
       </c>
       <c r="D10" t="n">
-        <v>27.0819</v>
+        <v>25.859</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0187</v>
+        <v>14.077</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4634</v>
+        <v>23.6774</v>
       </c>
       <c r="D11" t="n">
-        <v>27.7571</v>
+        <v>26.4491</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6694</v>
+        <v>14.4857</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8293</v>
+        <v>24.6973</v>
       </c>
       <c r="D12" t="n">
-        <v>28.9478</v>
+        <v>27.9732</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0312</v>
+        <v>14.9588</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1872</v>
+        <v>25.1664</v>
       </c>
       <c r="D13" t="n">
-        <v>29.296</v>
+        <v>28.6857</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9036</v>
+        <v>14.937</v>
       </c>
       <c r="C14" t="n">
-        <v>25.394</v>
+        <v>25.1762</v>
       </c>
       <c r="D14" t="n">
-        <v>28.5758</v>
+        <v>27.8412</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0564</v>
+        <v>14.9565</v>
       </c>
       <c r="C15" t="n">
-        <v>25.4174</v>
+        <v>24.9829</v>
       </c>
       <c r="D15" t="n">
-        <v>28.6685</v>
+        <v>28.04</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.9258</v>
+        <v>15.4569</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9265</v>
+        <v>25.3049</v>
       </c>
       <c r="D16" t="n">
-        <v>29.6477</v>
+        <v>28.2167</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.6683</v>
+        <v>15.3754</v>
       </c>
       <c r="C17" t="n">
-        <v>26.6968</v>
+        <v>25.9814</v>
       </c>
       <c r="D17" t="n">
-        <v>29.2486</v>
+        <v>27.134</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.35615</v>
+        <v>8.38527</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2829</v>
+        <v>11.3073</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2585</v>
+        <v>9.68891</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.29016</v>
+        <v>8.28177</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4428</v>
+        <v>13.4082</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8646</v>
+        <v>13.387</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.1043</v>
+        <v>10.0436</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6018</v>
+        <v>17.6024</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3423</v>
+        <v>18.4586</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.8517</v>
+        <v>11.8511</v>
       </c>
       <c r="C5" t="n">
-        <v>21.5949</v>
+        <v>21.4303</v>
       </c>
       <c r="D5" t="n">
-        <v>25.5386</v>
+        <v>23.3245</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7688</v>
+        <v>13.8233</v>
       </c>
       <c r="C6" t="n">
-        <v>25.3685</v>
+        <v>25.3173</v>
       </c>
       <c r="D6" t="n">
-        <v>30.5466</v>
+        <v>27.713</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6284</v>
+        <v>15.8255</v>
       </c>
       <c r="C7" t="n">
-        <v>29.0001</v>
+        <v>29.2188</v>
       </c>
       <c r="D7" t="n">
-        <v>35.4302</v>
+        <v>32.4915</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.5665</v>
+        <v>17.5729</v>
       </c>
       <c r="C8" t="n">
-        <v>33.1253</v>
+        <v>33.0167</v>
       </c>
       <c r="D8" t="n">
-        <v>40.2514</v>
+        <v>36.9442</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6294</v>
+        <v>20.6256</v>
       </c>
       <c r="C9" t="n">
-        <v>38.3605</v>
+        <v>37.7644</v>
       </c>
       <c r="D9" t="n">
-        <v>45.9955</v>
+        <v>41.443</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7834</v>
+        <v>17.7378</v>
       </c>
       <c r="C10" t="n">
-        <v>33.4416</v>
+        <v>32.9097</v>
       </c>
       <c r="D10" t="n">
-        <v>38.0782</v>
+        <v>34.2794</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8121</v>
+        <v>17.7214</v>
       </c>
       <c r="C11" t="n">
-        <v>32.3542</v>
+        <v>32.8075</v>
       </c>
       <c r="D11" t="n">
-        <v>37.326</v>
+        <v>33.7777</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5777</v>
+        <v>18.3107</v>
       </c>
       <c r="C12" t="n">
-        <v>31.882</v>
+        <v>32.8986</v>
       </c>
       <c r="D12" t="n">
-        <v>38.6246</v>
+        <v>36.3474</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.9266</v>
+        <v>19.0524</v>
       </c>
       <c r="C13" t="n">
-        <v>34.145</v>
+        <v>34.2511</v>
       </c>
       <c r="D13" t="n">
-        <v>39.0967</v>
+        <v>35.5798</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.5172</v>
+        <v>18.8995</v>
       </c>
       <c r="C14" t="n">
-        <v>34.0284</v>
+        <v>33.1458</v>
       </c>
       <c r="D14" t="n">
-        <v>38.8815</v>
+        <v>35.6501</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8434</v>
+        <v>18.6693</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2938</v>
+        <v>33.3321</v>
       </c>
       <c r="D15" t="n">
-        <v>37.6352</v>
+        <v>34.3325</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2734</v>
+        <v>19.349</v>
       </c>
       <c r="C16" t="n">
-        <v>32.8805</v>
+        <v>32.4766</v>
       </c>
       <c r="D16" t="n">
-        <v>38.3777</v>
+        <v>35.3325</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.8008</v>
+        <v>19.3806</v>
       </c>
       <c r="C17" t="n">
-        <v>33.3126</v>
+        <v>33.6342</v>
       </c>
       <c r="D17" t="n">
-        <v>38.223</v>
+        <v>34.5709</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41317</v>
+        <v>6.41508</v>
       </c>
       <c r="C2" t="n">
-        <v>7.21315</v>
+        <v>7.21513</v>
       </c>
       <c r="D2" t="n">
-        <v>7.61931</v>
+        <v>6.8966</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.27293</v>
+        <v>7.24652</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1961</v>
+        <v>10.2023</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5399</v>
+        <v>10.602</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.061260000000001</v>
+        <v>8.886100000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9469</v>
+        <v>13.9167</v>
       </c>
       <c r="D4" t="n">
-        <v>16.2279</v>
+        <v>15.0382</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8717</v>
+        <v>10.5614</v>
       </c>
       <c r="C5" t="n">
-        <v>17.737</v>
+        <v>17.5559</v>
       </c>
       <c r="D5" t="n">
-        <v>20.7328</v>
+        <v>19.4058</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.8314</v>
+        <v>12.4101</v>
       </c>
       <c r="C6" t="n">
-        <v>21.3923</v>
+        <v>21.274</v>
       </c>
       <c r="D6" t="n">
-        <v>25.3561</v>
+        <v>23.4391</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.0106</v>
+        <v>14.3089</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3581</v>
+        <v>25.3162</v>
       </c>
       <c r="D7" t="n">
-        <v>29.8563</v>
+        <v>27.8977</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.9373</v>
+        <v>16.0052</v>
       </c>
       <c r="C8" t="n">
-        <v>28.7105</v>
+        <v>28.6327</v>
       </c>
       <c r="D8" t="n">
-        <v>34.0819</v>
+        <v>31.8489</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.6426</v>
+        <v>18.253</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1249</v>
+        <v>33.1307</v>
       </c>
       <c r="D9" t="n">
-        <v>38.8924</v>
+        <v>36.0386</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3718</v>
+        <v>16.445</v>
       </c>
       <c r="C10" t="n">
-        <v>27.973</v>
+        <v>27.5998</v>
       </c>
       <c r="D10" t="n">
-        <v>31.8203</v>
+        <v>29.5396</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.8245</v>
+        <v>15.9598</v>
       </c>
       <c r="C11" t="n">
-        <v>27.8787</v>
+        <v>27.9859</v>
       </c>
       <c r="D11" t="n">
-        <v>32.3346</v>
+        <v>29.8253</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5359</v>
+        <v>16.5073</v>
       </c>
       <c r="C12" t="n">
-        <v>29.3349</v>
+        <v>28.8942</v>
       </c>
       <c r="D12" t="n">
-        <v>32.9982</v>
+        <v>30.9661</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1957</v>
+        <v>17.002</v>
       </c>
       <c r="C13" t="n">
-        <v>29.164</v>
+        <v>29.1941</v>
       </c>
       <c r="D13" t="n">
-        <v>33.9753</v>
+        <v>31.6136</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.0102</v>
+        <v>16.6867</v>
       </c>
       <c r="C14" t="n">
-        <v>28.7857</v>
+        <v>28.2519</v>
       </c>
       <c r="D14" t="n">
-        <v>32.5211</v>
+        <v>29.2734</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.7438</v>
+        <v>17.0208</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9503</v>
+        <v>28.4161</v>
       </c>
       <c r="D15" t="n">
-        <v>31.7349</v>
+        <v>30.6562</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.494</v>
+        <v>17.2452</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9246</v>
+        <v>29.1673</v>
       </c>
       <c r="D16" t="n">
-        <v>31.6696</v>
+        <v>29.7959</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.3287</v>
+        <v>17.5101</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8503</v>
+        <v>29.7947</v>
       </c>
       <c r="D17" t="n">
-        <v>33.3253</v>
+        <v>30.2247</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.99994</v>
+        <v>2.99035</v>
       </c>
       <c r="C2" t="n">
-        <v>5.30376</v>
+        <v>5.31245</v>
       </c>
       <c r="D2" t="n">
-        <v>5.98504</v>
+        <v>5.63092</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.85718</v>
+        <v>4.82484</v>
       </c>
       <c r="C3" t="n">
-        <v>8.68399</v>
+        <v>8.64425</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1367</v>
+        <v>9.57465</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.58431</v>
+        <v>6.61643</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0401</v>
+        <v>12.0532</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3469</v>
+        <v>13.6684</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.122070000000001</v>
+        <v>8.14771</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2711</v>
+        <v>15.2524</v>
       </c>
       <c r="D5" t="n">
-        <v>18.4749</v>
+        <v>17.5474</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.70373</v>
+        <v>9.690250000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3664</v>
+        <v>18.309</v>
       </c>
       <c r="D6" t="n">
-        <v>22.5231</v>
+        <v>21.4129</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1621</v>
+        <v>11.1468</v>
       </c>
       <c r="C7" t="n">
-        <v>21.383</v>
+        <v>21.3108</v>
       </c>
       <c r="D7" t="n">
-        <v>26.4873</v>
+        <v>25.1077</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6573</v>
+        <v>12.5627</v>
       </c>
       <c r="C8" t="n">
-        <v>24.4476</v>
+        <v>24.348</v>
       </c>
       <c r="D8" t="n">
-        <v>30.4025</v>
+        <v>28.8803</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6859</v>
+        <v>14.7376</v>
       </c>
       <c r="C9" t="n">
-        <v>28.9545</v>
+        <v>29.0855</v>
       </c>
       <c r="D9" t="n">
-        <v>34.95</v>
+        <v>33.1887</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0168</v>
+        <v>14.0297</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4744</v>
+        <v>26.9603</v>
       </c>
       <c r="D10" t="n">
-        <v>32.1351</v>
+        <v>30.3293</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9349</v>
+        <v>13.8136</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9143</v>
+        <v>26.4301</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0248</v>
+        <v>30.0811</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0431</v>
+        <v>14.1008</v>
       </c>
       <c r="C12" t="n">
-        <v>26.607</v>
+        <v>26.7327</v>
       </c>
       <c r="D12" t="n">
-        <v>31.8307</v>
+        <v>30.6324</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3311</v>
+        <v>14.2947</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2191</v>
+        <v>26.9424</v>
       </c>
       <c r="D13" t="n">
-        <v>32.5006</v>
+        <v>31.4544</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8389</v>
+        <v>13.839</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0211</v>
+        <v>25.8089</v>
       </c>
       <c r="D14" t="n">
-        <v>31.3017</v>
+        <v>29.9213</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4747</v>
+        <v>14.4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.801</v>
+        <v>26.6436</v>
       </c>
       <c r="D15" t="n">
-        <v>32.1634</v>
+        <v>30.3207</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3377</v>
+        <v>14.339</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7674</v>
+        <v>26.761</v>
       </c>
       <c r="D16" t="n">
-        <v>31.566</v>
+        <v>30.1066</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1971</v>
+        <v>14.2295</v>
       </c>
       <c r="C17" t="n">
-        <v>26.7719</v>
+        <v>26.5857</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3909</v>
+        <v>30.0378</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98405</v>
+        <v>3.89597</v>
       </c>
       <c r="C2" t="n">
-        <v>8.63969</v>
+        <v>8.63217</v>
       </c>
       <c r="D2" t="n">
-        <v>9.61749</v>
+        <v>8.44384</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.95827</v>
+        <v>5.94917</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4692</v>
+        <v>12.4576</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6487</v>
+        <v>13.243</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.9821</v>
+        <v>8.10441</v>
       </c>
       <c r="C4" t="n">
-        <v>16.7808</v>
+        <v>16.7959</v>
       </c>
       <c r="D4" t="n">
-        <v>20.298</v>
+        <v>18.5144</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.896929999999999</v>
+        <v>9.86894</v>
       </c>
       <c r="C5" t="n">
-        <v>20.7933</v>
+        <v>20.8583</v>
       </c>
       <c r="D5" t="n">
-        <v>25.5582</v>
+        <v>23.4147</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7433</v>
+        <v>11.7365</v>
       </c>
       <c r="C6" t="n">
-        <v>24.7992</v>
+        <v>24.7355</v>
       </c>
       <c r="D6" t="n">
-        <v>30.9342</v>
+        <v>28.3981</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5057</v>
+        <v>13.5202</v>
       </c>
       <c r="C7" t="n">
-        <v>28.7697</v>
+        <v>28.6444</v>
       </c>
       <c r="D7" t="n">
-        <v>36.171</v>
+        <v>33.2224</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3081</v>
+        <v>15.3113</v>
       </c>
       <c r="C8" t="n">
-        <v>32.5363</v>
+        <v>32.6634</v>
       </c>
       <c r="D8" t="n">
-        <v>41.2145</v>
+        <v>37.833</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.8435</v>
+        <v>17.8801</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0471</v>
+        <v>39.0005</v>
       </c>
       <c r="D9" t="n">
-        <v>47.4131</v>
+        <v>43.5775</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0469</v>
+        <v>17.0426</v>
       </c>
       <c r="C10" t="n">
-        <v>35.9181</v>
+        <v>35.7656</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0355</v>
+        <v>39.888</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.8762</v>
+        <v>17.0047</v>
       </c>
       <c r="C11" t="n">
-        <v>35.2431</v>
+        <v>35.0378</v>
       </c>
       <c r="D11" t="n">
-        <v>41.8334</v>
+        <v>39.8585</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.9405</v>
+        <v>17.1305</v>
       </c>
       <c r="C12" t="n">
-        <v>35.5625</v>
+        <v>35.6542</v>
       </c>
       <c r="D12" t="n">
-        <v>42.3857</v>
+        <v>39.682</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.284</v>
+        <v>17.3144</v>
       </c>
       <c r="C13" t="n">
-        <v>35.9843</v>
+        <v>35.702</v>
       </c>
       <c r="D13" t="n">
-        <v>43.1473</v>
+        <v>40.5501</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7156</v>
+        <v>16.8019</v>
       </c>
       <c r="C14" t="n">
-        <v>33.9544</v>
+        <v>35.0465</v>
       </c>
       <c r="D14" t="n">
-        <v>41.2973</v>
+        <v>39.2348</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.3916</v>
+        <v>17.4131</v>
       </c>
       <c r="C15" t="n">
-        <v>34.9175</v>
+        <v>34.4965</v>
       </c>
       <c r="D15" t="n">
-        <v>41.9252</v>
+        <v>39.2391</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.305</v>
+        <v>17.4165</v>
       </c>
       <c r="C16" t="n">
-        <v>34.3474</v>
+        <v>34.4715</v>
       </c>
       <c r="D16" t="n">
-        <v>40.7895</v>
+        <v>38.2665</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5301</v>
+        <v>17.3027</v>
       </c>
       <c r="C17" t="n">
-        <v>34.0317</v>
+        <v>34.1763</v>
       </c>
       <c r="D17" t="n">
-        <v>40.1318</v>
+        <v>38.0154</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.20125</v>
+        <v>5.28632</v>
       </c>
       <c r="C2" t="n">
-        <v>6.73565</v>
+        <v>6.75192</v>
       </c>
       <c r="D2" t="n">
-        <v>7.4084</v>
+        <v>6.71628</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.79603</v>
+        <v>6.67772</v>
       </c>
       <c r="C3" t="n">
-        <v>9.99006</v>
+        <v>9.9527</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5081</v>
+        <v>10.6423</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.81066</v>
+        <v>8.66661</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7612</v>
+        <v>13.7886</v>
       </c>
       <c r="D4" t="n">
-        <v>16.3264</v>
+        <v>15.1791</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8148</v>
+        <v>10.4906</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5187</v>
+        <v>17.5653</v>
       </c>
       <c r="D5" t="n">
-        <v>21.064</v>
+        <v>19.6473</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.8288</v>
+        <v>12.3547</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2969</v>
+        <v>21.3041</v>
       </c>
       <c r="D6" t="n">
-        <v>25.6343</v>
+        <v>23.983</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.8482</v>
+        <v>14.1581</v>
       </c>
       <c r="C7" t="n">
-        <v>25.017</v>
+        <v>24.9606</v>
       </c>
       <c r="D7" t="n">
-        <v>30.2975</v>
+        <v>28.2864</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.0512</v>
+        <v>16.0997</v>
       </c>
       <c r="C8" t="n">
-        <v>28.8047</v>
+        <v>28.868</v>
       </c>
       <c r="D8" t="n">
-        <v>34.9135</v>
+        <v>32.631</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0108</v>
+        <v>18.5588</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6839</v>
+        <v>33.7121</v>
       </c>
       <c r="D9" t="n">
-        <v>40.4408</v>
+        <v>37.5963</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.9151</v>
+        <v>17.9114</v>
       </c>
       <c r="C10" t="n">
-        <v>31.4844</v>
+        <v>30.688</v>
       </c>
       <c r="D10" t="n">
-        <v>36.9124</v>
+        <v>33.7947</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.9007</v>
+        <v>17.6931</v>
       </c>
       <c r="C11" t="n">
-        <v>30.7865</v>
+        <v>30.9461</v>
       </c>
       <c r="D11" t="n">
-        <v>36.0267</v>
+        <v>33.6376</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0337</v>
+        <v>17.78</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0783</v>
+        <v>31.3694</v>
       </c>
       <c r="D12" t="n">
-        <v>36.8839</v>
+        <v>34.6302</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.2614</v>
+        <v>18.0201</v>
       </c>
       <c r="C13" t="n">
-        <v>31.7186</v>
+        <v>31.9091</v>
       </c>
       <c r="D13" t="n">
-        <v>37.7223</v>
+        <v>34.8999</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.5565</v>
+        <v>17.4802</v>
       </c>
       <c r="C14" t="n">
-        <v>30.599</v>
+        <v>30.5028</v>
       </c>
       <c r="D14" t="n">
-        <v>36.1782</v>
+        <v>34.0801</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.2056</v>
+        <v>18.1128</v>
       </c>
       <c r="C15" t="n">
-        <v>31.0692</v>
+        <v>31.5113</v>
       </c>
       <c r="D15" t="n">
-        <v>36.6534</v>
+        <v>34.5013</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2351</v>
+        <v>18.064</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3409</v>
+        <v>31.318</v>
       </c>
       <c r="D16" t="n">
-        <v>37.1287</v>
+        <v>34.7461</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.015</v>
+        <v>17.5534</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8918</v>
+        <v>31.2317</v>
       </c>
       <c r="D17" t="n">
-        <v>36.7663</v>
+        <v>34.9012</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.16937</v>
+        <v>5.40973</v>
       </c>
       <c r="C2" t="n">
-        <v>6.18909</v>
+        <v>6.17181</v>
       </c>
       <c r="D2" t="n">
-        <v>6.19501</v>
+        <v>6.51404</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.35832</v>
+        <v>6.49633</v>
       </c>
       <c r="C3" t="n">
-        <v>9.17211</v>
+        <v>9.1236</v>
       </c>
       <c r="D3" t="n">
-        <v>9.770910000000001</v>
+        <v>9.967219999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.81795</v>
+        <v>7.92407</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4858</v>
+        <v>12.4471</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7094</v>
+        <v>13.8623</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.26459</v>
+        <v>9.421580000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5481</v>
+        <v>15.5805</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5301</v>
+        <v>17.5229</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8599</v>
+        <v>11.0175</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5842</v>
+        <v>18.6009</v>
       </c>
       <c r="D6" t="n">
-        <v>21.139</v>
+        <v>21.1947</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5401</v>
+        <v>12.7605</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9053</v>
+        <v>21.834</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8415</v>
+        <v>24.8525</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8475</v>
+        <v>14.0996</v>
       </c>
       <c r="C8" t="n">
-        <v>24.6139</v>
+        <v>24.6065</v>
       </c>
       <c r="D8" t="n">
-        <v>28.4988</v>
+        <v>28.3011</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.3697</v>
+        <v>16.6073</v>
       </c>
       <c r="C9" t="n">
-        <v>28.8486</v>
+        <v>28.539</v>
       </c>
       <c r="D9" t="n">
-        <v>32.3748</v>
+        <v>32.0131</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.9373</v>
+        <v>14.395</v>
       </c>
       <c r="C10" t="n">
-        <v>23.4746</v>
+        <v>23.8469</v>
       </c>
       <c r="D10" t="n">
-        <v>25.859</v>
+        <v>26.3335</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.077</v>
+        <v>14.142</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6774</v>
+        <v>24.1916</v>
       </c>
       <c r="D11" t="n">
-        <v>26.4491</v>
+        <v>26.8795</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4857</v>
+        <v>14.6959</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6973</v>
+        <v>25.6328</v>
       </c>
       <c r="D12" t="n">
-        <v>27.9732</v>
+        <v>27.2563</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9588</v>
+        <v>15.0834</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1664</v>
+        <v>24.6833</v>
       </c>
       <c r="D13" t="n">
-        <v>28.6857</v>
+        <v>27.9132</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.937</v>
+        <v>15.1703</v>
       </c>
       <c r="C14" t="n">
-        <v>25.1762</v>
+        <v>25.3212</v>
       </c>
       <c r="D14" t="n">
-        <v>27.8412</v>
+        <v>27.4995</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9565</v>
+        <v>15.3721</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9829</v>
+        <v>24.7695</v>
       </c>
       <c r="D15" t="n">
-        <v>28.04</v>
+        <v>27.4806</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4569</v>
+        <v>15.2641</v>
       </c>
       <c r="C16" t="n">
-        <v>25.3049</v>
+        <v>24.9468</v>
       </c>
       <c r="D16" t="n">
-        <v>28.2167</v>
+        <v>26.8004</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3754</v>
+        <v>15.4485</v>
       </c>
       <c r="C17" t="n">
-        <v>25.9814</v>
+        <v>25.6693</v>
       </c>
       <c r="D17" t="n">
-        <v>27.134</v>
+        <v>27.0767</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.38527</v>
+        <v>9.15677</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3073</v>
+        <v>11.2858</v>
       </c>
       <c r="D2" t="n">
-        <v>9.68891</v>
+        <v>12.2597</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.28177</v>
+        <v>8.87738</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4082</v>
+        <v>13.6194</v>
       </c>
       <c r="D3" t="n">
-        <v>13.387</v>
+        <v>15.4416</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0436</v>
+        <v>10.4232</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6024</v>
+        <v>17.6445</v>
       </c>
       <c r="D4" t="n">
-        <v>18.4586</v>
+        <v>20.5332</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.8511</v>
+        <v>12.2126</v>
       </c>
       <c r="C5" t="n">
-        <v>21.4303</v>
+        <v>21.4998</v>
       </c>
       <c r="D5" t="n">
-        <v>23.3245</v>
+        <v>25.4063</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8233</v>
+        <v>14.1579</v>
       </c>
       <c r="C6" t="n">
-        <v>25.3173</v>
+        <v>25.3637</v>
       </c>
       <c r="D6" t="n">
-        <v>27.713</v>
+        <v>30.1239</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8255</v>
+        <v>16.3693</v>
       </c>
       <c r="C7" t="n">
-        <v>29.2188</v>
+        <v>29.8102</v>
       </c>
       <c r="D7" t="n">
-        <v>32.4915</v>
+        <v>35.5195</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.5729</v>
+        <v>18.0418</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0167</v>
+        <v>33.0378</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9442</v>
+        <v>39.6826</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6256</v>
+        <v>21.1927</v>
       </c>
       <c r="C9" t="n">
-        <v>37.7644</v>
+        <v>38.285</v>
       </c>
       <c r="D9" t="n">
-        <v>41.443</v>
+        <v>45.593</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7378</v>
+        <v>18.7989</v>
       </c>
       <c r="C10" t="n">
-        <v>32.9097</v>
+        <v>33.8502</v>
       </c>
       <c r="D10" t="n">
-        <v>34.2794</v>
+        <v>38.3819</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7214</v>
+        <v>18.2325</v>
       </c>
       <c r="C11" t="n">
-        <v>32.8075</v>
+        <v>33.6584</v>
       </c>
       <c r="D11" t="n">
-        <v>33.7777</v>
+        <v>36.8931</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.3107</v>
+        <v>18.9498</v>
       </c>
       <c r="C12" t="n">
-        <v>32.8986</v>
+        <v>32.8241</v>
       </c>
       <c r="D12" t="n">
-        <v>36.3474</v>
+        <v>37.3443</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0524</v>
+        <v>19.2294</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2511</v>
+        <v>34.0999</v>
       </c>
       <c r="D13" t="n">
-        <v>35.5798</v>
+        <v>38.1462</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.8995</v>
+        <v>19.1654</v>
       </c>
       <c r="C14" t="n">
-        <v>33.1458</v>
+        <v>33.6259</v>
       </c>
       <c r="D14" t="n">
-        <v>35.6501</v>
+        <v>38.4518</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6693</v>
+        <v>19.3164</v>
       </c>
       <c r="C15" t="n">
-        <v>33.3321</v>
+        <v>33.7409</v>
       </c>
       <c r="D15" t="n">
-        <v>34.3325</v>
+        <v>37.6326</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.349</v>
+        <v>19.747</v>
       </c>
       <c r="C16" t="n">
-        <v>32.4766</v>
+        <v>34.2733</v>
       </c>
       <c r="D16" t="n">
-        <v>35.3325</v>
+        <v>36.6792</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3806</v>
+        <v>20.1358</v>
       </c>
       <c r="C17" t="n">
-        <v>33.6342</v>
+        <v>33.2125</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5709</v>
+        <v>37.6632</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41508</v>
+        <v>6.81386</v>
       </c>
       <c r="C2" t="n">
-        <v>7.21513</v>
+        <v>7.20425</v>
       </c>
       <c r="D2" t="n">
-        <v>6.8966</v>
+        <v>7.70695</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.24652</v>
+        <v>7.47193</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2023</v>
+        <v>10.1936</v>
       </c>
       <c r="D3" t="n">
-        <v>10.602</v>
+        <v>11.254</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.886100000000001</v>
+        <v>9.27627</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9167</v>
+        <v>13.9282</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0382</v>
+        <v>15.6859</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5614</v>
+        <v>11.1352</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5559</v>
+        <v>17.6767</v>
       </c>
       <c r="D5" t="n">
-        <v>19.4058</v>
+        <v>20.0502</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4101</v>
+        <v>13.1221</v>
       </c>
       <c r="C6" t="n">
-        <v>21.274</v>
+        <v>21.4139</v>
       </c>
       <c r="D6" t="n">
-        <v>23.4391</v>
+        <v>24.359</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3089</v>
+        <v>15.3028</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3162</v>
+        <v>25.2898</v>
       </c>
       <c r="D7" t="n">
-        <v>27.8977</v>
+        <v>28.8277</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0052</v>
+        <v>17.2865</v>
       </c>
       <c r="C8" t="n">
-        <v>28.6327</v>
+        <v>28.7166</v>
       </c>
       <c r="D8" t="n">
-        <v>31.8489</v>
+        <v>32.6519</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.253</v>
+        <v>20.0674</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1307</v>
+        <v>33.3518</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0386</v>
+        <v>37.5431</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.445</v>
+        <v>17.5451</v>
       </c>
       <c r="C10" t="n">
-        <v>27.5998</v>
+        <v>27.4792</v>
       </c>
       <c r="D10" t="n">
-        <v>29.5396</v>
+        <v>31.0994</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9598</v>
+        <v>17.1743</v>
       </c>
       <c r="C11" t="n">
-        <v>27.9859</v>
+        <v>27.786</v>
       </c>
       <c r="D11" t="n">
-        <v>29.8253</v>
+        <v>31.6376</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.5073</v>
+        <v>18.0231</v>
       </c>
       <c r="C12" t="n">
-        <v>28.8942</v>
+        <v>29.1748</v>
       </c>
       <c r="D12" t="n">
-        <v>30.9661</v>
+        <v>32.2354</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.002</v>
+        <v>18.7141</v>
       </c>
       <c r="C13" t="n">
-        <v>29.1941</v>
+        <v>29.7177</v>
       </c>
       <c r="D13" t="n">
-        <v>31.6136</v>
+        <v>32.7849</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.6867</v>
+        <v>18.4335</v>
       </c>
       <c r="C14" t="n">
-        <v>28.2519</v>
+        <v>28.2677</v>
       </c>
       <c r="D14" t="n">
-        <v>29.2734</v>
+        <v>31.1032</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.0208</v>
+        <v>17.9243</v>
       </c>
       <c r="C15" t="n">
-        <v>28.4161</v>
+        <v>27.9966</v>
       </c>
       <c r="D15" t="n">
-        <v>30.6562</v>
+        <v>31.0098</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.2452</v>
+        <v>18.5309</v>
       </c>
       <c r="C16" t="n">
-        <v>29.1673</v>
+        <v>28.511</v>
       </c>
       <c r="D16" t="n">
-        <v>29.7959</v>
+        <v>30.2799</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5101</v>
+        <v>19.051</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7947</v>
+        <v>28.6462</v>
       </c>
       <c r="D17" t="n">
-        <v>30.2247</v>
+        <v>31.1245</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.99035</v>
+        <v>3.07284</v>
       </c>
       <c r="C2" t="n">
-        <v>5.31245</v>
+        <v>5.30606</v>
       </c>
       <c r="D2" t="n">
-        <v>5.63092</v>
+        <v>5.80836</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.82484</v>
+        <v>4.97814</v>
       </c>
       <c r="C3" t="n">
-        <v>8.64425</v>
+        <v>8.688789999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>9.57465</v>
+        <v>9.75859</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.61643</v>
+        <v>6.63919</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0532</v>
+        <v>12.0416</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6684</v>
+        <v>13.6584</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.14771</v>
+        <v>8.23053</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2524</v>
+        <v>15.2093</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5474</v>
+        <v>17.4465</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.690250000000001</v>
+        <v>9.814679999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>18.309</v>
+        <v>18.3664</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4129</v>
+        <v>21.213</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1468</v>
+        <v>11.2951</v>
       </c>
       <c r="C7" t="n">
-        <v>21.3108</v>
+        <v>21.375</v>
       </c>
       <c r="D7" t="n">
-        <v>25.1077</v>
+        <v>24.8922</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5627</v>
+        <v>12.7906</v>
       </c>
       <c r="C8" t="n">
-        <v>24.348</v>
+        <v>24.4128</v>
       </c>
       <c r="D8" t="n">
-        <v>28.8803</v>
+        <v>28.5656</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7376</v>
+        <v>15.0008</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0855</v>
+        <v>29.0298</v>
       </c>
       <c r="D9" t="n">
-        <v>33.1887</v>
+        <v>33.0798</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0297</v>
+        <v>14.1482</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9603</v>
+        <v>26.9381</v>
       </c>
       <c r="D10" t="n">
-        <v>30.3293</v>
+        <v>30.3928</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8136</v>
+        <v>14.3613</v>
       </c>
       <c r="C11" t="n">
-        <v>26.4301</v>
+        <v>26.2414</v>
       </c>
       <c r="D11" t="n">
-        <v>30.0811</v>
+        <v>30.137</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1008</v>
+        <v>14.2397</v>
       </c>
       <c r="C12" t="n">
-        <v>26.7327</v>
+        <v>26.5966</v>
       </c>
       <c r="D12" t="n">
-        <v>30.6324</v>
+        <v>30.4782</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2947</v>
+        <v>14.4735</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9424</v>
+        <v>27.0596</v>
       </c>
       <c r="D13" t="n">
-        <v>31.4544</v>
+        <v>30.7332</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.839</v>
+        <v>14.1036</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8089</v>
+        <v>26.1326</v>
       </c>
       <c r="D14" t="n">
-        <v>29.9213</v>
+        <v>29.1466</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4</v>
+        <v>14.5598</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6436</v>
+        <v>26.5205</v>
       </c>
       <c r="D15" t="n">
-        <v>30.3207</v>
+        <v>29.5816</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.339</v>
+        <v>14.5838</v>
       </c>
       <c r="C16" t="n">
-        <v>26.761</v>
+        <v>26.7795</v>
       </c>
       <c r="D16" t="n">
-        <v>30.1066</v>
+        <v>30.0857</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2295</v>
+        <v>14.5882</v>
       </c>
       <c r="C17" t="n">
-        <v>26.5857</v>
+        <v>26.725</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0378</v>
+        <v>29.8902</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.89597</v>
+        <v>4.07591</v>
       </c>
       <c r="C2" t="n">
-        <v>8.63217</v>
+        <v>8.62177</v>
       </c>
       <c r="D2" t="n">
-        <v>8.44384</v>
+        <v>10.0833</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.94917</v>
+        <v>6.21953</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4576</v>
+        <v>12.57</v>
       </c>
       <c r="D3" t="n">
-        <v>13.243</v>
+        <v>14.9006</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.10441</v>
+        <v>8.23903</v>
       </c>
       <c r="C4" t="n">
-        <v>16.7959</v>
+        <v>16.742</v>
       </c>
       <c r="D4" t="n">
-        <v>18.5144</v>
+        <v>20.1889</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.86894</v>
+        <v>10.2201</v>
       </c>
       <c r="C5" t="n">
-        <v>20.8583</v>
+        <v>20.8035</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4147</v>
+        <v>25.1042</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7365</v>
+        <v>12.1252</v>
       </c>
       <c r="C6" t="n">
-        <v>24.7355</v>
+        <v>24.8609</v>
       </c>
       <c r="D6" t="n">
-        <v>28.3981</v>
+        <v>30.2307</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5202</v>
+        <v>13.979</v>
       </c>
       <c r="C7" t="n">
-        <v>28.6444</v>
+        <v>28.7387</v>
       </c>
       <c r="D7" t="n">
-        <v>33.2224</v>
+        <v>35.2723</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3113</v>
+        <v>15.7391</v>
       </c>
       <c r="C8" t="n">
-        <v>32.6634</v>
+        <v>32.5071</v>
       </c>
       <c r="D8" t="n">
-        <v>37.833</v>
+        <v>40.2028</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.8801</v>
+        <v>18.3782</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0005</v>
+        <v>38.8309</v>
       </c>
       <c r="D9" t="n">
-        <v>43.5775</v>
+        <v>46.7355</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0426</v>
+        <v>17.4537</v>
       </c>
       <c r="C10" t="n">
-        <v>35.7656</v>
+        <v>35.3796</v>
       </c>
       <c r="D10" t="n">
-        <v>39.888</v>
+        <v>42.582</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0047</v>
+        <v>17.3666</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0378</v>
+        <v>35.6444</v>
       </c>
       <c r="D11" t="n">
-        <v>39.8585</v>
+        <v>42.4182</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.1305</v>
+        <v>17.3871</v>
       </c>
       <c r="C12" t="n">
-        <v>35.6542</v>
+        <v>34.9967</v>
       </c>
       <c r="D12" t="n">
-        <v>39.682</v>
+        <v>41.7635</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.3144</v>
+        <v>17.7288</v>
       </c>
       <c r="C13" t="n">
-        <v>35.702</v>
+        <v>35.8692</v>
       </c>
       <c r="D13" t="n">
-        <v>40.5501</v>
+        <v>42.7965</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.8019</v>
+        <v>17.1599</v>
       </c>
       <c r="C14" t="n">
-        <v>35.0465</v>
+        <v>34.908</v>
       </c>
       <c r="D14" t="n">
-        <v>39.2348</v>
+        <v>40.0562</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4131</v>
+        <v>17.6953</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4965</v>
+        <v>34.7657</v>
       </c>
       <c r="D15" t="n">
-        <v>39.2391</v>
+        <v>40.0234</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.4165</v>
+        <v>17.7103</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4715</v>
+        <v>34.5937</v>
       </c>
       <c r="D16" t="n">
-        <v>38.2665</v>
+        <v>40.6243</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.3027</v>
+        <v>17.5552</v>
       </c>
       <c r="C17" t="n">
-        <v>34.1763</v>
+        <v>33.8385</v>
       </c>
       <c r="D17" t="n">
-        <v>38.0154</v>
+        <v>39.0779</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.28632</v>
+        <v>5.51527</v>
       </c>
       <c r="C2" t="n">
-        <v>6.75192</v>
+        <v>6.73976</v>
       </c>
       <c r="D2" t="n">
-        <v>6.71628</v>
+        <v>7.40993</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.67772</v>
+        <v>6.93605</v>
       </c>
       <c r="C3" t="n">
-        <v>9.9527</v>
+        <v>9.94258</v>
       </c>
       <c r="D3" t="n">
-        <v>10.6423</v>
+        <v>11.166</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.66661</v>
+        <v>9.06456</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7886</v>
+        <v>13.7476</v>
       </c>
       <c r="D4" t="n">
-        <v>15.1791</v>
+        <v>15.6972</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4906</v>
+        <v>11.079</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5653</v>
+        <v>17.5117</v>
       </c>
       <c r="D5" t="n">
-        <v>19.6473</v>
+        <v>20.0225</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3547</v>
+        <v>13.1157</v>
       </c>
       <c r="C6" t="n">
-        <v>21.3041</v>
+        <v>21.2852</v>
       </c>
       <c r="D6" t="n">
-        <v>23.983</v>
+        <v>24.4161</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1581</v>
+        <v>15.1734</v>
       </c>
       <c r="C7" t="n">
-        <v>24.9606</v>
+        <v>24.9662</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2864</v>
+        <v>28.7471</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0997</v>
+        <v>17.4365</v>
       </c>
       <c r="C8" t="n">
-        <v>28.868</v>
+        <v>28.8303</v>
       </c>
       <c r="D8" t="n">
-        <v>32.631</v>
+        <v>33.2981</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5588</v>
+        <v>20.5344</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7121</v>
+        <v>33.6648</v>
       </c>
       <c r="D9" t="n">
-        <v>37.5963</v>
+        <v>38.661</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.9114</v>
+        <v>19.3611</v>
       </c>
       <c r="C10" t="n">
-        <v>30.688</v>
+        <v>31.0495</v>
       </c>
       <c r="D10" t="n">
-        <v>33.7947</v>
+        <v>35.3494</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6931</v>
+        <v>19.2873</v>
       </c>
       <c r="C11" t="n">
-        <v>30.9461</v>
+        <v>31.2968</v>
       </c>
       <c r="D11" t="n">
-        <v>33.6376</v>
+        <v>35.1924</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.78</v>
+        <v>19.4658</v>
       </c>
       <c r="C12" t="n">
-        <v>31.3694</v>
+        <v>30.7458</v>
       </c>
       <c r="D12" t="n">
-        <v>34.6302</v>
+        <v>35.0103</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.0201</v>
+        <v>19.7987</v>
       </c>
       <c r="C13" t="n">
-        <v>31.9091</v>
+        <v>31.7591</v>
       </c>
       <c r="D13" t="n">
-        <v>34.8999</v>
+        <v>35.9005</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4802</v>
+        <v>18.9852</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5028</v>
+        <v>30.3303</v>
       </c>
       <c r="D14" t="n">
-        <v>34.0801</v>
+        <v>34.6538</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1128</v>
+        <v>19.7525</v>
       </c>
       <c r="C15" t="n">
-        <v>31.5113</v>
+        <v>31.3845</v>
       </c>
       <c r="D15" t="n">
-        <v>34.5013</v>
+        <v>35.7802</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.064</v>
+        <v>19.7058</v>
       </c>
       <c r="C16" t="n">
-        <v>31.318</v>
+        <v>31.2938</v>
       </c>
       <c r="D16" t="n">
-        <v>34.7461</v>
+        <v>35.3636</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5534</v>
+        <v>19.4546</v>
       </c>
       <c r="C17" t="n">
-        <v>31.2317</v>
+        <v>30.8024</v>
       </c>
       <c r="D17" t="n">
-        <v>34.9012</v>
+        <v>34.9425</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.40973</v>
+        <v>5.31235</v>
       </c>
       <c r="C2" t="n">
-        <v>6.17181</v>
+        <v>6.06312</v>
       </c>
       <c r="D2" t="n">
-        <v>6.51404</v>
+        <v>6.60561</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49633</v>
+        <v>6.4446</v>
       </c>
       <c r="C3" t="n">
-        <v>9.1236</v>
+        <v>9.035399999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>9.967219999999999</v>
+        <v>10.2165</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.92407</v>
+        <v>7.87556</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4471</v>
+        <v>12.3022</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8623</v>
+        <v>14.2786</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.421580000000001</v>
+        <v>9.40044</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5805</v>
+        <v>15.4222</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5229</v>
+        <v>18.2047</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0175</v>
+        <v>10.9544</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6009</v>
+        <v>18.4083</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1947</v>
+        <v>21.942</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7605</v>
+        <v>12.721</v>
       </c>
       <c r="C7" t="n">
-        <v>21.834</v>
+        <v>21.7869</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8525</v>
+        <v>25.9534</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0996</v>
+        <v>14.0156</v>
       </c>
       <c r="C8" t="n">
-        <v>24.6065</v>
+        <v>24.353</v>
       </c>
       <c r="D8" t="n">
-        <v>28.3011</v>
+        <v>29.5311</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.6073</v>
+        <v>16.5647</v>
       </c>
       <c r="C9" t="n">
-        <v>28.539</v>
+        <v>28.3485</v>
       </c>
       <c r="D9" t="n">
-        <v>32.0131</v>
+        <v>33.765</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.395</v>
+        <v>14.1982</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8469</v>
+        <v>23.0708</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3335</v>
+        <v>26.9438</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.142</v>
+        <v>14.2404</v>
       </c>
       <c r="C11" t="n">
-        <v>24.1916</v>
+        <v>24.0836</v>
       </c>
       <c r="D11" t="n">
-        <v>26.8795</v>
+        <v>27.7008</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6959</v>
+        <v>14.7278</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6328</v>
+        <v>25.077</v>
       </c>
       <c r="D12" t="n">
-        <v>27.2563</v>
+        <v>28.9217</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0834</v>
+        <v>15.1074</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6833</v>
+        <v>25.7165</v>
       </c>
       <c r="D13" t="n">
-        <v>27.9132</v>
+        <v>29.7528</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1703</v>
+        <v>15.0194</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3212</v>
+        <v>24.6667</v>
       </c>
       <c r="D14" t="n">
-        <v>27.4995</v>
+        <v>29.4076</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.3721</v>
+        <v>15.137</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7695</v>
+        <v>25.2407</v>
       </c>
       <c r="D15" t="n">
-        <v>27.4806</v>
+        <v>28.8144</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.2641</v>
+        <v>15.3123</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9468</v>
+        <v>24.9384</v>
       </c>
       <c r="D16" t="n">
-        <v>26.8004</v>
+        <v>29.1699</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4485</v>
+        <v>15.2512</v>
       </c>
       <c r="C17" t="n">
-        <v>25.6693</v>
+        <v>25.3395</v>
       </c>
       <c r="D17" t="n">
-        <v>27.0767</v>
+        <v>28.1992</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.15677</v>
+        <v>9.1563</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2858</v>
+        <v>11.2916</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2597</v>
+        <v>11.3118</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.87738</v>
+        <v>8.62007</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6194</v>
+        <v>13.4437</v>
       </c>
       <c r="D3" t="n">
-        <v>15.4416</v>
+        <v>14.8142</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.4232</v>
+        <v>10.3841</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6445</v>
+        <v>17.6651</v>
       </c>
       <c r="D4" t="n">
-        <v>20.5332</v>
+        <v>20.2287</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2126</v>
+        <v>12.1593</v>
       </c>
       <c r="C5" t="n">
-        <v>21.4998</v>
+        <v>21.5667</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4063</v>
+        <v>25.3518</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.1579</v>
+        <v>14.2417</v>
       </c>
       <c r="C6" t="n">
-        <v>25.3637</v>
+        <v>25.4769</v>
       </c>
       <c r="D6" t="n">
-        <v>30.1239</v>
+        <v>30.5678</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3693</v>
+        <v>16.2867</v>
       </c>
       <c r="C7" t="n">
-        <v>29.8102</v>
+        <v>29.8805</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5195</v>
+        <v>35.4307</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0418</v>
+        <v>18.003</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0378</v>
+        <v>33.0651</v>
       </c>
       <c r="D8" t="n">
-        <v>39.6826</v>
+        <v>39.862</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1927</v>
+        <v>21.1475</v>
       </c>
       <c r="C9" t="n">
-        <v>38.285</v>
+        <v>38.5953</v>
       </c>
       <c r="D9" t="n">
-        <v>45.593</v>
+        <v>45.6358</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.7989</v>
+        <v>18.3651</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8502</v>
+        <v>33.7809</v>
       </c>
       <c r="D10" t="n">
-        <v>38.3819</v>
+        <v>37.6893</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.2325</v>
+        <v>18.0733</v>
       </c>
       <c r="C11" t="n">
-        <v>33.6584</v>
+        <v>32.596</v>
       </c>
       <c r="D11" t="n">
-        <v>36.8931</v>
+        <v>37.4415</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.9498</v>
+        <v>18.5864</v>
       </c>
       <c r="C12" t="n">
-        <v>32.8241</v>
+        <v>32.5581</v>
       </c>
       <c r="D12" t="n">
-        <v>37.3443</v>
+        <v>38.3143</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.2294</v>
+        <v>19.3075</v>
       </c>
       <c r="C13" t="n">
-        <v>34.0999</v>
+        <v>34.1215</v>
       </c>
       <c r="D13" t="n">
-        <v>38.1462</v>
+        <v>39.4896</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1654</v>
+        <v>19.2687</v>
       </c>
       <c r="C14" t="n">
-        <v>33.6259</v>
+        <v>32.6611</v>
       </c>
       <c r="D14" t="n">
-        <v>38.4518</v>
+        <v>38.9273</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3164</v>
+        <v>18.9145</v>
       </c>
       <c r="C15" t="n">
-        <v>33.7409</v>
+        <v>32.2081</v>
       </c>
       <c r="D15" t="n">
-        <v>37.6326</v>
+        <v>37.304</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.747</v>
+        <v>19.5228</v>
       </c>
       <c r="C16" t="n">
-        <v>34.2733</v>
+        <v>33.5539</v>
       </c>
       <c r="D16" t="n">
-        <v>36.6792</v>
+        <v>37.2796</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.1358</v>
+        <v>19.4012</v>
       </c>
       <c r="C17" t="n">
-        <v>33.2125</v>
+        <v>34.2171</v>
       </c>
       <c r="D17" t="n">
-        <v>37.6632</v>
+        <v>38.0899</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.81386</v>
+        <v>6.84853</v>
       </c>
       <c r="C2" t="n">
-        <v>7.20425</v>
+        <v>7.21712</v>
       </c>
       <c r="D2" t="n">
-        <v>7.70695</v>
+        <v>7.56559</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.47193</v>
+        <v>7.35469</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1936</v>
+        <v>10.0872</v>
       </c>
       <c r="D3" t="n">
-        <v>11.254</v>
+        <v>11.3218</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.27627</v>
+        <v>9.28637</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9282</v>
+        <v>13.9298</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6859</v>
+        <v>16.0085</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1352</v>
+        <v>11.1308</v>
       </c>
       <c r="C5" t="n">
-        <v>17.6767</v>
+        <v>17.6698</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0502</v>
+        <v>20.5299</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1221</v>
+        <v>13.2469</v>
       </c>
       <c r="C6" t="n">
-        <v>21.4139</v>
+        <v>21.5074</v>
       </c>
       <c r="D6" t="n">
-        <v>24.359</v>
+        <v>25.0733</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.3028</v>
+        <v>15.3329</v>
       </c>
       <c r="C7" t="n">
-        <v>25.2898</v>
+        <v>25.3323</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8277</v>
+        <v>29.5472</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.2865</v>
+        <v>17.341</v>
       </c>
       <c r="C8" t="n">
-        <v>28.7166</v>
+        <v>28.7575</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6519</v>
+        <v>33.5667</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0674</v>
+        <v>20.1067</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3518</v>
+        <v>33.3473</v>
       </c>
       <c r="D9" t="n">
-        <v>37.5431</v>
+        <v>38.0944</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5451</v>
+        <v>17.7719</v>
       </c>
       <c r="C10" t="n">
-        <v>27.4792</v>
+        <v>28.0743</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0994</v>
+        <v>31.0035</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1743</v>
+        <v>17.3836</v>
       </c>
       <c r="C11" t="n">
-        <v>27.786</v>
+        <v>27.6754</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6376</v>
+        <v>31.273</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0231</v>
+        <v>17.7324</v>
       </c>
       <c r="C12" t="n">
-        <v>29.1748</v>
+        <v>29.1222</v>
       </c>
       <c r="D12" t="n">
-        <v>32.2354</v>
+        <v>32.5868</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.7141</v>
+        <v>18.4231</v>
       </c>
       <c r="C13" t="n">
-        <v>29.7177</v>
+        <v>30.3925</v>
       </c>
       <c r="D13" t="n">
-        <v>32.7849</v>
+        <v>32.0808</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.4335</v>
+        <v>18.2046</v>
       </c>
       <c r="C14" t="n">
-        <v>28.2677</v>
+        <v>28.4472</v>
       </c>
       <c r="D14" t="n">
-        <v>31.1032</v>
+        <v>32.3322</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9243</v>
+        <v>18.2363</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9966</v>
+        <v>28.8683</v>
       </c>
       <c r="D15" t="n">
-        <v>31.0098</v>
+        <v>32.0508</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.5309</v>
+        <v>18.9798</v>
       </c>
       <c r="C16" t="n">
-        <v>28.511</v>
+        <v>28.9457</v>
       </c>
       <c r="D16" t="n">
-        <v>30.2799</v>
+        <v>32.154</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.051</v>
+        <v>19.0961</v>
       </c>
       <c r="C17" t="n">
-        <v>28.6462</v>
+        <v>29.37</v>
       </c>
       <c r="D17" t="n">
-        <v>31.1245</v>
+        <v>33.7305</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.07284</v>
+        <v>3.04414</v>
       </c>
       <c r="C2" t="n">
-        <v>5.30606</v>
+        <v>5.22074</v>
       </c>
       <c r="D2" t="n">
-        <v>5.80836</v>
+        <v>5.94534</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.97814</v>
+        <v>4.88393</v>
       </c>
       <c r="C3" t="n">
-        <v>8.688789999999999</v>
+        <v>8.53389</v>
       </c>
       <c r="D3" t="n">
-        <v>9.75859</v>
+        <v>9.992229999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.63919</v>
+        <v>6.61681</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0416</v>
+        <v>11.8869</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6584</v>
+        <v>14.1891</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.23053</v>
+        <v>8.24174</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2093</v>
+        <v>15.059</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4465</v>
+        <v>18.1668</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.814679999999999</v>
+        <v>9.75362</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3664</v>
+        <v>18.1092</v>
       </c>
       <c r="D6" t="n">
-        <v>21.213</v>
+        <v>22.1967</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2951</v>
+        <v>11.2431</v>
       </c>
       <c r="C7" t="n">
-        <v>21.375</v>
+        <v>21.1171</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8922</v>
+        <v>26.0246</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7906</v>
+        <v>12.6826</v>
       </c>
       <c r="C8" t="n">
-        <v>24.4128</v>
+        <v>24.0896</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5656</v>
+        <v>29.8845</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.0008</v>
+        <v>14.8793</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0298</v>
+        <v>28.6331</v>
       </c>
       <c r="D9" t="n">
-        <v>33.0798</v>
+        <v>34.3687</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1482</v>
+        <v>14.0947</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9381</v>
+        <v>26.3802</v>
       </c>
       <c r="D10" t="n">
-        <v>30.3928</v>
+        <v>32.0172</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3613</v>
+        <v>14.2109</v>
       </c>
       <c r="C11" t="n">
-        <v>26.2414</v>
+        <v>26.1583</v>
       </c>
       <c r="D11" t="n">
-        <v>30.137</v>
+        <v>31.6498</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2397</v>
+        <v>14.231</v>
       </c>
       <c r="C12" t="n">
-        <v>26.5966</v>
+        <v>26.3699</v>
       </c>
       <c r="D12" t="n">
-        <v>30.4782</v>
+        <v>31.9528</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4735</v>
+        <v>14.4618</v>
       </c>
       <c r="C13" t="n">
-        <v>27.0596</v>
+        <v>26.3935</v>
       </c>
       <c r="D13" t="n">
-        <v>30.7332</v>
+        <v>31.8615</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.1036</v>
+        <v>13.9761</v>
       </c>
       <c r="C14" t="n">
-        <v>26.1326</v>
+        <v>25.963</v>
       </c>
       <c r="D14" t="n">
-        <v>29.1466</v>
+        <v>31.0604</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5598</v>
+        <v>14.5725</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5205</v>
+        <v>26.5416</v>
       </c>
       <c r="D15" t="n">
-        <v>29.5816</v>
+        <v>31.7226</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5838</v>
+        <v>14.4789</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7795</v>
+        <v>26.3573</v>
       </c>
       <c r="D16" t="n">
-        <v>30.0857</v>
+        <v>30.9643</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5882</v>
+        <v>14.4387</v>
       </c>
       <c r="C17" t="n">
-        <v>26.725</v>
+        <v>26.2216</v>
       </c>
       <c r="D17" t="n">
-        <v>29.8902</v>
+        <v>30.6496</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.07591</v>
+        <v>4.10328</v>
       </c>
       <c r="C2" t="n">
-        <v>8.62177</v>
+        <v>8.65165</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0833</v>
+        <v>9.64784</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.21953</v>
+        <v>6.15087</v>
       </c>
       <c r="C3" t="n">
-        <v>12.57</v>
+        <v>12.4908</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9006</v>
+        <v>14.6342</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.23903</v>
+        <v>8.27088</v>
       </c>
       <c r="C4" t="n">
-        <v>16.742</v>
+        <v>16.8454</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1889</v>
+        <v>20.1543</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2201</v>
+        <v>10.227</v>
       </c>
       <c r="C5" t="n">
-        <v>20.8035</v>
+        <v>20.8558</v>
       </c>
       <c r="D5" t="n">
-        <v>25.1042</v>
+        <v>25.2539</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1252</v>
+        <v>12.1006</v>
       </c>
       <c r="C6" t="n">
-        <v>24.8609</v>
+        <v>24.8543</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2307</v>
+        <v>30.6237</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.979</v>
+        <v>13.9652</v>
       </c>
       <c r="C7" t="n">
-        <v>28.7387</v>
+        <v>28.699</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2723</v>
+        <v>35.7523</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7391</v>
+        <v>15.639</v>
       </c>
       <c r="C8" t="n">
-        <v>32.5071</v>
+        <v>32.6489</v>
       </c>
       <c r="D8" t="n">
-        <v>40.2028</v>
+        <v>40.7383</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3782</v>
+        <v>18.3408</v>
       </c>
       <c r="C9" t="n">
-        <v>38.8309</v>
+        <v>38.9193</v>
       </c>
       <c r="D9" t="n">
-        <v>46.7355</v>
+        <v>47.0006</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4537</v>
+        <v>17.6504</v>
       </c>
       <c r="C10" t="n">
-        <v>35.3796</v>
+        <v>35.9172</v>
       </c>
       <c r="D10" t="n">
-        <v>42.582</v>
+        <v>42.3716</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.3666</v>
+        <v>17.0051</v>
       </c>
       <c r="C11" t="n">
-        <v>35.6444</v>
+        <v>35.683</v>
       </c>
       <c r="D11" t="n">
-        <v>42.4182</v>
+        <v>42.3903</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3871</v>
+        <v>17.4172</v>
       </c>
       <c r="C12" t="n">
-        <v>34.9967</v>
+        <v>35.486</v>
       </c>
       <c r="D12" t="n">
-        <v>41.7635</v>
+        <v>41.9098</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7288</v>
+        <v>17.6887</v>
       </c>
       <c r="C13" t="n">
-        <v>35.8692</v>
+        <v>35.7049</v>
       </c>
       <c r="D13" t="n">
-        <v>42.7965</v>
+        <v>42.614</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1599</v>
+        <v>17.2178</v>
       </c>
       <c r="C14" t="n">
-        <v>34.908</v>
+        <v>34.3981</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0562</v>
+        <v>40.2647</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6953</v>
+        <v>17.8233</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7657</v>
+        <v>34.7722</v>
       </c>
       <c r="D15" t="n">
-        <v>40.0234</v>
+        <v>40.6589</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7103</v>
+        <v>17.7694</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5937</v>
+        <v>34.5167</v>
       </c>
       <c r="D16" t="n">
-        <v>40.6243</v>
+        <v>40.7175</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5552</v>
+        <v>17.6713</v>
       </c>
       <c r="C17" t="n">
-        <v>33.8385</v>
+        <v>34.9179</v>
       </c>
       <c r="D17" t="n">
-        <v>39.0779</v>
+        <v>40.0159</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.51527</v>
+        <v>5.5272</v>
       </c>
       <c r="C2" t="n">
         <v>6.73976</v>
       </c>
       <c r="D2" t="n">
-        <v>7.40993</v>
+        <v>7.33929</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.93605</v>
+        <v>6.9523</v>
       </c>
       <c r="C3" t="n">
-        <v>9.94258</v>
+        <v>9.94872</v>
       </c>
       <c r="D3" t="n">
-        <v>11.166</v>
+        <v>11.4377</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.06456</v>
+        <v>9.06718</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7476</v>
+        <v>13.7903</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6972</v>
+        <v>16.1956</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.079</v>
+        <v>11.1098</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5117</v>
+        <v>17.5334</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0225</v>
+        <v>20.8456</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1157</v>
+        <v>13.1553</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2852</v>
+        <v>21.2863</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4161</v>
+        <v>25.4209</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1734</v>
+        <v>15.1926</v>
       </c>
       <c r="C7" t="n">
-        <v>24.9662</v>
+        <v>25.0338</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7471</v>
+        <v>29.9515</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4365</v>
+        <v>17.4747</v>
       </c>
       <c r="C8" t="n">
-        <v>28.8303</v>
+        <v>28.8619</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2981</v>
+        <v>34.5984</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5344</v>
+        <v>20.5466</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6648</v>
+        <v>33.6174</v>
       </c>
       <c r="D9" t="n">
-        <v>38.661</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3611</v>
+        <v>19.5547</v>
       </c>
       <c r="C10" t="n">
-        <v>31.0495</v>
+        <v>31.1636</v>
       </c>
       <c r="D10" t="n">
-        <v>35.3494</v>
+        <v>37.3772</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2873</v>
+        <v>19.2822</v>
       </c>
       <c r="C11" t="n">
-        <v>31.2968</v>
+        <v>31.0434</v>
       </c>
       <c r="D11" t="n">
-        <v>35.1924</v>
+        <v>36.2443</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.4658</v>
+        <v>19.3539</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7458</v>
+        <v>31.2937</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0103</v>
+        <v>36.8644</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7987</v>
+        <v>19.7067</v>
       </c>
       <c r="C13" t="n">
-        <v>31.7591</v>
+        <v>31.5274</v>
       </c>
       <c r="D13" t="n">
-        <v>35.9005</v>
+        <v>37.4121</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9852</v>
+        <v>19.0427</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3303</v>
+        <v>30.5197</v>
       </c>
       <c r="D14" t="n">
-        <v>34.6538</v>
+        <v>35.9895</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.7525</v>
+        <v>19.7555</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3845</v>
+        <v>31.3694</v>
       </c>
       <c r="D15" t="n">
-        <v>35.7802</v>
+        <v>36.5827</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7058</v>
+        <v>19.5932</v>
       </c>
       <c r="C16" t="n">
-        <v>31.2938</v>
+        <v>31.1903</v>
       </c>
       <c r="D16" t="n">
-        <v>35.3636</v>
+        <v>36.2962</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4546</v>
+        <v>19.7345</v>
       </c>
       <c r="C17" t="n">
-        <v>30.8024</v>
+        <v>30.9146</v>
       </c>
       <c r="D17" t="n">
-        <v>34.9425</v>
+        <v>36.4329</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.31235</v>
+        <v>5.32351</v>
       </c>
       <c r="C2" t="n">
-        <v>6.06312</v>
+        <v>6.06867</v>
       </c>
       <c r="D2" t="n">
-        <v>6.60561</v>
+        <v>6.61168</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.4446</v>
+        <v>6.31143</v>
       </c>
       <c r="C3" t="n">
-        <v>9.035399999999999</v>
+        <v>8.968629999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>10.2165</v>
+        <v>10.1437</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.87556</v>
+        <v>7.89472</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3022</v>
+        <v>12.3272</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2786</v>
+        <v>14.2732</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.40044</v>
+        <v>9.36139</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4222</v>
+        <v>15.4312</v>
       </c>
       <c r="D5" t="n">
-        <v>18.2047</v>
+        <v>18.2109</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9544</v>
+        <v>11.0501</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4083</v>
+        <v>18.5173</v>
       </c>
       <c r="D6" t="n">
-        <v>21.942</v>
+        <v>22.1822</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.721</v>
+        <v>12.7297</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7869</v>
+        <v>21.7364</v>
       </c>
       <c r="D7" t="n">
-        <v>25.9534</v>
+        <v>25.8604</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0156</v>
+        <v>14.0495</v>
       </c>
       <c r="C8" t="n">
-        <v>24.353</v>
+        <v>24.3558</v>
       </c>
       <c r="D8" t="n">
-        <v>29.5311</v>
+        <v>29.6012</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5647</v>
+        <v>16.5339</v>
       </c>
       <c r="C9" t="n">
-        <v>28.3485</v>
+        <v>28.6875</v>
       </c>
       <c r="D9" t="n">
-        <v>33.765</v>
+        <v>33.7102</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1982</v>
+        <v>14.6156</v>
       </c>
       <c r="C10" t="n">
-        <v>23.0708</v>
+        <v>23.1894</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9438</v>
+        <v>26.9517</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.2404</v>
+        <v>14.1275</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0836</v>
+        <v>24.0268</v>
       </c>
       <c r="D11" t="n">
-        <v>27.7008</v>
+        <v>27.8902</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.7278</v>
+        <v>14.6533</v>
       </c>
       <c r="C12" t="n">
-        <v>25.077</v>
+        <v>25.198</v>
       </c>
       <c r="D12" t="n">
-        <v>28.9217</v>
+        <v>28.399</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1074</v>
+        <v>15.0611</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7165</v>
+        <v>25.4328</v>
       </c>
       <c r="D13" t="n">
-        <v>29.7528</v>
+        <v>28.7643</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0194</v>
+        <v>14.9368</v>
       </c>
       <c r="C14" t="n">
-        <v>24.6667</v>
+        <v>24.931</v>
       </c>
       <c r="D14" t="n">
-        <v>29.4076</v>
+        <v>28.2985</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.137</v>
+        <v>15.1891</v>
       </c>
       <c r="C15" t="n">
-        <v>25.2407</v>
+        <v>24.3431</v>
       </c>
       <c r="D15" t="n">
-        <v>28.8144</v>
+        <v>27.9097</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3123</v>
+        <v>15.3431</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9384</v>
+        <v>24.6957</v>
       </c>
       <c r="D16" t="n">
-        <v>29.1699</v>
+        <v>28.7639</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2512</v>
+        <v>15.5728</v>
       </c>
       <c r="C17" t="n">
-        <v>25.3395</v>
+        <v>25.4036</v>
       </c>
       <c r="D17" t="n">
-        <v>28.1992</v>
+        <v>29.1024</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.1563</v>
+        <v>9.18257</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2916</v>
+        <v>11.2987</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3118</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.62007</v>
+        <v>8.66596</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4437</v>
+        <v>13.426</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8142</v>
+        <v>14.8151</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3841</v>
+        <v>10.3991</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6651</v>
+        <v>17.6785</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2287</v>
+        <v>20.2159</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1593</v>
+        <v>12.1761</v>
       </c>
       <c r="C5" t="n">
-        <v>21.5667</v>
+        <v>21.5602</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3518</v>
+        <v>25.3506</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.2417</v>
+        <v>14.2256</v>
       </c>
       <c r="C6" t="n">
-        <v>25.4769</v>
+        <v>25.4614</v>
       </c>
       <c r="D6" t="n">
-        <v>30.5678</v>
+        <v>30.4911</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2867</v>
+        <v>16.3401</v>
       </c>
       <c r="C7" t="n">
-        <v>29.8805</v>
+        <v>29.9163</v>
       </c>
       <c r="D7" t="n">
-        <v>35.4307</v>
+        <v>35.4384</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.003</v>
+        <v>18.0304</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0651</v>
+        <v>33.0439</v>
       </c>
       <c r="D8" t="n">
-        <v>39.862</v>
+        <v>39.9855</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1475</v>
+        <v>21.1953</v>
       </c>
       <c r="C9" t="n">
-        <v>38.5953</v>
+        <v>38.4991</v>
       </c>
       <c r="D9" t="n">
-        <v>45.6358</v>
+        <v>44.9266</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3651</v>
+        <v>18.6445</v>
       </c>
       <c r="C10" t="n">
-        <v>33.7809</v>
+        <v>33.4132</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6893</v>
+        <v>38.4369</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0733</v>
+        <v>18.3346</v>
       </c>
       <c r="C11" t="n">
-        <v>32.596</v>
+        <v>32.7706</v>
       </c>
       <c r="D11" t="n">
-        <v>37.4415</v>
+        <v>37.1272</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5864</v>
+        <v>18.8304</v>
       </c>
       <c r="C12" t="n">
-        <v>32.5581</v>
+        <v>33.3061</v>
       </c>
       <c r="D12" t="n">
-        <v>38.3143</v>
+        <v>38.1122</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.3075</v>
+        <v>19.3267</v>
       </c>
       <c r="C13" t="n">
-        <v>34.1215</v>
+        <v>34.1247</v>
       </c>
       <c r="D13" t="n">
-        <v>39.4896</v>
+        <v>39.0493</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2687</v>
+        <v>19.1253</v>
       </c>
       <c r="C14" t="n">
-        <v>32.6611</v>
+        <v>33.7714</v>
       </c>
       <c r="D14" t="n">
-        <v>38.9273</v>
+        <v>37.5965</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9145</v>
+        <v>19.3403</v>
       </c>
       <c r="C15" t="n">
-        <v>32.2081</v>
+        <v>33.3521</v>
       </c>
       <c r="D15" t="n">
-        <v>37.304</v>
+        <v>37.4902</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5228</v>
+        <v>19.7177</v>
       </c>
       <c r="C16" t="n">
-        <v>33.5539</v>
+        <v>32.5223</v>
       </c>
       <c r="D16" t="n">
-        <v>37.2796</v>
+        <v>36.5044</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4012</v>
+        <v>19.6266</v>
       </c>
       <c r="C17" t="n">
-        <v>34.2171</v>
+        <v>32.9567</v>
       </c>
       <c r="D17" t="n">
-        <v>38.0899</v>
+        <v>36.8171</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.84853</v>
+        <v>6.84585</v>
       </c>
       <c r="C2" t="n">
-        <v>7.21712</v>
+        <v>7.20671</v>
       </c>
       <c r="D2" t="n">
-        <v>7.56559</v>
+        <v>7.56425</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.35469</v>
+        <v>7.44634</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0872</v>
+        <v>10.1911</v>
       </c>
       <c r="D3" t="n">
-        <v>11.3218</v>
+        <v>11.4128</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.28637</v>
+        <v>9.26022</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9298</v>
+        <v>13.9313</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0085</v>
+        <v>16.005</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1308</v>
+        <v>11.203</v>
       </c>
       <c r="C5" t="n">
-        <v>17.6698</v>
+        <v>17.7681</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5299</v>
+        <v>20.6448</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.2469</v>
+        <v>13.2488</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5074</v>
+        <v>21.4611</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0733</v>
+        <v>25.0767</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.3329</v>
+        <v>15.3461</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3323</v>
+        <v>25.3877</v>
       </c>
       <c r="D7" t="n">
-        <v>29.5472</v>
+        <v>29.5491</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.341</v>
+        <v>17.3511</v>
       </c>
       <c r="C8" t="n">
-        <v>28.7575</v>
+        <v>28.7673</v>
       </c>
       <c r="D8" t="n">
-        <v>33.5667</v>
+        <v>33.5794</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.1067</v>
+        <v>20.0439</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3473</v>
+        <v>33.1678</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0944</v>
+        <v>38.634</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7719</v>
+        <v>17.7333</v>
       </c>
       <c r="C10" t="n">
-        <v>28.0743</v>
+        <v>27.8929</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0035</v>
+        <v>31.6222</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.3836</v>
+        <v>17.281</v>
       </c>
       <c r="C11" t="n">
-        <v>27.6754</v>
+        <v>27.7697</v>
       </c>
       <c r="D11" t="n">
-        <v>31.273</v>
+        <v>31.9604</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7324</v>
+        <v>18.0267</v>
       </c>
       <c r="C12" t="n">
-        <v>29.1222</v>
+        <v>28.6713</v>
       </c>
       <c r="D12" t="n">
-        <v>32.5868</v>
+        <v>33.5361</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.4231</v>
+        <v>18.9357</v>
       </c>
       <c r="C13" t="n">
-        <v>30.3925</v>
+        <v>30.8967</v>
       </c>
       <c r="D13" t="n">
-        <v>32.0808</v>
+        <v>33.4882</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.2046</v>
+        <v>18.2249</v>
       </c>
       <c r="C14" t="n">
-        <v>28.4472</v>
+        <v>29.293</v>
       </c>
       <c r="D14" t="n">
-        <v>32.3322</v>
+        <v>31.7975</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2363</v>
+        <v>18.4006</v>
       </c>
       <c r="C15" t="n">
-        <v>28.8683</v>
+        <v>28.5155</v>
       </c>
       <c r="D15" t="n">
-        <v>32.0508</v>
+        <v>32.495</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.9798</v>
+        <v>18.8106</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9457</v>
+        <v>29.0409</v>
       </c>
       <c r="D16" t="n">
-        <v>32.154</v>
+        <v>31.2469</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0961</v>
+        <v>19.0377</v>
       </c>
       <c r="C17" t="n">
-        <v>29.37</v>
+        <v>28.9778</v>
       </c>
       <c r="D17" t="n">
-        <v>33.7305</v>
+        <v>31.5178</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.04414</v>
+        <v>3.05814</v>
       </c>
       <c r="C2" t="n">
-        <v>5.22074</v>
+        <v>5.22031</v>
       </c>
       <c r="D2" t="n">
-        <v>5.94534</v>
+        <v>5.94372</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.88393</v>
+        <v>4.947</v>
       </c>
       <c r="C3" t="n">
-        <v>8.53389</v>
+        <v>8.58521</v>
       </c>
       <c r="D3" t="n">
-        <v>9.992229999999999</v>
+        <v>10.0694</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.61681</v>
+        <v>6.66753</v>
       </c>
       <c r="C4" t="n">
-        <v>11.8869</v>
+        <v>11.898</v>
       </c>
       <c r="D4" t="n">
-        <v>14.1891</v>
+        <v>14.1768</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.24174</v>
+        <v>8.238530000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>15.059</v>
+        <v>15.0571</v>
       </c>
       <c r="D5" t="n">
-        <v>18.1668</v>
+        <v>18.1466</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.75362</v>
+        <v>9.79819</v>
       </c>
       <c r="C6" t="n">
-        <v>18.1092</v>
+        <v>18.1691</v>
       </c>
       <c r="D6" t="n">
-        <v>22.1967</v>
+        <v>22.1618</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2431</v>
+        <v>11.282</v>
       </c>
       <c r="C7" t="n">
-        <v>21.1171</v>
+        <v>21.1632</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0246</v>
+        <v>26.0293</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6826</v>
+        <v>12.7654</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0896</v>
+        <v>24.0734</v>
       </c>
       <c r="D8" t="n">
-        <v>29.8845</v>
+        <v>29.8389</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8793</v>
+        <v>14.9067</v>
       </c>
       <c r="C9" t="n">
-        <v>28.6331</v>
+        <v>28.6204</v>
       </c>
       <c r="D9" t="n">
-        <v>34.3687</v>
+        <v>34.3594</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0947</v>
+        <v>14.2285</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3802</v>
+        <v>26.0089</v>
       </c>
       <c r="D10" t="n">
-        <v>32.0172</v>
+        <v>31.7143</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.2109</v>
+        <v>14.2729</v>
       </c>
       <c r="C11" t="n">
-        <v>26.1583</v>
+        <v>26.203</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6498</v>
+        <v>31.5781</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.231</v>
+        <v>14.226</v>
       </c>
       <c r="C12" t="n">
-        <v>26.3699</v>
+        <v>26.5335</v>
       </c>
       <c r="D12" t="n">
-        <v>31.9528</v>
+        <v>30.9963</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4618</v>
+        <v>14.6032</v>
       </c>
       <c r="C13" t="n">
-        <v>26.3935</v>
+        <v>26.8408</v>
       </c>
       <c r="D13" t="n">
-        <v>31.8615</v>
+        <v>31.6379</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9761</v>
+        <v>14.0007</v>
       </c>
       <c r="C14" t="n">
-        <v>25.963</v>
+        <v>25.52</v>
       </c>
       <c r="D14" t="n">
-        <v>31.0604</v>
+        <v>30.5522</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5725</v>
+        <v>14.5956</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5416</v>
+        <v>26.3529</v>
       </c>
       <c r="D15" t="n">
-        <v>31.7226</v>
+        <v>31.3379</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4789</v>
+        <v>14.3805</v>
       </c>
       <c r="C16" t="n">
-        <v>26.3573</v>
+        <v>25.8319</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9643</v>
+        <v>30.9995</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4387</v>
+        <v>14.5384</v>
       </c>
       <c r="C17" t="n">
-        <v>26.2216</v>
+        <v>25.6667</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6496</v>
+        <v>30.905</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.10328</v>
+        <v>4.06297</v>
       </c>
       <c r="C2" t="n">
-        <v>8.65165</v>
+        <v>8.621090000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>9.64784</v>
+        <v>9.619160000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.15087</v>
+        <v>6.24979</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4908</v>
+        <v>12.5934</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6342</v>
+        <v>14.7169</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.27088</v>
+        <v>8.328329999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>16.8454</v>
+        <v>16.7976</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1543</v>
+        <v>20.1371</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.227</v>
+        <v>10.256</v>
       </c>
       <c r="C5" t="n">
-        <v>20.8558</v>
+        <v>20.7881</v>
       </c>
       <c r="D5" t="n">
-        <v>25.2539</v>
+        <v>25.2516</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1006</v>
+        <v>12.1133</v>
       </c>
       <c r="C6" t="n">
-        <v>24.8543</v>
+        <v>24.7679</v>
       </c>
       <c r="D6" t="n">
-        <v>30.6237</v>
+        <v>30.5694</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9652</v>
+        <v>13.963</v>
       </c>
       <c r="C7" t="n">
-        <v>28.699</v>
+        <v>28.6841</v>
       </c>
       <c r="D7" t="n">
-        <v>35.7523</v>
+        <v>35.7221</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.639</v>
+        <v>15.7158</v>
       </c>
       <c r="C8" t="n">
-        <v>32.6489</v>
+        <v>32.6226</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7383</v>
+        <v>40.5526</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3408</v>
+        <v>18.37</v>
       </c>
       <c r="C9" t="n">
-        <v>38.9193</v>
+        <v>38.8659</v>
       </c>
       <c r="D9" t="n">
-        <v>47.0006</v>
+        <v>46.8769</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6504</v>
+        <v>17.372</v>
       </c>
       <c r="C10" t="n">
-        <v>35.9172</v>
+        <v>35.5867</v>
       </c>
       <c r="D10" t="n">
-        <v>42.3716</v>
+        <v>43.4519</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0051</v>
+        <v>17.2566</v>
       </c>
       <c r="C11" t="n">
-        <v>35.683</v>
+        <v>35.5169</v>
       </c>
       <c r="D11" t="n">
-        <v>42.3903</v>
+        <v>41.9742</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4172</v>
+        <v>17.4377</v>
       </c>
       <c r="C12" t="n">
-        <v>35.486</v>
+        <v>35.1999</v>
       </c>
       <c r="D12" t="n">
-        <v>41.9098</v>
+        <v>42.8315</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6887</v>
+        <v>17.699</v>
       </c>
       <c r="C13" t="n">
-        <v>35.7049</v>
+        <v>35.4551</v>
       </c>
       <c r="D13" t="n">
-        <v>42.614</v>
+        <v>42.5301</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2178</v>
+        <v>17.1646</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3981</v>
+        <v>34.4304</v>
       </c>
       <c r="D14" t="n">
-        <v>40.2647</v>
+        <v>40.4985</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8233</v>
+        <v>17.8426</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7722</v>
+        <v>34.9171</v>
       </c>
       <c r="D15" t="n">
-        <v>40.6589</v>
+        <v>41.0858</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7694</v>
+        <v>17.8657</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5167</v>
+        <v>35.1753</v>
       </c>
       <c r="D16" t="n">
-        <v>40.7175</v>
+        <v>40.4551</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6713</v>
+        <v>17.6573</v>
       </c>
       <c r="C17" t="n">
-        <v>34.9179</v>
+        <v>34.5256</v>
       </c>
       <c r="D17" t="n">
-        <v>40.0159</v>
+        <v>40.6384</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5272</v>
+        <v>5.53364</v>
       </c>
       <c r="C2" t="n">
-        <v>6.73976</v>
+        <v>6.73283</v>
       </c>
       <c r="D2" t="n">
-        <v>7.33929</v>
+        <v>7.33342</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.9523</v>
+        <v>6.95377</v>
       </c>
       <c r="C3" t="n">
-        <v>9.94872</v>
+        <v>9.92163</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4377</v>
+        <v>11.4206</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.06718</v>
+        <v>9.070169999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7903</v>
+        <v>13.7521</v>
       </c>
       <c r="D4" t="n">
-        <v>16.1956</v>
+        <v>16.1712</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1098</v>
+        <v>11.0746</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5334</v>
+        <v>17.5069</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8456</v>
+        <v>20.814</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1553</v>
+        <v>13.1469</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2863</v>
+        <v>21.2424</v>
       </c>
       <c r="D6" t="n">
-        <v>25.4209</v>
+        <v>25.3903</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1926</v>
+        <v>15.188</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0338</v>
+        <v>25.0377</v>
       </c>
       <c r="D7" t="n">
-        <v>29.9515</v>
+        <v>29.9749</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4747</v>
+        <v>17.4681</v>
       </c>
       <c r="C8" t="n">
-        <v>28.8619</v>
+        <v>28.8592</v>
       </c>
       <c r="D8" t="n">
-        <v>34.5984</v>
+        <v>34.5233</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5466</v>
+        <v>20.5429</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6174</v>
+        <v>33.6526</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0006</v>
+        <v>39.9925</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.5547</v>
+        <v>19.5812</v>
       </c>
       <c r="C10" t="n">
-        <v>31.1636</v>
+        <v>31.2924</v>
       </c>
       <c r="D10" t="n">
-        <v>37.3772</v>
+        <v>36.4522</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2822</v>
+        <v>19.3225</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0434</v>
+        <v>30.724</v>
       </c>
       <c r="D11" t="n">
-        <v>36.2443</v>
+        <v>36.1367</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.3539</v>
+        <v>19.6109</v>
       </c>
       <c r="C12" t="n">
-        <v>31.2937</v>
+        <v>31.0318</v>
       </c>
       <c r="D12" t="n">
-        <v>36.8644</v>
+        <v>36.7598</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7067</v>
+        <v>19.841</v>
       </c>
       <c r="C13" t="n">
-        <v>31.5274</v>
+        <v>31.3913</v>
       </c>
       <c r="D13" t="n">
-        <v>37.4121</v>
+        <v>36.7207</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0427</v>
+        <v>18.9803</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5197</v>
+        <v>30.5667</v>
       </c>
       <c r="D14" t="n">
-        <v>35.9895</v>
+        <v>35.8083</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.7555</v>
+        <v>19.6707</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3694</v>
+        <v>31.2224</v>
       </c>
       <c r="D15" t="n">
-        <v>36.5827</v>
+        <v>36.8044</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5932</v>
+        <v>19.6523</v>
       </c>
       <c r="C16" t="n">
-        <v>31.1903</v>
+        <v>31.0498</v>
       </c>
       <c r="D16" t="n">
-        <v>36.2962</v>
+        <v>36.4807</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.7345</v>
+        <v>19.9489</v>
       </c>
       <c r="C17" t="n">
-        <v>30.9146</v>
+        <v>30.7262</v>
       </c>
       <c r="D17" t="n">
-        <v>36.4329</v>
+        <v>35.9766</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.32351</v>
+        <v>5.38056</v>
       </c>
       <c r="C2" t="n">
-        <v>6.06867</v>
+        <v>6.1889</v>
       </c>
       <c r="D2" t="n">
-        <v>6.61168</v>
+        <v>6.55589</v>
       </c>
     </row>
     <row r="3">
@@ -4101,10 +4101,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.31143</v>
+        <v>6.47582</v>
       </c>
       <c r="C3" t="n">
-        <v>8.968629999999999</v>
+        <v>9.144349999999999</v>
       </c>
       <c r="D3" t="n">
         <v>10.1437</v>
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.89472</v>
+        <v>7.89577</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3272</v>
+        <v>12.4502</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2732</v>
+        <v>14.1976</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.36139</v>
+        <v>9.399330000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4312</v>
+        <v>15.5478</v>
       </c>
       <c r="D5" t="n">
-        <v>18.2109</v>
+        <v>18.0521</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0501</v>
+        <v>11.0344</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5173</v>
+        <v>18.6184</v>
       </c>
       <c r="D6" t="n">
-        <v>22.1822</v>
+        <v>21.9517</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7297</v>
+        <v>12.6996</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7364</v>
+        <v>21.8777</v>
       </c>
       <c r="D7" t="n">
-        <v>25.8604</v>
+        <v>25.8322</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0495</v>
+        <v>14.0873</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3558</v>
+        <v>24.5977</v>
       </c>
       <c r="D8" t="n">
-        <v>29.6012</v>
+        <v>29.5101</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5339</v>
+        <v>16.6331</v>
       </c>
       <c r="C9" t="n">
-        <v>28.6875</v>
+        <v>28.7134</v>
       </c>
       <c r="D9" t="n">
-        <v>33.7102</v>
+        <v>32.2068</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.6156</v>
+        <v>14.4216</v>
       </c>
       <c r="C10" t="n">
-        <v>23.1894</v>
+        <v>23.2782</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9517</v>
+        <v>27.0682</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1275</v>
+        <v>14.1514</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0268</v>
+        <v>23.9451</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8902</v>
+        <v>27.3067</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6533</v>
+        <v>14.7768</v>
       </c>
       <c r="C12" t="n">
-        <v>25.198</v>
+        <v>24.894</v>
       </c>
       <c r="D12" t="n">
-        <v>28.399</v>
+        <v>28.2288</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0611</v>
+        <v>15.0762</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4328</v>
+        <v>25.1901</v>
       </c>
       <c r="D13" t="n">
-        <v>28.7643</v>
+        <v>29.7089</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9368</v>
+        <v>15.0242</v>
       </c>
       <c r="C14" t="n">
-        <v>24.931</v>
+        <v>24.9122</v>
       </c>
       <c r="D14" t="n">
-        <v>28.2985</v>
+        <v>29.1636</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1891</v>
+        <v>15.1137</v>
       </c>
       <c r="C15" t="n">
-        <v>24.3431</v>
+        <v>24.9217</v>
       </c>
       <c r="D15" t="n">
-        <v>27.9097</v>
+        <v>28.7198</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3431</v>
+        <v>15.5296</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6957</v>
+        <v>25.5289</v>
       </c>
       <c r="D16" t="n">
-        <v>28.7639</v>
+        <v>27.8269</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5728</v>
+        <v>15.7271</v>
       </c>
       <c r="C17" t="n">
-        <v>25.4036</v>
+        <v>25.2745</v>
       </c>
       <c r="D17" t="n">
-        <v>29.1024</v>
+        <v>29.0518</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.18257</v>
+        <v>9.140090000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2987</v>
+        <v>11.3012</v>
       </c>
       <c r="D2" t="n">
-        <v>11.32</v>
+        <v>11.0311</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.66596</v>
+        <v>8.84282</v>
       </c>
       <c r="C3" t="n">
-        <v>13.426</v>
+        <v>13.6683</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8151</v>
+        <v>14.7624</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3991</v>
+        <v>10.3278</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6785</v>
+        <v>17.633</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2159</v>
+        <v>19.991</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1761</v>
+        <v>12.195</v>
       </c>
       <c r="C5" t="n">
-        <v>21.5602</v>
+        <v>21.6181</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3506</v>
+        <v>25.1898</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.2256</v>
+        <v>14.2303</v>
       </c>
       <c r="C6" t="n">
-        <v>25.4614</v>
+        <v>25.5364</v>
       </c>
       <c r="D6" t="n">
-        <v>30.4911</v>
+        <v>30.2253</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3401</v>
+        <v>16.2487</v>
       </c>
       <c r="C7" t="n">
-        <v>29.9163</v>
+        <v>29.7612</v>
       </c>
       <c r="D7" t="n">
-        <v>35.4384</v>
+        <v>35.3119</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0304</v>
+        <v>18.0537</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0439</v>
+        <v>32.9773</v>
       </c>
       <c r="D8" t="n">
-        <v>39.9855</v>
+        <v>39.5214</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1953</v>
+        <v>21.1215</v>
       </c>
       <c r="C9" t="n">
-        <v>38.4991</v>
+        <v>38.8234</v>
       </c>
       <c r="D9" t="n">
-        <v>44.9266</v>
+        <v>44.3103</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.6445</v>
+        <v>18.6086</v>
       </c>
       <c r="C10" t="n">
-        <v>33.4132</v>
+        <v>32.883</v>
       </c>
       <c r="D10" t="n">
-        <v>38.4369</v>
+        <v>37.7685</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3346</v>
+        <v>18.4265</v>
       </c>
       <c r="C11" t="n">
-        <v>32.7706</v>
+        <v>32.6356</v>
       </c>
       <c r="D11" t="n">
-        <v>37.1272</v>
+        <v>36.7753</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.8304</v>
+        <v>18.7376</v>
       </c>
       <c r="C12" t="n">
-        <v>33.3061</v>
+        <v>32.7472</v>
       </c>
       <c r="D12" t="n">
-        <v>38.1122</v>
+        <v>37.2315</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.3267</v>
+        <v>19.245</v>
       </c>
       <c r="C13" t="n">
-        <v>34.1247</v>
+        <v>34.4455</v>
       </c>
       <c r="D13" t="n">
-        <v>39.0493</v>
+        <v>39.0698</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1253</v>
+        <v>19.0127</v>
       </c>
       <c r="C14" t="n">
-        <v>33.7714</v>
+        <v>33.6082</v>
       </c>
       <c r="D14" t="n">
-        <v>37.5965</v>
+        <v>36.8145</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3403</v>
+        <v>19.3873</v>
       </c>
       <c r="C15" t="n">
-        <v>33.3521</v>
+        <v>31.7065</v>
       </c>
       <c r="D15" t="n">
-        <v>37.4902</v>
+        <v>36.6543</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7177</v>
+        <v>19.7036</v>
       </c>
       <c r="C16" t="n">
-        <v>32.5223</v>
+        <v>32.9592</v>
       </c>
       <c r="D16" t="n">
-        <v>36.5044</v>
+        <v>37.5255</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6266</v>
+        <v>19.6252</v>
       </c>
       <c r="C17" t="n">
-        <v>32.9567</v>
+        <v>33.1431</v>
       </c>
       <c r="D17" t="n">
-        <v>36.8171</v>
+        <v>37.2312</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.84585</v>
+        <v>6.83984</v>
       </c>
       <c r="C2" t="n">
-        <v>7.20671</v>
+        <v>7.21437</v>
       </c>
       <c r="D2" t="n">
-        <v>7.56425</v>
+        <v>7.49887</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.44634</v>
+        <v>7.34449</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1911</v>
+        <v>10.0491</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4128</v>
+        <v>11.2252</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.26022</v>
+        <v>9.26384</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9313</v>
+        <v>13.882</v>
       </c>
       <c r="D4" t="n">
-        <v>16.005</v>
+        <v>15.8776</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.203</v>
+        <v>11.1446</v>
       </c>
       <c r="C5" t="n">
-        <v>17.7681</v>
+        <v>17.6995</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6448</v>
+        <v>20.4018</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.2488</v>
+        <v>13.1239</v>
       </c>
       <c r="C6" t="n">
-        <v>21.4611</v>
+        <v>21.3544</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0767</v>
+        <v>24.8266</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.3461</v>
+        <v>15.1393</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3877</v>
+        <v>24.898</v>
       </c>
       <c r="D7" t="n">
-        <v>29.5491</v>
+        <v>28.9513</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.3511</v>
+        <v>17.3397</v>
       </c>
       <c r="C8" t="n">
-        <v>28.7673</v>
+        <v>28.7073</v>
       </c>
       <c r="D8" t="n">
-        <v>33.5794</v>
+        <v>33.5012</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0439</v>
+        <v>20.0424</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1678</v>
+        <v>33.3393</v>
       </c>
       <c r="D9" t="n">
-        <v>38.634</v>
+        <v>38.0737</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7333</v>
+        <v>17.6287</v>
       </c>
       <c r="C10" t="n">
-        <v>27.8929</v>
+        <v>27.9109</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6222</v>
+        <v>31.5372</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.281</v>
+        <v>17.2892</v>
       </c>
       <c r="C11" t="n">
-        <v>27.7697</v>
+        <v>27.9261</v>
       </c>
       <c r="D11" t="n">
-        <v>31.9604</v>
+        <v>31.7455</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0267</v>
+        <v>17.7877</v>
       </c>
       <c r="C12" t="n">
-        <v>28.6713</v>
+        <v>28.973</v>
       </c>
       <c r="D12" t="n">
-        <v>33.5361</v>
+        <v>33.2287</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.9357</v>
+        <v>18.4383</v>
       </c>
       <c r="C13" t="n">
-        <v>30.8967</v>
+        <v>29.3201</v>
       </c>
       <c r="D13" t="n">
-        <v>33.4882</v>
+        <v>32.6886</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.2249</v>
+        <v>18.2667</v>
       </c>
       <c r="C14" t="n">
-        <v>29.293</v>
+        <v>28.8586</v>
       </c>
       <c r="D14" t="n">
-        <v>31.7975</v>
+        <v>31.1019</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.4006</v>
+        <v>18.4909</v>
       </c>
       <c r="C15" t="n">
-        <v>28.5155</v>
+        <v>28.2895</v>
       </c>
       <c r="D15" t="n">
-        <v>32.495</v>
+        <v>31.4288</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.8106</v>
+        <v>18.7922</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0409</v>
+        <v>29.5036</v>
       </c>
       <c r="D16" t="n">
-        <v>31.2469</v>
+        <v>31.412</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0377</v>
+        <v>18.9688</v>
       </c>
       <c r="C17" t="n">
-        <v>28.9778</v>
+        <v>29.1015</v>
       </c>
       <c r="D17" t="n">
-        <v>31.5178</v>
+        <v>31.251</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.05814</v>
+        <v>3.07305</v>
       </c>
       <c r="C2" t="n">
-        <v>5.22031</v>
+        <v>5.31458</v>
       </c>
       <c r="D2" t="n">
-        <v>5.94372</v>
+        <v>5.89583</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.947</v>
+        <v>4.92023</v>
       </c>
       <c r="C3" t="n">
-        <v>8.58521</v>
+        <v>8.65049</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0694</v>
+        <v>9.936920000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.66753</v>
+        <v>6.68255</v>
       </c>
       <c r="C4" t="n">
-        <v>11.898</v>
+        <v>12.0405</v>
       </c>
       <c r="D4" t="n">
-        <v>14.1768</v>
+        <v>14.131</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.238530000000001</v>
+        <v>8.22626</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0571</v>
+        <v>15.2278</v>
       </c>
       <c r="D5" t="n">
-        <v>18.1466</v>
+        <v>18.0842</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.79819</v>
+        <v>9.803089999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>18.1691</v>
+        <v>18.3612</v>
       </c>
       <c r="D6" t="n">
-        <v>22.1618</v>
+        <v>22.0999</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.282</v>
+        <v>11.3429</v>
       </c>
       <c r="C7" t="n">
-        <v>21.1632</v>
+        <v>21.3401</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0293</v>
+        <v>25.9468</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7654</v>
+        <v>12.7565</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0734</v>
+        <v>24.3891</v>
       </c>
       <c r="D8" t="n">
-        <v>29.8389</v>
+        <v>29.8269</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9067</v>
+        <v>14.9667</v>
       </c>
       <c r="C9" t="n">
-        <v>28.6204</v>
+        <v>28.9448</v>
       </c>
       <c r="D9" t="n">
-        <v>34.3594</v>
+        <v>34.2942</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2285</v>
+        <v>14.4303</v>
       </c>
       <c r="C10" t="n">
-        <v>26.0089</v>
+        <v>26.7526</v>
       </c>
       <c r="D10" t="n">
-        <v>31.7143</v>
+        <v>31.5767</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.2729</v>
+        <v>14.0914</v>
       </c>
       <c r="C11" t="n">
-        <v>26.203</v>
+        <v>26.6707</v>
       </c>
       <c r="D11" t="n">
-        <v>31.5781</v>
+        <v>31.0988</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.226</v>
+        <v>14.3546</v>
       </c>
       <c r="C12" t="n">
-        <v>26.5335</v>
+        <v>26.8197</v>
       </c>
       <c r="D12" t="n">
-        <v>30.9963</v>
+        <v>31.2497</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.6032</v>
+        <v>14.6503</v>
       </c>
       <c r="C13" t="n">
-        <v>26.8408</v>
+        <v>26.9967</v>
       </c>
       <c r="D13" t="n">
-        <v>31.6379</v>
+        <v>31.9778</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.0007</v>
+        <v>14.0042</v>
       </c>
       <c r="C14" t="n">
-        <v>25.52</v>
+        <v>26.0406</v>
       </c>
       <c r="D14" t="n">
-        <v>30.5522</v>
+        <v>30.2527</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5956</v>
+        <v>14.669</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3529</v>
+        <v>26.6778</v>
       </c>
       <c r="D15" t="n">
-        <v>31.3379</v>
+        <v>30.8347</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3805</v>
+        <v>14.5852</v>
       </c>
       <c r="C16" t="n">
-        <v>25.8319</v>
+        <v>26.1998</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9995</v>
+        <v>30.4976</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5384</v>
+        <v>14.4767</v>
       </c>
       <c r="C17" t="n">
-        <v>25.6667</v>
+        <v>26.5199</v>
       </c>
       <c r="D17" t="n">
-        <v>30.905</v>
+        <v>30.9198</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.06297</v>
+        <v>4.07082</v>
       </c>
       <c r="C2" t="n">
-        <v>8.621090000000001</v>
+        <v>8.643039999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9.619160000000001</v>
+        <v>9.39526</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24979</v>
+        <v>6.14914</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5934</v>
+        <v>12.4689</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7169</v>
+        <v>14.343</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.328329999999999</v>
+        <v>8.3422</v>
       </c>
       <c r="C4" t="n">
-        <v>16.7976</v>
+        <v>16.8076</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1371</v>
+        <v>19.8531</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.256</v>
+        <v>10.2214</v>
       </c>
       <c r="C5" t="n">
-        <v>20.7881</v>
+        <v>20.8309</v>
       </c>
       <c r="D5" t="n">
-        <v>25.2516</v>
+        <v>24.9223</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1133</v>
+        <v>12.0749</v>
       </c>
       <c r="C6" t="n">
-        <v>24.7679</v>
+        <v>24.879</v>
       </c>
       <c r="D6" t="n">
-        <v>30.5694</v>
+        <v>30.1356</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.963</v>
+        <v>13.8473</v>
       </c>
       <c r="C7" t="n">
-        <v>28.6841</v>
+        <v>28.763</v>
       </c>
       <c r="D7" t="n">
-        <v>35.7221</v>
+        <v>35.2528</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7158</v>
+        <v>15.719</v>
       </c>
       <c r="C8" t="n">
-        <v>32.6226</v>
+        <v>32.6702</v>
       </c>
       <c r="D8" t="n">
-        <v>40.5526</v>
+        <v>40.2776</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.37</v>
+        <v>18.3299</v>
       </c>
       <c r="C9" t="n">
-        <v>38.8659</v>
+        <v>38.7983</v>
       </c>
       <c r="D9" t="n">
-        <v>46.8769</v>
+        <v>46.3646</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.372</v>
+        <v>17.4076</v>
       </c>
       <c r="C10" t="n">
-        <v>35.5867</v>
+        <v>35.9</v>
       </c>
       <c r="D10" t="n">
-        <v>43.4519</v>
+        <v>42.5244</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2566</v>
+        <v>17.2927</v>
       </c>
       <c r="C11" t="n">
-        <v>35.5169</v>
+        <v>35.5654</v>
       </c>
       <c r="D11" t="n">
-        <v>41.9742</v>
+        <v>41.1106</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4377</v>
+        <v>17.3237</v>
       </c>
       <c r="C12" t="n">
-        <v>35.1999</v>
+        <v>35.8916</v>
       </c>
       <c r="D12" t="n">
-        <v>42.8315</v>
+        <v>41.9889</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.699</v>
+        <v>17.676</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4551</v>
+        <v>36.1768</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5301</v>
+        <v>42.006</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1646</v>
+        <v>17.1589</v>
       </c>
       <c r="C14" t="n">
-        <v>34.4304</v>
+        <v>34.5535</v>
       </c>
       <c r="D14" t="n">
-        <v>40.4985</v>
+        <v>40.2857</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8426</v>
+        <v>17.6301</v>
       </c>
       <c r="C15" t="n">
-        <v>34.9171</v>
+        <v>35.5788</v>
       </c>
       <c r="D15" t="n">
-        <v>41.0858</v>
+        <v>40.6066</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8657</v>
+        <v>17.6721</v>
       </c>
       <c r="C16" t="n">
-        <v>35.1753</v>
+        <v>34.329</v>
       </c>
       <c r="D16" t="n">
-        <v>40.4551</v>
+        <v>40.6365</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6573</v>
+        <v>17.6629</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5256</v>
+        <v>34.8715</v>
       </c>
       <c r="D17" t="n">
-        <v>40.6384</v>
+        <v>39.9379</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.53364</v>
+        <v>5.5236</v>
       </c>
       <c r="C2" t="n">
-        <v>6.73283</v>
+        <v>6.7473</v>
       </c>
       <c r="D2" t="n">
-        <v>7.33342</v>
+        <v>7.2832</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.95377</v>
+        <v>7.04979</v>
       </c>
       <c r="C3" t="n">
-        <v>9.92163</v>
+        <v>10.0158</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4206</v>
+        <v>11.4335</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.070169999999999</v>
+        <v>9.067970000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7521</v>
+        <v>13.7591</v>
       </c>
       <c r="D4" t="n">
-        <v>16.1712</v>
+        <v>16.0798</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0746</v>
+        <v>11.1033</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5069</v>
+        <v>17.476</v>
       </c>
       <c r="D5" t="n">
-        <v>20.814</v>
+        <v>20.6348</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1469</v>
+        <v>13.1464</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2424</v>
+        <v>21.2405</v>
       </c>
       <c r="D6" t="n">
-        <v>25.3903</v>
+        <v>25.2424</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.188</v>
+        <v>15.2106</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0377</v>
+        <v>24.9587</v>
       </c>
       <c r="D7" t="n">
-        <v>29.9749</v>
+        <v>29.8114</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4681</v>
+        <v>17.4743</v>
       </c>
       <c r="C8" t="n">
-        <v>28.8592</v>
+        <v>28.8218</v>
       </c>
       <c r="D8" t="n">
-        <v>34.5233</v>
+        <v>34.4197</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5429</v>
+        <v>20.5184</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6526</v>
+        <v>33.5622</v>
       </c>
       <c r="D9" t="n">
-        <v>39.9925</v>
+        <v>39.7537</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.5812</v>
+        <v>19.4814</v>
       </c>
       <c r="C10" t="n">
-        <v>31.2924</v>
+        <v>30.6887</v>
       </c>
       <c r="D10" t="n">
-        <v>36.4522</v>
+        <v>36.1052</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.3225</v>
+        <v>19.5408</v>
       </c>
       <c r="C11" t="n">
-        <v>30.724</v>
+        <v>30.7506</v>
       </c>
       <c r="D11" t="n">
-        <v>36.1367</v>
+        <v>35.722</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.6109</v>
+        <v>19.4447</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0318</v>
+        <v>30.744</v>
       </c>
       <c r="D12" t="n">
-        <v>36.7598</v>
+        <v>36.2664</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.841</v>
+        <v>19.7868</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3913</v>
+        <v>31.6847</v>
       </c>
       <c r="D13" t="n">
-        <v>36.7207</v>
+        <v>36.8233</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9803</v>
+        <v>18.9749</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5667</v>
+        <v>30.5575</v>
       </c>
       <c r="D14" t="n">
-        <v>35.8083</v>
+        <v>35.949</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.6707</v>
+        <v>19.8187</v>
       </c>
       <c r="C15" t="n">
-        <v>31.2224</v>
+        <v>31.2926</v>
       </c>
       <c r="D15" t="n">
-        <v>36.8044</v>
+        <v>36.5457</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6523</v>
+        <v>19.6837</v>
       </c>
       <c r="C16" t="n">
-        <v>31.0498</v>
+        <v>31.0015</v>
       </c>
       <c r="D16" t="n">
-        <v>36.4807</v>
+        <v>35.6962</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.9489</v>
+        <v>19.4448</v>
       </c>
       <c r="C17" t="n">
-        <v>30.7262</v>
+        <v>31.1952</v>
       </c>
       <c r="D17" t="n">
-        <v>35.9766</v>
+        <v>36.2381</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.38056</v>
+        <v>5.30302</v>
       </c>
       <c r="C2" t="n">
-        <v>6.1889</v>
+        <v>6.06302</v>
       </c>
       <c r="D2" t="n">
-        <v>6.55589</v>
+        <v>6.61966</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.47582</v>
+        <v>6.35334</v>
       </c>
       <c r="C3" t="n">
-        <v>9.144349999999999</v>
+        <v>9.01477</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1437</v>
+        <v>10.2491</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.89577</v>
+        <v>7.89601</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4502</v>
+        <v>12.3208</v>
       </c>
       <c r="D4" t="n">
-        <v>14.1976</v>
+        <v>14.3704</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.399330000000001</v>
+        <v>9.391970000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5478</v>
+        <v>15.4036</v>
       </c>
       <c r="D5" t="n">
-        <v>18.0521</v>
+        <v>18.3164</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0344</v>
+        <v>10.982</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6184</v>
+        <v>18.4417</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9517</v>
+        <v>22.2118</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6996</v>
+        <v>12.7176</v>
       </c>
       <c r="C7" t="n">
-        <v>21.8777</v>
+        <v>21.7058</v>
       </c>
       <c r="D7" t="n">
-        <v>25.8322</v>
+        <v>26.0588</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0873</v>
+        <v>14.0333</v>
       </c>
       <c r="C8" t="n">
-        <v>24.5977</v>
+        <v>24.3424</v>
       </c>
       <c r="D8" t="n">
-        <v>29.5101</v>
+        <v>29.8395</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.6331</v>
+        <v>16.5087</v>
       </c>
       <c r="C9" t="n">
-        <v>28.7134</v>
+        <v>28.1013</v>
       </c>
       <c r="D9" t="n">
-        <v>32.2068</v>
+        <v>33.7796</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4216</v>
+        <v>13.8728</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2782</v>
+        <v>23.1706</v>
       </c>
       <c r="D10" t="n">
-        <v>27.0682</v>
+        <v>27.2459</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1514</v>
+        <v>14.182</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9451</v>
+        <v>24.0155</v>
       </c>
       <c r="D11" t="n">
-        <v>27.3067</v>
+        <v>28.1941</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.7768</v>
+        <v>14.6932</v>
       </c>
       <c r="C12" t="n">
-        <v>24.894</v>
+        <v>24.6323</v>
       </c>
       <c r="D12" t="n">
-        <v>28.2288</v>
+        <v>29.0349</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0762</v>
+        <v>14.9839</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1901</v>
+        <v>25.2907</v>
       </c>
       <c r="D13" t="n">
-        <v>29.7089</v>
+        <v>30.1542</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0242</v>
+        <v>14.8935</v>
       </c>
       <c r="C14" t="n">
-        <v>24.9122</v>
+        <v>25.2536</v>
       </c>
       <c r="D14" t="n">
-        <v>29.1636</v>
+        <v>28.4398</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1137</v>
+        <v>15.2683</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9217</v>
+        <v>24.8109</v>
       </c>
       <c r="D15" t="n">
-        <v>28.7198</v>
+        <v>28.3075</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5296</v>
+        <v>15.5491</v>
       </c>
       <c r="C16" t="n">
-        <v>25.5289</v>
+        <v>24.5893</v>
       </c>
       <c r="D16" t="n">
-        <v>27.8269</v>
+        <v>29.5962</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.7271</v>
+        <v>15.8746</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2745</v>
+        <v>24.9575</v>
       </c>
       <c r="D17" t="n">
-        <v>29.0518</v>
+        <v>29.156</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.140090000000001</v>
+        <v>9.18543</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3012</v>
+        <v>11.2904</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0311</v>
+        <v>11.2023</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.84282</v>
+        <v>8.80383</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6683</v>
+        <v>13.5953</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7624</v>
+        <v>14.9268</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3278</v>
+        <v>10.3676</v>
       </c>
       <c r="C4" t="n">
-        <v>17.633</v>
+        <v>17.6268</v>
       </c>
       <c r="D4" t="n">
-        <v>19.991</v>
+        <v>20.2413</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.195</v>
+        <v>12.2208</v>
       </c>
       <c r="C5" t="n">
-        <v>21.6181</v>
+        <v>21.4005</v>
       </c>
       <c r="D5" t="n">
-        <v>25.1898</v>
+        <v>25.3788</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.2303</v>
+        <v>14.1732</v>
       </c>
       <c r="C6" t="n">
-        <v>25.5364</v>
+        <v>25.3332</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2253</v>
+        <v>30.4514</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2487</v>
+        <v>16.2825</v>
       </c>
       <c r="C7" t="n">
-        <v>29.7612</v>
+        <v>29.9659</v>
       </c>
       <c r="D7" t="n">
-        <v>35.3119</v>
+        <v>35.4414</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0537</v>
+        <v>18.0114</v>
       </c>
       <c r="C8" t="n">
-        <v>32.9773</v>
+        <v>32.889</v>
       </c>
       <c r="D8" t="n">
-        <v>39.5214</v>
+        <v>40.1067</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1215</v>
+        <v>21.1409</v>
       </c>
       <c r="C9" t="n">
-        <v>38.8234</v>
+        <v>37.8887</v>
       </c>
       <c r="D9" t="n">
-        <v>44.3103</v>
+        <v>45.3602</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.6086</v>
+        <v>18.325</v>
       </c>
       <c r="C10" t="n">
-        <v>32.883</v>
+        <v>32.9583</v>
       </c>
       <c r="D10" t="n">
-        <v>37.7685</v>
+        <v>37.6516</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.4265</v>
+        <v>18.1146</v>
       </c>
       <c r="C11" t="n">
-        <v>32.6356</v>
+        <v>32.9262</v>
       </c>
       <c r="D11" t="n">
-        <v>36.7753</v>
+        <v>35.9459</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.7376</v>
+        <v>18.6728</v>
       </c>
       <c r="C12" t="n">
-        <v>32.7472</v>
+        <v>33.0552</v>
       </c>
       <c r="D12" t="n">
-        <v>37.2315</v>
+        <v>37.9682</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.245</v>
+        <v>19.2732</v>
       </c>
       <c r="C13" t="n">
-        <v>34.4455</v>
+        <v>34.6839</v>
       </c>
       <c r="D13" t="n">
-        <v>39.0698</v>
+        <v>38.8279</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0127</v>
+        <v>19.1229</v>
       </c>
       <c r="C14" t="n">
-        <v>33.6082</v>
+        <v>33.3653</v>
       </c>
       <c r="D14" t="n">
-        <v>36.8145</v>
+        <v>38.174</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3873</v>
+        <v>19.0707</v>
       </c>
       <c r="C15" t="n">
-        <v>31.7065</v>
+        <v>33.6384</v>
       </c>
       <c r="D15" t="n">
-        <v>36.6543</v>
+        <v>38.8529</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7036</v>
+        <v>19.8297</v>
       </c>
       <c r="C16" t="n">
-        <v>32.9592</v>
+        <v>34.8346</v>
       </c>
       <c r="D16" t="n">
-        <v>37.5255</v>
+        <v>37.8783</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6252</v>
+        <v>19.5291</v>
       </c>
       <c r="C17" t="n">
-        <v>33.1431</v>
+        <v>33.6182</v>
       </c>
       <c r="D17" t="n">
-        <v>37.2312</v>
+        <v>36.5446</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.83984</v>
+        <v>6.84273</v>
       </c>
       <c r="C2" t="n">
-        <v>7.21437</v>
+        <v>7.20806</v>
       </c>
       <c r="D2" t="n">
-        <v>7.49887</v>
+        <v>7.56128</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.34449</v>
+        <v>7.43644</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0491</v>
+        <v>10.1333</v>
       </c>
       <c r="D3" t="n">
-        <v>11.2252</v>
+        <v>11.3789</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.26384</v>
+        <v>9.2622</v>
       </c>
       <c r="C4" t="n">
-        <v>13.882</v>
+        <v>13.9291</v>
       </c>
       <c r="D4" t="n">
-        <v>15.8776</v>
+        <v>16.0166</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1446</v>
+        <v>11.1288</v>
       </c>
       <c r="C5" t="n">
-        <v>17.6995</v>
+        <v>17.6927</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4018</v>
+        <v>20.5772</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1239</v>
+        <v>13.1155</v>
       </c>
       <c r="C6" t="n">
-        <v>21.3544</v>
+        <v>21.4111</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8266</v>
+        <v>24.9334</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1393</v>
+        <v>15.3308</v>
       </c>
       <c r="C7" t="n">
-        <v>24.898</v>
+        <v>25.3507</v>
       </c>
       <c r="D7" t="n">
-        <v>28.9513</v>
+        <v>29.5093</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.3397</v>
+        <v>17.3154</v>
       </c>
       <c r="C8" t="n">
-        <v>28.7073</v>
+        <v>28.7231</v>
       </c>
       <c r="D8" t="n">
-        <v>33.5012</v>
+        <v>33.7155</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0424</v>
+        <v>20.0343</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3393</v>
+        <v>33.1607</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0737</v>
+        <v>38.2527</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6287</v>
+        <v>17.8465</v>
       </c>
       <c r="C10" t="n">
-        <v>27.9109</v>
+        <v>27.7515</v>
       </c>
       <c r="D10" t="n">
-        <v>31.5372</v>
+        <v>31.5455</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2892</v>
+        <v>17.0424</v>
       </c>
       <c r="C11" t="n">
-        <v>27.9261</v>
+        <v>27.9358</v>
       </c>
       <c r="D11" t="n">
-        <v>31.7455</v>
+        <v>31.8442</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7877</v>
+        <v>17.9133</v>
       </c>
       <c r="C12" t="n">
-        <v>28.973</v>
+        <v>29.246</v>
       </c>
       <c r="D12" t="n">
-        <v>33.2287</v>
+        <v>32.9427</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.4383</v>
+        <v>18.5754</v>
       </c>
       <c r="C13" t="n">
-        <v>29.3201</v>
+        <v>29.8127</v>
       </c>
       <c r="D13" t="n">
-        <v>32.6886</v>
+        <v>33.6048</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.2667</v>
+        <v>18.3246</v>
       </c>
       <c r="C14" t="n">
-        <v>28.8586</v>
+        <v>28.2408</v>
       </c>
       <c r="D14" t="n">
-        <v>31.1019</v>
+        <v>32.4601</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.4909</v>
+        <v>18.6489</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2895</v>
+        <v>28.688</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4288</v>
+        <v>31.8074</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.7922</v>
+        <v>18.983</v>
       </c>
       <c r="C16" t="n">
-        <v>29.5036</v>
+        <v>28.8722</v>
       </c>
       <c r="D16" t="n">
-        <v>31.412</v>
+        <v>32.0255</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.9688</v>
+        <v>18.9025</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1015</v>
+        <v>29.0622</v>
       </c>
       <c r="D17" t="n">
-        <v>31.251</v>
+        <v>32.2146</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.07305</v>
+        <v>3.03564</v>
       </c>
       <c r="C2" t="n">
-        <v>5.31458</v>
+        <v>5.21676</v>
       </c>
       <c r="D2" t="n">
-        <v>5.89583</v>
+        <v>5.96243</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.92023</v>
+        <v>4.92606</v>
       </c>
       <c r="C3" t="n">
-        <v>8.65049</v>
+        <v>8.58827</v>
       </c>
       <c r="D3" t="n">
-        <v>9.936920000000001</v>
+        <v>10.1018</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.68255</v>
+        <v>6.66875</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0405</v>
+        <v>11.8957</v>
       </c>
       <c r="D4" t="n">
-        <v>14.131</v>
+        <v>14.293</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.22626</v>
+        <v>8.23673</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2278</v>
+        <v>15.0395</v>
       </c>
       <c r="D5" t="n">
-        <v>18.0842</v>
+        <v>18.3129</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.803089999999999</v>
+        <v>9.78729</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3612</v>
+        <v>18.1301</v>
       </c>
       <c r="D6" t="n">
-        <v>22.0999</v>
+        <v>22.3295</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3429</v>
+        <v>11.2218</v>
       </c>
       <c r="C7" t="n">
-        <v>21.3401</v>
+        <v>21.0932</v>
       </c>
       <c r="D7" t="n">
-        <v>25.9468</v>
+        <v>26.2662</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7565</v>
+        <v>12.718</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3891</v>
+        <v>24.0398</v>
       </c>
       <c r="D8" t="n">
-        <v>29.8269</v>
+        <v>30.1534</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9667</v>
+        <v>14.9042</v>
       </c>
       <c r="C9" t="n">
-        <v>28.9448</v>
+        <v>28.7319</v>
       </c>
       <c r="D9" t="n">
-        <v>34.2942</v>
+        <v>34.6365</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4303</v>
+        <v>14.2698</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7526</v>
+        <v>26.5429</v>
       </c>
       <c r="D10" t="n">
-        <v>31.5767</v>
+        <v>31.8097</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0914</v>
+        <v>13.9909</v>
       </c>
       <c r="C11" t="n">
-        <v>26.6707</v>
+        <v>26.0246</v>
       </c>
       <c r="D11" t="n">
-        <v>31.0988</v>
+        <v>30.9804</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3546</v>
+        <v>14.1272</v>
       </c>
       <c r="C12" t="n">
-        <v>26.8197</v>
+        <v>26.4486</v>
       </c>
       <c r="D12" t="n">
-        <v>31.2497</v>
+        <v>31.4331</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.6503</v>
+        <v>14.4738</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9967</v>
+        <v>27.0309</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9778</v>
+        <v>32.0663</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.0042</v>
+        <v>13.9905</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0406</v>
+        <v>25.8146</v>
       </c>
       <c r="D14" t="n">
-        <v>30.2527</v>
+        <v>30.8367</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.669</v>
+        <v>14.5615</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6778</v>
+        <v>26.3999</v>
       </c>
       <c r="D15" t="n">
-        <v>30.8347</v>
+        <v>31.2092</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5852</v>
+        <v>14.4851</v>
       </c>
       <c r="C16" t="n">
-        <v>26.1998</v>
+        <v>26.2619</v>
       </c>
       <c r="D16" t="n">
-        <v>30.4976</v>
+        <v>30.949</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4767</v>
+        <v>14.445</v>
       </c>
       <c r="C17" t="n">
-        <v>26.5199</v>
+        <v>26.1048</v>
       </c>
       <c r="D17" t="n">
-        <v>30.9198</v>
+        <v>31.4327</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.07082</v>
+        <v>4.07996</v>
       </c>
       <c r="C2" t="n">
-        <v>8.643039999999999</v>
+        <v>8.64241</v>
       </c>
       <c r="D2" t="n">
-        <v>9.39526</v>
+        <v>9.582039999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.14914</v>
+        <v>6.13636</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4689</v>
+        <v>12.5082</v>
       </c>
       <c r="D3" t="n">
-        <v>14.343</v>
+        <v>14.603</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.3422</v>
+        <v>8.34933</v>
       </c>
       <c r="C4" t="n">
-        <v>16.8076</v>
+        <v>16.7977</v>
       </c>
       <c r="D4" t="n">
-        <v>19.8531</v>
+        <v>20.1574</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2214</v>
+        <v>10.1509</v>
       </c>
       <c r="C5" t="n">
-        <v>20.8309</v>
+        <v>20.8258</v>
       </c>
       <c r="D5" t="n">
-        <v>24.9223</v>
+        <v>25.3613</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0749</v>
+        <v>12.0711</v>
       </c>
       <c r="C6" t="n">
-        <v>24.879</v>
+        <v>24.8333</v>
       </c>
       <c r="D6" t="n">
-        <v>30.1356</v>
+        <v>30.7419</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.8473</v>
+        <v>13.9167</v>
       </c>
       <c r="C7" t="n">
-        <v>28.763</v>
+        <v>28.7401</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2528</v>
+        <v>35.8132</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.719</v>
+        <v>15.7134</v>
       </c>
       <c r="C8" t="n">
-        <v>32.6702</v>
+        <v>32.75</v>
       </c>
       <c r="D8" t="n">
-        <v>40.2776</v>
+        <v>40.9537</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3299</v>
+        <v>18.3167</v>
       </c>
       <c r="C9" t="n">
-        <v>38.7983</v>
+        <v>38.9246</v>
       </c>
       <c r="D9" t="n">
-        <v>46.3646</v>
+        <v>46.9816</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4076</v>
+        <v>17.2478</v>
       </c>
       <c r="C10" t="n">
-        <v>35.9</v>
+        <v>35.8461</v>
       </c>
       <c r="D10" t="n">
-        <v>42.5244</v>
+        <v>43.1787</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2927</v>
+        <v>17.383</v>
       </c>
       <c r="C11" t="n">
-        <v>35.5654</v>
+        <v>34.7489</v>
       </c>
       <c r="D11" t="n">
-        <v>41.1106</v>
+        <v>41.8091</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3237</v>
+        <v>17.4268</v>
       </c>
       <c r="C12" t="n">
-        <v>35.8916</v>
+        <v>35.6737</v>
       </c>
       <c r="D12" t="n">
-        <v>41.9889</v>
+        <v>41.8592</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.676</v>
+        <v>17.6308</v>
       </c>
       <c r="C13" t="n">
-        <v>36.1768</v>
+        <v>36.0134</v>
       </c>
       <c r="D13" t="n">
-        <v>42.006</v>
+        <v>42.7504</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1589</v>
+        <v>17.1772</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5535</v>
+        <v>34.9784</v>
       </c>
       <c r="D14" t="n">
-        <v>40.2857</v>
+        <v>40.376</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6301</v>
+        <v>17.6625</v>
       </c>
       <c r="C15" t="n">
-        <v>35.5788</v>
+        <v>35.0986</v>
       </c>
       <c r="D15" t="n">
-        <v>40.6066</v>
+        <v>40.8902</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6721</v>
+        <v>17.8272</v>
       </c>
       <c r="C16" t="n">
-        <v>34.329</v>
+        <v>34.314</v>
       </c>
       <c r="D16" t="n">
-        <v>40.6365</v>
+        <v>41.0457</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6629</v>
+        <v>17.6489</v>
       </c>
       <c r="C17" t="n">
-        <v>34.8715</v>
+        <v>34.5113</v>
       </c>
       <c r="D17" t="n">
-        <v>39.9379</v>
+        <v>40.3566</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5236</v>
+        <v>5.51778</v>
       </c>
       <c r="C2" t="n">
-        <v>6.7473</v>
+        <v>6.7385</v>
       </c>
       <c r="D2" t="n">
-        <v>7.2832</v>
+        <v>7.34923</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.04979</v>
+        <v>6.94133</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0158</v>
+        <v>9.96453</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4335</v>
+        <v>11.4495</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.067970000000001</v>
+        <v>9.115320000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7591</v>
+        <v>13.8114</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0798</v>
+        <v>16.2623</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1033</v>
+        <v>11.1038</v>
       </c>
       <c r="C5" t="n">
-        <v>17.476</v>
+        <v>17.5282</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6348</v>
+        <v>20.781</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1464</v>
+        <v>13.1418</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2405</v>
+        <v>21.2847</v>
       </c>
       <c r="D6" t="n">
-        <v>25.2424</v>
+        <v>25.4955</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.2106</v>
+        <v>15.1846</v>
       </c>
       <c r="C7" t="n">
-        <v>24.9587</v>
+        <v>25.047</v>
       </c>
       <c r="D7" t="n">
-        <v>29.8114</v>
+        <v>30.0971</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4743</v>
+        <v>17.4266</v>
       </c>
       <c r="C8" t="n">
-        <v>28.8218</v>
+        <v>28.9177</v>
       </c>
       <c r="D8" t="n">
-        <v>34.4197</v>
+        <v>34.6886</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5184</v>
+        <v>20.5542</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5622</v>
+        <v>33.6266</v>
       </c>
       <c r="D9" t="n">
-        <v>39.7537</v>
+        <v>40.0863</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.4814</v>
+        <v>19.29</v>
       </c>
       <c r="C10" t="n">
-        <v>30.6887</v>
+        <v>30.8333</v>
       </c>
       <c r="D10" t="n">
-        <v>36.1052</v>
+        <v>36.5307</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.5408</v>
+        <v>19.3698</v>
       </c>
       <c r="C11" t="n">
-        <v>30.7506</v>
+        <v>30.4899</v>
       </c>
       <c r="D11" t="n">
-        <v>35.722</v>
+        <v>36.0047</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.4447</v>
+        <v>19.4725</v>
       </c>
       <c r="C12" t="n">
-        <v>30.744</v>
+        <v>30.9085</v>
       </c>
       <c r="D12" t="n">
-        <v>36.2664</v>
+        <v>36.6044</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7868</v>
+        <v>19.5387</v>
       </c>
       <c r="C13" t="n">
-        <v>31.6847</v>
+        <v>31.8891</v>
       </c>
       <c r="D13" t="n">
-        <v>36.8233</v>
+        <v>37.4904</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9749</v>
+        <v>19.0483</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5575</v>
+        <v>30.2276</v>
       </c>
       <c r="D14" t="n">
-        <v>35.949</v>
+        <v>35.8076</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.8187</v>
+        <v>19.7873</v>
       </c>
       <c r="C15" t="n">
-        <v>31.2926</v>
+        <v>31.5249</v>
       </c>
       <c r="D15" t="n">
-        <v>36.5457</v>
+        <v>36.3877</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6837</v>
+        <v>19.7001</v>
       </c>
       <c r="C16" t="n">
-        <v>31.0015</v>
+        <v>31.4371</v>
       </c>
       <c r="D16" t="n">
-        <v>35.6962</v>
+        <v>36.546</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4448</v>
+        <v>19.557</v>
       </c>
       <c r="C17" t="n">
-        <v>31.1952</v>
+        <v>30.4106</v>
       </c>
       <c r="D17" t="n">
-        <v>36.2381</v>
+        <v>36.9237</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.30302</v>
+        <v>5.34534</v>
       </c>
       <c r="C2" t="n">
-        <v>6.06302</v>
+        <v>6.19743</v>
       </c>
       <c r="D2" t="n">
-        <v>6.61966</v>
+        <v>6.6093</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.35334</v>
+        <v>6.44624</v>
       </c>
       <c r="C3" t="n">
-        <v>9.01477</v>
+        <v>9.156129999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>10.2491</v>
+        <v>10.2581</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.89601</v>
+        <v>7.87228</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3208</v>
+        <v>12.4773</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3704</v>
+        <v>14.3919</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.391970000000001</v>
+        <v>9.36403</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4036</v>
+        <v>15.6212</v>
       </c>
       <c r="D5" t="n">
-        <v>18.3164</v>
+        <v>18.301</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.982</v>
+        <v>10.9517</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4417</v>
+        <v>18.6115</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2118</v>
+        <v>22.2247</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7176</v>
+        <v>12.7197</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7058</v>
+        <v>21.9031</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0588</v>
+        <v>26.0927</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0333</v>
+        <v>14.0672</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3424</v>
+        <v>24.6616</v>
       </c>
       <c r="D8" t="n">
-        <v>29.8395</v>
+        <v>29.8903</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5087</v>
+        <v>16.5605</v>
       </c>
       <c r="C9" t="n">
-        <v>28.1013</v>
+        <v>28.7987</v>
       </c>
       <c r="D9" t="n">
-        <v>33.7796</v>
+        <v>33.8072</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8728</v>
+        <v>14.174</v>
       </c>
       <c r="C10" t="n">
-        <v>23.1706</v>
+        <v>23.7748</v>
       </c>
       <c r="D10" t="n">
-        <v>27.2459</v>
+        <v>26.9342</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.182</v>
+        <v>14.267</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0155</v>
+        <v>23.578</v>
       </c>
       <c r="D11" t="n">
-        <v>28.1941</v>
+        <v>28.0276</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6932</v>
+        <v>14.6579</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6323</v>
+        <v>25.4353</v>
       </c>
       <c r="D12" t="n">
-        <v>29.0349</v>
+        <v>28.2014</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9839</v>
+        <v>15.2019</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2907</v>
+        <v>26.5189</v>
       </c>
       <c r="D13" t="n">
-        <v>30.1542</v>
+        <v>28.7069</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8935</v>
+        <v>14.975</v>
       </c>
       <c r="C14" t="n">
-        <v>25.2536</v>
+        <v>25.5806</v>
       </c>
       <c r="D14" t="n">
-        <v>28.4398</v>
+        <v>28.3662</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2683</v>
+        <v>15.1771</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8109</v>
+        <v>24.9905</v>
       </c>
       <c r="D15" t="n">
-        <v>28.3075</v>
+        <v>28.8962</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5491</v>
+        <v>15.5649</v>
       </c>
       <c r="C16" t="n">
-        <v>24.5893</v>
+        <v>25.7139</v>
       </c>
       <c r="D16" t="n">
-        <v>29.5962</v>
+        <v>29.5696</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8746</v>
+        <v>15.2151</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9575</v>
+        <v>25.7991</v>
       </c>
       <c r="D17" t="n">
-        <v>29.156</v>
+        <v>27.8683</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.18543</v>
+        <v>9.143409999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2904</v>
+        <v>11.3052</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2023</v>
+        <v>11.2127</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.80383</v>
+        <v>8.829000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5953</v>
+        <v>13.6053</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9268</v>
+        <v>14.948</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3676</v>
+        <v>10.3566</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6268</v>
+        <v>17.6631</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2413</v>
+        <v>20.3085</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2208</v>
+        <v>12.204</v>
       </c>
       <c r="C5" t="n">
-        <v>21.4005</v>
+        <v>21.5576</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3788</v>
+        <v>25.4135</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.1732</v>
+        <v>14.1234</v>
       </c>
       <c r="C6" t="n">
-        <v>25.3332</v>
+        <v>25.2696</v>
       </c>
       <c r="D6" t="n">
-        <v>30.4514</v>
+        <v>30.3613</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2825</v>
+        <v>16.287</v>
       </c>
       <c r="C7" t="n">
-        <v>29.9659</v>
+        <v>29.9151</v>
       </c>
       <c r="D7" t="n">
-        <v>35.4414</v>
+        <v>35.5594</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0114</v>
+        <v>17.9794</v>
       </c>
       <c r="C8" t="n">
-        <v>32.889</v>
+        <v>32.9238</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1067</v>
+        <v>40.2462</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1409</v>
+        <v>21.1132</v>
       </c>
       <c r="C9" t="n">
-        <v>37.8887</v>
+        <v>38.5387</v>
       </c>
       <c r="D9" t="n">
-        <v>45.3602</v>
+        <v>45.8987</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.325</v>
+        <v>18.4638</v>
       </c>
       <c r="C10" t="n">
-        <v>32.9583</v>
+        <v>33.4521</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6516</v>
+        <v>38.021</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1146</v>
+        <v>18.2182</v>
       </c>
       <c r="C11" t="n">
-        <v>32.9262</v>
+        <v>32.6647</v>
       </c>
       <c r="D11" t="n">
-        <v>35.9459</v>
+        <v>37.307</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.6728</v>
+        <v>18.6509</v>
       </c>
       <c r="C12" t="n">
-        <v>33.0552</v>
+        <v>33.2022</v>
       </c>
       <c r="D12" t="n">
-        <v>37.9682</v>
+        <v>38.4254</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.2732</v>
+        <v>19.512</v>
       </c>
       <c r="C13" t="n">
-        <v>34.6839</v>
+        <v>33.0098</v>
       </c>
       <c r="D13" t="n">
-        <v>38.8279</v>
+        <v>39.438</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1229</v>
+        <v>19.2155</v>
       </c>
       <c r="C14" t="n">
-        <v>33.3653</v>
+        <v>33.8189</v>
       </c>
       <c r="D14" t="n">
-        <v>38.174</v>
+        <v>37.8352</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0707</v>
+        <v>19.4311</v>
       </c>
       <c r="C15" t="n">
-        <v>33.6384</v>
+        <v>33.3384</v>
       </c>
       <c r="D15" t="n">
-        <v>38.8529</v>
+        <v>37.7846</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.8297</v>
+        <v>19.8234</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8346</v>
+        <v>33.0582</v>
       </c>
       <c r="D16" t="n">
-        <v>37.8783</v>
+        <v>37.8837</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.5291</v>
+        <v>19.8777</v>
       </c>
       <c r="C17" t="n">
-        <v>33.6182</v>
+        <v>32.8322</v>
       </c>
       <c r="D17" t="n">
-        <v>36.5446</v>
+        <v>37.4668</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.84273</v>
+        <v>6.8448</v>
       </c>
       <c r="C2" t="n">
-        <v>7.20806</v>
+        <v>7.21668</v>
       </c>
       <c r="D2" t="n">
-        <v>7.56128</v>
+        <v>7.56067</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.43644</v>
+        <v>7.35115</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1333</v>
+        <v>10.1042</v>
       </c>
       <c r="D3" t="n">
-        <v>11.3789</v>
+        <v>11.3512</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.2622</v>
+        <v>9.28035</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9291</v>
+        <v>13.9487</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0166</v>
+        <v>16.0594</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1288</v>
+        <v>11.1278</v>
       </c>
       <c r="C5" t="n">
-        <v>17.6927</v>
+        <v>17.7074</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5772</v>
+        <v>20.6203</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1155</v>
+        <v>13.225</v>
       </c>
       <c r="C6" t="n">
-        <v>21.4111</v>
+        <v>21.5199</v>
       </c>
       <c r="D6" t="n">
-        <v>24.9334</v>
+        <v>25.1437</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.3308</v>
+        <v>15.2991</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3507</v>
+        <v>25.3432</v>
       </c>
       <c r="D7" t="n">
-        <v>29.5093</v>
+        <v>29.5484</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.3154</v>
+        <v>17.3127</v>
       </c>
       <c r="C8" t="n">
-        <v>28.7231</v>
+        <v>28.7409</v>
       </c>
       <c r="D8" t="n">
-        <v>33.7155</v>
+        <v>33.7063</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0343</v>
+        <v>19.9968</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1607</v>
+        <v>33.2722</v>
       </c>
       <c r="D9" t="n">
-        <v>38.2527</v>
+        <v>38.3161</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8465</v>
+        <v>17.7067</v>
       </c>
       <c r="C10" t="n">
-        <v>27.7515</v>
+        <v>28.0623</v>
       </c>
       <c r="D10" t="n">
-        <v>31.5455</v>
+        <v>31.0917</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0424</v>
+        <v>17.1392</v>
       </c>
       <c r="C11" t="n">
-        <v>27.9358</v>
+        <v>28.4293</v>
       </c>
       <c r="D11" t="n">
-        <v>31.8442</v>
+        <v>31.8141</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9133</v>
+        <v>17.9866</v>
       </c>
       <c r="C12" t="n">
-        <v>29.246</v>
+        <v>27.9627</v>
       </c>
       <c r="D12" t="n">
-        <v>32.9427</v>
+        <v>33.0585</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.5754</v>
+        <v>18.6112</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8127</v>
+        <v>29.1789</v>
       </c>
       <c r="D13" t="n">
-        <v>33.6048</v>
+        <v>32.3449</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.3246</v>
+        <v>18.1757</v>
       </c>
       <c r="C14" t="n">
-        <v>28.2408</v>
+        <v>28.5824</v>
       </c>
       <c r="D14" t="n">
-        <v>32.4601</v>
+        <v>32.1893</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6489</v>
+        <v>18.178</v>
       </c>
       <c r="C15" t="n">
-        <v>28.688</v>
+        <v>28.4969</v>
       </c>
       <c r="D15" t="n">
-        <v>31.8074</v>
+        <v>31.7101</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.983</v>
+        <v>18.8119</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8722</v>
+        <v>28.9535</v>
       </c>
       <c r="D16" t="n">
-        <v>32.0255</v>
+        <v>32.1306</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.9025</v>
+        <v>18.9136</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0622</v>
+        <v>29.4099</v>
       </c>
       <c r="D17" t="n">
-        <v>32.2146</v>
+        <v>31.4399</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.03564</v>
+        <v>3.06252</v>
       </c>
       <c r="C2" t="n">
-        <v>5.21676</v>
+        <v>5.3175</v>
       </c>
       <c r="D2" t="n">
-        <v>5.96243</v>
+        <v>5.96307</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.92606</v>
+        <v>4.90217</v>
       </c>
       <c r="C3" t="n">
-        <v>8.58827</v>
+        <v>8.66376</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1018</v>
+        <v>10.0512</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.66875</v>
+        <v>6.67896</v>
       </c>
       <c r="C4" t="n">
-        <v>11.8957</v>
+        <v>12.0778</v>
       </c>
       <c r="D4" t="n">
-        <v>14.293</v>
+        <v>14.3043</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.23673</v>
+        <v>8.22259</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0395</v>
+        <v>15.2451</v>
       </c>
       <c r="D5" t="n">
-        <v>18.3129</v>
+        <v>18.2777</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.78729</v>
+        <v>9.7843</v>
       </c>
       <c r="C6" t="n">
-        <v>18.1301</v>
+        <v>18.402</v>
       </c>
       <c r="D6" t="n">
-        <v>22.3295</v>
+        <v>22.3552</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2218</v>
+        <v>11.3017</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0932</v>
+        <v>21.4402</v>
       </c>
       <c r="D7" t="n">
-        <v>26.2662</v>
+        <v>26.3022</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.718</v>
+        <v>12.7491</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0398</v>
+        <v>24.4443</v>
       </c>
       <c r="D8" t="n">
-        <v>30.1534</v>
+        <v>30.137</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9042</v>
+        <v>14.9016</v>
       </c>
       <c r="C9" t="n">
-        <v>28.7319</v>
+        <v>29.1125</v>
       </c>
       <c r="D9" t="n">
-        <v>34.6365</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2698</v>
+        <v>14.2843</v>
       </c>
       <c r="C10" t="n">
-        <v>26.5429</v>
+        <v>27.0166</v>
       </c>
       <c r="D10" t="n">
-        <v>31.8097</v>
+        <v>31.9297</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9909</v>
+        <v>14.1995</v>
       </c>
       <c r="C11" t="n">
-        <v>26.0246</v>
+        <v>26.2668</v>
       </c>
       <c r="D11" t="n">
-        <v>30.9804</v>
+        <v>31.3396</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1272</v>
+        <v>14.3214</v>
       </c>
       <c r="C12" t="n">
-        <v>26.4486</v>
+        <v>27.0735</v>
       </c>
       <c r="D12" t="n">
-        <v>31.4331</v>
+        <v>31.5702</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4738</v>
+        <v>14.5419</v>
       </c>
       <c r="C13" t="n">
-        <v>27.0309</v>
+        <v>27.4652</v>
       </c>
       <c r="D13" t="n">
-        <v>32.0663</v>
+        <v>31.9927</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9905</v>
+        <v>13.9938</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8146</v>
+        <v>26.4243</v>
       </c>
       <c r="D14" t="n">
-        <v>30.8367</v>
+        <v>30.9269</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5615</v>
+        <v>14.5687</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3999</v>
+        <v>26.4597</v>
       </c>
       <c r="D15" t="n">
-        <v>31.2092</v>
+        <v>30.7205</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4851</v>
+        <v>14.5318</v>
       </c>
       <c r="C16" t="n">
-        <v>26.2619</v>
+        <v>26.6249</v>
       </c>
       <c r="D16" t="n">
-        <v>30.949</v>
+        <v>31.3186</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.445</v>
+        <v>14.486</v>
       </c>
       <c r="C17" t="n">
-        <v>26.1048</v>
+        <v>26.856</v>
       </c>
       <c r="D17" t="n">
-        <v>31.4327</v>
+        <v>31.1669</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.07996</v>
+        <v>4.07319</v>
       </c>
       <c r="C2" t="n">
-        <v>8.64241</v>
+        <v>8.65128</v>
       </c>
       <c r="D2" t="n">
-        <v>9.582039999999999</v>
+        <v>9.58309</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.13636</v>
+        <v>6.22417</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5082</v>
+        <v>12.5063</v>
       </c>
       <c r="D3" t="n">
-        <v>14.603</v>
+        <v>14.6006</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.34933</v>
+        <v>8.19692</v>
       </c>
       <c r="C4" t="n">
-        <v>16.7977</v>
+        <v>16.8126</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1574</v>
+        <v>20.1735</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1509</v>
+        <v>10.209</v>
       </c>
       <c r="C5" t="n">
-        <v>20.8258</v>
+        <v>20.7995</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3613</v>
+        <v>25.3372</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0711</v>
+        <v>12.1282</v>
       </c>
       <c r="C6" t="n">
-        <v>24.8333</v>
+        <v>24.7577</v>
       </c>
       <c r="D6" t="n">
-        <v>30.7419</v>
+        <v>30.6184</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9167</v>
+        <v>13.9916</v>
       </c>
       <c r="C7" t="n">
-        <v>28.7401</v>
+        <v>28.8647</v>
       </c>
       <c r="D7" t="n">
-        <v>35.8132</v>
+        <v>35.9641</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7134</v>
+        <v>15.723</v>
       </c>
       <c r="C8" t="n">
-        <v>32.75</v>
+        <v>32.6961</v>
       </c>
       <c r="D8" t="n">
-        <v>40.9537</v>
+        <v>40.9871</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3167</v>
+        <v>18.3434</v>
       </c>
       <c r="C9" t="n">
-        <v>38.9246</v>
+        <v>38.8698</v>
       </c>
       <c r="D9" t="n">
-        <v>46.9816</v>
+        <v>47.1432</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2478</v>
+        <v>17.4401</v>
       </c>
       <c r="C10" t="n">
-        <v>35.8461</v>
+        <v>35.9791</v>
       </c>
       <c r="D10" t="n">
-        <v>43.1787</v>
+        <v>42.7424</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.383</v>
+        <v>17.4357</v>
       </c>
       <c r="C11" t="n">
-        <v>34.7489</v>
+        <v>35.3605</v>
       </c>
       <c r="D11" t="n">
-        <v>41.8091</v>
+        <v>41.8417</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4268</v>
+        <v>17.4111</v>
       </c>
       <c r="C12" t="n">
-        <v>35.6737</v>
+        <v>35.377</v>
       </c>
       <c r="D12" t="n">
-        <v>41.8592</v>
+        <v>42.314</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6308</v>
+        <v>17.7637</v>
       </c>
       <c r="C13" t="n">
-        <v>36.0134</v>
+        <v>36.009</v>
       </c>
       <c r="D13" t="n">
-        <v>42.7504</v>
+        <v>42.4105</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1772</v>
+        <v>17.19</v>
       </c>
       <c r="C14" t="n">
-        <v>34.9784</v>
+        <v>34.7212</v>
       </c>
       <c r="D14" t="n">
-        <v>40.376</v>
+        <v>41.6073</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6625</v>
+        <v>17.8506</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0986</v>
+        <v>34.6474</v>
       </c>
       <c r="D15" t="n">
-        <v>40.8902</v>
+        <v>40.8631</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8272</v>
+        <v>17.8009</v>
       </c>
       <c r="C16" t="n">
-        <v>34.314</v>
+        <v>35.3032</v>
       </c>
       <c r="D16" t="n">
-        <v>41.0457</v>
+        <v>40.751</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6489</v>
+        <v>17.57</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5113</v>
+        <v>34.6574</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3566</v>
+        <v>41.3567</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.51778</v>
+        <v>5.49962</v>
       </c>
       <c r="C2" t="n">
-        <v>6.7385</v>
+        <v>6.74531</v>
       </c>
       <c r="D2" t="n">
-        <v>7.34923</v>
+        <v>7.34214</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.94133</v>
+        <v>7.06244</v>
       </c>
       <c r="C3" t="n">
-        <v>9.96453</v>
+        <v>10.0009</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4495</v>
+        <v>11.4896</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.115320000000001</v>
+        <v>9.07098</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8114</v>
+        <v>13.7345</v>
       </c>
       <c r="D4" t="n">
-        <v>16.2623</v>
+        <v>16.2306</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1038</v>
+        <v>11.0747</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5282</v>
+        <v>17.4859</v>
       </c>
       <c r="D5" t="n">
-        <v>20.781</v>
+        <v>20.7923</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1418</v>
+        <v>13.1057</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2847</v>
+        <v>21.2512</v>
       </c>
       <c r="D6" t="n">
-        <v>25.4955</v>
+        <v>25.4355</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1846</v>
+        <v>15.1655</v>
       </c>
       <c r="C7" t="n">
-        <v>25.047</v>
+        <v>24.9817</v>
       </c>
       <c r="D7" t="n">
-        <v>30.0971</v>
+        <v>30.0601</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4266</v>
+        <v>17.4109</v>
       </c>
       <c r="C8" t="n">
-        <v>28.9177</v>
+        <v>28.8838</v>
       </c>
       <c r="D8" t="n">
-        <v>34.6886</v>
+        <v>34.7249</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5542</v>
+        <v>20.5173</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6266</v>
+        <v>33.6409</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0863</v>
+        <v>40.1078</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.29</v>
+        <v>19.5347</v>
       </c>
       <c r="C10" t="n">
-        <v>30.8333</v>
+        <v>30.8415</v>
       </c>
       <c r="D10" t="n">
-        <v>36.5307</v>
+        <v>36.1007</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.3698</v>
+        <v>19.3597</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4899</v>
+        <v>30.8724</v>
       </c>
       <c r="D11" t="n">
-        <v>36.0047</v>
+        <v>36.3604</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.4725</v>
+        <v>19.5644</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9085</v>
+        <v>31.0025</v>
       </c>
       <c r="D12" t="n">
-        <v>36.6044</v>
+        <v>36.8698</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5387</v>
+        <v>19.5895</v>
       </c>
       <c r="C13" t="n">
-        <v>31.8891</v>
+        <v>31.6173</v>
       </c>
       <c r="D13" t="n">
-        <v>37.4904</v>
+        <v>37.0441</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0483</v>
+        <v>19.0907</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2276</v>
+        <v>30.479</v>
       </c>
       <c r="D14" t="n">
-        <v>35.8076</v>
+        <v>35.6651</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.7873</v>
+        <v>19.7379</v>
       </c>
       <c r="C15" t="n">
-        <v>31.5249</v>
+        <v>31.5356</v>
       </c>
       <c r="D15" t="n">
-        <v>36.3877</v>
+        <v>36.7566</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7001</v>
+        <v>19.6599</v>
       </c>
       <c r="C16" t="n">
-        <v>31.4371</v>
+        <v>31.2973</v>
       </c>
       <c r="D16" t="n">
-        <v>36.546</v>
+        <v>36.1096</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.557</v>
+        <v>19.7289</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4106</v>
+        <v>31.2374</v>
       </c>
       <c r="D17" t="n">
-        <v>36.9237</v>
+        <v>36.3804</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.34534</v>
+        <v>5.35586</v>
       </c>
       <c r="C2" t="n">
-        <v>6.19743</v>
+        <v>4.6049</v>
       </c>
       <c r="D2" t="n">
-        <v>6.6093</v>
+        <v>6.60442</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.44624</v>
+        <v>6.32657</v>
       </c>
       <c r="C3" t="n">
-        <v>9.156129999999999</v>
+        <v>7.29571</v>
       </c>
       <c r="D3" t="n">
-        <v>10.2581</v>
+        <v>10.1736</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.87228</v>
+        <v>7.88613</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4773</v>
+        <v>10.2142</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3919</v>
+        <v>14.3548</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.36403</v>
+        <v>9.363799999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>15.6212</v>
+        <v>12.9523</v>
       </c>
       <c r="D5" t="n">
-        <v>18.301</v>
+        <v>18.2977</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9517</v>
+        <v>11.0952</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6115</v>
+        <v>15.6247</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2247</v>
+        <v>22.2479</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7197</v>
+        <v>12.6848</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9031</v>
+        <v>18.335</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0927</v>
+        <v>25.986</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0672</v>
+        <v>14.0221</v>
       </c>
       <c r="C8" t="n">
-        <v>24.6616</v>
+        <v>20.8241</v>
       </c>
       <c r="D8" t="n">
-        <v>29.8903</v>
+        <v>29.7563</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5605</v>
+        <v>16.582</v>
       </c>
       <c r="C9" t="n">
-        <v>28.7987</v>
+        <v>24.4788</v>
       </c>
       <c r="D9" t="n">
-        <v>33.8072</v>
+        <v>33.6979</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.174</v>
+        <v>14.1886</v>
       </c>
       <c r="C10" t="n">
-        <v>23.7748</v>
+        <v>19.1848</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9342</v>
+        <v>26.9975</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.267</v>
+        <v>14.1206</v>
       </c>
       <c r="C11" t="n">
-        <v>23.578</v>
+        <v>19.6495</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0276</v>
+        <v>27.8406</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6579</v>
+        <v>14.8194</v>
       </c>
       <c r="C12" t="n">
-        <v>25.4353</v>
+        <v>20.7531</v>
       </c>
       <c r="D12" t="n">
-        <v>28.2014</v>
+        <v>28.8581</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.2019</v>
+        <v>15.1351</v>
       </c>
       <c r="C13" t="n">
-        <v>26.5189</v>
+        <v>21.8199</v>
       </c>
       <c r="D13" t="n">
-        <v>28.7069</v>
+        <v>29.9112</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.975</v>
+        <v>14.916</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5806</v>
+        <v>20.6855</v>
       </c>
       <c r="D14" t="n">
-        <v>28.3662</v>
+        <v>28.1477</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1771</v>
+        <v>15.2723</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9905</v>
+        <v>20.8895</v>
       </c>
       <c r="D15" t="n">
-        <v>28.8962</v>
+        <v>28.0164</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5649</v>
+        <v>15.4592</v>
       </c>
       <c r="C16" t="n">
-        <v>25.7139</v>
+        <v>21.8599</v>
       </c>
       <c r="D16" t="n">
-        <v>29.5696</v>
+        <v>28.5609</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2151</v>
+        <v>15.7733</v>
       </c>
       <c r="C17" t="n">
-        <v>25.7991</v>
+        <v>21.1209</v>
       </c>
       <c r="D17" t="n">
-        <v>27.8683</v>
+        <v>29.7517</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.143409999999999</v>
+        <v>9.156890000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3052</v>
+        <v>6.89199</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2127</v>
+        <v>11.1783</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.829000000000001</v>
+        <v>8.610329999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6053</v>
+        <v>9.99677</v>
       </c>
       <c r="D3" t="n">
-        <v>14.948</v>
+        <v>14.7595</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3566</v>
+        <v>10.4233</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6631</v>
+        <v>13.744</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3085</v>
+        <v>20.2617</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.204</v>
+        <v>12.1514</v>
       </c>
       <c r="C5" t="n">
-        <v>21.5576</v>
+        <v>17.2694</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4135</v>
+        <v>25.3531</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.1234</v>
+        <v>14.2536</v>
       </c>
       <c r="C6" t="n">
-        <v>25.2696</v>
+        <v>20.8046</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3613</v>
+        <v>30.4697</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.287</v>
+        <v>16.2416</v>
       </c>
       <c r="C7" t="n">
-        <v>29.9151</v>
+        <v>24.2569</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5594</v>
+        <v>35.5616</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.9794</v>
+        <v>17.988</v>
       </c>
       <c r="C8" t="n">
-        <v>32.9238</v>
+        <v>27.3996</v>
       </c>
       <c r="D8" t="n">
-        <v>40.2462</v>
+        <v>40.0838</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1132</v>
+        <v>21.1081</v>
       </c>
       <c r="C9" t="n">
-        <v>38.5387</v>
+        <v>30.9293</v>
       </c>
       <c r="D9" t="n">
-        <v>45.8987</v>
+        <v>44.8269</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.4638</v>
+        <v>18.3195</v>
       </c>
       <c r="C10" t="n">
-        <v>33.4521</v>
+        <v>26.0817</v>
       </c>
       <c r="D10" t="n">
-        <v>38.021</v>
+        <v>37.6299</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.2182</v>
+        <v>18.2177</v>
       </c>
       <c r="C11" t="n">
-        <v>32.6647</v>
+        <v>26.5704</v>
       </c>
       <c r="D11" t="n">
-        <v>37.307</v>
+        <v>37.05</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.6509</v>
+        <v>18.6566</v>
       </c>
       <c r="C12" t="n">
-        <v>33.2022</v>
+        <v>27.8387</v>
       </c>
       <c r="D12" t="n">
-        <v>38.4254</v>
+        <v>39.05</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.512</v>
+        <v>19.2858</v>
       </c>
       <c r="C13" t="n">
-        <v>33.0098</v>
+        <v>27.8377</v>
       </c>
       <c r="D13" t="n">
-        <v>39.438</v>
+        <v>38.5043</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2155</v>
+        <v>19.1486</v>
       </c>
       <c r="C14" t="n">
-        <v>33.8189</v>
+        <v>27.4626</v>
       </c>
       <c r="D14" t="n">
-        <v>37.8352</v>
+        <v>38.1626</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.4311</v>
+        <v>19.1722</v>
       </c>
       <c r="C15" t="n">
-        <v>33.3384</v>
+        <v>27.6056</v>
       </c>
       <c r="D15" t="n">
-        <v>37.7846</v>
+        <v>38.0244</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.8234</v>
+        <v>19.6305</v>
       </c>
       <c r="C16" t="n">
-        <v>33.0582</v>
+        <v>26.9237</v>
       </c>
       <c r="D16" t="n">
-        <v>37.8837</v>
+        <v>38.5298</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8777</v>
+        <v>19.3765</v>
       </c>
       <c r="C17" t="n">
-        <v>32.8322</v>
+        <v>28.3698</v>
       </c>
       <c r="D17" t="n">
-        <v>37.4668</v>
+        <v>37.6162</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.8448</v>
+        <v>6.8431</v>
       </c>
       <c r="C2" t="n">
-        <v>7.21668</v>
+        <v>5.30772</v>
       </c>
       <c r="D2" t="n">
-        <v>7.56067</v>
+        <v>7.55045</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.35115</v>
+        <v>7.44757</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1042</v>
+        <v>8.10937</v>
       </c>
       <c r="D3" t="n">
-        <v>11.3512</v>
+        <v>11.3658</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.28035</v>
+        <v>9.26024</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9487</v>
+        <v>11.275</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0594</v>
+        <v>15.9845</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1278</v>
+        <v>11.1208</v>
       </c>
       <c r="C5" t="n">
-        <v>17.7074</v>
+        <v>14.4749</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6203</v>
+        <v>20.4684</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.225</v>
+        <v>13.121</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5199</v>
+        <v>17.5749</v>
       </c>
       <c r="D6" t="n">
-        <v>25.1437</v>
+        <v>24.8428</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.2991</v>
+        <v>15.3172</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3432</v>
+        <v>20.7644</v>
       </c>
       <c r="D7" t="n">
-        <v>29.5484</v>
+        <v>29.5351</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.3127</v>
+        <v>17.3066</v>
       </c>
       <c r="C8" t="n">
-        <v>28.7409</v>
+        <v>23.8786</v>
       </c>
       <c r="D8" t="n">
-        <v>33.7063</v>
+        <v>33.6109</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9968</v>
+        <v>20.0021</v>
       </c>
       <c r="C9" t="n">
-        <v>33.2722</v>
+        <v>27.6164</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3161</v>
+        <v>38.3811</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7067</v>
+        <v>17.57</v>
       </c>
       <c r="C10" t="n">
-        <v>28.0623</v>
+        <v>22.3105</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0917</v>
+        <v>32.0128</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1392</v>
+        <v>17.102</v>
       </c>
       <c r="C11" t="n">
-        <v>28.4293</v>
+        <v>22.8191</v>
       </c>
       <c r="D11" t="n">
-        <v>31.8141</v>
+        <v>32.0059</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9866</v>
+        <v>17.9613</v>
       </c>
       <c r="C12" t="n">
-        <v>27.9627</v>
+        <v>24.2101</v>
       </c>
       <c r="D12" t="n">
-        <v>33.0585</v>
+        <v>32.319</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.6112</v>
+        <v>18.8125</v>
       </c>
       <c r="C13" t="n">
-        <v>29.1789</v>
+        <v>25.2911</v>
       </c>
       <c r="D13" t="n">
-        <v>32.3449</v>
+        <v>32.2094</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.1757</v>
+        <v>18.3338</v>
       </c>
       <c r="C14" t="n">
-        <v>28.5824</v>
+        <v>24.353</v>
       </c>
       <c r="D14" t="n">
-        <v>32.1893</v>
+        <v>32.6481</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.178</v>
+        <v>18.3096</v>
       </c>
       <c r="C15" t="n">
-        <v>28.4969</v>
+        <v>24.0428</v>
       </c>
       <c r="D15" t="n">
-        <v>31.7101</v>
+        <v>31.8998</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.8119</v>
+        <v>19.2138</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9535</v>
+        <v>24.4077</v>
       </c>
       <c r="D16" t="n">
-        <v>32.1306</v>
+        <v>31.7248</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.9136</v>
+        <v>18.9091</v>
       </c>
       <c r="C17" t="n">
-        <v>29.4099</v>
+        <v>24.9929</v>
       </c>
       <c r="D17" t="n">
-        <v>31.4399</v>
+        <v>31.94</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.06252</v>
+        <v>3.06725</v>
       </c>
       <c r="C2" t="n">
-        <v>5.3175</v>
+        <v>4.11087</v>
       </c>
       <c r="D2" t="n">
-        <v>5.96307</v>
+        <v>5.95458</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.90217</v>
+        <v>4.86042</v>
       </c>
       <c r="C3" t="n">
-        <v>8.66376</v>
+        <v>6.98889</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0512</v>
+        <v>10.0182</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.67896</v>
+        <v>6.69689</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0778</v>
+        <v>9.855880000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3043</v>
+        <v>14.2401</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.22259</v>
+        <v>8.245279999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2451</v>
+        <v>12.6279</v>
       </c>
       <c r="D5" t="n">
-        <v>18.2777</v>
+        <v>18.2717</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.7843</v>
+        <v>9.81166</v>
       </c>
       <c r="C6" t="n">
-        <v>18.402</v>
+        <v>15.2733</v>
       </c>
       <c r="D6" t="n">
-        <v>22.3552</v>
+        <v>22.2628</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3017</v>
+        <v>11.2433</v>
       </c>
       <c r="C7" t="n">
-        <v>21.4402</v>
+        <v>17.8902</v>
       </c>
       <c r="D7" t="n">
-        <v>26.3022</v>
+        <v>26.2259</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7491</v>
+        <v>12.7099</v>
       </c>
       <c r="C8" t="n">
-        <v>24.4443</v>
+        <v>20.5119</v>
       </c>
       <c r="D8" t="n">
-        <v>30.137</v>
+        <v>30.1096</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9016</v>
+        <v>14.9179</v>
       </c>
       <c r="C9" t="n">
-        <v>29.1125</v>
+        <v>24.2273</v>
       </c>
       <c r="D9" t="n">
-        <v>34.6</v>
+        <v>34.5073</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2843</v>
+        <v>14.2119</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0166</v>
+        <v>22.7142</v>
       </c>
       <c r="D10" t="n">
-        <v>31.9297</v>
+        <v>31.1871</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1995</v>
+        <v>14.0907</v>
       </c>
       <c r="C11" t="n">
-        <v>26.2668</v>
+        <v>22.5171</v>
       </c>
       <c r="D11" t="n">
-        <v>31.3396</v>
+        <v>31.2778</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3214</v>
+        <v>14.2069</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0735</v>
+        <v>22.1258</v>
       </c>
       <c r="D12" t="n">
-        <v>31.5702</v>
+        <v>31.5057</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5419</v>
+        <v>14.5165</v>
       </c>
       <c r="C13" t="n">
-        <v>27.4652</v>
+        <v>22.8476</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9927</v>
+        <v>31.9992</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9938</v>
+        <v>13.9594</v>
       </c>
       <c r="C14" t="n">
-        <v>26.4243</v>
+        <v>21.7533</v>
       </c>
       <c r="D14" t="n">
-        <v>30.9269</v>
+        <v>31.0473</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5687</v>
+        <v>14.5476</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4597</v>
+        <v>22.7972</v>
       </c>
       <c r="D15" t="n">
-        <v>30.7205</v>
+        <v>31.7351</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5318</v>
+        <v>14.5177</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6249</v>
+        <v>22.4064</v>
       </c>
       <c r="D16" t="n">
-        <v>31.3186</v>
+        <v>31.4693</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.486</v>
+        <v>14.5968</v>
       </c>
       <c r="C17" t="n">
-        <v>26.856</v>
+        <v>22.5661</v>
       </c>
       <c r="D17" t="n">
-        <v>31.1669</v>
+        <v>31.4248</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.07319</v>
+        <v>4.0762</v>
       </c>
       <c r="C2" t="n">
-        <v>8.65128</v>
+        <v>5.87762</v>
       </c>
       <c r="D2" t="n">
-        <v>9.58309</v>
+        <v>9.55823</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.22417</v>
+        <v>6.13662</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5063</v>
+        <v>9.51239</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6006</v>
+        <v>14.5486</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.19692</v>
+        <v>8.275600000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>16.8126</v>
+        <v>13.2611</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1735</v>
+        <v>20.1623</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.209</v>
+        <v>10.1604</v>
       </c>
       <c r="C5" t="n">
-        <v>20.7995</v>
+        <v>16.7462</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3372</v>
+        <v>25.2765</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1282</v>
+        <v>12.1044</v>
       </c>
       <c r="C6" t="n">
-        <v>24.7577</v>
+        <v>20.2491</v>
       </c>
       <c r="D6" t="n">
-        <v>30.6184</v>
+        <v>30.5988</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9916</v>
+        <v>13.9329</v>
       </c>
       <c r="C7" t="n">
-        <v>28.8647</v>
+        <v>23.693</v>
       </c>
       <c r="D7" t="n">
-        <v>35.9641</v>
+        <v>35.7658</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.723</v>
+        <v>15.6177</v>
       </c>
       <c r="C8" t="n">
-        <v>32.6961</v>
+        <v>26.9721</v>
       </c>
       <c r="D8" t="n">
-        <v>40.9871</v>
+        <v>40.7502</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3434</v>
+        <v>18.3199</v>
       </c>
       <c r="C9" t="n">
-        <v>38.8698</v>
+        <v>31.8024</v>
       </c>
       <c r="D9" t="n">
-        <v>47.1432</v>
+        <v>46.8637</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4401</v>
+        <v>17.221</v>
       </c>
       <c r="C10" t="n">
-        <v>35.9791</v>
+        <v>29.1211</v>
       </c>
       <c r="D10" t="n">
-        <v>42.7424</v>
+        <v>43.406</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4357</v>
+        <v>17.1543</v>
       </c>
       <c r="C11" t="n">
-        <v>35.3605</v>
+        <v>28.9075</v>
       </c>
       <c r="D11" t="n">
-        <v>41.8417</v>
+        <v>42.1467</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4111</v>
+        <v>17.3963</v>
       </c>
       <c r="C12" t="n">
-        <v>35.377</v>
+        <v>29.1925</v>
       </c>
       <c r="D12" t="n">
-        <v>42.314</v>
+        <v>41.9132</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7637</v>
+        <v>17.7013</v>
       </c>
       <c r="C13" t="n">
-        <v>36.009</v>
+        <v>29.8491</v>
       </c>
       <c r="D13" t="n">
-        <v>42.4105</v>
+        <v>41.9793</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.19</v>
+        <v>17.1788</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7212</v>
+        <v>28.6462</v>
       </c>
       <c r="D14" t="n">
-        <v>41.6073</v>
+        <v>41.1015</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8506</v>
+        <v>17.9</v>
       </c>
       <c r="C15" t="n">
-        <v>34.6474</v>
+        <v>28.9844</v>
       </c>
       <c r="D15" t="n">
-        <v>40.8631</v>
+        <v>41.325</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8009</v>
+        <v>17.8094</v>
       </c>
       <c r="C16" t="n">
-        <v>35.3032</v>
+        <v>28.4949</v>
       </c>
       <c r="D16" t="n">
-        <v>40.751</v>
+        <v>40.509</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.57</v>
+        <v>17.5699</v>
       </c>
       <c r="C17" t="n">
-        <v>34.6574</v>
+        <v>28.9313</v>
       </c>
       <c r="D17" t="n">
-        <v>41.3567</v>
+        <v>39.8407</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.49962</v>
+        <v>5.53701</v>
       </c>
       <c r="C2" t="n">
-        <v>6.74531</v>
+        <v>5.04462</v>
       </c>
       <c r="D2" t="n">
-        <v>7.34214</v>
+        <v>7.33786</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.06244</v>
+        <v>6.94096</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0009</v>
+        <v>7.91577</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4896</v>
+        <v>11.3827</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.07098</v>
+        <v>9.041029999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7345</v>
+        <v>11.1093</v>
       </c>
       <c r="D4" t="n">
-        <v>16.2306</v>
+        <v>16.1639</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0747</v>
+        <v>11.1041</v>
       </c>
       <c r="C5" t="n">
-        <v>17.4859</v>
+        <v>14.265</v>
       </c>
       <c r="D5" t="n">
-        <v>20.7923</v>
+        <v>20.7925</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1057</v>
+        <v>13.1267</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2512</v>
+        <v>17.4173</v>
       </c>
       <c r="D6" t="n">
-        <v>25.4355</v>
+        <v>25.4215</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1655</v>
+        <v>15.1986</v>
       </c>
       <c r="C7" t="n">
-        <v>24.9817</v>
+        <v>20.5437</v>
       </c>
       <c r="D7" t="n">
-        <v>30.0601</v>
+        <v>29.9636</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4109</v>
+        <v>17.4576</v>
       </c>
       <c r="C8" t="n">
-        <v>28.8838</v>
+        <v>23.7821</v>
       </c>
       <c r="D8" t="n">
-        <v>34.7249</v>
+        <v>34.609</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5173</v>
+        <v>20.5373</v>
       </c>
       <c r="C9" t="n">
-        <v>33.6409</v>
+        <v>27.6916</v>
       </c>
       <c r="D9" t="n">
-        <v>40.1078</v>
+        <v>39.9012</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.5347</v>
+        <v>19.2566</v>
       </c>
       <c r="C10" t="n">
-        <v>30.8415</v>
+        <v>25.8935</v>
       </c>
       <c r="D10" t="n">
-        <v>36.1007</v>
+        <v>35.6299</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.3597</v>
+        <v>19.3583</v>
       </c>
       <c r="C11" t="n">
-        <v>30.8724</v>
+        <v>25.4828</v>
       </c>
       <c r="D11" t="n">
-        <v>36.3604</v>
+        <v>36.6497</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.5644</v>
+        <v>19.4173</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0025</v>
+        <v>25.6595</v>
       </c>
       <c r="D12" t="n">
-        <v>36.8698</v>
+        <v>36.6314</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5895</v>
+        <v>19.8345</v>
       </c>
       <c r="C13" t="n">
-        <v>31.6173</v>
+        <v>26.0101</v>
       </c>
       <c r="D13" t="n">
-        <v>37.0441</v>
+        <v>37.2926</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0907</v>
+        <v>19.0364</v>
       </c>
       <c r="C14" t="n">
-        <v>30.479</v>
+        <v>25.1854</v>
       </c>
       <c r="D14" t="n">
-        <v>35.6651</v>
+        <v>36.0508</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.7379</v>
+        <v>19.6993</v>
       </c>
       <c r="C15" t="n">
-        <v>31.5356</v>
+        <v>25.9737</v>
       </c>
       <c r="D15" t="n">
-        <v>36.7566</v>
+        <v>36.6999</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6599</v>
+        <v>19.7196</v>
       </c>
       <c r="C16" t="n">
-        <v>31.2973</v>
+        <v>25.7037</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1096</v>
+        <v>37.1415</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.7289</v>
+        <v>19.6922</v>
       </c>
       <c r="C17" t="n">
-        <v>31.2374</v>
+        <v>26.1577</v>
       </c>
       <c r="D17" t="n">
-        <v>36.3804</v>
+        <v>36.4876</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.35586</v>
+        <v>5.33275</v>
       </c>
       <c r="C2" t="n">
-        <v>4.6049</v>
+        <v>4.62349</v>
       </c>
       <c r="D2" t="n">
-        <v>6.60442</v>
+        <v>4.38868</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.32657</v>
+        <v>6.31024</v>
       </c>
       <c r="C3" t="n">
-        <v>7.29571</v>
+        <v>5.9077</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1736</v>
+        <v>7.31073</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.88613</v>
+        <v>7.92139</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2142</v>
+        <v>7.85478</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3548</v>
+        <v>10.4858</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.363799999999999</v>
+        <v>9.382630000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>12.9523</v>
+        <v>9.82521</v>
       </c>
       <c r="D5" t="n">
-        <v>18.2977</v>
+        <v>13.5185</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0952</v>
+        <v>11.1157</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6247</v>
+        <v>11.9457</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2479</v>
+        <v>16.6073</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6848</v>
+        <v>12.6905</v>
       </c>
       <c r="C7" t="n">
-        <v>18.335</v>
+        <v>14.0498</v>
       </c>
       <c r="D7" t="n">
-        <v>25.986</v>
+        <v>19.4652</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0221</v>
+        <v>14.0102</v>
       </c>
       <c r="C8" t="n">
-        <v>20.8241</v>
+        <v>16.2502</v>
       </c>
       <c r="D8" t="n">
-        <v>29.7563</v>
+        <v>22.4265</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.582</v>
+        <v>16.517</v>
       </c>
       <c r="C9" t="n">
-        <v>24.4788</v>
+        <v>18.9752</v>
       </c>
       <c r="D9" t="n">
-        <v>33.6979</v>
+        <v>25.6427</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1886</v>
+        <v>14.0601</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1848</v>
+        <v>15.9929</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9975</v>
+        <v>20.6682</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1206</v>
+        <v>14.1381</v>
       </c>
       <c r="C11" t="n">
-        <v>19.6495</v>
+        <v>15.8959</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8406</v>
+        <v>20.4877</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.8194</v>
+        <v>14.6458</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7531</v>
+        <v>16.7304</v>
       </c>
       <c r="D12" t="n">
-        <v>28.8581</v>
+        <v>21.333</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1351</v>
+        <v>15.1471</v>
       </c>
       <c r="C13" t="n">
-        <v>21.8199</v>
+        <v>17.2084</v>
       </c>
       <c r="D13" t="n">
-        <v>29.9112</v>
+        <v>22.6824</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.916</v>
+        <v>14.9346</v>
       </c>
       <c r="C14" t="n">
-        <v>20.6855</v>
+        <v>17.1877</v>
       </c>
       <c r="D14" t="n">
-        <v>28.1477</v>
+        <v>22.032</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2723</v>
+        <v>15.1466</v>
       </c>
       <c r="C15" t="n">
-        <v>20.8895</v>
+        <v>17.4103</v>
       </c>
       <c r="D15" t="n">
-        <v>28.0164</v>
+        <v>22.5003</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4592</v>
+        <v>15.4533</v>
       </c>
       <c r="C16" t="n">
-        <v>21.8599</v>
+        <v>17.7853</v>
       </c>
       <c r="D16" t="n">
-        <v>28.5609</v>
+        <v>22.6953</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.7733</v>
+        <v>15.5241</v>
       </c>
       <c r="C17" t="n">
-        <v>21.1209</v>
+        <v>18.1561</v>
       </c>
       <c r="D17" t="n">
-        <v>29.7517</v>
+        <v>22.5164</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.156890000000001</v>
+        <v>9.162050000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>6.89199</v>
+        <v>10.2627</v>
       </c>
       <c r="D2" t="n">
-        <v>11.1783</v>
+        <v>6.38186</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.610329999999999</v>
+        <v>8.815289999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.99677</v>
+        <v>9.428100000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7595</v>
+        <v>9.93253</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.4233</v>
+        <v>10.4402</v>
       </c>
       <c r="C4" t="n">
-        <v>13.744</v>
+        <v>11.482</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2617</v>
+        <v>13.9179</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1514</v>
+        <v>12.2269</v>
       </c>
       <c r="C5" t="n">
-        <v>17.2694</v>
+        <v>13.9509</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3531</v>
+        <v>17.7787</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.2536</v>
+        <v>14.1736</v>
       </c>
       <c r="C6" t="n">
-        <v>20.8046</v>
+        <v>16.9131</v>
       </c>
       <c r="D6" t="n">
-        <v>30.4697</v>
+        <v>21.5127</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2416</v>
+        <v>16.3344</v>
       </c>
       <c r="C7" t="n">
-        <v>24.2569</v>
+        <v>19.7854</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5616</v>
+        <v>25.3155</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.988</v>
+        <v>18.0086</v>
       </c>
       <c r="C8" t="n">
-        <v>27.3996</v>
+        <v>22.7335</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0838</v>
+        <v>28.9076</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1081</v>
+        <v>21.1319</v>
       </c>
       <c r="C9" t="n">
-        <v>30.9293</v>
+        <v>25.9963</v>
       </c>
       <c r="D9" t="n">
-        <v>44.8269</v>
+        <v>32.967</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3195</v>
+        <v>18.3013</v>
       </c>
       <c r="C10" t="n">
-        <v>26.0817</v>
+        <v>23.1567</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6299</v>
+        <v>26.7129</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.2177</v>
+        <v>18.2209</v>
       </c>
       <c r="C11" t="n">
-        <v>26.5704</v>
+        <v>22.6648</v>
       </c>
       <c r="D11" t="n">
-        <v>37.05</v>
+        <v>27.1482</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.6566</v>
+        <v>18.5801</v>
       </c>
       <c r="C12" t="n">
-        <v>27.8387</v>
+        <v>23.596</v>
       </c>
       <c r="D12" t="n">
-        <v>39.05</v>
+        <v>27.4883</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.2858</v>
+        <v>19.374</v>
       </c>
       <c r="C13" t="n">
-        <v>27.8377</v>
+        <v>23.5987</v>
       </c>
       <c r="D13" t="n">
-        <v>38.5043</v>
+        <v>28.4902</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1486</v>
+        <v>19.0039</v>
       </c>
       <c r="C14" t="n">
-        <v>27.4626</v>
+        <v>23.7386</v>
       </c>
       <c r="D14" t="n">
-        <v>38.1626</v>
+        <v>29.0822</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1722</v>
+        <v>19.252</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6056</v>
+        <v>23.9661</v>
       </c>
       <c r="D15" t="n">
-        <v>38.0244</v>
+        <v>28.0437</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6305</v>
+        <v>19.6381</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9237</v>
+        <v>24.6132</v>
       </c>
       <c r="D16" t="n">
-        <v>38.5298</v>
+        <v>27.9092</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3765</v>
+        <v>19.7734</v>
       </c>
       <c r="C17" t="n">
-        <v>28.3698</v>
+        <v>25.3227</v>
       </c>
       <c r="D17" t="n">
-        <v>37.6162</v>
+        <v>27.9667</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.8431</v>
+        <v>6.82214</v>
       </c>
       <c r="C2" t="n">
-        <v>5.30772</v>
+        <v>6.81133</v>
       </c>
       <c r="D2" t="n">
-        <v>7.55045</v>
+        <v>4.96659</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.44757</v>
+        <v>7.38263</v>
       </c>
       <c r="C3" t="n">
-        <v>8.10937</v>
+        <v>7.67933</v>
       </c>
       <c r="D3" t="n">
-        <v>11.3658</v>
+        <v>8.177619999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.26024</v>
+        <v>9.070589999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>11.275</v>
+        <v>9.85679</v>
       </c>
       <c r="D4" t="n">
-        <v>15.9845</v>
+        <v>11.7007</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1208</v>
+        <v>10.7938</v>
       </c>
       <c r="C5" t="n">
-        <v>14.4749</v>
+        <v>12.2045</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4684</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.121</v>
+        <v>12.6625</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5749</v>
+        <v>14.6016</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8428</v>
+        <v>18.5795</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.3172</v>
+        <v>14.6158</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7644</v>
+        <v>16.9965</v>
       </c>
       <c r="D7" t="n">
-        <v>29.5351</v>
+        <v>21.8816</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.3066</v>
+        <v>16.3609</v>
       </c>
       <c r="C8" t="n">
-        <v>23.8786</v>
+        <v>19.4262</v>
       </c>
       <c r="D8" t="n">
-        <v>33.6109</v>
+        <v>25.255</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0021</v>
+        <v>18.6102</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6164</v>
+        <v>22.3125</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3811</v>
+        <v>29.0287</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.57</v>
+        <v>16.5636</v>
       </c>
       <c r="C10" t="n">
-        <v>22.3105</v>
+        <v>19.2862</v>
       </c>
       <c r="D10" t="n">
-        <v>32.0128</v>
+        <v>22.7005</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.102</v>
+        <v>16.3143</v>
       </c>
       <c r="C11" t="n">
-        <v>22.8191</v>
+        <v>19.3715</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0059</v>
+        <v>23.6053</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9613</v>
+        <v>16.8886</v>
       </c>
       <c r="C12" t="n">
-        <v>24.2101</v>
+        <v>20.1704</v>
       </c>
       <c r="D12" t="n">
-        <v>32.319</v>
+        <v>25.1709</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.8125</v>
+        <v>17.7658</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2911</v>
+        <v>20.5837</v>
       </c>
       <c r="D13" t="n">
-        <v>32.2094</v>
+        <v>25.3904</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.3338</v>
+        <v>17.2876</v>
       </c>
       <c r="C14" t="n">
-        <v>24.353</v>
+        <v>20.5743</v>
       </c>
       <c r="D14" t="n">
-        <v>32.6481</v>
+        <v>25.0863</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3096</v>
+        <v>17.0608</v>
       </c>
       <c r="C15" t="n">
-        <v>24.0428</v>
+        <v>20.6874</v>
       </c>
       <c r="D15" t="n">
-        <v>31.8998</v>
+        <v>24.8932</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2138</v>
+        <v>17.8686</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4077</v>
+        <v>21.1935</v>
       </c>
       <c r="D16" t="n">
-        <v>31.7248</v>
+        <v>25.7385</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.9091</v>
+        <v>18.1894</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9929</v>
+        <v>21.6352</v>
       </c>
       <c r="D17" t="n">
-        <v>31.94</v>
+        <v>24.9667</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.06725</v>
+        <v>3.05439</v>
       </c>
       <c r="C2" t="n">
-        <v>4.11087</v>
+        <v>4.139</v>
       </c>
       <c r="D2" t="n">
-        <v>5.95458</v>
+        <v>4.08122</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.86042</v>
+        <v>4.88086</v>
       </c>
       <c r="C3" t="n">
-        <v>6.98889</v>
+        <v>5.81977</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0182</v>
+        <v>7.27997</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.69689</v>
+        <v>6.6499</v>
       </c>
       <c r="C4" t="n">
-        <v>9.855880000000001</v>
+        <v>7.7452</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2401</v>
+        <v>10.4499</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.245279999999999</v>
+        <v>8.220140000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6279</v>
+        <v>9.691140000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>18.2717</v>
+        <v>13.5492</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.81166</v>
+        <v>9.768269999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>15.2733</v>
+        <v>11.692</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2628</v>
+        <v>16.6373</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2433</v>
+        <v>11.2761</v>
       </c>
       <c r="C7" t="n">
-        <v>17.8902</v>
+        <v>13.7185</v>
       </c>
       <c r="D7" t="n">
-        <v>26.2259</v>
+        <v>19.6673</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7099</v>
+        <v>12.6839</v>
       </c>
       <c r="C8" t="n">
-        <v>20.5119</v>
+        <v>15.8544</v>
       </c>
       <c r="D8" t="n">
-        <v>30.1096</v>
+        <v>22.6115</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9179</v>
+        <v>14.8138</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2273</v>
+        <v>18.6448</v>
       </c>
       <c r="D9" t="n">
-        <v>34.5073</v>
+        <v>25.9885</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2119</v>
+        <v>14.1117</v>
       </c>
       <c r="C10" t="n">
-        <v>22.7142</v>
+        <v>17.5206</v>
       </c>
       <c r="D10" t="n">
-        <v>31.1871</v>
+        <v>24.1986</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0907</v>
+        <v>14.1573</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5171</v>
+        <v>16.9365</v>
       </c>
       <c r="D11" t="n">
-        <v>31.2778</v>
+        <v>23.8548</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2069</v>
+        <v>14.2309</v>
       </c>
       <c r="C12" t="n">
-        <v>22.1258</v>
+        <v>17.2262</v>
       </c>
       <c r="D12" t="n">
-        <v>31.5057</v>
+        <v>24.2311</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5165</v>
+        <v>14.5074</v>
       </c>
       <c r="C13" t="n">
-        <v>22.8476</v>
+        <v>17.5585</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9992</v>
+        <v>24.7782</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9594</v>
+        <v>13.9811</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7533</v>
+        <v>17.6239</v>
       </c>
       <c r="D14" t="n">
-        <v>31.0473</v>
+        <v>23.4329</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5476</v>
+        <v>14.5504</v>
       </c>
       <c r="C15" t="n">
-        <v>22.7972</v>
+        <v>17.7868</v>
       </c>
       <c r="D15" t="n">
-        <v>31.7351</v>
+        <v>24.3099</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5177</v>
+        <v>14.5314</v>
       </c>
       <c r="C16" t="n">
-        <v>22.4064</v>
+        <v>17.8345</v>
       </c>
       <c r="D16" t="n">
-        <v>31.4693</v>
+        <v>23.9772</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5968</v>
+        <v>14.2579</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5661</v>
+        <v>17.8671</v>
       </c>
       <c r="D17" t="n">
-        <v>31.4248</v>
+        <v>23.7121</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0762</v>
+        <v>4.0865</v>
       </c>
       <c r="C2" t="n">
-        <v>5.87762</v>
+        <v>8.255739999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9.55823</v>
+        <v>5.79814</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.13662</v>
+        <v>6.14096</v>
       </c>
       <c r="C3" t="n">
-        <v>9.51239</v>
+        <v>8.798959999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>14.5486</v>
+        <v>9.76585</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.275600000000001</v>
+        <v>8.269159999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.2611</v>
+        <v>11.234</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1623</v>
+        <v>13.8913</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1604</v>
+        <v>10.1982</v>
       </c>
       <c r="C5" t="n">
-        <v>16.7462</v>
+        <v>13.664</v>
       </c>
       <c r="D5" t="n">
-        <v>25.2765</v>
+        <v>17.7612</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1044</v>
+        <v>12.1168</v>
       </c>
       <c r="C6" t="n">
-        <v>20.2491</v>
+        <v>16.2522</v>
       </c>
       <c r="D6" t="n">
-        <v>30.5988</v>
+        <v>21.6639</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9329</v>
+        <v>13.8558</v>
       </c>
       <c r="C7" t="n">
-        <v>23.693</v>
+        <v>18.9154</v>
       </c>
       <c r="D7" t="n">
-        <v>35.7658</v>
+        <v>25.4929</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6177</v>
+        <v>15.7657</v>
       </c>
       <c r="C8" t="n">
-        <v>26.9721</v>
+        <v>21.9315</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7502</v>
+        <v>29.2943</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3199</v>
+        <v>18.2897</v>
       </c>
       <c r="C9" t="n">
-        <v>31.8024</v>
+        <v>25.5808</v>
       </c>
       <c r="D9" t="n">
-        <v>46.8637</v>
+        <v>33.7261</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.221</v>
+        <v>17.3105</v>
       </c>
       <c r="C10" t="n">
-        <v>29.1211</v>
+        <v>23.52</v>
       </c>
       <c r="D10" t="n">
-        <v>43.406</v>
+        <v>30.6615</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1543</v>
+        <v>17.3665</v>
       </c>
       <c r="C11" t="n">
-        <v>28.9075</v>
+        <v>23.6696</v>
       </c>
       <c r="D11" t="n">
-        <v>42.1467</v>
+        <v>30.868</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3963</v>
+        <v>17.311</v>
       </c>
       <c r="C12" t="n">
-        <v>29.1925</v>
+        <v>23.9968</v>
       </c>
       <c r="D12" t="n">
-        <v>41.9132</v>
+        <v>30.8973</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7013</v>
+        <v>17.463</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8491</v>
+        <v>24.1676</v>
       </c>
       <c r="D13" t="n">
-        <v>41.9793</v>
+        <v>31.5253</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1788</v>
+        <v>17.2465</v>
       </c>
       <c r="C14" t="n">
-        <v>28.6462</v>
+        <v>24.1313</v>
       </c>
       <c r="D14" t="n">
-        <v>41.1015</v>
+        <v>30.1879</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9</v>
+        <v>17.9019</v>
       </c>
       <c r="C15" t="n">
-        <v>28.9844</v>
+        <v>24.2833</v>
       </c>
       <c r="D15" t="n">
-        <v>41.325</v>
+        <v>30.3694</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8094</v>
+        <v>17.6962</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4949</v>
+        <v>24.5096</v>
       </c>
       <c r="D16" t="n">
-        <v>40.509</v>
+        <v>30.7504</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5699</v>
+        <v>17.6027</v>
       </c>
       <c r="C17" t="n">
-        <v>28.9313</v>
+        <v>24.661</v>
       </c>
       <c r="D17" t="n">
-        <v>39.8407</v>
+        <v>30.7295</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +5374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="F27" sqref="F27"/>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.53701</v>
+        <v>5.51835</v>
       </c>
       <c r="C2" t="n">
-        <v>5.04462</v>
+        <v>6.49995</v>
       </c>
       <c r="D2" t="n">
-        <v>7.33786</v>
+        <v>4.84379</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.94096</v>
+        <v>6.87054</v>
       </c>
       <c r="C3" t="n">
-        <v>7.91577</v>
+        <v>7.52283</v>
       </c>
       <c r="D3" t="n">
-        <v>11.3827</v>
+        <v>8.129630000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.041029999999999</v>
+        <v>8.857430000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1093</v>
+        <v>9.77505</v>
       </c>
       <c r="D4" t="n">
-        <v>16.1639</v>
+        <v>11.7383</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1041</v>
+        <v>10.7364</v>
       </c>
       <c r="C5" t="n">
-        <v>14.265</v>
+        <v>12.0358</v>
       </c>
       <c r="D5" t="n">
-        <v>20.7925</v>
+        <v>15.2232</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1267</v>
+        <v>12.632</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4173</v>
+        <v>14.3756</v>
       </c>
       <c r="D6" t="n">
-        <v>25.4215</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1986</v>
+        <v>14.4845</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5437</v>
+        <v>16.7372</v>
       </c>
       <c r="D7" t="n">
-        <v>29.9636</v>
+        <v>22.1899</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4576</v>
+        <v>16.4401</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7821</v>
+        <v>19.331</v>
       </c>
       <c r="D8" t="n">
-        <v>34.609</v>
+        <v>25.7013</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5373</v>
+        <v>18.9645</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6916</v>
+        <v>22.242</v>
       </c>
       <c r="D9" t="n">
-        <v>39.9012</v>
+        <v>29.6694</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.2566</v>
+        <v>18.2314</v>
       </c>
       <c r="C10" t="n">
-        <v>25.8935</v>
+        <v>20.7379</v>
       </c>
       <c r="D10" t="n">
-        <v>35.6299</v>
+        <v>27.4683</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.3583</v>
+        <v>17.875</v>
       </c>
       <c r="C11" t="n">
-        <v>25.4828</v>
+        <v>20.9164</v>
       </c>
       <c r="D11" t="n">
-        <v>36.6497</v>
+        <v>27.2785</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.4173</v>
+        <v>18.1809</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6595</v>
+        <v>20.9251</v>
       </c>
       <c r="D12" t="n">
-        <v>36.6314</v>
+        <v>27.2628</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.8345</v>
+        <v>18.4756</v>
       </c>
       <c r="C13" t="n">
-        <v>26.0101</v>
+        <v>21.1547</v>
       </c>
       <c r="D13" t="n">
-        <v>37.2926</v>
+        <v>27.9207</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0364</v>
+        <v>17.8214</v>
       </c>
       <c r="C14" t="n">
-        <v>25.1854</v>
+        <v>21.2125</v>
       </c>
       <c r="D14" t="n">
-        <v>36.0508</v>
+        <v>26.7856</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.6993</v>
+        <v>18.5877</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9737</v>
+        <v>21.3664</v>
       </c>
       <c r="D15" t="n">
-        <v>36.6999</v>
+        <v>27.7803</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7196</v>
+        <v>18.4313</v>
       </c>
       <c r="C16" t="n">
-        <v>25.7037</v>
+        <v>21.6015</v>
       </c>
       <c r="D16" t="n">
-        <v>37.1415</v>
+        <v>27.7815</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6922</v>
+        <v>18.3359</v>
       </c>
       <c r="C17" t="n">
-        <v>26.1577</v>
+        <v>21.8544</v>
       </c>
       <c r="D17" t="n">
-        <v>36.4876</v>
+        <v>27.4057</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.8155</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.9806</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.2169</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.1888</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>30.3287</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.0105</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.9483</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.5799</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.6174</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.6067</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.923</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.1742</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>37.5687</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.547</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.5465</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7523</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -278,7 +278,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.0237</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.5483</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7479</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.4058</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.3727</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.4698</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.0389</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.9232</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.4942</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0776</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.1283</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2963</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.9511</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.9614</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.9461</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>36.1476</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -424,7 +424,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.3402</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>30.0421</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.4251</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>45.4028</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.8164</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.9466</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.5062</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.9299</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.7653</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>40.7763</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.2757</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.4834</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3856</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.812</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.5151</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.17</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.3115</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>21.3377</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.9759</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>36.9453</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.0078</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.567</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.0236</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7934</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1537</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>41.2269</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.044</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.2941</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4397</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.4343</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.9971</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2668</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -856,7 +974,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8756</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.3022</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7141</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>32.7353</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.4842</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.8729</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.3784</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.8949</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.2611</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.1615</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.6816</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.4094</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.4607</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.6837</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>35.4533</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1002,7 +1120,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.2281</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>29.3131</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0279</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>43.3401</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.9461</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.324</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3256</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.357</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>42.9263</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>44.4764</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.4995</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>38.8887</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.0915</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>53.1451</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.3253</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.6415</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.38</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.6113</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.9767</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>34.9982</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>31.855</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.9548</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.3225</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.5931</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.1243</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.0461</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.6745</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.6163</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.7882</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.093</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.0737</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.2469</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1434,7 +1670,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.6187</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.3232</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0667</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.0206</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.439</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>33.6879</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.8504</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>32.7418</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.4355</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.636</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.676</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.8253</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4019</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.7958</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7958</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>31.9247</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1580,7 +1816,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>19.4058</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>28.4519</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.4547</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>51.6131</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.8486</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.9607</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.7581</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>35.3177</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.5044</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.2708</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.9998</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.7806</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.4542</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>40.6207</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.0763</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>47.8814</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.80876</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.074</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7496</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.5411</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.8405</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.3267</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.6785</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.1948</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.5386</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.7248</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7471</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.862</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.8593</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.8689</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.765</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7869</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2012,7 +2366,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6049</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.5666</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.408</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.1723</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>35.6446</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.8439</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6128</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.0986</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.8964</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.4847</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.5297</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.2206</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>43.8155</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>43.8653</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>43.6721</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.1658</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2158,7 +2512,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.5764</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.8358</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>45.2819</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>59.1192</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>54.0172</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>54.4127</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>50.4742</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>51.9251</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.902</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>56.1517</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.5848</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>58.5013</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.9038</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>60.0247</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7863</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.8409</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.7868</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.0767</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.7009</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>27.0746</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.6125</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.971</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.3573</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8574</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.0887</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.2369</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2309</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1931</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.1652</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.2482</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.2526</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2590,7 +3062,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6582</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.6945</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.5816</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.5794</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.116</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.2347</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.8983</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.4908</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.6198</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>43.3567</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.8296</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.0611</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>44.0334</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.3743</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.3181</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.2489</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2736,7 +3208,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.2903</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.3309</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>44.6355</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>58.5385</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>53.488</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>53.6234</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>49.8641</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>52.2535</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>52.3654</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.1198</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.0094</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.4396</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.1217</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>59.5574</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7426</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.2745</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.4883</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.1754</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.4118</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>38.4961</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.4254</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>41.5705</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>43.5271</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>45.6261</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>45.7379</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.3791</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.8115</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.6403</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.7812</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.4357</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>45.5424</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>45.8045</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3168,7 +3758,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.5867</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>27.3727</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>37.9749</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>48.9446</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>41.8231</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.5591</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>40.3313</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.9787</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>43.3113</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.4197</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.7413</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.7938</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.9366</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0147</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.0135</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.1628</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3314,7 +3904,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>20.0769</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>37.848</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>53.4698</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>70.1417</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.037</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>59.6639</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>51.8797</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>54.1691</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.4956</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>54.8678</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>54.8131</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.006</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.6955</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.2771</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>58.3954</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.4764</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4073,10 +4781,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4093,6 +4806,9 @@
         <v>4.62349</v>
       </c>
       <c r="D2" t="n">
+        <v>6.19888</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.38868</v>
       </c>
     </row>
@@ -4107,6 +4823,9 @@
         <v>5.9077</v>
       </c>
       <c r="D3" t="n">
+        <v>9.10425</v>
+      </c>
+      <c r="E3" t="n">
         <v>7.31073</v>
       </c>
     </row>
@@ -4121,6 +4840,9 @@
         <v>7.85478</v>
       </c>
       <c r="D4" t="n">
+        <v>12.4851</v>
+      </c>
+      <c r="E4" t="n">
         <v>10.4858</v>
       </c>
     </row>
@@ -4135,6 +4857,9 @@
         <v>9.82521</v>
       </c>
       <c r="D5" t="n">
+        <v>15.6662</v>
+      </c>
+      <c r="E5" t="n">
         <v>13.5185</v>
       </c>
     </row>
@@ -4149,6 +4874,9 @@
         <v>11.9457</v>
       </c>
       <c r="D6" t="n">
+        <v>18.7989</v>
+      </c>
+      <c r="E6" t="n">
         <v>16.6073</v>
       </c>
     </row>
@@ -4163,6 +4891,9 @@
         <v>14.0498</v>
       </c>
       <c r="D7" t="n">
+        <v>21.8756</v>
+      </c>
+      <c r="E7" t="n">
         <v>19.4652</v>
       </c>
     </row>
@@ -4177,6 +4908,9 @@
         <v>16.2502</v>
       </c>
       <c r="D8" t="n">
+        <v>24.8377</v>
+      </c>
+      <c r="E8" t="n">
         <v>22.4265</v>
       </c>
     </row>
@@ -4191,6 +4925,9 @@
         <v>18.9752</v>
       </c>
       <c r="D9" t="n">
+        <v>28.8196</v>
+      </c>
+      <c r="E9" t="n">
         <v>25.6427</v>
       </c>
     </row>
@@ -4205,6 +4942,9 @@
         <v>15.9929</v>
       </c>
       <c r="D10" t="n">
+        <v>23.748</v>
+      </c>
+      <c r="E10" t="n">
         <v>20.6682</v>
       </c>
     </row>
@@ -4219,6 +4959,9 @@
         <v>15.8959</v>
       </c>
       <c r="D11" t="n">
+        <v>24.023</v>
+      </c>
+      <c r="E11" t="n">
         <v>20.4877</v>
       </c>
     </row>
@@ -4233,6 +4976,9 @@
         <v>16.7304</v>
       </c>
       <c r="D12" t="n">
+        <v>25.3514</v>
+      </c>
+      <c r="E12" t="n">
         <v>21.333</v>
       </c>
     </row>
@@ -4247,6 +4993,9 @@
         <v>17.2084</v>
       </c>
       <c r="D13" t="n">
+        <v>25.0995</v>
+      </c>
+      <c r="E13" t="n">
         <v>22.6824</v>
       </c>
     </row>
@@ -4261,6 +5010,9 @@
         <v>17.1877</v>
       </c>
       <c r="D14" t="n">
+        <v>25.2045</v>
+      </c>
+      <c r="E14" t="n">
         <v>22.032</v>
       </c>
     </row>
@@ -4275,6 +5027,9 @@
         <v>17.4103</v>
       </c>
       <c r="D15" t="n">
+        <v>24.9058</v>
+      </c>
+      <c r="E15" t="n">
         <v>22.5003</v>
       </c>
     </row>
@@ -4289,6 +5044,9 @@
         <v>17.7853</v>
       </c>
       <c r="D16" t="n">
+        <v>25.4016</v>
+      </c>
+      <c r="E16" t="n">
         <v>22.6953</v>
       </c>
     </row>
@@ -4303,6 +5061,9 @@
         <v>18.1561</v>
       </c>
       <c r="D17" t="n">
+        <v>25.5915</v>
+      </c>
+      <c r="E17" t="n">
         <v>22.5164</v>
       </c>
     </row>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4337,10 +5098,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4357,6 +5123,9 @@
         <v>10.2627</v>
       </c>
       <c r="D2" t="n">
+        <v>11.3338</v>
+      </c>
+      <c r="E2" t="n">
         <v>6.38186</v>
       </c>
     </row>
@@ -4371,6 +5140,9 @@
         <v>9.428100000000001</v>
       </c>
       <c r="D3" t="n">
+        <v>13.603</v>
+      </c>
+      <c r="E3" t="n">
         <v>9.93253</v>
       </c>
     </row>
@@ -4385,6 +5157,9 @@
         <v>11.482</v>
       </c>
       <c r="D4" t="n">
+        <v>17.6321</v>
+      </c>
+      <c r="E4" t="n">
         <v>13.9179</v>
       </c>
     </row>
@@ -4399,6 +5174,9 @@
         <v>13.9509</v>
       </c>
       <c r="D5" t="n">
+        <v>21.5272</v>
+      </c>
+      <c r="E5" t="n">
         <v>17.7787</v>
       </c>
     </row>
@@ -4413,6 +5191,9 @@
         <v>16.9131</v>
       </c>
       <c r="D6" t="n">
+        <v>25.3334</v>
+      </c>
+      <c r="E6" t="n">
         <v>21.5127</v>
       </c>
     </row>
@@ -4427,6 +5208,9 @@
         <v>19.7854</v>
       </c>
       <c r="D7" t="n">
+        <v>29.902</v>
+      </c>
+      <c r="E7" t="n">
         <v>25.3155</v>
       </c>
     </row>
@@ -4441,6 +5225,9 @@
         <v>22.7335</v>
       </c>
       <c r="D8" t="n">
+        <v>33.0405</v>
+      </c>
+      <c r="E8" t="n">
         <v>28.9076</v>
       </c>
     </row>
@@ -4455,6 +5242,9 @@
         <v>25.9963</v>
       </c>
       <c r="D9" t="n">
+        <v>38.3599</v>
+      </c>
+      <c r="E9" t="n">
         <v>32.967</v>
       </c>
     </row>
@@ -4469,6 +5259,9 @@
         <v>23.1567</v>
       </c>
       <c r="D10" t="n">
+        <v>33.3661</v>
+      </c>
+      <c r="E10" t="n">
         <v>26.7129</v>
       </c>
     </row>
@@ -4483,6 +5276,9 @@
         <v>22.6648</v>
       </c>
       <c r="D11" t="n">
+        <v>32.2856</v>
+      </c>
+      <c r="E11" t="n">
         <v>27.1482</v>
       </c>
     </row>
@@ -4497,6 +5293,9 @@
         <v>23.596</v>
       </c>
       <c r="D12" t="n">
+        <v>32.8774</v>
+      </c>
+      <c r="E12" t="n">
         <v>27.4883</v>
       </c>
     </row>
@@ -4511,6 +5310,9 @@
         <v>23.5987</v>
       </c>
       <c r="D13" t="n">
+        <v>33.1739</v>
+      </c>
+      <c r="E13" t="n">
         <v>28.4902</v>
       </c>
     </row>
@@ -4525,6 +5327,9 @@
         <v>23.7386</v>
       </c>
       <c r="D14" t="n">
+        <v>33.2311</v>
+      </c>
+      <c r="E14" t="n">
         <v>29.0822</v>
       </c>
     </row>
@@ -4539,6 +5344,9 @@
         <v>23.9661</v>
       </c>
       <c r="D15" t="n">
+        <v>33.8972</v>
+      </c>
+      <c r="E15" t="n">
         <v>28.0437</v>
       </c>
     </row>
@@ -4553,6 +5361,9 @@
         <v>24.6132</v>
       </c>
       <c r="D16" t="n">
+        <v>33.2035</v>
+      </c>
+      <c r="E16" t="n">
         <v>27.9092</v>
       </c>
     </row>
@@ -4567,6 +5378,9 @@
         <v>25.3227</v>
       </c>
       <c r="D17" t="n">
+        <v>34.268</v>
+      </c>
+      <c r="E17" t="n">
         <v>27.9667</v>
       </c>
     </row>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4601,10 +5415,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4621,6 +5440,9 @@
         <v>6.81133</v>
       </c>
       <c r="D2" t="n">
+        <v>7.22421</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.96659</v>
       </c>
     </row>
@@ -4635,6 +5457,9 @@
         <v>7.67933</v>
       </c>
       <c r="D3" t="n">
+        <v>10.1859</v>
+      </c>
+      <c r="E3" t="n">
         <v>8.177619999999999</v>
       </c>
     </row>
@@ -4649,6 +5474,9 @@
         <v>9.85679</v>
       </c>
       <c r="D4" t="n">
+        <v>13.9525</v>
+      </c>
+      <c r="E4" t="n">
         <v>11.7007</v>
       </c>
     </row>
@@ -4663,6 +5491,9 @@
         <v>12.2045</v>
       </c>
       <c r="D5" t="n">
+        <v>17.769</v>
+      </c>
+      <c r="E5" t="n">
         <v>15.18</v>
       </c>
     </row>
@@ -4677,6 +5508,9 @@
         <v>14.6016</v>
       </c>
       <c r="D6" t="n">
+        <v>21.4125</v>
+      </c>
+      <c r="E6" t="n">
         <v>18.5795</v>
       </c>
     </row>
@@ -4691,6 +5525,9 @@
         <v>16.9965</v>
       </c>
       <c r="D7" t="n">
+        <v>25.3284</v>
+      </c>
+      <c r="E7" t="n">
         <v>21.8816</v>
       </c>
     </row>
@@ -4705,6 +5542,9 @@
         <v>19.4262</v>
       </c>
       <c r="D8" t="n">
+        <v>28.7898</v>
+      </c>
+      <c r="E8" t="n">
         <v>25.255</v>
       </c>
     </row>
@@ -4719,6 +5559,9 @@
         <v>22.3125</v>
       </c>
       <c r="D9" t="n">
+        <v>33.3454</v>
+      </c>
+      <c r="E9" t="n">
         <v>29.0287</v>
       </c>
     </row>
@@ -4733,6 +5576,9 @@
         <v>19.2862</v>
       </c>
       <c r="D10" t="n">
+        <v>28.2706</v>
+      </c>
+      <c r="E10" t="n">
         <v>22.7005</v>
       </c>
     </row>
@@ -4747,6 +5593,9 @@
         <v>19.3715</v>
       </c>
       <c r="D11" t="n">
+        <v>27.9668</v>
+      </c>
+      <c r="E11" t="n">
         <v>23.6053</v>
       </c>
     </row>
@@ -4761,6 +5610,9 @@
         <v>20.1704</v>
       </c>
       <c r="D12" t="n">
+        <v>28.4381</v>
+      </c>
+      <c r="E12" t="n">
         <v>25.1709</v>
       </c>
     </row>
@@ -4775,6 +5627,9 @@
         <v>20.5837</v>
       </c>
       <c r="D13" t="n">
+        <v>29.4942</v>
+      </c>
+      <c r="E13" t="n">
         <v>25.3904</v>
       </c>
     </row>
@@ -4789,6 +5644,9 @@
         <v>20.5743</v>
       </c>
       <c r="D14" t="n">
+        <v>28.1352</v>
+      </c>
+      <c r="E14" t="n">
         <v>25.0863</v>
       </c>
     </row>
@@ -4803,6 +5661,9 @@
         <v>20.6874</v>
       </c>
       <c r="D15" t="n">
+        <v>28.3871</v>
+      </c>
+      <c r="E15" t="n">
         <v>24.8932</v>
       </c>
     </row>
@@ -4817,6 +5678,9 @@
         <v>21.1935</v>
       </c>
       <c r="D16" t="n">
+        <v>28.9019</v>
+      </c>
+      <c r="E16" t="n">
         <v>25.7385</v>
       </c>
     </row>
@@ -4831,6 +5695,9 @@
         <v>21.6352</v>
       </c>
       <c r="D17" t="n">
+        <v>29.8764</v>
+      </c>
+      <c r="E17" t="n">
         <v>24.9667</v>
       </c>
     </row>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4865,10 +5732,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4885,6 +5757,9 @@
         <v>4.139</v>
       </c>
       <c r="D2" t="n">
+        <v>5.32333</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.08122</v>
       </c>
     </row>
@@ -4899,6 +5774,9 @@
         <v>5.81977</v>
       </c>
       <c r="D3" t="n">
+        <v>8.67286</v>
+      </c>
+      <c r="E3" t="n">
         <v>7.27997</v>
       </c>
     </row>
@@ -4913,6 +5791,9 @@
         <v>7.7452</v>
       </c>
       <c r="D4" t="n">
+        <v>12.0601</v>
+      </c>
+      <c r="E4" t="n">
         <v>10.4499</v>
       </c>
     </row>
@@ -4927,6 +5808,9 @@
         <v>9.691140000000001</v>
       </c>
       <c r="D5" t="n">
+        <v>15.2807</v>
+      </c>
+      <c r="E5" t="n">
         <v>13.5492</v>
       </c>
     </row>
@@ -4941,6 +5825,9 @@
         <v>11.692</v>
       </c>
       <c r="D6" t="n">
+        <v>18.4011</v>
+      </c>
+      <c r="E6" t="n">
         <v>16.6373</v>
       </c>
     </row>
@@ -4955,6 +5842,9 @@
         <v>13.7185</v>
       </c>
       <c r="D7" t="n">
+        <v>21.4247</v>
+      </c>
+      <c r="E7" t="n">
         <v>19.6673</v>
       </c>
     </row>
@@ -4969,6 +5859,9 @@
         <v>15.8544</v>
       </c>
       <c r="D8" t="n">
+        <v>24.4967</v>
+      </c>
+      <c r="E8" t="n">
         <v>22.6115</v>
       </c>
     </row>
@@ -4983,6 +5876,9 @@
         <v>18.6448</v>
       </c>
       <c r="D9" t="n">
+        <v>29.1352</v>
+      </c>
+      <c r="E9" t="n">
         <v>25.9885</v>
       </c>
     </row>
@@ -4997,6 +5893,9 @@
         <v>17.5206</v>
       </c>
       <c r="D10" t="n">
+        <v>26.9279</v>
+      </c>
+      <c r="E10" t="n">
         <v>24.1986</v>
       </c>
     </row>
@@ -5011,6 +5910,9 @@
         <v>16.9365</v>
       </c>
       <c r="D11" t="n">
+        <v>26.5948</v>
+      </c>
+      <c r="E11" t="n">
         <v>23.8548</v>
       </c>
     </row>
@@ -5025,6 +5927,9 @@
         <v>17.2262</v>
       </c>
       <c r="D12" t="n">
+        <v>27.0982</v>
+      </c>
+      <c r="E12" t="n">
         <v>24.2311</v>
       </c>
     </row>
@@ -5039,6 +5944,9 @@
         <v>17.5585</v>
       </c>
       <c r="D13" t="n">
+        <v>27.4892</v>
+      </c>
+      <c r="E13" t="n">
         <v>24.7782</v>
       </c>
     </row>
@@ -5053,6 +5961,9 @@
         <v>17.6239</v>
       </c>
       <c r="D14" t="n">
+        <v>26.2216</v>
+      </c>
+      <c r="E14" t="n">
         <v>23.4329</v>
       </c>
     </row>
@@ -5067,6 +5978,9 @@
         <v>17.7868</v>
       </c>
       <c r="D15" t="n">
+        <v>26.6103</v>
+      </c>
+      <c r="E15" t="n">
         <v>24.3099</v>
       </c>
     </row>
@@ -5081,6 +5995,9 @@
         <v>17.8345</v>
       </c>
       <c r="D16" t="n">
+        <v>26.4134</v>
+      </c>
+      <c r="E16" t="n">
         <v>23.9772</v>
       </c>
     </row>
@@ -5095,6 +6012,9 @@
         <v>17.8671</v>
       </c>
       <c r="D17" t="n">
+        <v>27.0481</v>
+      </c>
+      <c r="E17" t="n">
         <v>23.7121</v>
       </c>
     </row>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5129,10 +6049,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5149,6 +6074,9 @@
         <v>8.255739999999999</v>
       </c>
       <c r="D2" t="n">
+        <v>8.64878</v>
+      </c>
+      <c r="E2" t="n">
         <v>5.79814</v>
       </c>
     </row>
@@ -5163,6 +6091,9 @@
         <v>8.798959999999999</v>
       </c>
       <c r="D3" t="n">
+        <v>12.5175</v>
+      </c>
+      <c r="E3" t="n">
         <v>9.76585</v>
       </c>
     </row>
@@ -5177,6 +6108,9 @@
         <v>11.234</v>
       </c>
       <c r="D4" t="n">
+        <v>16.8821</v>
+      </c>
+      <c r="E4" t="n">
         <v>13.8913</v>
       </c>
     </row>
@@ -5191,6 +6125,9 @@
         <v>13.664</v>
       </c>
       <c r="D5" t="n">
+        <v>20.8419</v>
+      </c>
+      <c r="E5" t="n">
         <v>17.7612</v>
       </c>
     </row>
@@ -5205,6 +6142,9 @@
         <v>16.2522</v>
       </c>
       <c r="D6" t="n">
+        <v>24.8799</v>
+      </c>
+      <c r="E6" t="n">
         <v>21.6639</v>
       </c>
     </row>
@@ -5219,6 +6159,9 @@
         <v>18.9154</v>
       </c>
       <c r="D7" t="n">
+        <v>28.7288</v>
+      </c>
+      <c r="E7" t="n">
         <v>25.4929</v>
       </c>
     </row>
@@ -5233,6 +6176,9 @@
         <v>21.9315</v>
       </c>
       <c r="D8" t="n">
+        <v>32.5855</v>
+      </c>
+      <c r="E8" t="n">
         <v>29.2943</v>
       </c>
     </row>
@@ -5247,6 +6193,9 @@
         <v>25.5808</v>
       </c>
       <c r="D9" t="n">
+        <v>38.9889</v>
+      </c>
+      <c r="E9" t="n">
         <v>33.7261</v>
       </c>
     </row>
@@ -5261,6 +6210,9 @@
         <v>23.52</v>
       </c>
       <c r="D10" t="n">
+        <v>35.5109</v>
+      </c>
+      <c r="E10" t="n">
         <v>30.6615</v>
       </c>
     </row>
@@ -5275,6 +6227,9 @@
         <v>23.6696</v>
       </c>
       <c r="D11" t="n">
+        <v>35.8384</v>
+      </c>
+      <c r="E11" t="n">
         <v>30.868</v>
       </c>
     </row>
@@ -5289,6 +6244,9 @@
         <v>23.9968</v>
       </c>
       <c r="D12" t="n">
+        <v>35.6649</v>
+      </c>
+      <c r="E12" t="n">
         <v>30.8973</v>
       </c>
     </row>
@@ -5303,6 +6261,9 @@
         <v>24.1676</v>
       </c>
       <c r="D13" t="n">
+        <v>35.8694</v>
+      </c>
+      <c r="E13" t="n">
         <v>31.5253</v>
       </c>
     </row>
@@ -5317,6 +6278,9 @@
         <v>24.1313</v>
       </c>
       <c r="D14" t="n">
+        <v>34.6308</v>
+      </c>
+      <c r="E14" t="n">
         <v>30.1879</v>
       </c>
     </row>
@@ -5331,6 +6295,9 @@
         <v>24.2833</v>
       </c>
       <c r="D15" t="n">
+        <v>35.234</v>
+      </c>
+      <c r="E15" t="n">
         <v>30.3694</v>
       </c>
     </row>
@@ -5345,6 +6312,9 @@
         <v>24.5096</v>
       </c>
       <c r="D16" t="n">
+        <v>34.8799</v>
+      </c>
+      <c r="E16" t="n">
         <v>30.7504</v>
       </c>
     </row>
@@ -5359,6 +6329,9 @@
         <v>24.661</v>
       </c>
       <c r="D17" t="n">
+        <v>34.4821</v>
+      </c>
+      <c r="E17" t="n">
         <v>30.7295</v>
       </c>
     </row>
@@ -5377,7 +6350,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5393,10 +6366,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5413,6 +6391,9 @@
         <v>6.49995</v>
       </c>
       <c r="D2" t="n">
+        <v>6.75512</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.84379</v>
       </c>
     </row>
@@ -5427,6 +6408,9 @@
         <v>7.52283</v>
       </c>
       <c r="D3" t="n">
+        <v>9.961740000000001</v>
+      </c>
+      <c r="E3" t="n">
         <v>8.129630000000001</v>
       </c>
     </row>
@@ -5441,6 +6425,9 @@
         <v>9.77505</v>
       </c>
       <c r="D4" t="n">
+        <v>13.7897</v>
+      </c>
+      <c r="E4" t="n">
         <v>11.7383</v>
       </c>
     </row>
@@ -5455,6 +6442,9 @@
         <v>12.0358</v>
       </c>
       <c r="D5" t="n">
+        <v>17.5581</v>
+      </c>
+      <c r="E5" t="n">
         <v>15.2232</v>
       </c>
     </row>
@@ -5469,6 +6459,9 @@
         <v>14.3756</v>
       </c>
       <c r="D6" t="n">
+        <v>21.3418</v>
+      </c>
+      <c r="E6" t="n">
         <v>18.73</v>
       </c>
     </row>
@@ -5483,6 +6476,9 @@
         <v>16.7372</v>
       </c>
       <c r="D7" t="n">
+        <v>25.0642</v>
+      </c>
+      <c r="E7" t="n">
         <v>22.1899</v>
       </c>
     </row>
@@ -5497,6 +6493,9 @@
         <v>19.331</v>
       </c>
       <c r="D8" t="n">
+        <v>28.9445</v>
+      </c>
+      <c r="E8" t="n">
         <v>25.7013</v>
       </c>
     </row>
@@ -5511,6 +6510,9 @@
         <v>22.242</v>
       </c>
       <c r="D9" t="n">
+        <v>33.8012</v>
+      </c>
+      <c r="E9" t="n">
         <v>29.6694</v>
       </c>
     </row>
@@ -5525,6 +6527,9 @@
         <v>20.7379</v>
       </c>
       <c r="D10" t="n">
+        <v>30.8491</v>
+      </c>
+      <c r="E10" t="n">
         <v>27.4683</v>
       </c>
     </row>
@@ -5539,6 +6544,9 @@
         <v>20.9164</v>
       </c>
       <c r="D11" t="n">
+        <v>30.7922</v>
+      </c>
+      <c r="E11" t="n">
         <v>27.2785</v>
       </c>
     </row>
@@ -5553,6 +6561,9 @@
         <v>20.9251</v>
       </c>
       <c r="D12" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E12" t="n">
         <v>27.2628</v>
       </c>
     </row>
@@ -5567,6 +6578,9 @@
         <v>21.1547</v>
       </c>
       <c r="D13" t="n">
+        <v>31.6536</v>
+      </c>
+      <c r="E13" t="n">
         <v>27.9207</v>
       </c>
     </row>
@@ -5581,6 +6595,9 @@
         <v>21.2125</v>
       </c>
       <c r="D14" t="n">
+        <v>30.9169</v>
+      </c>
+      <c r="E14" t="n">
         <v>26.7856</v>
       </c>
     </row>
@@ -5595,6 +6612,9 @@
         <v>21.3664</v>
       </c>
       <c r="D15" t="n">
+        <v>31.7874</v>
+      </c>
+      <c r="E15" t="n">
         <v>27.7803</v>
       </c>
     </row>
@@ -5609,6 +6629,9 @@
         <v>21.6015</v>
       </c>
       <c r="D16" t="n">
+        <v>31.6504</v>
+      </c>
+      <c r="E16" t="n">
         <v>27.7815</v>
       </c>
     </row>
@@ -5623,6 +6646,9 @@
         <v>21.8544</v>
       </c>
       <c r="D17" t="n">
+        <v>31.5822</v>
+      </c>
+      <c r="E17" t="n">
         <v>27.4057</v>
       </c>
     </row>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.33275</v>
+        <v>5.09617</v>
       </c>
       <c r="C2" t="n">
-        <v>4.62349</v>
+        <v>4.66608</v>
       </c>
       <c r="D2" t="n">
-        <v>6.19888</v>
+        <v>6.18752</v>
       </c>
       <c r="E2" t="n">
-        <v>4.38868</v>
+        <v>4.47355</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.31024</v>
+        <v>6.29469</v>
       </c>
       <c r="C3" t="n">
-        <v>5.9077</v>
+        <v>6.09663</v>
       </c>
       <c r="D3" t="n">
-        <v>9.10425</v>
+        <v>9.13151</v>
       </c>
       <c r="E3" t="n">
-        <v>7.31073</v>
+        <v>7.45726</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.92139</v>
+        <v>7.76399</v>
       </c>
       <c r="C4" t="n">
-        <v>7.85478</v>
+        <v>8.01892</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4851</v>
+        <v>12.46</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4858</v>
+        <v>10.6306</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.382630000000001</v>
+        <v>9.227830000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.82521</v>
+        <v>9.959899999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>15.6662</v>
+        <v>15.5915</v>
       </c>
       <c r="E5" t="n">
-        <v>13.5185</v>
+        <v>13.6891</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1157</v>
+        <v>10.8256</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9457</v>
+        <v>12.1502</v>
       </c>
       <c r="D6" t="n">
-        <v>18.7989</v>
+        <v>18.5806</v>
       </c>
       <c r="E6" t="n">
-        <v>16.6073</v>
+        <v>16.7033</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6905</v>
+        <v>12.4916</v>
       </c>
       <c r="C7" t="n">
-        <v>14.0498</v>
+        <v>14.4126</v>
       </c>
       <c r="D7" t="n">
-        <v>21.8756</v>
+        <v>21.8764</v>
       </c>
       <c r="E7" t="n">
-        <v>19.4652</v>
+        <v>19.7521</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0102</v>
+        <v>13.8281</v>
       </c>
       <c r="C8" t="n">
-        <v>16.2502</v>
+        <v>16.5169</v>
       </c>
       <c r="D8" t="n">
-        <v>24.8377</v>
+        <v>24.5969</v>
       </c>
       <c r="E8" t="n">
-        <v>22.4265</v>
+        <v>22.7452</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.517</v>
+        <v>16.2952</v>
       </c>
       <c r="C9" t="n">
-        <v>18.9752</v>
+        <v>19.3138</v>
       </c>
       <c r="D9" t="n">
-        <v>28.8196</v>
+        <v>29.0618</v>
       </c>
       <c r="E9" t="n">
-        <v>25.6427</v>
+        <v>26.0259</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0601</v>
+        <v>14.0834</v>
       </c>
       <c r="C10" t="n">
-        <v>15.9929</v>
+        <v>16.0998</v>
       </c>
       <c r="D10" t="n">
-        <v>23.748</v>
+        <v>23.4322</v>
       </c>
       <c r="E10" t="n">
-        <v>20.6682</v>
+        <v>20.3223</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1381</v>
+        <v>13.8889</v>
       </c>
       <c r="C11" t="n">
-        <v>15.8959</v>
+        <v>16.2781</v>
       </c>
       <c r="D11" t="n">
-        <v>24.023</v>
+        <v>24.4343</v>
       </c>
       <c r="E11" t="n">
-        <v>20.4877</v>
+        <v>21.425</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6458</v>
+        <v>14.5528</v>
       </c>
       <c r="C12" t="n">
-        <v>16.7304</v>
+        <v>16.8636</v>
       </c>
       <c r="D12" t="n">
-        <v>25.3514</v>
+        <v>25.9219</v>
       </c>
       <c r="E12" t="n">
-        <v>21.333</v>
+        <v>21.9017</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1471</v>
+        <v>14.8643</v>
       </c>
       <c r="C13" t="n">
-        <v>17.2084</v>
+        <v>17.6969</v>
       </c>
       <c r="D13" t="n">
-        <v>25.0995</v>
+        <v>25.6408</v>
       </c>
       <c r="E13" t="n">
-        <v>22.6824</v>
+        <v>22.7652</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9346</v>
+        <v>14.8973</v>
       </c>
       <c r="C14" t="n">
-        <v>17.1877</v>
+        <v>17.7609</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2045</v>
+        <v>25.0636</v>
       </c>
       <c r="E14" t="n">
-        <v>22.032</v>
+        <v>22.3947</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1466</v>
+        <v>14.8861</v>
       </c>
       <c r="C15" t="n">
-        <v>17.4103</v>
+        <v>17.8676</v>
       </c>
       <c r="D15" t="n">
-        <v>24.9058</v>
+        <v>25.0078</v>
       </c>
       <c r="E15" t="n">
-        <v>22.5003</v>
+        <v>22.4806</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4533</v>
+        <v>15.1636</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7853</v>
+        <v>18.3292</v>
       </c>
       <c r="D16" t="n">
-        <v>25.4016</v>
+        <v>25.6135</v>
       </c>
       <c r="E16" t="n">
-        <v>22.6953</v>
+        <v>22.4924</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5241</v>
+        <v>15.5148</v>
       </c>
       <c r="C17" t="n">
-        <v>18.1561</v>
+        <v>18.663</v>
       </c>
       <c r="D17" t="n">
-        <v>25.5915</v>
+        <v>24.9926</v>
       </c>
       <c r="E17" t="n">
-        <v>22.5164</v>
+        <v>23.8676</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.162050000000001</v>
+        <v>8.37537</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2627</v>
+        <v>10.2517</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3338</v>
+        <v>11.3136</v>
       </c>
       <c r="E2" t="n">
-        <v>6.38186</v>
+        <v>6.85705</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.815289999999999</v>
+        <v>8.453060000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.428100000000001</v>
+        <v>9.492760000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.603</v>
+        <v>13.6432</v>
       </c>
       <c r="E3" t="n">
-        <v>9.93253</v>
+        <v>10.4871</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.4402</v>
+        <v>10.0074</v>
       </c>
       <c r="C4" t="n">
-        <v>11.482</v>
+        <v>11.5509</v>
       </c>
       <c r="D4" t="n">
-        <v>17.6321</v>
+        <v>17.632</v>
       </c>
       <c r="E4" t="n">
-        <v>13.9179</v>
+        <v>14.639</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2269</v>
+        <v>11.8099</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9509</v>
+        <v>14.021</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5272</v>
+        <v>21.5524</v>
       </c>
       <c r="E5" t="n">
-        <v>17.7787</v>
+        <v>18.7412</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.1736</v>
+        <v>13.7785</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9131</v>
+        <v>16.9416</v>
       </c>
       <c r="D6" t="n">
-        <v>25.3334</v>
+        <v>25.5665</v>
       </c>
       <c r="E6" t="n">
-        <v>21.5127</v>
+        <v>22.6769</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3344</v>
+        <v>15.8341</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7854</v>
+        <v>20.0271</v>
       </c>
       <c r="D7" t="n">
-        <v>29.902</v>
+        <v>30.025</v>
       </c>
       <c r="E7" t="n">
-        <v>25.3155</v>
+        <v>26.4335</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0086</v>
+        <v>17.5362</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7335</v>
+        <v>22.7051</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0405</v>
+        <v>33.0502</v>
       </c>
       <c r="E8" t="n">
-        <v>28.9076</v>
+        <v>30.219</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1319</v>
+        <v>20.5449</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9963</v>
+        <v>26.1634</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3599</v>
+        <v>38.146</v>
       </c>
       <c r="E9" t="n">
-        <v>32.967</v>
+        <v>34.0198</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3013</v>
+        <v>18.0227</v>
       </c>
       <c r="C10" t="n">
-        <v>23.1567</v>
+        <v>23.3988</v>
       </c>
       <c r="D10" t="n">
-        <v>33.3661</v>
+        <v>33.3631</v>
       </c>
       <c r="E10" t="n">
-        <v>26.7129</v>
+        <v>27.9228</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.2209</v>
+        <v>17.5895</v>
       </c>
       <c r="C11" t="n">
-        <v>22.6648</v>
+        <v>22.5966</v>
       </c>
       <c r="D11" t="n">
-        <v>32.2856</v>
+        <v>33.3914</v>
       </c>
       <c r="E11" t="n">
-        <v>27.1482</v>
+        <v>28.9061</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5801</v>
+        <v>18.3173</v>
       </c>
       <c r="C12" t="n">
-        <v>23.596</v>
+        <v>22.9912</v>
       </c>
       <c r="D12" t="n">
-        <v>32.8774</v>
+        <v>33.46</v>
       </c>
       <c r="E12" t="n">
-        <v>27.4883</v>
+        <v>30.2874</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.374</v>
+        <v>18.6005</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5987</v>
+        <v>24.0838</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1739</v>
+        <v>33.5699</v>
       </c>
       <c r="E13" t="n">
-        <v>28.4902</v>
+        <v>31.1398</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0039</v>
+        <v>18.5174</v>
       </c>
       <c r="C14" t="n">
-        <v>23.7386</v>
+        <v>24.1026</v>
       </c>
       <c r="D14" t="n">
-        <v>33.2311</v>
+        <v>33.9134</v>
       </c>
       <c r="E14" t="n">
-        <v>29.0822</v>
+        <v>28.8331</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.252</v>
+        <v>18.8722</v>
       </c>
       <c r="C15" t="n">
-        <v>23.9661</v>
+        <v>24.299</v>
       </c>
       <c r="D15" t="n">
-        <v>33.8972</v>
+        <v>33.764</v>
       </c>
       <c r="E15" t="n">
-        <v>28.0437</v>
+        <v>28.9299</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6381</v>
+        <v>19.1539</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6132</v>
+        <v>24.7149</v>
       </c>
       <c r="D16" t="n">
-        <v>33.2035</v>
+        <v>33.9389</v>
       </c>
       <c r="E16" t="n">
-        <v>27.9092</v>
+        <v>30.0431</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.7734</v>
+        <v>19.0938</v>
       </c>
       <c r="C17" t="n">
-        <v>25.3227</v>
+        <v>24.8884</v>
       </c>
       <c r="D17" t="n">
-        <v>34.268</v>
+        <v>33.4392</v>
       </c>
       <c r="E17" t="n">
-        <v>27.9667</v>
+        <v>28.9226</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.82214</v>
+        <v>6.42594</v>
       </c>
       <c r="C2" t="n">
-        <v>6.81133</v>
+        <v>6.7642</v>
       </c>
       <c r="D2" t="n">
-        <v>7.22421</v>
+        <v>7.21191</v>
       </c>
       <c r="E2" t="n">
-        <v>4.96659</v>
+        <v>5.0571</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.38263</v>
+        <v>7.18679</v>
       </c>
       <c r="C3" t="n">
-        <v>7.67933</v>
+        <v>7.66901</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1859</v>
+        <v>10.162</v>
       </c>
       <c r="E3" t="n">
-        <v>8.177619999999999</v>
+        <v>8.256830000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.070589999999999</v>
+        <v>8.862</v>
       </c>
       <c r="C4" t="n">
-        <v>9.85679</v>
+        <v>9.886049999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.9525</v>
+        <v>13.9207</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7007</v>
+        <v>11.8012</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.7938</v>
+        <v>10.582</v>
       </c>
       <c r="C5" t="n">
-        <v>12.2045</v>
+        <v>12.1725</v>
       </c>
       <c r="D5" t="n">
-        <v>17.769</v>
+        <v>17.6496</v>
       </c>
       <c r="E5" t="n">
-        <v>15.18</v>
+        <v>15.2387</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6625</v>
+        <v>12.4141</v>
       </c>
       <c r="C6" t="n">
-        <v>14.6016</v>
+        <v>14.5376</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4125</v>
+        <v>21.3564</v>
       </c>
       <c r="E6" t="n">
-        <v>18.5795</v>
+        <v>18.6289</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.6158</v>
+        <v>14.3138</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9965</v>
+        <v>16.9802</v>
       </c>
       <c r="D7" t="n">
-        <v>25.3284</v>
+        <v>25.325</v>
       </c>
       <c r="E7" t="n">
-        <v>21.8816</v>
+        <v>22.1952</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3609</v>
+        <v>16.0186</v>
       </c>
       <c r="C8" t="n">
-        <v>19.4262</v>
+        <v>19.3666</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7898</v>
+        <v>28.7048</v>
       </c>
       <c r="E8" t="n">
-        <v>25.255</v>
+        <v>25.4318</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6102</v>
+        <v>18.2672</v>
       </c>
       <c r="C9" t="n">
-        <v>22.3125</v>
+        <v>22.3203</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3454</v>
+        <v>33.1261</v>
       </c>
       <c r="E9" t="n">
-        <v>29.0287</v>
+        <v>29.0735</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.5636</v>
+        <v>16.3122</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2862</v>
+        <v>19.251</v>
       </c>
       <c r="D10" t="n">
-        <v>28.2706</v>
+        <v>28.0162</v>
       </c>
       <c r="E10" t="n">
-        <v>22.7005</v>
+        <v>22.9909</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.3143</v>
+        <v>16.0306</v>
       </c>
       <c r="C11" t="n">
-        <v>19.3715</v>
+        <v>19.1204</v>
       </c>
       <c r="D11" t="n">
-        <v>27.9668</v>
+        <v>28.2719</v>
       </c>
       <c r="E11" t="n">
-        <v>23.6053</v>
+        <v>23.9823</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.8886</v>
+        <v>16.4378</v>
       </c>
       <c r="C12" t="n">
-        <v>20.1704</v>
+        <v>20.2459</v>
       </c>
       <c r="D12" t="n">
-        <v>28.4381</v>
+        <v>29.5556</v>
       </c>
       <c r="E12" t="n">
-        <v>25.1709</v>
+        <v>25.1822</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7658</v>
+        <v>17.0768</v>
       </c>
       <c r="C13" t="n">
-        <v>20.5837</v>
+        <v>20.578</v>
       </c>
       <c r="D13" t="n">
-        <v>29.4942</v>
+        <v>29.4272</v>
       </c>
       <c r="E13" t="n">
-        <v>25.3904</v>
+        <v>25.2879</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2876</v>
+        <v>16.9848</v>
       </c>
       <c r="C14" t="n">
-        <v>20.5743</v>
+        <v>20.598</v>
       </c>
       <c r="D14" t="n">
-        <v>28.1352</v>
+        <v>28.9246</v>
       </c>
       <c r="E14" t="n">
-        <v>25.0863</v>
+        <v>25.115</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.0608</v>
+        <v>16.8188</v>
       </c>
       <c r="C15" t="n">
-        <v>20.6874</v>
+        <v>20.6141</v>
       </c>
       <c r="D15" t="n">
-        <v>28.3871</v>
+        <v>28.3427</v>
       </c>
       <c r="E15" t="n">
-        <v>24.8932</v>
+        <v>25.0811</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8686</v>
+        <v>17.4354</v>
       </c>
       <c r="C16" t="n">
-        <v>21.1935</v>
+        <v>21.1401</v>
       </c>
       <c r="D16" t="n">
-        <v>28.9019</v>
+        <v>29.0626</v>
       </c>
       <c r="E16" t="n">
-        <v>25.7385</v>
+        <v>25.7379</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1894</v>
+        <v>17.3202</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6352</v>
+        <v>21.5703</v>
       </c>
       <c r="D17" t="n">
-        <v>29.8764</v>
+        <v>28.6732</v>
       </c>
       <c r="E17" t="n">
-        <v>24.9667</v>
+        <v>25.8544</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.05439</v>
+        <v>2.97062</v>
       </c>
       <c r="C2" t="n">
-        <v>4.139</v>
+        <v>4.17097</v>
       </c>
       <c r="D2" t="n">
-        <v>5.32333</v>
+        <v>5.30636</v>
       </c>
       <c r="E2" t="n">
-        <v>4.08122</v>
+        <v>4.14272</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.88086</v>
+        <v>4.87692</v>
       </c>
       <c r="C3" t="n">
-        <v>5.81977</v>
+        <v>5.93037</v>
       </c>
       <c r="D3" t="n">
-        <v>8.67286</v>
+        <v>8.709110000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>7.27997</v>
+        <v>7.37554</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.6499</v>
+        <v>6.60041</v>
       </c>
       <c r="C4" t="n">
-        <v>7.7452</v>
+        <v>7.9227</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0601</v>
+        <v>12.0359</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4499</v>
+        <v>10.5981</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.220140000000001</v>
+        <v>8.11933</v>
       </c>
       <c r="C5" t="n">
-        <v>9.691140000000001</v>
+        <v>9.923730000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2807</v>
+        <v>15.2261</v>
       </c>
       <c r="E5" t="n">
-        <v>13.5492</v>
+        <v>13.7282</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.768269999999999</v>
+        <v>9.65577</v>
       </c>
       <c r="C6" t="n">
-        <v>11.692</v>
+        <v>11.9632</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4011</v>
+        <v>18.3422</v>
       </c>
       <c r="E6" t="n">
-        <v>16.6373</v>
+        <v>16.8503</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2761</v>
+        <v>11.1018</v>
       </c>
       <c r="C7" t="n">
-        <v>13.7185</v>
+        <v>14.0334</v>
       </c>
       <c r="D7" t="n">
-        <v>21.4247</v>
+        <v>21.4058</v>
       </c>
       <c r="E7" t="n">
-        <v>19.6673</v>
+        <v>19.9143</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6839</v>
+        <v>12.6093</v>
       </c>
       <c r="C8" t="n">
-        <v>15.8544</v>
+        <v>16.2292</v>
       </c>
       <c r="D8" t="n">
-        <v>24.4967</v>
+        <v>24.4365</v>
       </c>
       <c r="E8" t="n">
-        <v>22.6115</v>
+        <v>22.9132</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8138</v>
+        <v>14.6659</v>
       </c>
       <c r="C9" t="n">
-        <v>18.6448</v>
+        <v>19.0942</v>
       </c>
       <c r="D9" t="n">
-        <v>29.1352</v>
+        <v>29.0542</v>
       </c>
       <c r="E9" t="n">
-        <v>25.9885</v>
+        <v>26.325</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1117</v>
+        <v>14.1516</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5206</v>
+        <v>17.7402</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9279</v>
+        <v>26.6181</v>
       </c>
       <c r="E10" t="n">
-        <v>24.1986</v>
+        <v>24.4462</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1573</v>
+        <v>13.9217</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9365</v>
+        <v>17.8328</v>
       </c>
       <c r="D11" t="n">
-        <v>26.5948</v>
+        <v>26.4911</v>
       </c>
       <c r="E11" t="n">
-        <v>23.8548</v>
+        <v>24.0172</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2309</v>
+        <v>14.0385</v>
       </c>
       <c r="C12" t="n">
-        <v>17.2262</v>
+        <v>17.6299</v>
       </c>
       <c r="D12" t="n">
-        <v>27.0982</v>
+        <v>27.0276</v>
       </c>
       <c r="E12" t="n">
-        <v>24.2311</v>
+        <v>24.1766</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5074</v>
+        <v>14.2864</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5585</v>
+        <v>17.9243</v>
       </c>
       <c r="D13" t="n">
-        <v>27.4892</v>
+        <v>27.6985</v>
       </c>
       <c r="E13" t="n">
-        <v>24.7782</v>
+        <v>25.0033</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9811</v>
+        <v>13.7845</v>
       </c>
       <c r="C14" t="n">
-        <v>17.6239</v>
+        <v>18.0641</v>
       </c>
       <c r="D14" t="n">
-        <v>26.2216</v>
+        <v>26.485</v>
       </c>
       <c r="E14" t="n">
-        <v>23.4329</v>
+        <v>24.0047</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5504</v>
+        <v>14.446</v>
       </c>
       <c r="C15" t="n">
-        <v>17.7868</v>
+        <v>18.0839</v>
       </c>
       <c r="D15" t="n">
-        <v>26.6103</v>
+        <v>27.0722</v>
       </c>
       <c r="E15" t="n">
-        <v>24.3099</v>
+        <v>24.4703</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5314</v>
+        <v>14.205</v>
       </c>
       <c r="C16" t="n">
-        <v>17.8345</v>
+        <v>18.2717</v>
       </c>
       <c r="D16" t="n">
-        <v>26.4134</v>
+        <v>26.7621</v>
       </c>
       <c r="E16" t="n">
-        <v>23.9772</v>
+        <v>24.2407</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2579</v>
+        <v>14.3353</v>
       </c>
       <c r="C17" t="n">
-        <v>17.8671</v>
+        <v>18.2973</v>
       </c>
       <c r="D17" t="n">
-        <v>27.0481</v>
+        <v>26.4293</v>
       </c>
       <c r="E17" t="n">
-        <v>23.7121</v>
+        <v>23.9447</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0865</v>
+        <v>3.9014</v>
       </c>
       <c r="C2" t="n">
-        <v>8.255739999999999</v>
+        <v>8.247439999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.64878</v>
+        <v>8.619960000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>5.79814</v>
+        <v>6.16407</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.14096</v>
+        <v>6.05071</v>
       </c>
       <c r="C3" t="n">
-        <v>8.798959999999999</v>
+        <v>8.92887</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5175</v>
+        <v>12.5858</v>
       </c>
       <c r="E3" t="n">
-        <v>9.76585</v>
+        <v>10.3469</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.269159999999999</v>
+        <v>7.98222</v>
       </c>
       <c r="C4" t="n">
-        <v>11.234</v>
+        <v>11.1825</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8821</v>
+        <v>16.7971</v>
       </c>
       <c r="E4" t="n">
-        <v>13.8913</v>
+        <v>14.5797</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1982</v>
+        <v>9.883150000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>13.664</v>
+        <v>13.633</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8419</v>
+        <v>20.8263</v>
       </c>
       <c r="E5" t="n">
-        <v>17.7612</v>
+        <v>18.5932</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1168</v>
+        <v>11.7324</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2522</v>
+        <v>16.2208</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8799</v>
+        <v>24.8441</v>
       </c>
       <c r="E6" t="n">
-        <v>21.6639</v>
+        <v>22.7226</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.8558</v>
+        <v>13.5598</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9154</v>
+        <v>18.9552</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7288</v>
+        <v>28.8677</v>
       </c>
       <c r="E7" t="n">
-        <v>25.4929</v>
+        <v>26.7222</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7657</v>
+        <v>15.2466</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9315</v>
+        <v>21.9123</v>
       </c>
       <c r="D8" t="n">
-        <v>32.5855</v>
+        <v>32.6968</v>
       </c>
       <c r="E8" t="n">
-        <v>29.2943</v>
+        <v>30.6552</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2897</v>
+        <v>17.847</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5808</v>
+        <v>25.5916</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9889</v>
+        <v>39.0624</v>
       </c>
       <c r="E9" t="n">
-        <v>33.7261</v>
+        <v>35.2246</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3105</v>
+        <v>16.9037</v>
       </c>
       <c r="C10" t="n">
-        <v>23.52</v>
+        <v>23.7044</v>
       </c>
       <c r="D10" t="n">
-        <v>35.5109</v>
+        <v>36.2746</v>
       </c>
       <c r="E10" t="n">
-        <v>30.6615</v>
+        <v>32.3319</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.3665</v>
+        <v>17.0407</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6696</v>
+        <v>23.5716</v>
       </c>
       <c r="D11" t="n">
-        <v>35.8384</v>
+        <v>34.9854</v>
       </c>
       <c r="E11" t="n">
-        <v>30.868</v>
+        <v>32.1066</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.311</v>
+        <v>17.0236</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9968</v>
+        <v>23.6811</v>
       </c>
       <c r="D12" t="n">
-        <v>35.6649</v>
+        <v>35.6761</v>
       </c>
       <c r="E12" t="n">
-        <v>30.8973</v>
+        <v>32.1293</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.463</v>
+        <v>17.3128</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1676</v>
+        <v>23.8099</v>
       </c>
       <c r="D13" t="n">
-        <v>35.8694</v>
+        <v>36.1307</v>
       </c>
       <c r="E13" t="n">
-        <v>31.5253</v>
+        <v>32.6274</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2465</v>
+        <v>16.6979</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1313</v>
+        <v>24.0072</v>
       </c>
       <c r="D14" t="n">
-        <v>34.6308</v>
+        <v>34.5329</v>
       </c>
       <c r="E14" t="n">
-        <v>30.1879</v>
+        <v>31.2966</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9019</v>
+        <v>17.2914</v>
       </c>
       <c r="C15" t="n">
-        <v>24.2833</v>
+        <v>24.1958</v>
       </c>
       <c r="D15" t="n">
-        <v>35.234</v>
+        <v>35.5122</v>
       </c>
       <c r="E15" t="n">
-        <v>30.3694</v>
+        <v>31.6263</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6962</v>
+        <v>17.4082</v>
       </c>
       <c r="C16" t="n">
-        <v>24.5096</v>
+        <v>24.4552</v>
       </c>
       <c r="D16" t="n">
-        <v>34.8799</v>
+        <v>34.7069</v>
       </c>
       <c r="E16" t="n">
-        <v>30.7504</v>
+        <v>31.7113</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6027</v>
+        <v>17.0034</v>
       </c>
       <c r="C17" t="n">
-        <v>24.661</v>
+        <v>24.6052</v>
       </c>
       <c r="D17" t="n">
-        <v>34.4821</v>
+        <v>34.2341</v>
       </c>
       <c r="E17" t="n">
-        <v>30.7295</v>
+        <v>31.6246</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.51835</v>
+        <v>5.23449</v>
       </c>
       <c r="C2" t="n">
-        <v>6.49995</v>
+        <v>6.42148</v>
       </c>
       <c r="D2" t="n">
-        <v>6.75512</v>
+        <v>6.74406</v>
       </c>
       <c r="E2" t="n">
-        <v>4.84379</v>
+        <v>4.9194</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.87054</v>
+        <v>6.79971</v>
       </c>
       <c r="C3" t="n">
-        <v>7.52283</v>
+        <v>7.58894</v>
       </c>
       <c r="D3" t="n">
-        <v>9.961740000000001</v>
+        <v>9.99281</v>
       </c>
       <c r="E3" t="n">
-        <v>8.129630000000001</v>
+        <v>8.26741</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.857430000000001</v>
+        <v>8.651949999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.77505</v>
+        <v>9.719139999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7897</v>
+        <v>13.7056</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7383</v>
+        <v>11.8334</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.7364</v>
+        <v>10.4821</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0358</v>
+        <v>11.9692</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5581</v>
+        <v>17.4264</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2232</v>
+        <v>15.3433</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.632</v>
+        <v>12.3305</v>
       </c>
       <c r="C6" t="n">
-        <v>14.3756</v>
+        <v>14.3201</v>
       </c>
       <c r="D6" t="n">
-        <v>21.3418</v>
+        <v>21.1885</v>
       </c>
       <c r="E6" t="n">
-        <v>18.73</v>
+        <v>18.8555</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4845</v>
+        <v>14.1596</v>
       </c>
       <c r="C7" t="n">
-        <v>16.7372</v>
+        <v>16.6975</v>
       </c>
       <c r="D7" t="n">
-        <v>25.0642</v>
+        <v>24.9396</v>
       </c>
       <c r="E7" t="n">
-        <v>22.1899</v>
+        <v>22.3507</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4401</v>
+        <v>16.0526</v>
       </c>
       <c r="C8" t="n">
-        <v>19.331</v>
+        <v>19.2573</v>
       </c>
       <c r="D8" t="n">
-        <v>28.9445</v>
+        <v>28.7434</v>
       </c>
       <c r="E8" t="n">
-        <v>25.7013</v>
+        <v>25.824</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9645</v>
+        <v>18.5639</v>
       </c>
       <c r="C9" t="n">
-        <v>22.242</v>
+        <v>22.1966</v>
       </c>
       <c r="D9" t="n">
-        <v>33.8012</v>
+        <v>33.541</v>
       </c>
       <c r="E9" t="n">
-        <v>29.6694</v>
+        <v>29.8655</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.2314</v>
+        <v>17.6591</v>
       </c>
       <c r="C10" t="n">
-        <v>20.7379</v>
+        <v>20.5414</v>
       </c>
       <c r="D10" t="n">
-        <v>30.8491</v>
+        <v>31.2235</v>
       </c>
       <c r="E10" t="n">
-        <v>27.4683</v>
+        <v>27.7052</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.875</v>
+        <v>17.7815</v>
       </c>
       <c r="C11" t="n">
-        <v>20.9164</v>
+        <v>20.6455</v>
       </c>
       <c r="D11" t="n">
-        <v>30.7922</v>
+        <v>30.8674</v>
       </c>
       <c r="E11" t="n">
-        <v>27.2785</v>
+        <v>27.4487</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.1809</v>
+        <v>17.8409</v>
       </c>
       <c r="C12" t="n">
-        <v>20.9251</v>
+        <v>20.985</v>
       </c>
       <c r="D12" t="n">
-        <v>31.1</v>
+        <v>31.2093</v>
       </c>
       <c r="E12" t="n">
-        <v>27.2628</v>
+        <v>27.4747</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.4756</v>
+        <v>17.9474</v>
       </c>
       <c r="C13" t="n">
-        <v>21.1547</v>
+        <v>21.1958</v>
       </c>
       <c r="D13" t="n">
-        <v>31.6536</v>
+        <v>31.6678</v>
       </c>
       <c r="E13" t="n">
-        <v>27.9207</v>
+        <v>27.7826</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.8214</v>
+        <v>17.4843</v>
       </c>
       <c r="C14" t="n">
-        <v>21.2125</v>
+        <v>21.074</v>
       </c>
       <c r="D14" t="n">
-        <v>30.9169</v>
+        <v>30.7168</v>
       </c>
       <c r="E14" t="n">
-        <v>26.7856</v>
+        <v>27.1337</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.5877</v>
+        <v>18.0476</v>
       </c>
       <c r="C15" t="n">
-        <v>21.3664</v>
+        <v>21.235</v>
       </c>
       <c r="D15" t="n">
-        <v>31.7874</v>
+        <v>31.4719</v>
       </c>
       <c r="E15" t="n">
-        <v>27.7803</v>
+        <v>27.948</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.4313</v>
+        <v>18.1408</v>
       </c>
       <c r="C16" t="n">
-        <v>21.6015</v>
+        <v>21.4543</v>
       </c>
       <c r="D16" t="n">
-        <v>31.6504</v>
+        <v>30.9939</v>
       </c>
       <c r="E16" t="n">
-        <v>27.7815</v>
+        <v>27.6738</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.3359</v>
+        <v>17.8795</v>
       </c>
       <c r="C17" t="n">
-        <v>21.8544</v>
+        <v>21.6756</v>
       </c>
       <c r="D17" t="n">
-        <v>31.5822</v>
+        <v>31.4186</v>
       </c>
       <c r="E17" t="n">
-        <v>27.4057</v>
+        <v>27.3297</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,278 +4795,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.09617</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.66608</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.18752</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.47355</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.29469</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.09663</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.13151</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.45726</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.76399</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.01892</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.6306</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9.227830000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.959899999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.5915</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.6891</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10.8256</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12.1502</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.5806</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16.7033</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12.4916</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.4126</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21.8764</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19.7521</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13.8281</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.5169</v>
-      </c>
-      <c r="D8" t="n">
-        <v>24.5969</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22.7452</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>16.2952</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19.3138</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29.0618</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26.0259</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>14.0834</v>
-      </c>
-      <c r="C10" t="n">
-        <v>16.0998</v>
-      </c>
-      <c r="D10" t="n">
-        <v>23.4322</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20.3223</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>13.8889</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16.2781</v>
-      </c>
-      <c r="D11" t="n">
-        <v>24.4343</v>
-      </c>
-      <c r="E11" t="n">
-        <v>21.425</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>14.5528</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16.8636</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.9219</v>
-      </c>
-      <c r="E12" t="n">
-        <v>21.9017</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>14.8643</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17.6969</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25.6408</v>
-      </c>
-      <c r="E13" t="n">
-        <v>22.7652</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14.8973</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17.7609</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25.0636</v>
-      </c>
-      <c r="E14" t="n">
-        <v>22.3947</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14.8861</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17.8676</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25.0078</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22.4806</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15.1636</v>
-      </c>
-      <c r="C16" t="n">
-        <v>18.3292</v>
-      </c>
-      <c r="D16" t="n">
-        <v>25.6135</v>
-      </c>
-      <c r="E16" t="n">
-        <v>22.4924</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15.5148</v>
-      </c>
-      <c r="C17" t="n">
-        <v>18.663</v>
-      </c>
-      <c r="D17" t="n">
-        <v>24.9926</v>
-      </c>
-      <c r="E17" t="n">
-        <v>23.8676</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5079,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5112,278 +4840,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.37537</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.2517</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.3136</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.85705</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.453060000000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.492760000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.6432</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.4871</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10.0074</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.5509</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.632</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.639</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.8099</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14.021</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.5524</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18.7412</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.7785</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16.9416</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.5665</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22.6769</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>15.8341</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20.0271</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30.025</v>
-      </c>
-      <c r="E7" t="n">
-        <v>26.4335</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>17.5362</v>
-      </c>
-      <c r="C8" t="n">
-        <v>22.7051</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33.0502</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30.219</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20.5449</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26.1634</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38.146</v>
-      </c>
-      <c r="E9" t="n">
-        <v>34.0198</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>18.0227</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23.3988</v>
-      </c>
-      <c r="D10" t="n">
-        <v>33.3631</v>
-      </c>
-      <c r="E10" t="n">
-        <v>27.9228</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17.5895</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22.5966</v>
-      </c>
-      <c r="D11" t="n">
-        <v>33.3914</v>
-      </c>
-      <c r="E11" t="n">
-        <v>28.9061</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>18.3173</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22.9912</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33.46</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.2874</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>18.6005</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24.0838</v>
-      </c>
-      <c r="D13" t="n">
-        <v>33.5699</v>
-      </c>
-      <c r="E13" t="n">
-        <v>31.1398</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>18.5174</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24.1026</v>
-      </c>
-      <c r="D14" t="n">
-        <v>33.9134</v>
-      </c>
-      <c r="E14" t="n">
-        <v>28.8331</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>18.8722</v>
-      </c>
-      <c r="C15" t="n">
-        <v>24.299</v>
-      </c>
-      <c r="D15" t="n">
-        <v>33.764</v>
-      </c>
-      <c r="E15" t="n">
-        <v>28.9299</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>19.1539</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24.7149</v>
-      </c>
-      <c r="D16" t="n">
-        <v>33.9389</v>
-      </c>
-      <c r="E16" t="n">
-        <v>30.0431</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>19.0938</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24.8884</v>
-      </c>
-      <c r="D17" t="n">
-        <v>33.4392</v>
-      </c>
-      <c r="E17" t="n">
-        <v>28.9226</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5396,7 +4852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5429,278 +4885,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6.42594</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.7642</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.21191</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.0571</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.18679</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.66901</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.162</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.256830000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.862</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.886049999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.9207</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.8012</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10.582</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.1725</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.6496</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15.2387</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12.4141</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14.5376</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.3564</v>
-      </c>
-      <c r="E6" t="n">
-        <v>18.6289</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14.3138</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16.9802</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25.325</v>
-      </c>
-      <c r="E7" t="n">
-        <v>22.1952</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16.0186</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.3666</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28.7048</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25.4318</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>18.2672</v>
-      </c>
-      <c r="C9" t="n">
-        <v>22.3203</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33.1261</v>
-      </c>
-      <c r="E9" t="n">
-        <v>29.0735</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.3122</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19.251</v>
-      </c>
-      <c r="D10" t="n">
-        <v>28.0162</v>
-      </c>
-      <c r="E10" t="n">
-        <v>22.9909</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>16.0306</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19.1204</v>
-      </c>
-      <c r="D11" t="n">
-        <v>28.2719</v>
-      </c>
-      <c r="E11" t="n">
-        <v>23.9823</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>16.4378</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20.2459</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.5556</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25.1822</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17.0768</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20.578</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29.4272</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25.2879</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>16.9848</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20.598</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28.9246</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.115</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>16.8188</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20.6141</v>
-      </c>
-      <c r="D15" t="n">
-        <v>28.3427</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25.0811</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>17.4354</v>
-      </c>
-      <c r="C16" t="n">
-        <v>21.1401</v>
-      </c>
-      <c r="D16" t="n">
-        <v>29.0626</v>
-      </c>
-      <c r="E16" t="n">
-        <v>25.7379</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>17.3202</v>
-      </c>
-      <c r="C17" t="n">
-        <v>21.5703</v>
-      </c>
-      <c r="D17" t="n">
-        <v>28.6732</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25.8544</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5713,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5746,278 +4930,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.97062</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.17097</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.30636</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.14272</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4.87692</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.93037</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.709110000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.37554</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.60041</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.9227</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.0359</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.5981</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8.11933</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.923730000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.2261</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.7282</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9.65577</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.9632</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.3422</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16.8503</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11.1018</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.0334</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21.4058</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19.9143</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12.6093</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.2292</v>
-      </c>
-      <c r="D8" t="n">
-        <v>24.4365</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22.9132</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>14.6659</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19.0942</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29.0542</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26.325</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>14.1516</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.7402</v>
-      </c>
-      <c r="D10" t="n">
-        <v>26.6181</v>
-      </c>
-      <c r="E10" t="n">
-        <v>24.4462</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>13.9217</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17.8328</v>
-      </c>
-      <c r="D11" t="n">
-        <v>26.4911</v>
-      </c>
-      <c r="E11" t="n">
-        <v>24.0172</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>14.0385</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17.6299</v>
-      </c>
-      <c r="D12" t="n">
-        <v>27.0276</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24.1766</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>14.2864</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17.9243</v>
-      </c>
-      <c r="D13" t="n">
-        <v>27.6985</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25.0033</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13.7845</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18.0641</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26.485</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24.0047</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14.446</v>
-      </c>
-      <c r="C15" t="n">
-        <v>18.0839</v>
-      </c>
-      <c r="D15" t="n">
-        <v>27.0722</v>
-      </c>
-      <c r="E15" t="n">
-        <v>24.4703</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14.205</v>
-      </c>
-      <c r="C16" t="n">
-        <v>18.2717</v>
-      </c>
-      <c r="D16" t="n">
-        <v>26.7621</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24.2407</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>14.3353</v>
-      </c>
-      <c r="C17" t="n">
-        <v>18.2973</v>
-      </c>
-      <c r="D17" t="n">
-        <v>26.4293</v>
-      </c>
-      <c r="E17" t="n">
-        <v>23.9447</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -6030,7 +4942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -6061,278 +4973,6 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.9014</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.247439999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.619960000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.16407</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.05071</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8.92887</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.5858</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.3469</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.98222</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.1825</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.7971</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.5797</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9.883150000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13.633</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.8263</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18.5932</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11.7324</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16.2208</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24.8441</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22.7226</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13.5598</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18.9552</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28.8677</v>
-      </c>
-      <c r="E7" t="n">
-        <v>26.7222</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>15.2466</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21.9123</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32.6968</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30.6552</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>17.847</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.5916</v>
-      </c>
-      <c r="D9" t="n">
-        <v>39.0624</v>
-      </c>
-      <c r="E9" t="n">
-        <v>35.2246</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.9037</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23.7044</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36.2746</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32.3319</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17.0407</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23.5716</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34.9854</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32.1066</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>17.0236</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23.6811</v>
-      </c>
-      <c r="D12" t="n">
-        <v>35.6761</v>
-      </c>
-      <c r="E12" t="n">
-        <v>32.1293</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17.3128</v>
-      </c>
-      <c r="C13" t="n">
-        <v>23.8099</v>
-      </c>
-      <c r="D13" t="n">
-        <v>36.1307</v>
-      </c>
-      <c r="E13" t="n">
-        <v>32.6274</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>16.6979</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24.0072</v>
-      </c>
-      <c r="D14" t="n">
-        <v>34.5329</v>
-      </c>
-      <c r="E14" t="n">
-        <v>31.2966</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>17.2914</v>
-      </c>
-      <c r="C15" t="n">
-        <v>24.1958</v>
-      </c>
-      <c r="D15" t="n">
-        <v>35.5122</v>
-      </c>
-      <c r="E15" t="n">
-        <v>31.6263</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>17.4082</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24.4552</v>
-      </c>
-      <c r="D16" t="n">
-        <v>34.7069</v>
-      </c>
-      <c r="E16" t="n">
-        <v>31.7113</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>17.0034</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24.6052</v>
-      </c>
-      <c r="D17" t="n">
-        <v>34.2341</v>
-      </c>
-      <c r="E17" t="n">
-        <v>31.6246</v>
       </c>
     </row>
   </sheetData>
@@ -6380,278 +5020,22 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.23449</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.42148</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.74406</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.9194</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.79971</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.58894</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.99281</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.26741</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.651949999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.719139999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.7056</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.8334</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10.4821</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.9692</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.4264</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15.3433</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12.3305</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14.3201</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.1885</v>
-      </c>
-      <c r="E6" t="n">
-        <v>18.8555</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14.1596</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16.6975</v>
-      </c>
-      <c r="D7" t="n">
-        <v>24.9396</v>
-      </c>
-      <c r="E7" t="n">
-        <v>22.3507</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16.0526</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.2573</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28.7434</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25.824</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>18.5639</v>
-      </c>
-      <c r="C9" t="n">
-        <v>22.1966</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33.541</v>
-      </c>
-      <c r="E9" t="n">
-        <v>29.8655</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>17.6591</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20.5414</v>
-      </c>
-      <c r="D10" t="n">
-        <v>31.2235</v>
-      </c>
-      <c r="E10" t="n">
-        <v>27.7052</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17.7815</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20.6455</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30.8674</v>
-      </c>
-      <c r="E11" t="n">
-        <v>27.4487</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>17.8409</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20.985</v>
-      </c>
-      <c r="D12" t="n">
-        <v>31.2093</v>
-      </c>
-      <c r="E12" t="n">
-        <v>27.4747</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17.9474</v>
-      </c>
-      <c r="C13" t="n">
-        <v>21.1958</v>
-      </c>
-      <c r="D13" t="n">
-        <v>31.6678</v>
-      </c>
-      <c r="E13" t="n">
-        <v>27.7826</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>17.4843</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21.074</v>
-      </c>
-      <c r="D14" t="n">
-        <v>30.7168</v>
-      </c>
-      <c r="E14" t="n">
-        <v>27.1337</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>18.0476</v>
-      </c>
-      <c r="C15" t="n">
-        <v>21.235</v>
-      </c>
-      <c r="D15" t="n">
-        <v>31.4719</v>
-      </c>
-      <c r="E15" t="n">
-        <v>27.948</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>18.1408</v>
-      </c>
-      <c r="C16" t="n">
-        <v>21.4543</v>
-      </c>
-      <c r="D16" t="n">
-        <v>30.9939</v>
-      </c>
-      <c r="E16" t="n">
-        <v>27.6738</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>17.8795</v>
-      </c>
-      <c r="C17" t="n">
-        <v>21.6756</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31.4186</v>
-      </c>
-      <c r="E17" t="n">
-        <v>27.3297</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,6 +4795,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.11291</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.66645</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.18691</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.47235</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.25893</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.05464</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.13228</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4493</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.77287</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.041410000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.4385</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.6344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.22892</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.0191</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.545</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.7269</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.8395</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.0885</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.6432</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.758</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.5571</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.2425</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.8189</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.7563</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.8759</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.7091</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.6439</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22.7065</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16.2917</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.087</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.6325</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25.6153</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.1161</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15.9367</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.8637</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.4128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13.8661</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.2996</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.5627</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.1083</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.4504</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.0992</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24.6336</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.489</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14.8426</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17.3315</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25.6337</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23.6117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14.8314</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17.5382</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.3865</v>
+      </c>
+      <c r="E14" t="n">
+        <v>22.6258</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15.1051</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18.0204</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.9346</v>
+      </c>
+      <c r="E15" t="n">
+        <v>22.4628</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15.1416</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18.1453</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25.5493</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22.1828</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15.619</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18.2761</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.208</v>
+      </c>
+      <c r="E17" t="n">
+        <v>22.5941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4807,7 +5079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4840,6 +5112,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.38847</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.2458</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.3164</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.86057</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.28317</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.24757</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.4314</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.3815</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.99339</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.4807</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.5548</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.6298</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.7786</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.9102</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.4858</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.6179</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.709</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.7064</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.2942</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.6198</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.5913</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.852</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.4098</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26.3905</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.5022</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.8209</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.0254</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30.2191</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20.6198</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.1608</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37.7048</v>
+      </c>
+      <c r="E9" t="n">
+        <v>34.0629</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.8951</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.6826</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.4135</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27.8688</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.6945</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.2476</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.4905</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.9907</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18.172</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.2062</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33.6835</v>
+      </c>
+      <c r="E12" t="n">
+        <v>29.5016</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18.8366</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23.6508</v>
+      </c>
+      <c r="D13" t="n">
+        <v>34.9021</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.8808</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.6189</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23.9296</v>
+      </c>
+      <c r="D14" t="n">
+        <v>33.0632</v>
+      </c>
+      <c r="E14" t="n">
+        <v>29.3214</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18.4935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24.0376</v>
+      </c>
+      <c r="D15" t="n">
+        <v>33.1533</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29.0943</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19.2026</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24.6839</v>
+      </c>
+      <c r="D16" t="n">
+        <v>33.4995</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28.4213</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.326</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.5932</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33.4972</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30.0385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4852,7 +5396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4885,6 +5429,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.42538</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.76306</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.21869</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.05749</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.05624</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.53123</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.0591</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.205730000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.830270000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.76313</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.8941</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.7852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.5855</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.1566</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.6786</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.2486</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.4414</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.4891</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.4401</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.6322</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.235</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.0369</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.934</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22.0093</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.016</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.3303</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.6637</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25.436</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.2313</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.3149</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.3022</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.1305</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.5065</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.2456</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27.8716</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22.8651</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16.0672</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19.3157</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.2578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.9126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16.5187</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19.8419</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29.7796</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24.7828</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17.2676</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.6205</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29.9154</v>
+      </c>
+      <c r="E13" t="n">
+        <v>26.3369</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.4271</v>
+      </c>
+      <c r="D14" t="n">
+        <v>27.5722</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24.9183</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.0456</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20.7158</v>
+      </c>
+      <c r="D15" t="n">
+        <v>28.7897</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24.8345</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17.5313</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.0487</v>
+      </c>
+      <c r="D16" t="n">
+        <v>29.2203</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.3802</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17.6803</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.4091</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28.523</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.1712</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4897,7 +5713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4930,6 +5746,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.97079</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.17317</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.31001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.14513</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.86667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.91868</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.68774</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.37126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.54255</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.91621</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.0406</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.5843</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.1127</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.937480000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.2384</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.7369</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9.65456</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.9744</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.3369</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.8386</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11.1303</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.0141</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.3339</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.9062</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12.5967</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.2318</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.5378</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22.9381</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.6685</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.0708</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.0269</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26.3649</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.091</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17.8469</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.4775</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24.1948</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13.8726</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17.472</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.8442</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24.1388</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13.9948</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.7017</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.5685</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24.2686</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14.3006</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17.9865</v>
+      </c>
+      <c r="D13" t="n">
+        <v>27.1356</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24.6836</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13.7937</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17.9943</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26.1106</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23.8948</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.3556</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18.2154</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26.6802</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24.5083</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14.3394</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18.2448</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26.9024</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24.325</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.2105</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18.381</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26.6204</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24.2404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4942,7 +6030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4973,6 +6061,278 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.90024</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.25393</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.62152</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.16414</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.02215</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.917020000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.5649</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.349</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.01327</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.1756</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.8237</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.5845</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.918480000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.6402</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.8165</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.626</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11.7803</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.2237</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.7442</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.7191</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13.5235</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18.9122</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.6641</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26.7453</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.2433</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.9189</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.8168</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30.6395</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17.8347</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.5492</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.0688</v>
+      </c>
+      <c r="E9" t="n">
+        <v>35.2484</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.9046</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.2244</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35.417</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.5229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16.9306</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.4481</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.6983</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31.7448</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16.9782</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.7225</v>
+      </c>
+      <c r="D12" t="n">
+        <v>35.5027</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.5169</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17.2994</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24.0467</v>
+      </c>
+      <c r="D13" t="n">
+        <v>36.6728</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32.9713</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16.6839</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23.936</v>
+      </c>
+      <c r="D14" t="n">
+        <v>34.7166</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31.0521</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.0287</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24.3072</v>
+      </c>
+      <c r="D15" t="n">
+        <v>34.6915</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31.5785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17.3853</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24.4121</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34.8806</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31.8398</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17.4205</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="D17" t="n">
+        <v>35.1643</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30.5947</v>
       </c>
     </row>
   </sheetData>
@@ -5020,22 +6380,278 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.22929</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.43144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.74906</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.92292</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.76085</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.55521</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.97336</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.254189999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.62702</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.743819999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.7151</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.8428</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.4974</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.9631</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.4381</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.3306</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.3653</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.3243</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.1968</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.8622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.1738</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.672</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.9394</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22.3239</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.0714</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.2676</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.7871</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25.8537</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.5588</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.1789</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.643</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.8227</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.7402</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.7346</v>
+      </c>
+      <c r="D10" t="n">
+        <v>31.0703</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27.6876</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.7773</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.4287</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.7928</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27.3257</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17.8105</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.6558</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.7331</v>
+      </c>
+      <c r="E12" t="n">
+        <v>27.9614</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17.9592</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21.1657</v>
+      </c>
+      <c r="D13" t="n">
+        <v>31.7059</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27.9387</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.4634</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.9528</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30.4997</v>
+      </c>
+      <c r="E14" t="n">
+        <v>26.845</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18.2027</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21.2752</v>
+      </c>
+      <c r="D15" t="n">
+        <v>31.4992</v>
+      </c>
+      <c r="E15" t="n">
+        <v>27.6847</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18.1357</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.501</v>
+      </c>
+      <c r="D16" t="n">
+        <v>31.1487</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27.5789</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18.0867</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.6955</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31.5171</v>
+      </c>
+      <c r="E17" t="n">
+        <v>27.8434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="500k, 0.01" sheetId="1" state="visible" r:id="rId1"/>
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.04196</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7548</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.5965</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.1211</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.9593</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.1952</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.9931</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.6191</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>31.8691</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>29.1933</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.0212</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.0733</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>30.7886</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>31.0243</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>30.3046</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.2738</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.8239</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.1098</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.4315</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.4453</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>22.8333</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.6506</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.7991</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.586</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.6552</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>16.9317</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>16.0848</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>16.3772</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.8073</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>16.3375</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>16.3003</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>16.4925</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.8698</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.1979</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.226</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.5083</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.2833</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.809</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.5411</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.648</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.5141</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.696</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.562</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.6898</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.7771</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.6172</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>40.1725</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.233</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.014760000000001</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7253</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.2607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.5955</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>25.8655</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>27.8528</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.2896</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.4791</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>32.5906</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>32.0825</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.1665</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.3791</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.3403</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.6472</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7387</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.6481</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.7263</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.9888</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1975</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.3554</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.0146</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.4836</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.1334</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.3752</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.058</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.4598</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.4539</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.2711</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.6766</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.4165</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.297</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.5872</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.867</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.8568</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.0436</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.7699</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.3931</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>12.9162</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>25.3072</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>36.1843</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.6761</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>24.4303</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.3513</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>31.213</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.823</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8533</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.6766</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.75653</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.6313</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.9494</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>31.5999</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.3215</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.0275</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.7959</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.2449</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.0444</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.5689</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.7024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.6463</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.7974</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.8285</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.7665</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.8454</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5546</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.373</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.1499</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.8795</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.456</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>16.4204</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>15.7672</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>14.967</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>15.9969</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.8365</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.5373</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.3003</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.3664</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.3564</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.6061</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.5156</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.2155</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.1683</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>34.1297</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>44.6755</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.6211</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.7039</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>33.2518</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.6154</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.9122</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0458</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.0682</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.9944</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.1704</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.0711</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>36.2356</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2473</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.08628</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.2805</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.6583</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0278</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.3115</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.9464</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.429</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.6642</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.6046</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.5257</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.8832</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.5263</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.4168</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.5133</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9753</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.5673</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.224</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.5179</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1107</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0303</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4426</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.1139</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4737</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.5707</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>18.4397</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.7371</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.9475</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.448</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6857</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.489</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.5141</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.358</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.4487</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.2258</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.5025</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.9713</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.5319</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.4495</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.2362</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7844</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.7962</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.9492</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.1088</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.8895</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>41.5491</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5762</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.7578</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.7522</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.09909</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.3101</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.7179</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.2652</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.5296</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.98</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.674</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.0632</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8636</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.1339</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7174</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.6251</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1161</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.9719</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9311</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.909</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.1984</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.6114</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.403</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.5845</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.2278</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4989</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.2178</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>19.597</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.323</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.3089</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.4284</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.3952</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.2446</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.7765</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.6216</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.1478</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.7691</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.9245</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.2667</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>38.9787</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.5341</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6022</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.4625</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1908</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.5839</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.3806</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>41.092</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.9808</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5043</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.8637</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>41.843</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.50034</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.8289</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.3146</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.209</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.955</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>34.7817</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3239</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>38.1812</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.8878</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.009</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.3024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.8075</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>38.1555</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.9911</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8898</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>38.1378</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5142</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.5052</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.8285</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>30.4771</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>19.2644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.907</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.0008</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.8152</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>20.8086</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>19.8123</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>18.3327</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>18.6433</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6417</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.8255</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.8327</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.8783</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.4315</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.88</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.26</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.293</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.9577</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.6963</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.2567</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.0037</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.8414</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.8774</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.0872</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.7784</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3415</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>42.2976</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8443</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>42.8458</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4081,19 +4789,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.29724</v>
+        <v>5.11291</v>
       </c>
       <c r="C2" t="n">
-        <v>5.79102</v>
+        <v>4.66645</v>
       </c>
       <c r="D2" t="n">
-        <v>6.08855</v>
+        <v>6.18691</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.47235</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.39588</v>
+        <v>6.25893</v>
       </c>
       <c r="C3" t="n">
-        <v>6.82262</v>
+        <v>6.05464</v>
       </c>
       <c r="D3" t="n">
-        <v>9.058020000000001</v>
+        <v>9.13228</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4493</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.45204</v>
+        <v>7.77287</v>
       </c>
       <c r="C4" t="n">
-        <v>8.801869999999999</v>
+        <v>8.041410000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.3282</v>
+        <v>12.4385</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.6344</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.387499999999999</v>
+        <v>9.22892</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8961</v>
+        <v>10.0191</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4652</v>
+        <v>15.545</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.7269</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9861</v>
+        <v>10.8395</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2115</v>
+        <v>12.0885</v>
       </c>
       <c r="D6" t="n">
-        <v>18.3546</v>
+        <v>18.6432</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.758</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7183</v>
+        <v>12.5571</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5357</v>
+        <v>14.2425</v>
       </c>
       <c r="D7" t="n">
-        <v>21.4438</v>
+        <v>21.8189</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.7563</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0709</v>
+        <v>13.8759</v>
       </c>
       <c r="C8" t="n">
-        <v>17.971</v>
+        <v>16.7091</v>
       </c>
       <c r="D8" t="n">
-        <v>24.3845</v>
+        <v>24.6439</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22.7065</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5276</v>
+        <v>16.2917</v>
       </c>
       <c r="C9" t="n">
-        <v>20.9405</v>
+        <v>19.087</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5695</v>
+        <v>28.6325</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25.6153</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.997</v>
+        <v>14.1161</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5127</v>
+        <v>15.9367</v>
       </c>
       <c r="D10" t="n">
-        <v>23.2127</v>
+        <v>23.8637</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.4128</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1411</v>
+        <v>13.8661</v>
       </c>
       <c r="C11" t="n">
-        <v>17.6389</v>
+        <v>16.2996</v>
       </c>
       <c r="D11" t="n">
-        <v>23.637</v>
+        <v>23.5627</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.1083</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.7092</v>
+        <v>14.4504</v>
       </c>
       <c r="C12" t="n">
-        <v>18.4907</v>
+        <v>17.0992</v>
       </c>
       <c r="D12" t="n">
-        <v>24.7202</v>
+        <v>24.6336</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.489</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1581</v>
+        <v>14.8426</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0324</v>
+        <v>17.3315</v>
       </c>
       <c r="D13" t="n">
-        <v>25.7021</v>
+        <v>25.6337</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23.6117</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1559</v>
+        <v>14.8314</v>
       </c>
       <c r="C14" t="n">
-        <v>19.2285</v>
+        <v>17.5382</v>
       </c>
       <c r="D14" t="n">
-        <v>24.1226</v>
+        <v>25.3865</v>
+      </c>
+      <c r="E14" t="n">
+        <v>22.6258</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2097</v>
+        <v>15.1051</v>
       </c>
       <c r="C15" t="n">
-        <v>19.3687</v>
+        <v>18.0204</v>
       </c>
       <c r="D15" t="n">
-        <v>24.4218</v>
+        <v>24.9346</v>
+      </c>
+      <c r="E15" t="n">
+        <v>22.4628</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3913</v>
+        <v>15.1416</v>
       </c>
       <c r="C16" t="n">
-        <v>19.6462</v>
+        <v>18.1453</v>
       </c>
       <c r="D16" t="n">
-        <v>25.6314</v>
+        <v>25.5493</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22.1828</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3301</v>
+        <v>15.619</v>
       </c>
       <c r="C17" t="n">
-        <v>19.9446</v>
+        <v>18.2761</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6419</v>
+        <v>25.208</v>
+      </c>
+      <c r="E17" t="n">
+        <v>22.5941</v>
       </c>
     </row>
   </sheetData>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4345,19 +5106,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.04205</v>
+        <v>8.38847</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2473</v>
+        <v>10.2458</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0483</v>
+        <v>11.3164</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.86057</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.7774</v>
+        <v>8.28317</v>
       </c>
       <c r="C3" t="n">
-        <v>9.395250000000001</v>
+        <v>9.24757</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4372</v>
+        <v>13.4314</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.3815</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3916</v>
+        <v>9.99339</v>
       </c>
       <c r="C4" t="n">
-        <v>11.466</v>
+        <v>11.4807</v>
       </c>
       <c r="D4" t="n">
-        <v>17.4716</v>
+        <v>17.5548</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.6298</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0261</v>
+        <v>11.7786</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1383</v>
+        <v>13.9102</v>
       </c>
       <c r="D5" t="n">
-        <v>20.9361</v>
+        <v>21.4858</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.6179</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.0366</v>
+        <v>13.709</v>
       </c>
       <c r="C6" t="n">
-        <v>16.7662</v>
+        <v>16.7064</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0372</v>
+        <v>25.2942</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.6198</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2071</v>
+        <v>15.5913</v>
       </c>
       <c r="C7" t="n">
-        <v>19.6547</v>
+        <v>19.852</v>
       </c>
       <c r="D7" t="n">
-        <v>29.6667</v>
+        <v>29.4098</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26.3905</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.9775</v>
+        <v>17.5022</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4773</v>
+        <v>22.8209</v>
       </c>
       <c r="D8" t="n">
-        <v>32.7481</v>
+        <v>33.0254</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30.2191</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9886</v>
+        <v>20.6198</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9407</v>
+        <v>26.1608</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0981</v>
+        <v>37.7048</v>
+      </c>
+      <c r="E9" t="n">
+        <v>34.0629</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.7419</v>
+        <v>17.8951</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2533</v>
+        <v>22.6826</v>
       </c>
       <c r="D10" t="n">
-        <v>33.2849</v>
+        <v>33.4135</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27.8688</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0288</v>
+        <v>17.6945</v>
       </c>
       <c r="C11" t="n">
-        <v>22.4971</v>
+        <v>22.2476</v>
       </c>
       <c r="D11" t="n">
-        <v>32.6344</v>
+        <v>32.4905</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.9907</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.517</v>
+        <v>18.172</v>
       </c>
       <c r="C12" t="n">
-        <v>22.9599</v>
+        <v>23.2062</v>
       </c>
       <c r="D12" t="n">
-        <v>32.7757</v>
+        <v>33.6835</v>
+      </c>
+      <c r="E12" t="n">
+        <v>29.5016</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1753</v>
+        <v>18.8366</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5613</v>
+        <v>23.6508</v>
       </c>
       <c r="D13" t="n">
-        <v>34.3715</v>
+        <v>34.9021</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.8808</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0051</v>
+        <v>18.6189</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0686</v>
+        <v>23.9296</v>
       </c>
       <c r="D14" t="n">
-        <v>32.7745</v>
+        <v>33.0632</v>
+      </c>
+      <c r="E14" t="n">
+        <v>29.3214</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3459</v>
+        <v>18.4935</v>
       </c>
       <c r="C15" t="n">
-        <v>24.0918</v>
+        <v>24.0376</v>
       </c>
       <c r="D15" t="n">
-        <v>33.0669</v>
+        <v>33.1533</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29.0943</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7724</v>
+        <v>19.2026</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4987</v>
+        <v>24.6839</v>
       </c>
       <c r="D16" t="n">
-        <v>32.833</v>
+        <v>33.4995</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28.4213</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0682</v>
+        <v>19.326</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8172</v>
+        <v>24.5932</v>
       </c>
       <c r="D17" t="n">
-        <v>33.3109</v>
+        <v>33.4972</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30.0385</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4609,19 +5423,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.74051</v>
+        <v>6.42538</v>
       </c>
       <c r="C2" t="n">
-        <v>6.80378</v>
+        <v>6.76306</v>
       </c>
       <c r="D2" t="n">
-        <v>7.09801</v>
+        <v>7.21869</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.05749</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.28563</v>
+        <v>7.05624</v>
       </c>
       <c r="C3" t="n">
-        <v>7.55364</v>
+        <v>7.53123</v>
       </c>
       <c r="D3" t="n">
-        <v>9.841340000000001</v>
+        <v>10.0591</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.205730000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.53412</v>
+        <v>8.830270000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.201919999999999</v>
+        <v>9.76313</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0708</v>
+        <v>13.8941</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.7852</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2943</v>
+        <v>10.5855</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0799</v>
+        <v>12.1566</v>
       </c>
       <c r="D5" t="n">
-        <v>16.3868</v>
+        <v>17.6786</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.2486</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3461</v>
+        <v>12.4414</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3234</v>
+        <v>14.4891</v>
       </c>
       <c r="D6" t="n">
-        <v>20.0886</v>
+        <v>21.4401</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.6322</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2233</v>
+        <v>14.235</v>
       </c>
       <c r="C7" t="n">
-        <v>15.815</v>
+        <v>17.0369</v>
       </c>
       <c r="D7" t="n">
-        <v>23.9731</v>
+        <v>24.934</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22.0093</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.7</v>
+        <v>16.016</v>
       </c>
       <c r="C8" t="n">
-        <v>18.3791</v>
+        <v>19.3303</v>
       </c>
       <c r="D8" t="n">
-        <v>27.9113</v>
+        <v>28.6637</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25.436</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5015</v>
+        <v>18.2313</v>
       </c>
       <c r="C9" t="n">
-        <v>20.1366</v>
+        <v>22.3149</v>
       </c>
       <c r="D9" t="n">
-        <v>30.8492</v>
+        <v>33.3022</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.1305</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.8945</v>
+        <v>16.5065</v>
       </c>
       <c r="C10" t="n">
-        <v>18.302</v>
+        <v>19.2456</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9028</v>
+        <v>27.8716</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22.8651</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.4311</v>
+        <v>16.0672</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8106</v>
+        <v>19.3157</v>
       </c>
       <c r="D11" t="n">
-        <v>26.5004</v>
+        <v>28.2578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.9126</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.7704</v>
+        <v>16.5187</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5046</v>
+        <v>19.8419</v>
       </c>
       <c r="D12" t="n">
-        <v>27.6274</v>
+        <v>29.7796</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24.7828</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.3593</v>
+        <v>17.2676</v>
       </c>
       <c r="C13" t="n">
-        <v>19.1458</v>
+        <v>20.6205</v>
       </c>
       <c r="D13" t="n">
-        <v>28.0732</v>
+        <v>29.9154</v>
+      </c>
+      <c r="E13" t="n">
+        <v>26.3369</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1468</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>18.9744</v>
+        <v>20.4271</v>
       </c>
       <c r="D14" t="n">
-        <v>27.4556</v>
+        <v>27.5722</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24.9183</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.1198</v>
+        <v>17.0456</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5903</v>
+        <v>20.7158</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6875</v>
+        <v>28.7897</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24.8345</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.301</v>
+        <v>17.5313</v>
       </c>
       <c r="C16" t="n">
-        <v>19.499</v>
+        <v>21.0487</v>
       </c>
       <c r="D16" t="n">
-        <v>27.9746</v>
+        <v>29.2203</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.3802</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.833</v>
+        <v>17.6803</v>
       </c>
       <c r="C17" t="n">
-        <v>19.7715</v>
+        <v>21.4091</v>
       </c>
       <c r="D17" t="n">
-        <v>28.8127</v>
+        <v>28.523</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.1712</v>
       </c>
     </row>
   </sheetData>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4873,19 +5740,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.05418</v>
+        <v>2.97079</v>
       </c>
       <c r="C2" t="n">
-        <v>5.04116</v>
+        <v>4.17317</v>
       </c>
       <c r="D2" t="n">
-        <v>5.24179</v>
+        <v>5.31001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.14513</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.93358</v>
+        <v>4.86667</v>
       </c>
       <c r="C3" t="n">
-        <v>6.61847</v>
+        <v>5.91868</v>
       </c>
       <c r="D3" t="n">
-        <v>8.58403</v>
+        <v>8.68774</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.37126</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.6582</v>
+        <v>6.54255</v>
       </c>
       <c r="C4" t="n">
-        <v>8.69739</v>
+        <v>7.91621</v>
       </c>
       <c r="D4" t="n">
-        <v>11.903</v>
+        <v>12.0406</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.5843</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.22279</v>
+        <v>8.1127</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8023</v>
+        <v>9.937480000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0513</v>
+        <v>15.2384</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.7369</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.803739999999999</v>
+        <v>9.65456</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9856</v>
+        <v>11.9744</v>
       </c>
       <c r="D6" t="n">
-        <v>18.1567</v>
+        <v>18.3369</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.8386</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2538</v>
+        <v>11.1303</v>
       </c>
       <c r="C7" t="n">
-        <v>15.1633</v>
+        <v>14.0141</v>
       </c>
       <c r="D7" t="n">
-        <v>21.147</v>
+        <v>21.3339</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.9062</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7024</v>
+        <v>12.5967</v>
       </c>
       <c r="C8" t="n">
-        <v>17.56</v>
+        <v>16.2318</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2328</v>
+        <v>24.5378</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22.9381</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9143</v>
+        <v>14.6685</v>
       </c>
       <c r="C9" t="n">
-        <v>20.5922</v>
+        <v>19.0708</v>
       </c>
       <c r="D9" t="n">
-        <v>28.7897</v>
+        <v>29.0269</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26.3649</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3025</v>
+        <v>14.091</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2565</v>
+        <v>17.8469</v>
       </c>
       <c r="D10" t="n">
-        <v>26.7718</v>
+        <v>26.4775</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24.1948</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0897</v>
+        <v>13.8726</v>
       </c>
       <c r="C11" t="n">
-        <v>19.0584</v>
+        <v>17.472</v>
       </c>
       <c r="D11" t="n">
-        <v>26.3612</v>
+        <v>26.8442</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24.1388</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3163</v>
+        <v>13.9948</v>
       </c>
       <c r="C12" t="n">
-        <v>19.3341</v>
+        <v>17.7017</v>
       </c>
       <c r="D12" t="n">
-        <v>26.9622</v>
+        <v>26.5685</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24.2686</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3363</v>
+        <v>14.3006</v>
       </c>
       <c r="C13" t="n">
-        <v>19.391</v>
+        <v>17.9865</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9255</v>
+        <v>27.1356</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24.6836</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9804</v>
+        <v>13.7937</v>
       </c>
       <c r="C14" t="n">
-        <v>19.3661</v>
+        <v>17.9943</v>
       </c>
       <c r="D14" t="n">
-        <v>25.905</v>
+        <v>26.1106</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23.8948</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4951</v>
+        <v>14.3556</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6133</v>
+        <v>18.2154</v>
       </c>
       <c r="D15" t="n">
-        <v>26.2746</v>
+        <v>26.6802</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24.5083</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4854</v>
+        <v>14.3394</v>
       </c>
       <c r="C16" t="n">
-        <v>19.7585</v>
+        <v>18.2448</v>
       </c>
       <c r="D16" t="n">
-        <v>26.4735</v>
+        <v>26.9024</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24.325</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2065</v>
+        <v>14.2105</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8528</v>
+        <v>18.381</v>
       </c>
       <c r="D17" t="n">
-        <v>26.4379</v>
+        <v>26.6204</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24.2404</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5137,19 +6057,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.06914</v>
+        <v>3.90024</v>
       </c>
       <c r="C2" t="n">
-        <v>8.20485</v>
+        <v>8.25393</v>
       </c>
       <c r="D2" t="n">
-        <v>8.47885</v>
+        <v>8.62152</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.16414</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.06376</v>
+        <v>6.02215</v>
       </c>
       <c r="C3" t="n">
-        <v>8.74583</v>
+        <v>8.917020000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2963</v>
+        <v>12.5649</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.349</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.321569999999999</v>
+        <v>8.01327</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1647</v>
+        <v>11.1756</v>
       </c>
       <c r="D4" t="n">
-        <v>16.5901</v>
+        <v>16.8237</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.5845</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1698</v>
+        <v>9.918480000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5769</v>
+        <v>13.6402</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5763</v>
+        <v>20.8165</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.626</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0881</v>
+        <v>11.7803</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1511</v>
+        <v>16.2237</v>
       </c>
       <c r="D6" t="n">
-        <v>24.5737</v>
+        <v>24.7442</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.7191</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9018</v>
+        <v>13.5235</v>
       </c>
       <c r="C7" t="n">
-        <v>18.758</v>
+        <v>18.9122</v>
       </c>
       <c r="D7" t="n">
-        <v>28.4191</v>
+        <v>28.6641</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26.7453</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.661</v>
+        <v>15.2433</v>
       </c>
       <c r="C8" t="n">
-        <v>21.7909</v>
+        <v>21.9189</v>
       </c>
       <c r="D8" t="n">
-        <v>32.2208</v>
+        <v>32.8168</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30.6395</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.293</v>
+        <v>17.8347</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4539</v>
+        <v>25.5492</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6923</v>
+        <v>39.0688</v>
+      </c>
+      <c r="E9" t="n">
+        <v>35.2484</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2737</v>
+        <v>16.9046</v>
       </c>
       <c r="C10" t="n">
-        <v>23.469</v>
+        <v>23.2244</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2141</v>
+        <v>35.417</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.5229</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2604</v>
+        <v>16.9306</v>
       </c>
       <c r="C11" t="n">
-        <v>23.3601</v>
+        <v>23.4481</v>
       </c>
       <c r="D11" t="n">
-        <v>34.7635</v>
+        <v>35.6983</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31.7448</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2574</v>
+        <v>16.9782</v>
       </c>
       <c r="C12" t="n">
-        <v>23.729</v>
+        <v>23.7225</v>
       </c>
       <c r="D12" t="n">
-        <v>35.3826</v>
+        <v>35.5027</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.5169</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.501</v>
+        <v>17.2994</v>
       </c>
       <c r="C13" t="n">
-        <v>23.7834</v>
+        <v>24.0467</v>
       </c>
       <c r="D13" t="n">
-        <v>35.5601</v>
+        <v>36.6728</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32.9713</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0613</v>
+        <v>16.6839</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0887</v>
+        <v>23.936</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5546</v>
+        <v>34.7166</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31.0521</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4649</v>
+        <v>17.0287</v>
       </c>
       <c r="C15" t="n">
-        <v>23.9674</v>
+        <v>24.3072</v>
       </c>
       <c r="D15" t="n">
-        <v>34.7708</v>
+        <v>34.6915</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31.5785</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.4189</v>
+        <v>17.3853</v>
       </c>
       <c r="C16" t="n">
-        <v>24.3638</v>
+        <v>24.4121</v>
       </c>
       <c r="D16" t="n">
-        <v>34.6133</v>
+        <v>34.8806</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31.8398</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4157</v>
+        <v>17.4205</v>
       </c>
       <c r="C17" t="n">
-        <v>24.4888</v>
+        <v>24.672</v>
       </c>
       <c r="D17" t="n">
-        <v>33.9092</v>
+        <v>35.1643</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30.5947</v>
       </c>
     </row>
   </sheetData>
@@ -5374,10 +6347,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5401,19 +6374,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.46785</v>
+        <v>5.22929</v>
       </c>
       <c r="C2" t="n">
-        <v>6.46879</v>
+        <v>6.43144</v>
       </c>
       <c r="D2" t="n">
-        <v>6.6272</v>
+        <v>6.74906</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.92292</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.04909</v>
+        <v>6.76085</v>
       </c>
       <c r="C3" t="n">
-        <v>7.5714</v>
+        <v>7.55521</v>
       </c>
       <c r="D3" t="n">
-        <v>9.729369999999999</v>
+        <v>9.97336</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.254189999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.01178</v>
+        <v>8.62702</v>
       </c>
       <c r="C4" t="n">
-        <v>9.684889999999999</v>
+        <v>9.743819999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2985</v>
+        <v>13.7151</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.8428</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0412</v>
+        <v>10.4974</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9026</v>
+        <v>11.9631</v>
       </c>
       <c r="D5" t="n">
-        <v>17.0213</v>
+        <v>17.4381</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.3306</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.0817</v>
+        <v>12.3653</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2239</v>
+        <v>14.3243</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7027</v>
+        <v>21.1968</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.8622</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1187</v>
+        <v>14.1738</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6308</v>
+        <v>16.672</v>
       </c>
       <c r="D7" t="n">
-        <v>24.3792</v>
+        <v>24.9394</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22.3239</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.2865</v>
+        <v>16.0714</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6623</v>
+        <v>19.2676</v>
       </c>
       <c r="D8" t="n">
-        <v>28.1144</v>
+        <v>28.7871</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25.8537</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0418</v>
+        <v>18.5588</v>
       </c>
       <c r="C9" t="n">
-        <v>20.6948</v>
+        <v>22.1789</v>
       </c>
       <c r="D9" t="n">
-        <v>32.7588</v>
+        <v>33.643</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.8227</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1401</v>
+        <v>17.7402</v>
       </c>
       <c r="C10" t="n">
-        <v>20.3515</v>
+        <v>20.7346</v>
       </c>
       <c r="D10" t="n">
-        <v>30.6339</v>
+        <v>31.0703</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27.6876</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.239</v>
+        <v>17.7773</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0562</v>
+        <v>20.4287</v>
       </c>
       <c r="D11" t="n">
-        <v>29.8134</v>
+        <v>30.7928</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27.3257</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.8737</v>
+        <v>17.8105</v>
       </c>
       <c r="C12" t="n">
-        <v>20.161</v>
+        <v>20.6558</v>
       </c>
       <c r="D12" t="n">
-        <v>30.3475</v>
+        <v>30.7331</v>
+      </c>
+      <c r="E12" t="n">
+        <v>27.9614</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1418</v>
+        <v>17.9592</v>
       </c>
       <c r="C13" t="n">
-        <v>20.4297</v>
+        <v>21.1657</v>
       </c>
       <c r="D13" t="n">
-        <v>30.7028</v>
+        <v>31.7059</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27.9387</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7064</v>
+        <v>17.4634</v>
       </c>
       <c r="C14" t="n">
-        <v>20.0453</v>
+        <v>20.9528</v>
       </c>
       <c r="D14" t="n">
-        <v>29.903</v>
+        <v>30.4997</v>
+      </c>
+      <c r="E14" t="n">
+        <v>26.845</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1257</v>
+        <v>18.2027</v>
       </c>
       <c r="C15" t="n">
-        <v>20.2411</v>
+        <v>21.2752</v>
       </c>
       <c r="D15" t="n">
-        <v>30.4431</v>
+        <v>31.4992</v>
+      </c>
+      <c r="E15" t="n">
+        <v>27.6847</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.0668</v>
+        <v>18.1357</v>
       </c>
       <c r="C16" t="n">
-        <v>20.7228</v>
+        <v>21.501</v>
       </c>
       <c r="D16" t="n">
-        <v>30.7733</v>
+        <v>31.1487</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27.5789</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0586</v>
+        <v>18.0867</v>
       </c>
       <c r="C17" t="n">
-        <v>20.677</v>
+        <v>21.6955</v>
       </c>
       <c r="D17" t="n">
-        <v>30.1669</v>
+        <v>31.5171</v>
+      </c>
+      <c r="E17" t="n">
+        <v>27.8434</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.11291</v>
+        <v>5.10575</v>
       </c>
       <c r="C2" t="n">
-        <v>4.66645</v>
+        <v>4.66117</v>
       </c>
       <c r="D2" t="n">
-        <v>6.18691</v>
+        <v>6.19517</v>
       </c>
       <c r="E2" t="n">
-        <v>4.47235</v>
+        <v>4.49535</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.25893</v>
+        <v>6.24363</v>
       </c>
       <c r="C3" t="n">
-        <v>6.05464</v>
+        <v>6.05682</v>
       </c>
       <c r="D3" t="n">
-        <v>9.13228</v>
+        <v>9.08056</v>
       </c>
       <c r="E3" t="n">
-        <v>7.4493</v>
+        <v>7.42695</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.77287</v>
+        <v>7.71271</v>
       </c>
       <c r="C4" t="n">
-        <v>8.041410000000001</v>
+        <v>7.96854</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4385</v>
+        <v>12.4032</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6344</v>
+        <v>10.6113</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.22892</v>
+        <v>9.06512</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0191</v>
+        <v>10.0315</v>
       </c>
       <c r="D5" t="n">
-        <v>15.545</v>
+        <v>15.4682</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7269</v>
+        <v>13.5878</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8395</v>
+        <v>10.8318</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0885</v>
+        <v>12.1712</v>
       </c>
       <c r="D6" t="n">
-        <v>18.6432</v>
+        <v>18.6041</v>
       </c>
       <c r="E6" t="n">
-        <v>16.758</v>
+        <v>16.6267</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5571</v>
+        <v>12.5312</v>
       </c>
       <c r="C7" t="n">
-        <v>14.2425</v>
+        <v>14.4052</v>
       </c>
       <c r="D7" t="n">
-        <v>21.8189</v>
+        <v>21.8566</v>
       </c>
       <c r="E7" t="n">
-        <v>19.7563</v>
+        <v>19.6058</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8759</v>
+        <v>13.8379</v>
       </c>
       <c r="C8" t="n">
-        <v>16.7091</v>
+        <v>16.5763</v>
       </c>
       <c r="D8" t="n">
-        <v>24.6439</v>
+        <v>24.496</v>
       </c>
       <c r="E8" t="n">
-        <v>22.7065</v>
+        <v>22.5454</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2917</v>
+        <v>16.2558</v>
       </c>
       <c r="C9" t="n">
-        <v>19.087</v>
+        <v>19.3016</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6325</v>
+        <v>28.6601</v>
       </c>
       <c r="E9" t="n">
-        <v>25.6153</v>
+        <v>25.8126</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1161</v>
+        <v>13.672</v>
       </c>
       <c r="C10" t="n">
-        <v>15.9367</v>
+        <v>16.2646</v>
       </c>
       <c r="D10" t="n">
-        <v>23.8637</v>
+        <v>23.4834</v>
       </c>
       <c r="E10" t="n">
-        <v>20.4128</v>
+        <v>20.1556</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8661</v>
+        <v>13.9852</v>
       </c>
       <c r="C11" t="n">
-        <v>16.2996</v>
+        <v>16.1111</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5627</v>
+        <v>24.2305</v>
       </c>
       <c r="E11" t="n">
-        <v>21.1083</v>
+        <v>21.184</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4504</v>
+        <v>14.6506</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0992</v>
+        <v>17.2001</v>
       </c>
       <c r="D12" t="n">
-        <v>24.6336</v>
+        <v>25.369</v>
       </c>
       <c r="E12" t="n">
-        <v>22.489</v>
+        <v>21.718</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8426</v>
+        <v>14.806</v>
       </c>
       <c r="C13" t="n">
-        <v>17.3315</v>
+        <v>17.6447</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6337</v>
+        <v>26.0814</v>
       </c>
       <c r="E13" t="n">
-        <v>23.6117</v>
+        <v>21.8657</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8314</v>
+        <v>14.7251</v>
       </c>
       <c r="C14" t="n">
-        <v>17.5382</v>
+        <v>17.6207</v>
       </c>
       <c r="D14" t="n">
-        <v>25.3865</v>
+        <v>24.909</v>
       </c>
       <c r="E14" t="n">
-        <v>22.6258</v>
+        <v>22.3041</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1051</v>
+        <v>15.0226</v>
       </c>
       <c r="C15" t="n">
-        <v>18.0204</v>
+        <v>17.9448</v>
       </c>
       <c r="D15" t="n">
-        <v>24.9346</v>
+        <v>25.4954</v>
       </c>
       <c r="E15" t="n">
-        <v>22.4628</v>
+        <v>22.6043</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.1416</v>
+        <v>15.1946</v>
       </c>
       <c r="C16" t="n">
-        <v>18.1453</v>
+        <v>18.3171</v>
       </c>
       <c r="D16" t="n">
-        <v>25.5493</v>
+        <v>25.958</v>
       </c>
       <c r="E16" t="n">
-        <v>22.1828</v>
+        <v>23.139</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.619</v>
+        <v>15.349</v>
       </c>
       <c r="C17" t="n">
-        <v>18.2761</v>
+        <v>18.6896</v>
       </c>
       <c r="D17" t="n">
-        <v>25.208</v>
+        <v>24.9521</v>
       </c>
       <c r="E17" t="n">
-        <v>22.5941</v>
+        <v>22.4224</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.38847</v>
+        <v>8.338749999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2458</v>
+        <v>10.2571</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3164</v>
+        <v>11.3162</v>
       </c>
       <c r="E2" t="n">
-        <v>6.86057</v>
+        <v>6.1769</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.28317</v>
+        <v>8.06371</v>
       </c>
       <c r="C3" t="n">
-        <v>9.24757</v>
+        <v>9.61523</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4314</v>
+        <v>13.0998</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3815</v>
+        <v>10.3974</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.99339</v>
+        <v>9.957420000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4807</v>
+        <v>11.3681</v>
       </c>
       <c r="D4" t="n">
-        <v>17.5548</v>
+        <v>16.9351</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6298</v>
+        <v>14.5978</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7786</v>
+        <v>11.7269</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9102</v>
+        <v>14.0717</v>
       </c>
       <c r="D5" t="n">
-        <v>21.4858</v>
+        <v>21.5638</v>
       </c>
       <c r="E5" t="n">
-        <v>18.6179</v>
+        <v>17.1994</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.709</v>
+        <v>13.6359</v>
       </c>
       <c r="C6" t="n">
-        <v>16.7064</v>
+        <v>16.2707</v>
       </c>
       <c r="D6" t="n">
-        <v>25.2942</v>
+        <v>25.0674</v>
       </c>
       <c r="E6" t="n">
-        <v>22.6198</v>
+        <v>20.4922</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.5913</v>
+        <v>15.7257</v>
       </c>
       <c r="C7" t="n">
-        <v>19.852</v>
+        <v>19.8476</v>
       </c>
       <c r="D7" t="n">
-        <v>29.4098</v>
+        <v>29.8055</v>
       </c>
       <c r="E7" t="n">
-        <v>26.3905</v>
+        <v>24.7617</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.5022</v>
+        <v>17.4266</v>
       </c>
       <c r="C8" t="n">
-        <v>22.8209</v>
+        <v>22.6063</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0254</v>
+        <v>32.9603</v>
       </c>
       <c r="E8" t="n">
-        <v>30.2191</v>
+        <v>28.0344</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6198</v>
+        <v>20.5422</v>
       </c>
       <c r="C9" t="n">
-        <v>26.1608</v>
+        <v>26.2271</v>
       </c>
       <c r="D9" t="n">
-        <v>37.7048</v>
+        <v>38.5751</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0629</v>
+        <v>32.1068</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8951</v>
+        <v>17.3962</v>
       </c>
       <c r="C10" t="n">
-        <v>22.6826</v>
+        <v>23.0454</v>
       </c>
       <c r="D10" t="n">
-        <v>33.4135</v>
+        <v>33.5889</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8688</v>
+        <v>26.9743</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6945</v>
+        <v>17.8093</v>
       </c>
       <c r="C11" t="n">
-        <v>22.2476</v>
+        <v>22.5091</v>
       </c>
       <c r="D11" t="n">
-        <v>32.4905</v>
+        <v>32.8625</v>
       </c>
       <c r="E11" t="n">
-        <v>28.9907</v>
+        <v>27.646</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.172</v>
+        <v>18.0846</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2062</v>
+        <v>23.2954</v>
       </c>
       <c r="D12" t="n">
-        <v>33.6835</v>
+        <v>33.6095</v>
       </c>
       <c r="E12" t="n">
-        <v>29.5016</v>
+        <v>28.725</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.8366</v>
+        <v>18.8499</v>
       </c>
       <c r="C13" t="n">
-        <v>23.6508</v>
+        <v>23.6357</v>
       </c>
       <c r="D13" t="n">
-        <v>34.9021</v>
+        <v>33.3869</v>
       </c>
       <c r="E13" t="n">
-        <v>30.8808</v>
+        <v>29.6399</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6189</v>
+        <v>18.4658</v>
       </c>
       <c r="C14" t="n">
-        <v>23.9296</v>
+        <v>23.8922</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0632</v>
+        <v>33.428</v>
       </c>
       <c r="E14" t="n">
-        <v>29.3214</v>
+        <v>28.5936</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.4935</v>
+        <v>18.9999</v>
       </c>
       <c r="C15" t="n">
-        <v>24.0376</v>
+        <v>24.2031</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1533</v>
+        <v>33.2801</v>
       </c>
       <c r="E15" t="n">
-        <v>29.0943</v>
+        <v>28.2077</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2026</v>
+        <v>19.0758</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6839</v>
+        <v>24.4899</v>
       </c>
       <c r="D16" t="n">
-        <v>33.4995</v>
+        <v>33.9295</v>
       </c>
       <c r="E16" t="n">
-        <v>28.4213</v>
+        <v>27.7134</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.326</v>
+        <v>18.8214</v>
       </c>
       <c r="C17" t="n">
-        <v>24.5932</v>
+        <v>24.9787</v>
       </c>
       <c r="D17" t="n">
-        <v>33.4972</v>
+        <v>34.29</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0385</v>
+        <v>29.5045</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42538</v>
+        <v>6.42919</v>
       </c>
       <c r="C2" t="n">
-        <v>6.76306</v>
+        <v>6.72887</v>
       </c>
       <c r="D2" t="n">
-        <v>7.21869</v>
+        <v>7.22153</v>
       </c>
       <c r="E2" t="n">
-        <v>5.05749</v>
+        <v>5.05739</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.05624</v>
+        <v>7.02226</v>
       </c>
       <c r="C3" t="n">
-        <v>7.53123</v>
+        <v>7.63565</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0591</v>
+        <v>10.1973</v>
       </c>
       <c r="E3" t="n">
-        <v>8.205730000000001</v>
+        <v>8.331770000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.830270000000001</v>
+        <v>8.895899999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.76313</v>
+        <v>9.791689999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8941</v>
+        <v>13.9558</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7852</v>
+        <v>11.8745</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5855</v>
+        <v>10.6482</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1566</v>
+        <v>12.178</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6786</v>
+        <v>17.7828</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2486</v>
+        <v>15.3532</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4414</v>
+        <v>12.141</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4891</v>
+        <v>13.8884</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4401</v>
+        <v>21.4338</v>
       </c>
       <c r="E6" t="n">
-        <v>18.6322</v>
+        <v>18.8428</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.235</v>
+        <v>14.3393</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0369</v>
+        <v>17.0376</v>
       </c>
       <c r="D7" t="n">
-        <v>24.934</v>
+        <v>25.3484</v>
       </c>
       <c r="E7" t="n">
-        <v>22.0093</v>
+        <v>22.225</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.016</v>
+        <v>15.9836</v>
       </c>
       <c r="C8" t="n">
-        <v>19.3303</v>
+        <v>19.1377</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6637</v>
+        <v>28.299</v>
       </c>
       <c r="E8" t="n">
-        <v>25.436</v>
+        <v>24.9179</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2313</v>
+        <v>18.2247</v>
       </c>
       <c r="C9" t="n">
-        <v>22.3149</v>
+        <v>22.0552</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3022</v>
+        <v>33.4071</v>
       </c>
       <c r="E9" t="n">
-        <v>29.1305</v>
+        <v>29.2869</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.5065</v>
+        <v>16.3804</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2456</v>
+        <v>19.0845</v>
       </c>
       <c r="D10" t="n">
-        <v>27.8716</v>
+        <v>27.9359</v>
       </c>
       <c r="E10" t="n">
-        <v>22.8651</v>
+        <v>23.1244</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0672</v>
+        <v>16.0146</v>
       </c>
       <c r="C11" t="n">
-        <v>19.3157</v>
+        <v>19.1564</v>
       </c>
       <c r="D11" t="n">
-        <v>28.2578</v>
+        <v>28.0874</v>
       </c>
       <c r="E11" t="n">
-        <v>23.9126</v>
+        <v>23.7324</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.5187</v>
+        <v>16.4732</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8419</v>
+        <v>20.1431</v>
       </c>
       <c r="D12" t="n">
-        <v>29.7796</v>
+        <v>29.113</v>
       </c>
       <c r="E12" t="n">
-        <v>24.7828</v>
+        <v>25.7153</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2676</v>
+        <v>17.0447</v>
       </c>
       <c r="C13" t="n">
-        <v>20.6205</v>
+        <v>20.4706</v>
       </c>
       <c r="D13" t="n">
-        <v>29.9154</v>
+        <v>30.0327</v>
       </c>
       <c r="E13" t="n">
-        <v>26.3369</v>
+        <v>25.4326</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>17.0437</v>
       </c>
       <c r="C14" t="n">
-        <v>20.4271</v>
+        <v>20.2485</v>
       </c>
       <c r="D14" t="n">
-        <v>27.5722</v>
+        <v>28.3352</v>
       </c>
       <c r="E14" t="n">
-        <v>24.9183</v>
+        <v>25.1392</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.0456</v>
+        <v>17.052</v>
       </c>
       <c r="C15" t="n">
-        <v>20.7158</v>
+        <v>20.6107</v>
       </c>
       <c r="D15" t="n">
-        <v>28.7897</v>
+        <v>28.9786</v>
       </c>
       <c r="E15" t="n">
-        <v>24.8345</v>
+        <v>25.1088</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5313</v>
+        <v>17.1574</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0487</v>
+        <v>21.0352</v>
       </c>
       <c r="D16" t="n">
-        <v>29.2203</v>
+        <v>28.9511</v>
       </c>
       <c r="E16" t="n">
-        <v>25.3802</v>
+        <v>25.2939</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6803</v>
+        <v>16.9077</v>
       </c>
       <c r="C17" t="n">
-        <v>21.4091</v>
+        <v>21.5984</v>
       </c>
       <c r="D17" t="n">
-        <v>28.523</v>
+        <v>30.0041</v>
       </c>
       <c r="E17" t="n">
-        <v>25.1712</v>
+        <v>25.3189</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.97079</v>
+        <v>3.04457</v>
       </c>
       <c r="C2" t="n">
-        <v>4.17317</v>
+        <v>4.17338</v>
       </c>
       <c r="D2" t="n">
-        <v>5.31001</v>
+        <v>5.32338</v>
       </c>
       <c r="E2" t="n">
-        <v>4.14513</v>
+        <v>4.18156</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.86667</v>
+        <v>4.80034</v>
       </c>
       <c r="C3" t="n">
-        <v>5.91868</v>
+        <v>5.84832</v>
       </c>
       <c r="D3" t="n">
-        <v>8.68774</v>
+        <v>8.61107</v>
       </c>
       <c r="E3" t="n">
-        <v>7.37126</v>
+        <v>7.3377</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.54255</v>
+        <v>6.47623</v>
       </c>
       <c r="C4" t="n">
-        <v>7.91621</v>
+        <v>7.85901</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0406</v>
+        <v>11.9787</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5843</v>
+        <v>10.556</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.1127</v>
+        <v>8.03959</v>
       </c>
       <c r="C5" t="n">
-        <v>9.937480000000001</v>
+        <v>9.92313</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2384</v>
+        <v>15.1968</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7369</v>
+        <v>13.7259</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.65456</v>
+        <v>9.64223</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9744</v>
+        <v>11.9523</v>
       </c>
       <c r="D6" t="n">
-        <v>18.3369</v>
+        <v>18.2691</v>
       </c>
       <c r="E6" t="n">
-        <v>16.8386</v>
+        <v>16.8399</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1303</v>
+        <v>11.1355</v>
       </c>
       <c r="C7" t="n">
-        <v>14.0141</v>
+        <v>13.9611</v>
       </c>
       <c r="D7" t="n">
-        <v>21.3339</v>
+        <v>21.2504</v>
       </c>
       <c r="E7" t="n">
-        <v>19.9062</v>
+        <v>19.8778</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5967</v>
+        <v>12.5139</v>
       </c>
       <c r="C8" t="n">
-        <v>16.2318</v>
+        <v>16.1608</v>
       </c>
       <c r="D8" t="n">
-        <v>24.5378</v>
+        <v>24.2856</v>
       </c>
       <c r="E8" t="n">
-        <v>22.9381</v>
+        <v>22.9156</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6685</v>
+        <v>14.5842</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0708</v>
+        <v>19.0959</v>
       </c>
       <c r="D9" t="n">
-        <v>29.0269</v>
+        <v>28.965</v>
       </c>
       <c r="E9" t="n">
-        <v>26.3649</v>
+        <v>26.3904</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.091</v>
+        <v>13.9437</v>
       </c>
       <c r="C10" t="n">
-        <v>17.8469</v>
+        <v>17.7145</v>
       </c>
       <c r="D10" t="n">
-        <v>26.4775</v>
+        <v>26.9463</v>
       </c>
       <c r="E10" t="n">
-        <v>24.1948</v>
+        <v>24.6053</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8726</v>
+        <v>13.649</v>
       </c>
       <c r="C11" t="n">
-        <v>17.472</v>
+        <v>17.787</v>
       </c>
       <c r="D11" t="n">
-        <v>26.8442</v>
+        <v>26.8335</v>
       </c>
       <c r="E11" t="n">
-        <v>24.1388</v>
+        <v>24.1596</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9948</v>
+        <v>14.0622</v>
       </c>
       <c r="C12" t="n">
-        <v>17.7017</v>
+        <v>17.3721</v>
       </c>
       <c r="D12" t="n">
-        <v>26.5685</v>
+        <v>26.7487</v>
       </c>
       <c r="E12" t="n">
-        <v>24.2686</v>
+        <v>24.4384</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3006</v>
+        <v>14.1932</v>
       </c>
       <c r="C13" t="n">
-        <v>17.9865</v>
+        <v>17.8395</v>
       </c>
       <c r="D13" t="n">
-        <v>27.1356</v>
+        <v>27.0951</v>
       </c>
       <c r="E13" t="n">
-        <v>24.6836</v>
+        <v>24.9727</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7937</v>
+        <v>13.7109</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9943</v>
+        <v>17.7242</v>
       </c>
       <c r="D14" t="n">
-        <v>26.1106</v>
+        <v>26.0731</v>
       </c>
       <c r="E14" t="n">
-        <v>23.8948</v>
+        <v>23.7579</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3556</v>
+        <v>14.2304</v>
       </c>
       <c r="C15" t="n">
-        <v>18.2154</v>
+        <v>17.958</v>
       </c>
       <c r="D15" t="n">
-        <v>26.6802</v>
+        <v>26.9022</v>
       </c>
       <c r="E15" t="n">
-        <v>24.5083</v>
+        <v>24.6509</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3394</v>
+        <v>13.9853</v>
       </c>
       <c r="C16" t="n">
-        <v>18.2448</v>
+        <v>18.1711</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9024</v>
+        <v>27.0013</v>
       </c>
       <c r="E16" t="n">
-        <v>24.325</v>
+        <v>24.2812</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2105</v>
+        <v>13.8764</v>
       </c>
       <c r="C17" t="n">
-        <v>18.381</v>
+        <v>18.1615</v>
       </c>
       <c r="D17" t="n">
-        <v>26.6204</v>
+        <v>26.6077</v>
       </c>
       <c r="E17" t="n">
-        <v>24.2404</v>
+        <v>24.1606</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.90024</v>
+        <v>3.9003</v>
       </c>
       <c r="C2" t="n">
-        <v>8.25393</v>
+        <v>8.21189</v>
       </c>
       <c r="D2" t="n">
-        <v>8.62152</v>
+        <v>8.62374</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16414</v>
+        <v>5.61546</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.02215</v>
+        <v>5.94489</v>
       </c>
       <c r="C3" t="n">
-        <v>8.917020000000001</v>
+        <v>8.82117</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5649</v>
+        <v>12.5041</v>
       </c>
       <c r="E3" t="n">
-        <v>10.349</v>
+        <v>9.49854</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.01327</v>
+        <v>7.92829</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1756</v>
+        <v>11.1366</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8237</v>
+        <v>16.7068</v>
       </c>
       <c r="E4" t="n">
-        <v>14.5845</v>
+        <v>13.843</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.918480000000001</v>
+        <v>9.84098</v>
       </c>
       <c r="C5" t="n">
-        <v>13.6402</v>
+        <v>13.6213</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8165</v>
+        <v>20.8571</v>
       </c>
       <c r="E5" t="n">
-        <v>18.626</v>
+        <v>17.2729</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7803</v>
+        <v>11.6256</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2237</v>
+        <v>16.1669</v>
       </c>
       <c r="D6" t="n">
-        <v>24.7442</v>
+        <v>24.7032</v>
       </c>
       <c r="E6" t="n">
-        <v>22.7191</v>
+        <v>21.1137</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5235</v>
+        <v>13.4837</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9122</v>
+        <v>18.8314</v>
       </c>
       <c r="D7" t="n">
-        <v>28.6641</v>
+        <v>28.7782</v>
       </c>
       <c r="E7" t="n">
-        <v>26.7453</v>
+        <v>24.8446</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.2433</v>
+        <v>15.1829</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9189</v>
+        <v>21.8201</v>
       </c>
       <c r="D8" t="n">
-        <v>32.8168</v>
+        <v>32.2824</v>
       </c>
       <c r="E8" t="n">
-        <v>30.6395</v>
+        <v>29.4968</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.8347</v>
+        <v>17.6929</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5492</v>
+        <v>24.8281</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0688</v>
+        <v>38.9222</v>
       </c>
       <c r="E9" t="n">
-        <v>35.2484</v>
+        <v>32.9652</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9046</v>
+        <v>16.6393</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2244</v>
+        <v>23.4797</v>
       </c>
       <c r="D10" t="n">
-        <v>35.417</v>
+        <v>36.1682</v>
       </c>
       <c r="E10" t="n">
-        <v>32.5229</v>
+        <v>31.8178</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9306</v>
+        <v>16.6729</v>
       </c>
       <c r="C11" t="n">
-        <v>23.4481</v>
+        <v>23.4918</v>
       </c>
       <c r="D11" t="n">
-        <v>35.6983</v>
+        <v>35.7733</v>
       </c>
       <c r="E11" t="n">
-        <v>31.7448</v>
+        <v>31.3526</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.9782</v>
+        <v>16.8488</v>
       </c>
       <c r="C12" t="n">
-        <v>23.7225</v>
+        <v>23.2994</v>
       </c>
       <c r="D12" t="n">
-        <v>35.5027</v>
+        <v>36.0655</v>
       </c>
       <c r="E12" t="n">
-        <v>32.5169</v>
+        <v>32.0483</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2994</v>
+        <v>17.1281</v>
       </c>
       <c r="C13" t="n">
-        <v>24.0467</v>
+        <v>22.9511</v>
       </c>
       <c r="D13" t="n">
-        <v>36.6728</v>
+        <v>35.4168</v>
       </c>
       <c r="E13" t="n">
-        <v>32.9713</v>
+        <v>32.107</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.6839</v>
+        <v>16.5825</v>
       </c>
       <c r="C14" t="n">
-        <v>23.936</v>
+        <v>23.3253</v>
       </c>
       <c r="D14" t="n">
-        <v>34.7166</v>
+        <v>34.8519</v>
       </c>
       <c r="E14" t="n">
-        <v>31.0521</v>
+        <v>31.352</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.0287</v>
+        <v>17.1422</v>
       </c>
       <c r="C15" t="n">
-        <v>24.3072</v>
+        <v>23.2448</v>
       </c>
       <c r="D15" t="n">
-        <v>34.6915</v>
+        <v>35.5106</v>
       </c>
       <c r="E15" t="n">
-        <v>31.5785</v>
+        <v>30.9268</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3853</v>
+        <v>16.956</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4121</v>
+        <v>23.9759</v>
       </c>
       <c r="D16" t="n">
-        <v>34.8806</v>
+        <v>34.5797</v>
       </c>
       <c r="E16" t="n">
-        <v>31.8398</v>
+        <v>31.2213</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4205</v>
+        <v>16.8779</v>
       </c>
       <c r="C17" t="n">
-        <v>24.672</v>
+        <v>24.414</v>
       </c>
       <c r="D17" t="n">
-        <v>35.1643</v>
+        <v>34.5482</v>
       </c>
       <c r="E17" t="n">
-        <v>30.5947</v>
+        <v>31.4928</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.22929</v>
+        <v>5.26951</v>
       </c>
       <c r="C2" t="n">
-        <v>6.43144</v>
+        <v>6.32465</v>
       </c>
       <c r="D2" t="n">
-        <v>6.74906</v>
+        <v>6.74035</v>
       </c>
       <c r="E2" t="n">
-        <v>4.92292</v>
+        <v>4.91538</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.76085</v>
+        <v>6.65853</v>
       </c>
       <c r="C3" t="n">
-        <v>7.55521</v>
+        <v>7.45311</v>
       </c>
       <c r="D3" t="n">
-        <v>9.97336</v>
+        <v>9.91799</v>
       </c>
       <c r="E3" t="n">
-        <v>8.254189999999999</v>
+        <v>8.224320000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.62702</v>
+        <v>8.676270000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.743819999999999</v>
+        <v>9.591710000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7151</v>
+        <v>13.7651</v>
       </c>
       <c r="E4" t="n">
-        <v>11.8428</v>
+        <v>11.8427</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4974</v>
+        <v>10.0807</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9631</v>
+        <v>11.4782</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4381</v>
+        <v>17.4636</v>
       </c>
       <c r="E5" t="n">
-        <v>15.3306</v>
+        <v>15.3222</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3653</v>
+        <v>12.3112</v>
       </c>
       <c r="C6" t="n">
-        <v>14.3243</v>
+        <v>14.0003</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1968</v>
+        <v>21.1853</v>
       </c>
       <c r="E6" t="n">
-        <v>18.8622</v>
+        <v>18.8157</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1738</v>
+        <v>14.1383</v>
       </c>
       <c r="C7" t="n">
-        <v>16.672</v>
+        <v>16.0325</v>
       </c>
       <c r="D7" t="n">
-        <v>24.9394</v>
+        <v>24.8249</v>
       </c>
       <c r="E7" t="n">
-        <v>22.3239</v>
+        <v>22.308</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0714</v>
+        <v>15.7316</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2676</v>
+        <v>17.9042</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7871</v>
+        <v>28.5129</v>
       </c>
       <c r="E8" t="n">
-        <v>25.8537</v>
+        <v>25.5276</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5588</v>
+        <v>18.5459</v>
       </c>
       <c r="C9" t="n">
-        <v>22.1789</v>
+        <v>20.5887</v>
       </c>
       <c r="D9" t="n">
-        <v>33.643</v>
+        <v>33.2403</v>
       </c>
       <c r="E9" t="n">
-        <v>29.8227</v>
+        <v>29.8468</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7402</v>
+        <v>17.8044</v>
       </c>
       <c r="C10" t="n">
-        <v>20.7346</v>
+        <v>20.6757</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0703</v>
+        <v>31.4546</v>
       </c>
       <c r="E10" t="n">
-        <v>27.6876</v>
+        <v>27.911</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7773</v>
+        <v>17.5871</v>
       </c>
       <c r="C11" t="n">
-        <v>20.4287</v>
+        <v>19.9509</v>
       </c>
       <c r="D11" t="n">
-        <v>30.7928</v>
+        <v>30.1586</v>
       </c>
       <c r="E11" t="n">
-        <v>27.3257</v>
+        <v>27.0815</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8105</v>
+        <v>17.6766</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6558</v>
+        <v>20.5508</v>
       </c>
       <c r="D12" t="n">
-        <v>30.7331</v>
+        <v>31.2942</v>
       </c>
       <c r="E12" t="n">
-        <v>27.9614</v>
+        <v>27.656</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9592</v>
+        <v>18.0402</v>
       </c>
       <c r="C13" t="n">
-        <v>21.1657</v>
+        <v>20.8046</v>
       </c>
       <c r="D13" t="n">
-        <v>31.7059</v>
+        <v>31.4161</v>
       </c>
       <c r="E13" t="n">
-        <v>27.9387</v>
+        <v>27.6234</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4634</v>
+        <v>17.3845</v>
       </c>
       <c r="C14" t="n">
-        <v>20.9528</v>
+        <v>20.7446</v>
       </c>
       <c r="D14" t="n">
-        <v>30.4997</v>
+        <v>30.5339</v>
       </c>
       <c r="E14" t="n">
-        <v>26.845</v>
+        <v>27.1627</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2027</v>
+        <v>17.1934</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2752</v>
+        <v>20.3653</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4992</v>
+        <v>31.357</v>
       </c>
       <c r="E15" t="n">
-        <v>27.6847</v>
+        <v>27.579</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1357</v>
+        <v>17.7059</v>
       </c>
       <c r="C16" t="n">
-        <v>21.501</v>
+        <v>21.4615</v>
       </c>
       <c r="D16" t="n">
-        <v>31.1487</v>
+        <v>31.5437</v>
       </c>
       <c r="E16" t="n">
-        <v>27.5789</v>
+        <v>27.7359</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0867</v>
+        <v>17.5675</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6955</v>
+        <v>20.9098</v>
       </c>
       <c r="D17" t="n">
-        <v>31.5171</v>
+        <v>30.7749</v>
       </c>
       <c r="E17" t="n">
-        <v>27.8434</v>
+        <v>28.0324</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.11291</v>
+        <v>5.12316</v>
       </c>
       <c r="C2" t="n">
-        <v>4.66645</v>
+        <v>4.66768</v>
       </c>
       <c r="D2" t="n">
-        <v>6.18691</v>
+        <v>6.19222</v>
       </c>
       <c r="E2" t="n">
-        <v>4.47235</v>
+        <v>4.4719</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.25893</v>
+        <v>6.36035</v>
       </c>
       <c r="C3" t="n">
-        <v>6.05464</v>
+        <v>6.12888</v>
       </c>
       <c r="D3" t="n">
-        <v>9.13228</v>
+        <v>9.14115</v>
       </c>
       <c r="E3" t="n">
-        <v>7.4493</v>
+        <v>7.42257</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.77287</v>
+        <v>7.76247</v>
       </c>
       <c r="C4" t="n">
-        <v>8.041410000000001</v>
+        <v>8.06278</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4385</v>
+        <v>12.4002</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6344</v>
+        <v>10.6165</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.22892</v>
+        <v>9.21794</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0191</v>
+        <v>10.0118</v>
       </c>
       <c r="D5" t="n">
-        <v>15.545</v>
+        <v>15.5103</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7269</v>
+        <v>13.6745</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8395</v>
+        <v>10.7803</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0885</v>
+        <v>12.035</v>
       </c>
       <c r="D6" t="n">
-        <v>18.6432</v>
+        <v>18.5253</v>
       </c>
       <c r="E6" t="n">
-        <v>16.758</v>
+        <v>16.6312</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5571</v>
+        <v>12.5099</v>
       </c>
       <c r="C7" t="n">
-        <v>14.2425</v>
+        <v>14.3007</v>
       </c>
       <c r="D7" t="n">
-        <v>21.8189</v>
+        <v>21.8833</v>
       </c>
       <c r="E7" t="n">
-        <v>19.7563</v>
+        <v>19.7424</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8759</v>
+        <v>13.7952</v>
       </c>
       <c r="C8" t="n">
-        <v>16.7091</v>
+        <v>16.546</v>
       </c>
       <c r="D8" t="n">
-        <v>24.6439</v>
+        <v>24.9204</v>
       </c>
       <c r="E8" t="n">
-        <v>22.7065</v>
+        <v>22.7672</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2917</v>
+        <v>16.2692</v>
       </c>
       <c r="C9" t="n">
-        <v>19.087</v>
+        <v>19.0664</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6325</v>
+        <v>29.1092</v>
       </c>
       <c r="E9" t="n">
-        <v>25.6153</v>
+        <v>25.8373</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1161</v>
+        <v>14.0803</v>
       </c>
       <c r="C10" t="n">
-        <v>15.9367</v>
+        <v>16.4143</v>
       </c>
       <c r="D10" t="n">
-        <v>23.8637</v>
+        <v>23.6459</v>
       </c>
       <c r="E10" t="n">
-        <v>20.4128</v>
+        <v>21.2072</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8661</v>
+        <v>14.0312</v>
       </c>
       <c r="C11" t="n">
-        <v>16.2996</v>
+        <v>16.1181</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5627</v>
+        <v>24.2104</v>
       </c>
       <c r="E11" t="n">
-        <v>21.1083</v>
+        <v>21.4556</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4504</v>
+        <v>14.3795</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0992</v>
+        <v>16.9569</v>
       </c>
       <c r="D12" t="n">
-        <v>24.6336</v>
+        <v>25.2252</v>
       </c>
       <c r="E12" t="n">
-        <v>22.489</v>
+        <v>22.9493</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8426</v>
+        <v>14.8443</v>
       </c>
       <c r="C13" t="n">
-        <v>17.3315</v>
+        <v>17.3558</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6337</v>
+        <v>25.1921</v>
       </c>
       <c r="E13" t="n">
-        <v>23.6117</v>
+        <v>22.5019</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8314</v>
+        <v>14.7061</v>
       </c>
       <c r="C14" t="n">
-        <v>17.5382</v>
+        <v>17.6012</v>
       </c>
       <c r="D14" t="n">
-        <v>25.3865</v>
+        <v>25.1484</v>
       </c>
       <c r="E14" t="n">
-        <v>22.6258</v>
+        <v>22.0857</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1051</v>
+        <v>14.804</v>
       </c>
       <c r="C15" t="n">
-        <v>18.0204</v>
+        <v>17.8394</v>
       </c>
       <c r="D15" t="n">
-        <v>24.9346</v>
+        <v>24.8617</v>
       </c>
       <c r="E15" t="n">
-        <v>22.4628</v>
+        <v>22.223</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.1416</v>
+        <v>15.3706</v>
       </c>
       <c r="C16" t="n">
-        <v>18.1453</v>
+        <v>18.0474</v>
       </c>
       <c r="D16" t="n">
-        <v>25.5493</v>
+        <v>25.6048</v>
       </c>
       <c r="E16" t="n">
-        <v>22.1828</v>
+        <v>21.5435</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.619</v>
+        <v>15.3206</v>
       </c>
       <c r="C17" t="n">
-        <v>18.2761</v>
+        <v>18.5302</v>
       </c>
       <c r="D17" t="n">
-        <v>25.208</v>
+        <v>25.1235</v>
       </c>
       <c r="E17" t="n">
-        <v>22.5941</v>
+        <v>22.2457</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.38847</v>
+        <v>8.38608</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2458</v>
+        <v>10.237</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3164</v>
+        <v>11.3089</v>
       </c>
       <c r="E2" t="n">
-        <v>6.86057</v>
+        <v>6.85018</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.28317</v>
+        <v>8.549950000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.24757</v>
+        <v>9.573180000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4314</v>
+        <v>13.6721</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3815</v>
+        <v>10.5203</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.99339</v>
+        <v>10.0227</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4807</v>
+        <v>11.5891</v>
       </c>
       <c r="D4" t="n">
-        <v>17.5548</v>
+        <v>17.6902</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6298</v>
+        <v>14.6342</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7786</v>
+        <v>11.7035</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9102</v>
+        <v>13.9392</v>
       </c>
       <c r="D5" t="n">
-        <v>21.4858</v>
+        <v>21.4584</v>
       </c>
       <c r="E5" t="n">
-        <v>18.6179</v>
+        <v>18.5576</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.709</v>
+        <v>13.651</v>
       </c>
       <c r="C6" t="n">
-        <v>16.7064</v>
+        <v>16.7122</v>
       </c>
       <c r="D6" t="n">
-        <v>25.2942</v>
+        <v>25.2775</v>
       </c>
       <c r="E6" t="n">
-        <v>22.6198</v>
+        <v>22.5673</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.5913</v>
+        <v>15.7651</v>
       </c>
       <c r="C7" t="n">
-        <v>19.852</v>
+        <v>19.7732</v>
       </c>
       <c r="D7" t="n">
-        <v>29.4098</v>
+        <v>30.0884</v>
       </c>
       <c r="E7" t="n">
-        <v>26.3905</v>
+        <v>26.4719</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.5022</v>
+        <v>17.4274</v>
       </c>
       <c r="C8" t="n">
-        <v>22.8209</v>
+        <v>22.3194</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0254</v>
+        <v>32.9415</v>
       </c>
       <c r="E8" t="n">
-        <v>30.2191</v>
+        <v>30.239</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6198</v>
+        <v>20.523</v>
       </c>
       <c r="C9" t="n">
-        <v>26.1608</v>
+        <v>25.8501</v>
       </c>
       <c r="D9" t="n">
-        <v>37.7048</v>
+        <v>38.1556</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0629</v>
+        <v>34.6116</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8951</v>
+        <v>18.1995</v>
       </c>
       <c r="C10" t="n">
-        <v>22.6826</v>
+        <v>23.1113</v>
       </c>
       <c r="D10" t="n">
-        <v>33.4135</v>
+        <v>33.6684</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8688</v>
+        <v>27.8334</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6945</v>
+        <v>17.5514</v>
       </c>
       <c r="C11" t="n">
-        <v>22.2476</v>
+        <v>22.3484</v>
       </c>
       <c r="D11" t="n">
-        <v>32.4905</v>
+        <v>32.777</v>
       </c>
       <c r="E11" t="n">
-        <v>28.9907</v>
+        <v>28.1139</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.172</v>
+        <v>18.0233</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2062</v>
+        <v>23.0961</v>
       </c>
       <c r="D12" t="n">
-        <v>33.6835</v>
+        <v>32.6812</v>
       </c>
       <c r="E12" t="n">
-        <v>29.5016</v>
+        <v>29.4546</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.8366</v>
+        <v>18.8536</v>
       </c>
       <c r="C13" t="n">
-        <v>23.6508</v>
+        <v>23.6962</v>
       </c>
       <c r="D13" t="n">
-        <v>34.9021</v>
+        <v>34.157</v>
       </c>
       <c r="E13" t="n">
-        <v>30.8808</v>
+        <v>31.367</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6189</v>
+        <v>18.5168</v>
       </c>
       <c r="C14" t="n">
-        <v>23.9296</v>
+        <v>23.9903</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0632</v>
+        <v>33.3686</v>
       </c>
       <c r="E14" t="n">
-        <v>29.3214</v>
+        <v>28.9605</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.4935</v>
+        <v>18.6441</v>
       </c>
       <c r="C15" t="n">
-        <v>24.0376</v>
+        <v>24.242</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1533</v>
+        <v>33.2749</v>
       </c>
       <c r="E15" t="n">
-        <v>29.0943</v>
+        <v>28.8014</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2026</v>
+        <v>18.9217</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6839</v>
+        <v>24.5272</v>
       </c>
       <c r="D16" t="n">
-        <v>33.4995</v>
+        <v>31.9859</v>
       </c>
       <c r="E16" t="n">
-        <v>28.4213</v>
+        <v>29.0889</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.326</v>
+        <v>19.0062</v>
       </c>
       <c r="C17" t="n">
-        <v>24.5932</v>
+        <v>24.7779</v>
       </c>
       <c r="D17" t="n">
-        <v>33.4972</v>
+        <v>34.0984</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0385</v>
+        <v>28.5191</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42538</v>
+        <v>6.42503</v>
       </c>
       <c r="C2" t="n">
-        <v>6.76306</v>
+        <v>6.7376</v>
       </c>
       <c r="D2" t="n">
-        <v>7.21869</v>
+        <v>7.21327</v>
       </c>
       <c r="E2" t="n">
-        <v>5.05749</v>
+        <v>5.05518</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.05624</v>
+        <v>7.0554</v>
       </c>
       <c r="C3" t="n">
-        <v>7.53123</v>
+        <v>7.54777</v>
       </c>
       <c r="D3" t="n">
         <v>10.0591</v>
       </c>
       <c r="E3" t="n">
-        <v>8.205730000000001</v>
+        <v>8.15828</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.830270000000001</v>
+        <v>8.895479999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.76313</v>
+        <v>9.764290000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8941</v>
+        <v>13.8291</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7852</v>
+        <v>11.8023</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5855</v>
+        <v>10.5621</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1566</v>
+        <v>12.0719</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6786</v>
+        <v>17.6599</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2486</v>
+        <v>15.2802</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4414</v>
+        <v>12.3693</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4891</v>
+        <v>14.5548</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4401</v>
+        <v>21.2522</v>
       </c>
       <c r="E6" t="n">
-        <v>18.6322</v>
+        <v>18.706</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.235</v>
+        <v>14.2448</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0369</v>
+        <v>16.977</v>
       </c>
       <c r="D7" t="n">
-        <v>24.934</v>
+        <v>25.1981</v>
       </c>
       <c r="E7" t="n">
-        <v>22.0093</v>
+        <v>21.9766</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.016</v>
+        <v>16.0121</v>
       </c>
       <c r="C8" t="n">
-        <v>19.3303</v>
+        <v>19.3324</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6637</v>
+        <v>28.6771</v>
       </c>
       <c r="E8" t="n">
-        <v>25.436</v>
+        <v>25.4539</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2313</v>
+        <v>18.2177</v>
       </c>
       <c r="C9" t="n">
-        <v>22.3149</v>
+        <v>22.2734</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3022</v>
+        <v>33.3584</v>
       </c>
       <c r="E9" t="n">
-        <v>29.1305</v>
+        <v>29.31</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.5065</v>
+        <v>16.3638</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2456</v>
+        <v>19.1655</v>
       </c>
       <c r="D10" t="n">
-        <v>27.8716</v>
+        <v>28.1511</v>
       </c>
       <c r="E10" t="n">
-        <v>22.8651</v>
+        <v>23.2878</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0672</v>
+        <v>16.0727</v>
       </c>
       <c r="C11" t="n">
-        <v>19.3157</v>
+        <v>19.0941</v>
       </c>
       <c r="D11" t="n">
-        <v>28.2578</v>
+        <v>28.0389</v>
       </c>
       <c r="E11" t="n">
-        <v>23.9126</v>
+        <v>24.0103</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.5187</v>
+        <v>16.4455</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8419</v>
+        <v>20.1422</v>
       </c>
       <c r="D12" t="n">
-        <v>29.7796</v>
+        <v>28.6631</v>
       </c>
       <c r="E12" t="n">
-        <v>24.7828</v>
+        <v>25.0714</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2676</v>
+        <v>17.1668</v>
       </c>
       <c r="C13" t="n">
-        <v>20.6205</v>
+        <v>20.8939</v>
       </c>
       <c r="D13" t="n">
-        <v>29.9154</v>
+        <v>29.5312</v>
       </c>
       <c r="E13" t="n">
-        <v>26.3369</v>
+        <v>25.4523</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>16.7674</v>
       </c>
       <c r="C14" t="n">
-        <v>20.4271</v>
+        <v>20.4722</v>
       </c>
       <c r="D14" t="n">
-        <v>27.5722</v>
+        <v>29.0645</v>
       </c>
       <c r="E14" t="n">
-        <v>24.9183</v>
+        <v>24.9065</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.0456</v>
+        <v>17.0807</v>
       </c>
       <c r="C15" t="n">
-        <v>20.7158</v>
+        <v>20.6997</v>
       </c>
       <c r="D15" t="n">
-        <v>28.7897</v>
+        <v>28.2171</v>
       </c>
       <c r="E15" t="n">
-        <v>24.8345</v>
+        <v>24.4804</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5313</v>
+        <v>16.9052</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0487</v>
+        <v>21.0414</v>
       </c>
       <c r="D16" t="n">
-        <v>29.2203</v>
+        <v>28.792</v>
       </c>
       <c r="E16" t="n">
-        <v>25.3802</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6803</v>
+        <v>17.5978</v>
       </c>
       <c r="C17" t="n">
-        <v>21.4091</v>
+        <v>21.5043</v>
       </c>
       <c r="D17" t="n">
-        <v>28.523</v>
+        <v>29.476</v>
       </c>
       <c r="E17" t="n">
-        <v>25.1712</v>
+        <v>24.7857</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.97079</v>
+        <v>3.02281</v>
       </c>
       <c r="C2" t="n">
-        <v>4.17317</v>
+        <v>4.18465</v>
       </c>
       <c r="D2" t="n">
-        <v>5.31001</v>
+        <v>5.33858</v>
       </c>
       <c r="E2" t="n">
-        <v>4.14513</v>
+        <v>4.15818</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.86667</v>
+        <v>4.88868</v>
       </c>
       <c r="C3" t="n">
-        <v>5.91868</v>
+        <v>5.96119</v>
       </c>
       <c r="D3" t="n">
-        <v>8.68774</v>
+        <v>8.681330000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>7.37126</v>
+        <v>7.39389</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.54255</v>
+        <v>6.5403</v>
       </c>
       <c r="C4" t="n">
-        <v>7.91621</v>
+        <v>7.92779</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0406</v>
+        <v>12.0609</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5843</v>
+        <v>10.6013</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.1127</v>
+        <v>8.05871</v>
       </c>
       <c r="C5" t="n">
-        <v>9.937480000000001</v>
+        <v>9.911849999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2384</v>
+        <v>15.1973</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7369</v>
+        <v>13.7375</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.65456</v>
+        <v>9.64265</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9744</v>
+        <v>11.9238</v>
       </c>
       <c r="D6" t="n">
-        <v>18.3369</v>
+        <v>18.2346</v>
       </c>
       <c r="E6" t="n">
-        <v>16.8386</v>
+        <v>16.8404</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1303</v>
+        <v>11.1075</v>
       </c>
       <c r="C7" t="n">
-        <v>14.0141</v>
+        <v>13.9399</v>
       </c>
       <c r="D7" t="n">
-        <v>21.3339</v>
+        <v>21.2838</v>
       </c>
       <c r="E7" t="n">
-        <v>19.9062</v>
+        <v>19.8985</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5967</v>
+        <v>12.4313</v>
       </c>
       <c r="C8" t="n">
-        <v>16.2318</v>
+        <v>16.0826</v>
       </c>
       <c r="D8" t="n">
-        <v>24.5378</v>
+        <v>24.2005</v>
       </c>
       <c r="E8" t="n">
-        <v>22.9381</v>
+        <v>22.8696</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6685</v>
+        <v>14.675</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0708</v>
+        <v>19.0361</v>
       </c>
       <c r="D9" t="n">
-        <v>29.0269</v>
+        <v>29.0793</v>
       </c>
       <c r="E9" t="n">
-        <v>26.3649</v>
+        <v>26.3986</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.091</v>
+        <v>13.9771</v>
       </c>
       <c r="C10" t="n">
-        <v>17.8469</v>
+        <v>17.5646</v>
       </c>
       <c r="D10" t="n">
-        <v>26.4775</v>
+        <v>26.917</v>
       </c>
       <c r="E10" t="n">
-        <v>24.1948</v>
+        <v>24.2492</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8726</v>
+        <v>13.998</v>
       </c>
       <c r="C11" t="n">
-        <v>17.472</v>
+        <v>17.3845</v>
       </c>
       <c r="D11" t="n">
-        <v>26.8442</v>
+        <v>26.7283</v>
       </c>
       <c r="E11" t="n">
-        <v>24.1388</v>
+        <v>24.3248</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9948</v>
+        <v>14.0736</v>
       </c>
       <c r="C12" t="n">
-        <v>17.7017</v>
+        <v>17.7304</v>
       </c>
       <c r="D12" t="n">
-        <v>26.5685</v>
+        <v>26.8422</v>
       </c>
       <c r="E12" t="n">
-        <v>24.2686</v>
+        <v>24.5445</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3006</v>
+        <v>14.2429</v>
       </c>
       <c r="C13" t="n">
-        <v>17.9865</v>
+        <v>17.8082</v>
       </c>
       <c r="D13" t="n">
-        <v>27.1356</v>
+        <v>27.3018</v>
       </c>
       <c r="E13" t="n">
-        <v>24.6836</v>
+        <v>24.9373</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7937</v>
+        <v>13.7365</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9943</v>
+        <v>17.9686</v>
       </c>
       <c r="D14" t="n">
-        <v>26.1106</v>
+        <v>26.2704</v>
       </c>
       <c r="E14" t="n">
-        <v>23.8948</v>
+        <v>23.8656</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3556</v>
+        <v>14.3519</v>
       </c>
       <c r="C15" t="n">
-        <v>18.2154</v>
+        <v>18.1553</v>
       </c>
       <c r="D15" t="n">
-        <v>26.6802</v>
+        <v>26.7223</v>
       </c>
       <c r="E15" t="n">
-        <v>24.5083</v>
+        <v>24.8806</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3394</v>
+        <v>14.3019</v>
       </c>
       <c r="C16" t="n">
-        <v>18.2448</v>
+        <v>18.1927</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9024</v>
+        <v>26.369</v>
       </c>
       <c r="E16" t="n">
-        <v>24.325</v>
+        <v>24.4909</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2105</v>
+        <v>14.0476</v>
       </c>
       <c r="C17" t="n">
-        <v>18.381</v>
+        <v>18.3469</v>
       </c>
       <c r="D17" t="n">
-        <v>26.6204</v>
+        <v>26.9227</v>
       </c>
       <c r="E17" t="n">
-        <v>24.2404</v>
+        <v>24.4974</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.90024</v>
+        <v>3.88409</v>
       </c>
       <c r="C2" t="n">
-        <v>8.25393</v>
+        <v>8.22072</v>
       </c>
       <c r="D2" t="n">
-        <v>8.62152</v>
+        <v>8.63287</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16414</v>
+        <v>6.18599</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.02215</v>
+        <v>5.93029</v>
       </c>
       <c r="C3" t="n">
-        <v>8.917020000000001</v>
+        <v>8.76383</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5649</v>
+        <v>12.4792</v>
       </c>
       <c r="E3" t="n">
-        <v>10.349</v>
+        <v>10.2736</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.01327</v>
+        <v>8.038830000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1756</v>
+        <v>11.2202</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8237</v>
+        <v>16.7937</v>
       </c>
       <c r="E4" t="n">
-        <v>14.5845</v>
+        <v>14.5704</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.918480000000001</v>
+        <v>9.79443</v>
       </c>
       <c r="C5" t="n">
-        <v>13.6402</v>
+        <v>13.5933</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8165</v>
+        <v>20.7694</v>
       </c>
       <c r="E5" t="n">
-        <v>18.626</v>
+        <v>18.6942</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7803</v>
+        <v>11.6963</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2237</v>
+        <v>16.1601</v>
       </c>
       <c r="D6" t="n">
-        <v>24.7442</v>
+        <v>24.6119</v>
       </c>
       <c r="E6" t="n">
-        <v>22.7191</v>
+        <v>22.7751</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5235</v>
+        <v>13.4751</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9122</v>
+        <v>18.8084</v>
       </c>
       <c r="D7" t="n">
-        <v>28.6641</v>
+        <v>28.4169</v>
       </c>
       <c r="E7" t="n">
-        <v>26.7453</v>
+        <v>26.7384</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.2433</v>
+        <v>15.2119</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9189</v>
+        <v>21.8036</v>
       </c>
       <c r="D8" t="n">
-        <v>32.8168</v>
+        <v>32.4381</v>
       </c>
       <c r="E8" t="n">
-        <v>30.6395</v>
+        <v>30.7007</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.8347</v>
+        <v>17.8015</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5492</v>
+        <v>25.4249</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0688</v>
+        <v>38.9062</v>
       </c>
       <c r="E9" t="n">
-        <v>35.2484</v>
+        <v>35.4119</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9046</v>
+        <v>17.0184</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2244</v>
+        <v>23.3498</v>
       </c>
       <c r="D10" t="n">
-        <v>35.417</v>
+        <v>35.4692</v>
       </c>
       <c r="E10" t="n">
-        <v>32.5229</v>
+        <v>32.4568</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9306</v>
+        <v>16.9219</v>
       </c>
       <c r="C11" t="n">
-        <v>23.4481</v>
+        <v>23.4606</v>
       </c>
       <c r="D11" t="n">
-        <v>35.6983</v>
+        <v>35.41</v>
       </c>
       <c r="E11" t="n">
-        <v>31.7448</v>
+        <v>32.0589</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.9782</v>
+        <v>16.7957</v>
       </c>
       <c r="C12" t="n">
-        <v>23.7225</v>
+        <v>23.8546</v>
       </c>
       <c r="D12" t="n">
-        <v>35.5027</v>
+        <v>35.7791</v>
       </c>
       <c r="E12" t="n">
-        <v>32.5169</v>
+        <v>32.7631</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2994</v>
+        <v>17.2599</v>
       </c>
       <c r="C13" t="n">
-        <v>24.0467</v>
+        <v>23.9071</v>
       </c>
       <c r="D13" t="n">
-        <v>36.6728</v>
+        <v>36.0175</v>
       </c>
       <c r="E13" t="n">
-        <v>32.9713</v>
+        <v>32.6926</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.6839</v>
+        <v>16.6261</v>
       </c>
       <c r="C14" t="n">
-        <v>23.936</v>
+        <v>24.0377</v>
       </c>
       <c r="D14" t="n">
-        <v>34.7166</v>
+        <v>34.5838</v>
       </c>
       <c r="E14" t="n">
-        <v>31.0521</v>
+        <v>31.5299</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.0287</v>
+        <v>17.3729</v>
       </c>
       <c r="C15" t="n">
-        <v>24.3072</v>
+        <v>24.2436</v>
       </c>
       <c r="D15" t="n">
-        <v>34.6915</v>
+        <v>35.1272</v>
       </c>
       <c r="E15" t="n">
-        <v>31.5785</v>
+        <v>31.9303</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3853</v>
+        <v>17.3389</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4121</v>
+        <v>24.3551</v>
       </c>
       <c r="D16" t="n">
-        <v>34.8806</v>
+        <v>35.0579</v>
       </c>
       <c r="E16" t="n">
-        <v>31.8398</v>
+        <v>32.0698</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4205</v>
+        <v>17.06</v>
       </c>
       <c r="C17" t="n">
-        <v>24.672</v>
+        <v>24.5841</v>
       </c>
       <c r="D17" t="n">
-        <v>35.1643</v>
+        <v>34.7374</v>
       </c>
       <c r="E17" t="n">
-        <v>30.5947</v>
+        <v>31.326</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.22929</v>
+        <v>5.27106</v>
       </c>
       <c r="C2" t="n">
-        <v>6.43144</v>
+        <v>6.42815</v>
       </c>
       <c r="D2" t="n">
-        <v>6.74906</v>
+        <v>6.75471</v>
       </c>
       <c r="E2" t="n">
-        <v>4.92292</v>
+        <v>4.92572</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.76085</v>
+        <v>6.67671</v>
       </c>
       <c r="C3" t="n">
-        <v>7.55521</v>
+        <v>7.50178</v>
       </c>
       <c r="D3" t="n">
-        <v>9.97336</v>
+        <v>9.93909</v>
       </c>
       <c r="E3" t="n">
-        <v>8.254189999999999</v>
+        <v>8.23104</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.62702</v>
+        <v>8.61679</v>
       </c>
       <c r="C4" t="n">
-        <v>9.743819999999999</v>
+        <v>9.7302</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7151</v>
+        <v>13.7052</v>
       </c>
       <c r="E4" t="n">
-        <v>11.8428</v>
+        <v>11.8458</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4974</v>
+        <v>10.4713</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9631</v>
+        <v>11.9141</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4381</v>
+        <v>17.4369</v>
       </c>
       <c r="E5" t="n">
-        <v>15.3306</v>
+        <v>15.3313</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3653</v>
+        <v>12.3192</v>
       </c>
       <c r="C6" t="n">
-        <v>14.3243</v>
+        <v>14.2695</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1968</v>
+        <v>21.211</v>
       </c>
       <c r="E6" t="n">
-        <v>18.8622</v>
+        <v>18.8616</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1738</v>
+        <v>14.1462</v>
       </c>
       <c r="C7" t="n">
-        <v>16.672</v>
+        <v>16.7052</v>
       </c>
       <c r="D7" t="n">
-        <v>24.9394</v>
+        <v>24.871</v>
       </c>
       <c r="E7" t="n">
-        <v>22.3239</v>
+        <v>22.3685</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0714</v>
+        <v>16.0041</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2676</v>
+        <v>19.1659</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7871</v>
+        <v>28.7044</v>
       </c>
       <c r="E8" t="n">
-        <v>25.8537</v>
+        <v>25.8102</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5588</v>
+        <v>18.5257</v>
       </c>
       <c r="C9" t="n">
-        <v>22.1789</v>
+        <v>22.1392</v>
       </c>
       <c r="D9" t="n">
-        <v>33.643</v>
+        <v>33.5866</v>
       </c>
       <c r="E9" t="n">
-        <v>29.8227</v>
+        <v>29.8687</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7402</v>
+        <v>17.7791</v>
       </c>
       <c r="C10" t="n">
-        <v>20.7346</v>
+        <v>20.8064</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0703</v>
+        <v>31.0919</v>
       </c>
       <c r="E10" t="n">
-        <v>27.6876</v>
+        <v>26.936</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7773</v>
+        <v>17.4494</v>
       </c>
       <c r="C11" t="n">
-        <v>20.4287</v>
+        <v>20.7257</v>
       </c>
       <c r="D11" t="n">
-        <v>30.7928</v>
+        <v>31.0979</v>
       </c>
       <c r="E11" t="n">
-        <v>27.3257</v>
+        <v>27.0246</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8105</v>
+        <v>17.6865</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6558</v>
+        <v>20.9175</v>
       </c>
       <c r="D12" t="n">
-        <v>30.7331</v>
+        <v>31.3671</v>
       </c>
       <c r="E12" t="n">
-        <v>27.9614</v>
+        <v>27.3589</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9592</v>
+        <v>18.0125</v>
       </c>
       <c r="C13" t="n">
-        <v>21.1657</v>
+        <v>21.1739</v>
       </c>
       <c r="D13" t="n">
-        <v>31.7059</v>
+        <v>31.6181</v>
       </c>
       <c r="E13" t="n">
-        <v>27.9387</v>
+        <v>28.0206</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4634</v>
+        <v>17.4267</v>
       </c>
       <c r="C14" t="n">
-        <v>20.9528</v>
+        <v>21.0673</v>
       </c>
       <c r="D14" t="n">
-        <v>30.4997</v>
+        <v>30.3178</v>
       </c>
       <c r="E14" t="n">
-        <v>26.845</v>
+        <v>27.0773</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2027</v>
+        <v>18.0393</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2752</v>
+        <v>21.2777</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4992</v>
+        <v>31.1136</v>
       </c>
       <c r="E15" t="n">
-        <v>27.6847</v>
+        <v>27.9737</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1357</v>
+        <v>18.007</v>
       </c>
       <c r="C16" t="n">
-        <v>21.501</v>
+        <v>21.4691</v>
       </c>
       <c r="D16" t="n">
-        <v>31.1487</v>
+        <v>31.3892</v>
       </c>
       <c r="E16" t="n">
-        <v>27.5789</v>
+        <v>27.9954</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0867</v>
+        <v>17.7799</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6955</v>
+        <v>21.6086</v>
       </c>
       <c r="D17" t="n">
-        <v>31.5171</v>
+        <v>30.6848</v>
       </c>
       <c r="E17" t="n">
-        <v>27.8434</v>
+        <v>27.5932</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.10575</v>
+        <v>5.1935</v>
       </c>
       <c r="C2" t="n">
-        <v>4.66117</v>
+        <v>4.67623</v>
       </c>
       <c r="D2" t="n">
-        <v>6.19517</v>
+        <v>6.20208</v>
       </c>
       <c r="E2" t="n">
-        <v>4.49535</v>
+        <v>4.47408</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24363</v>
+        <v>6.19443</v>
       </c>
       <c r="C3" t="n">
-        <v>6.05682</v>
+        <v>6.09898</v>
       </c>
       <c r="D3" t="n">
-        <v>9.08056</v>
+        <v>9.08136</v>
       </c>
       <c r="E3" t="n">
-        <v>7.42695</v>
+        <v>7.41629</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.71271</v>
+        <v>7.75365</v>
       </c>
       <c r="C4" t="n">
-        <v>7.96854</v>
+        <v>8.12974</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4032</v>
+        <v>12.4275</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6113</v>
+        <v>10.6248</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.06512</v>
+        <v>9.23681</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0315</v>
+        <v>10.1306</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4682</v>
+        <v>15.6303</v>
       </c>
       <c r="E5" t="n">
-        <v>13.5878</v>
+        <v>13.6797</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8318</v>
+        <v>10.8496</v>
       </c>
       <c r="C6" t="n">
-        <v>12.1712</v>
+        <v>12.0636</v>
       </c>
       <c r="D6" t="n">
-        <v>18.6041</v>
+        <v>18.6768</v>
       </c>
       <c r="E6" t="n">
-        <v>16.6267</v>
+        <v>16.7135</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5312</v>
+        <v>12.5413</v>
       </c>
       <c r="C7" t="n">
-        <v>14.4052</v>
+        <v>14.3892</v>
       </c>
       <c r="D7" t="n">
-        <v>21.8566</v>
+        <v>22.0122</v>
       </c>
       <c r="E7" t="n">
-        <v>19.6058</v>
+        <v>19.7624</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8379</v>
+        <v>13.8306</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5763</v>
+        <v>16.5956</v>
       </c>
       <c r="D8" t="n">
-        <v>24.496</v>
+        <v>25.0849</v>
       </c>
       <c r="E8" t="n">
-        <v>22.5454</v>
+        <v>22.7422</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2558</v>
+        <v>16.2672</v>
       </c>
       <c r="C9" t="n">
-        <v>19.3016</v>
+        <v>19.1667</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6601</v>
+        <v>28.8692</v>
       </c>
       <c r="E9" t="n">
-        <v>25.8126</v>
+        <v>25.7272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.672</v>
+        <v>13.7509</v>
       </c>
       <c r="C10" t="n">
-        <v>16.2646</v>
+        <v>16.0363</v>
       </c>
       <c r="D10" t="n">
-        <v>23.4834</v>
+        <v>23.4591</v>
       </c>
       <c r="E10" t="n">
-        <v>20.1556</v>
+        <v>20.2378</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9852</v>
+        <v>14.0369</v>
       </c>
       <c r="C11" t="n">
-        <v>16.1111</v>
+        <v>16.2076</v>
       </c>
       <c r="D11" t="n">
-        <v>24.2305</v>
+        <v>23.7788</v>
       </c>
       <c r="E11" t="n">
-        <v>21.184</v>
+        <v>21.3109</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6506</v>
+        <v>14.455</v>
       </c>
       <c r="C12" t="n">
-        <v>17.2001</v>
+        <v>17.0264</v>
       </c>
       <c r="D12" t="n">
-        <v>25.369</v>
+        <v>25.0386</v>
       </c>
       <c r="E12" t="n">
-        <v>21.718</v>
+        <v>22.8316</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.806</v>
+        <v>14.8826</v>
       </c>
       <c r="C13" t="n">
-        <v>17.6447</v>
+        <v>17.5287</v>
       </c>
       <c r="D13" t="n">
-        <v>26.0814</v>
+        <v>25.9795</v>
       </c>
       <c r="E13" t="n">
-        <v>21.8657</v>
+        <v>23.1646</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.7251</v>
+        <v>14.68</v>
       </c>
       <c r="C14" t="n">
-        <v>17.6207</v>
+        <v>17.6898</v>
       </c>
       <c r="D14" t="n">
-        <v>24.909</v>
+        <v>25.0449</v>
       </c>
       <c r="E14" t="n">
-        <v>22.3041</v>
+        <v>22.4747</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0226</v>
+        <v>15.0264</v>
       </c>
       <c r="C15" t="n">
-        <v>17.9448</v>
+        <v>18.049</v>
       </c>
       <c r="D15" t="n">
-        <v>25.4954</v>
+        <v>25.3328</v>
       </c>
       <c r="E15" t="n">
-        <v>22.6043</v>
+        <v>21.8952</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.1946</v>
+        <v>15.3238</v>
       </c>
       <c r="C16" t="n">
-        <v>18.3171</v>
+        <v>18.1978</v>
       </c>
       <c r="D16" t="n">
-        <v>25.958</v>
+        <v>25.541</v>
       </c>
       <c r="E16" t="n">
-        <v>23.139</v>
+        <v>22.7684</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.349</v>
+        <v>15.5736</v>
       </c>
       <c r="C17" t="n">
-        <v>18.6896</v>
+        <v>18.4432</v>
       </c>
       <c r="D17" t="n">
-        <v>24.9521</v>
+        <v>25.5939</v>
       </c>
       <c r="E17" t="n">
-        <v>22.4224</v>
+        <v>22.8728</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.338749999999999</v>
+        <v>8.453720000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2571</v>
+        <v>10.2297</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3162</v>
+        <v>11.3081</v>
       </c>
       <c r="E2" t="n">
-        <v>6.1769</v>
+        <v>6.85645</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.06371</v>
+        <v>8.27196</v>
       </c>
       <c r="C3" t="n">
-        <v>9.61523</v>
+        <v>9.25245</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0998</v>
+        <v>13.3234</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3974</v>
+        <v>10.3503</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.957420000000001</v>
+        <v>10.0215</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3681</v>
+        <v>11.4611</v>
       </c>
       <c r="D4" t="n">
-        <v>16.9351</v>
+        <v>17.6232</v>
       </c>
       <c r="E4" t="n">
-        <v>14.5978</v>
+        <v>14.6191</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7269</v>
+        <v>11.7391</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0717</v>
+        <v>13.8964</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5638</v>
+        <v>21.4963</v>
       </c>
       <c r="E5" t="n">
-        <v>17.1994</v>
+        <v>18.6193</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.6359</v>
+        <v>13.7223</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2707</v>
+        <v>16.7826</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0674</v>
+        <v>25.3046</v>
       </c>
       <c r="E6" t="n">
-        <v>20.4922</v>
+        <v>22.4899</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.7257</v>
+        <v>15.5396</v>
       </c>
       <c r="C7" t="n">
-        <v>19.8476</v>
+        <v>19.4576</v>
       </c>
       <c r="D7" t="n">
-        <v>29.8055</v>
+        <v>28.9472</v>
       </c>
       <c r="E7" t="n">
-        <v>24.7617</v>
+        <v>26.4324</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4266</v>
+        <v>17.4258</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6063</v>
+        <v>22.4648</v>
       </c>
       <c r="D8" t="n">
-        <v>32.9603</v>
+        <v>32.9837</v>
       </c>
       <c r="E8" t="n">
-        <v>28.0344</v>
+        <v>30.2569</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5422</v>
+        <v>20.5168</v>
       </c>
       <c r="C9" t="n">
-        <v>26.2271</v>
+        <v>25.9115</v>
       </c>
       <c r="D9" t="n">
-        <v>38.5751</v>
+        <v>38.1067</v>
       </c>
       <c r="E9" t="n">
-        <v>32.1068</v>
+        <v>34.5715</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3962</v>
+        <v>18.2077</v>
       </c>
       <c r="C10" t="n">
-        <v>23.0454</v>
+        <v>22.4049</v>
       </c>
       <c r="D10" t="n">
-        <v>33.5889</v>
+        <v>33.5275</v>
       </c>
       <c r="E10" t="n">
-        <v>26.9743</v>
+        <v>27.8229</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8093</v>
+        <v>17.5994</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5091</v>
+        <v>22.5041</v>
       </c>
       <c r="D11" t="n">
-        <v>32.8625</v>
+        <v>32.9718</v>
       </c>
       <c r="E11" t="n">
-        <v>27.646</v>
+        <v>28.1662</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0846</v>
+        <v>18.1526</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2954</v>
+        <v>23.2262</v>
       </c>
       <c r="D12" t="n">
-        <v>33.6095</v>
+        <v>33.6109</v>
       </c>
       <c r="E12" t="n">
-        <v>28.725</v>
+        <v>29.5648</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.8499</v>
+        <v>18.8167</v>
       </c>
       <c r="C13" t="n">
-        <v>23.6357</v>
+        <v>23.9715</v>
       </c>
       <c r="D13" t="n">
-        <v>33.3869</v>
+        <v>35.2727</v>
       </c>
       <c r="E13" t="n">
-        <v>29.6399</v>
+        <v>30.0874</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.4658</v>
+        <v>18.3836</v>
       </c>
       <c r="C14" t="n">
-        <v>23.8922</v>
+        <v>23.9142</v>
       </c>
       <c r="D14" t="n">
-        <v>33.428</v>
+        <v>33.1254</v>
       </c>
       <c r="E14" t="n">
-        <v>28.5936</v>
+        <v>28.6499</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9999</v>
+        <v>18.712</v>
       </c>
       <c r="C15" t="n">
-        <v>24.2031</v>
+        <v>23.948</v>
       </c>
       <c r="D15" t="n">
-        <v>33.2801</v>
+        <v>33.7734</v>
       </c>
       <c r="E15" t="n">
-        <v>28.2077</v>
+        <v>28.6539</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.0758</v>
+        <v>19.1235</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4899</v>
+        <v>24.7222</v>
       </c>
       <c r="D16" t="n">
-        <v>33.9295</v>
+        <v>32.8868</v>
       </c>
       <c r="E16" t="n">
-        <v>27.7134</v>
+        <v>29.5095</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.8214</v>
+        <v>19.0926</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9787</v>
+        <v>24.9632</v>
       </c>
       <c r="D17" t="n">
-        <v>34.29</v>
+        <v>32.7721</v>
       </c>
       <c r="E17" t="n">
-        <v>29.5045</v>
+        <v>28.7505</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42919</v>
+        <v>6.42829</v>
       </c>
       <c r="C2" t="n">
-        <v>6.72887</v>
+        <v>6.769</v>
       </c>
       <c r="D2" t="n">
-        <v>7.22153</v>
+        <v>7.21423</v>
       </c>
       <c r="E2" t="n">
-        <v>5.05739</v>
+        <v>5.05872</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.02226</v>
+        <v>7.26725</v>
       </c>
       <c r="C3" t="n">
-        <v>7.63565</v>
+        <v>7.72097</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1973</v>
+        <v>10.1812</v>
       </c>
       <c r="E3" t="n">
-        <v>8.331770000000001</v>
+        <v>8.26243</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.895899999999999</v>
+        <v>8.88846</v>
       </c>
       <c r="C4" t="n">
-        <v>9.791689999999999</v>
+        <v>9.72559</v>
       </c>
       <c r="D4" t="n">
-        <v>13.9558</v>
+        <v>13.8619</v>
       </c>
       <c r="E4" t="n">
-        <v>11.8745</v>
+        <v>11.7562</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6482</v>
+        <v>10.5798</v>
       </c>
       <c r="C5" t="n">
-        <v>12.178</v>
+        <v>12.114</v>
       </c>
       <c r="D5" t="n">
-        <v>17.7828</v>
+        <v>17.6004</v>
       </c>
       <c r="E5" t="n">
-        <v>15.3532</v>
+        <v>15.2525</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.141</v>
+        <v>12.4022</v>
       </c>
       <c r="C6" t="n">
-        <v>13.8884</v>
+        <v>14.5026</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4338</v>
+        <v>21.3676</v>
       </c>
       <c r="E6" t="n">
-        <v>18.8428</v>
+        <v>18.6695</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3393</v>
+        <v>14.3282</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0376</v>
+        <v>17.0458</v>
       </c>
       <c r="D7" t="n">
-        <v>25.3484</v>
+        <v>25.4414</v>
       </c>
       <c r="E7" t="n">
-        <v>22.225</v>
+        <v>22.1793</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9836</v>
+        <v>15.9879</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1377</v>
+        <v>19.3404</v>
       </c>
       <c r="D8" t="n">
-        <v>28.299</v>
+        <v>28.635</v>
       </c>
       <c r="E8" t="n">
-        <v>24.9179</v>
+        <v>25.4162</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2247</v>
+        <v>18.2169</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0552</v>
+        <v>22.2538</v>
       </c>
       <c r="D9" t="n">
-        <v>33.4071</v>
+        <v>33.2231</v>
       </c>
       <c r="E9" t="n">
-        <v>29.2869</v>
+        <v>29.1976</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.3804</v>
+        <v>16.3071</v>
       </c>
       <c r="C10" t="n">
-        <v>19.0845</v>
+        <v>19.0173</v>
       </c>
       <c r="D10" t="n">
-        <v>27.9359</v>
+        <v>27.6073</v>
       </c>
       <c r="E10" t="n">
-        <v>23.1244</v>
+        <v>23.0137</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0146</v>
+        <v>15.9999</v>
       </c>
       <c r="C11" t="n">
-        <v>19.1564</v>
+        <v>19.139</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0874</v>
+        <v>27.8492</v>
       </c>
       <c r="E11" t="n">
-        <v>23.7324</v>
+        <v>23.8802</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4732</v>
+        <v>16.487</v>
       </c>
       <c r="C12" t="n">
-        <v>20.1431</v>
+        <v>19.9408</v>
       </c>
       <c r="D12" t="n">
-        <v>29.113</v>
+        <v>29.5252</v>
       </c>
       <c r="E12" t="n">
-        <v>25.7153</v>
+        <v>24.497</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.0447</v>
+        <v>17.17</v>
       </c>
       <c r="C13" t="n">
-        <v>20.4706</v>
+        <v>20.5748</v>
       </c>
       <c r="D13" t="n">
-        <v>30.0327</v>
+        <v>29.3953</v>
       </c>
       <c r="E13" t="n">
-        <v>25.4326</v>
+        <v>25.8923</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0437</v>
+        <v>16.797</v>
       </c>
       <c r="C14" t="n">
-        <v>20.2485</v>
+        <v>20.3076</v>
       </c>
       <c r="D14" t="n">
-        <v>28.3352</v>
+        <v>28.7987</v>
       </c>
       <c r="E14" t="n">
-        <v>25.1392</v>
+        <v>25.3966</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.052</v>
+        <v>16.9957</v>
       </c>
       <c r="C15" t="n">
-        <v>20.6107</v>
+        <v>20.5488</v>
       </c>
       <c r="D15" t="n">
-        <v>28.9786</v>
+        <v>28.4374</v>
       </c>
       <c r="E15" t="n">
-        <v>25.1088</v>
+        <v>25.0442</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.1574</v>
+        <v>17.6045</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0352</v>
+        <v>20.9958</v>
       </c>
       <c r="D16" t="n">
-        <v>28.9511</v>
+        <v>28.9718</v>
       </c>
       <c r="E16" t="n">
-        <v>25.2939</v>
+        <v>25.0372</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.9077</v>
+        <v>17.4423</v>
       </c>
       <c r="C17" t="n">
-        <v>21.5984</v>
+        <v>21.6412</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0041</v>
+        <v>29.4869</v>
       </c>
       <c r="E17" t="n">
-        <v>25.3189</v>
+        <v>24.7619</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.04457</v>
+        <v>3.02709</v>
       </c>
       <c r="C2" t="n">
-        <v>4.17338</v>
+        <v>4.18058</v>
       </c>
       <c r="D2" t="n">
-        <v>5.32338</v>
+        <v>5.33123</v>
       </c>
       <c r="E2" t="n">
-        <v>4.18156</v>
+        <v>4.16583</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.80034</v>
+        <v>4.87465</v>
       </c>
       <c r="C3" t="n">
-        <v>5.84832</v>
+        <v>5.96195</v>
       </c>
       <c r="D3" t="n">
-        <v>8.61107</v>
+        <v>8.629849999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>7.3377</v>
+        <v>7.38938</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.47623</v>
+        <v>6.53665</v>
       </c>
       <c r="C4" t="n">
-        <v>7.85901</v>
+        <v>7.93392</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9787</v>
+        <v>12.0536</v>
       </c>
       <c r="E4" t="n">
-        <v>10.556</v>
+        <v>10.6004</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.03959</v>
+        <v>8.053129999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.92313</v>
+        <v>9.883979999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1968</v>
+        <v>15.19</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7259</v>
+        <v>13.7528</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.64223</v>
+        <v>9.622260000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9523</v>
+        <v>11.9514</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2691</v>
+        <v>18.2675</v>
       </c>
       <c r="E6" t="n">
-        <v>16.8399</v>
+        <v>16.8526</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1355</v>
+        <v>11.0841</v>
       </c>
       <c r="C7" t="n">
-        <v>13.9611</v>
+        <v>13.9812</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2504</v>
+        <v>21.2956</v>
       </c>
       <c r="E7" t="n">
-        <v>19.8778</v>
+        <v>19.9089</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5139</v>
+        <v>12.544</v>
       </c>
       <c r="C8" t="n">
-        <v>16.1608</v>
+        <v>16.1706</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2856</v>
+        <v>24.365</v>
       </c>
       <c r="E8" t="n">
-        <v>22.9156</v>
+        <v>22.9639</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.5842</v>
+        <v>14.6456</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0959</v>
+        <v>19.0686</v>
       </c>
       <c r="D9" t="n">
-        <v>28.965</v>
+        <v>28.9863</v>
       </c>
       <c r="E9" t="n">
-        <v>26.3904</v>
+        <v>26.4095</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.9437</v>
+        <v>14.0778</v>
       </c>
       <c r="C10" t="n">
-        <v>17.7145</v>
+        <v>17.5964</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9463</v>
+        <v>26.487</v>
       </c>
       <c r="E10" t="n">
-        <v>24.6053</v>
+        <v>24.4796</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.649</v>
+        <v>13.8706</v>
       </c>
       <c r="C11" t="n">
-        <v>17.787</v>
+        <v>17.8226</v>
       </c>
       <c r="D11" t="n">
-        <v>26.8335</v>
+        <v>26.6847</v>
       </c>
       <c r="E11" t="n">
-        <v>24.1596</v>
+        <v>24.0153</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0622</v>
+        <v>13.9806</v>
       </c>
       <c r="C12" t="n">
-        <v>17.3721</v>
+        <v>17.8113</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7487</v>
+        <v>26.745</v>
       </c>
       <c r="E12" t="n">
-        <v>24.4384</v>
+        <v>24.4044</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.1932</v>
+        <v>14.2273</v>
       </c>
       <c r="C13" t="n">
-        <v>17.8395</v>
+        <v>17.8889</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0951</v>
+        <v>27.3132</v>
       </c>
       <c r="E13" t="n">
-        <v>24.9727</v>
+        <v>24.8471</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7109</v>
+        <v>13.7802</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7242</v>
+        <v>17.9129</v>
       </c>
       <c r="D14" t="n">
-        <v>26.0731</v>
+        <v>26.3415</v>
       </c>
       <c r="E14" t="n">
-        <v>23.7579</v>
+        <v>23.7311</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2304</v>
+        <v>14.3336</v>
       </c>
       <c r="C15" t="n">
-        <v>17.958</v>
+        <v>18.0427</v>
       </c>
       <c r="D15" t="n">
-        <v>26.9022</v>
+        <v>27.1984</v>
       </c>
       <c r="E15" t="n">
-        <v>24.6509</v>
+        <v>24.7111</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9853</v>
+        <v>14.2608</v>
       </c>
       <c r="C16" t="n">
-        <v>18.1711</v>
+        <v>18.1513</v>
       </c>
       <c r="D16" t="n">
-        <v>27.0013</v>
+        <v>26.6931</v>
       </c>
       <c r="E16" t="n">
-        <v>24.2812</v>
+        <v>24.0414</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.8764</v>
+        <v>14.4125</v>
       </c>
       <c r="C17" t="n">
-        <v>18.1615</v>
+        <v>18.3769</v>
       </c>
       <c r="D17" t="n">
-        <v>26.6077</v>
+        <v>26.5405</v>
       </c>
       <c r="E17" t="n">
-        <v>24.1606</v>
+        <v>24.1979</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9003</v>
+        <v>3.89667</v>
       </c>
       <c r="C2" t="n">
-        <v>8.21189</v>
+        <v>8.21466</v>
       </c>
       <c r="D2" t="n">
-        <v>8.62374</v>
+        <v>8.65157</v>
       </c>
       <c r="E2" t="n">
-        <v>5.61546</v>
+        <v>6.18112</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.94489</v>
+        <v>5.88777</v>
       </c>
       <c r="C3" t="n">
-        <v>8.82117</v>
+        <v>8.761979999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5041</v>
+        <v>12.4716</v>
       </c>
       <c r="E3" t="n">
-        <v>9.49854</v>
+        <v>10.2635</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.92829</v>
+        <v>7.98983</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1366</v>
+        <v>11.2351</v>
       </c>
       <c r="D4" t="n">
-        <v>16.7068</v>
+        <v>16.8253</v>
       </c>
       <c r="E4" t="n">
-        <v>13.843</v>
+        <v>14.5982</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.84098</v>
+        <v>9.88674</v>
       </c>
       <c r="C5" t="n">
-        <v>13.6213</v>
+        <v>13.6311</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8571</v>
+        <v>20.7842</v>
       </c>
       <c r="E5" t="n">
-        <v>17.2729</v>
+        <v>18.6943</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.6256</v>
+        <v>11.7102</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1669</v>
+        <v>16.2042</v>
       </c>
       <c r="D6" t="n">
-        <v>24.7032</v>
+        <v>24.6811</v>
       </c>
       <c r="E6" t="n">
-        <v>21.1137</v>
+        <v>22.761</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.4837</v>
+        <v>13.4372</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8314</v>
+        <v>18.8068</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7782</v>
+        <v>28.4233</v>
       </c>
       <c r="E7" t="n">
-        <v>24.8446</v>
+        <v>26.7617</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.1829</v>
+        <v>15.1641</v>
       </c>
       <c r="C8" t="n">
-        <v>21.8201</v>
+        <v>21.8128</v>
       </c>
       <c r="D8" t="n">
-        <v>32.2824</v>
+        <v>32.4918</v>
       </c>
       <c r="E8" t="n">
-        <v>29.4968</v>
+        <v>30.6734</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.6929</v>
+        <v>17.777</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8281</v>
+        <v>25.4714</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9222</v>
+        <v>38.9585</v>
       </c>
       <c r="E9" t="n">
-        <v>32.9652</v>
+        <v>35.3774</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.6393</v>
+        <v>17.0635</v>
       </c>
       <c r="C10" t="n">
-        <v>23.4797</v>
+        <v>23.4442</v>
       </c>
       <c r="D10" t="n">
-        <v>36.1682</v>
+        <v>36.231</v>
       </c>
       <c r="E10" t="n">
-        <v>31.8178</v>
+        <v>32.4108</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.6729</v>
+        <v>16.9858</v>
       </c>
       <c r="C11" t="n">
-        <v>23.4918</v>
+        <v>23.418</v>
       </c>
       <c r="D11" t="n">
-        <v>35.7733</v>
+        <v>35.4045</v>
       </c>
       <c r="E11" t="n">
-        <v>31.3526</v>
+        <v>31.7026</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.8488</v>
+        <v>17.0492</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2994</v>
+        <v>23.8125</v>
       </c>
       <c r="D12" t="n">
-        <v>36.0655</v>
+        <v>35.4583</v>
       </c>
       <c r="E12" t="n">
-        <v>32.0483</v>
+        <v>32.628</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1281</v>
+        <v>17.1069</v>
       </c>
       <c r="C13" t="n">
-        <v>22.9511</v>
+        <v>23.8878</v>
       </c>
       <c r="D13" t="n">
-        <v>35.4168</v>
+        <v>36.2906</v>
       </c>
       <c r="E13" t="n">
-        <v>32.107</v>
+        <v>32.3729</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.5825</v>
+        <v>16.654</v>
       </c>
       <c r="C14" t="n">
-        <v>23.3253</v>
+        <v>23.9461</v>
       </c>
       <c r="D14" t="n">
-        <v>34.8519</v>
+        <v>34.2572</v>
       </c>
       <c r="E14" t="n">
-        <v>31.352</v>
+        <v>31.687</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.1422</v>
+        <v>17.2154</v>
       </c>
       <c r="C15" t="n">
-        <v>23.2448</v>
+        <v>24.1117</v>
       </c>
       <c r="D15" t="n">
-        <v>35.5106</v>
+        <v>34.9047</v>
       </c>
       <c r="E15" t="n">
-        <v>30.9268</v>
+        <v>32.0809</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.956</v>
+        <v>17.3524</v>
       </c>
       <c r="C16" t="n">
-        <v>23.9759</v>
+        <v>24.4547</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5797</v>
+        <v>34.3015</v>
       </c>
       <c r="E16" t="n">
-        <v>31.2213</v>
+        <v>31.555</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.8779</v>
+        <v>16.9502</v>
       </c>
       <c r="C17" t="n">
-        <v>24.414</v>
+        <v>24.6478</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5482</v>
+        <v>34.7249</v>
       </c>
       <c r="E17" t="n">
-        <v>31.4928</v>
+        <v>32.3124</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26951</v>
+        <v>5.33246</v>
       </c>
       <c r="C2" t="n">
-        <v>6.32465</v>
+        <v>6.42788</v>
       </c>
       <c r="D2" t="n">
-        <v>6.74035</v>
+        <v>6.74556</v>
       </c>
       <c r="E2" t="n">
-        <v>4.91538</v>
+        <v>4.92995</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.65853</v>
+        <v>6.67608</v>
       </c>
       <c r="C3" t="n">
-        <v>7.45311</v>
+        <v>7.50081</v>
       </c>
       <c r="D3" t="n">
-        <v>9.91799</v>
+        <v>9.94293</v>
       </c>
       <c r="E3" t="n">
-        <v>8.224320000000001</v>
+        <v>8.23494</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.676270000000001</v>
+        <v>8.638199999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.591710000000001</v>
+        <v>9.73523</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7651</v>
+        <v>13.72</v>
       </c>
       <c r="E4" t="n">
-        <v>11.8427</v>
+        <v>11.8446</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0807</v>
+        <v>10.4673</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4782</v>
+        <v>11.9739</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4636</v>
+        <v>17.4673</v>
       </c>
       <c r="E5" t="n">
-        <v>15.3222</v>
+        <v>15.4034</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3112</v>
+        <v>12.3161</v>
       </c>
       <c r="C6" t="n">
-        <v>14.0003</v>
+        <v>14.3104</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1853</v>
+        <v>21.1889</v>
       </c>
       <c r="E6" t="n">
-        <v>18.8157</v>
+        <v>18.9017</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1383</v>
+        <v>14.1666</v>
       </c>
       <c r="C7" t="n">
-        <v>16.0325</v>
+        <v>16.6903</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8249</v>
+        <v>24.9197</v>
       </c>
       <c r="E7" t="n">
-        <v>22.308</v>
+        <v>22.3573</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7316</v>
+        <v>16.0679</v>
       </c>
       <c r="C8" t="n">
-        <v>17.9042</v>
+        <v>19.2529</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5129</v>
+        <v>28.713</v>
       </c>
       <c r="E8" t="n">
-        <v>25.5276</v>
+        <v>25.8325</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5459</v>
+        <v>18.537</v>
       </c>
       <c r="C9" t="n">
-        <v>20.5887</v>
+        <v>22.1162</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2403</v>
+        <v>33.5355</v>
       </c>
       <c r="E9" t="n">
-        <v>29.8468</v>
+        <v>29.7943</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8044</v>
+        <v>17.6704</v>
       </c>
       <c r="C10" t="n">
-        <v>20.6757</v>
+        <v>20.8485</v>
       </c>
       <c r="D10" t="n">
-        <v>31.4546</v>
+        <v>30.7993</v>
       </c>
       <c r="E10" t="n">
-        <v>27.911</v>
+        <v>27.8944</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5871</v>
+        <v>17.5938</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9509</v>
+        <v>20.5312</v>
       </c>
       <c r="D11" t="n">
-        <v>30.1586</v>
+        <v>30.264</v>
       </c>
       <c r="E11" t="n">
-        <v>27.0815</v>
+        <v>27.4858</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6766</v>
+        <v>17.7951</v>
       </c>
       <c r="C12" t="n">
-        <v>20.5508</v>
+        <v>20.8858</v>
       </c>
       <c r="D12" t="n">
-        <v>31.2942</v>
+        <v>30.8271</v>
       </c>
       <c r="E12" t="n">
-        <v>27.656</v>
+        <v>27.4904</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.0402</v>
+        <v>17.9605</v>
       </c>
       <c r="C13" t="n">
-        <v>20.8046</v>
+        <v>21.0856</v>
       </c>
       <c r="D13" t="n">
-        <v>31.4161</v>
+        <v>31.0821</v>
       </c>
       <c r="E13" t="n">
-        <v>27.6234</v>
+        <v>28.1245</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3845</v>
+        <v>17.425</v>
       </c>
       <c r="C14" t="n">
-        <v>20.7446</v>
+        <v>21.1499</v>
       </c>
       <c r="D14" t="n">
-        <v>30.5339</v>
+        <v>30.6054</v>
       </c>
       <c r="E14" t="n">
-        <v>27.1627</v>
+        <v>27.1215</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.1934</v>
+        <v>18.1349</v>
       </c>
       <c r="C15" t="n">
-        <v>20.3653</v>
+        <v>21.2413</v>
       </c>
       <c r="D15" t="n">
-        <v>31.357</v>
+        <v>31.3703</v>
       </c>
       <c r="E15" t="n">
-        <v>27.579</v>
+        <v>27.6654</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7059</v>
+        <v>18.0812</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4615</v>
+        <v>21.4327</v>
       </c>
       <c r="D16" t="n">
-        <v>31.5437</v>
+        <v>31.0458</v>
       </c>
       <c r="E16" t="n">
-        <v>27.7359</v>
+        <v>27.4826</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5675</v>
+        <v>17.8104</v>
       </c>
       <c r="C17" t="n">
-        <v>20.9098</v>
+        <v>21.6534</v>
       </c>
       <c r="D17" t="n">
-        <v>30.7749</v>
+        <v>31.288</v>
       </c>
       <c r="E17" t="n">
-        <v>28.0324</v>
+        <v>27.9329</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.1935</v>
+        <v>5.48931</v>
       </c>
       <c r="C2" t="n">
-        <v>4.67623</v>
+        <v>5.87782</v>
       </c>
       <c r="D2" t="n">
-        <v>6.20208</v>
+        <v>6.0588</v>
       </c>
       <c r="E2" t="n">
-        <v>4.47408</v>
+        <v>4.39746</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.19443</v>
+        <v>7.34833</v>
       </c>
       <c r="C3" t="n">
-        <v>6.09898</v>
+        <v>7.81248</v>
       </c>
       <c r="D3" t="n">
-        <v>9.08136</v>
+        <v>9.627000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>7.41629</v>
+        <v>7.46617</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.75365</v>
+        <v>8.80904</v>
       </c>
       <c r="C4" t="n">
-        <v>8.12974</v>
+        <v>9.81025</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4275</v>
+        <v>12.4666</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6248</v>
+        <v>10.5024</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.23681</v>
+        <v>9.737920000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1306</v>
+        <v>11.1246</v>
       </c>
       <c r="D5" t="n">
-        <v>15.6303</v>
+        <v>15.2793</v>
       </c>
       <c r="E5" t="n">
-        <v>13.6797</v>
+        <v>13.271</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8496</v>
+        <v>10.8929</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0636</v>
+        <v>13.4386</v>
       </c>
       <c r="D6" t="n">
-        <v>18.6768</v>
+        <v>17.7245</v>
       </c>
       <c r="E6" t="n">
-        <v>16.7135</v>
+        <v>15.5901</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5413</v>
+        <v>11.2582</v>
       </c>
       <c r="C7" t="n">
-        <v>14.3892</v>
+        <v>12.8656</v>
       </c>
       <c r="D7" t="n">
-        <v>22.0122</v>
+        <v>17.2402</v>
       </c>
       <c r="E7" t="n">
-        <v>19.7624</v>
+        <v>14.6113</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8306</v>
+        <v>11.7005</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5956</v>
+        <v>13.2333</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0849</v>
+        <v>17.4513</v>
       </c>
       <c r="E8" t="n">
-        <v>22.7422</v>
+        <v>14.9059</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2672</v>
+        <v>12.2377</v>
       </c>
       <c r="C9" t="n">
-        <v>19.1667</v>
+        <v>13.2896</v>
       </c>
       <c r="D9" t="n">
-        <v>28.8692</v>
+        <v>18.7245</v>
       </c>
       <c r="E9" t="n">
-        <v>25.7272</v>
+        <v>15.8655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.7509</v>
+        <v>11.6375</v>
       </c>
       <c r="C10" t="n">
-        <v>16.0363</v>
+        <v>13.335</v>
       </c>
       <c r="D10" t="n">
-        <v>23.4591</v>
+        <v>18.739</v>
       </c>
       <c r="E10" t="n">
-        <v>20.2378</v>
+        <v>17.0223</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0369</v>
+        <v>12.0272</v>
       </c>
       <c r="C11" t="n">
-        <v>16.2076</v>
+        <v>13.6122</v>
       </c>
       <c r="D11" t="n">
-        <v>23.7788</v>
+        <v>18.9998</v>
       </c>
       <c r="E11" t="n">
-        <v>21.3109</v>
+        <v>17.0092</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.455</v>
+        <v>12.1968</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0264</v>
+        <v>13.7326</v>
       </c>
       <c r="D12" t="n">
-        <v>25.0386</v>
+        <v>19.0506</v>
       </c>
       <c r="E12" t="n">
-        <v>22.8316</v>
+        <v>16.9602</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8826</v>
+        <v>12.7827</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5287</v>
+        <v>13.6279</v>
       </c>
       <c r="D13" t="n">
-        <v>25.9795</v>
+        <v>19.0207</v>
       </c>
       <c r="E13" t="n">
-        <v>23.1646</v>
+        <v>17.1521</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.68</v>
+        <v>12.2717</v>
       </c>
       <c r="C14" t="n">
-        <v>17.6898</v>
+        <v>13.8852</v>
       </c>
       <c r="D14" t="n">
-        <v>25.0449</v>
+        <v>18.8518</v>
       </c>
       <c r="E14" t="n">
-        <v>22.4747</v>
+        <v>17.6824</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0264</v>
+        <v>11.6406</v>
       </c>
       <c r="C15" t="n">
-        <v>18.049</v>
+        <v>14.0909</v>
       </c>
       <c r="D15" t="n">
-        <v>25.3328</v>
+        <v>18.6526</v>
       </c>
       <c r="E15" t="n">
-        <v>21.8952</v>
+        <v>16.1099</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3238</v>
+        <v>12.0418</v>
       </c>
       <c r="C16" t="n">
-        <v>18.1978</v>
+        <v>14.35</v>
       </c>
       <c r="D16" t="n">
-        <v>25.541</v>
+        <v>18.3464</v>
       </c>
       <c r="E16" t="n">
-        <v>22.7684</v>
+        <v>16.3481</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5736</v>
+        <v>11.6413</v>
       </c>
       <c r="C17" t="n">
-        <v>18.4432</v>
+        <v>14.9416</v>
       </c>
       <c r="D17" t="n">
-        <v>25.5939</v>
+        <v>18.0713</v>
       </c>
       <c r="E17" t="n">
-        <v>22.8728</v>
+        <v>16.7826</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.453720000000001</v>
+        <v>9.315340000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2297</v>
+        <v>10.2697</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3081</v>
+        <v>11.2665</v>
       </c>
       <c r="E2" t="n">
-        <v>6.85645</v>
+        <v>6.85321</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.27196</v>
+        <v>10.3865</v>
       </c>
       <c r="C3" t="n">
-        <v>9.25245</v>
+        <v>13.4721</v>
       </c>
       <c r="D3" t="n">
-        <v>13.3234</v>
+        <v>15.1477</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3503</v>
+        <v>12.0303</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0215</v>
+        <v>12.2564</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4611</v>
+        <v>13.6346</v>
       </c>
       <c r="D4" t="n">
-        <v>17.6232</v>
+        <v>18.5714</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6191</v>
+        <v>14.7729</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7391</v>
+        <v>12.7322</v>
       </c>
       <c r="C5" t="n">
-        <v>13.8964</v>
+        <v>14.6673</v>
       </c>
       <c r="D5" t="n">
-        <v>21.4963</v>
+        <v>21.5082</v>
       </c>
       <c r="E5" t="n">
-        <v>18.6193</v>
+        <v>18.5964</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7223</v>
+        <v>14.2892</v>
       </c>
       <c r="C6" t="n">
-        <v>16.7826</v>
+        <v>16.2477</v>
       </c>
       <c r="D6" t="n">
-        <v>25.3046</v>
+        <v>24.4426</v>
       </c>
       <c r="E6" t="n">
-        <v>22.4899</v>
+        <v>20.9682</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.5396</v>
+        <v>14.5027</v>
       </c>
       <c r="C7" t="n">
-        <v>19.4576</v>
+        <v>16.608</v>
       </c>
       <c r="D7" t="n">
-        <v>28.9472</v>
+        <v>23.9661</v>
       </c>
       <c r="E7" t="n">
-        <v>26.4324</v>
+        <v>19.6666</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4258</v>
+        <v>14.6188</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4648</v>
+        <v>16.2739</v>
       </c>
       <c r="D8" t="n">
-        <v>32.9837</v>
+        <v>23.7533</v>
       </c>
       <c r="E8" t="n">
-        <v>30.2569</v>
+        <v>20.3849</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5168</v>
+        <v>15.0221</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9115</v>
+        <v>16.8278</v>
       </c>
       <c r="D9" t="n">
-        <v>38.1067</v>
+        <v>24.7383</v>
       </c>
       <c r="E9" t="n">
-        <v>34.5715</v>
+        <v>21.1242</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.2077</v>
+        <v>15.2165</v>
       </c>
       <c r="C10" t="n">
-        <v>22.4049</v>
+        <v>16.5863</v>
       </c>
       <c r="D10" t="n">
-        <v>33.5275</v>
+        <v>25.8959</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8229</v>
+        <v>21.9469</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5994</v>
+        <v>15.2443</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5041</v>
+        <v>16.9262</v>
       </c>
       <c r="D11" t="n">
-        <v>32.9718</v>
+        <v>24.787</v>
       </c>
       <c r="E11" t="n">
-        <v>28.1662</v>
+        <v>22.1943</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.1526</v>
+        <v>15.4164</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2262</v>
+        <v>17.0837</v>
       </c>
       <c r="D12" t="n">
-        <v>33.6109</v>
+        <v>25.6226</v>
       </c>
       <c r="E12" t="n">
-        <v>29.5648</v>
+        <v>22.5272</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.8167</v>
+        <v>15.318</v>
       </c>
       <c r="C13" t="n">
-        <v>23.9715</v>
+        <v>16.8508</v>
       </c>
       <c r="D13" t="n">
-        <v>35.2727</v>
+        <v>25.2083</v>
       </c>
       <c r="E13" t="n">
-        <v>30.0874</v>
+        <v>21.7127</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.3836</v>
+        <v>15.254</v>
       </c>
       <c r="C14" t="n">
-        <v>23.9142</v>
+        <v>17.2927</v>
       </c>
       <c r="D14" t="n">
-        <v>33.1254</v>
+        <v>25.4402</v>
       </c>
       <c r="E14" t="n">
-        <v>28.6499</v>
+        <v>21.9591</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.712</v>
+        <v>15.5898</v>
       </c>
       <c r="C15" t="n">
-        <v>23.948</v>
+        <v>17.5188</v>
       </c>
       <c r="D15" t="n">
-        <v>33.7734</v>
+        <v>24.6599</v>
       </c>
       <c r="E15" t="n">
-        <v>28.6539</v>
+        <v>21.9345</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1235</v>
+        <v>15.5575</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7222</v>
+        <v>18.0073</v>
       </c>
       <c r="D16" t="n">
-        <v>32.8868</v>
+        <v>23.2933</v>
       </c>
       <c r="E16" t="n">
-        <v>29.5095</v>
+        <v>21.9212</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0926</v>
+        <v>14.9028</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9632</v>
+        <v>18.125</v>
       </c>
       <c r="D17" t="n">
-        <v>32.7721</v>
+        <v>24.1978</v>
       </c>
       <c r="E17" t="n">
-        <v>28.7505</v>
+        <v>20.8237</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42829</v>
+        <v>6.87474</v>
       </c>
       <c r="C2" t="n">
-        <v>6.769</v>
+        <v>6.83843</v>
       </c>
       <c r="D2" t="n">
-        <v>7.21423</v>
+        <v>7.20309</v>
       </c>
       <c r="E2" t="n">
-        <v>5.05872</v>
+        <v>5.00841</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.26725</v>
+        <v>8.46138</v>
       </c>
       <c r="C3" t="n">
-        <v>7.72097</v>
+        <v>8.697900000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1812</v>
+        <v>10.503</v>
       </c>
       <c r="E3" t="n">
-        <v>8.26243</v>
+        <v>8.83681</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.88846</v>
+        <v>10.4261</v>
       </c>
       <c r="C4" t="n">
-        <v>9.72559</v>
+        <v>10.8975</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8619</v>
+        <v>14.3965</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7562</v>
+        <v>11.7127</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5798</v>
+        <v>11.2168</v>
       </c>
       <c r="C5" t="n">
-        <v>12.114</v>
+        <v>12.2738</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6004</v>
+        <v>17.6518</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2525</v>
+        <v>15.0935</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4022</v>
+        <v>12.7969</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5026</v>
+        <v>14.147</v>
       </c>
       <c r="D6" t="n">
-        <v>21.3676</v>
+        <v>20.6259</v>
       </c>
       <c r="E6" t="n">
-        <v>18.6695</v>
+        <v>17.6775</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3282</v>
+        <v>12.7794</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0458</v>
+        <v>13.9323</v>
       </c>
       <c r="D7" t="n">
-        <v>25.4414</v>
+        <v>19.7703</v>
       </c>
       <c r="E7" t="n">
-        <v>22.1793</v>
+        <v>16.4741</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9879</v>
+        <v>13.0755</v>
       </c>
       <c r="C8" t="n">
-        <v>19.3404</v>
+        <v>14.0812</v>
       </c>
       <c r="D8" t="n">
-        <v>28.635</v>
+        <v>20.2689</v>
       </c>
       <c r="E8" t="n">
-        <v>25.4162</v>
+        <v>17.1878</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2169</v>
+        <v>13.7918</v>
       </c>
       <c r="C9" t="n">
-        <v>22.2538</v>
+        <v>14.2773</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2231</v>
+        <v>20.9688</v>
       </c>
       <c r="E9" t="n">
-        <v>29.1976</v>
+        <v>18.0479</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.3071</v>
+        <v>14.0006</v>
       </c>
       <c r="C10" t="n">
-        <v>19.0173</v>
+        <v>14.6651</v>
       </c>
       <c r="D10" t="n">
-        <v>27.6073</v>
+        <v>21.1439</v>
       </c>
       <c r="E10" t="n">
-        <v>23.0137</v>
+        <v>18.1629</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9999</v>
+        <v>13.6039</v>
       </c>
       <c r="C11" t="n">
-        <v>19.139</v>
+        <v>14.704</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8492</v>
+        <v>21.5682</v>
       </c>
       <c r="E11" t="n">
-        <v>23.8802</v>
+        <v>18.0248</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.487</v>
+        <v>14.004</v>
       </c>
       <c r="C12" t="n">
-        <v>19.9408</v>
+        <v>14.9026</v>
       </c>
       <c r="D12" t="n">
-        <v>29.5252</v>
+        <v>21.5755</v>
       </c>
       <c r="E12" t="n">
-        <v>24.497</v>
+        <v>18.0084</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.17</v>
+        <v>14.504</v>
       </c>
       <c r="C13" t="n">
-        <v>20.5748</v>
+        <v>15.2779</v>
       </c>
       <c r="D13" t="n">
-        <v>29.3953</v>
+        <v>22.7594</v>
       </c>
       <c r="E13" t="n">
-        <v>25.8923</v>
+        <v>18.9865</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.797</v>
+        <v>13.6102</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3076</v>
+        <v>15.4041</v>
       </c>
       <c r="D14" t="n">
-        <v>28.7987</v>
+        <v>21.3363</v>
       </c>
       <c r="E14" t="n">
-        <v>25.3966</v>
+        <v>18.5521</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.9957</v>
+        <v>13.8214</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5488</v>
+        <v>15.6491</v>
       </c>
       <c r="D15" t="n">
-        <v>28.4374</v>
+        <v>20.5225</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0442</v>
+        <v>18.6034</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6045</v>
+        <v>13.6965</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9958</v>
+        <v>15.9043</v>
       </c>
       <c r="D16" t="n">
-        <v>28.9718</v>
+        <v>20.7399</v>
       </c>
       <c r="E16" t="n">
-        <v>25.0372</v>
+        <v>18.1815</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4423</v>
+        <v>13.713</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6412</v>
+        <v>15.985</v>
       </c>
       <c r="D17" t="n">
-        <v>29.4869</v>
+        <v>19.3491</v>
       </c>
       <c r="E17" t="n">
-        <v>24.7619</v>
+        <v>17.922</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.02709</v>
+        <v>3.08383</v>
       </c>
       <c r="C2" t="n">
-        <v>4.18058</v>
+        <v>5.11975</v>
       </c>
       <c r="D2" t="n">
-        <v>5.33123</v>
+        <v>5.21287</v>
       </c>
       <c r="E2" t="n">
-        <v>4.16583</v>
+        <v>4.06557</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.87465</v>
+        <v>5.43841</v>
       </c>
       <c r="C3" t="n">
-        <v>5.96195</v>
+        <v>8.23676</v>
       </c>
       <c r="D3" t="n">
-        <v>8.629849999999999</v>
+        <v>8.79261</v>
       </c>
       <c r="E3" t="n">
-        <v>7.38938</v>
+        <v>7.23257</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.53665</v>
+        <v>6.83862</v>
       </c>
       <c r="C4" t="n">
-        <v>7.93392</v>
+        <v>9.20346</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0536</v>
+        <v>11.909</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6004</v>
+        <v>10.4736</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.053129999999999</v>
+        <v>8.42483</v>
       </c>
       <c r="C5" t="n">
-        <v>9.883979999999999</v>
+        <v>11.0771</v>
       </c>
       <c r="D5" t="n">
-        <v>15.19</v>
+        <v>15.0738</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7528</v>
+        <v>13.5684</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.622260000000001</v>
+        <v>9.85816</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9514</v>
+        <v>13.0973</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2675</v>
+        <v>18.0682</v>
       </c>
       <c r="E6" t="n">
-        <v>16.8526</v>
+        <v>16.5513</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0841</v>
+        <v>10.7775</v>
       </c>
       <c r="C7" t="n">
-        <v>13.9812</v>
+        <v>13.3665</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2956</v>
+        <v>19.2411</v>
       </c>
       <c r="E7" t="n">
-        <v>19.9089</v>
+        <v>17.3289</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.544</v>
+        <v>11.0537</v>
       </c>
       <c r="C8" t="n">
-        <v>16.1706</v>
+        <v>13.1973</v>
       </c>
       <c r="D8" t="n">
-        <v>24.365</v>
+        <v>19.7039</v>
       </c>
       <c r="E8" t="n">
-        <v>22.9639</v>
+        <v>18.0445</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6456</v>
+        <v>11.5595</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0686</v>
+        <v>13.2897</v>
       </c>
       <c r="D9" t="n">
-        <v>28.9863</v>
+        <v>20.4115</v>
       </c>
       <c r="E9" t="n">
-        <v>26.4095</v>
+        <v>18.3473</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0778</v>
+        <v>11.7748</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5964</v>
+        <v>13.352</v>
       </c>
       <c r="D10" t="n">
-        <v>26.487</v>
+        <v>21.0348</v>
       </c>
       <c r="E10" t="n">
-        <v>24.4796</v>
+        <v>18.7531</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8706</v>
+        <v>11.441</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8226</v>
+        <v>13.4399</v>
       </c>
       <c r="D11" t="n">
-        <v>26.6847</v>
+        <v>20.6017</v>
       </c>
       <c r="E11" t="n">
-        <v>24.0153</v>
+        <v>18.5789</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9806</v>
+        <v>11.9161</v>
       </c>
       <c r="C12" t="n">
-        <v>17.8113</v>
+        <v>13.6306</v>
       </c>
       <c r="D12" t="n">
-        <v>26.745</v>
+        <v>20.7078</v>
       </c>
       <c r="E12" t="n">
-        <v>24.4044</v>
+        <v>18.953</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2273</v>
+        <v>11.8131</v>
       </c>
       <c r="C13" t="n">
-        <v>17.8889</v>
+        <v>13.7661</v>
       </c>
       <c r="D13" t="n">
-        <v>27.3132</v>
+        <v>20.9861</v>
       </c>
       <c r="E13" t="n">
-        <v>24.8471</v>
+        <v>19.0858</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7802</v>
+        <v>11.9116</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9129</v>
+        <v>13.8661</v>
       </c>
       <c r="D14" t="n">
-        <v>26.3415</v>
+        <v>21.403</v>
       </c>
       <c r="E14" t="n">
-        <v>23.7311</v>
+        <v>19.0333</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3336</v>
+        <v>11.9279</v>
       </c>
       <c r="C15" t="n">
-        <v>18.0427</v>
+        <v>13.9989</v>
       </c>
       <c r="D15" t="n">
-        <v>27.1984</v>
+        <v>21.1992</v>
       </c>
       <c r="E15" t="n">
-        <v>24.7111</v>
+        <v>19.0872</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.2608</v>
+        <v>11.8525</v>
       </c>
       <c r="C16" t="n">
-        <v>18.1513</v>
+        <v>14.3419</v>
       </c>
       <c r="D16" t="n">
-        <v>26.6931</v>
+        <v>21.2435</v>
       </c>
       <c r="E16" t="n">
-        <v>24.0414</v>
+        <v>19.3902</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4125</v>
+        <v>12.0215</v>
       </c>
       <c r="C17" t="n">
-        <v>18.3769</v>
+        <v>14.5425</v>
       </c>
       <c r="D17" t="n">
-        <v>26.5405</v>
+        <v>21.1418</v>
       </c>
       <c r="E17" t="n">
-        <v>24.1979</v>
+        <v>19.021</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.89667</v>
+        <v>4.09494</v>
       </c>
       <c r="C2" t="n">
-        <v>8.21466</v>
+        <v>8.274419999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.65157</v>
+        <v>8.62724</v>
       </c>
       <c r="E2" t="n">
-        <v>6.18112</v>
+        <v>6.17115</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.88777</v>
+        <v>6.14457</v>
       </c>
       <c r="C3" t="n">
-        <v>8.761979999999999</v>
+        <v>9.420640000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.4716</v>
+        <v>12.5187</v>
       </c>
       <c r="E3" t="n">
-        <v>10.2635</v>
+        <v>10.5663</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.98983</v>
+        <v>8.381500000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2351</v>
+        <v>12.4571</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8253</v>
+        <v>16.9961</v>
       </c>
       <c r="E4" t="n">
-        <v>14.5982</v>
+        <v>14.6951</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.88674</v>
+        <v>10.3345</v>
       </c>
       <c r="C5" t="n">
-        <v>13.6311</v>
+        <v>14.683</v>
       </c>
       <c r="D5" t="n">
-        <v>20.7842</v>
+        <v>20.893</v>
       </c>
       <c r="E5" t="n">
-        <v>18.6943</v>
+        <v>18.7697</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7102</v>
+        <v>12.1355</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2042</v>
+        <v>16.5103</v>
       </c>
       <c r="D6" t="n">
-        <v>24.6811</v>
+        <v>24.8191</v>
       </c>
       <c r="E6" t="n">
-        <v>22.761</v>
+        <v>22.7411</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.4372</v>
+        <v>13.1252</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8068</v>
+        <v>16.4079</v>
       </c>
       <c r="D7" t="n">
-        <v>28.4233</v>
+        <v>26.5124</v>
       </c>
       <c r="E7" t="n">
-        <v>26.7617</v>
+        <v>24.1027</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.1641</v>
+        <v>13.6298</v>
       </c>
       <c r="C8" t="n">
-        <v>21.8128</v>
+        <v>16.3307</v>
       </c>
       <c r="D8" t="n">
-        <v>32.4918</v>
+        <v>27.34</v>
       </c>
       <c r="E8" t="n">
-        <v>30.6734</v>
+        <v>24.3048</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.777</v>
+        <v>13.7387</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4714</v>
+        <v>16.534</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9585</v>
+        <v>27.5367</v>
       </c>
       <c r="E9" t="n">
-        <v>35.3774</v>
+        <v>24.8122</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0635</v>
+        <v>14.2559</v>
       </c>
       <c r="C10" t="n">
-        <v>23.4442</v>
+        <v>16.371</v>
       </c>
       <c r="D10" t="n">
-        <v>36.231</v>
+        <v>28.4249</v>
       </c>
       <c r="E10" t="n">
-        <v>32.4108</v>
+        <v>26.0878</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9858</v>
+        <v>14.0318</v>
       </c>
       <c r="C11" t="n">
-        <v>23.418</v>
+        <v>16.7644</v>
       </c>
       <c r="D11" t="n">
-        <v>35.4045</v>
+        <v>28.0529</v>
       </c>
       <c r="E11" t="n">
-        <v>31.7026</v>
+        <v>24.9318</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.0492</v>
+        <v>14.3099</v>
       </c>
       <c r="C12" t="n">
-        <v>23.8125</v>
+        <v>16.7925</v>
       </c>
       <c r="D12" t="n">
-        <v>35.4583</v>
+        <v>28.2558</v>
       </c>
       <c r="E12" t="n">
-        <v>32.628</v>
+        <v>25.6283</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1069</v>
+        <v>14.2057</v>
       </c>
       <c r="C13" t="n">
-        <v>23.8878</v>
+        <v>16.7656</v>
       </c>
       <c r="D13" t="n">
-        <v>36.2906</v>
+        <v>28.0965</v>
       </c>
       <c r="E13" t="n">
-        <v>32.3729</v>
+        <v>24.8784</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.654</v>
+        <v>14.5152</v>
       </c>
       <c r="C14" t="n">
-        <v>23.9461</v>
+        <v>17.1402</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2572</v>
+        <v>28.2271</v>
       </c>
       <c r="E14" t="n">
-        <v>31.687</v>
+        <v>25.3558</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.2154</v>
+        <v>14.6341</v>
       </c>
       <c r="C15" t="n">
-        <v>24.1117</v>
+        <v>17.1872</v>
       </c>
       <c r="D15" t="n">
-        <v>34.9047</v>
+        <v>27.4774</v>
       </c>
       <c r="E15" t="n">
-        <v>32.0809</v>
+        <v>25.3208</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3524</v>
+        <v>14.5397</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4547</v>
+        <v>17.4017</v>
       </c>
       <c r="D16" t="n">
-        <v>34.3015</v>
+        <v>27.5612</v>
       </c>
       <c r="E16" t="n">
-        <v>31.555</v>
+        <v>25.5114</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.9502</v>
+        <v>14.4924</v>
       </c>
       <c r="C17" t="n">
-        <v>24.6478</v>
+        <v>17.7812</v>
       </c>
       <c r="D17" t="n">
-        <v>34.7249</v>
+        <v>27.1519</v>
       </c>
       <c r="E17" t="n">
-        <v>32.3124</v>
+        <v>25.0574</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.33246</v>
+        <v>5.57296</v>
       </c>
       <c r="C2" t="n">
-        <v>6.42788</v>
+        <v>6.51718</v>
       </c>
       <c r="D2" t="n">
-        <v>6.74556</v>
+        <v>6.7447</v>
       </c>
       <c r="E2" t="n">
-        <v>4.92995</v>
+        <v>4.87972</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.67608</v>
+        <v>7.80576</v>
       </c>
       <c r="C3" t="n">
-        <v>7.50081</v>
+        <v>8.07192</v>
       </c>
       <c r="D3" t="n">
-        <v>9.94293</v>
+        <v>9.981490000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>8.23494</v>
+        <v>8.38585</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.638199999999999</v>
+        <v>9.11683</v>
       </c>
       <c r="C4" t="n">
-        <v>9.73523</v>
+        <v>9.95875</v>
       </c>
       <c r="D4" t="n">
-        <v>13.72</v>
+        <v>14.2441</v>
       </c>
       <c r="E4" t="n">
-        <v>11.8446</v>
+        <v>11.884</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4673</v>
+        <v>10.9775</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9739</v>
+        <v>12.3184</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4673</v>
+        <v>17.6415</v>
       </c>
       <c r="E5" t="n">
-        <v>15.4034</v>
+        <v>15.288</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3161</v>
+        <v>12.7845</v>
       </c>
       <c r="C6" t="n">
-        <v>14.3104</v>
+        <v>14.5616</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1889</v>
+        <v>21.2691</v>
       </c>
       <c r="E6" t="n">
-        <v>18.9017</v>
+        <v>18.6848</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1666</v>
+        <v>14.1387</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6903</v>
+        <v>14.69</v>
       </c>
       <c r="D7" t="n">
-        <v>24.9197</v>
+        <v>22.502</v>
       </c>
       <c r="E7" t="n">
-        <v>22.3573</v>
+        <v>20.3473</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0679</v>
+        <v>14.2519</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2529</v>
+        <v>14.9307</v>
       </c>
       <c r="D8" t="n">
-        <v>28.713</v>
+        <v>23.4692</v>
       </c>
       <c r="E8" t="n">
-        <v>25.8325</v>
+        <v>20.3529</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.537</v>
+        <v>14.7725</v>
       </c>
       <c r="C9" t="n">
-        <v>22.1162</v>
+        <v>14.7995</v>
       </c>
       <c r="D9" t="n">
-        <v>33.5355</v>
+        <v>23.7621</v>
       </c>
       <c r="E9" t="n">
-        <v>29.7943</v>
+        <v>20.2491</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6704</v>
+        <v>14.8055</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8485</v>
+        <v>14.8746</v>
       </c>
       <c r="D10" t="n">
-        <v>30.7993</v>
+        <v>24.1692</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8944</v>
+        <v>21.4343</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5938</v>
+        <v>14.6231</v>
       </c>
       <c r="C11" t="n">
-        <v>20.5312</v>
+        <v>15.0713</v>
       </c>
       <c r="D11" t="n">
-        <v>30.264</v>
+        <v>24.1375</v>
       </c>
       <c r="E11" t="n">
-        <v>27.4858</v>
+        <v>20.8794</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7951</v>
+        <v>14.991</v>
       </c>
       <c r="C12" t="n">
-        <v>20.8858</v>
+        <v>14.932</v>
       </c>
       <c r="D12" t="n">
-        <v>30.8271</v>
+        <v>24.4563</v>
       </c>
       <c r="E12" t="n">
-        <v>27.4904</v>
+        <v>21.3806</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9605</v>
+        <v>15.0173</v>
       </c>
       <c r="C13" t="n">
-        <v>21.0856</v>
+        <v>15.2112</v>
       </c>
       <c r="D13" t="n">
-        <v>31.0821</v>
+        <v>25.1614</v>
       </c>
       <c r="E13" t="n">
-        <v>28.1245</v>
+        <v>21.4664</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.425</v>
+        <v>15.0833</v>
       </c>
       <c r="C14" t="n">
-        <v>21.1499</v>
+        <v>15.3088</v>
       </c>
       <c r="D14" t="n">
-        <v>30.6054</v>
+        <v>24.561</v>
       </c>
       <c r="E14" t="n">
-        <v>27.1215</v>
+        <v>21.747</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1349</v>
+        <v>15.0252</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2413</v>
+        <v>15.5269</v>
       </c>
       <c r="D15" t="n">
-        <v>31.3703</v>
+        <v>24.7426</v>
       </c>
       <c r="E15" t="n">
-        <v>27.6654</v>
+        <v>22.0331</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0812</v>
+        <v>15.0507</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4327</v>
+        <v>15.7278</v>
       </c>
       <c r="D16" t="n">
-        <v>31.0458</v>
+        <v>24.7781</v>
       </c>
       <c r="E16" t="n">
-        <v>27.4826</v>
+        <v>22.1285</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8104</v>
+        <v>15.1276</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6534</v>
+        <v>16.1774</v>
       </c>
       <c r="D17" t="n">
-        <v>31.288</v>
+        <v>25.1751</v>
       </c>
       <c r="E17" t="n">
-        <v>27.9329</v>
+        <v>22.2883</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.48931</v>
+        <v>5.44159</v>
       </c>
       <c r="C2" t="n">
-        <v>5.87782</v>
+        <v>5.85985</v>
       </c>
       <c r="D2" t="n">
-        <v>6.0588</v>
+        <v>6.16567</v>
       </c>
       <c r="E2" t="n">
-        <v>4.39746</v>
+        <v>6.75251</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.34833</v>
+        <v>6.81707</v>
       </c>
       <c r="C3" t="n">
-        <v>7.81248</v>
+        <v>8.414479999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>9.627000000000001</v>
+        <v>9.33731</v>
       </c>
       <c r="E3" t="n">
-        <v>7.46617</v>
+        <v>11.8243</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.80904</v>
+        <v>8.743639999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.81025</v>
+        <v>9.78866</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4666</v>
+        <v>12.7308</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5024</v>
+        <v>14.5096</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.737920000000001</v>
+        <v>9.69359</v>
       </c>
       <c r="C5" t="n">
-        <v>11.1246</v>
+        <v>11.3533</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2793</v>
+        <v>15.367</v>
       </c>
       <c r="E5" t="n">
-        <v>13.271</v>
+        <v>18.0297</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8929</v>
+        <v>11.1843</v>
       </c>
       <c r="C6" t="n">
-        <v>13.4386</v>
+        <v>13.0867</v>
       </c>
       <c r="D6" t="n">
-        <v>17.7245</v>
+        <v>17.8035</v>
       </c>
       <c r="E6" t="n">
-        <v>15.5901</v>
+        <v>20.2652</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2582</v>
+        <v>11.283</v>
       </c>
       <c r="C7" t="n">
-        <v>12.8656</v>
+        <v>13.1252</v>
       </c>
       <c r="D7" t="n">
-        <v>17.2402</v>
+        <v>17.6043</v>
       </c>
       <c r="E7" t="n">
-        <v>14.6113</v>
+        <v>19.6646</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7005</v>
+        <v>11.3913</v>
       </c>
       <c r="C8" t="n">
-        <v>13.2333</v>
+        <v>12.8394</v>
       </c>
       <c r="D8" t="n">
-        <v>17.4513</v>
+        <v>17.3353</v>
       </c>
       <c r="E8" t="n">
-        <v>14.9059</v>
+        <v>20.3042</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.2377</v>
+        <v>11.7366</v>
       </c>
       <c r="C9" t="n">
-        <v>13.2896</v>
+        <v>13.0856</v>
       </c>
       <c r="D9" t="n">
-        <v>18.7245</v>
+        <v>18.3709</v>
       </c>
       <c r="E9" t="n">
-        <v>15.8655</v>
+        <v>21.6055</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.6375</v>
+        <v>11.9959</v>
       </c>
       <c r="C10" t="n">
-        <v>13.335</v>
+        <v>13.1147</v>
       </c>
       <c r="D10" t="n">
-        <v>18.739</v>
+        <v>18.7124</v>
       </c>
       <c r="E10" t="n">
-        <v>17.0223</v>
+        <v>21.7339</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0272</v>
+        <v>11.9193</v>
       </c>
       <c r="C11" t="n">
-        <v>13.6122</v>
+        <v>13.5838</v>
       </c>
       <c r="D11" t="n">
-        <v>18.9998</v>
+        <v>18.8084</v>
       </c>
       <c r="E11" t="n">
-        <v>17.0092</v>
+        <v>22.5428</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1968</v>
+        <v>12.3953</v>
       </c>
       <c r="C12" t="n">
-        <v>13.7326</v>
+        <v>13.653</v>
       </c>
       <c r="D12" t="n">
-        <v>19.0506</v>
+        <v>18.6303</v>
       </c>
       <c r="E12" t="n">
-        <v>16.9602</v>
+        <v>22.2871</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.7827</v>
+        <v>12.3618</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6279</v>
+        <v>13.8712</v>
       </c>
       <c r="D13" t="n">
-        <v>19.0207</v>
+        <v>20.0426</v>
       </c>
       <c r="E13" t="n">
-        <v>17.1521</v>
+        <v>22.4279</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.2717</v>
+        <v>11.9602</v>
       </c>
       <c r="C14" t="n">
-        <v>13.8852</v>
+        <v>14.0862</v>
       </c>
       <c r="D14" t="n">
-        <v>18.8518</v>
+        <v>19.3176</v>
       </c>
       <c r="E14" t="n">
-        <v>17.6824</v>
+        <v>21.7753</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.6406</v>
+        <v>12.5944</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0909</v>
+        <v>14.2444</v>
       </c>
       <c r="D15" t="n">
-        <v>18.6526</v>
+        <v>18.584</v>
       </c>
       <c r="E15" t="n">
-        <v>16.1099</v>
+        <v>22.3376</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0418</v>
+        <v>12.1129</v>
       </c>
       <c r="C16" t="n">
-        <v>14.35</v>
+        <v>14.3934</v>
       </c>
       <c r="D16" t="n">
-        <v>18.3464</v>
+        <v>19.1922</v>
       </c>
       <c r="E16" t="n">
-        <v>16.3481</v>
+        <v>21.9547</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.6413</v>
+        <v>11.664</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9416</v>
+        <v>14.5932</v>
       </c>
       <c r="D17" t="n">
-        <v>18.0713</v>
+        <v>18.5222</v>
       </c>
       <c r="E17" t="n">
-        <v>16.7826</v>
+        <v>20.6131</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.315340000000001</v>
+        <v>9.336790000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2697</v>
+        <v>10.2824</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2665</v>
+        <v>11.2852</v>
       </c>
       <c r="E2" t="n">
-        <v>6.85321</v>
+        <v>12.5643</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3865</v>
+        <v>11.7192</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4721</v>
+        <v>11.0512</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1477</v>
+        <v>17.4461</v>
       </c>
       <c r="E3" t="n">
-        <v>12.0303</v>
+        <v>15.9208</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2564</v>
+        <v>11.4506</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6346</v>
+        <v>13.6601</v>
       </c>
       <c r="D4" t="n">
-        <v>18.5714</v>
+        <v>18.6543</v>
       </c>
       <c r="E4" t="n">
-        <v>14.7729</v>
+        <v>22.0141</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.7322</v>
+        <v>12.6341</v>
       </c>
       <c r="C5" t="n">
-        <v>14.6673</v>
+        <v>14.4774</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5082</v>
+        <v>21.8151</v>
       </c>
       <c r="E5" t="n">
-        <v>18.5964</v>
+        <v>26.3601</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.2892</v>
+        <v>14.369</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2477</v>
+        <v>16.2786</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4426</v>
+        <v>23.6984</v>
       </c>
       <c r="E6" t="n">
-        <v>20.9682</v>
+        <v>29.5647</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5027</v>
+        <v>14.2153</v>
       </c>
       <c r="C7" t="n">
-        <v>16.608</v>
+        <v>16.2106</v>
       </c>
       <c r="D7" t="n">
-        <v>23.9661</v>
+        <v>23.9473</v>
       </c>
       <c r="E7" t="n">
-        <v>19.6666</v>
+        <v>29.4506</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.6188</v>
+        <v>15.0761</v>
       </c>
       <c r="C8" t="n">
-        <v>16.2739</v>
+        <v>16.3983</v>
       </c>
       <c r="D8" t="n">
-        <v>23.7533</v>
+        <v>24.2353</v>
       </c>
       <c r="E8" t="n">
-        <v>20.3849</v>
+        <v>30.2875</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.0221</v>
+        <v>14.6476</v>
       </c>
       <c r="C9" t="n">
-        <v>16.8278</v>
+        <v>16.2355</v>
       </c>
       <c r="D9" t="n">
-        <v>24.7383</v>
+        <v>25.2149</v>
       </c>
       <c r="E9" t="n">
-        <v>21.1242</v>
+        <v>29.919</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.2165</v>
+        <v>14.7973</v>
       </c>
       <c r="C10" t="n">
-        <v>16.5863</v>
+        <v>16.7269</v>
       </c>
       <c r="D10" t="n">
-        <v>25.8959</v>
+        <v>25.7825</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9469</v>
+        <v>29.2939</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.2443</v>
+        <v>15.0615</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9262</v>
+        <v>16.8883</v>
       </c>
       <c r="D11" t="n">
-        <v>24.787</v>
+        <v>26.0495</v>
       </c>
       <c r="E11" t="n">
-        <v>22.1943</v>
+        <v>30.1188</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4164</v>
+        <v>15.5538</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0837</v>
+        <v>16.9771</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6226</v>
+        <v>25.6127</v>
       </c>
       <c r="E12" t="n">
-        <v>22.5272</v>
+        <v>30.0701</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.318</v>
+        <v>15.3213</v>
       </c>
       <c r="C13" t="n">
-        <v>16.8508</v>
+        <v>17.1665</v>
       </c>
       <c r="D13" t="n">
-        <v>25.2083</v>
+        <v>24.4035</v>
       </c>
       <c r="E13" t="n">
-        <v>21.7127</v>
+        <v>28.9858</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.254</v>
+        <v>15.1455</v>
       </c>
       <c r="C14" t="n">
-        <v>17.2927</v>
+        <v>17.4015</v>
       </c>
       <c r="D14" t="n">
-        <v>25.4402</v>
+        <v>25.1656</v>
       </c>
       <c r="E14" t="n">
-        <v>21.9591</v>
+        <v>27.5951</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.5898</v>
+        <v>15.4287</v>
       </c>
       <c r="C15" t="n">
-        <v>17.5188</v>
+        <v>17.703</v>
       </c>
       <c r="D15" t="n">
-        <v>24.6599</v>
+        <v>25.0552</v>
       </c>
       <c r="E15" t="n">
-        <v>21.9345</v>
+        <v>28.5717</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5575</v>
+        <v>14.7034</v>
       </c>
       <c r="C16" t="n">
-        <v>18.0073</v>
+        <v>17.6881</v>
       </c>
       <c r="D16" t="n">
-        <v>23.2933</v>
+        <v>24.3334</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9212</v>
+        <v>26.4653</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.9028</v>
+        <v>15.3748</v>
       </c>
       <c r="C17" t="n">
-        <v>18.125</v>
+        <v>17.8488</v>
       </c>
       <c r="D17" t="n">
-        <v>24.1978</v>
+        <v>23.8762</v>
       </c>
       <c r="E17" t="n">
-        <v>20.8237</v>
+        <v>27.3818</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.87474</v>
+        <v>6.86868</v>
       </c>
       <c r="C2" t="n">
-        <v>6.83843</v>
+        <v>6.83605</v>
       </c>
       <c r="D2" t="n">
-        <v>7.20309</v>
+        <v>7.18582</v>
       </c>
       <c r="E2" t="n">
-        <v>5.00841</v>
+        <v>7.85519</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.46138</v>
+        <v>8.48516</v>
       </c>
       <c r="C3" t="n">
-        <v>8.697900000000001</v>
+        <v>8.162850000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>10.503</v>
+        <v>10.4571</v>
       </c>
       <c r="E3" t="n">
-        <v>8.83681</v>
+        <v>12.5149</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.4261</v>
+        <v>10.51</v>
       </c>
       <c r="C4" t="n">
-        <v>10.8975</v>
+        <v>10.9951</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3965</v>
+        <v>14.22</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7127</v>
+        <v>16.6622</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2168</v>
+        <v>11.495</v>
       </c>
       <c r="C5" t="n">
-        <v>12.2738</v>
+        <v>12.2159</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6518</v>
+        <v>17.655</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0935</v>
+        <v>20.2872</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.7969</v>
+        <v>12.5205</v>
       </c>
       <c r="C6" t="n">
-        <v>14.147</v>
+        <v>14.0673</v>
       </c>
       <c r="D6" t="n">
-        <v>20.6259</v>
+        <v>19.8157</v>
       </c>
       <c r="E6" t="n">
-        <v>17.6775</v>
+        <v>23.9123</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7794</v>
+        <v>13.0178</v>
       </c>
       <c r="C7" t="n">
-        <v>13.9323</v>
+        <v>14.1625</v>
       </c>
       <c r="D7" t="n">
-        <v>19.7703</v>
+        <v>19.4133</v>
       </c>
       <c r="E7" t="n">
-        <v>16.4741</v>
+        <v>22.5077</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0755</v>
+        <v>13.2939</v>
       </c>
       <c r="C8" t="n">
-        <v>14.0812</v>
+        <v>14.246</v>
       </c>
       <c r="D8" t="n">
-        <v>20.2689</v>
+        <v>20.148</v>
       </c>
       <c r="E8" t="n">
-        <v>17.1878</v>
+        <v>22.4385</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7918</v>
+        <v>13.3564</v>
       </c>
       <c r="C9" t="n">
-        <v>14.2773</v>
+        <v>14.2634</v>
       </c>
       <c r="D9" t="n">
-        <v>20.9688</v>
+        <v>20.7599</v>
       </c>
       <c r="E9" t="n">
-        <v>18.0479</v>
+        <v>23.7734</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0006</v>
+        <v>13.5406</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6651</v>
+        <v>14.5684</v>
       </c>
       <c r="D10" t="n">
-        <v>21.1439</v>
+        <v>21.2519</v>
       </c>
       <c r="E10" t="n">
-        <v>18.1629</v>
+        <v>24.662</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.6039</v>
+        <v>13.7688</v>
       </c>
       <c r="C11" t="n">
-        <v>14.704</v>
+        <v>14.9157</v>
       </c>
       <c r="D11" t="n">
-        <v>21.5682</v>
+        <v>21.7419</v>
       </c>
       <c r="E11" t="n">
-        <v>18.0248</v>
+        <v>24.9865</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.004</v>
+        <v>13.9298</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9026</v>
+        <v>15.0598</v>
       </c>
       <c r="D12" t="n">
-        <v>21.5755</v>
+        <v>20.9454</v>
       </c>
       <c r="E12" t="n">
-        <v>18.0084</v>
+        <v>24.12</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.504</v>
+        <v>13.8915</v>
       </c>
       <c r="C13" t="n">
-        <v>15.2779</v>
+        <v>15.1657</v>
       </c>
       <c r="D13" t="n">
-        <v>22.7594</v>
+        <v>21.9079</v>
       </c>
       <c r="E13" t="n">
-        <v>18.9865</v>
+        <v>24.8056</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.6102</v>
+        <v>14.2406</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4041</v>
+        <v>15.3974</v>
       </c>
       <c r="D14" t="n">
-        <v>21.3363</v>
+        <v>20.9111</v>
       </c>
       <c r="E14" t="n">
-        <v>18.5521</v>
+        <v>24.9915</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.8214</v>
+        <v>13.8265</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6491</v>
+        <v>15.6414</v>
       </c>
       <c r="D15" t="n">
-        <v>20.5225</v>
+        <v>19.9199</v>
       </c>
       <c r="E15" t="n">
-        <v>18.6034</v>
+        <v>24.7088</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.6965</v>
+        <v>14.1618</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9043</v>
+        <v>15.9525</v>
       </c>
       <c r="D16" t="n">
-        <v>20.7399</v>
+        <v>20.824</v>
       </c>
       <c r="E16" t="n">
-        <v>18.1815</v>
+        <v>22.8544</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.713</v>
+        <v>14.3337</v>
       </c>
       <c r="C17" t="n">
-        <v>15.985</v>
+        <v>15.7591</v>
       </c>
       <c r="D17" t="n">
-        <v>19.3491</v>
+        <v>20.6358</v>
       </c>
       <c r="E17" t="n">
-        <v>17.922</v>
+        <v>22.2557</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.08383</v>
+        <v>3.10692</v>
       </c>
       <c r="C2" t="n">
-        <v>5.11975</v>
+        <v>5.12281</v>
       </c>
       <c r="D2" t="n">
-        <v>5.21287</v>
+        <v>5.30916</v>
       </c>
       <c r="E2" t="n">
-        <v>4.06557</v>
+        <v>6.06168</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.43841</v>
+        <v>5.0597</v>
       </c>
       <c r="C3" t="n">
-        <v>8.23676</v>
+        <v>7.55045</v>
       </c>
       <c r="D3" t="n">
-        <v>8.79261</v>
+        <v>8.648849999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>7.23257</v>
+        <v>10.3981</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.83862</v>
+        <v>6.76041</v>
       </c>
       <c r="C4" t="n">
-        <v>9.20346</v>
+        <v>9.250120000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>11.909</v>
+        <v>12.047</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4736</v>
+        <v>14.3892</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.42483</v>
+        <v>8.3957</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0771</v>
+        <v>11.0172</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0738</v>
+        <v>15.2108</v>
       </c>
       <c r="E5" t="n">
-        <v>13.5684</v>
+        <v>18.4053</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.85816</v>
+        <v>9.80064</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0973</v>
+        <v>13.0451</v>
       </c>
       <c r="D6" t="n">
-        <v>18.0682</v>
+        <v>18.2708</v>
       </c>
       <c r="E6" t="n">
-        <v>16.5513</v>
+        <v>22.1895</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7775</v>
+        <v>10.776</v>
       </c>
       <c r="C7" t="n">
-        <v>13.3665</v>
+        <v>13.3591</v>
       </c>
       <c r="D7" t="n">
-        <v>19.2411</v>
+        <v>19.3433</v>
       </c>
       <c r="E7" t="n">
-        <v>17.3289</v>
+        <v>23.414</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0537</v>
+        <v>10.8842</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1973</v>
+        <v>13.1555</v>
       </c>
       <c r="D8" t="n">
-        <v>19.7039</v>
+        <v>20.0984</v>
       </c>
       <c r="E8" t="n">
-        <v>18.0445</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.5595</v>
+        <v>11.3028</v>
       </c>
       <c r="C9" t="n">
-        <v>13.2897</v>
+        <v>13.2774</v>
       </c>
       <c r="D9" t="n">
-        <v>20.4115</v>
+        <v>20.6743</v>
       </c>
       <c r="E9" t="n">
-        <v>18.3473</v>
+        <v>25.0119</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.7748</v>
+        <v>11.7316</v>
       </c>
       <c r="C10" t="n">
-        <v>13.352</v>
+        <v>13.2682</v>
       </c>
       <c r="D10" t="n">
-        <v>21.0348</v>
+        <v>21.2961</v>
       </c>
       <c r="E10" t="n">
-        <v>18.7531</v>
+        <v>24.9764</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.441</v>
+        <v>11.3625</v>
       </c>
       <c r="C11" t="n">
-        <v>13.4399</v>
+        <v>13.6455</v>
       </c>
       <c r="D11" t="n">
-        <v>20.6017</v>
+        <v>20.8942</v>
       </c>
       <c r="E11" t="n">
-        <v>18.5789</v>
+        <v>24.652</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.9161</v>
+        <v>11.6688</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6306</v>
+        <v>13.6807</v>
       </c>
       <c r="D12" t="n">
-        <v>20.7078</v>
+        <v>21.09</v>
       </c>
       <c r="E12" t="n">
-        <v>18.953</v>
+        <v>24.9859</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.8131</v>
+        <v>11.7585</v>
       </c>
       <c r="C13" t="n">
-        <v>13.7661</v>
+        <v>13.6452</v>
       </c>
       <c r="D13" t="n">
-        <v>20.9861</v>
+        <v>21.0334</v>
       </c>
       <c r="E13" t="n">
-        <v>19.0858</v>
+        <v>24.8945</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9116</v>
+        <v>11.7571</v>
       </c>
       <c r="C14" t="n">
-        <v>13.8661</v>
+        <v>13.7958</v>
       </c>
       <c r="D14" t="n">
-        <v>21.403</v>
+        <v>21.1625</v>
       </c>
       <c r="E14" t="n">
-        <v>19.0333</v>
+        <v>25.0615</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.9279</v>
+        <v>11.8342</v>
       </c>
       <c r="C15" t="n">
-        <v>13.9989</v>
+        <v>13.9512</v>
       </c>
       <c r="D15" t="n">
-        <v>21.1992</v>
+        <v>21.6475</v>
       </c>
       <c r="E15" t="n">
-        <v>19.0872</v>
+        <v>25.4515</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.8525</v>
+        <v>11.8892</v>
       </c>
       <c r="C16" t="n">
-        <v>14.3419</v>
+        <v>14.0985</v>
       </c>
       <c r="D16" t="n">
-        <v>21.2435</v>
+        <v>21.133</v>
       </c>
       <c r="E16" t="n">
-        <v>19.3902</v>
+        <v>24.8215</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0215</v>
+        <v>11.7186</v>
       </c>
       <c r="C17" t="n">
-        <v>14.5425</v>
+        <v>14.4155</v>
       </c>
       <c r="D17" t="n">
-        <v>21.1418</v>
+        <v>21.512</v>
       </c>
       <c r="E17" t="n">
-        <v>19.021</v>
+        <v>24.638</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.09494</v>
+        <v>4.09499</v>
       </c>
       <c r="C2" t="n">
-        <v>8.274419999999999</v>
+        <v>8.30517</v>
       </c>
       <c r="D2" t="n">
-        <v>8.62724</v>
+        <v>8.66262</v>
       </c>
       <c r="E2" t="n">
-        <v>6.17115</v>
+        <v>10.523</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.14457</v>
+        <v>6.69541</v>
       </c>
       <c r="C3" t="n">
-        <v>9.420640000000001</v>
+        <v>8.88124</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5187</v>
+        <v>12.5336</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5663</v>
+        <v>15.5266</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.381500000000001</v>
+        <v>8.29513</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4571</v>
+        <v>12.3481</v>
       </c>
       <c r="D4" t="n">
-        <v>16.9961</v>
+        <v>17.0322</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6951</v>
+        <v>21.5778</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3345</v>
+        <v>10.3076</v>
       </c>
       <c r="C5" t="n">
-        <v>14.683</v>
+        <v>13.9527</v>
       </c>
       <c r="D5" t="n">
-        <v>20.893</v>
+        <v>21.4006</v>
       </c>
       <c r="E5" t="n">
-        <v>18.7697</v>
+        <v>26.9926</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1355</v>
+        <v>12.1597</v>
       </c>
       <c r="C6" t="n">
-        <v>16.5103</v>
+        <v>16.4679</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8191</v>
+        <v>24.9102</v>
       </c>
       <c r="E6" t="n">
-        <v>22.7411</v>
+        <v>31.8689</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.1252</v>
+        <v>13.3018</v>
       </c>
       <c r="C7" t="n">
-        <v>16.4079</v>
+        <v>16.4614</v>
       </c>
       <c r="D7" t="n">
-        <v>26.5124</v>
+        <v>26.6235</v>
       </c>
       <c r="E7" t="n">
-        <v>24.1027</v>
+        <v>32.7809</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.6298</v>
+        <v>13.3756</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3307</v>
+        <v>16.5435</v>
       </c>
       <c r="D8" t="n">
-        <v>27.34</v>
+        <v>27.2281</v>
       </c>
       <c r="E8" t="n">
-        <v>24.3048</v>
+        <v>33.9728</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7387</v>
+        <v>13.7124</v>
       </c>
       <c r="C9" t="n">
-        <v>16.534</v>
+        <v>16.4626</v>
       </c>
       <c r="D9" t="n">
-        <v>27.5367</v>
+        <v>27.677</v>
       </c>
       <c r="E9" t="n">
-        <v>24.8122</v>
+        <v>34.6064</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2559</v>
+        <v>14.1362</v>
       </c>
       <c r="C10" t="n">
-        <v>16.371</v>
+        <v>16.5567</v>
       </c>
       <c r="D10" t="n">
-        <v>28.4249</v>
+        <v>27.7887</v>
       </c>
       <c r="E10" t="n">
-        <v>26.0878</v>
+        <v>35.1873</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0318</v>
+        <v>14.0639</v>
       </c>
       <c r="C11" t="n">
-        <v>16.7644</v>
+        <v>16.5687</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0529</v>
+        <v>27.746</v>
       </c>
       <c r="E11" t="n">
-        <v>24.9318</v>
+        <v>34.6491</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3099</v>
+        <v>14.1644</v>
       </c>
       <c r="C12" t="n">
-        <v>16.7925</v>
+        <v>16.8108</v>
       </c>
       <c r="D12" t="n">
-        <v>28.2558</v>
+        <v>28.1647</v>
       </c>
       <c r="E12" t="n">
-        <v>25.6283</v>
+        <v>34.4054</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2057</v>
+        <v>14.3302</v>
       </c>
       <c r="C13" t="n">
-        <v>16.7656</v>
+        <v>16.6931</v>
       </c>
       <c r="D13" t="n">
-        <v>28.0965</v>
+        <v>28.4047</v>
       </c>
       <c r="E13" t="n">
-        <v>24.8784</v>
+        <v>34.1807</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.5152</v>
+        <v>14.3766</v>
       </c>
       <c r="C14" t="n">
-        <v>17.1402</v>
+        <v>16.9799</v>
       </c>
       <c r="D14" t="n">
-        <v>28.2271</v>
+        <v>27.5254</v>
       </c>
       <c r="E14" t="n">
-        <v>25.3558</v>
+        <v>34.4697</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6341</v>
+        <v>14.4052</v>
       </c>
       <c r="C15" t="n">
-        <v>17.1872</v>
+        <v>17.1851</v>
       </c>
       <c r="D15" t="n">
-        <v>27.4774</v>
+        <v>27.8833</v>
       </c>
       <c r="E15" t="n">
-        <v>25.3208</v>
+        <v>34.7656</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5397</v>
+        <v>14.0727</v>
       </c>
       <c r="C16" t="n">
-        <v>17.4017</v>
+        <v>17.207</v>
       </c>
       <c r="D16" t="n">
-        <v>27.5612</v>
+        <v>27.5127</v>
       </c>
       <c r="E16" t="n">
-        <v>25.5114</v>
+        <v>34.255</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4924</v>
+        <v>14.6472</v>
       </c>
       <c r="C17" t="n">
-        <v>17.7812</v>
+        <v>17.5919</v>
       </c>
       <c r="D17" t="n">
-        <v>27.1519</v>
+        <v>27.5403</v>
       </c>
       <c r="E17" t="n">
-        <v>25.0574</v>
+        <v>32.6939</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.57296</v>
+        <v>5.55916</v>
       </c>
       <c r="C2" t="n">
-        <v>6.51718</v>
+        <v>6.5101</v>
       </c>
       <c r="D2" t="n">
-        <v>6.7447</v>
+        <v>6.71298</v>
       </c>
       <c r="E2" t="n">
-        <v>4.87972</v>
+        <v>7.5872</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.80576</v>
+        <v>8.31329</v>
       </c>
       <c r="C3" t="n">
-        <v>8.07192</v>
+        <v>8.066330000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>9.981490000000001</v>
+        <v>10.7355</v>
       </c>
       <c r="E3" t="n">
-        <v>8.38585</v>
+        <v>12.1189</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.11683</v>
+        <v>8.995950000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.95875</v>
+        <v>10.853</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2441</v>
+        <v>14.0651</v>
       </c>
       <c r="E4" t="n">
-        <v>11.884</v>
+        <v>16.7264</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9775</v>
+        <v>11.0057</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3184</v>
+        <v>12.3196</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6415</v>
+        <v>17.3646</v>
       </c>
       <c r="E5" t="n">
-        <v>15.288</v>
+        <v>21.2719</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.7845</v>
+        <v>12.9908</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5616</v>
+        <v>14.4424</v>
       </c>
       <c r="D6" t="n">
-        <v>21.2691</v>
+        <v>20.8946</v>
       </c>
       <c r="E6" t="n">
-        <v>18.6848</v>
+        <v>25.959</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1387</v>
+        <v>13.9804</v>
       </c>
       <c r="C7" t="n">
-        <v>14.69</v>
+        <v>14.7504</v>
       </c>
       <c r="D7" t="n">
-        <v>22.502</v>
+        <v>22.1833</v>
       </c>
       <c r="E7" t="n">
-        <v>20.3473</v>
+        <v>27.0749</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.2519</v>
+        <v>14.1804</v>
       </c>
       <c r="C8" t="n">
-        <v>14.9307</v>
+        <v>14.8399</v>
       </c>
       <c r="D8" t="n">
-        <v>23.4692</v>
+        <v>22.8188</v>
       </c>
       <c r="E8" t="n">
-        <v>20.3529</v>
+        <v>26.9291</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7725</v>
+        <v>14.7741</v>
       </c>
       <c r="C9" t="n">
-        <v>14.7995</v>
+        <v>14.8195</v>
       </c>
       <c r="D9" t="n">
-        <v>23.7621</v>
+        <v>23.209</v>
       </c>
       <c r="E9" t="n">
-        <v>20.2491</v>
+        <v>28.4138</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.8055</v>
+        <v>14.8869</v>
       </c>
       <c r="C10" t="n">
-        <v>14.8746</v>
+        <v>14.821</v>
       </c>
       <c r="D10" t="n">
-        <v>24.1692</v>
+        <v>24.5209</v>
       </c>
       <c r="E10" t="n">
-        <v>21.4343</v>
+        <v>28.7933</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.6231</v>
+        <v>14.7517</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0713</v>
+        <v>14.9336</v>
       </c>
       <c r="D11" t="n">
-        <v>24.1375</v>
+        <v>23.5408</v>
       </c>
       <c r="E11" t="n">
-        <v>20.8794</v>
+        <v>28.6388</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.991</v>
+        <v>15.1722</v>
       </c>
       <c r="C12" t="n">
-        <v>14.932</v>
+        <v>14.9278</v>
       </c>
       <c r="D12" t="n">
-        <v>24.4563</v>
+        <v>23.9441</v>
       </c>
       <c r="E12" t="n">
-        <v>21.3806</v>
+        <v>28.7579</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0173</v>
+        <v>14.9105</v>
       </c>
       <c r="C13" t="n">
-        <v>15.2112</v>
+        <v>15.221</v>
       </c>
       <c r="D13" t="n">
-        <v>25.1614</v>
+        <v>23.9616</v>
       </c>
       <c r="E13" t="n">
-        <v>21.4664</v>
+        <v>29.2095</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0833</v>
+        <v>15.2349</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3088</v>
+        <v>15.4648</v>
       </c>
       <c r="D14" t="n">
-        <v>24.561</v>
+        <v>24.4399</v>
       </c>
       <c r="E14" t="n">
-        <v>21.747</v>
+        <v>28.983</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0252</v>
+        <v>15.2383</v>
       </c>
       <c r="C15" t="n">
-        <v>15.5269</v>
+        <v>15.529</v>
       </c>
       <c r="D15" t="n">
-        <v>24.7426</v>
+        <v>24.6223</v>
       </c>
       <c r="E15" t="n">
-        <v>22.0331</v>
+        <v>28.9919</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0507</v>
+        <v>15.0611</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7278</v>
+        <v>15.8931</v>
       </c>
       <c r="D16" t="n">
-        <v>24.7781</v>
+        <v>24.3181</v>
       </c>
       <c r="E16" t="n">
-        <v>22.1285</v>
+        <v>29.1773</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.1276</v>
+        <v>14.8642</v>
       </c>
       <c r="C17" t="n">
-        <v>16.1774</v>
+        <v>16.0935</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1751</v>
+        <v>24.4345</v>
       </c>
       <c r="E17" t="n">
-        <v>22.2883</v>
+        <v>28.5963</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.44159</v>
+        <v>5.45785</v>
       </c>
       <c r="C2" t="n">
-        <v>5.85985</v>
+        <v>5.86235</v>
       </c>
       <c r="D2" t="n">
-        <v>6.16567</v>
+        <v>6.17253</v>
       </c>
       <c r="E2" t="n">
-        <v>6.75251</v>
+        <v>6.7515</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.81707</v>
+        <v>7.97202</v>
       </c>
       <c r="C3" t="n">
-        <v>8.414479999999999</v>
+        <v>7.3207</v>
       </c>
       <c r="D3" t="n">
-        <v>9.33731</v>
+        <v>9.405469999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>11.8243</v>
+        <v>10.9831</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.743639999999999</v>
+        <v>8.79135</v>
       </c>
       <c r="C4" t="n">
-        <v>9.78866</v>
+        <v>9.50041</v>
       </c>
       <c r="D4" t="n">
-        <v>12.7308</v>
+        <v>12.7015</v>
       </c>
       <c r="E4" t="n">
-        <v>14.5096</v>
+        <v>14.4923</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.69359</v>
+        <v>9.74827</v>
       </c>
       <c r="C5" t="n">
-        <v>11.3533</v>
+        <v>11.2738</v>
       </c>
       <c r="D5" t="n">
-        <v>15.367</v>
+        <v>15.3893</v>
       </c>
       <c r="E5" t="n">
-        <v>18.0297</v>
+        <v>18.1689</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1843</v>
+        <v>11.1219</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0867</v>
+        <v>12.9328</v>
       </c>
       <c r="D6" t="n">
-        <v>17.8035</v>
+        <v>17.9609</v>
       </c>
       <c r="E6" t="n">
-        <v>20.2652</v>
+        <v>21.2999</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.283</v>
+        <v>11.3746</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1252</v>
+        <v>12.8887</v>
       </c>
       <c r="D7" t="n">
-        <v>17.6043</v>
+        <v>16.9639</v>
       </c>
       <c r="E7" t="n">
-        <v>19.6646</v>
+        <v>19.4109</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.3913</v>
+        <v>11.2031</v>
       </c>
       <c r="C8" t="n">
-        <v>12.8394</v>
+        <v>12.7698</v>
       </c>
       <c r="D8" t="n">
-        <v>17.3353</v>
+        <v>17.3894</v>
       </c>
       <c r="E8" t="n">
-        <v>20.3042</v>
+        <v>20.2442</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.7366</v>
+        <v>11.6285</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0856</v>
+        <v>13.217</v>
       </c>
       <c r="D9" t="n">
-        <v>18.3709</v>
+        <v>18.643</v>
       </c>
       <c r="E9" t="n">
-        <v>21.6055</v>
+        <v>21.0824</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9959</v>
+        <v>11.7745</v>
       </c>
       <c r="C10" t="n">
-        <v>13.1147</v>
+        <v>13.6913</v>
       </c>
       <c r="D10" t="n">
-        <v>18.7124</v>
+        <v>18.8023</v>
       </c>
       <c r="E10" t="n">
-        <v>21.7339</v>
+        <v>21.3212</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9193</v>
+        <v>12.0715</v>
       </c>
       <c r="C11" t="n">
-        <v>13.5838</v>
+        <v>13.2483</v>
       </c>
       <c r="D11" t="n">
-        <v>18.8084</v>
+        <v>18.2759</v>
       </c>
       <c r="E11" t="n">
-        <v>22.5428</v>
+        <v>22.4259</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3953</v>
+        <v>12.4697</v>
       </c>
       <c r="C12" t="n">
-        <v>13.653</v>
+        <v>13.8254</v>
       </c>
       <c r="D12" t="n">
-        <v>18.6303</v>
+        <v>19.6238</v>
       </c>
       <c r="E12" t="n">
-        <v>22.2871</v>
+        <v>21.3047</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3618</v>
+        <v>12.6683</v>
       </c>
       <c r="C13" t="n">
-        <v>13.8712</v>
+        <v>13.5851</v>
       </c>
       <c r="D13" t="n">
-        <v>20.0426</v>
+        <v>19.2808</v>
       </c>
       <c r="E13" t="n">
-        <v>22.4279</v>
+        <v>21.5962</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9602</v>
+        <v>11.9694</v>
       </c>
       <c r="C14" t="n">
-        <v>14.0862</v>
+        <v>14.1438</v>
       </c>
       <c r="D14" t="n">
-        <v>19.3176</v>
+        <v>19.0455</v>
       </c>
       <c r="E14" t="n">
-        <v>21.7753</v>
+        <v>22.3931</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5944</v>
+        <v>11.5165</v>
       </c>
       <c r="C15" t="n">
-        <v>14.2444</v>
+        <v>14.3607</v>
       </c>
       <c r="D15" t="n">
-        <v>18.584</v>
+        <v>20.1241</v>
       </c>
       <c r="E15" t="n">
-        <v>22.3376</v>
+        <v>22.1941</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.1129</v>
+        <v>11.9578</v>
       </c>
       <c r="C16" t="n">
-        <v>14.3934</v>
+        <v>14.2072</v>
       </c>
       <c r="D16" t="n">
-        <v>19.1922</v>
+        <v>18.9178</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9547</v>
+        <v>20.8047</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.664</v>
+        <v>12.3958</v>
       </c>
       <c r="C17" t="n">
-        <v>14.5932</v>
+        <v>14.4382</v>
       </c>
       <c r="D17" t="n">
-        <v>18.5222</v>
+        <v>18.8674</v>
       </c>
       <c r="E17" t="n">
-        <v>20.6131</v>
+        <v>21.3624</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.336790000000001</v>
+        <v>9.36016</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2824</v>
+        <v>10.2698</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2852</v>
+        <v>11.2937</v>
       </c>
       <c r="E2" t="n">
-        <v>12.5643</v>
+        <v>12.5731</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.7192</v>
+        <v>11.4441</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0512</v>
+        <v>11.0715</v>
       </c>
       <c r="D3" t="n">
-        <v>17.4461</v>
+        <v>14.3628</v>
       </c>
       <c r="E3" t="n">
-        <v>15.9208</v>
+        <v>18.5531</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4506</v>
+        <v>11.8559</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6601</v>
+        <v>13.8788</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6543</v>
+        <v>18.6074</v>
       </c>
       <c r="E4" t="n">
-        <v>22.0141</v>
+        <v>21.9612</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.6341</v>
+        <v>12.722</v>
       </c>
       <c r="C5" t="n">
-        <v>14.4774</v>
+        <v>14.3004</v>
       </c>
       <c r="D5" t="n">
-        <v>21.8151</v>
+        <v>22.367</v>
       </c>
       <c r="E5" t="n">
-        <v>26.3601</v>
+        <v>26.6379</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.369</v>
+        <v>14.1493</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2786</v>
+        <v>16.3636</v>
       </c>
       <c r="D6" t="n">
-        <v>23.6984</v>
+        <v>24.2615</v>
       </c>
       <c r="E6" t="n">
-        <v>29.5647</v>
+        <v>30.4725</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2153</v>
+        <v>14.5916</v>
       </c>
       <c r="C7" t="n">
-        <v>16.2106</v>
+        <v>16.5794</v>
       </c>
       <c r="D7" t="n">
-        <v>23.9473</v>
+        <v>24.8315</v>
       </c>
       <c r="E7" t="n">
-        <v>29.4506</v>
+        <v>28.9168</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.0761</v>
+        <v>14.5668</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3983</v>
+        <v>16.2832</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2353</v>
+        <v>24.3442</v>
       </c>
       <c r="E8" t="n">
-        <v>30.2875</v>
+        <v>29.439</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6476</v>
+        <v>14.6552</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2355</v>
+        <v>16.0545</v>
       </c>
       <c r="D9" t="n">
-        <v>25.2149</v>
+        <v>24.0727</v>
       </c>
       <c r="E9" t="n">
-        <v>29.919</v>
+        <v>30.0957</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.7973</v>
+        <v>14.8181</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7269</v>
+        <v>17.1263</v>
       </c>
       <c r="D10" t="n">
-        <v>25.7825</v>
+        <v>25.6065</v>
       </c>
       <c r="E10" t="n">
-        <v>29.2939</v>
+        <v>30.2684</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.0615</v>
+        <v>15.7171</v>
       </c>
       <c r="C11" t="n">
-        <v>16.8883</v>
+        <v>16.6634</v>
       </c>
       <c r="D11" t="n">
-        <v>26.0495</v>
+        <v>25.5437</v>
       </c>
       <c r="E11" t="n">
-        <v>30.1188</v>
+        <v>30.1509</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.5538</v>
+        <v>15.1189</v>
       </c>
       <c r="C12" t="n">
-        <v>16.9771</v>
+        <v>17.2227</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6127</v>
+        <v>25.602</v>
       </c>
       <c r="E12" t="n">
-        <v>30.0701</v>
+        <v>29.2922</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.3213</v>
+        <v>15.5794</v>
       </c>
       <c r="C13" t="n">
-        <v>17.1665</v>
+        <v>16.9737</v>
       </c>
       <c r="D13" t="n">
-        <v>24.4035</v>
+        <v>24.1869</v>
       </c>
       <c r="E13" t="n">
-        <v>28.9858</v>
+        <v>30.0525</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1455</v>
+        <v>15.772</v>
       </c>
       <c r="C14" t="n">
-        <v>17.4015</v>
+        <v>17.362</v>
       </c>
       <c r="D14" t="n">
-        <v>25.1656</v>
+        <v>25.7059</v>
       </c>
       <c r="E14" t="n">
-        <v>27.5951</v>
+        <v>28.88</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.4287</v>
+        <v>14.8832</v>
       </c>
       <c r="C15" t="n">
-        <v>17.703</v>
+        <v>17.3082</v>
       </c>
       <c r="D15" t="n">
-        <v>25.0552</v>
+        <v>24.2733</v>
       </c>
       <c r="E15" t="n">
-        <v>28.5717</v>
+        <v>27.4998</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.7034</v>
+        <v>15.2087</v>
       </c>
       <c r="C16" t="n">
-        <v>17.6881</v>
+        <v>17.823</v>
       </c>
       <c r="D16" t="n">
-        <v>24.3334</v>
+        <v>23.4867</v>
       </c>
       <c r="E16" t="n">
-        <v>26.4653</v>
+        <v>26.9536</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3748</v>
+        <v>15.6937</v>
       </c>
       <c r="C17" t="n">
-        <v>17.8488</v>
+        <v>18.1524</v>
       </c>
       <c r="D17" t="n">
-        <v>23.8762</v>
+        <v>23.5356</v>
       </c>
       <c r="E17" t="n">
-        <v>27.3818</v>
+        <v>25.9218</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.86868</v>
+        <v>6.8677</v>
       </c>
       <c r="C2" t="n">
-        <v>6.83605</v>
+        <v>6.8366</v>
       </c>
       <c r="D2" t="n">
-        <v>7.18582</v>
+        <v>7.18889</v>
       </c>
       <c r="E2" t="n">
-        <v>7.85519</v>
+        <v>7.85743</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.48516</v>
+        <v>8.47095</v>
       </c>
       <c r="C3" t="n">
-        <v>8.162850000000001</v>
+        <v>8.751810000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4571</v>
+        <v>10.8928</v>
       </c>
       <c r="E3" t="n">
-        <v>12.5149</v>
+        <v>12.5006</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.51</v>
+        <v>10.4219</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9951</v>
+        <v>10.9433</v>
       </c>
       <c r="D4" t="n">
-        <v>14.22</v>
+        <v>14.2019</v>
       </c>
       <c r="E4" t="n">
-        <v>16.6622</v>
+        <v>16.667</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.495</v>
+        <v>11.5838</v>
       </c>
       <c r="C5" t="n">
-        <v>12.2159</v>
+        <v>12.3013</v>
       </c>
       <c r="D5" t="n">
-        <v>17.655</v>
+        <v>17.6858</v>
       </c>
       <c r="E5" t="n">
-        <v>20.2872</v>
+        <v>20.4944</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5205</v>
+        <v>13.1781</v>
       </c>
       <c r="C6" t="n">
-        <v>14.0673</v>
+        <v>14.0203</v>
       </c>
       <c r="D6" t="n">
-        <v>19.8157</v>
+        <v>19.9229</v>
       </c>
       <c r="E6" t="n">
-        <v>23.9123</v>
+        <v>24.758</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0178</v>
+        <v>13.2222</v>
       </c>
       <c r="C7" t="n">
-        <v>14.1625</v>
+        <v>13.8118</v>
       </c>
       <c r="D7" t="n">
-        <v>19.4133</v>
+        <v>19.8699</v>
       </c>
       <c r="E7" t="n">
-        <v>22.5077</v>
+        <v>21.8997</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.2939</v>
+        <v>13.2039</v>
       </c>
       <c r="C8" t="n">
-        <v>14.246</v>
+        <v>14.2693</v>
       </c>
       <c r="D8" t="n">
-        <v>20.148</v>
+        <v>19.822</v>
       </c>
       <c r="E8" t="n">
-        <v>22.4385</v>
+        <v>23.2488</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.3564</v>
+        <v>13.8576</v>
       </c>
       <c r="C9" t="n">
-        <v>14.2634</v>
+        <v>14.4328</v>
       </c>
       <c r="D9" t="n">
-        <v>20.7599</v>
+        <v>20.5402</v>
       </c>
       <c r="E9" t="n">
-        <v>23.7734</v>
+        <v>23.8092</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.5406</v>
+        <v>13.5412</v>
       </c>
       <c r="C10" t="n">
-        <v>14.5684</v>
+        <v>14.7218</v>
       </c>
       <c r="D10" t="n">
-        <v>21.2519</v>
+        <v>20.9938</v>
       </c>
       <c r="E10" t="n">
-        <v>24.662</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.7688</v>
+        <v>13.682</v>
       </c>
       <c r="C11" t="n">
-        <v>14.9157</v>
+        <v>14.8283</v>
       </c>
       <c r="D11" t="n">
-        <v>21.7419</v>
+        <v>20.7526</v>
       </c>
       <c r="E11" t="n">
-        <v>24.9865</v>
+        <v>24.3792</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9298</v>
+        <v>13.9007</v>
       </c>
       <c r="C12" t="n">
-        <v>15.0598</v>
+        <v>15.1857</v>
       </c>
       <c r="D12" t="n">
-        <v>20.9454</v>
+        <v>21.3204</v>
       </c>
       <c r="E12" t="n">
-        <v>24.12</v>
+        <v>24.6824</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.8915</v>
+        <v>13.4775</v>
       </c>
       <c r="C13" t="n">
-        <v>15.1657</v>
+        <v>15.1014</v>
       </c>
       <c r="D13" t="n">
-        <v>21.9079</v>
+        <v>21.8002</v>
       </c>
       <c r="E13" t="n">
-        <v>24.8056</v>
+        <v>24.763</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.2406</v>
+        <v>13.3074</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3974</v>
+        <v>15.3565</v>
       </c>
       <c r="D14" t="n">
-        <v>20.9111</v>
+        <v>20.3378</v>
       </c>
       <c r="E14" t="n">
-        <v>24.9915</v>
+        <v>24.4662</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.8265</v>
+        <v>14.1695</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6414</v>
+        <v>15.3345</v>
       </c>
       <c r="D15" t="n">
-        <v>19.9199</v>
+        <v>19.4485</v>
       </c>
       <c r="E15" t="n">
-        <v>24.7088</v>
+        <v>24.0077</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.1618</v>
+        <v>13.1918</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9525</v>
+        <v>15.8094</v>
       </c>
       <c r="D16" t="n">
-        <v>20.824</v>
+        <v>21.3328</v>
       </c>
       <c r="E16" t="n">
-        <v>22.8544</v>
+        <v>22.9646</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3337</v>
+        <v>13.482</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7591</v>
+        <v>16.0811</v>
       </c>
       <c r="D17" t="n">
-        <v>20.6358</v>
+        <v>19.6586</v>
       </c>
       <c r="E17" t="n">
-        <v>22.2557</v>
+        <v>22.0709</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.10692</v>
+        <v>3.08215</v>
       </c>
       <c r="C2" t="n">
-        <v>5.12281</v>
+        <v>5.09611</v>
       </c>
       <c r="D2" t="n">
-        <v>5.30916</v>
+        <v>5.30054</v>
       </c>
       <c r="E2" t="n">
-        <v>6.06168</v>
+        <v>6.05439</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.0597</v>
+        <v>4.90176</v>
       </c>
       <c r="C3" t="n">
-        <v>7.55045</v>
+        <v>6.78944</v>
       </c>
       <c r="D3" t="n">
-        <v>8.648849999999999</v>
+        <v>8.6213</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3981</v>
+        <v>10.6589</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.76041</v>
+        <v>6.78321</v>
       </c>
       <c r="C4" t="n">
-        <v>9.250120000000001</v>
+        <v>9.117990000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.047</v>
+        <v>12.0277</v>
       </c>
       <c r="E4" t="n">
-        <v>14.3892</v>
+        <v>14.3638</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.3957</v>
+        <v>8.524470000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0172</v>
+        <v>11.0449</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2108</v>
+        <v>15.2202</v>
       </c>
       <c r="E5" t="n">
-        <v>18.4053</v>
+        <v>18.4064</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.80064</v>
+        <v>9.81704</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0451</v>
+        <v>13.0746</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2708</v>
+        <v>18.1917</v>
       </c>
       <c r="E6" t="n">
-        <v>22.1895</v>
+        <v>22.3674</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.776</v>
+        <v>10.7511</v>
       </c>
       <c r="C7" t="n">
-        <v>13.3591</v>
+        <v>13.4682</v>
       </c>
       <c r="D7" t="n">
-        <v>19.3433</v>
+        <v>19.0119</v>
       </c>
       <c r="E7" t="n">
-        <v>23.414</v>
+        <v>23.3958</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.8842</v>
+        <v>10.8736</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1555</v>
+        <v>13.3015</v>
       </c>
       <c r="D8" t="n">
-        <v>20.0984</v>
+        <v>19.5377</v>
       </c>
       <c r="E8" t="n">
-        <v>23.69</v>
+        <v>23.5032</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3028</v>
+        <v>11.2787</v>
       </c>
       <c r="C9" t="n">
-        <v>13.2774</v>
+        <v>13.2459</v>
       </c>
       <c r="D9" t="n">
-        <v>20.6743</v>
+        <v>20.3009</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0119</v>
+        <v>24.2391</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.7316</v>
+        <v>11.474</v>
       </c>
       <c r="C10" t="n">
-        <v>13.2682</v>
+        <v>13.265</v>
       </c>
       <c r="D10" t="n">
-        <v>21.2961</v>
+        <v>20.8767</v>
       </c>
       <c r="E10" t="n">
-        <v>24.9764</v>
+        <v>24.5589</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.3625</v>
+        <v>11.4899</v>
       </c>
       <c r="C11" t="n">
-        <v>13.6455</v>
+        <v>13.4941</v>
       </c>
       <c r="D11" t="n">
-        <v>20.8942</v>
+        <v>20.8901</v>
       </c>
       <c r="E11" t="n">
-        <v>24.652</v>
+        <v>24.7178</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.6688</v>
+        <v>11.7986</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6807</v>
+        <v>13.6763</v>
       </c>
       <c r="D12" t="n">
-        <v>21.09</v>
+        <v>21.1649</v>
       </c>
       <c r="E12" t="n">
-        <v>24.9859</v>
+        <v>24.9254</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.7585</v>
+        <v>11.8122</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6452</v>
+        <v>13.8981</v>
       </c>
       <c r="D13" t="n">
-        <v>21.0334</v>
+        <v>20.978</v>
       </c>
       <c r="E13" t="n">
-        <v>24.8945</v>
+        <v>25.0838</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.7571</v>
+        <v>11.7429</v>
       </c>
       <c r="C14" t="n">
-        <v>13.7958</v>
+        <v>13.8047</v>
       </c>
       <c r="D14" t="n">
-        <v>21.1625</v>
+        <v>21.1701</v>
       </c>
       <c r="E14" t="n">
-        <v>25.0615</v>
+        <v>25.1937</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.8342</v>
+        <v>11.868</v>
       </c>
       <c r="C15" t="n">
-        <v>13.9512</v>
+        <v>13.8866</v>
       </c>
       <c r="D15" t="n">
-        <v>21.6475</v>
+        <v>20.7423</v>
       </c>
       <c r="E15" t="n">
-        <v>25.4515</v>
+        <v>25.3291</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.8892</v>
+        <v>11.9294</v>
       </c>
       <c r="C16" t="n">
-        <v>14.0985</v>
+        <v>14.1671</v>
       </c>
       <c r="D16" t="n">
-        <v>21.133</v>
+        <v>21.7662</v>
       </c>
       <c r="E16" t="n">
-        <v>24.8215</v>
+        <v>24.9681</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.7186</v>
+        <v>11.9789</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4155</v>
+        <v>14.4394</v>
       </c>
       <c r="D17" t="n">
-        <v>21.512</v>
+        <v>21.2337</v>
       </c>
       <c r="E17" t="n">
-        <v>24.638</v>
+        <v>25.1314</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.09499</v>
+        <v>4.11073</v>
       </c>
       <c r="C2" t="n">
-        <v>8.30517</v>
+        <v>8.2765</v>
       </c>
       <c r="D2" t="n">
-        <v>8.66262</v>
+        <v>8.64311</v>
       </c>
       <c r="E2" t="n">
-        <v>10.523</v>
+        <v>10.5089</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.69541</v>
+        <v>6.13404</v>
       </c>
       <c r="C3" t="n">
-        <v>8.88124</v>
+        <v>9.321260000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5336</v>
+        <v>12.5048</v>
       </c>
       <c r="E3" t="n">
-        <v>15.5266</v>
+        <v>16.1142</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.29513</v>
+        <v>8.444179999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3481</v>
+        <v>12.4875</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0322</v>
+        <v>17.1094</v>
       </c>
       <c r="E4" t="n">
-        <v>21.5778</v>
+        <v>21.6219</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3076</v>
+        <v>10.3475</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9527</v>
+        <v>14.1828</v>
       </c>
       <c r="D5" t="n">
-        <v>21.4006</v>
+        <v>20.929</v>
       </c>
       <c r="E5" t="n">
-        <v>26.9926</v>
+        <v>26.9264</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1597</v>
+        <v>12.1443</v>
       </c>
       <c r="C6" t="n">
-        <v>16.4679</v>
+        <v>16.1728</v>
       </c>
       <c r="D6" t="n">
-        <v>24.9102</v>
+        <v>24.7492</v>
       </c>
       <c r="E6" t="n">
-        <v>31.8689</v>
+        <v>31.9535</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3018</v>
+        <v>13.0963</v>
       </c>
       <c r="C7" t="n">
-        <v>16.4614</v>
+        <v>16.5341</v>
       </c>
       <c r="D7" t="n">
-        <v>26.6235</v>
+        <v>26.5642</v>
       </c>
       <c r="E7" t="n">
-        <v>32.7809</v>
+        <v>34.1188</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3756</v>
+        <v>13.4872</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5435</v>
+        <v>16.6219</v>
       </c>
       <c r="D8" t="n">
-        <v>27.2281</v>
+        <v>26.5921</v>
       </c>
       <c r="E8" t="n">
-        <v>33.9728</v>
+        <v>33.1145</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7124</v>
+        <v>13.8605</v>
       </c>
       <c r="C9" t="n">
-        <v>16.4626</v>
+        <v>16.3834</v>
       </c>
       <c r="D9" t="n">
-        <v>27.677</v>
+        <v>27.1946</v>
       </c>
       <c r="E9" t="n">
-        <v>34.6064</v>
+        <v>33.8605</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1362</v>
+        <v>14.2873</v>
       </c>
       <c r="C10" t="n">
-        <v>16.5567</v>
+        <v>16.4607</v>
       </c>
       <c r="D10" t="n">
-        <v>27.7887</v>
+        <v>27.7597</v>
       </c>
       <c r="E10" t="n">
-        <v>35.1873</v>
+        <v>35.0252</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0639</v>
+        <v>13.955</v>
       </c>
       <c r="C11" t="n">
-        <v>16.5687</v>
+        <v>16.7763</v>
       </c>
       <c r="D11" t="n">
-        <v>27.746</v>
+        <v>27.7383</v>
       </c>
       <c r="E11" t="n">
-        <v>34.6491</v>
+        <v>33.9717</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1644</v>
+        <v>14.3634</v>
       </c>
       <c r="C12" t="n">
-        <v>16.8108</v>
+        <v>16.772</v>
       </c>
       <c r="D12" t="n">
-        <v>28.1647</v>
+        <v>28.9253</v>
       </c>
       <c r="E12" t="n">
-        <v>34.4054</v>
+        <v>34.6957</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3302</v>
+        <v>14.1773</v>
       </c>
       <c r="C13" t="n">
-        <v>16.6931</v>
+        <v>16.7324</v>
       </c>
       <c r="D13" t="n">
-        <v>28.4047</v>
+        <v>28.4031</v>
       </c>
       <c r="E13" t="n">
-        <v>34.1807</v>
+        <v>34.714</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.3766</v>
+        <v>14.037</v>
       </c>
       <c r="C14" t="n">
-        <v>16.9799</v>
+        <v>17.0187</v>
       </c>
       <c r="D14" t="n">
-        <v>27.5254</v>
+        <v>28.4516</v>
       </c>
       <c r="E14" t="n">
-        <v>34.4697</v>
+        <v>34.5367</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4052</v>
+        <v>14.3818</v>
       </c>
       <c r="C15" t="n">
-        <v>17.1851</v>
+        <v>17.0981</v>
       </c>
       <c r="D15" t="n">
-        <v>27.8833</v>
+        <v>27.9235</v>
       </c>
       <c r="E15" t="n">
-        <v>34.7656</v>
+        <v>33.5298</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0727</v>
+        <v>14.5645</v>
       </c>
       <c r="C16" t="n">
-        <v>17.207</v>
+        <v>17.3339</v>
       </c>
       <c r="D16" t="n">
-        <v>27.5127</v>
+        <v>28.5758</v>
       </c>
       <c r="E16" t="n">
-        <v>34.255</v>
+        <v>33.9824</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.6472</v>
+        <v>14.462</v>
       </c>
       <c r="C17" t="n">
-        <v>17.5919</v>
+        <v>17.4492</v>
       </c>
       <c r="D17" t="n">
-        <v>27.5403</v>
+        <v>28.1039</v>
       </c>
       <c r="E17" t="n">
-        <v>32.6939</v>
+        <v>33.7718</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.55916</v>
+        <v>5.55908</v>
       </c>
       <c r="C2" t="n">
-        <v>6.5101</v>
+        <v>6.51467</v>
       </c>
       <c r="D2" t="n">
-        <v>6.71298</v>
+        <v>6.71331</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5872</v>
+        <v>7.59308</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.31329</v>
+        <v>6.90288</v>
       </c>
       <c r="C3" t="n">
-        <v>8.066330000000001</v>
+        <v>9.17464</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7355</v>
+        <v>9.84491</v>
       </c>
       <c r="E3" t="n">
-        <v>12.1189</v>
+        <v>11.6698</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.995950000000001</v>
+        <v>9.355259999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>10.853</v>
+        <v>10.7789</v>
       </c>
       <c r="D4" t="n">
-        <v>14.0651</v>
+        <v>14.0464</v>
       </c>
       <c r="E4" t="n">
-        <v>16.7264</v>
+        <v>16.8639</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0057</v>
+        <v>11.2992</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3196</v>
+        <v>12.3088</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3646</v>
+        <v>17.3256</v>
       </c>
       <c r="E5" t="n">
-        <v>21.2719</v>
+        <v>21.2706</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.9908</v>
+        <v>12.8288</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4424</v>
+        <v>14.2991</v>
       </c>
       <c r="D6" t="n">
-        <v>20.8946</v>
+        <v>20.8504</v>
       </c>
       <c r="E6" t="n">
-        <v>25.959</v>
+        <v>25.7968</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.9804</v>
+        <v>13.6362</v>
       </c>
       <c r="C7" t="n">
-        <v>14.7504</v>
+        <v>14.6124</v>
       </c>
       <c r="D7" t="n">
-        <v>22.1833</v>
+        <v>22.3437</v>
       </c>
       <c r="E7" t="n">
-        <v>27.0749</v>
+        <v>27.2443</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.1804</v>
+        <v>14.3185</v>
       </c>
       <c r="C8" t="n">
-        <v>14.8399</v>
+        <v>14.6301</v>
       </c>
       <c r="D8" t="n">
-        <v>22.8188</v>
+        <v>22.874</v>
       </c>
       <c r="E8" t="n">
-        <v>26.9291</v>
+        <v>26.5139</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7741</v>
+        <v>14.4018</v>
       </c>
       <c r="C9" t="n">
-        <v>14.8195</v>
+        <v>14.7668</v>
       </c>
       <c r="D9" t="n">
-        <v>23.209</v>
+        <v>23.2484</v>
       </c>
       <c r="E9" t="n">
-        <v>28.4138</v>
+        <v>28.1145</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.8869</v>
+        <v>14.7101</v>
       </c>
       <c r="C10" t="n">
-        <v>14.821</v>
+        <v>14.962</v>
       </c>
       <c r="D10" t="n">
-        <v>24.5209</v>
+        <v>23.7984</v>
       </c>
       <c r="E10" t="n">
-        <v>28.7933</v>
+        <v>28.5032</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.7517</v>
+        <v>14.7795</v>
       </c>
       <c r="C11" t="n">
-        <v>14.9336</v>
+        <v>14.9645</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5408</v>
+        <v>23.5812</v>
       </c>
       <c r="E11" t="n">
-        <v>28.6388</v>
+        <v>28.6412</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.1722</v>
+        <v>15.0077</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9278</v>
+        <v>15.0103</v>
       </c>
       <c r="D12" t="n">
-        <v>23.9441</v>
+        <v>24.073</v>
       </c>
       <c r="E12" t="n">
-        <v>28.7579</v>
+        <v>28.8619</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9105</v>
+        <v>15.0427</v>
       </c>
       <c r="C13" t="n">
-        <v>15.221</v>
+        <v>15.2994</v>
       </c>
       <c r="D13" t="n">
-        <v>23.9616</v>
+        <v>24.639</v>
       </c>
       <c r="E13" t="n">
-        <v>29.2095</v>
+        <v>29.2988</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.2349</v>
+        <v>14.8985</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4648</v>
+        <v>15.2812</v>
       </c>
       <c r="D14" t="n">
-        <v>24.4399</v>
+        <v>24.0008</v>
       </c>
       <c r="E14" t="n">
-        <v>28.983</v>
+        <v>29.0801</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2383</v>
+        <v>15.0788</v>
       </c>
       <c r="C15" t="n">
-        <v>15.529</v>
+        <v>15.5627</v>
       </c>
       <c r="D15" t="n">
-        <v>24.6223</v>
+        <v>24.5391</v>
       </c>
       <c r="E15" t="n">
-        <v>28.9919</v>
+        <v>29.0435</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0611</v>
+        <v>15.3341</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8931</v>
+        <v>15.7836</v>
       </c>
       <c r="D16" t="n">
-        <v>24.3181</v>
+        <v>24.6025</v>
       </c>
       <c r="E16" t="n">
-        <v>29.1773</v>
+        <v>29.1476</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.8642</v>
+        <v>15.2955</v>
       </c>
       <c r="C17" t="n">
-        <v>16.0935</v>
+        <v>16.0093</v>
       </c>
       <c r="D17" t="n">
-        <v>24.4345</v>
+        <v>24.39</v>
       </c>
       <c r="E17" t="n">
-        <v>28.5963</v>
+        <v>29.1883</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.1935</v>
+        <v>5.48374</v>
       </c>
       <c r="C2" t="n">
-        <v>4.67623</v>
+        <v>5.4908</v>
       </c>
       <c r="D2" t="n">
-        <v>6.20208</v>
+        <v>6.19115</v>
       </c>
       <c r="E2" t="n">
-        <v>4.47408</v>
+        <v>4.42617</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.19443</v>
+        <v>6.83194</v>
       </c>
       <c r="C3" t="n">
-        <v>6.09898</v>
+        <v>7.45392</v>
       </c>
       <c r="D3" t="n">
-        <v>9.08136</v>
+        <v>9.82981</v>
       </c>
       <c r="E3" t="n">
-        <v>7.41629</v>
+        <v>7.91521</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.75365</v>
+        <v>8.86966</v>
       </c>
       <c r="C4" t="n">
-        <v>8.12974</v>
+        <v>9.26492</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4275</v>
+        <v>12.6325</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6248</v>
+        <v>10.5866</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.23681</v>
+        <v>9.79373</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1306</v>
+        <v>11.128</v>
       </c>
       <c r="D5" t="n">
-        <v>15.6303</v>
+        <v>15.5204</v>
       </c>
       <c r="E5" t="n">
-        <v>13.6797</v>
+        <v>13.4685</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8496</v>
+        <v>10.9339</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0636</v>
+        <v>12.8808</v>
       </c>
       <c r="D6" t="n">
-        <v>18.6768</v>
+        <v>17.9903</v>
       </c>
       <c r="E6" t="n">
-        <v>16.7135</v>
+        <v>16.0831</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5413</v>
+        <v>11.1413</v>
       </c>
       <c r="C7" t="n">
-        <v>14.3892</v>
+        <v>12.2774</v>
       </c>
       <c r="D7" t="n">
-        <v>22.0122</v>
+        <v>17.3576</v>
       </c>
       <c r="E7" t="n">
-        <v>19.7624</v>
+        <v>15.8079</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8306</v>
+        <v>11.1066</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5956</v>
+        <v>12.2988</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0849</v>
+        <v>17.079</v>
       </c>
       <c r="E8" t="n">
-        <v>22.7422</v>
+        <v>15.035</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2672</v>
+        <v>11.666</v>
       </c>
       <c r="C9" t="n">
-        <v>19.1667</v>
+        <v>12.4544</v>
       </c>
       <c r="D9" t="n">
-        <v>28.8692</v>
+        <v>18.4698</v>
       </c>
       <c r="E9" t="n">
-        <v>25.7272</v>
+        <v>15.687</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.7509</v>
+        <v>12.343</v>
       </c>
       <c r="C10" t="n">
-        <v>16.0363</v>
+        <v>12.7218</v>
       </c>
       <c r="D10" t="n">
-        <v>23.4591</v>
+        <v>18.432</v>
       </c>
       <c r="E10" t="n">
-        <v>20.2378</v>
+        <v>16.1388</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0369</v>
+        <v>12.1734</v>
       </c>
       <c r="C11" t="n">
-        <v>16.2076</v>
+        <v>13.233</v>
       </c>
       <c r="D11" t="n">
-        <v>23.7788</v>
+        <v>19.5205</v>
       </c>
       <c r="E11" t="n">
-        <v>21.3109</v>
+        <v>16.2876</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.455</v>
+        <v>12.5644</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0264</v>
+        <v>13.1756</v>
       </c>
       <c r="D12" t="n">
-        <v>25.0386</v>
+        <v>19.2736</v>
       </c>
       <c r="E12" t="n">
-        <v>22.8316</v>
+        <v>17.3767</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8826</v>
+        <v>12.1698</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5287</v>
+        <v>13.6914</v>
       </c>
       <c r="D13" t="n">
-        <v>25.9795</v>
+        <v>20.0105</v>
       </c>
       <c r="E13" t="n">
-        <v>23.1646</v>
+        <v>17.091</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.68</v>
+        <v>11.7983</v>
       </c>
       <c r="C14" t="n">
-        <v>17.6898</v>
+        <v>13.5365</v>
       </c>
       <c r="D14" t="n">
-        <v>25.0449</v>
+        <v>19.3516</v>
       </c>
       <c r="E14" t="n">
-        <v>22.4747</v>
+        <v>17.5169</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0264</v>
+        <v>11.7125</v>
       </c>
       <c r="C15" t="n">
-        <v>18.049</v>
+        <v>13.5301</v>
       </c>
       <c r="D15" t="n">
-        <v>25.3328</v>
+        <v>19.2679</v>
       </c>
       <c r="E15" t="n">
-        <v>21.8952</v>
+        <v>16.9806</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3238</v>
+        <v>12.315</v>
       </c>
       <c r="C16" t="n">
-        <v>18.1978</v>
+        <v>13.8024</v>
       </c>
       <c r="D16" t="n">
-        <v>25.541</v>
+        <v>18.6792</v>
       </c>
       <c r="E16" t="n">
-        <v>22.7684</v>
+        <v>17.6214</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5736</v>
+        <v>12.157</v>
       </c>
       <c r="C17" t="n">
-        <v>18.4432</v>
+        <v>14.1275</v>
       </c>
       <c r="D17" t="n">
-        <v>25.5939</v>
+        <v>19.4302</v>
       </c>
       <c r="E17" t="n">
-        <v>22.8728</v>
+        <v>16.5199</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.453720000000001</v>
+        <v>9.30738</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2297</v>
+        <v>9.162520000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3081</v>
+        <v>11.2874</v>
       </c>
       <c r="E2" t="n">
-        <v>6.85645</v>
+        <v>6.81559</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.27196</v>
+        <v>11.5147</v>
       </c>
       <c r="C3" t="n">
-        <v>9.25245</v>
+        <v>11.4197</v>
       </c>
       <c r="D3" t="n">
-        <v>13.3234</v>
+        <v>15.2483</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3503</v>
+        <v>10.3485</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0215</v>
+        <v>11.9292</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4611</v>
+        <v>12.9969</v>
       </c>
       <c r="D4" t="n">
-        <v>17.6232</v>
+        <v>18.6708</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6191</v>
+        <v>14.6286</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7391</v>
+        <v>12.7286</v>
       </c>
       <c r="C5" t="n">
-        <v>13.8964</v>
+        <v>14.1014</v>
       </c>
       <c r="D5" t="n">
-        <v>21.4963</v>
+        <v>22.0631</v>
       </c>
       <c r="E5" t="n">
-        <v>18.6193</v>
+        <v>18.5743</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7223</v>
+        <v>14.0571</v>
       </c>
       <c r="C6" t="n">
-        <v>16.7826</v>
+        <v>15.9947</v>
       </c>
       <c r="D6" t="n">
-        <v>25.3046</v>
+        <v>24.5882</v>
       </c>
       <c r="E6" t="n">
-        <v>22.4899</v>
+        <v>20.7257</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.5396</v>
+        <v>14.5513</v>
       </c>
       <c r="C7" t="n">
-        <v>19.4576</v>
+        <v>15.8271</v>
       </c>
       <c r="D7" t="n">
-        <v>28.9472</v>
+        <v>23.7358</v>
       </c>
       <c r="E7" t="n">
-        <v>26.4324</v>
+        <v>20.687</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.4258</v>
+        <v>14.4933</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4648</v>
+        <v>15.627</v>
       </c>
       <c r="D8" t="n">
-        <v>32.9837</v>
+        <v>24.7569</v>
       </c>
       <c r="E8" t="n">
-        <v>30.2569</v>
+        <v>20.6969</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5168</v>
+        <v>14.8428</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9115</v>
+        <v>15.8017</v>
       </c>
       <c r="D9" t="n">
-        <v>38.1067</v>
+        <v>24.4016</v>
       </c>
       <c r="E9" t="n">
-        <v>34.5715</v>
+        <v>20.0545</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.2077</v>
+        <v>14.7076</v>
       </c>
       <c r="C10" t="n">
-        <v>22.4049</v>
+        <v>15.7012</v>
       </c>
       <c r="D10" t="n">
-        <v>33.5275</v>
+        <v>25.7549</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8229</v>
+        <v>22.1145</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5994</v>
+        <v>15.1262</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5041</v>
+        <v>16.0517</v>
       </c>
       <c r="D11" t="n">
-        <v>32.9718</v>
+        <v>25.0294</v>
       </c>
       <c r="E11" t="n">
-        <v>28.1662</v>
+        <v>21.6471</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.1526</v>
+        <v>14.2104</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2262</v>
+        <v>16.3244</v>
       </c>
       <c r="D12" t="n">
-        <v>33.6109</v>
+        <v>25.182</v>
       </c>
       <c r="E12" t="n">
-        <v>29.5648</v>
+        <v>22.1416</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.8167</v>
+        <v>15.5666</v>
       </c>
       <c r="C13" t="n">
-        <v>23.9715</v>
+        <v>16.6031</v>
       </c>
       <c r="D13" t="n">
-        <v>35.2727</v>
+        <v>27.095</v>
       </c>
       <c r="E13" t="n">
-        <v>30.0874</v>
+        <v>21.6136</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.3836</v>
+        <v>15.0611</v>
       </c>
       <c r="C14" t="n">
-        <v>23.9142</v>
+        <v>16.6543</v>
       </c>
       <c r="D14" t="n">
-        <v>33.1254</v>
+        <v>25.1096</v>
       </c>
       <c r="E14" t="n">
-        <v>28.6499</v>
+        <v>22.2842</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.712</v>
+        <v>14.7151</v>
       </c>
       <c r="C15" t="n">
-        <v>23.948</v>
+        <v>16.8614</v>
       </c>
       <c r="D15" t="n">
-        <v>33.7734</v>
+        <v>25.0257</v>
       </c>
       <c r="E15" t="n">
-        <v>28.6539</v>
+        <v>22.6238</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1235</v>
+        <v>15.4092</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7222</v>
+        <v>17.6815</v>
       </c>
       <c r="D16" t="n">
-        <v>32.8868</v>
+        <v>24.4957</v>
       </c>
       <c r="E16" t="n">
-        <v>29.5095</v>
+        <v>21.3372</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0926</v>
+        <v>14.9758</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9632</v>
+        <v>17.5465</v>
       </c>
       <c r="D17" t="n">
-        <v>32.7721</v>
+        <v>24.9543</v>
       </c>
       <c r="E17" t="n">
-        <v>28.7505</v>
+        <v>20.9083</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42829</v>
+        <v>6.87455</v>
       </c>
       <c r="C2" t="n">
-        <v>6.769</v>
+        <v>6.38687</v>
       </c>
       <c r="D2" t="n">
-        <v>7.21423</v>
+        <v>7.21333</v>
       </c>
       <c r="E2" t="n">
-        <v>5.05872</v>
+        <v>4.96809</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.26725</v>
+        <v>7.93992</v>
       </c>
       <c r="C3" t="n">
-        <v>7.72097</v>
+        <v>8.340490000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1812</v>
+        <v>11.5145</v>
       </c>
       <c r="E3" t="n">
-        <v>8.26243</v>
+        <v>8.522080000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.88846</v>
+        <v>10.4199</v>
       </c>
       <c r="C4" t="n">
-        <v>9.72559</v>
+        <v>10.5026</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8619</v>
+        <v>14.3178</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7562</v>
+        <v>11.7241</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5798</v>
+        <v>11.2996</v>
       </c>
       <c r="C5" t="n">
-        <v>12.114</v>
+        <v>11.943</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6004</v>
+        <v>17.6965</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2525</v>
+        <v>15.2587</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4022</v>
+        <v>12.8332</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5026</v>
+        <v>13.8101</v>
       </c>
       <c r="D6" t="n">
-        <v>21.3676</v>
+        <v>20.8684</v>
       </c>
       <c r="E6" t="n">
-        <v>18.6695</v>
+        <v>17.7622</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3282</v>
+        <v>12.7444</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0458</v>
+        <v>13.3469</v>
       </c>
       <c r="D7" t="n">
-        <v>25.4414</v>
+        <v>19.4803</v>
       </c>
       <c r="E7" t="n">
-        <v>22.1793</v>
+        <v>17.4244</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9879</v>
+        <v>13.1615</v>
       </c>
       <c r="C8" t="n">
-        <v>19.3404</v>
+        <v>13.3958</v>
       </c>
       <c r="D8" t="n">
-        <v>28.635</v>
+        <v>19.6999</v>
       </c>
       <c r="E8" t="n">
-        <v>25.4162</v>
+        <v>16.8033</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2169</v>
+        <v>13.7705</v>
       </c>
       <c r="C9" t="n">
-        <v>22.2538</v>
+        <v>13.655</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2231</v>
+        <v>20.2472</v>
       </c>
       <c r="E9" t="n">
-        <v>29.1976</v>
+        <v>17.5744</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.3071</v>
+        <v>13.2445</v>
       </c>
       <c r="C10" t="n">
-        <v>19.0173</v>
+        <v>13.7105</v>
       </c>
       <c r="D10" t="n">
-        <v>27.6073</v>
+        <v>21.4104</v>
       </c>
       <c r="E10" t="n">
-        <v>23.0137</v>
+        <v>18.2747</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9999</v>
+        <v>13.4323</v>
       </c>
       <c r="C11" t="n">
-        <v>19.139</v>
+        <v>14.1354</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8492</v>
+        <v>21.6861</v>
       </c>
       <c r="E11" t="n">
-        <v>23.8802</v>
+        <v>18.7147</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.487</v>
+        <v>13.5904</v>
       </c>
       <c r="C12" t="n">
-        <v>19.9408</v>
+        <v>14.4249</v>
       </c>
       <c r="D12" t="n">
-        <v>29.5252</v>
+        <v>21.7346</v>
       </c>
       <c r="E12" t="n">
-        <v>24.497</v>
+        <v>17.4622</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.17</v>
+        <v>13.4312</v>
       </c>
       <c r="C13" t="n">
-        <v>20.5748</v>
+        <v>14.9513</v>
       </c>
       <c r="D13" t="n">
-        <v>29.3953</v>
+        <v>22.2896</v>
       </c>
       <c r="E13" t="n">
-        <v>25.8923</v>
+        <v>19.1222</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.797</v>
+        <v>13.6225</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3076</v>
+        <v>15.0188</v>
       </c>
       <c r="D14" t="n">
-        <v>28.7987</v>
+        <v>22.0136</v>
       </c>
       <c r="E14" t="n">
-        <v>25.3966</v>
+        <v>18.868</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.9957</v>
+        <v>13.9043</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5488</v>
+        <v>15.0449</v>
       </c>
       <c r="D15" t="n">
-        <v>28.4374</v>
+        <v>21.8802</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0442</v>
+        <v>18.0648</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6045</v>
+        <v>13.415</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9958</v>
+        <v>15.4498</v>
       </c>
       <c r="D16" t="n">
-        <v>28.9718</v>
+        <v>21.0678</v>
       </c>
       <c r="E16" t="n">
-        <v>25.0372</v>
+        <v>16.8419</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4423</v>
+        <v>13.6712</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6412</v>
+        <v>15.6624</v>
       </c>
       <c r="D17" t="n">
-        <v>29.4869</v>
+        <v>20.1204</v>
       </c>
       <c r="E17" t="n">
-        <v>24.7619</v>
+        <v>17.2953</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.02709</v>
+        <v>3.09813</v>
       </c>
       <c r="C2" t="n">
-        <v>4.18058</v>
+        <v>4.82236</v>
       </c>
       <c r="D2" t="n">
-        <v>5.33123</v>
+        <v>5.31094</v>
       </c>
       <c r="E2" t="n">
-        <v>4.16583</v>
+        <v>4.11136</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.87465</v>
+        <v>5.09798</v>
       </c>
       <c r="C3" t="n">
-        <v>5.96195</v>
+        <v>6.71943</v>
       </c>
       <c r="D3" t="n">
-        <v>8.629849999999999</v>
+        <v>8.90147</v>
       </c>
       <c r="E3" t="n">
-        <v>7.38938</v>
+        <v>7.29836</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.53665</v>
+        <v>6.75476</v>
       </c>
       <c r="C4" t="n">
-        <v>7.93392</v>
+        <v>8.683400000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0536</v>
+        <v>12.0979</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6004</v>
+        <v>10.5322</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.053129999999999</v>
+        <v>8.425050000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.883979999999999</v>
+        <v>10.8507</v>
       </c>
       <c r="D5" t="n">
-        <v>15.19</v>
+        <v>15.5197</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7528</v>
+        <v>13.6639</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.622260000000001</v>
+        <v>9.88552</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9514</v>
+        <v>12.9098</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2675</v>
+        <v>18.3353</v>
       </c>
       <c r="E6" t="n">
-        <v>16.8526</v>
+        <v>16.706</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0841</v>
+        <v>10.5074</v>
       </c>
       <c r="C7" t="n">
-        <v>13.9812</v>
+        <v>12.7236</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2956</v>
+        <v>19.1231</v>
       </c>
       <c r="E7" t="n">
-        <v>19.9089</v>
+        <v>16.9813</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.544</v>
+        <v>10.4382</v>
       </c>
       <c r="C8" t="n">
-        <v>16.1706</v>
+        <v>12.8135</v>
       </c>
       <c r="D8" t="n">
-        <v>24.365</v>
+        <v>18.5742</v>
       </c>
       <c r="E8" t="n">
-        <v>22.9639</v>
+        <v>16.818</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6456</v>
+        <v>10.7909</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0686</v>
+        <v>12.7556</v>
       </c>
       <c r="D9" t="n">
-        <v>28.9863</v>
+        <v>19.1644</v>
       </c>
       <c r="E9" t="n">
-        <v>26.4095</v>
+        <v>16.9696</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0778</v>
+        <v>11.0847</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5964</v>
+        <v>13.1588</v>
       </c>
       <c r="D10" t="n">
-        <v>26.487</v>
+        <v>19.4655</v>
       </c>
       <c r="E10" t="n">
-        <v>24.4796</v>
+        <v>17.557</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8706</v>
+        <v>11.1427</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8226</v>
+        <v>13.1558</v>
       </c>
       <c r="D11" t="n">
-        <v>26.6847</v>
+        <v>20.3528</v>
       </c>
       <c r="E11" t="n">
-        <v>24.0153</v>
+        <v>17.866</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9806</v>
+        <v>11.5245</v>
       </c>
       <c r="C12" t="n">
-        <v>17.8113</v>
+        <v>13.2689</v>
       </c>
       <c r="D12" t="n">
-        <v>26.745</v>
+        <v>20.634</v>
       </c>
       <c r="E12" t="n">
-        <v>24.4044</v>
+        <v>18.6803</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2273</v>
+        <v>11.3977</v>
       </c>
       <c r="C13" t="n">
-        <v>17.8889</v>
+        <v>13.3804</v>
       </c>
       <c r="D13" t="n">
-        <v>27.3132</v>
+        <v>20.6886</v>
       </c>
       <c r="E13" t="n">
-        <v>24.8471</v>
+        <v>19.1206</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7802</v>
+        <v>11.5848</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9129</v>
+        <v>13.5893</v>
       </c>
       <c r="D14" t="n">
-        <v>26.3415</v>
+        <v>20.3164</v>
       </c>
       <c r="E14" t="n">
-        <v>23.7311</v>
+        <v>18.8777</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3336</v>
+        <v>11.4183</v>
       </c>
       <c r="C15" t="n">
-        <v>18.0427</v>
+        <v>14.0262</v>
       </c>
       <c r="D15" t="n">
-        <v>27.1984</v>
+        <v>21.1582</v>
       </c>
       <c r="E15" t="n">
-        <v>24.7111</v>
+        <v>19.0653</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.2608</v>
+        <v>12.0051</v>
       </c>
       <c r="C16" t="n">
-        <v>18.1513</v>
+        <v>13.872</v>
       </c>
       <c r="D16" t="n">
-        <v>26.6931</v>
+        <v>20.9313</v>
       </c>
       <c r="E16" t="n">
-        <v>24.0414</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4125</v>
+        <v>11.7725</v>
       </c>
       <c r="C17" t="n">
-        <v>18.3769</v>
+        <v>14.0537</v>
       </c>
       <c r="D17" t="n">
-        <v>26.5405</v>
+        <v>21.4924</v>
       </c>
       <c r="E17" t="n">
-        <v>24.1979</v>
+        <v>19.2371</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.89667</v>
+        <v>4.12176</v>
       </c>
       <c r="C2" t="n">
-        <v>8.21466</v>
+        <v>7.561</v>
       </c>
       <c r="D2" t="n">
-        <v>8.65157</v>
+        <v>8.62017</v>
       </c>
       <c r="E2" t="n">
-        <v>6.18112</v>
+        <v>6.14062</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.88777</v>
+        <v>6.39155</v>
       </c>
       <c r="C3" t="n">
-        <v>8.761979999999999</v>
+        <v>9.10979</v>
       </c>
       <c r="D3" t="n">
-        <v>12.4716</v>
+        <v>14.1488</v>
       </c>
       <c r="E3" t="n">
-        <v>10.2635</v>
+        <v>10.2666</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.98983</v>
+        <v>8.459540000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2351</v>
+        <v>12.0107</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8253</v>
+        <v>17.1119</v>
       </c>
       <c r="E4" t="n">
-        <v>14.5982</v>
+        <v>14.6205</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.88674</v>
+        <v>10.5614</v>
       </c>
       <c r="C5" t="n">
-        <v>13.6311</v>
+        <v>13.6044</v>
       </c>
       <c r="D5" t="n">
-        <v>20.7842</v>
+        <v>20.9091</v>
       </c>
       <c r="E5" t="n">
-        <v>18.6943</v>
+        <v>18.6491</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7102</v>
+        <v>12.1524</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2042</v>
+        <v>15.8222</v>
       </c>
       <c r="D6" t="n">
-        <v>24.6811</v>
+        <v>24.7343</v>
       </c>
       <c r="E6" t="n">
-        <v>22.761</v>
+        <v>22.5935</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.4372</v>
+        <v>12.6844</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8068</v>
+        <v>15.9787</v>
       </c>
       <c r="D7" t="n">
-        <v>28.4233</v>
+        <v>25.9347</v>
       </c>
       <c r="E7" t="n">
-        <v>26.7617</v>
+        <v>22.8433</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.1641</v>
+        <v>12.7243</v>
       </c>
       <c r="C8" t="n">
-        <v>21.8128</v>
+        <v>16.0044</v>
       </c>
       <c r="D8" t="n">
-        <v>32.4918</v>
+        <v>24.6934</v>
       </c>
       <c r="E8" t="n">
-        <v>30.6734</v>
+        <v>22.0718</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.777</v>
+        <v>13.0986</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4714</v>
+        <v>16.0991</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9585</v>
+        <v>25.873</v>
       </c>
       <c r="E9" t="n">
-        <v>35.3774</v>
+        <v>22.7651</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0635</v>
+        <v>13.5953</v>
       </c>
       <c r="C10" t="n">
-        <v>23.4442</v>
+        <v>16.2117</v>
       </c>
       <c r="D10" t="n">
-        <v>36.231</v>
+        <v>25.5433</v>
       </c>
       <c r="E10" t="n">
-        <v>32.4108</v>
+        <v>23.3355</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9858</v>
+        <v>13.8498</v>
       </c>
       <c r="C11" t="n">
-        <v>23.418</v>
+        <v>16.577</v>
       </c>
       <c r="D11" t="n">
-        <v>35.4045</v>
+        <v>27.0279</v>
       </c>
       <c r="E11" t="n">
-        <v>31.7026</v>
+        <v>24.1959</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.0492</v>
+        <v>14.0905</v>
       </c>
       <c r="C12" t="n">
-        <v>23.8125</v>
+        <v>16.4392</v>
       </c>
       <c r="D12" t="n">
-        <v>35.4583</v>
+        <v>27.004</v>
       </c>
       <c r="E12" t="n">
-        <v>32.628</v>
+        <v>25.0165</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1069</v>
+        <v>13.789</v>
       </c>
       <c r="C13" t="n">
-        <v>23.8878</v>
+        <v>16.3711</v>
       </c>
       <c r="D13" t="n">
-        <v>36.2906</v>
+        <v>27.9509</v>
       </c>
       <c r="E13" t="n">
-        <v>32.3729</v>
+        <v>24.7405</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.654</v>
+        <v>14.0612</v>
       </c>
       <c r="C14" t="n">
-        <v>23.9461</v>
+        <v>16.5047</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2572</v>
+        <v>27.7176</v>
       </c>
       <c r="E14" t="n">
-        <v>31.687</v>
+        <v>25.0678</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.2154</v>
+        <v>14.1529</v>
       </c>
       <c r="C15" t="n">
-        <v>24.1117</v>
+        <v>16.6207</v>
       </c>
       <c r="D15" t="n">
-        <v>34.9047</v>
+        <v>27.6798</v>
       </c>
       <c r="E15" t="n">
-        <v>32.0809</v>
+        <v>25.0775</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3524</v>
+        <v>14.324</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4547</v>
+        <v>16.9428</v>
       </c>
       <c r="D16" t="n">
-        <v>34.3015</v>
+        <v>27.4647</v>
       </c>
       <c r="E16" t="n">
-        <v>31.555</v>
+        <v>25.5438</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.9502</v>
+        <v>14.4199</v>
       </c>
       <c r="C17" t="n">
-        <v>24.6478</v>
+        <v>17.2609</v>
       </c>
       <c r="D17" t="n">
-        <v>34.7249</v>
+        <v>27.8919</v>
       </c>
       <c r="E17" t="n">
-        <v>32.3124</v>
+        <v>24.6165</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.33246</v>
+        <v>5.55488</v>
       </c>
       <c r="C2" t="n">
-        <v>6.42788</v>
+        <v>6.10781</v>
       </c>
       <c r="D2" t="n">
-        <v>6.74556</v>
+        <v>6.75567</v>
       </c>
       <c r="E2" t="n">
-        <v>4.92995</v>
+        <v>4.84527</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.67608</v>
+        <v>7.3708</v>
       </c>
       <c r="C3" t="n">
-        <v>7.50081</v>
+        <v>8.856210000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>9.94293</v>
+        <v>10.856</v>
       </c>
       <c r="E3" t="n">
-        <v>8.23494</v>
+        <v>8.549149999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.638199999999999</v>
+        <v>9.63134</v>
       </c>
       <c r="C4" t="n">
-        <v>9.73523</v>
+        <v>10.4207</v>
       </c>
       <c r="D4" t="n">
-        <v>13.72</v>
+        <v>14.2148</v>
       </c>
       <c r="E4" t="n">
-        <v>11.8446</v>
+        <v>11.778</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4673</v>
+        <v>11.0302</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9739</v>
+        <v>11.9361</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4673</v>
+        <v>17.6494</v>
       </c>
       <c r="E5" t="n">
-        <v>15.4034</v>
+        <v>15.2139</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3161</v>
+        <v>13.0654</v>
       </c>
       <c r="C6" t="n">
-        <v>14.3104</v>
+        <v>14.2885</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1889</v>
+        <v>21.2851</v>
       </c>
       <c r="E6" t="n">
-        <v>18.9017</v>
+        <v>18.5851</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1666</v>
+        <v>13.612</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6903</v>
+        <v>14.1937</v>
       </c>
       <c r="D7" t="n">
-        <v>24.9197</v>
+        <v>22.5</v>
       </c>
       <c r="E7" t="n">
-        <v>22.3573</v>
+        <v>19.017</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0679</v>
+        <v>13.9037</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2529</v>
+        <v>14.1951</v>
       </c>
       <c r="D8" t="n">
-        <v>28.713</v>
+        <v>21.7438</v>
       </c>
       <c r="E8" t="n">
-        <v>25.8325</v>
+        <v>18.7425</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.537</v>
+        <v>13.5262</v>
       </c>
       <c r="C9" t="n">
-        <v>22.1162</v>
+        <v>14.2468</v>
       </c>
       <c r="D9" t="n">
-        <v>33.5355</v>
+        <v>21.9902</v>
       </c>
       <c r="E9" t="n">
-        <v>29.7943</v>
+        <v>19.4055</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6704</v>
+        <v>14.1385</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8485</v>
+        <v>14.5547</v>
       </c>
       <c r="D10" t="n">
-        <v>30.7993</v>
+        <v>23.0534</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8944</v>
+        <v>19.7503</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5938</v>
+        <v>14.5152</v>
       </c>
       <c r="C11" t="n">
-        <v>20.5312</v>
+        <v>14.9111</v>
       </c>
       <c r="D11" t="n">
-        <v>30.264</v>
+        <v>23.288</v>
       </c>
       <c r="E11" t="n">
-        <v>27.4858</v>
+        <v>20.357</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7951</v>
+        <v>14.5946</v>
       </c>
       <c r="C12" t="n">
-        <v>20.8858</v>
+        <v>14.6849</v>
       </c>
       <c r="D12" t="n">
-        <v>30.8271</v>
+        <v>23.8203</v>
       </c>
       <c r="E12" t="n">
-        <v>27.4904</v>
+        <v>20.6071</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9605</v>
+        <v>14.8822</v>
       </c>
       <c r="C13" t="n">
-        <v>21.0856</v>
+        <v>15.0518</v>
       </c>
       <c r="D13" t="n">
-        <v>31.0821</v>
+        <v>24.783</v>
       </c>
       <c r="E13" t="n">
-        <v>28.1245</v>
+        <v>21.1352</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.425</v>
+        <v>14.9246</v>
       </c>
       <c r="C14" t="n">
-        <v>21.1499</v>
+        <v>14.9591</v>
       </c>
       <c r="D14" t="n">
-        <v>30.6054</v>
+        <v>24.6288</v>
       </c>
       <c r="E14" t="n">
-        <v>27.1215</v>
+        <v>21.0597</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1349</v>
+        <v>14.6725</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2413</v>
+        <v>15.5036</v>
       </c>
       <c r="D15" t="n">
-        <v>31.3703</v>
+        <v>24.6729</v>
       </c>
       <c r="E15" t="n">
-        <v>27.6654</v>
+        <v>21.2471</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0812</v>
+        <v>14.6573</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4327</v>
+        <v>15.4138</v>
       </c>
       <c r="D16" t="n">
-        <v>31.0458</v>
+        <v>24.3043</v>
       </c>
       <c r="E16" t="n">
-        <v>27.4826</v>
+        <v>21.5972</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8104</v>
+        <v>14.9026</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6534</v>
+        <v>15.6101</v>
       </c>
       <c r="D17" t="n">
-        <v>31.288</v>
+        <v>24.9642</v>
       </c>
       <c r="E17" t="n">
-        <v>27.9329</v>
+        <v>21.3487</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.48374</v>
+        <v>5.41896</v>
       </c>
       <c r="C2" t="n">
-        <v>5.4908</v>
+        <v>5.50652</v>
       </c>
       <c r="D2" t="n">
-        <v>6.19115</v>
+        <v>6.2005</v>
       </c>
       <c r="E2" t="n">
-        <v>4.42617</v>
+        <v>4.45091</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.83194</v>
+        <v>5.96274</v>
       </c>
       <c r="C3" t="n">
-        <v>7.45392</v>
+        <v>6.67399</v>
       </c>
       <c r="D3" t="n">
-        <v>9.82981</v>
+        <v>9.08061</v>
       </c>
       <c r="E3" t="n">
-        <v>7.91521</v>
+        <v>7.24447</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.86966</v>
+        <v>7.15315</v>
       </c>
       <c r="C4" t="n">
-        <v>9.26492</v>
+        <v>8.181430000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6325</v>
+        <v>12.1031</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5866</v>
+        <v>10.292</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.79373</v>
+        <v>8.91704</v>
       </c>
       <c r="C5" t="n">
-        <v>11.128</v>
+        <v>9.816039999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5204</v>
+        <v>15.0372</v>
       </c>
       <c r="E5" t="n">
-        <v>13.4685</v>
+        <v>13.1992</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9339</v>
+        <v>10.9966</v>
       </c>
       <c r="C6" t="n">
-        <v>12.8808</v>
+        <v>12.4698</v>
       </c>
       <c r="D6" t="n">
-        <v>17.9903</v>
+        <v>18.5344</v>
       </c>
       <c r="E6" t="n">
-        <v>16.0831</v>
+        <v>16.3157</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1413</v>
+        <v>12.7303</v>
       </c>
       <c r="C7" t="n">
-        <v>12.2774</v>
+        <v>15.4018</v>
       </c>
       <c r="D7" t="n">
-        <v>17.3576</v>
+        <v>21.8617</v>
       </c>
       <c r="E7" t="n">
-        <v>15.8079</v>
+        <v>19.4993</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.1066</v>
+        <v>14.0668</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2988</v>
+        <v>17.7254</v>
       </c>
       <c r="D8" t="n">
-        <v>17.079</v>
+        <v>24.2313</v>
       </c>
       <c r="E8" t="n">
-        <v>15.035</v>
+        <v>22.1185</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.666</v>
+        <v>16.5885</v>
       </c>
       <c r="C9" t="n">
-        <v>12.4544</v>
+        <v>20.6353</v>
       </c>
       <c r="D9" t="n">
-        <v>18.4698</v>
+        <v>28.5319</v>
       </c>
       <c r="E9" t="n">
-        <v>15.687</v>
+        <v>25.5734</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.343</v>
+        <v>14.3518</v>
       </c>
       <c r="C10" t="n">
-        <v>12.7218</v>
+        <v>17.2005</v>
       </c>
       <c r="D10" t="n">
-        <v>18.432</v>
+        <v>23.5697</v>
       </c>
       <c r="E10" t="n">
-        <v>16.1388</v>
+        <v>20.3228</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1734</v>
+        <v>14.135</v>
       </c>
       <c r="C11" t="n">
-        <v>13.233</v>
+        <v>17.4828</v>
       </c>
       <c r="D11" t="n">
-        <v>19.5205</v>
+        <v>24.0377</v>
       </c>
       <c r="E11" t="n">
-        <v>16.2876</v>
+        <v>20.8911</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.5644</v>
+        <v>14.5969</v>
       </c>
       <c r="C12" t="n">
-        <v>13.1756</v>
+        <v>17.4808</v>
       </c>
       <c r="D12" t="n">
-        <v>19.2736</v>
+        <v>24.9747</v>
       </c>
       <c r="E12" t="n">
-        <v>17.3767</v>
+        <v>21.762</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1698</v>
+        <v>15.0733</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6914</v>
+        <v>18.9041</v>
       </c>
       <c r="D13" t="n">
-        <v>20.0105</v>
+        <v>26.1437</v>
       </c>
       <c r="E13" t="n">
-        <v>17.091</v>
+        <v>22.8106</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.7983</v>
+        <v>15.0554</v>
       </c>
       <c r="C14" t="n">
-        <v>13.5365</v>
+        <v>18.9391</v>
       </c>
       <c r="D14" t="n">
-        <v>19.3516</v>
+        <v>25.2047</v>
       </c>
       <c r="E14" t="n">
-        <v>17.5169</v>
+        <v>22.1716</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.7125</v>
+        <v>15.0703</v>
       </c>
       <c r="C15" t="n">
-        <v>13.5301</v>
+        <v>19.0813</v>
       </c>
       <c r="D15" t="n">
-        <v>19.2679</v>
+        <v>24.7122</v>
       </c>
       <c r="E15" t="n">
-        <v>16.9806</v>
+        <v>21.8035</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.315</v>
+        <v>15.5868</v>
       </c>
       <c r="C16" t="n">
-        <v>13.8024</v>
+        <v>19.4785</v>
       </c>
       <c r="D16" t="n">
-        <v>18.6792</v>
+        <v>25.5496</v>
       </c>
       <c r="E16" t="n">
-        <v>17.6214</v>
+        <v>22.4344</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.157</v>
+        <v>15.8481</v>
       </c>
       <c r="C17" t="n">
-        <v>14.1275</v>
+        <v>19.5387</v>
       </c>
       <c r="D17" t="n">
-        <v>19.4302</v>
+        <v>25.1016</v>
       </c>
       <c r="E17" t="n">
-        <v>16.5199</v>
+        <v>22.0801</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.30738</v>
+        <v>9.225390000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>9.162520000000001</v>
+        <v>9.1769</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2874</v>
+        <v>11.3403</v>
       </c>
       <c r="E2" t="n">
-        <v>6.81559</v>
+        <v>6.82808</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.5147</v>
+        <v>8.4762</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4197</v>
+        <v>8.998290000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>15.2483</v>
+        <v>13.0496</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3485</v>
+        <v>9.827920000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9292</v>
+        <v>9.52506</v>
       </c>
       <c r="C4" t="n">
-        <v>12.9969</v>
+        <v>10.2944</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6708</v>
+        <v>16.8772</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6286</v>
+        <v>13.5727</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.7286</v>
+        <v>11.1332</v>
       </c>
       <c r="C5" t="n">
-        <v>14.1014</v>
+        <v>12.3619</v>
       </c>
       <c r="D5" t="n">
-        <v>22.0631</v>
+        <v>20.6243</v>
       </c>
       <c r="E5" t="n">
-        <v>18.5743</v>
+        <v>17.4012</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.0571</v>
+        <v>13.6991</v>
       </c>
       <c r="C6" t="n">
-        <v>15.9947</v>
+        <v>15.5996</v>
       </c>
       <c r="D6" t="n">
-        <v>24.5882</v>
+        <v>25.4486</v>
       </c>
       <c r="E6" t="n">
-        <v>20.7257</v>
+        <v>21.3865</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5513</v>
+        <v>16.1735</v>
       </c>
       <c r="C7" t="n">
-        <v>15.8271</v>
+        <v>19.3321</v>
       </c>
       <c r="D7" t="n">
-        <v>23.7358</v>
+        <v>29.7505</v>
       </c>
       <c r="E7" t="n">
-        <v>20.687</v>
+        <v>25.4105</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.4933</v>
+        <v>17.9459</v>
       </c>
       <c r="C8" t="n">
-        <v>15.627</v>
+        <v>22.0456</v>
       </c>
       <c r="D8" t="n">
-        <v>24.7569</v>
+        <v>32.7895</v>
       </c>
       <c r="E8" t="n">
-        <v>20.6969</v>
+        <v>27.6257</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8428</v>
+        <v>21.0671</v>
       </c>
       <c r="C9" t="n">
-        <v>15.8017</v>
+        <v>25.5922</v>
       </c>
       <c r="D9" t="n">
-        <v>24.4016</v>
+        <v>38.6948</v>
       </c>
       <c r="E9" t="n">
-        <v>20.0545</v>
+        <v>31.8467</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.7076</v>
+        <v>18.4863</v>
       </c>
       <c r="C10" t="n">
-        <v>15.7012</v>
+        <v>22.1477</v>
       </c>
       <c r="D10" t="n">
-        <v>25.7549</v>
+        <v>33.3486</v>
       </c>
       <c r="E10" t="n">
-        <v>22.1145</v>
+        <v>26.114</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.1262</v>
+        <v>18.1215</v>
       </c>
       <c r="C11" t="n">
-        <v>16.0517</v>
+        <v>22.0762</v>
       </c>
       <c r="D11" t="n">
-        <v>25.0294</v>
+        <v>32.3697</v>
       </c>
       <c r="E11" t="n">
-        <v>21.6471</v>
+        <v>26.2012</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2104</v>
+        <v>18.4784</v>
       </c>
       <c r="C12" t="n">
-        <v>16.3244</v>
+        <v>22.5854</v>
       </c>
       <c r="D12" t="n">
-        <v>25.182</v>
+        <v>34.0698</v>
       </c>
       <c r="E12" t="n">
-        <v>22.1416</v>
+        <v>27.8831</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.5666</v>
+        <v>19.4689</v>
       </c>
       <c r="C13" t="n">
-        <v>16.6031</v>
+        <v>23.0668</v>
       </c>
       <c r="D13" t="n">
-        <v>27.095</v>
+        <v>34.3314</v>
       </c>
       <c r="E13" t="n">
-        <v>21.6136</v>
+        <v>28.4729</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0611</v>
+        <v>18.7293</v>
       </c>
       <c r="C14" t="n">
-        <v>16.6543</v>
+        <v>23.4276</v>
       </c>
       <c r="D14" t="n">
-        <v>25.1096</v>
+        <v>32.9066</v>
       </c>
       <c r="E14" t="n">
-        <v>22.2842</v>
+        <v>27.7478</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.7151</v>
+        <v>19.0401</v>
       </c>
       <c r="C15" t="n">
-        <v>16.8614</v>
+        <v>23.5785</v>
       </c>
       <c r="D15" t="n">
-        <v>25.0257</v>
+        <v>33.1062</v>
       </c>
       <c r="E15" t="n">
-        <v>22.6238</v>
+        <v>27.7908</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4092</v>
+        <v>19.3815</v>
       </c>
       <c r="C16" t="n">
-        <v>17.6815</v>
+        <v>24.0143</v>
       </c>
       <c r="D16" t="n">
-        <v>24.4957</v>
+        <v>33.682</v>
       </c>
       <c r="E16" t="n">
-        <v>21.3372</v>
+        <v>28.7231</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.9758</v>
+        <v>19.6177</v>
       </c>
       <c r="C17" t="n">
-        <v>17.5465</v>
+        <v>24.2638</v>
       </c>
       <c r="D17" t="n">
-        <v>24.9543</v>
+        <v>34.2749</v>
       </c>
       <c r="E17" t="n">
-        <v>20.9083</v>
+        <v>27.6186</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.87455</v>
+        <v>6.8631</v>
       </c>
       <c r="C2" t="n">
-        <v>6.38687</v>
+        <v>6.39299</v>
       </c>
       <c r="D2" t="n">
-        <v>7.21333</v>
+        <v>7.2568</v>
       </c>
       <c r="E2" t="n">
-        <v>4.96809</v>
+        <v>5.05901</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.93992</v>
+        <v>7.19733</v>
       </c>
       <c r="C3" t="n">
-        <v>8.340490000000001</v>
+        <v>6.97844</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5145</v>
+        <v>10.1188</v>
       </c>
       <c r="E3" t="n">
-        <v>8.522080000000001</v>
+        <v>8.19882</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.4199</v>
+        <v>8.489050000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.5026</v>
+        <v>8.85173</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3178</v>
+        <v>13.7751</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7241</v>
+        <v>11.6169</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2996</v>
+        <v>10.046</v>
       </c>
       <c r="C5" t="n">
-        <v>11.943</v>
+        <v>10.6785</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6965</v>
+        <v>17.3389</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2587</v>
+        <v>14.6907</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.8332</v>
+        <v>12.1303</v>
       </c>
       <c r="C6" t="n">
-        <v>13.8101</v>
+        <v>13.2672</v>
       </c>
       <c r="D6" t="n">
-        <v>20.8684</v>
+        <v>21.1675</v>
       </c>
       <c r="E6" t="n">
-        <v>17.7622</v>
+        <v>17.9357</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7444</v>
+        <v>14.7604</v>
       </c>
       <c r="C7" t="n">
-        <v>13.3469</v>
+        <v>16.0995</v>
       </c>
       <c r="D7" t="n">
-        <v>19.4803</v>
+        <v>24.6424</v>
       </c>
       <c r="E7" t="n">
-        <v>17.4244</v>
+        <v>21.4101</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.1615</v>
+        <v>16.4143</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3958</v>
+        <v>18.9438</v>
       </c>
       <c r="D8" t="n">
-        <v>19.6999</v>
+        <v>28.6345</v>
       </c>
       <c r="E8" t="n">
-        <v>16.8033</v>
+        <v>25.2703</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7705</v>
+        <v>18.5971</v>
       </c>
       <c r="C9" t="n">
-        <v>13.655</v>
+        <v>21.7411</v>
       </c>
       <c r="D9" t="n">
-        <v>20.2472</v>
+        <v>32.9363</v>
       </c>
       <c r="E9" t="n">
-        <v>17.5744</v>
+        <v>28.7772</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.2445</v>
+        <v>16.8599</v>
       </c>
       <c r="C10" t="n">
-        <v>13.7105</v>
+        <v>18.6304</v>
       </c>
       <c r="D10" t="n">
-        <v>21.4104</v>
+        <v>28.1466</v>
       </c>
       <c r="E10" t="n">
-        <v>18.2747</v>
+        <v>22.7881</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.4323</v>
+        <v>16.2445</v>
       </c>
       <c r="C11" t="n">
-        <v>14.1354</v>
+        <v>18.6198</v>
       </c>
       <c r="D11" t="n">
-        <v>21.6861</v>
+        <v>27.8519</v>
       </c>
       <c r="E11" t="n">
-        <v>18.7147</v>
+        <v>23.7377</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.5904</v>
+        <v>16.8527</v>
       </c>
       <c r="C12" t="n">
-        <v>14.4249</v>
+        <v>19.4734</v>
       </c>
       <c r="D12" t="n">
-        <v>21.7346</v>
+        <v>28.7759</v>
       </c>
       <c r="E12" t="n">
-        <v>17.4622</v>
+        <v>25.0093</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.4312</v>
+        <v>17.2938</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9513</v>
+        <v>19.8063</v>
       </c>
       <c r="D13" t="n">
-        <v>22.2896</v>
+        <v>28.6698</v>
       </c>
       <c r="E13" t="n">
-        <v>19.1222</v>
+        <v>24.9071</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.6225</v>
+        <v>17.229</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0188</v>
+        <v>19.9729</v>
       </c>
       <c r="D14" t="n">
-        <v>22.0136</v>
+        <v>28.6261</v>
       </c>
       <c r="E14" t="n">
-        <v>18.868</v>
+        <v>24.7058</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9043</v>
+        <v>17.4275</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0449</v>
+        <v>20.1232</v>
       </c>
       <c r="D15" t="n">
-        <v>21.8802</v>
+        <v>28.6734</v>
       </c>
       <c r="E15" t="n">
-        <v>18.0648</v>
+        <v>24.3068</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.415</v>
+        <v>17.8776</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4498</v>
+        <v>20.7858</v>
       </c>
       <c r="D16" t="n">
-        <v>21.0678</v>
+        <v>29.3801</v>
       </c>
       <c r="E16" t="n">
-        <v>16.8419</v>
+        <v>25.1428</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.6712</v>
+        <v>17.7293</v>
       </c>
       <c r="C17" t="n">
-        <v>15.6624</v>
+        <v>21.323</v>
       </c>
       <c r="D17" t="n">
-        <v>20.1204</v>
+        <v>29.1642</v>
       </c>
       <c r="E17" t="n">
-        <v>17.2953</v>
+        <v>25.2061</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.09813</v>
+        <v>3.11723</v>
       </c>
       <c r="C2" t="n">
-        <v>4.82236</v>
+        <v>4.84967</v>
       </c>
       <c r="D2" t="n">
-        <v>5.31094</v>
+        <v>5.33642</v>
       </c>
       <c r="E2" t="n">
-        <v>4.11136</v>
+        <v>4.15222</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.09798</v>
+        <v>4.90579</v>
       </c>
       <c r="C3" t="n">
-        <v>6.71943</v>
+        <v>6.3686</v>
       </c>
       <c r="D3" t="n">
-        <v>8.90147</v>
+        <v>8.62242</v>
       </c>
       <c r="E3" t="n">
-        <v>7.29836</v>
+        <v>7.29003</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.75476</v>
+        <v>6.56475</v>
       </c>
       <c r="C4" t="n">
-        <v>8.683400000000001</v>
+        <v>8.44584</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0979</v>
+        <v>11.9982</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5322</v>
+        <v>10.4898</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.425050000000001</v>
+        <v>8.086830000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8507</v>
+        <v>10.5541</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5197</v>
+        <v>15.1981</v>
       </c>
       <c r="E5" t="n">
-        <v>13.6639</v>
+        <v>13.6036</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.88552</v>
+        <v>9.701549999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9098</v>
+        <v>12.4758</v>
       </c>
       <c r="D6" t="n">
-        <v>18.3353</v>
+        <v>18.2831</v>
       </c>
       <c r="E6" t="n">
-        <v>16.706</v>
+        <v>16.6402</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.5074</v>
+        <v>11.2433</v>
       </c>
       <c r="C7" t="n">
-        <v>12.7236</v>
+        <v>14.507</v>
       </c>
       <c r="D7" t="n">
-        <v>19.1231</v>
+        <v>21.2436</v>
       </c>
       <c r="E7" t="n">
-        <v>16.9813</v>
+        <v>19.6579</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.4382</v>
+        <v>12.6444</v>
       </c>
       <c r="C8" t="n">
-        <v>12.8135</v>
+        <v>17.1674</v>
       </c>
       <c r="D8" t="n">
-        <v>18.5742</v>
+        <v>24.4278</v>
       </c>
       <c r="E8" t="n">
-        <v>16.818</v>
+        <v>22.6765</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7909</v>
+        <v>14.6925</v>
       </c>
       <c r="C9" t="n">
-        <v>12.7556</v>
+        <v>19.7094</v>
       </c>
       <c r="D9" t="n">
-        <v>19.1644</v>
+        <v>28.9206</v>
       </c>
       <c r="E9" t="n">
-        <v>16.9696</v>
+        <v>26.0699</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0847</v>
+        <v>14.044</v>
       </c>
       <c r="C10" t="n">
-        <v>13.1588</v>
+        <v>18.2747</v>
       </c>
       <c r="D10" t="n">
-        <v>19.4655</v>
+        <v>26.7629</v>
       </c>
       <c r="E10" t="n">
-        <v>17.557</v>
+        <v>24.0555</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.1427</v>
+        <v>13.8223</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1558</v>
+        <v>17.9601</v>
       </c>
       <c r="D11" t="n">
-        <v>20.3528</v>
+        <v>26.4261</v>
       </c>
       <c r="E11" t="n">
-        <v>17.866</v>
+        <v>24.0692</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.5245</v>
+        <v>14.0736</v>
       </c>
       <c r="C12" t="n">
-        <v>13.2689</v>
+        <v>18.607</v>
       </c>
       <c r="D12" t="n">
-        <v>20.634</v>
+        <v>26.7146</v>
       </c>
       <c r="E12" t="n">
-        <v>18.6803</v>
+        <v>24.3923</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.3977</v>
+        <v>14.1424</v>
       </c>
       <c r="C13" t="n">
-        <v>13.3804</v>
+        <v>18.6099</v>
       </c>
       <c r="D13" t="n">
-        <v>20.6886</v>
+        <v>26.8041</v>
       </c>
       <c r="E13" t="n">
-        <v>19.1206</v>
+        <v>24.5802</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.5848</v>
+        <v>13.8083</v>
       </c>
       <c r="C14" t="n">
-        <v>13.5893</v>
+        <v>18.8082</v>
       </c>
       <c r="D14" t="n">
-        <v>20.3164</v>
+        <v>26.2297</v>
       </c>
       <c r="E14" t="n">
-        <v>18.8777</v>
+        <v>23.6941</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.4183</v>
+        <v>14.1305</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0262</v>
+        <v>18.673</v>
       </c>
       <c r="D15" t="n">
-        <v>21.1582</v>
+        <v>26.8838</v>
       </c>
       <c r="E15" t="n">
-        <v>19.0653</v>
+        <v>24.3198</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0051</v>
+        <v>13.9842</v>
       </c>
       <c r="C16" t="n">
-        <v>13.872</v>
+        <v>19.0209</v>
       </c>
       <c r="D16" t="n">
-        <v>20.9313</v>
+        <v>26.6433</v>
       </c>
       <c r="E16" t="n">
-        <v>19.52</v>
+        <v>24.129</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.7725</v>
+        <v>13.9196</v>
       </c>
       <c r="C17" t="n">
-        <v>14.0537</v>
+        <v>19.2182</v>
       </c>
       <c r="D17" t="n">
-        <v>21.4924</v>
+        <v>26.4538</v>
       </c>
       <c r="E17" t="n">
-        <v>19.2371</v>
+        <v>23.9624</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.12176</v>
+        <v>4.17184</v>
       </c>
       <c r="C2" t="n">
-        <v>7.561</v>
+        <v>7.58588</v>
       </c>
       <c r="D2" t="n">
-        <v>8.62017</v>
+        <v>8.72911</v>
       </c>
       <c r="E2" t="n">
-        <v>6.14062</v>
+        <v>5.61819</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.39155</v>
+        <v>6.20029</v>
       </c>
       <c r="C3" t="n">
-        <v>9.10979</v>
+        <v>8.613810000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>14.1488</v>
+        <v>12.5472</v>
       </c>
       <c r="E3" t="n">
-        <v>10.2666</v>
+        <v>9.415469999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.459540000000001</v>
+        <v>8.226190000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0107</v>
+        <v>10.8399</v>
       </c>
       <c r="D4" t="n">
-        <v>17.1119</v>
+        <v>16.7894</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6205</v>
+        <v>13.4052</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5614</v>
+        <v>10.1349</v>
       </c>
       <c r="C5" t="n">
-        <v>13.6044</v>
+        <v>13.0904</v>
       </c>
       <c r="D5" t="n">
-        <v>20.9091</v>
+        <v>20.779</v>
       </c>
       <c r="E5" t="n">
-        <v>18.6491</v>
+        <v>17.1858</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1524</v>
+        <v>11.7949</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8222</v>
+        <v>15.4862</v>
       </c>
       <c r="D6" t="n">
-        <v>24.7343</v>
+        <v>24.7124</v>
       </c>
       <c r="E6" t="n">
-        <v>22.5935</v>
+        <v>20.9666</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6844</v>
+        <v>13.6831</v>
       </c>
       <c r="C7" t="n">
-        <v>15.9787</v>
+        <v>18.02</v>
       </c>
       <c r="D7" t="n">
-        <v>25.9347</v>
+        <v>28.7193</v>
       </c>
       <c r="E7" t="n">
-        <v>22.8433</v>
+        <v>24.6836</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7243</v>
+        <v>15.6898</v>
       </c>
       <c r="C8" t="n">
-        <v>16.0044</v>
+        <v>20.7518</v>
       </c>
       <c r="D8" t="n">
-        <v>24.6934</v>
+        <v>32.7881</v>
       </c>
       <c r="E8" t="n">
-        <v>22.0718</v>
+        <v>28.4115</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0986</v>
+        <v>17.64</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0991</v>
+        <v>24.0856</v>
       </c>
       <c r="D9" t="n">
-        <v>25.873</v>
+        <v>38.7314</v>
       </c>
       <c r="E9" t="n">
-        <v>22.7651</v>
+        <v>32.686</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.5953</v>
+        <v>17.1223</v>
       </c>
       <c r="C10" t="n">
-        <v>16.2117</v>
+        <v>22.5572</v>
       </c>
       <c r="D10" t="n">
-        <v>25.5433</v>
+        <v>35.3295</v>
       </c>
       <c r="E10" t="n">
-        <v>23.3355</v>
+        <v>31.0107</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8498</v>
+        <v>16.9169</v>
       </c>
       <c r="C11" t="n">
-        <v>16.577</v>
+        <v>22.5579</v>
       </c>
       <c r="D11" t="n">
-        <v>27.0279</v>
+        <v>35.2201</v>
       </c>
       <c r="E11" t="n">
-        <v>24.1959</v>
+        <v>30.4655</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0905</v>
+        <v>17.2146</v>
       </c>
       <c r="C12" t="n">
-        <v>16.4392</v>
+        <v>22.4518</v>
       </c>
       <c r="D12" t="n">
-        <v>27.004</v>
+        <v>35.723</v>
       </c>
       <c r="E12" t="n">
-        <v>25.0165</v>
+        <v>31.2559</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.789</v>
+        <v>17.3968</v>
       </c>
       <c r="C13" t="n">
-        <v>16.3711</v>
+        <v>22.4115</v>
       </c>
       <c r="D13" t="n">
-        <v>27.9509</v>
+        <v>35.6573</v>
       </c>
       <c r="E13" t="n">
-        <v>24.7405</v>
+        <v>30.9902</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.0612</v>
+        <v>16.6001</v>
       </c>
       <c r="C14" t="n">
-        <v>16.5047</v>
+        <v>23.1394</v>
       </c>
       <c r="D14" t="n">
-        <v>27.7176</v>
+        <v>34.6093</v>
       </c>
       <c r="E14" t="n">
-        <v>25.0678</v>
+        <v>29.6669</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.1529</v>
+        <v>16.9611</v>
       </c>
       <c r="C15" t="n">
-        <v>16.6207</v>
+        <v>23.1509</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6798</v>
+        <v>34.6879</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0775</v>
+        <v>30.8793</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.324</v>
+        <v>17.2485</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9428</v>
+        <v>22.8214</v>
       </c>
       <c r="D16" t="n">
-        <v>27.4647</v>
+        <v>34.5874</v>
       </c>
       <c r="E16" t="n">
-        <v>25.5438</v>
+        <v>29.9175</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4199</v>
+        <v>16.7935</v>
       </c>
       <c r="C17" t="n">
-        <v>17.2609</v>
+        <v>23.1839</v>
       </c>
       <c r="D17" t="n">
-        <v>27.8919</v>
+        <v>34.0706</v>
       </c>
       <c r="E17" t="n">
-        <v>24.6165</v>
+        <v>30.4318</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.55488</v>
+        <v>5.54511</v>
       </c>
       <c r="C2" t="n">
-        <v>6.10781</v>
+        <v>6.09612</v>
       </c>
       <c r="D2" t="n">
-        <v>6.75567</v>
+        <v>6.7725</v>
       </c>
       <c r="E2" t="n">
-        <v>4.84527</v>
+        <v>4.89043</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.3708</v>
+        <v>6.92109</v>
       </c>
       <c r="C3" t="n">
-        <v>8.856210000000001</v>
+        <v>7.29241</v>
       </c>
       <c r="D3" t="n">
-        <v>10.856</v>
+        <v>9.99239</v>
       </c>
       <c r="E3" t="n">
-        <v>8.549149999999999</v>
+        <v>8.149699999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.63134</v>
+        <v>8.69599</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4207</v>
+        <v>9.21054</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2148</v>
+        <v>13.758</v>
       </c>
       <c r="E4" t="n">
-        <v>11.778</v>
+        <v>11.6649</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0302</v>
+        <v>10.1259</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9361</v>
+        <v>11.1625</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6494</v>
+        <v>17.4679</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2139</v>
+        <v>15.0272</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.0654</v>
+        <v>12.2745</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2885</v>
+        <v>13.4822</v>
       </c>
       <c r="D6" t="n">
-        <v>21.2851</v>
+        <v>21.2753</v>
       </c>
       <c r="E6" t="n">
-        <v>18.5851</v>
+        <v>18.6034</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.612</v>
+        <v>14.1354</v>
       </c>
       <c r="C7" t="n">
-        <v>14.1937</v>
+        <v>15.4339</v>
       </c>
       <c r="D7" t="n">
-        <v>22.5</v>
+        <v>25.1642</v>
       </c>
       <c r="E7" t="n">
-        <v>19.017</v>
+        <v>22.159</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9037</v>
+        <v>16.3889</v>
       </c>
       <c r="C8" t="n">
-        <v>14.1951</v>
+        <v>17.172</v>
       </c>
       <c r="D8" t="n">
-        <v>21.7438</v>
+        <v>29.1918</v>
       </c>
       <c r="E8" t="n">
-        <v>18.7425</v>
+        <v>25.6466</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.5262</v>
+        <v>18.9218</v>
       </c>
       <c r="C9" t="n">
-        <v>14.2468</v>
+        <v>19.213</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9902</v>
+        <v>33.3006</v>
       </c>
       <c r="E9" t="n">
-        <v>19.4055</v>
+        <v>28.8654</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1385</v>
+        <v>17.8202</v>
       </c>
       <c r="C10" t="n">
-        <v>14.5547</v>
+        <v>19.1408</v>
       </c>
       <c r="D10" t="n">
-        <v>23.0534</v>
+        <v>31.0275</v>
       </c>
       <c r="E10" t="n">
-        <v>19.7503</v>
+        <v>27.1463</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.5152</v>
+        <v>17.7767</v>
       </c>
       <c r="C11" t="n">
-        <v>14.9111</v>
+        <v>19.095</v>
       </c>
       <c r="D11" t="n">
-        <v>23.288</v>
+        <v>30.7525</v>
       </c>
       <c r="E11" t="n">
-        <v>20.357</v>
+        <v>26.7221</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5946</v>
+        <v>17.6539</v>
       </c>
       <c r="C12" t="n">
-        <v>14.6849</v>
+        <v>19.0014</v>
       </c>
       <c r="D12" t="n">
-        <v>23.8203</v>
+        <v>30.8892</v>
       </c>
       <c r="E12" t="n">
-        <v>20.6071</v>
+        <v>27.4074</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8822</v>
+        <v>18.1136</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0518</v>
+        <v>18.9931</v>
       </c>
       <c r="D13" t="n">
-        <v>24.783</v>
+        <v>31.6325</v>
       </c>
       <c r="E13" t="n">
-        <v>21.1352</v>
+        <v>27.5065</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9246</v>
+        <v>17.443</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9591</v>
+        <v>19.1528</v>
       </c>
       <c r="D14" t="n">
-        <v>24.6288</v>
+        <v>30.6484</v>
       </c>
       <c r="E14" t="n">
-        <v>21.0597</v>
+        <v>26.4231</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6725</v>
+        <v>17.6037</v>
       </c>
       <c r="C15" t="n">
-        <v>15.5036</v>
+        <v>19.4388</v>
       </c>
       <c r="D15" t="n">
-        <v>24.6729</v>
+        <v>31.4255</v>
       </c>
       <c r="E15" t="n">
-        <v>21.2471</v>
+        <v>27.172</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.6573</v>
+        <v>17.8207</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4138</v>
+        <v>19.4449</v>
       </c>
       <c r="D16" t="n">
-        <v>24.3043</v>
+        <v>31.1098</v>
       </c>
       <c r="E16" t="n">
-        <v>21.5972</v>
+        <v>26.9803</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.9026</v>
+        <v>17.725</v>
       </c>
       <c r="C17" t="n">
-        <v>15.6101</v>
+        <v>19.3955</v>
       </c>
       <c r="D17" t="n">
-        <v>24.9642</v>
+        <v>31.3335</v>
       </c>
       <c r="E17" t="n">
-        <v>21.3487</v>
+        <v>27.0379</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.41896</v>
+        <v>5.39922</v>
       </c>
       <c r="C2" t="n">
-        <v>5.50652</v>
+        <v>5.85975</v>
       </c>
       <c r="D2" t="n">
-        <v>6.2005</v>
+        <v>6.16442</v>
       </c>
       <c r="E2" t="n">
-        <v>4.45091</v>
+        <v>6.73016</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.96274</v>
+        <v>6.43182</v>
       </c>
       <c r="C3" t="n">
-        <v>6.67399</v>
+        <v>6.8889</v>
       </c>
       <c r="D3" t="n">
-        <v>9.08061</v>
+        <v>9.07389</v>
       </c>
       <c r="E3" t="n">
-        <v>7.24447</v>
+        <v>10.3016</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.15315</v>
+        <v>7.90813</v>
       </c>
       <c r="C4" t="n">
-        <v>8.181430000000001</v>
+        <v>8.90164</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1031</v>
+        <v>12.3324</v>
       </c>
       <c r="E4" t="n">
-        <v>10.292</v>
+        <v>14.4615</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.91704</v>
+        <v>9.382960000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.816039999999999</v>
+        <v>11.1491</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0372</v>
+        <v>15.5637</v>
       </c>
       <c r="E5" t="n">
-        <v>13.1992</v>
+        <v>18.5447</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9966</v>
+        <v>10.9777</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4698</v>
+        <v>13.4684</v>
       </c>
       <c r="D6" t="n">
-        <v>18.5344</v>
+        <v>18.5842</v>
       </c>
       <c r="E6" t="n">
-        <v>16.3157</v>
+        <v>22.2549</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7303</v>
+        <v>12.7846</v>
       </c>
       <c r="C7" t="n">
-        <v>15.4018</v>
+        <v>15.7997</v>
       </c>
       <c r="D7" t="n">
-        <v>21.8617</v>
+        <v>21.9191</v>
       </c>
       <c r="E7" t="n">
-        <v>19.4993</v>
+        <v>26.3037</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0668</v>
+        <v>14.1093</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7254</v>
+        <v>18.0704</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2313</v>
+        <v>24.547</v>
       </c>
       <c r="E8" t="n">
-        <v>22.1185</v>
+        <v>30.0271</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5885</v>
+        <v>16.6259</v>
       </c>
       <c r="C9" t="n">
-        <v>20.6353</v>
+        <v>21.3092</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5319</v>
+        <v>28.975</v>
       </c>
       <c r="E9" t="n">
-        <v>25.5734</v>
+        <v>33.9151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3518</v>
+        <v>14.1939</v>
       </c>
       <c r="C10" t="n">
-        <v>17.2005</v>
+        <v>17.8922</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5697</v>
+        <v>23.4493</v>
       </c>
       <c r="E10" t="n">
-        <v>20.3228</v>
+        <v>27.5235</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.135</v>
+        <v>14.0871</v>
       </c>
       <c r="C11" t="n">
-        <v>17.4828</v>
+        <v>17.9437</v>
       </c>
       <c r="D11" t="n">
-        <v>24.0377</v>
+        <v>24.3436</v>
       </c>
       <c r="E11" t="n">
-        <v>20.8911</v>
+        <v>28.0441</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5969</v>
+        <v>14.8382</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4808</v>
+        <v>18.7471</v>
       </c>
       <c r="D12" t="n">
-        <v>24.9747</v>
+        <v>25.0899</v>
       </c>
       <c r="E12" t="n">
-        <v>21.762</v>
+        <v>28.6127</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0733</v>
+        <v>15.1762</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9041</v>
+        <v>19.1978</v>
       </c>
       <c r="D13" t="n">
-        <v>26.1437</v>
+        <v>26.9079</v>
       </c>
       <c r="E13" t="n">
-        <v>22.8106</v>
+        <v>30.2222</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0554</v>
+        <v>15.2315</v>
       </c>
       <c r="C14" t="n">
-        <v>18.9391</v>
+        <v>19.5302</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2047</v>
+        <v>25.037</v>
       </c>
       <c r="E14" t="n">
-        <v>22.1716</v>
+        <v>28.0996</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0703</v>
+        <v>15.2967</v>
       </c>
       <c r="C15" t="n">
-        <v>19.0813</v>
+        <v>19.6391</v>
       </c>
       <c r="D15" t="n">
-        <v>24.7122</v>
+        <v>25.2122</v>
       </c>
       <c r="E15" t="n">
-        <v>21.8035</v>
+        <v>29.0572</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5868</v>
+        <v>15.3863</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4785</v>
+        <v>19.9772</v>
       </c>
       <c r="D16" t="n">
-        <v>25.5496</v>
+        <v>25.0974</v>
       </c>
       <c r="E16" t="n">
-        <v>22.4344</v>
+        <v>28.6236</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8481</v>
+        <v>15.7493</v>
       </c>
       <c r="C17" t="n">
-        <v>19.5387</v>
+        <v>20.2631</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1016</v>
+        <v>25.2831</v>
       </c>
       <c r="E17" t="n">
-        <v>22.0801</v>
+        <v>30.9045</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.225390000000001</v>
+        <v>9.27942</v>
       </c>
       <c r="C2" t="n">
-        <v>9.1769</v>
+        <v>10.2923</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3403</v>
+        <v>11.3051</v>
       </c>
       <c r="E2" t="n">
-        <v>6.82808</v>
+        <v>12.5776</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.4762</v>
+        <v>8.79928</v>
       </c>
       <c r="C3" t="n">
-        <v>8.998290000000001</v>
+        <v>9.38597</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0496</v>
+        <v>13.5128</v>
       </c>
       <c r="E3" t="n">
-        <v>9.827920000000001</v>
+        <v>15.8876</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.52506</v>
+        <v>10.4048</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2944</v>
+        <v>11.6193</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8772</v>
+        <v>17.5521</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5727</v>
+        <v>21.4634</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1332</v>
+        <v>12.1762</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3619</v>
+        <v>14.1266</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6243</v>
+        <v>21.5261</v>
       </c>
       <c r="E5" t="n">
-        <v>17.4012</v>
+        <v>26.9036</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.6991</v>
+        <v>14.1645</v>
       </c>
       <c r="C6" t="n">
-        <v>15.5996</v>
+        <v>16.8872</v>
       </c>
       <c r="D6" t="n">
-        <v>25.4486</v>
+        <v>25.3965</v>
       </c>
       <c r="E6" t="n">
-        <v>21.3865</v>
+        <v>31.8342</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.1735</v>
+        <v>16.3123</v>
       </c>
       <c r="C7" t="n">
-        <v>19.3321</v>
+        <v>19.9143</v>
       </c>
       <c r="D7" t="n">
-        <v>29.7505</v>
+        <v>29.6959</v>
       </c>
       <c r="E7" t="n">
-        <v>25.4105</v>
+        <v>37.5414</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.9459</v>
+        <v>18.0236</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0456</v>
+        <v>22.7316</v>
       </c>
       <c r="D8" t="n">
-        <v>32.7895</v>
+        <v>32.957</v>
       </c>
       <c r="E8" t="n">
-        <v>27.6257</v>
+        <v>42.1048</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0671</v>
+        <v>21.2246</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5922</v>
+        <v>26.4085</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6948</v>
+        <v>39.0035</v>
       </c>
       <c r="E9" t="n">
-        <v>31.8467</v>
+        <v>47.263</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.4863</v>
+        <v>18.9229</v>
       </c>
       <c r="C10" t="n">
-        <v>22.1477</v>
+        <v>23.7357</v>
       </c>
       <c r="D10" t="n">
-        <v>33.3486</v>
+        <v>33.2609</v>
       </c>
       <c r="E10" t="n">
-        <v>26.114</v>
+        <v>39.4091</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1215</v>
+        <v>18.454</v>
       </c>
       <c r="C11" t="n">
-        <v>22.0762</v>
+        <v>22.6016</v>
       </c>
       <c r="D11" t="n">
-        <v>32.3697</v>
+        <v>33.4331</v>
       </c>
       <c r="E11" t="n">
-        <v>26.2012</v>
+        <v>39.5322</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4784</v>
+        <v>18.6997</v>
       </c>
       <c r="C12" t="n">
-        <v>22.5854</v>
+        <v>23.3785</v>
       </c>
       <c r="D12" t="n">
-        <v>34.0698</v>
+        <v>33.8613</v>
       </c>
       <c r="E12" t="n">
-        <v>27.8831</v>
+        <v>39.9491</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4689</v>
+        <v>19.2816</v>
       </c>
       <c r="C13" t="n">
-        <v>23.0668</v>
+        <v>23.7178</v>
       </c>
       <c r="D13" t="n">
-        <v>34.3314</v>
+        <v>34.44</v>
       </c>
       <c r="E13" t="n">
-        <v>28.4729</v>
+        <v>42.4896</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7293</v>
+        <v>18.8854</v>
       </c>
       <c r="C14" t="n">
-        <v>23.4276</v>
+        <v>23.8804</v>
       </c>
       <c r="D14" t="n">
-        <v>32.9066</v>
+        <v>33.7194</v>
       </c>
       <c r="E14" t="n">
-        <v>27.7478</v>
+        <v>41.5826</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0401</v>
+        <v>19.3317</v>
       </c>
       <c r="C15" t="n">
-        <v>23.5785</v>
+        <v>24.4229</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1062</v>
+        <v>33.313</v>
       </c>
       <c r="E15" t="n">
-        <v>27.7908</v>
+        <v>39.8906</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3815</v>
+        <v>19.4896</v>
       </c>
       <c r="C16" t="n">
-        <v>24.0143</v>
+        <v>24.55</v>
       </c>
       <c r="D16" t="n">
-        <v>33.682</v>
+        <v>32.9387</v>
       </c>
       <c r="E16" t="n">
-        <v>28.7231</v>
+        <v>39.6055</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6177</v>
+        <v>19.7384</v>
       </c>
       <c r="C17" t="n">
-        <v>24.2638</v>
+        <v>25.1337</v>
       </c>
       <c r="D17" t="n">
-        <v>34.2749</v>
+        <v>33.702</v>
       </c>
       <c r="E17" t="n">
-        <v>27.6186</v>
+        <v>38.8336</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.8631</v>
+        <v>6.84763</v>
       </c>
       <c r="C2" t="n">
-        <v>6.39299</v>
+        <v>6.83992</v>
       </c>
       <c r="D2" t="n">
-        <v>7.2568</v>
+        <v>7.22544</v>
       </c>
       <c r="E2" t="n">
-        <v>5.05901</v>
+        <v>7.8519</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.19733</v>
+        <v>7.43725</v>
       </c>
       <c r="C3" t="n">
-        <v>6.97844</v>
+        <v>7.81042</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1188</v>
+        <v>10.2696</v>
       </c>
       <c r="E3" t="n">
-        <v>8.19882</v>
+        <v>11.7339</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.489050000000001</v>
+        <v>9.08703</v>
       </c>
       <c r="C4" t="n">
-        <v>8.85173</v>
+        <v>9.94232</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7751</v>
+        <v>13.9759</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6169</v>
+        <v>16.355</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.046</v>
+        <v>10.8736</v>
       </c>
       <c r="C5" t="n">
-        <v>10.6785</v>
+        <v>12.2256</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3389</v>
+        <v>17.7967</v>
       </c>
       <c r="E5" t="n">
-        <v>14.6907</v>
+        <v>21.0366</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1303</v>
+        <v>12.7777</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2672</v>
+        <v>14.6156</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1675</v>
+        <v>21.5179</v>
       </c>
       <c r="E6" t="n">
-        <v>17.9357</v>
+        <v>25.5539</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7604</v>
+        <v>14.6548</v>
       </c>
       <c r="C7" t="n">
-        <v>16.0995</v>
+        <v>17.071</v>
       </c>
       <c r="D7" t="n">
-        <v>24.6424</v>
+        <v>25.3762</v>
       </c>
       <c r="E7" t="n">
-        <v>21.4101</v>
+        <v>30.1626</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4143</v>
+        <v>16.4093</v>
       </c>
       <c r="C8" t="n">
-        <v>18.9438</v>
+        <v>19.4266</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6345</v>
+        <v>28.8008</v>
       </c>
       <c r="E8" t="n">
-        <v>25.2703</v>
+        <v>34.2041</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5971</v>
+        <v>18.622</v>
       </c>
       <c r="C9" t="n">
-        <v>21.7411</v>
+        <v>22.2539</v>
       </c>
       <c r="D9" t="n">
-        <v>32.9363</v>
+        <v>33.4793</v>
       </c>
       <c r="E9" t="n">
-        <v>28.7772</v>
+        <v>38.4957</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.8599</v>
+        <v>16.5768</v>
       </c>
       <c r="C10" t="n">
-        <v>18.6304</v>
+        <v>19.1969</v>
       </c>
       <c r="D10" t="n">
-        <v>28.1466</v>
+        <v>28.0137</v>
       </c>
       <c r="E10" t="n">
-        <v>22.7881</v>
+        <v>32.2312</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.2445</v>
+        <v>16.2148</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6198</v>
+        <v>19.241</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8519</v>
+        <v>27.4664</v>
       </c>
       <c r="E11" t="n">
-        <v>23.7377</v>
+        <v>32.298</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.8527</v>
+        <v>16.9021</v>
       </c>
       <c r="C12" t="n">
-        <v>19.4734</v>
+        <v>19.9642</v>
       </c>
       <c r="D12" t="n">
-        <v>28.7759</v>
+        <v>29.5476</v>
       </c>
       <c r="E12" t="n">
-        <v>25.0093</v>
+        <v>33.6462</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2938</v>
+        <v>17.6053</v>
       </c>
       <c r="C13" t="n">
-        <v>19.8063</v>
+        <v>20.7895</v>
       </c>
       <c r="D13" t="n">
-        <v>28.6698</v>
+        <v>29.5653</v>
       </c>
       <c r="E13" t="n">
-        <v>24.9071</v>
+        <v>33.3353</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.229</v>
+        <v>17.2819</v>
       </c>
       <c r="C14" t="n">
-        <v>19.9729</v>
+        <v>20.577</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6261</v>
+        <v>28.67</v>
       </c>
       <c r="E14" t="n">
-        <v>24.7058</v>
+        <v>31.8347</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4275</v>
+        <v>17.2995</v>
       </c>
       <c r="C15" t="n">
-        <v>20.1232</v>
+        <v>20.7265</v>
       </c>
       <c r="D15" t="n">
-        <v>28.6734</v>
+        <v>27.9575</v>
       </c>
       <c r="E15" t="n">
-        <v>24.3068</v>
+        <v>32.9755</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8776</v>
+        <v>17.7869</v>
       </c>
       <c r="C16" t="n">
-        <v>20.7858</v>
+        <v>21.2379</v>
       </c>
       <c r="D16" t="n">
-        <v>29.3801</v>
+        <v>29.1929</v>
       </c>
       <c r="E16" t="n">
-        <v>25.1428</v>
+        <v>32.0371</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7293</v>
+        <v>17.9224</v>
       </c>
       <c r="C17" t="n">
-        <v>21.323</v>
+        <v>21.7706</v>
       </c>
       <c r="D17" t="n">
-        <v>29.1642</v>
+        <v>28.9983</v>
       </c>
       <c r="E17" t="n">
-        <v>25.2061</v>
+        <v>32.8157</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.11723</v>
+        <v>3.10445</v>
       </c>
       <c r="C2" t="n">
-        <v>4.84967</v>
+        <v>5.12529</v>
       </c>
       <c r="D2" t="n">
-        <v>5.33642</v>
+        <v>5.32691</v>
       </c>
       <c r="E2" t="n">
-        <v>4.15222</v>
+        <v>6.07295</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.90579</v>
+        <v>4.90504</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3686</v>
+        <v>6.60688</v>
       </c>
       <c r="D3" t="n">
-        <v>8.62242</v>
+        <v>8.64593</v>
       </c>
       <c r="E3" t="n">
-        <v>7.29003</v>
+        <v>10.1255</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.56475</v>
+        <v>6.64539</v>
       </c>
       <c r="C4" t="n">
-        <v>8.44584</v>
+        <v>8.760289999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9982</v>
+        <v>12.0216</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4898</v>
+        <v>14.3882</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.086830000000001</v>
+        <v>8.226789999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5541</v>
+        <v>10.9076</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1981</v>
+        <v>15.2365</v>
       </c>
       <c r="E5" t="n">
-        <v>13.6036</v>
+        <v>18.506</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.701549999999999</v>
+        <v>9.796709999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4758</v>
+        <v>13.0788</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2831</v>
+        <v>18.3396</v>
       </c>
       <c r="E6" t="n">
-        <v>16.6402</v>
+        <v>22.5575</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2433</v>
+        <v>11.2442</v>
       </c>
       <c r="C7" t="n">
-        <v>14.507</v>
+        <v>15.2917</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2436</v>
+        <v>21.3251</v>
       </c>
       <c r="E7" t="n">
-        <v>19.6579</v>
+        <v>26.514</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6444</v>
+        <v>12.7603</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1674</v>
+        <v>17.6785</v>
       </c>
       <c r="D8" t="n">
-        <v>24.4278</v>
+        <v>24.3983</v>
       </c>
       <c r="E8" t="n">
-        <v>22.6765</v>
+        <v>30.4081</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6925</v>
+        <v>14.9513</v>
       </c>
       <c r="C9" t="n">
-        <v>19.7094</v>
+        <v>20.7819</v>
       </c>
       <c r="D9" t="n">
-        <v>28.9206</v>
+        <v>28.9971</v>
       </c>
       <c r="E9" t="n">
-        <v>26.0699</v>
+        <v>35.045</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.044</v>
+        <v>14.3247</v>
       </c>
       <c r="C10" t="n">
-        <v>18.2747</v>
+        <v>19.024</v>
       </c>
       <c r="D10" t="n">
-        <v>26.7629</v>
+        <v>26.9036</v>
       </c>
       <c r="E10" t="n">
-        <v>24.0555</v>
+        <v>32.4419</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8223</v>
+        <v>14.2261</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9601</v>
+        <v>19.1662</v>
       </c>
       <c r="D11" t="n">
-        <v>26.4261</v>
+        <v>26.6533</v>
       </c>
       <c r="E11" t="n">
-        <v>24.0692</v>
+        <v>31.1679</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0736</v>
+        <v>14.1862</v>
       </c>
       <c r="C12" t="n">
-        <v>18.607</v>
+        <v>19.2104</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7146</v>
+        <v>27.2837</v>
       </c>
       <c r="E12" t="n">
-        <v>24.3923</v>
+        <v>32.3112</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.1424</v>
+        <v>14.547</v>
       </c>
       <c r="C13" t="n">
-        <v>18.6099</v>
+        <v>19.5974</v>
       </c>
       <c r="D13" t="n">
-        <v>26.8041</v>
+        <v>27.6221</v>
       </c>
       <c r="E13" t="n">
-        <v>24.5802</v>
+        <v>32.5996</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8083</v>
+        <v>14.0546</v>
       </c>
       <c r="C14" t="n">
-        <v>18.8082</v>
+        <v>19.6148</v>
       </c>
       <c r="D14" t="n">
-        <v>26.2297</v>
+        <v>26.3937</v>
       </c>
       <c r="E14" t="n">
-        <v>23.6941</v>
+        <v>31.0993</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.1305</v>
+        <v>14.4198</v>
       </c>
       <c r="C15" t="n">
-        <v>18.673</v>
+        <v>19.7634</v>
       </c>
       <c r="D15" t="n">
-        <v>26.8838</v>
+        <v>26.9648</v>
       </c>
       <c r="E15" t="n">
-        <v>24.3198</v>
+        <v>31.7084</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9842</v>
+        <v>14.5111</v>
       </c>
       <c r="C16" t="n">
-        <v>19.0209</v>
+        <v>19.8953</v>
       </c>
       <c r="D16" t="n">
-        <v>26.6433</v>
+        <v>26.7354</v>
       </c>
       <c r="E16" t="n">
-        <v>24.129</v>
+        <v>32.1325</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9196</v>
+        <v>14.5816</v>
       </c>
       <c r="C17" t="n">
-        <v>19.2182</v>
+        <v>20.1614</v>
       </c>
       <c r="D17" t="n">
-        <v>26.4538</v>
+        <v>26.7302</v>
       </c>
       <c r="E17" t="n">
-        <v>23.9624</v>
+        <v>31.3287</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.17184</v>
+        <v>4.06152</v>
       </c>
       <c r="C2" t="n">
-        <v>7.58588</v>
+        <v>8.24424</v>
       </c>
       <c r="D2" t="n">
-        <v>8.72911</v>
+        <v>8.65274</v>
       </c>
       <c r="E2" t="n">
-        <v>5.61819</v>
+        <v>10.5517</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.20029</v>
+        <v>6.15979</v>
       </c>
       <c r="C3" t="n">
-        <v>8.613810000000001</v>
+        <v>8.794840000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5472</v>
+        <v>12.4961</v>
       </c>
       <c r="E3" t="n">
-        <v>9.415469999999999</v>
+        <v>15.581</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.226190000000001</v>
+        <v>8.295</v>
       </c>
       <c r="C4" t="n">
-        <v>10.8399</v>
+        <v>11.2374</v>
       </c>
       <c r="D4" t="n">
-        <v>16.7894</v>
+        <v>16.8229</v>
       </c>
       <c r="E4" t="n">
-        <v>13.4052</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1349</v>
+        <v>10.2379</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0904</v>
+        <v>13.6481</v>
       </c>
       <c r="D5" t="n">
-        <v>20.779</v>
+        <v>20.807</v>
       </c>
       <c r="E5" t="n">
-        <v>17.1858</v>
+        <v>26.9668</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7949</v>
+        <v>12.1464</v>
       </c>
       <c r="C6" t="n">
-        <v>15.4862</v>
+        <v>16.2068</v>
       </c>
       <c r="D6" t="n">
-        <v>24.7124</v>
+        <v>24.805</v>
       </c>
       <c r="E6" t="n">
-        <v>20.9666</v>
+        <v>32.6372</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6831</v>
+        <v>13.9624</v>
       </c>
       <c r="C7" t="n">
-        <v>18.02</v>
+        <v>18.8363</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7193</v>
+        <v>28.6251</v>
       </c>
       <c r="E7" t="n">
-        <v>24.6836</v>
+        <v>38.0424</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6898</v>
+        <v>15.6693</v>
       </c>
       <c r="C8" t="n">
-        <v>20.7518</v>
+        <v>21.8617</v>
       </c>
       <c r="D8" t="n">
-        <v>32.7881</v>
+        <v>32.4578</v>
       </c>
       <c r="E8" t="n">
-        <v>28.4115</v>
+        <v>43.332</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.64</v>
+        <v>18.319</v>
       </c>
       <c r="C9" t="n">
-        <v>24.0856</v>
+        <v>25.5632</v>
       </c>
       <c r="D9" t="n">
-        <v>38.7314</v>
+        <v>38.942</v>
       </c>
       <c r="E9" t="n">
-        <v>32.686</v>
+        <v>49.8427</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1223</v>
+        <v>17.3899</v>
       </c>
       <c r="C10" t="n">
-        <v>22.5572</v>
+        <v>23.7908</v>
       </c>
       <c r="D10" t="n">
-        <v>35.3295</v>
+        <v>35.7095</v>
       </c>
       <c r="E10" t="n">
-        <v>31.0107</v>
+        <v>44.8014</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9169</v>
+        <v>17.29</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5579</v>
+        <v>23.4148</v>
       </c>
       <c r="D11" t="n">
-        <v>35.2201</v>
+        <v>35.2244</v>
       </c>
       <c r="E11" t="n">
-        <v>30.4655</v>
+        <v>45.4682</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2146</v>
+        <v>17.2994</v>
       </c>
       <c r="C12" t="n">
-        <v>22.4518</v>
+        <v>23.9173</v>
       </c>
       <c r="D12" t="n">
-        <v>35.723</v>
+        <v>35.7602</v>
       </c>
       <c r="E12" t="n">
-        <v>31.2559</v>
+        <v>45.6362</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.3968</v>
+        <v>17.8017</v>
       </c>
       <c r="C13" t="n">
-        <v>22.4115</v>
+        <v>23.9614</v>
       </c>
       <c r="D13" t="n">
-        <v>35.6573</v>
+        <v>36.1715</v>
       </c>
       <c r="E13" t="n">
-        <v>30.9902</v>
+        <v>44.9104</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.6001</v>
+        <v>17.1988</v>
       </c>
       <c r="C14" t="n">
-        <v>23.1394</v>
+        <v>24.0963</v>
       </c>
       <c r="D14" t="n">
-        <v>34.6093</v>
+        <v>34.7242</v>
       </c>
       <c r="E14" t="n">
-        <v>29.6669</v>
+        <v>43.7884</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.9611</v>
+        <v>17.8595</v>
       </c>
       <c r="C15" t="n">
-        <v>23.1509</v>
+        <v>24.1398</v>
       </c>
       <c r="D15" t="n">
-        <v>34.6879</v>
+        <v>34.848</v>
       </c>
       <c r="E15" t="n">
-        <v>30.8793</v>
+        <v>43.5011</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.2485</v>
+        <v>17.8134</v>
       </c>
       <c r="C16" t="n">
-        <v>22.8214</v>
+        <v>24.3685</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5874</v>
+        <v>34.5626</v>
       </c>
       <c r="E16" t="n">
-        <v>29.9175</v>
+        <v>43.0017</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.7935</v>
+        <v>17.6869</v>
       </c>
       <c r="C17" t="n">
-        <v>23.1839</v>
+        <v>24.6414</v>
       </c>
       <c r="D17" t="n">
-        <v>34.0706</v>
+        <v>34.92</v>
       </c>
       <c r="E17" t="n">
-        <v>30.4318</v>
+        <v>43.3211</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.54511</v>
+        <v>5.4939</v>
       </c>
       <c r="C2" t="n">
-        <v>6.09612</v>
+        <v>6.52792</v>
       </c>
       <c r="D2" t="n">
-        <v>6.7725</v>
+        <v>6.76051</v>
       </c>
       <c r="E2" t="n">
-        <v>4.89043</v>
+        <v>7.59827</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.92109</v>
+        <v>6.89402</v>
       </c>
       <c r="C3" t="n">
-        <v>7.29241</v>
+        <v>7.5493</v>
       </c>
       <c r="D3" t="n">
-        <v>9.99239</v>
+        <v>9.968830000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>8.149699999999999</v>
+        <v>11.6938</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.69599</v>
+        <v>8.89461</v>
       </c>
       <c r="C4" t="n">
-        <v>9.21054</v>
+        <v>9.80724</v>
       </c>
       <c r="D4" t="n">
-        <v>13.758</v>
+        <v>13.8163</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6649</v>
+        <v>16.5568</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1259</v>
+        <v>10.6972</v>
       </c>
       <c r="C5" t="n">
-        <v>11.1625</v>
+        <v>12.0133</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4679</v>
+        <v>17.5721</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0272</v>
+        <v>21.3257</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.2745</v>
+        <v>12.6126</v>
       </c>
       <c r="C6" t="n">
-        <v>13.4822</v>
+        <v>14.3481</v>
       </c>
       <c r="D6" t="n">
-        <v>21.2753</v>
+        <v>21.3554</v>
       </c>
       <c r="E6" t="n">
-        <v>18.6034</v>
+        <v>26.0592</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1354</v>
+        <v>14.4629</v>
       </c>
       <c r="C7" t="n">
-        <v>15.4339</v>
+        <v>16.7082</v>
       </c>
       <c r="D7" t="n">
-        <v>25.1642</v>
+        <v>25.1013</v>
       </c>
       <c r="E7" t="n">
-        <v>22.159</v>
+        <v>30.635</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3889</v>
+        <v>16.4192</v>
       </c>
       <c r="C8" t="n">
-        <v>17.172</v>
+        <v>19.2786</v>
       </c>
       <c r="D8" t="n">
-        <v>29.1918</v>
+        <v>28.898</v>
       </c>
       <c r="E8" t="n">
-        <v>25.6466</v>
+        <v>35.2347</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9218</v>
+        <v>18.9459</v>
       </c>
       <c r="C9" t="n">
-        <v>19.213</v>
+        <v>22.1955</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3006</v>
+        <v>33.8244</v>
       </c>
       <c r="E9" t="n">
-        <v>28.8654</v>
+        <v>40.819</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8202</v>
+        <v>17.9453</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1408</v>
+        <v>20.8587</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0275</v>
+        <v>31.3467</v>
       </c>
       <c r="E10" t="n">
-        <v>27.1463</v>
+        <v>37.8461</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7767</v>
+        <v>18.077</v>
       </c>
       <c r="C11" t="n">
-        <v>19.095</v>
+        <v>20.6938</v>
       </c>
       <c r="D11" t="n">
-        <v>30.7525</v>
+        <v>30.9271</v>
       </c>
       <c r="E11" t="n">
-        <v>26.7221</v>
+        <v>36.4515</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6539</v>
+        <v>18.0197</v>
       </c>
       <c r="C12" t="n">
-        <v>19.0014</v>
+        <v>20.9022</v>
       </c>
       <c r="D12" t="n">
-        <v>30.8892</v>
+        <v>30.9792</v>
       </c>
       <c r="E12" t="n">
-        <v>27.4074</v>
+        <v>37.2443</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1136</v>
+        <v>18.3829</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9931</v>
+        <v>21.156</v>
       </c>
       <c r="D13" t="n">
-        <v>31.6325</v>
+        <v>31.6545</v>
       </c>
       <c r="E13" t="n">
-        <v>27.5065</v>
+        <v>37.503</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.443</v>
+        <v>17.7578</v>
       </c>
       <c r="C14" t="n">
-        <v>19.1528</v>
+        <v>21.2074</v>
       </c>
       <c r="D14" t="n">
-        <v>30.6484</v>
+        <v>30.588</v>
       </c>
       <c r="E14" t="n">
-        <v>26.4231</v>
+        <v>36.2042</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6037</v>
+        <v>18.4771</v>
       </c>
       <c r="C15" t="n">
-        <v>19.4388</v>
+        <v>21.3711</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4255</v>
+        <v>31.1718</v>
       </c>
       <c r="E15" t="n">
-        <v>27.172</v>
+        <v>37.0414</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8207</v>
+        <v>18.4154</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4449</v>
+        <v>21.5942</v>
       </c>
       <c r="D16" t="n">
-        <v>31.1098</v>
+        <v>31.0482</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9803</v>
+        <v>37.1332</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.725</v>
+        <v>18.1005</v>
       </c>
       <c r="C17" t="n">
-        <v>19.3955</v>
+        <v>21.812</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3335</v>
+        <v>31.0655</v>
       </c>
       <c r="E17" t="n">
-        <v>27.0379</v>
+        <v>36.4104</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -57,7 +57,7 @@
     <definedName localSheetId="5" name="k">#REF!</definedName>
     <definedName name="k">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterate="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -140,7 +140,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -577,6 +577,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,52 +655,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -811,9 +1106,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -836,7 +1131,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -913,52 +1208,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1059,52 +1354,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1205,52 +1500,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1273,6 +1568,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1348,52 +1646,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1507,9 +2097,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1532,7 +2122,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1609,52 +2199,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1755,52 +2345,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,52 +2491,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1969,6 +2559,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2044,52 +2637,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2203,9 +3088,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2228,7 +3113,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2305,52 +3190,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2451,52 +3336,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2597,52 +3482,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2665,6 +3550,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2740,52 +3628,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2899,9 +4079,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2924,7 +4104,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -3001,52 +4181,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3147,52 +4327,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3293,52 +4473,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3361,6 +4541,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3436,52 +4619,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3595,9 +5070,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3620,7 +5095,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -3697,52 +5172,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3843,52 +5318,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3989,52 +5464,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4057,6 +5532,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -4132,52 +5610,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4283,16 +6053,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4315,16 +6085,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4347,16 +6117,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4379,16 +6149,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4411,16 +6181,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4443,16 +6213,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4762,10 +6532,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4794,22 +6564,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.41896</v>
+        <v>5.26187</v>
       </c>
       <c r="C2" t="n">
-        <v>5.50652</v>
+        <v>5.07595</v>
       </c>
       <c r="D2" t="n">
-        <v>6.2005</v>
+        <v>6.02896</v>
       </c>
       <c r="E2" t="n">
-        <v>4.45091</v>
+        <v>4.33374</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.71399</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.30925</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.96274</v>
+        <v>6.3148</v>
       </c>
       <c r="C3" t="n">
-        <v>6.67399</v>
+        <v>6.37192</v>
       </c>
       <c r="D3" t="n">
-        <v>9.08061</v>
+        <v>8.95626</v>
       </c>
       <c r="E3" t="n">
-        <v>7.24447</v>
+        <v>7.25247</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.21067</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.308770000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.15315</v>
+        <v>7.83517</v>
       </c>
       <c r="C4" t="n">
-        <v>8.181430000000001</v>
+        <v>8.32405</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1031</v>
+        <v>12.239</v>
       </c>
       <c r="E4" t="n">
-        <v>10.292</v>
+        <v>10.3471</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.9713</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.6871</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.91704</v>
+        <v>9.30523</v>
       </c>
       <c r="C5" t="n">
-        <v>9.816039999999999</v>
+        <v>10.5319</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0372</v>
+        <v>15.4307</v>
       </c>
       <c r="E5" t="n">
-        <v>13.1992</v>
+        <v>13.3941</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.4777</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.9116</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9966</v>
+        <v>10.9102</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4698</v>
+        <v>12.5948</v>
       </c>
       <c r="D6" t="n">
-        <v>18.5344</v>
+        <v>18.3428</v>
       </c>
       <c r="E6" t="n">
-        <v>16.3157</v>
+        <v>16.2776</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.9236</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18.8884</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7303</v>
+        <v>12.6524</v>
       </c>
       <c r="C7" t="n">
-        <v>15.4018</v>
+        <v>14.9653</v>
       </c>
       <c r="D7" t="n">
-        <v>21.8617</v>
+        <v>21.5536</v>
       </c>
       <c r="E7" t="n">
-        <v>19.4993</v>
+        <v>19.31</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.2299</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21.4619</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0668</v>
+        <v>14.012</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7254</v>
+        <v>17.2722</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2313</v>
+        <v>24.2914</v>
       </c>
       <c r="E8" t="n">
-        <v>22.1185</v>
+        <v>22.1304</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20.3739</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24.363</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5885</v>
+        <v>16.5099</v>
       </c>
       <c r="C9" t="n">
-        <v>20.6353</v>
+        <v>19.9485</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5319</v>
+        <v>28.463</v>
       </c>
       <c r="E9" t="n">
-        <v>25.5734</v>
+        <v>25.2267</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.7962</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.3428</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3518</v>
+        <v>13.8746</v>
       </c>
       <c r="C10" t="n">
-        <v>17.2005</v>
+        <v>16.9418</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5697</v>
+        <v>23.646</v>
       </c>
       <c r="E10" t="n">
-        <v>20.3228</v>
+        <v>19.7349</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19.6598</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22.3223</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.135</v>
+        <v>14.101</v>
       </c>
       <c r="C11" t="n">
-        <v>17.4828</v>
+        <v>16.9069</v>
       </c>
       <c r="D11" t="n">
-        <v>24.0377</v>
+        <v>23.6511</v>
       </c>
       <c r="E11" t="n">
-        <v>20.8911</v>
+        <v>20.5297</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.6331</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.0099</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5969</v>
+        <v>14.6267</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4808</v>
+        <v>17.64</v>
       </c>
       <c r="D12" t="n">
-        <v>24.9747</v>
+        <v>25.0245</v>
       </c>
       <c r="E12" t="n">
-        <v>21.762</v>
+        <v>22.3105</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20.5101</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23.9072</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0733</v>
+        <v>15.099</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9041</v>
+        <v>18.2994</v>
       </c>
       <c r="D13" t="n">
-        <v>26.1437</v>
+        <v>25.3563</v>
       </c>
       <c r="E13" t="n">
-        <v>22.8106</v>
+        <v>22.0865</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21.0996</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23.4364</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0554</v>
+        <v>14.934</v>
       </c>
       <c r="C14" t="n">
-        <v>18.9391</v>
+        <v>18.2728</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2047</v>
+        <v>24.775</v>
       </c>
       <c r="E14" t="n">
-        <v>22.1716</v>
+        <v>21.7503</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.1559</v>
+      </c>
+      <c r="G14" t="n">
+        <v>22.8104</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0703</v>
+        <v>15.1891</v>
       </c>
       <c r="C15" t="n">
-        <v>19.0813</v>
+        <v>18.5093</v>
       </c>
       <c r="D15" t="n">
-        <v>24.7122</v>
+        <v>24.5448</v>
       </c>
       <c r="E15" t="n">
-        <v>21.8035</v>
+        <v>21.4377</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20.4672</v>
+      </c>
+      <c r="G15" t="n">
+        <v>22.6271</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5868</v>
+        <v>15.3258</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4785</v>
+        <v>18.8945</v>
       </c>
       <c r="D16" t="n">
-        <v>25.5496</v>
+        <v>24.8715</v>
       </c>
       <c r="E16" t="n">
-        <v>22.4344</v>
+        <v>21.3323</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20.4782</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21.948</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8481</v>
+        <v>15.4255</v>
       </c>
       <c r="C17" t="n">
-        <v>19.5387</v>
+        <v>19.2294</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1016</v>
+        <v>25.6302</v>
       </c>
       <c r="E17" t="n">
-        <v>22.0801</v>
+        <v>22.5048</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20.2811</v>
+      </c>
+      <c r="G17" t="n">
+        <v>21.5222</v>
       </c>
     </row>
   </sheetData>
@@ -5079,10 +6955,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5111,22 +6987,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.225390000000001</v>
+        <v>8.743180000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>9.1769</v>
+        <v>8.74174</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3403</v>
+        <v>10.6288</v>
       </c>
       <c r="E2" t="n">
-        <v>6.82808</v>
+        <v>6.35696</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.716469999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.6189</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.4762</v>
+        <v>8.45777</v>
       </c>
       <c r="C3" t="n">
-        <v>8.998290000000001</v>
+        <v>8.70753</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0496</v>
+        <v>12.9933</v>
       </c>
       <c r="E3" t="n">
-        <v>9.827920000000001</v>
+        <v>9.82329</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.5539</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.9348</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.52506</v>
+        <v>10.3086</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2944</v>
+        <v>11.1567</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8772</v>
+        <v>17.1525</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5727</v>
+        <v>13.8632</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.9685</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.4027</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1332</v>
+        <v>12.1045</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3619</v>
+        <v>13.5475</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6243</v>
+        <v>21.0323</v>
       </c>
       <c r="E5" t="n">
-        <v>17.4012</v>
+        <v>17.621</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.0099</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22.1727</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.6991</v>
+        <v>14.1262</v>
       </c>
       <c r="C6" t="n">
-        <v>15.5996</v>
+        <v>16.2476</v>
       </c>
       <c r="D6" t="n">
-        <v>25.4486</v>
+        <v>25.0009</v>
       </c>
       <c r="E6" t="n">
-        <v>21.3865</v>
+        <v>21.4644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.8068</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25.9875</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.1735</v>
+        <v>16.132</v>
       </c>
       <c r="C7" t="n">
-        <v>19.3321</v>
+        <v>19.1951</v>
       </c>
       <c r="D7" t="n">
-        <v>29.7505</v>
+        <v>29.1591</v>
       </c>
       <c r="E7" t="n">
-        <v>25.4105</v>
+        <v>25.1903</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.6936</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29.5675</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.9459</v>
+        <v>17.819</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0456</v>
+        <v>21.8146</v>
       </c>
       <c r="D8" t="n">
-        <v>32.7895</v>
+        <v>32.2846</v>
       </c>
       <c r="E8" t="n">
-        <v>27.6257</v>
+        <v>28.7735</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26.1825</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32.7633</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0671</v>
+        <v>20.9227</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5922</v>
+        <v>25.3839</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6948</v>
+        <v>37.5131</v>
       </c>
       <c r="E9" t="n">
-        <v>31.8467</v>
+        <v>32.4673</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.0102</v>
+      </c>
+      <c r="G9" t="n">
+        <v>36.2791</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.4863</v>
+        <v>18.109</v>
       </c>
       <c r="C10" t="n">
-        <v>22.1477</v>
+        <v>22.1783</v>
       </c>
       <c r="D10" t="n">
-        <v>33.3486</v>
+        <v>32.7382</v>
       </c>
       <c r="E10" t="n">
-        <v>26.114</v>
+        <v>26.2467</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26.0605</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.597</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1215</v>
+        <v>17.8149</v>
       </c>
       <c r="C11" t="n">
-        <v>22.0762</v>
+        <v>21.7634</v>
       </c>
       <c r="D11" t="n">
-        <v>32.3697</v>
+        <v>31.6672</v>
       </c>
       <c r="E11" t="n">
-        <v>26.2012</v>
+        <v>27.5362</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.291</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.0113</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4784</v>
+        <v>18.4908</v>
       </c>
       <c r="C12" t="n">
-        <v>22.5854</v>
+        <v>22.3926</v>
       </c>
       <c r="D12" t="n">
-        <v>34.0698</v>
+        <v>33.3398</v>
       </c>
       <c r="E12" t="n">
-        <v>27.8831</v>
+        <v>28.2395</v>
+      </c>
+      <c r="F12" t="n">
+        <v>26.6058</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30.1428</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4689</v>
+        <v>19.3521</v>
       </c>
       <c r="C13" t="n">
-        <v>23.0668</v>
+        <v>22.8221</v>
       </c>
       <c r="D13" t="n">
-        <v>34.3314</v>
+        <v>33.1788</v>
       </c>
       <c r="E13" t="n">
-        <v>28.4729</v>
+        <v>28.3672</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26.197</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30.8571</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7293</v>
+        <v>18.7877</v>
       </c>
       <c r="C14" t="n">
-        <v>23.4276</v>
+        <v>23.314</v>
       </c>
       <c r="D14" t="n">
-        <v>32.9066</v>
+        <v>33.0954</v>
       </c>
       <c r="E14" t="n">
-        <v>27.7478</v>
+        <v>28.7283</v>
+      </c>
+      <c r="F14" t="n">
+        <v>26.0097</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30.6003</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0401</v>
+        <v>18.7963</v>
       </c>
       <c r="C15" t="n">
-        <v>23.5785</v>
+        <v>23.4111</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1062</v>
+        <v>32.7851</v>
       </c>
       <c r="E15" t="n">
-        <v>27.7908</v>
+        <v>27.6063</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25.8806</v>
+      </c>
+      <c r="G15" t="n">
+        <v>29.878</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3815</v>
+        <v>19.4655</v>
       </c>
       <c r="C16" t="n">
-        <v>24.0143</v>
+        <v>23.7008</v>
       </c>
       <c r="D16" t="n">
-        <v>33.682</v>
+        <v>33.0312</v>
       </c>
       <c r="E16" t="n">
-        <v>28.7231</v>
+        <v>27.7391</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25.2651</v>
+      </c>
+      <c r="G16" t="n">
+        <v>29.4492</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6177</v>
+        <v>19.3406</v>
       </c>
       <c r="C17" t="n">
-        <v>24.2638</v>
+        <v>24.1443</v>
       </c>
       <c r="D17" t="n">
-        <v>34.2749</v>
+        <v>32.5967</v>
       </c>
       <c r="E17" t="n">
-        <v>27.6186</v>
+        <v>28.5094</v>
+      </c>
+      <c r="F17" t="n">
+        <v>24.4859</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28.7601</v>
       </c>
     </row>
   </sheetData>
@@ -5396,10 +7378,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5428,22 +7410,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.8631</v>
+        <v>6.57969</v>
       </c>
       <c r="C2" t="n">
-        <v>6.39299</v>
+        <v>6.10071</v>
       </c>
       <c r="D2" t="n">
-        <v>7.2568</v>
+        <v>6.98939</v>
       </c>
       <c r="E2" t="n">
-        <v>5.05901</v>
+        <v>4.84614</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.77179</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.72346</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.19733</v>
+        <v>7.38506</v>
       </c>
       <c r="C3" t="n">
-        <v>6.97844</v>
+        <v>7.40051</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1188</v>
+        <v>10.0216</v>
       </c>
       <c r="E3" t="n">
-        <v>8.19882</v>
+        <v>8.01145</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.518380000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.2519</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.489050000000001</v>
+        <v>9.13134</v>
       </c>
       <c r="C4" t="n">
-        <v>8.85173</v>
+        <v>9.47383</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7751</v>
+        <v>13.619</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6169</v>
+        <v>11.425</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.8011</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.4426</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.046</v>
+        <v>11.0113</v>
       </c>
       <c r="C5" t="n">
-        <v>10.6785</v>
+        <v>11.6971</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3389</v>
+        <v>17.2985</v>
       </c>
       <c r="E5" t="n">
-        <v>14.6907</v>
+        <v>14.8389</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.1307</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.6438</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1303</v>
+        <v>13.0319</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2672</v>
+        <v>14.0056</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1675</v>
+        <v>20.9636</v>
       </c>
       <c r="E6" t="n">
-        <v>17.9357</v>
+        <v>18.1758</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.3179</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.6031</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7604</v>
+        <v>15.1027</v>
       </c>
       <c r="C7" t="n">
-        <v>16.0995</v>
+        <v>16.4288</v>
       </c>
       <c r="D7" t="n">
-        <v>24.6424</v>
+        <v>24.8395</v>
       </c>
       <c r="E7" t="n">
-        <v>21.4101</v>
+        <v>21.452</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.3229</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27.3638</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4143</v>
+        <v>17.0525</v>
       </c>
       <c r="C8" t="n">
-        <v>18.9438</v>
+        <v>18.6928</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6345</v>
+        <v>28.0357</v>
       </c>
       <c r="E8" t="n">
-        <v>25.2703</v>
+        <v>24.674</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.4313</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30.9542</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5971</v>
+        <v>19.7206</v>
       </c>
       <c r="C9" t="n">
-        <v>21.7411</v>
+        <v>21.5712</v>
       </c>
       <c r="D9" t="n">
-        <v>32.9363</v>
+        <v>32.6162</v>
       </c>
       <c r="E9" t="n">
-        <v>28.7772</v>
+        <v>28.2394</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29.325</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.6416</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.8599</v>
+        <v>17.3601</v>
       </c>
       <c r="C10" t="n">
-        <v>18.6304</v>
+        <v>18.4192</v>
       </c>
       <c r="D10" t="n">
-        <v>28.1466</v>
+        <v>27.2797</v>
       </c>
       <c r="E10" t="n">
-        <v>22.7881</v>
+        <v>22.4164</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24.2826</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28.9013</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.2445</v>
+        <v>16.9586</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6198</v>
+        <v>18.4518</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8519</v>
+        <v>27.0831</v>
       </c>
       <c r="E11" t="n">
-        <v>23.7377</v>
+        <v>23.1921</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.0222</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29.7014</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.8527</v>
+        <v>17.6176</v>
       </c>
       <c r="C12" t="n">
-        <v>19.4734</v>
+        <v>19.297</v>
       </c>
       <c r="D12" t="n">
-        <v>28.7759</v>
+        <v>27.9723</v>
       </c>
       <c r="E12" t="n">
-        <v>25.0093</v>
+        <v>24.36</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25.9993</v>
+      </c>
+      <c r="G12" t="n">
+        <v>29.9885</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2938</v>
+        <v>18.3705</v>
       </c>
       <c r="C13" t="n">
-        <v>19.8063</v>
+        <v>19.611</v>
       </c>
       <c r="D13" t="n">
-        <v>28.6698</v>
+        <v>29.592</v>
       </c>
       <c r="E13" t="n">
-        <v>24.9071</v>
+        <v>24.5858</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="G13" t="n">
+        <v>29.8571</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.229</v>
+        <v>17.9282</v>
       </c>
       <c r="C14" t="n">
-        <v>19.9729</v>
+        <v>19.8371</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6261</v>
+        <v>27.7108</v>
       </c>
       <c r="E14" t="n">
-        <v>24.7058</v>
+        <v>24.6315</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25.901</v>
+      </c>
+      <c r="G14" t="n">
+        <v>29.6531</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4275</v>
+        <v>18.358</v>
       </c>
       <c r="C15" t="n">
-        <v>20.1232</v>
+        <v>20.0271</v>
       </c>
       <c r="D15" t="n">
-        <v>28.6734</v>
+        <v>27.6837</v>
       </c>
       <c r="E15" t="n">
-        <v>24.3068</v>
+        <v>24.4296</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25.5026</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28.3735</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8776</v>
+        <v>18.5689</v>
       </c>
       <c r="C16" t="n">
-        <v>20.7858</v>
+        <v>20.441</v>
       </c>
       <c r="D16" t="n">
-        <v>29.3801</v>
+        <v>28.1769</v>
       </c>
       <c r="E16" t="n">
-        <v>25.1428</v>
+        <v>23.6889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25.4771</v>
+      </c>
+      <c r="G16" t="n">
+        <v>29.4891</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7293</v>
+        <v>18.0616</v>
       </c>
       <c r="C17" t="n">
-        <v>21.323</v>
+        <v>20.909</v>
       </c>
       <c r="D17" t="n">
-        <v>29.1642</v>
+        <v>29.1198</v>
       </c>
       <c r="E17" t="n">
-        <v>25.2061</v>
+        <v>24.6629</v>
+      </c>
+      <c r="F17" t="n">
+        <v>25.4245</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28.2942</v>
       </c>
     </row>
   </sheetData>
@@ -5713,10 +7801,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5745,22 +7833,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.11723</v>
+        <v>3.02611</v>
       </c>
       <c r="C2" t="n">
-        <v>4.84967</v>
+        <v>4.53867</v>
       </c>
       <c r="D2" t="n">
-        <v>5.33642</v>
+        <v>5.19255</v>
       </c>
       <c r="E2" t="n">
-        <v>4.15222</v>
+        <v>4.02496</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.2131</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.86272</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.90579</v>
+        <v>4.89956</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3686</v>
+        <v>6.18515</v>
       </c>
       <c r="D3" t="n">
-        <v>8.62242</v>
+        <v>8.53318</v>
       </c>
       <c r="E3" t="n">
-        <v>7.29003</v>
+        <v>7.17458</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.88538</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.059189999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.56475</v>
+        <v>6.60713</v>
       </c>
       <c r="C4" t="n">
-        <v>8.44584</v>
+        <v>8.22339</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9982</v>
+        <v>11.8566</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4898</v>
+        <v>10.3298</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.56643</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.3075</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.086830000000001</v>
+        <v>8.167020000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5541</v>
+        <v>10.2949</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1981</v>
+        <v>15.0168</v>
       </c>
       <c r="E5" t="n">
-        <v>13.6036</v>
+        <v>13.4006</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.0703</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.3143</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.701549999999999</v>
+        <v>9.70219</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4758</v>
+        <v>12.389</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2831</v>
+        <v>18.0492</v>
       </c>
       <c r="E6" t="n">
-        <v>16.6402</v>
+        <v>16.4248</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.1932</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.0117</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2433</v>
+        <v>11.2423</v>
       </c>
       <c r="C7" t="n">
-        <v>14.507</v>
+        <v>14.5028</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2436</v>
+        <v>21.029</v>
       </c>
       <c r="E7" t="n">
-        <v>19.6579</v>
+        <v>19.3752</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.2465</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.5508</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6444</v>
+        <v>12.7174</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1674</v>
+        <v>16.7647</v>
       </c>
       <c r="D8" t="n">
-        <v>24.4278</v>
+        <v>23.9976</v>
       </c>
       <c r="E8" t="n">
-        <v>22.6765</v>
+        <v>22.3119</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.2406</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.8232</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6925</v>
+        <v>14.9063</v>
       </c>
       <c r="C9" t="n">
-        <v>19.7094</v>
+        <v>19.7109</v>
       </c>
       <c r="D9" t="n">
-        <v>28.9206</v>
+        <v>28.5642</v>
       </c>
       <c r="E9" t="n">
-        <v>26.0699</v>
+        <v>25.6895</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20.7849</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.2357</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.044</v>
+        <v>14.3156</v>
       </c>
       <c r="C10" t="n">
-        <v>18.2747</v>
+        <v>18.5301</v>
       </c>
       <c r="D10" t="n">
-        <v>26.7629</v>
+        <v>26.3442</v>
       </c>
       <c r="E10" t="n">
-        <v>24.0555</v>
+        <v>23.6894</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19.7274</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22.8406</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8223</v>
+        <v>14.0442</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9601</v>
+        <v>18.0884</v>
       </c>
       <c r="D11" t="n">
-        <v>26.4261</v>
+        <v>26.2717</v>
       </c>
       <c r="E11" t="n">
-        <v>24.0692</v>
+        <v>23.815</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.0571</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.2226</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0736</v>
+        <v>14.3491</v>
       </c>
       <c r="C12" t="n">
-        <v>18.607</v>
+        <v>18.311</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7146</v>
+        <v>26.5844</v>
       </c>
       <c r="E12" t="n">
-        <v>24.3923</v>
+        <v>23.6986</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19.0209</v>
+      </c>
+      <c r="G12" t="n">
+        <v>22.2574</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.1424</v>
+        <v>14.5094</v>
       </c>
       <c r="C13" t="n">
-        <v>18.6099</v>
+        <v>18.5038</v>
       </c>
       <c r="D13" t="n">
-        <v>26.8041</v>
+        <v>26.91</v>
       </c>
       <c r="E13" t="n">
-        <v>24.5802</v>
+        <v>24.4783</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18.4477</v>
+      </c>
+      <c r="G13" t="n">
+        <v>21.346</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8083</v>
+        <v>13.9883</v>
       </c>
       <c r="C14" t="n">
-        <v>18.8082</v>
+        <v>18.6515</v>
       </c>
       <c r="D14" t="n">
-        <v>26.2297</v>
+        <v>25.8011</v>
       </c>
       <c r="E14" t="n">
-        <v>23.6941</v>
+        <v>23.2913</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17.7527</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20.1503</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.1305</v>
+        <v>14.5827</v>
       </c>
       <c r="C15" t="n">
-        <v>18.673</v>
+        <v>18.822</v>
       </c>
       <c r="D15" t="n">
-        <v>26.8838</v>
+        <v>26.7609</v>
       </c>
       <c r="E15" t="n">
-        <v>24.3198</v>
+        <v>24.1803</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17.7287</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.8329</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9842</v>
+        <v>14.5701</v>
       </c>
       <c r="C16" t="n">
-        <v>19.0209</v>
+        <v>18.887</v>
       </c>
       <c r="D16" t="n">
-        <v>26.6433</v>
+        <v>26.749</v>
       </c>
       <c r="E16" t="n">
-        <v>24.129</v>
+        <v>23.909</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17.3415</v>
+      </c>
+      <c r="G16" t="n">
+        <v>19.3683</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9196</v>
+        <v>14.3331</v>
       </c>
       <c r="C17" t="n">
-        <v>19.2182</v>
+        <v>19.0822</v>
       </c>
       <c r="D17" t="n">
-        <v>26.4538</v>
+        <v>26.7182</v>
       </c>
       <c r="E17" t="n">
-        <v>23.9624</v>
+        <v>23.4734</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17.2934</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19.1077</v>
       </c>
     </row>
   </sheetData>
@@ -6030,10 +8224,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6062,22 +8256,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.17184</v>
+        <v>3.97777</v>
       </c>
       <c r="C2" t="n">
-        <v>7.58588</v>
+        <v>7.3606</v>
       </c>
       <c r="D2" t="n">
-        <v>8.72911</v>
+        <v>8.356439999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.61819</v>
+        <v>5.75289</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.00832</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.63177</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.20029</v>
+        <v>6.15561</v>
       </c>
       <c r="C3" t="n">
-        <v>8.613810000000001</v>
+        <v>8.44622</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5472</v>
+        <v>12.2608</v>
       </c>
       <c r="E3" t="n">
-        <v>9.415469999999999</v>
+        <v>9.74939</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.23612</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.593</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.226190000000001</v>
+        <v>8.230549999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>10.8399</v>
+        <v>10.7551</v>
       </c>
       <c r="D4" t="n">
-        <v>16.7894</v>
+        <v>16.4774</v>
       </c>
       <c r="E4" t="n">
-        <v>13.4052</v>
+        <v>13.8275</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.6176</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.8211</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1349</v>
+        <v>10.0702</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0904</v>
+        <v>13.1929</v>
       </c>
       <c r="D5" t="n">
-        <v>20.779</v>
+        <v>20.4179</v>
       </c>
       <c r="E5" t="n">
-        <v>17.1858</v>
+        <v>17.6924</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15.5229</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.4952</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7949</v>
+        <v>11.9915</v>
       </c>
       <c r="C6" t="n">
-        <v>15.4862</v>
+        <v>15.7377</v>
       </c>
       <c r="D6" t="n">
-        <v>24.7124</v>
+        <v>24.354</v>
       </c>
       <c r="E6" t="n">
-        <v>20.9666</v>
+        <v>21.6115</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.2458</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.4981</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6831</v>
+        <v>13.8702</v>
       </c>
       <c r="C7" t="n">
-        <v>18.02</v>
+        <v>18.2966</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7193</v>
+        <v>28.1869</v>
       </c>
       <c r="E7" t="n">
-        <v>24.6836</v>
+        <v>25.4283</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.2384</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25.5585</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6898</v>
+        <v>15.5577</v>
       </c>
       <c r="C8" t="n">
-        <v>20.7518</v>
+        <v>21.2528</v>
       </c>
       <c r="D8" t="n">
-        <v>32.7881</v>
+        <v>32.0832</v>
       </c>
       <c r="E8" t="n">
-        <v>28.4115</v>
+        <v>29.1406</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.6956</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28.502</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.64</v>
+        <v>18.1697</v>
       </c>
       <c r="C9" t="n">
-        <v>24.0856</v>
+        <v>24.8522</v>
       </c>
       <c r="D9" t="n">
-        <v>38.7314</v>
+        <v>38.3861</v>
       </c>
       <c r="E9" t="n">
-        <v>32.686</v>
+        <v>33.56</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.7987</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31.4741</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1223</v>
+        <v>17.4365</v>
       </c>
       <c r="C10" t="n">
-        <v>22.5572</v>
+        <v>22.826</v>
       </c>
       <c r="D10" t="n">
-        <v>35.3295</v>
+        <v>35.2424</v>
       </c>
       <c r="E10" t="n">
-        <v>31.0107</v>
+        <v>31.1563</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24.4624</v>
+      </c>
+      <c r="G10" t="n">
+        <v>29.8554</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9169</v>
+        <v>17.1571</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5579</v>
+        <v>22.6768</v>
       </c>
       <c r="D11" t="n">
-        <v>35.2201</v>
+        <v>35.1214</v>
       </c>
       <c r="E11" t="n">
-        <v>30.4655</v>
+        <v>30.5754</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.2584</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.6719</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2146</v>
+        <v>17.302</v>
       </c>
       <c r="C12" t="n">
-        <v>22.4518</v>
+        <v>23.3142</v>
       </c>
       <c r="D12" t="n">
-        <v>35.723</v>
+        <v>34.9306</v>
       </c>
       <c r="E12" t="n">
-        <v>31.2559</v>
+        <v>31.1112</v>
+      </c>
+      <c r="F12" t="n">
+        <v>22.4771</v>
+      </c>
+      <c r="G12" t="n">
+        <v>28.0071</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.3968</v>
+        <v>17.6907</v>
       </c>
       <c r="C13" t="n">
-        <v>22.4115</v>
+        <v>23.2818</v>
       </c>
       <c r="D13" t="n">
-        <v>35.6573</v>
+        <v>35.3656</v>
       </c>
       <c r="E13" t="n">
-        <v>30.9902</v>
+        <v>31.0582</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21.8626</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25.7391</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.6001</v>
+        <v>17.0614</v>
       </c>
       <c r="C14" t="n">
-        <v>23.1394</v>
+        <v>23.3104</v>
       </c>
       <c r="D14" t="n">
-        <v>34.6093</v>
+        <v>34.0385</v>
       </c>
       <c r="E14" t="n">
-        <v>29.6669</v>
+        <v>30.1074</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21.2074</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24.6241</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.9611</v>
+        <v>17.6791</v>
       </c>
       <c r="C15" t="n">
-        <v>23.1509</v>
+        <v>23.5894</v>
       </c>
       <c r="D15" t="n">
-        <v>34.6879</v>
+        <v>34.288</v>
       </c>
       <c r="E15" t="n">
-        <v>30.8793</v>
+        <v>30.4867</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21.0061</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24.6552</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.2485</v>
+        <v>17.6937</v>
       </c>
       <c r="C16" t="n">
-        <v>22.8214</v>
+        <v>23.6489</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5874</v>
+        <v>34.1653</v>
       </c>
       <c r="E16" t="n">
-        <v>29.9175</v>
+        <v>30.2326</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20.2491</v>
+      </c>
+      <c r="G16" t="n">
+        <v>24.7207</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.7935</v>
+        <v>17.4422</v>
       </c>
       <c r="C17" t="n">
-        <v>23.1839</v>
+        <v>23.9502</v>
       </c>
       <c r="D17" t="n">
-        <v>34.0706</v>
+        <v>34.2802</v>
       </c>
       <c r="E17" t="n">
-        <v>30.4318</v>
+        <v>30.6395</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20.3706</v>
+      </c>
+      <c r="G17" t="n">
+        <v>22.9488</v>
       </c>
     </row>
   </sheetData>
@@ -6347,10 +8647,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6379,22 +8679,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.54511</v>
+        <v>5.38399</v>
       </c>
       <c r="C2" t="n">
-        <v>6.09612</v>
+        <v>5.89229</v>
       </c>
       <c r="D2" t="n">
-        <v>6.7725</v>
+        <v>6.59751</v>
       </c>
       <c r="E2" t="n">
-        <v>4.89043</v>
+        <v>4.71802</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.13426</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.17371</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.92109</v>
+        <v>6.96847</v>
       </c>
       <c r="C3" t="n">
-        <v>7.29241</v>
+        <v>7.22984</v>
       </c>
       <c r="D3" t="n">
-        <v>9.99239</v>
+        <v>9.855969999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.149699999999999</v>
+        <v>7.99774</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.22884</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.0519</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.69599</v>
+        <v>8.94764</v>
       </c>
       <c r="C4" t="n">
-        <v>9.21054</v>
+        <v>9.382569999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.758</v>
+        <v>13.5957</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6649</v>
+        <v>11.4372</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.5842</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.2147</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1259</v>
+        <v>10.9181</v>
       </c>
       <c r="C5" t="n">
-        <v>11.1625</v>
+        <v>11.5589</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4679</v>
+        <v>17.3</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0272</v>
+        <v>14.8652</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15.8186</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.3439</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.2745</v>
+        <v>12.9549</v>
       </c>
       <c r="C6" t="n">
-        <v>13.4822</v>
+        <v>13.8417</v>
       </c>
       <c r="D6" t="n">
-        <v>21.2753</v>
+        <v>21.0096</v>
       </c>
       <c r="E6" t="n">
-        <v>18.6034</v>
+        <v>18.2641</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.037</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.356</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1354</v>
+        <v>14.9917</v>
       </c>
       <c r="C7" t="n">
-        <v>15.4339</v>
+        <v>16.1682</v>
       </c>
       <c r="D7" t="n">
-        <v>25.1642</v>
+        <v>24.7779</v>
       </c>
       <c r="E7" t="n">
-        <v>22.159</v>
+        <v>21.6211</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.1728</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27.176</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3889</v>
+        <v>17.2163</v>
       </c>
       <c r="C8" t="n">
-        <v>17.172</v>
+        <v>18.6242</v>
       </c>
       <c r="D8" t="n">
-        <v>29.1918</v>
+        <v>28.536</v>
       </c>
       <c r="E8" t="n">
-        <v>25.6466</v>
+        <v>25.0091</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.3541</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30.8815</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9218</v>
+        <v>20.2514</v>
       </c>
       <c r="C9" t="n">
-        <v>19.213</v>
+        <v>21.4757</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3006</v>
+        <v>33.294</v>
       </c>
       <c r="E9" t="n">
-        <v>28.8654</v>
+        <v>28.8437</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29.311</v>
+      </c>
+      <c r="G9" t="n">
+        <v>35.453</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8202</v>
+        <v>19.3193</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1408</v>
+        <v>20.06</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0275</v>
+        <v>30.4298</v>
       </c>
       <c r="E10" t="n">
-        <v>27.1463</v>
+        <v>26.5465</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.4452</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32.9366</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7767</v>
+        <v>19.1885</v>
       </c>
       <c r="C11" t="n">
-        <v>19.095</v>
+        <v>20.0798</v>
       </c>
       <c r="D11" t="n">
-        <v>30.7525</v>
+        <v>30.3341</v>
       </c>
       <c r="E11" t="n">
-        <v>26.7221</v>
+        <v>26.2735</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27.0384</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32.0443</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6539</v>
+        <v>19.1759</v>
       </c>
       <c r="C12" t="n">
-        <v>19.0014</v>
+        <v>20.2419</v>
       </c>
       <c r="D12" t="n">
-        <v>30.8892</v>
+        <v>30.7274</v>
       </c>
       <c r="E12" t="n">
-        <v>27.4074</v>
+        <v>26.8285</v>
+      </c>
+      <c r="F12" t="n">
+        <v>26.6904</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32.306</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1136</v>
+        <v>19.4878</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9931</v>
+        <v>20.5075</v>
       </c>
       <c r="D13" t="n">
-        <v>31.6325</v>
+        <v>31.394</v>
       </c>
       <c r="E13" t="n">
-        <v>27.5065</v>
+        <v>27.1512</v>
+      </c>
+      <c r="F13" t="n">
+        <v>27.2781</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32.1745</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.443</v>
+        <v>18.7349</v>
       </c>
       <c r="C14" t="n">
-        <v>19.1528</v>
+        <v>20.3531</v>
       </c>
       <c r="D14" t="n">
-        <v>30.6484</v>
+        <v>30.3918</v>
       </c>
       <c r="E14" t="n">
-        <v>26.4231</v>
+        <v>26.3762</v>
+      </c>
+      <c r="F14" t="n">
+        <v>26.3625</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30.5511</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6037</v>
+        <v>19.5322</v>
       </c>
       <c r="C15" t="n">
-        <v>19.4388</v>
+        <v>20.6381</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4255</v>
+        <v>31.3075</v>
       </c>
       <c r="E15" t="n">
-        <v>27.172</v>
+        <v>27.0809</v>
+      </c>
+      <c r="F15" t="n">
+        <v>26.3127</v>
+      </c>
+      <c r="G15" t="n">
+        <v>31.1314</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8207</v>
+        <v>19.3525</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4449</v>
+        <v>20.8365</v>
       </c>
       <c r="D16" t="n">
-        <v>31.1098</v>
+        <v>31.2836</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9803</v>
+        <v>26.7632</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26.3156</v>
+      </c>
+      <c r="G16" t="n">
+        <v>31.4509</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.725</v>
+        <v>19.3739</v>
       </c>
       <c r="C17" t="n">
-        <v>19.3955</v>
+        <v>21.0653</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3335</v>
+        <v>30.9686</v>
       </c>
       <c r="E17" t="n">
-        <v>27.0379</v>
+        <v>27.0116</v>
+      </c>
+      <c r="F17" t="n">
+        <v>25.8996</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30.5235</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -6580,22 +6580,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26187</v>
+        <v>5.2264</v>
       </c>
       <c r="C2" t="n">
-        <v>5.07595</v>
+        <v>5.0712</v>
       </c>
       <c r="D2" t="n">
-        <v>6.02896</v>
+        <v>6.02243</v>
       </c>
       <c r="E2" t="n">
-        <v>4.33374</v>
+        <v>4.33259</v>
       </c>
       <c r="F2" t="n">
-        <v>5.71399</v>
+        <v>5.70703</v>
       </c>
       <c r="G2" t="n">
-        <v>6.30925</v>
+        <v>6.31198</v>
       </c>
     </row>
     <row r="3">
@@ -6603,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.3148</v>
+        <v>6.30744</v>
       </c>
       <c r="C3" t="n">
-        <v>6.37192</v>
+        <v>6.3551</v>
       </c>
       <c r="D3" t="n">
-        <v>8.95626</v>
+        <v>8.965540000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>7.25247</v>
+        <v>7.24934</v>
       </c>
       <c r="F3" t="n">
-        <v>8.21067</v>
+        <v>8.211650000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>9.308770000000001</v>
+        <v>9.32122</v>
       </c>
     </row>
     <row r="4">
@@ -6626,22 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.83517</v>
+        <v>7.83367</v>
       </c>
       <c r="C4" t="n">
-        <v>8.32405</v>
+        <v>8.32084</v>
       </c>
       <c r="D4" t="n">
-        <v>12.239</v>
+        <v>12.2163</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3471</v>
+        <v>10.3662</v>
       </c>
       <c r="F4" t="n">
-        <v>10.9713</v>
+        <v>10.9612</v>
       </c>
       <c r="G4" t="n">
-        <v>12.6871</v>
+        <v>12.6835</v>
       </c>
     </row>
     <row r="5">
@@ -6649,22 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.30523</v>
+        <v>9.315329999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5319</v>
+        <v>10.5333</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4307</v>
+        <v>15.3858</v>
       </c>
       <c r="E5" t="n">
-        <v>13.3941</v>
+        <v>13.3963</v>
       </c>
       <c r="F5" t="n">
-        <v>13.4777</v>
+        <v>13.5836</v>
       </c>
       <c r="G5" t="n">
-        <v>15.9116</v>
+        <v>15.915</v>
       </c>
     </row>
     <row r="6">
@@ -6672,22 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9102</v>
+        <v>10.9242</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5948</v>
+        <v>12.6183</v>
       </c>
       <c r="D6" t="n">
-        <v>18.3428</v>
+        <v>18.4201</v>
       </c>
       <c r="E6" t="n">
-        <v>16.2776</v>
+        <v>16.3223</v>
       </c>
       <c r="F6" t="n">
-        <v>15.9236</v>
+        <v>15.9137</v>
       </c>
       <c r="G6" t="n">
-        <v>18.8884</v>
+        <v>18.8209</v>
       </c>
     </row>
     <row r="7">
@@ -6695,22 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6524</v>
+        <v>12.6693</v>
       </c>
       <c r="C7" t="n">
-        <v>14.9653</v>
+        <v>14.9509</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5536</v>
+        <v>21.6227</v>
       </c>
       <c r="E7" t="n">
-        <v>19.31</v>
+        <v>19.2263</v>
       </c>
       <c r="F7" t="n">
-        <v>18.2299</v>
+        <v>18.2071</v>
       </c>
       <c r="G7" t="n">
-        <v>21.4619</v>
+        <v>21.5038</v>
       </c>
     </row>
     <row r="8">
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.012</v>
+        <v>14.0012</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2722</v>
+        <v>17.1995</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2914</v>
+        <v>24.2671</v>
       </c>
       <c r="E8" t="n">
-        <v>22.1304</v>
+        <v>22.1242</v>
       </c>
       <c r="F8" t="n">
-        <v>20.3739</v>
+        <v>20.576</v>
       </c>
       <c r="G8" t="n">
-        <v>24.363</v>
+        <v>24.3773</v>
       </c>
     </row>
     <row r="9">
@@ -6741,22 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5099</v>
+        <v>16.5061</v>
       </c>
       <c r="C9" t="n">
-        <v>19.9485</v>
+        <v>20.0052</v>
       </c>
       <c r="D9" t="n">
-        <v>28.463</v>
+        <v>28.1697</v>
       </c>
       <c r="E9" t="n">
-        <v>25.2267</v>
+        <v>25.0818</v>
       </c>
       <c r="F9" t="n">
-        <v>23.7962</v>
+        <v>23.6497</v>
       </c>
       <c r="G9" t="n">
-        <v>26.3428</v>
+        <v>26.9579</v>
       </c>
     </row>
     <row r="10">
@@ -6764,22 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8746</v>
+        <v>14.0898</v>
       </c>
       <c r="C10" t="n">
-        <v>16.9418</v>
+        <v>16.5989</v>
       </c>
       <c r="D10" t="n">
-        <v>23.646</v>
+        <v>22.8391</v>
       </c>
       <c r="E10" t="n">
-        <v>19.7349</v>
+        <v>20.0567</v>
       </c>
       <c r="F10" t="n">
-        <v>19.6598</v>
+        <v>19.3396</v>
       </c>
       <c r="G10" t="n">
-        <v>22.3223</v>
+        <v>21.9267</v>
       </c>
     </row>
     <row r="11">
@@ -6787,22 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.101</v>
+        <v>14.0564</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9069</v>
+        <v>16.9362</v>
       </c>
       <c r="D11" t="n">
-        <v>23.6511</v>
+        <v>23.6022</v>
       </c>
       <c r="E11" t="n">
-        <v>20.5297</v>
+        <v>20.6755</v>
       </c>
       <c r="F11" t="n">
-        <v>19.6331</v>
+        <v>19.9753</v>
       </c>
       <c r="G11" t="n">
-        <v>23.0099</v>
+        <v>22.9483</v>
       </c>
     </row>
     <row r="12">
@@ -6810,22 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6267</v>
+        <v>14.6512</v>
       </c>
       <c r="C12" t="n">
-        <v>17.64</v>
+        <v>17.7184</v>
       </c>
       <c r="D12" t="n">
-        <v>25.0245</v>
+        <v>25.1243</v>
       </c>
       <c r="E12" t="n">
-        <v>22.3105</v>
+        <v>21.7419</v>
       </c>
       <c r="F12" t="n">
-        <v>20.5101</v>
+        <v>20.6389</v>
       </c>
       <c r="G12" t="n">
-        <v>23.9072</v>
+        <v>23.5491</v>
       </c>
     </row>
     <row r="13">
@@ -6833,22 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.099</v>
+        <v>15.0793</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2994</v>
+        <v>18.4709</v>
       </c>
       <c r="D13" t="n">
-        <v>25.3563</v>
+        <v>25.7614</v>
       </c>
       <c r="E13" t="n">
-        <v>22.0865</v>
+        <v>22.3842</v>
       </c>
       <c r="F13" t="n">
-        <v>21.0996</v>
+        <v>20.883</v>
       </c>
       <c r="G13" t="n">
-        <v>23.4364</v>
+        <v>23.9088</v>
       </c>
     </row>
     <row r="14">
@@ -6856,22 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.934</v>
+        <v>14.9674</v>
       </c>
       <c r="C14" t="n">
-        <v>18.2728</v>
+        <v>18.5388</v>
       </c>
       <c r="D14" t="n">
-        <v>24.775</v>
+        <v>24.5353</v>
       </c>
       <c r="E14" t="n">
-        <v>21.7503</v>
+        <v>22.444</v>
       </c>
       <c r="F14" t="n">
-        <v>20.1559</v>
+        <v>20.0869</v>
       </c>
       <c r="G14" t="n">
-        <v>22.8104</v>
+        <v>22.1437</v>
       </c>
     </row>
     <row r="15">
@@ -6879,22 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1891</v>
+        <v>15.2847</v>
       </c>
       <c r="C15" t="n">
-        <v>18.5093</v>
+        <v>18.7218</v>
       </c>
       <c r="D15" t="n">
-        <v>24.5448</v>
+        <v>25.5406</v>
       </c>
       <c r="E15" t="n">
-        <v>21.4377</v>
+        <v>21.9727</v>
       </c>
       <c r="F15" t="n">
-        <v>20.4672</v>
+        <v>19.4805</v>
       </c>
       <c r="G15" t="n">
-        <v>22.6271</v>
+        <v>22.408</v>
       </c>
     </row>
     <row r="16">
@@ -6902,22 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3258</v>
+        <v>15.5059</v>
       </c>
       <c r="C16" t="n">
-        <v>18.8945</v>
+        <v>18.9034</v>
       </c>
       <c r="D16" t="n">
-        <v>24.8715</v>
+        <v>25.066</v>
       </c>
       <c r="E16" t="n">
-        <v>21.3323</v>
+        <v>21.9449</v>
       </c>
       <c r="F16" t="n">
-        <v>20.4782</v>
+        <v>20.3199</v>
       </c>
       <c r="G16" t="n">
-        <v>21.948</v>
+        <v>21.579</v>
       </c>
     </row>
     <row r="17">
@@ -6925,22 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4255</v>
+        <v>15.582</v>
       </c>
       <c r="C17" t="n">
-        <v>19.2294</v>
+        <v>19.0435</v>
       </c>
       <c r="D17" t="n">
-        <v>25.6302</v>
+        <v>25.3989</v>
       </c>
       <c r="E17" t="n">
-        <v>22.5048</v>
+        <v>22.3284</v>
       </c>
       <c r="F17" t="n">
-        <v>20.2811</v>
+        <v>19.7082</v>
       </c>
       <c r="G17" t="n">
-        <v>21.5222</v>
+        <v>21.9641</v>
       </c>
     </row>
   </sheetData>
@@ -7003,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.743180000000001</v>
+        <v>8.721299999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>8.74174</v>
+        <v>8.71425</v>
       </c>
       <c r="D2" t="n">
-        <v>10.6288</v>
+        <v>10.6117</v>
       </c>
       <c r="E2" t="n">
-        <v>6.35696</v>
+        <v>6.35329</v>
       </c>
       <c r="F2" t="n">
-        <v>9.716469999999999</v>
+        <v>9.73221</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6189</v>
+        <v>11.6885</v>
       </c>
     </row>
     <row r="3">
@@ -7026,22 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.45777</v>
+        <v>8.42202</v>
       </c>
       <c r="C3" t="n">
-        <v>8.70753</v>
+        <v>8.708959999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9933</v>
+        <v>12.9653</v>
       </c>
       <c r="E3" t="n">
-        <v>9.82329</v>
+        <v>9.802049999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>11.5539</v>
+        <v>11.57</v>
       </c>
       <c r="G3" t="n">
-        <v>13.9348</v>
+        <v>13.9472</v>
       </c>
     </row>
     <row r="4">
@@ -7049,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3086</v>
+        <v>10.2078</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1567</v>
+        <v>11.0228</v>
       </c>
       <c r="D4" t="n">
-        <v>17.1525</v>
+        <v>17.0344</v>
       </c>
       <c r="E4" t="n">
-        <v>13.8632</v>
+        <v>13.8021</v>
       </c>
       <c r="F4" t="n">
-        <v>14.9685</v>
+        <v>14.9012</v>
       </c>
       <c r="G4" t="n">
-        <v>18.4027</v>
+        <v>18.3197</v>
       </c>
     </row>
     <row r="5">
@@ -7072,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1045</v>
+        <v>12.0446</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5475</v>
+        <v>13.5697</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0323</v>
+        <v>21.0538</v>
       </c>
       <c r="E5" t="n">
-        <v>17.621</v>
+        <v>17.6718</v>
       </c>
       <c r="F5" t="n">
-        <v>18.0099</v>
+        <v>17.9778</v>
       </c>
       <c r="G5" t="n">
-        <v>22.1727</v>
+        <v>22.3647</v>
       </c>
     </row>
     <row r="6">
@@ -7095,22 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.1262</v>
+        <v>14.03</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2476</v>
+        <v>16.2301</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0009</v>
+        <v>24.8393</v>
       </c>
       <c r="E6" t="n">
-        <v>21.4644</v>
+        <v>21.3851</v>
       </c>
       <c r="F6" t="n">
-        <v>20.8068</v>
+        <v>20.7327</v>
       </c>
       <c r="G6" t="n">
-        <v>25.9875</v>
+        <v>26.0694</v>
       </c>
     </row>
     <row r="7">
@@ -7118,22 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.132</v>
+        <v>15.8577</v>
       </c>
       <c r="C7" t="n">
-        <v>19.1951</v>
+        <v>19.1813</v>
       </c>
       <c r="D7" t="n">
-        <v>29.1591</v>
+        <v>28.7033</v>
       </c>
       <c r="E7" t="n">
-        <v>25.1903</v>
+        <v>24.9537</v>
       </c>
       <c r="F7" t="n">
-        <v>23.6936</v>
+        <v>23.473</v>
       </c>
       <c r="G7" t="n">
-        <v>29.5675</v>
+        <v>28.8523</v>
       </c>
     </row>
     <row r="8">
@@ -7141,22 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.819</v>
+        <v>17.8599</v>
       </c>
       <c r="C8" t="n">
-        <v>21.8146</v>
+        <v>21.8785</v>
       </c>
       <c r="D8" t="n">
-        <v>32.2846</v>
+        <v>32.3115</v>
       </c>
       <c r="E8" t="n">
-        <v>28.7735</v>
+        <v>28.6532</v>
       </c>
       <c r="F8" t="n">
-        <v>26.1825</v>
+        <v>26.2821</v>
       </c>
       <c r="G8" t="n">
-        <v>32.7633</v>
+        <v>32.6938</v>
       </c>
     </row>
     <row r="9">
@@ -7164,22 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9227</v>
+        <v>20.9689</v>
       </c>
       <c r="C9" t="n">
-        <v>25.3839</v>
+        <v>25.3515</v>
       </c>
       <c r="D9" t="n">
-        <v>37.5131</v>
+        <v>37.6855</v>
       </c>
       <c r="E9" t="n">
-        <v>32.4673</v>
+        <v>32.4405</v>
       </c>
       <c r="F9" t="n">
-        <v>30.0102</v>
+        <v>30.3168</v>
       </c>
       <c r="G9" t="n">
-        <v>36.2791</v>
+        <v>36.6227</v>
       </c>
     </row>
     <row r="10">
@@ -7187,22 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.109</v>
+        <v>18.3985</v>
       </c>
       <c r="C10" t="n">
-        <v>22.1783</v>
+        <v>22.0157</v>
       </c>
       <c r="D10" t="n">
-        <v>32.7382</v>
+        <v>32.5413</v>
       </c>
       <c r="E10" t="n">
-        <v>26.2467</v>
+        <v>26.0731</v>
       </c>
       <c r="F10" t="n">
-        <v>26.0605</v>
+        <v>26.2425</v>
       </c>
       <c r="G10" t="n">
-        <v>30.597</v>
+        <v>31.1729</v>
       </c>
     </row>
     <row r="11">
@@ -7210,22 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8149</v>
+        <v>17.8479</v>
       </c>
       <c r="C11" t="n">
-        <v>21.7634</v>
+        <v>21.6084</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6672</v>
+        <v>31.6551</v>
       </c>
       <c r="E11" t="n">
-        <v>27.5362</v>
+        <v>27.3178</v>
       </c>
       <c r="F11" t="n">
-        <v>25.291</v>
+        <v>26.0151</v>
       </c>
       <c r="G11" t="n">
-        <v>30.0113</v>
+        <v>30.0327</v>
       </c>
     </row>
     <row r="12">
@@ -7233,22 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4908</v>
+        <v>18.5789</v>
       </c>
       <c r="C12" t="n">
-        <v>22.3926</v>
+        <v>22.2469</v>
       </c>
       <c r="D12" t="n">
-        <v>33.3398</v>
+        <v>32.2249</v>
       </c>
       <c r="E12" t="n">
-        <v>28.2395</v>
+        <v>29.0149</v>
       </c>
       <c r="F12" t="n">
-        <v>26.6058</v>
+        <v>26.9787</v>
       </c>
       <c r="G12" t="n">
-        <v>30.1428</v>
+        <v>30.9335</v>
       </c>
     </row>
     <row r="13">
@@ -7256,22 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.3521</v>
+        <v>18.9883</v>
       </c>
       <c r="C13" t="n">
-        <v>22.8221</v>
+        <v>22.8114</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1788</v>
+        <v>33.8759</v>
       </c>
       <c r="E13" t="n">
-        <v>28.3672</v>
+        <v>29.0992</v>
       </c>
       <c r="F13" t="n">
-        <v>26.197</v>
+        <v>26.8296</v>
       </c>
       <c r="G13" t="n">
-        <v>30.8571</v>
+        <v>30.9233</v>
       </c>
     </row>
     <row r="14">
@@ -7279,22 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7877</v>
+        <v>18.828</v>
       </c>
       <c r="C14" t="n">
-        <v>23.314</v>
+        <v>23.1815</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0954</v>
+        <v>31.3625</v>
       </c>
       <c r="E14" t="n">
-        <v>28.7283</v>
+        <v>27.1382</v>
       </c>
       <c r="F14" t="n">
-        <v>26.0097</v>
+        <v>25.8536</v>
       </c>
       <c r="G14" t="n">
-        <v>30.6003</v>
+        <v>29.4514</v>
       </c>
     </row>
     <row r="15">
@@ -7302,22 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7963</v>
+        <v>18.9178</v>
       </c>
       <c r="C15" t="n">
-        <v>23.4111</v>
+        <v>23.0074</v>
       </c>
       <c r="D15" t="n">
-        <v>32.7851</v>
+        <v>32.5605</v>
       </c>
       <c r="E15" t="n">
-        <v>27.6063</v>
+        <v>28.6039</v>
       </c>
       <c r="F15" t="n">
-        <v>25.8806</v>
+        <v>25.356</v>
       </c>
       <c r="G15" t="n">
-        <v>29.878</v>
+        <v>26.9591</v>
       </c>
     </row>
     <row r="16">
@@ -7325,22 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.4655</v>
+        <v>19.3267</v>
       </c>
       <c r="C16" t="n">
-        <v>23.7008</v>
+        <v>23.8602</v>
       </c>
       <c r="D16" t="n">
-        <v>33.0312</v>
+        <v>32.69</v>
       </c>
       <c r="E16" t="n">
-        <v>27.7391</v>
+        <v>27.713</v>
       </c>
       <c r="F16" t="n">
-        <v>25.2651</v>
+        <v>25.2563</v>
       </c>
       <c r="G16" t="n">
-        <v>29.4492</v>
+        <v>29.7906</v>
       </c>
     </row>
     <row r="17">
@@ -7348,22 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3406</v>
+        <v>19.0884</v>
       </c>
       <c r="C17" t="n">
-        <v>24.1443</v>
+        <v>24.3428</v>
       </c>
       <c r="D17" t="n">
-        <v>32.5967</v>
+        <v>33.0283</v>
       </c>
       <c r="E17" t="n">
-        <v>28.5094</v>
+        <v>27.9561</v>
       </c>
       <c r="F17" t="n">
-        <v>24.4859</v>
+        <v>24.1523</v>
       </c>
       <c r="G17" t="n">
-        <v>28.7601</v>
+        <v>27.0854</v>
       </c>
     </row>
   </sheetData>
@@ -7426,22 +7426,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.57969</v>
+        <v>6.56437</v>
       </c>
       <c r="C2" t="n">
-        <v>6.10071</v>
+        <v>6.11111</v>
       </c>
       <c r="D2" t="n">
-        <v>6.98939</v>
+        <v>6.99249</v>
       </c>
       <c r="E2" t="n">
-        <v>4.84614</v>
+        <v>4.84749</v>
       </c>
       <c r="F2" t="n">
-        <v>6.77179</v>
+        <v>6.77127</v>
       </c>
       <c r="G2" t="n">
-        <v>7.72346</v>
+        <v>7.70621</v>
       </c>
     </row>
     <row r="3">
@@ -7449,22 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.38506</v>
+        <v>7.25509</v>
       </c>
       <c r="C3" t="n">
-        <v>7.40051</v>
+        <v>7.20219</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0216</v>
+        <v>9.912699999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.01145</v>
+        <v>7.96371</v>
       </c>
       <c r="F3" t="n">
-        <v>9.518380000000001</v>
+        <v>9.422560000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>11.2519</v>
+        <v>11.105</v>
       </c>
     </row>
     <row r="4">
@@ -7472,22 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.13134</v>
+        <v>9.10201</v>
       </c>
       <c r="C4" t="n">
-        <v>9.47383</v>
+        <v>9.42493</v>
       </c>
       <c r="D4" t="n">
-        <v>13.619</v>
+        <v>13.5682</v>
       </c>
       <c r="E4" t="n">
-        <v>11.425</v>
+        <v>11.4067</v>
       </c>
       <c r="F4" t="n">
-        <v>12.8011</v>
+        <v>12.7836</v>
       </c>
       <c r="G4" t="n">
-        <v>15.4426</v>
+        <v>15.4383</v>
       </c>
     </row>
     <row r="5">
@@ -7495,22 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0113</v>
+        <v>10.939</v>
       </c>
       <c r="C5" t="n">
-        <v>11.6971</v>
+        <v>11.6863</v>
       </c>
       <c r="D5" t="n">
-        <v>17.2985</v>
+        <v>17.2698</v>
       </c>
       <c r="E5" t="n">
-        <v>14.8389</v>
+        <v>14.8192</v>
       </c>
       <c r="F5" t="n">
-        <v>16.1307</v>
+        <v>16.1326</v>
       </c>
       <c r="G5" t="n">
-        <v>19.6438</v>
+        <v>19.6317</v>
       </c>
     </row>
     <row r="6">
@@ -7518,22 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.0319</v>
+        <v>12.9241</v>
       </c>
       <c r="C6" t="n">
-        <v>14.0056</v>
+        <v>14.0163</v>
       </c>
       <c r="D6" t="n">
-        <v>20.9636</v>
+        <v>20.7355</v>
       </c>
       <c r="E6" t="n">
-        <v>18.1758</v>
+        <v>18.044</v>
       </c>
       <c r="F6" t="n">
-        <v>19.3179</v>
+        <v>19.35</v>
       </c>
       <c r="G6" t="n">
-        <v>23.6031</v>
+        <v>23.6213</v>
       </c>
     </row>
     <row r="7">
@@ -7541,22 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1027</v>
+        <v>15.0976</v>
       </c>
       <c r="C7" t="n">
-        <v>16.4288</v>
+        <v>16.3659</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8395</v>
+        <v>24.7738</v>
       </c>
       <c r="E7" t="n">
-        <v>21.452</v>
+        <v>21.4612</v>
       </c>
       <c r="F7" t="n">
-        <v>22.3229</v>
+        <v>22.5572</v>
       </c>
       <c r="G7" t="n">
-        <v>27.3638</v>
+        <v>27.2857</v>
       </c>
     </row>
     <row r="8">
@@ -7564,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.0525</v>
+        <v>17.0399</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6928</v>
+        <v>18.7113</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0357</v>
+        <v>28.0988</v>
       </c>
       <c r="E8" t="n">
-        <v>24.674</v>
+        <v>24.6847</v>
       </c>
       <c r="F8" t="n">
-        <v>25.4313</v>
+        <v>25.4755</v>
       </c>
       <c r="G8" t="n">
-        <v>30.9542</v>
+        <v>30.9874</v>
       </c>
     </row>
     <row r="9">
@@ -7587,22 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7206</v>
+        <v>19.7536</v>
       </c>
       <c r="C9" t="n">
-        <v>21.5712</v>
+        <v>21.5335</v>
       </c>
       <c r="D9" t="n">
-        <v>32.6162</v>
+        <v>32.4839</v>
       </c>
       <c r="E9" t="n">
-        <v>28.2394</v>
+        <v>28.3791</v>
       </c>
       <c r="F9" t="n">
-        <v>29.325</v>
+        <v>29.5253</v>
       </c>
       <c r="G9" t="n">
-        <v>34.6416</v>
+        <v>34.9785</v>
       </c>
     </row>
     <row r="10">
@@ -7610,22 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3601</v>
+        <v>17.3067</v>
       </c>
       <c r="C10" t="n">
-        <v>18.4192</v>
+        <v>18.471</v>
       </c>
       <c r="D10" t="n">
-        <v>27.2797</v>
+        <v>27.288</v>
       </c>
       <c r="E10" t="n">
-        <v>22.4164</v>
+        <v>22.1945</v>
       </c>
       <c r="F10" t="n">
-        <v>24.2826</v>
+        <v>24.4937</v>
       </c>
       <c r="G10" t="n">
-        <v>28.9013</v>
+        <v>29.4319</v>
       </c>
     </row>
     <row r="11">
@@ -7633,22 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9586</v>
+        <v>16.7265</v>
       </c>
       <c r="C11" t="n">
-        <v>18.4518</v>
+        <v>18.5053</v>
       </c>
       <c r="D11" t="n">
-        <v>27.0831</v>
+        <v>27.244</v>
       </c>
       <c r="E11" t="n">
-        <v>23.1921</v>
+        <v>23.2446</v>
       </c>
       <c r="F11" t="n">
-        <v>25.0222</v>
+        <v>24.5299</v>
       </c>
       <c r="G11" t="n">
-        <v>29.7014</v>
+        <v>28.9136</v>
       </c>
     </row>
     <row r="12">
@@ -7656,22 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6176</v>
+        <v>17.641</v>
       </c>
       <c r="C12" t="n">
-        <v>19.297</v>
+        <v>19.2861</v>
       </c>
       <c r="D12" t="n">
-        <v>27.9723</v>
+        <v>28.4171</v>
       </c>
       <c r="E12" t="n">
-        <v>24.36</v>
+        <v>24.0717</v>
       </c>
       <c r="F12" t="n">
-        <v>25.9993</v>
+        <v>26.3354</v>
       </c>
       <c r="G12" t="n">
-        <v>29.9885</v>
+        <v>28.8628</v>
       </c>
     </row>
     <row r="13">
@@ -7679,22 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3705</v>
+        <v>18.5371</v>
       </c>
       <c r="C13" t="n">
-        <v>19.611</v>
+        <v>19.8795</v>
       </c>
       <c r="D13" t="n">
-        <v>29.592</v>
+        <v>28.4739</v>
       </c>
       <c r="E13" t="n">
-        <v>24.5858</v>
+        <v>25.2923</v>
       </c>
       <c r="F13" t="n">
-        <v>26.55</v>
+        <v>27.1511</v>
       </c>
       <c r="G13" t="n">
-        <v>29.8571</v>
+        <v>30.6658</v>
       </c>
     </row>
     <row r="14">
@@ -7702,22 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.9282</v>
+        <v>17.8677</v>
       </c>
       <c r="C14" t="n">
-        <v>19.8371</v>
+        <v>19.7796</v>
       </c>
       <c r="D14" t="n">
-        <v>27.7108</v>
+        <v>27.9288</v>
       </c>
       <c r="E14" t="n">
-        <v>24.6315</v>
+        <v>24.3203</v>
       </c>
       <c r="F14" t="n">
-        <v>25.901</v>
+        <v>25.6366</v>
       </c>
       <c r="G14" t="n">
-        <v>29.6531</v>
+        <v>29.5398</v>
       </c>
     </row>
     <row r="15">
@@ -7725,22 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.358</v>
+        <v>18.0411</v>
       </c>
       <c r="C15" t="n">
-        <v>20.0271</v>
+        <v>20.0265</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6837</v>
+        <v>27.9746</v>
       </c>
       <c r="E15" t="n">
-        <v>24.4296</v>
+        <v>24.5298</v>
       </c>
       <c r="F15" t="n">
-        <v>25.5026</v>
+        <v>25.234</v>
       </c>
       <c r="G15" t="n">
-        <v>28.3735</v>
+        <v>29.2336</v>
       </c>
     </row>
     <row r="16">
@@ -7748,22 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.5689</v>
+        <v>18.4546</v>
       </c>
       <c r="C16" t="n">
-        <v>20.441</v>
+        <v>20.5294</v>
       </c>
       <c r="D16" t="n">
-        <v>28.1769</v>
+        <v>28.563</v>
       </c>
       <c r="E16" t="n">
-        <v>23.6889</v>
+        <v>24.0753</v>
       </c>
       <c r="F16" t="n">
-        <v>25.4771</v>
+        <v>25.92</v>
       </c>
       <c r="G16" t="n">
-        <v>29.4891</v>
+        <v>29.3038</v>
       </c>
     </row>
     <row r="17">
@@ -7771,22 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0616</v>
+        <v>18.8496</v>
       </c>
       <c r="C17" t="n">
-        <v>20.909</v>
+        <v>20.8914</v>
       </c>
       <c r="D17" t="n">
-        <v>29.1198</v>
+        <v>28.8735</v>
       </c>
       <c r="E17" t="n">
-        <v>24.6629</v>
+        <v>24.4883</v>
       </c>
       <c r="F17" t="n">
-        <v>25.4245</v>
+        <v>25.0584</v>
       </c>
       <c r="G17" t="n">
-        <v>28.2942</v>
+        <v>28.8612</v>
       </c>
     </row>
   </sheetData>
@@ -7849,22 +7849,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.02611</v>
+        <v>3.02126</v>
       </c>
       <c r="C2" t="n">
-        <v>4.53867</v>
+        <v>4.53986</v>
       </c>
       <c r="D2" t="n">
-        <v>5.19255</v>
+        <v>5.19532</v>
       </c>
       <c r="E2" t="n">
-        <v>4.02496</v>
+        <v>4.02492</v>
       </c>
       <c r="F2" t="n">
-        <v>4.2131</v>
+        <v>4.20979</v>
       </c>
       <c r="G2" t="n">
-        <v>4.86272</v>
+        <v>4.85949</v>
       </c>
     </row>
     <row r="3">
@@ -7872,22 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.89956</v>
+        <v>4.87722</v>
       </c>
       <c r="C3" t="n">
-        <v>6.18515</v>
+        <v>6.18788</v>
       </c>
       <c r="D3" t="n">
-        <v>8.53318</v>
+        <v>8.54693</v>
       </c>
       <c r="E3" t="n">
-        <v>7.17458</v>
+        <v>7.17704</v>
       </c>
       <c r="F3" t="n">
-        <v>6.88538</v>
+        <v>6.88464</v>
       </c>
       <c r="G3" t="n">
-        <v>8.059189999999999</v>
+        <v>8.05594</v>
       </c>
     </row>
     <row r="4">
@@ -7895,22 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.60713</v>
+        <v>6.58126</v>
       </c>
       <c r="C4" t="n">
-        <v>8.22339</v>
+        <v>8.2202</v>
       </c>
       <c r="D4" t="n">
-        <v>11.8566</v>
+        <v>11.8296</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3298</v>
+        <v>10.3213</v>
       </c>
       <c r="F4" t="n">
-        <v>9.56643</v>
+        <v>9.57775</v>
       </c>
       <c r="G4" t="n">
-        <v>11.3075</v>
+        <v>11.3185</v>
       </c>
     </row>
     <row r="5">
@@ -7918,22 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.167020000000001</v>
+        <v>8.17506</v>
       </c>
       <c r="C5" t="n">
-        <v>10.2949</v>
+        <v>10.2984</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0168</v>
+        <v>15.0137</v>
       </c>
       <c r="E5" t="n">
-        <v>13.4006</v>
+        <v>13.3983</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0703</v>
+        <v>12.0731</v>
       </c>
       <c r="G5" t="n">
-        <v>14.3143</v>
+        <v>14.286</v>
       </c>
     </row>
     <row r="6">
@@ -7941,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.70219</v>
+        <v>9.728160000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>12.389</v>
+        <v>12.4005</v>
       </c>
       <c r="D6" t="n">
-        <v>18.0492</v>
+        <v>18.0846</v>
       </c>
       <c r="E6" t="n">
-        <v>16.4248</v>
+        <v>16.4116</v>
       </c>
       <c r="F6" t="n">
-        <v>14.1932</v>
+        <v>14.2597</v>
       </c>
       <c r="G6" t="n">
-        <v>17.0117</v>
+        <v>17.0467</v>
       </c>
     </row>
     <row r="7">
@@ -7964,22 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2423</v>
+        <v>11.3094</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5028</v>
+        <v>14.4844</v>
       </c>
       <c r="D7" t="n">
-        <v>21.029</v>
+        <v>21.0506</v>
       </c>
       <c r="E7" t="n">
-        <v>19.3752</v>
+        <v>19.3926</v>
       </c>
       <c r="F7" t="n">
-        <v>16.2465</v>
+        <v>16.2961</v>
       </c>
       <c r="G7" t="n">
-        <v>19.5508</v>
+        <v>19.5059</v>
       </c>
     </row>
     <row r="8">
@@ -7987,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7174</v>
+        <v>12.7222</v>
       </c>
       <c r="C8" t="n">
-        <v>16.7647</v>
+        <v>16.7791</v>
       </c>
       <c r="D8" t="n">
-        <v>23.9976</v>
+        <v>24.0809</v>
       </c>
       <c r="E8" t="n">
-        <v>22.3119</v>
+        <v>22.3362</v>
       </c>
       <c r="F8" t="n">
-        <v>18.2406</v>
+        <v>18.2169</v>
       </c>
       <c r="G8" t="n">
-        <v>21.8232</v>
+        <v>21.8731</v>
       </c>
     </row>
     <row r="9">
@@ -8010,22 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9063</v>
+        <v>14.903</v>
       </c>
       <c r="C9" t="n">
-        <v>19.7109</v>
+        <v>19.7283</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5642</v>
+        <v>28.6621</v>
       </c>
       <c r="E9" t="n">
-        <v>25.6895</v>
+        <v>25.6775</v>
       </c>
       <c r="F9" t="n">
-        <v>20.7849</v>
+        <v>20.734</v>
       </c>
       <c r="G9" t="n">
-        <v>24.2357</v>
+        <v>24.1186</v>
       </c>
     </row>
     <row r="10">
@@ -8033,22 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3156</v>
+        <v>14.2418</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5301</v>
+        <v>18.1242</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3442</v>
+        <v>26.5458</v>
       </c>
       <c r="E10" t="n">
-        <v>23.6894</v>
+        <v>23.4575</v>
       </c>
       <c r="F10" t="n">
-        <v>19.7274</v>
+        <v>20.0854</v>
       </c>
       <c r="G10" t="n">
-        <v>22.8406</v>
+        <v>22.9946</v>
       </c>
     </row>
     <row r="11">
@@ -8056,22 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0442</v>
+        <v>14.183</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0884</v>
+        <v>18.3366</v>
       </c>
       <c r="D11" t="n">
-        <v>26.2717</v>
+        <v>26.7269</v>
       </c>
       <c r="E11" t="n">
-        <v>23.815</v>
+        <v>23.6846</v>
       </c>
       <c r="F11" t="n">
-        <v>19.0571</v>
+        <v>19.5161</v>
       </c>
       <c r="G11" t="n">
-        <v>22.2226</v>
+        <v>22.3932</v>
       </c>
     </row>
     <row r="12">
@@ -8079,22 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3491</v>
+        <v>14.2321</v>
       </c>
       <c r="C12" t="n">
-        <v>18.311</v>
+        <v>18.5093</v>
       </c>
       <c r="D12" t="n">
-        <v>26.5844</v>
+        <v>26.2014</v>
       </c>
       <c r="E12" t="n">
-        <v>23.6986</v>
+        <v>23.5307</v>
       </c>
       <c r="F12" t="n">
-        <v>19.0209</v>
+        <v>18.5266</v>
       </c>
       <c r="G12" t="n">
-        <v>22.2574</v>
+        <v>21.4469</v>
       </c>
     </row>
     <row r="13">
@@ -8102,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5094</v>
+        <v>14.5146</v>
       </c>
       <c r="C13" t="n">
-        <v>18.5038</v>
+        <v>18.3458</v>
       </c>
       <c r="D13" t="n">
-        <v>26.91</v>
+        <v>26.8381</v>
       </c>
       <c r="E13" t="n">
-        <v>24.4783</v>
+        <v>24.189</v>
       </c>
       <c r="F13" t="n">
-        <v>18.4477</v>
+        <v>18.3993</v>
       </c>
       <c r="G13" t="n">
-        <v>21.346</v>
+        <v>20.8154</v>
       </c>
     </row>
     <row r="14">
@@ -8125,22 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9883</v>
+        <v>13.9516</v>
       </c>
       <c r="C14" t="n">
-        <v>18.6515</v>
+        <v>18.6638</v>
       </c>
       <c r="D14" t="n">
-        <v>25.8011</v>
+        <v>25.6999</v>
       </c>
       <c r="E14" t="n">
-        <v>23.2913</v>
+        <v>23.2649</v>
       </c>
       <c r="F14" t="n">
-        <v>17.7527</v>
+        <v>17.3901</v>
       </c>
       <c r="G14" t="n">
-        <v>20.1503</v>
+        <v>20.3817</v>
       </c>
     </row>
     <row r="15">
@@ -8148,22 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5827</v>
+        <v>14.4947</v>
       </c>
       <c r="C15" t="n">
-        <v>18.822</v>
+        <v>18.7743</v>
       </c>
       <c r="D15" t="n">
-        <v>26.7609</v>
+        <v>26.108</v>
       </c>
       <c r="E15" t="n">
-        <v>24.1803</v>
+        <v>24.1029</v>
       </c>
       <c r="F15" t="n">
-        <v>17.7287</v>
+        <v>17.7336</v>
       </c>
       <c r="G15" t="n">
-        <v>19.8329</v>
+        <v>20.1862</v>
       </c>
     </row>
     <row r="16">
@@ -8171,22 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5701</v>
+        <v>14.5183</v>
       </c>
       <c r="C16" t="n">
-        <v>18.887</v>
+        <v>18.8875</v>
       </c>
       <c r="D16" t="n">
-        <v>26.749</v>
+        <v>26.1323</v>
       </c>
       <c r="E16" t="n">
-        <v>23.909</v>
+        <v>23.6841</v>
       </c>
       <c r="F16" t="n">
-        <v>17.3415</v>
+        <v>17.1781</v>
       </c>
       <c r="G16" t="n">
-        <v>19.3683</v>
+        <v>19.3318</v>
       </c>
     </row>
     <row r="17">
@@ -8194,22 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3331</v>
+        <v>14.4554</v>
       </c>
       <c r="C17" t="n">
-        <v>19.0822</v>
+        <v>18.9796</v>
       </c>
       <c r="D17" t="n">
-        <v>26.7182</v>
+        <v>26.2401</v>
       </c>
       <c r="E17" t="n">
-        <v>23.4734</v>
+        <v>23.7847</v>
       </c>
       <c r="F17" t="n">
-        <v>17.2934</v>
+        <v>16.6173</v>
       </c>
       <c r="G17" t="n">
-        <v>19.1077</v>
+        <v>19.114</v>
       </c>
     </row>
   </sheetData>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97777</v>
+        <v>4.0225</v>
       </c>
       <c r="C2" t="n">
-        <v>7.3606</v>
+        <v>7.37703</v>
       </c>
       <c r="D2" t="n">
-        <v>8.356439999999999</v>
+        <v>8.37926</v>
       </c>
       <c r="E2" t="n">
-        <v>5.75289</v>
+        <v>5.76619</v>
       </c>
       <c r="F2" t="n">
-        <v>6.00832</v>
+        <v>6.06204</v>
       </c>
       <c r="G2" t="n">
-        <v>7.63177</v>
+        <v>7.70924</v>
       </c>
     </row>
     <row r="3">
@@ -8295,22 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.15561</v>
+        <v>6.0691</v>
       </c>
       <c r="C3" t="n">
-        <v>8.44622</v>
+        <v>8.345420000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2608</v>
+        <v>12.1899</v>
       </c>
       <c r="E3" t="n">
-        <v>9.74939</v>
+        <v>9.704689999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>9.23612</v>
+        <v>9.174519999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>11.593</v>
+        <v>11.5114</v>
       </c>
     </row>
     <row r="4">
@@ -8318,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.230549999999999</v>
+        <v>8.133839999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>10.7551</v>
+        <v>10.7603</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4774</v>
+        <v>16.4142</v>
       </c>
       <c r="E4" t="n">
-        <v>13.8275</v>
+        <v>13.7935</v>
       </c>
       <c r="F4" t="n">
-        <v>12.6176</v>
+        <v>12.6133</v>
       </c>
       <c r="G4" t="n">
-        <v>15.8211</v>
+        <v>15.752</v>
       </c>
     </row>
     <row r="5">
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0702</v>
+        <v>10.0939</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1929</v>
+        <v>13.1767</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4179</v>
+        <v>20.4583</v>
       </c>
       <c r="E5" t="n">
-        <v>17.6924</v>
+        <v>17.6823</v>
       </c>
       <c r="F5" t="n">
-        <v>15.5229</v>
+        <v>15.5308</v>
       </c>
       <c r="G5" t="n">
-        <v>19.4952</v>
+        <v>19.5474</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9915</v>
+        <v>12.0576</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7377</v>
+        <v>15.7495</v>
       </c>
       <c r="D6" t="n">
-        <v>24.354</v>
+        <v>24.3889</v>
       </c>
       <c r="E6" t="n">
-        <v>21.6115</v>
+        <v>21.5907</v>
       </c>
       <c r="F6" t="n">
-        <v>18.2458</v>
+        <v>18.1488</v>
       </c>
       <c r="G6" t="n">
-        <v>22.4981</v>
+        <v>22.8411</v>
       </c>
     </row>
     <row r="7">
@@ -8387,22 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.8702</v>
+        <v>13.837</v>
       </c>
       <c r="C7" t="n">
-        <v>18.2966</v>
+        <v>18.3547</v>
       </c>
       <c r="D7" t="n">
-        <v>28.1869</v>
+        <v>28.2624</v>
       </c>
       <c r="E7" t="n">
-        <v>25.4283</v>
+        <v>25.401</v>
       </c>
       <c r="F7" t="n">
-        <v>20.2384</v>
+        <v>20.6039</v>
       </c>
       <c r="G7" t="n">
-        <v>25.5585</v>
+        <v>25.8971</v>
       </c>
     </row>
     <row r="8">
@@ -8410,22 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5577</v>
+        <v>15.6312</v>
       </c>
       <c r="C8" t="n">
-        <v>21.2528</v>
+        <v>21.2492</v>
       </c>
       <c r="D8" t="n">
-        <v>32.0832</v>
+        <v>32.3078</v>
       </c>
       <c r="E8" t="n">
-        <v>29.1406</v>
+        <v>29.1736</v>
       </c>
       <c r="F8" t="n">
-        <v>22.6956</v>
+        <v>22.5376</v>
       </c>
       <c r="G8" t="n">
-        <v>28.502</v>
+        <v>28.5753</v>
       </c>
     </row>
     <row r="9">
@@ -8433,22 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1697</v>
+        <v>18.1951</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8522</v>
+        <v>24.8482</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3861</v>
+        <v>38.3158</v>
       </c>
       <c r="E9" t="n">
-        <v>33.56</v>
+        <v>33.5801</v>
       </c>
       <c r="F9" t="n">
-        <v>25.7987</v>
+        <v>25.6442</v>
       </c>
       <c r="G9" t="n">
-        <v>31.4741</v>
+        <v>31.2301</v>
       </c>
     </row>
     <row r="10">
@@ -8456,22 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4365</v>
+        <v>17.2645</v>
       </c>
       <c r="C10" t="n">
-        <v>22.826</v>
+        <v>23.1194</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2424</v>
+        <v>34.3586</v>
       </c>
       <c r="E10" t="n">
-        <v>31.1563</v>
+        <v>30.6661</v>
       </c>
       <c r="F10" t="n">
-        <v>24.4624</v>
+        <v>24.3828</v>
       </c>
       <c r="G10" t="n">
-        <v>29.8554</v>
+        <v>29.7298</v>
       </c>
     </row>
     <row r="11">
@@ -8479,22 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1571</v>
+        <v>17.1712</v>
       </c>
       <c r="C11" t="n">
-        <v>22.6768</v>
+        <v>22.8815</v>
       </c>
       <c r="D11" t="n">
-        <v>35.1214</v>
+        <v>35.055</v>
       </c>
       <c r="E11" t="n">
-        <v>30.5754</v>
+        <v>30.4701</v>
       </c>
       <c r="F11" t="n">
-        <v>23.2584</v>
+        <v>23.671</v>
       </c>
       <c r="G11" t="n">
-        <v>28.6719</v>
+        <v>28.6271</v>
       </c>
     </row>
     <row r="12">
@@ -8502,22 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.302</v>
+        <v>17.3991</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3142</v>
+        <v>22.917</v>
       </c>
       <c r="D12" t="n">
-        <v>34.9306</v>
+        <v>35.1242</v>
       </c>
       <c r="E12" t="n">
-        <v>31.1112</v>
+        <v>30.8254</v>
       </c>
       <c r="F12" t="n">
-        <v>22.4771</v>
+        <v>22.7118</v>
       </c>
       <c r="G12" t="n">
-        <v>28.0071</v>
+        <v>27.472</v>
       </c>
     </row>
     <row r="13">
@@ -8525,22 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6907</v>
+        <v>17.6293</v>
       </c>
       <c r="C13" t="n">
-        <v>23.2818</v>
+        <v>23.2474</v>
       </c>
       <c r="D13" t="n">
-        <v>35.3656</v>
+        <v>35.324</v>
       </c>
       <c r="E13" t="n">
-        <v>31.0582</v>
+        <v>30.9939</v>
       </c>
       <c r="F13" t="n">
-        <v>21.8626</v>
+        <v>22.3077</v>
       </c>
       <c r="G13" t="n">
-        <v>25.7391</v>
+        <v>26.4789</v>
       </c>
     </row>
     <row r="14">
@@ -8548,22 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0614</v>
+        <v>17.0201</v>
       </c>
       <c r="C14" t="n">
-        <v>23.3104</v>
+        <v>23.4483</v>
       </c>
       <c r="D14" t="n">
-        <v>34.0385</v>
+        <v>34.1489</v>
       </c>
       <c r="E14" t="n">
-        <v>30.1074</v>
+        <v>30.1077</v>
       </c>
       <c r="F14" t="n">
-        <v>21.2074</v>
+        <v>21.3272</v>
       </c>
       <c r="G14" t="n">
-        <v>24.6241</v>
+        <v>24.9129</v>
       </c>
     </row>
     <row r="15">
@@ -8571,22 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6791</v>
+        <v>17.7204</v>
       </c>
       <c r="C15" t="n">
-        <v>23.5894</v>
+        <v>23.5725</v>
       </c>
       <c r="D15" t="n">
-        <v>34.288</v>
+        <v>34.6043</v>
       </c>
       <c r="E15" t="n">
-        <v>30.4867</v>
+        <v>30.7019</v>
       </c>
       <c r="F15" t="n">
-        <v>21.0061</v>
+        <v>20.7956</v>
       </c>
       <c r="G15" t="n">
-        <v>24.6552</v>
+        <v>24.5952</v>
       </c>
     </row>
     <row r="16">
@@ -8594,22 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6937</v>
+        <v>17.6436</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6489</v>
+        <v>23.816</v>
       </c>
       <c r="D16" t="n">
-        <v>34.1653</v>
+        <v>34.3707</v>
       </c>
       <c r="E16" t="n">
-        <v>30.2326</v>
+        <v>30.618</v>
       </c>
       <c r="F16" t="n">
-        <v>20.2491</v>
+        <v>21.3207</v>
       </c>
       <c r="G16" t="n">
-        <v>24.7207</v>
+        <v>24.3941</v>
       </c>
     </row>
     <row r="17">
@@ -8617,22 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4422</v>
+        <v>17.6063</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9502</v>
+        <v>23.9123</v>
       </c>
       <c r="D17" t="n">
-        <v>34.2802</v>
+        <v>34.2036</v>
       </c>
       <c r="E17" t="n">
-        <v>30.6395</v>
+        <v>30.4041</v>
       </c>
       <c r="F17" t="n">
-        <v>20.3706</v>
+        <v>19.999</v>
       </c>
       <c r="G17" t="n">
-        <v>22.9488</v>
+        <v>23.6107</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.38399</v>
+        <v>5.37811</v>
       </c>
       <c r="C2" t="n">
-        <v>5.89229</v>
+        <v>5.87809</v>
       </c>
       <c r="D2" t="n">
-        <v>6.59751</v>
+        <v>6.5964</v>
       </c>
       <c r="E2" t="n">
-        <v>4.71802</v>
+        <v>4.7156</v>
       </c>
       <c r="F2" t="n">
-        <v>6.13426</v>
+        <v>6.14024</v>
       </c>
       <c r="G2" t="n">
-        <v>7.17371</v>
+        <v>7.1868</v>
       </c>
     </row>
     <row r="3">
@@ -8718,22 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.96847</v>
+        <v>6.96356</v>
       </c>
       <c r="C3" t="n">
-        <v>7.22984</v>
+        <v>7.24998</v>
       </c>
       <c r="D3" t="n">
-        <v>9.855969999999999</v>
+        <v>9.87077</v>
       </c>
       <c r="E3" t="n">
-        <v>7.99774</v>
+        <v>7.98292</v>
       </c>
       <c r="F3" t="n">
-        <v>9.22884</v>
+        <v>9.239560000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>11.0519</v>
+        <v>11.0544</v>
       </c>
     </row>
     <row r="4">
@@ -8741,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.94764</v>
+        <v>8.936030000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.382569999999999</v>
+        <v>9.393190000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5957</v>
+        <v>13.5845</v>
       </c>
       <c r="E4" t="n">
-        <v>11.4372</v>
+        <v>11.4455</v>
       </c>
       <c r="F4" t="n">
-        <v>12.5842</v>
+        <v>12.6086</v>
       </c>
       <c r="G4" t="n">
-        <v>15.2147</v>
+        <v>15.2477</v>
       </c>
     </row>
     <row r="5">
@@ -8764,22 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9181</v>
+        <v>10.9175</v>
       </c>
       <c r="C5" t="n">
-        <v>11.5589</v>
+        <v>11.55</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3</v>
+        <v>17.2945</v>
       </c>
       <c r="E5" t="n">
-        <v>14.8652</v>
+        <v>14.854</v>
       </c>
       <c r="F5" t="n">
-        <v>15.8186</v>
+        <v>15.8736</v>
       </c>
       <c r="G5" t="n">
-        <v>19.3439</v>
+        <v>19.2735</v>
       </c>
     </row>
     <row r="6">
@@ -8787,22 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.9549</v>
+        <v>12.9423</v>
       </c>
       <c r="C6" t="n">
-        <v>13.8417</v>
+        <v>13.8509</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0096</v>
+        <v>21.0083</v>
       </c>
       <c r="E6" t="n">
-        <v>18.2641</v>
+        <v>18.2529</v>
       </c>
       <c r="F6" t="n">
-        <v>19.037</v>
+        <v>19.0034</v>
       </c>
       <c r="G6" t="n">
-        <v>23.356</v>
+        <v>23.3671</v>
       </c>
     </row>
     <row r="7">
@@ -8810,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.9917</v>
+        <v>14.9924</v>
       </c>
       <c r="C7" t="n">
-        <v>16.1682</v>
+        <v>16.1631</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7779</v>
+        <v>24.7925</v>
       </c>
       <c r="E7" t="n">
-        <v>21.6211</v>
+        <v>21.6739</v>
       </c>
       <c r="F7" t="n">
-        <v>22.1728</v>
+        <v>22.2494</v>
       </c>
       <c r="G7" t="n">
-        <v>27.176</v>
+        <v>27.1927</v>
       </c>
     </row>
     <row r="8">
@@ -8833,22 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.2163</v>
+        <v>17.2152</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6242</v>
+        <v>18.6644</v>
       </c>
       <c r="D8" t="n">
-        <v>28.536</v>
+        <v>28.5785</v>
       </c>
       <c r="E8" t="n">
-        <v>25.0091</v>
+        <v>24.9888</v>
       </c>
       <c r="F8" t="n">
-        <v>25.3541</v>
+        <v>25.3905</v>
       </c>
       <c r="G8" t="n">
-        <v>30.8815</v>
+        <v>30.8975</v>
       </c>
     </row>
     <row r="9">
@@ -8856,22 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2514</v>
+        <v>20.2382</v>
       </c>
       <c r="C9" t="n">
-        <v>21.4757</v>
+        <v>21.4681</v>
       </c>
       <c r="D9" t="n">
-        <v>33.294</v>
+        <v>33.3906</v>
       </c>
       <c r="E9" t="n">
-        <v>28.8437</v>
+        <v>28.8379</v>
       </c>
       <c r="F9" t="n">
-        <v>29.311</v>
+        <v>29.3715</v>
       </c>
       <c r="G9" t="n">
-        <v>35.453</v>
+        <v>35.4142</v>
       </c>
     </row>
     <row r="10">
@@ -8879,22 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3193</v>
+        <v>19.1198</v>
       </c>
       <c r="C10" t="n">
-        <v>20.06</v>
+        <v>20.304</v>
       </c>
       <c r="D10" t="n">
-        <v>30.4298</v>
+        <v>30.8938</v>
       </c>
       <c r="E10" t="n">
-        <v>26.5465</v>
+        <v>26.7289</v>
       </c>
       <c r="F10" t="n">
-        <v>27.4452</v>
+        <v>27.4934</v>
       </c>
       <c r="G10" t="n">
-        <v>32.9366</v>
+        <v>32.5488</v>
       </c>
     </row>
     <row r="11">
@@ -8902,22 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1885</v>
+        <v>18.9258</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0798</v>
+        <v>19.8019</v>
       </c>
       <c r="D11" t="n">
-        <v>30.3341</v>
+        <v>30.4465</v>
       </c>
       <c r="E11" t="n">
-        <v>26.2735</v>
+        <v>26.5665</v>
       </c>
       <c r="F11" t="n">
-        <v>27.0384</v>
+        <v>26.4627</v>
       </c>
       <c r="G11" t="n">
-        <v>32.0443</v>
+        <v>32.175</v>
       </c>
     </row>
     <row r="12">
@@ -8925,22 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.1759</v>
+        <v>19.2504</v>
       </c>
       <c r="C12" t="n">
-        <v>20.2419</v>
+        <v>20.0572</v>
       </c>
       <c r="D12" t="n">
-        <v>30.7274</v>
+        <v>30.6408</v>
       </c>
       <c r="E12" t="n">
-        <v>26.8285</v>
+        <v>26.914</v>
       </c>
       <c r="F12" t="n">
-        <v>26.6904</v>
+        <v>26.7009</v>
       </c>
       <c r="G12" t="n">
-        <v>32.306</v>
+        <v>32.1841</v>
       </c>
     </row>
     <row r="13">
@@ -8948,22 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4878</v>
+        <v>19.4108</v>
       </c>
       <c r="C13" t="n">
-        <v>20.5075</v>
+        <v>20.3155</v>
       </c>
       <c r="D13" t="n">
-        <v>31.394</v>
+        <v>30.9353</v>
       </c>
       <c r="E13" t="n">
-        <v>27.1512</v>
+        <v>27.1147</v>
       </c>
       <c r="F13" t="n">
-        <v>27.2781</v>
+        <v>26.8886</v>
       </c>
       <c r="G13" t="n">
-        <v>32.1745</v>
+        <v>32.7067</v>
       </c>
     </row>
     <row r="14">
@@ -8971,22 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7349</v>
+        <v>18.7079</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3531</v>
+        <v>20.5094</v>
       </c>
       <c r="D14" t="n">
-        <v>30.3918</v>
+        <v>30.1978</v>
       </c>
       <c r="E14" t="n">
-        <v>26.3762</v>
+        <v>26.0894</v>
       </c>
       <c r="F14" t="n">
-        <v>26.3625</v>
+        <v>25.9764</v>
       </c>
       <c r="G14" t="n">
-        <v>30.5511</v>
+        <v>30.7193</v>
       </c>
     </row>
     <row r="15">
@@ -8994,22 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.5322</v>
+        <v>19.5136</v>
       </c>
       <c r="C15" t="n">
-        <v>20.6381</v>
+        <v>20.6752</v>
       </c>
       <c r="D15" t="n">
-        <v>31.3075</v>
+        <v>30.928</v>
       </c>
       <c r="E15" t="n">
-        <v>27.0809</v>
+        <v>27.1216</v>
       </c>
       <c r="F15" t="n">
-        <v>26.3127</v>
+        <v>26.8477</v>
       </c>
       <c r="G15" t="n">
-        <v>31.1314</v>
+        <v>31.0995</v>
       </c>
     </row>
     <row r="16">
@@ -9017,22 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3525</v>
+        <v>19.3423</v>
       </c>
       <c r="C16" t="n">
-        <v>20.8365</v>
+        <v>20.8528</v>
       </c>
       <c r="D16" t="n">
-        <v>31.2836</v>
+        <v>31.3582</v>
       </c>
       <c r="E16" t="n">
-        <v>26.7632</v>
+        <v>26.6732</v>
       </c>
       <c r="F16" t="n">
-        <v>26.3156</v>
+        <v>26.1208</v>
       </c>
       <c r="G16" t="n">
-        <v>31.4509</v>
+        <v>30.659</v>
       </c>
     </row>
     <row r="17">
@@ -9040,22 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3739</v>
+        <v>19.5103</v>
       </c>
       <c r="C17" t="n">
-        <v>21.0653</v>
+        <v>21.1091</v>
       </c>
       <c r="D17" t="n">
-        <v>30.9686</v>
+        <v>30.5943</v>
       </c>
       <c r="E17" t="n">
-        <v>27.0116</v>
+        <v>27.042</v>
       </c>
       <c r="F17" t="n">
-        <v>25.8996</v>
+        <v>25.5902</v>
       </c>
       <c r="G17" t="n">
-        <v>30.5235</v>
+        <v>30.5629</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -6580,22 +6580,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.2264</v>
+        <v>5.24728</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0712</v>
+        <v>5.07762</v>
       </c>
       <c r="D2" t="n">
-        <v>6.02243</v>
+        <v>6.02574</v>
       </c>
       <c r="E2" t="n">
-        <v>4.33259</v>
+        <v>4.33082</v>
       </c>
       <c r="F2" t="n">
-        <v>5.70703</v>
+        <v>5.70771</v>
       </c>
       <c r="G2" t="n">
-        <v>6.31198</v>
+        <v>6.31143</v>
       </c>
     </row>
     <row r="3">
@@ -6603,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.30744</v>
+        <v>6.24736</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3551</v>
+        <v>6.28427</v>
       </c>
       <c r="D3" t="n">
-        <v>8.965540000000001</v>
+        <v>8.8972</v>
       </c>
       <c r="E3" t="n">
-        <v>7.24934</v>
+        <v>7.22735</v>
       </c>
       <c r="F3" t="n">
-        <v>8.211650000000001</v>
+        <v>8.20698</v>
       </c>
       <c r="G3" t="n">
-        <v>9.32122</v>
+        <v>9.24211</v>
       </c>
     </row>
     <row r="4">
@@ -6626,22 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.83367</v>
+        <v>7.85306</v>
       </c>
       <c r="C4" t="n">
-        <v>8.32084</v>
+        <v>8.345890000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.2163</v>
+        <v>12.1591</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3662</v>
+        <v>10.3765</v>
       </c>
       <c r="F4" t="n">
-        <v>10.9612</v>
+        <v>10.9834</v>
       </c>
       <c r="G4" t="n">
-        <v>12.6835</v>
+        <v>12.627</v>
       </c>
     </row>
     <row r="5">
@@ -6649,22 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.315329999999999</v>
+        <v>9.29917</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5333</v>
+        <v>10.3748</v>
       </c>
       <c r="D5" t="n">
-        <v>15.3858</v>
+        <v>15.3818</v>
       </c>
       <c r="E5" t="n">
-        <v>13.3963</v>
+        <v>13.3673</v>
       </c>
       <c r="F5" t="n">
-        <v>13.5836</v>
+        <v>13.595</v>
       </c>
       <c r="G5" t="n">
-        <v>15.915</v>
+        <v>15.9068</v>
       </c>
     </row>
     <row r="6">
@@ -6672,22 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9242</v>
+        <v>11.0788</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6183</v>
+        <v>12.5533</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4201</v>
+        <v>18.4182</v>
       </c>
       <c r="E6" t="n">
-        <v>16.3223</v>
+        <v>16.3386</v>
       </c>
       <c r="F6" t="n">
-        <v>15.9137</v>
+        <v>15.9825</v>
       </c>
       <c r="G6" t="n">
-        <v>18.8209</v>
+        <v>18.8165</v>
       </c>
     </row>
     <row r="7">
@@ -6695,22 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6693</v>
+        <v>12.6613</v>
       </c>
       <c r="C7" t="n">
-        <v>14.9509</v>
+        <v>14.7701</v>
       </c>
       <c r="D7" t="n">
-        <v>21.6227</v>
+        <v>21.5288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.2263</v>
+        <v>19.2564</v>
       </c>
       <c r="F7" t="n">
-        <v>18.2071</v>
+        <v>18.2886</v>
       </c>
       <c r="G7" t="n">
-        <v>21.5038</v>
+        <v>21.577</v>
       </c>
     </row>
     <row r="8">
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0012</v>
+        <v>14.0075</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1995</v>
+        <v>17.1099</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2671</v>
+        <v>24.3375</v>
       </c>
       <c r="E8" t="n">
-        <v>22.1242</v>
+        <v>22.1512</v>
       </c>
       <c r="F8" t="n">
-        <v>20.576</v>
+        <v>20.6446</v>
       </c>
       <c r="G8" t="n">
-        <v>24.3773</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="9">
@@ -6741,22 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5061</v>
+        <v>16.498</v>
       </c>
       <c r="C9" t="n">
-        <v>20.0052</v>
+        <v>19.7524</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1697</v>
+        <v>28.3768</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0818</v>
+        <v>25.2637</v>
       </c>
       <c r="F9" t="n">
-        <v>23.6497</v>
+        <v>23.6932</v>
       </c>
       <c r="G9" t="n">
-        <v>26.9579</v>
+        <v>27.2897</v>
       </c>
     </row>
     <row r="10">
@@ -6764,22 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0898</v>
+        <v>14.2207</v>
       </c>
       <c r="C10" t="n">
-        <v>16.5989</v>
+        <v>16.669</v>
       </c>
       <c r="D10" t="n">
-        <v>22.8391</v>
+        <v>23.1655</v>
       </c>
       <c r="E10" t="n">
-        <v>20.0567</v>
+        <v>20.4256</v>
       </c>
       <c r="F10" t="n">
-        <v>19.3396</v>
+        <v>19.852</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9267</v>
+        <v>22.4455</v>
       </c>
     </row>
     <row r="11">
@@ -6787,22 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0564</v>
+        <v>14.1289</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9362</v>
+        <v>16.9497</v>
       </c>
       <c r="D11" t="n">
-        <v>23.6022</v>
+        <v>23.5905</v>
       </c>
       <c r="E11" t="n">
-        <v>20.6755</v>
+        <v>20.4397</v>
       </c>
       <c r="F11" t="n">
-        <v>19.9753</v>
+        <v>19.9803</v>
       </c>
       <c r="G11" t="n">
-        <v>22.9483</v>
+        <v>23.1978</v>
       </c>
     </row>
     <row r="12">
@@ -6810,22 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6512</v>
+        <v>14.7596</v>
       </c>
       <c r="C12" t="n">
-        <v>17.7184</v>
+        <v>17.6029</v>
       </c>
       <c r="D12" t="n">
-        <v>25.1243</v>
+        <v>24.7307</v>
       </c>
       <c r="E12" t="n">
-        <v>21.7419</v>
+        <v>21.5694</v>
       </c>
       <c r="F12" t="n">
-        <v>20.6389</v>
+        <v>20.5116</v>
       </c>
       <c r="G12" t="n">
-        <v>23.5491</v>
+        <v>23.268</v>
       </c>
     </row>
     <row r="13">
@@ -6833,22 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0793</v>
+        <v>15.1511</v>
       </c>
       <c r="C13" t="n">
-        <v>18.4709</v>
+        <v>18.2103</v>
       </c>
       <c r="D13" t="n">
-        <v>25.7614</v>
+        <v>25.8342</v>
       </c>
       <c r="E13" t="n">
-        <v>22.3842</v>
+        <v>22.461</v>
       </c>
       <c r="F13" t="n">
-        <v>20.883</v>
+        <v>21.0618</v>
       </c>
       <c r="G13" t="n">
-        <v>23.9088</v>
+        <v>22.8255</v>
       </c>
     </row>
     <row r="14">
@@ -6856,22 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9674</v>
+        <v>15.0577</v>
       </c>
       <c r="C14" t="n">
-        <v>18.5388</v>
+        <v>18.4168</v>
       </c>
       <c r="D14" t="n">
-        <v>24.5353</v>
+        <v>25.3651</v>
       </c>
       <c r="E14" t="n">
-        <v>22.444</v>
+        <v>22.3011</v>
       </c>
       <c r="F14" t="n">
-        <v>20.0869</v>
+        <v>19.9178</v>
       </c>
       <c r="G14" t="n">
-        <v>22.1437</v>
+        <v>22.7174</v>
       </c>
     </row>
     <row r="15">
@@ -6879,22 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2847</v>
+        <v>15.3241</v>
       </c>
       <c r="C15" t="n">
-        <v>18.7218</v>
+        <v>18.4098</v>
       </c>
       <c r="D15" t="n">
-        <v>25.5406</v>
+        <v>24.2249</v>
       </c>
       <c r="E15" t="n">
-        <v>21.9727</v>
+        <v>21.8983</v>
       </c>
       <c r="F15" t="n">
-        <v>19.4805</v>
+        <v>20.0253</v>
       </c>
       <c r="G15" t="n">
-        <v>22.408</v>
+        <v>22.0514</v>
       </c>
     </row>
     <row r="16">
@@ -6902,22 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5059</v>
+        <v>15.4039</v>
       </c>
       <c r="C16" t="n">
-        <v>18.9034</v>
+        <v>18.9097</v>
       </c>
       <c r="D16" t="n">
-        <v>25.066</v>
+        <v>24.9072</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9449</v>
+        <v>21.9324</v>
       </c>
       <c r="F16" t="n">
-        <v>20.3199</v>
+        <v>19.8385</v>
       </c>
       <c r="G16" t="n">
-        <v>21.579</v>
+        <v>23.0131</v>
       </c>
     </row>
     <row r="17">
@@ -6925,22 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.582</v>
+        <v>15.4261</v>
       </c>
       <c r="C17" t="n">
-        <v>19.0435</v>
+        <v>19.3488</v>
       </c>
       <c r="D17" t="n">
-        <v>25.3989</v>
+        <v>25.3394</v>
       </c>
       <c r="E17" t="n">
-        <v>22.3284</v>
+        <v>22.332</v>
       </c>
       <c r="F17" t="n">
-        <v>19.7082</v>
+        <v>19.4642</v>
       </c>
       <c r="G17" t="n">
-        <v>21.9641</v>
+        <v>21.6353</v>
       </c>
     </row>
   </sheetData>
@@ -7003,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.721299999999999</v>
+        <v>8.76017</v>
       </c>
       <c r="C2" t="n">
-        <v>8.71425</v>
+        <v>8.699590000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.6117</v>
+        <v>10.6275</v>
       </c>
       <c r="E2" t="n">
-        <v>6.35329</v>
+        <v>6.35738</v>
       </c>
       <c r="F2" t="n">
-        <v>9.73221</v>
+        <v>9.775219999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6885</v>
+        <v>11.7363</v>
       </c>
     </row>
     <row r="3">
@@ -7026,22 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.42202</v>
+        <v>8.455909999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8.708959999999999</v>
+        <v>8.74051</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9653</v>
+        <v>12.9756</v>
       </c>
       <c r="E3" t="n">
-        <v>9.802049999999999</v>
+        <v>9.82015</v>
       </c>
       <c r="F3" t="n">
-        <v>11.57</v>
+        <v>11.6112</v>
       </c>
       <c r="G3" t="n">
-        <v>13.9472</v>
+        <v>13.9576</v>
       </c>
     </row>
     <row r="4">
@@ -7049,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.2078</v>
+        <v>10.3026</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0228</v>
+        <v>11.1306</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0344</v>
+        <v>17.1246</v>
       </c>
       <c r="E4" t="n">
-        <v>13.8021</v>
+        <v>13.8702</v>
       </c>
       <c r="F4" t="n">
-        <v>14.9012</v>
+        <v>14.9411</v>
       </c>
       <c r="G4" t="n">
-        <v>18.3197</v>
+        <v>18.3516</v>
       </c>
     </row>
     <row r="5">
@@ -7072,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0446</v>
+        <v>12.0055</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5697</v>
+        <v>13.5303</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0538</v>
+        <v>21.0806</v>
       </c>
       <c r="E5" t="n">
-        <v>17.6718</v>
+        <v>17.6597</v>
       </c>
       <c r="F5" t="n">
-        <v>17.9778</v>
+        <v>17.987</v>
       </c>
       <c r="G5" t="n">
-        <v>22.3647</v>
+        <v>22.3612</v>
       </c>
     </row>
     <row r="6">
@@ -7095,22 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.03</v>
+        <v>14.1762</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2301</v>
+        <v>16.3022</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8393</v>
+        <v>25.0251</v>
       </c>
       <c r="E6" t="n">
-        <v>21.3851</v>
+        <v>21.4503</v>
       </c>
       <c r="F6" t="n">
-        <v>20.7327</v>
+        <v>20.7528</v>
       </c>
       <c r="G6" t="n">
-        <v>26.0694</v>
+        <v>25.8168</v>
       </c>
     </row>
     <row r="7">
@@ -7118,22 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8577</v>
+        <v>16.0849</v>
       </c>
       <c r="C7" t="n">
-        <v>19.1813</v>
+        <v>19.1435</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7033</v>
+        <v>29.0918</v>
       </c>
       <c r="E7" t="n">
-        <v>24.9537</v>
+        <v>25.2472</v>
       </c>
       <c r="F7" t="n">
-        <v>23.473</v>
+        <v>23.7898</v>
       </c>
       <c r="G7" t="n">
-        <v>28.8523</v>
+        <v>29.3427</v>
       </c>
     </row>
     <row r="8">
@@ -7141,22 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8599</v>
+        <v>17.8532</v>
       </c>
       <c r="C8" t="n">
-        <v>21.8785</v>
+        <v>21.8844</v>
       </c>
       <c r="D8" t="n">
-        <v>32.3115</v>
+        <v>32.2278</v>
       </c>
       <c r="E8" t="n">
-        <v>28.6532</v>
+        <v>28.6269</v>
       </c>
       <c r="F8" t="n">
-        <v>26.2821</v>
+        <v>26.1485</v>
       </c>
       <c r="G8" t="n">
-        <v>32.6938</v>
+        <v>32.8255</v>
       </c>
     </row>
     <row r="9">
@@ -7164,22 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9689</v>
+        <v>20.8811</v>
       </c>
       <c r="C9" t="n">
-        <v>25.3515</v>
+        <v>25.432</v>
       </c>
       <c r="D9" t="n">
-        <v>37.6855</v>
+        <v>37.6444</v>
       </c>
       <c r="E9" t="n">
-        <v>32.4405</v>
+        <v>32.2215</v>
       </c>
       <c r="F9" t="n">
-        <v>30.3168</v>
+        <v>30.4581</v>
       </c>
       <c r="G9" t="n">
-        <v>36.6227</v>
+        <v>36.6868</v>
       </c>
     </row>
     <row r="10">
@@ -7187,22 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3985</v>
+        <v>18.0499</v>
       </c>
       <c r="C10" t="n">
-        <v>22.0157</v>
+        <v>21.9744</v>
       </c>
       <c r="D10" t="n">
-        <v>32.5413</v>
+        <v>32.5703</v>
       </c>
       <c r="E10" t="n">
-        <v>26.0731</v>
+        <v>26.2232</v>
       </c>
       <c r="F10" t="n">
-        <v>26.2425</v>
+        <v>26.6702</v>
       </c>
       <c r="G10" t="n">
-        <v>31.1729</v>
+        <v>31.3233</v>
       </c>
     </row>
     <row r="11">
@@ -7210,22 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8479</v>
+        <v>17.9398</v>
       </c>
       <c r="C11" t="n">
-        <v>21.6084</v>
+        <v>21.9054</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6551</v>
+        <v>32.167</v>
       </c>
       <c r="E11" t="n">
-        <v>27.3178</v>
+        <v>27.0092</v>
       </c>
       <c r="F11" t="n">
-        <v>26.0151</v>
+        <v>26.4698</v>
       </c>
       <c r="G11" t="n">
-        <v>30.0327</v>
+        <v>29.0356</v>
       </c>
     </row>
     <row r="12">
@@ -7233,22 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5789</v>
+        <v>18.6247</v>
       </c>
       <c r="C12" t="n">
-        <v>22.2469</v>
+        <v>22.5051</v>
       </c>
       <c r="D12" t="n">
-        <v>32.2249</v>
+        <v>32.6777</v>
       </c>
       <c r="E12" t="n">
-        <v>29.0149</v>
+        <v>27.8245</v>
       </c>
       <c r="F12" t="n">
-        <v>26.9787</v>
+        <v>25.9403</v>
       </c>
       <c r="G12" t="n">
-        <v>30.9335</v>
+        <v>30.0243</v>
       </c>
     </row>
     <row r="13">
@@ -7256,22 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.9883</v>
+        <v>19.1959</v>
       </c>
       <c r="C13" t="n">
-        <v>22.8114</v>
+        <v>23.3893</v>
       </c>
       <c r="D13" t="n">
-        <v>33.8759</v>
+        <v>33.8428</v>
       </c>
       <c r="E13" t="n">
-        <v>29.0992</v>
+        <v>28.092</v>
       </c>
       <c r="F13" t="n">
-        <v>26.8296</v>
+        <v>26.319</v>
       </c>
       <c r="G13" t="n">
-        <v>30.9233</v>
+        <v>30.864</v>
       </c>
     </row>
     <row r="14">
@@ -7279,22 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.828</v>
+        <v>18.9017</v>
       </c>
       <c r="C14" t="n">
-        <v>23.1815</v>
+        <v>23.0235</v>
       </c>
       <c r="D14" t="n">
-        <v>31.3625</v>
+        <v>32.8483</v>
       </c>
       <c r="E14" t="n">
-        <v>27.1382</v>
+        <v>28.2424</v>
       </c>
       <c r="F14" t="n">
-        <v>25.8536</v>
+        <v>25.6481</v>
       </c>
       <c r="G14" t="n">
-        <v>29.4514</v>
+        <v>30.9554</v>
       </c>
     </row>
     <row r="15">
@@ -7302,22 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9178</v>
+        <v>18.8543</v>
       </c>
       <c r="C15" t="n">
-        <v>23.0074</v>
+        <v>23.6044</v>
       </c>
       <c r="D15" t="n">
-        <v>32.5605</v>
+        <v>33.1244</v>
       </c>
       <c r="E15" t="n">
-        <v>28.6039</v>
+        <v>28.1108</v>
       </c>
       <c r="F15" t="n">
-        <v>25.356</v>
+        <v>25.2918</v>
       </c>
       <c r="G15" t="n">
-        <v>26.9591</v>
+        <v>29.602</v>
       </c>
     </row>
     <row r="16">
@@ -7325,22 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3267</v>
+        <v>19.5389</v>
       </c>
       <c r="C16" t="n">
-        <v>23.8602</v>
+        <v>24.0781</v>
       </c>
       <c r="D16" t="n">
-        <v>32.69</v>
+        <v>32.6238</v>
       </c>
       <c r="E16" t="n">
-        <v>27.713</v>
+        <v>27.1198</v>
       </c>
       <c r="F16" t="n">
-        <v>25.2563</v>
+        <v>26.074</v>
       </c>
       <c r="G16" t="n">
-        <v>29.7906</v>
+        <v>28.1816</v>
       </c>
     </row>
     <row r="17">
@@ -7348,22 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0884</v>
+        <v>19.7508</v>
       </c>
       <c r="C17" t="n">
-        <v>24.3428</v>
+        <v>24.0237</v>
       </c>
       <c r="D17" t="n">
-        <v>33.0283</v>
+        <v>32.4976</v>
       </c>
       <c r="E17" t="n">
-        <v>27.9561</v>
+        <v>28.9915</v>
       </c>
       <c r="F17" t="n">
-        <v>24.1523</v>
+        <v>24.2044</v>
       </c>
       <c r="G17" t="n">
-        <v>27.0854</v>
+        <v>28.458</v>
       </c>
     </row>
   </sheetData>
@@ -7426,22 +7426,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.56437</v>
+        <v>6.56167</v>
       </c>
       <c r="C2" t="n">
-        <v>6.11111</v>
+        <v>6.09802</v>
       </c>
       <c r="D2" t="n">
-        <v>6.99249</v>
+        <v>6.98518</v>
       </c>
       <c r="E2" t="n">
-        <v>4.84749</v>
+        <v>4.84266</v>
       </c>
       <c r="F2" t="n">
-        <v>6.77127</v>
+        <v>6.76501</v>
       </c>
       <c r="G2" t="n">
-        <v>7.70621</v>
+        <v>7.71614</v>
       </c>
     </row>
     <row r="3">
@@ -7449,22 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.25509</v>
+        <v>7.26924</v>
       </c>
       <c r="C3" t="n">
-        <v>7.20219</v>
+        <v>7.29523</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912699999999999</v>
+        <v>9.91929</v>
       </c>
       <c r="E3" t="n">
-        <v>7.96371</v>
+        <v>7.96152</v>
       </c>
       <c r="F3" t="n">
-        <v>9.422560000000001</v>
+        <v>9.42699</v>
       </c>
       <c r="G3" t="n">
-        <v>11.105</v>
+        <v>11.1419</v>
       </c>
     </row>
     <row r="4">
@@ -7472,22 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.10201</v>
+        <v>9.076309999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.42493</v>
+        <v>9.459440000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5682</v>
+        <v>13.576</v>
       </c>
       <c r="E4" t="n">
-        <v>11.4067</v>
+        <v>11.4108</v>
       </c>
       <c r="F4" t="n">
-        <v>12.7836</v>
+        <v>12.7631</v>
       </c>
       <c r="G4" t="n">
-        <v>15.4383</v>
+        <v>15.4036</v>
       </c>
     </row>
     <row r="5">
@@ -7495,22 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.939</v>
+        <v>10.9347</v>
       </c>
       <c r="C5" t="n">
-        <v>11.6863</v>
+        <v>11.7036</v>
       </c>
       <c r="D5" t="n">
-        <v>17.2698</v>
+        <v>17.2832</v>
       </c>
       <c r="E5" t="n">
-        <v>14.8192</v>
+        <v>14.8215</v>
       </c>
       <c r="F5" t="n">
-        <v>16.1326</v>
+        <v>16.1386</v>
       </c>
       <c r="G5" t="n">
-        <v>19.6317</v>
+        <v>19.6184</v>
       </c>
     </row>
     <row r="6">
@@ -7518,22 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.9241</v>
+        <v>12.9139</v>
       </c>
       <c r="C6" t="n">
-        <v>14.0163</v>
+        <v>13.9716</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7355</v>
+        <v>20.7467</v>
       </c>
       <c r="E6" t="n">
-        <v>18.044</v>
+        <v>18.0366</v>
       </c>
       <c r="F6" t="n">
-        <v>19.35</v>
+        <v>19.3385</v>
       </c>
       <c r="G6" t="n">
-        <v>23.6213</v>
+        <v>23.6061</v>
       </c>
     </row>
     <row r="7">
@@ -7541,22 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.0976</v>
+        <v>15.0875</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3659</v>
+        <v>16.3837</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7738</v>
+        <v>24.7969</v>
       </c>
       <c r="E7" t="n">
-        <v>21.4612</v>
+        <v>21.4721</v>
       </c>
       <c r="F7" t="n">
-        <v>22.5572</v>
+        <v>22.5266</v>
       </c>
       <c r="G7" t="n">
-        <v>27.2857</v>
+        <v>26.9981</v>
       </c>
     </row>
     <row r="8">
@@ -7564,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.0399</v>
+        <v>17.055</v>
       </c>
       <c r="C8" t="n">
-        <v>18.7113</v>
+        <v>18.6948</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0988</v>
+        <v>28.0438</v>
       </c>
       <c r="E8" t="n">
-        <v>24.6847</v>
+        <v>24.6686</v>
       </c>
       <c r="F8" t="n">
-        <v>25.4755</v>
+        <v>25.4482</v>
       </c>
       <c r="G8" t="n">
-        <v>30.9874</v>
+        <v>30.9394</v>
       </c>
     </row>
     <row r="9">
@@ -7587,22 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7536</v>
+        <v>19.755</v>
       </c>
       <c r="C9" t="n">
-        <v>21.5335</v>
+        <v>21.5754</v>
       </c>
       <c r="D9" t="n">
-        <v>32.4839</v>
+        <v>32.4432</v>
       </c>
       <c r="E9" t="n">
-        <v>28.3791</v>
+        <v>28.4171</v>
       </c>
       <c r="F9" t="n">
-        <v>29.5253</v>
+        <v>29.3</v>
       </c>
       <c r="G9" t="n">
-        <v>34.9785</v>
+        <v>35.3789</v>
       </c>
     </row>
     <row r="10">
@@ -7610,22 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3067</v>
+        <v>17.295</v>
       </c>
       <c r="C10" t="n">
-        <v>18.471</v>
+        <v>18.398</v>
       </c>
       <c r="D10" t="n">
-        <v>27.288</v>
+        <v>27.4239</v>
       </c>
       <c r="E10" t="n">
-        <v>22.1945</v>
+        <v>22.0829</v>
       </c>
       <c r="F10" t="n">
-        <v>24.4937</v>
+        <v>24.4278</v>
       </c>
       <c r="G10" t="n">
-        <v>29.4319</v>
+        <v>28.8844</v>
       </c>
     </row>
     <row r="11">
@@ -7633,22 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.7265</v>
+        <v>16.993</v>
       </c>
       <c r="C11" t="n">
-        <v>18.5053</v>
+        <v>18.5622</v>
       </c>
       <c r="D11" t="n">
-        <v>27.244</v>
+        <v>27.3154</v>
       </c>
       <c r="E11" t="n">
-        <v>23.2446</v>
+        <v>23.1772</v>
       </c>
       <c r="F11" t="n">
-        <v>24.5299</v>
+        <v>24.7679</v>
       </c>
       <c r="G11" t="n">
-        <v>28.9136</v>
+        <v>28.679</v>
       </c>
     </row>
     <row r="12">
@@ -7656,22 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.641</v>
+        <v>17.5846</v>
       </c>
       <c r="C12" t="n">
-        <v>19.2861</v>
+        <v>19.2272</v>
       </c>
       <c r="D12" t="n">
-        <v>28.4171</v>
+        <v>28.5899</v>
       </c>
       <c r="E12" t="n">
-        <v>24.0717</v>
+        <v>23.7339</v>
       </c>
       <c r="F12" t="n">
-        <v>26.3354</v>
+        <v>25.6763</v>
       </c>
       <c r="G12" t="n">
-        <v>28.8628</v>
+        <v>29.4666</v>
       </c>
     </row>
     <row r="13">
@@ -7679,22 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.5371</v>
+        <v>18.3317</v>
       </c>
       <c r="C13" t="n">
-        <v>19.8795</v>
+        <v>19.568</v>
       </c>
       <c r="D13" t="n">
-        <v>28.4739</v>
+        <v>29.5276</v>
       </c>
       <c r="E13" t="n">
-        <v>25.2923</v>
+        <v>24.5869</v>
       </c>
       <c r="F13" t="n">
-        <v>27.1511</v>
+        <v>25.9018</v>
       </c>
       <c r="G13" t="n">
-        <v>30.6658</v>
+        <v>29.4809</v>
       </c>
     </row>
     <row r="14">
@@ -7702,22 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.8677</v>
+        <v>18.0056</v>
       </c>
       <c r="C14" t="n">
-        <v>19.7796</v>
+        <v>19.7104</v>
       </c>
       <c r="D14" t="n">
-        <v>27.9288</v>
+        <v>28.1187</v>
       </c>
       <c r="E14" t="n">
-        <v>24.3203</v>
+        <v>24.403</v>
       </c>
       <c r="F14" t="n">
-        <v>25.6366</v>
+        <v>26.1609</v>
       </c>
       <c r="G14" t="n">
-        <v>29.5398</v>
+        <v>28.1384</v>
       </c>
     </row>
     <row r="15">
@@ -7725,22 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0411</v>
+        <v>18.105</v>
       </c>
       <c r="C15" t="n">
-        <v>20.0265</v>
+        <v>20.0568</v>
       </c>
       <c r="D15" t="n">
-        <v>27.9746</v>
+        <v>28.1951</v>
       </c>
       <c r="E15" t="n">
-        <v>24.5298</v>
+        <v>24.201</v>
       </c>
       <c r="F15" t="n">
-        <v>25.234</v>
+        <v>25.4221</v>
       </c>
       <c r="G15" t="n">
-        <v>29.2336</v>
+        <v>29.3188</v>
       </c>
     </row>
     <row r="16">
@@ -7748,22 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.4546</v>
+        <v>18.1857</v>
       </c>
       <c r="C16" t="n">
-        <v>20.5294</v>
+        <v>20.4511</v>
       </c>
       <c r="D16" t="n">
-        <v>28.563</v>
+        <v>27.9651</v>
       </c>
       <c r="E16" t="n">
-        <v>24.0753</v>
+        <v>24.8249</v>
       </c>
       <c r="F16" t="n">
-        <v>25.92</v>
+        <v>25.7506</v>
       </c>
       <c r="G16" t="n">
-        <v>29.3038</v>
+        <v>28.5483</v>
       </c>
     </row>
     <row r="17">
@@ -7771,22 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.8496</v>
+        <v>18.7947</v>
       </c>
       <c r="C17" t="n">
-        <v>20.8914</v>
+        <v>20.8821</v>
       </c>
       <c r="D17" t="n">
-        <v>28.8735</v>
+        <v>29.3736</v>
       </c>
       <c r="E17" t="n">
-        <v>24.4883</v>
+        <v>25.1378</v>
       </c>
       <c r="F17" t="n">
-        <v>25.0584</v>
+        <v>25.1029</v>
       </c>
       <c r="G17" t="n">
-        <v>28.8612</v>
+        <v>28.0344</v>
       </c>
     </row>
   </sheetData>
@@ -7849,22 +7849,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.02126</v>
+        <v>3.02701</v>
       </c>
       <c r="C2" t="n">
-        <v>4.53986</v>
+        <v>4.5381</v>
       </c>
       <c r="D2" t="n">
-        <v>5.19532</v>
+        <v>5.19341</v>
       </c>
       <c r="E2" t="n">
-        <v>4.02492</v>
+        <v>4.02248</v>
       </c>
       <c r="F2" t="n">
-        <v>4.20979</v>
+        <v>4.21502</v>
       </c>
       <c r="G2" t="n">
-        <v>4.85949</v>
+        <v>4.86487</v>
       </c>
     </row>
     <row r="3">
@@ -7872,22 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.87722</v>
+        <v>4.85072</v>
       </c>
       <c r="C3" t="n">
-        <v>6.18788</v>
+        <v>6.15634</v>
       </c>
       <c r="D3" t="n">
-        <v>8.54693</v>
+        <v>8.493359999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>7.17704</v>
+        <v>7.15757</v>
       </c>
       <c r="F3" t="n">
-        <v>6.88464</v>
+        <v>6.86253</v>
       </c>
       <c r="G3" t="n">
-        <v>8.05594</v>
+        <v>8.036210000000001</v>
       </c>
     </row>
     <row r="4">
@@ -7895,22 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.58126</v>
+        <v>6.6062</v>
       </c>
       <c r="C4" t="n">
-        <v>8.2202</v>
+        <v>8.24592</v>
       </c>
       <c r="D4" t="n">
-        <v>11.8296</v>
+        <v>11.847</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3213</v>
+        <v>10.3254</v>
       </c>
       <c r="F4" t="n">
-        <v>9.57775</v>
+        <v>9.577019999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>11.3185</v>
+        <v>11.3344</v>
       </c>
     </row>
     <row r="5">
@@ -7918,22 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.17506</v>
+        <v>8.14747</v>
       </c>
       <c r="C5" t="n">
-        <v>10.2984</v>
+        <v>10.2989</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0137</v>
+        <v>15.0192</v>
       </c>
       <c r="E5" t="n">
-        <v>13.3983</v>
+        <v>13.3954</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0731</v>
+        <v>12.1021</v>
       </c>
       <c r="G5" t="n">
-        <v>14.286</v>
+        <v>14.2997</v>
       </c>
     </row>
     <row r="6">
@@ -7941,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.728160000000001</v>
+        <v>9.707409999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4005</v>
+        <v>12.3989</v>
       </c>
       <c r="D6" t="n">
-        <v>18.0846</v>
+        <v>18.1056</v>
       </c>
       <c r="E6" t="n">
-        <v>16.4116</v>
+        <v>16.4336</v>
       </c>
       <c r="F6" t="n">
-        <v>14.2597</v>
+        <v>14.2609</v>
       </c>
       <c r="G6" t="n">
-        <v>17.0467</v>
+        <v>17.0382</v>
       </c>
     </row>
     <row r="7">
@@ -7964,22 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3094</v>
+        <v>11.24</v>
       </c>
       <c r="C7" t="n">
-        <v>14.4844</v>
+        <v>14.5017</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0506</v>
+        <v>21.0811</v>
       </c>
       <c r="E7" t="n">
-        <v>19.3926</v>
+        <v>19.3889</v>
       </c>
       <c r="F7" t="n">
-        <v>16.2961</v>
+        <v>16.0521</v>
       </c>
       <c r="G7" t="n">
-        <v>19.5059</v>
+        <v>19.5264</v>
       </c>
     </row>
     <row r="8">
@@ -7987,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7222</v>
+        <v>12.6432</v>
       </c>
       <c r="C8" t="n">
-        <v>16.7791</v>
+        <v>16.7634</v>
       </c>
       <c r="D8" t="n">
-        <v>24.0809</v>
+        <v>24.0391</v>
       </c>
       <c r="E8" t="n">
-        <v>22.3362</v>
+        <v>22.3019</v>
       </c>
       <c r="F8" t="n">
-        <v>18.2169</v>
+        <v>18.1107</v>
       </c>
       <c r="G8" t="n">
-        <v>21.8731</v>
+        <v>21.8243</v>
       </c>
     </row>
     <row r="9">
@@ -8010,22 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.903</v>
+        <v>14.922</v>
       </c>
       <c r="C9" t="n">
-        <v>19.7283</v>
+        <v>19.7801</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6621</v>
+        <v>28.5954</v>
       </c>
       <c r="E9" t="n">
-        <v>25.6775</v>
+        <v>25.723</v>
       </c>
       <c r="F9" t="n">
-        <v>20.734</v>
+        <v>20.737</v>
       </c>
       <c r="G9" t="n">
-        <v>24.1186</v>
+        <v>24.0748</v>
       </c>
     </row>
     <row r="10">
@@ -8033,22 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2418</v>
+        <v>14.0668</v>
       </c>
       <c r="C10" t="n">
-        <v>18.1242</v>
+        <v>18.2873</v>
       </c>
       <c r="D10" t="n">
-        <v>26.5458</v>
+        <v>26.4281</v>
       </c>
       <c r="E10" t="n">
-        <v>23.4575</v>
+        <v>23.4918</v>
       </c>
       <c r="F10" t="n">
-        <v>20.0854</v>
+        <v>19.694</v>
       </c>
       <c r="G10" t="n">
-        <v>22.9946</v>
+        <v>23.0036</v>
       </c>
     </row>
     <row r="11">
@@ -8056,22 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.183</v>
+        <v>14.2003</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3366</v>
+        <v>18.3333</v>
       </c>
       <c r="D11" t="n">
-        <v>26.7269</v>
+        <v>26.4003</v>
       </c>
       <c r="E11" t="n">
-        <v>23.6846</v>
+        <v>23.7509</v>
       </c>
       <c r="F11" t="n">
-        <v>19.5161</v>
+        <v>19.1534</v>
       </c>
       <c r="G11" t="n">
-        <v>22.3932</v>
+        <v>22.2306</v>
       </c>
     </row>
     <row r="12">
@@ -8079,22 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2321</v>
+        <v>14.2412</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5093</v>
+        <v>18.5308</v>
       </c>
       <c r="D12" t="n">
-        <v>26.2014</v>
+        <v>26.4268</v>
       </c>
       <c r="E12" t="n">
-        <v>23.5307</v>
+        <v>23.801</v>
       </c>
       <c r="F12" t="n">
-        <v>18.5266</v>
+        <v>19.2256</v>
       </c>
       <c r="G12" t="n">
-        <v>21.4469</v>
+        <v>21.1738</v>
       </c>
     </row>
     <row r="13">
@@ -8102,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5146</v>
+        <v>14.5143</v>
       </c>
       <c r="C13" t="n">
-        <v>18.3458</v>
+        <v>18.5908</v>
       </c>
       <c r="D13" t="n">
-        <v>26.8381</v>
+        <v>26.9129</v>
       </c>
       <c r="E13" t="n">
-        <v>24.189</v>
+        <v>24.1741</v>
       </c>
       <c r="F13" t="n">
-        <v>18.3993</v>
+        <v>18.0764</v>
       </c>
       <c r="G13" t="n">
-        <v>20.8154</v>
+        <v>20.7671</v>
       </c>
     </row>
     <row r="14">
@@ -8125,22 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9516</v>
+        <v>13.95</v>
       </c>
       <c r="C14" t="n">
-        <v>18.6638</v>
+        <v>18.6785</v>
       </c>
       <c r="D14" t="n">
-        <v>25.6999</v>
+        <v>25.7569</v>
       </c>
       <c r="E14" t="n">
-        <v>23.2649</v>
+        <v>23.5867</v>
       </c>
       <c r="F14" t="n">
-        <v>17.3901</v>
+        <v>17.6944</v>
       </c>
       <c r="G14" t="n">
-        <v>20.3817</v>
+        <v>20.4046</v>
       </c>
     </row>
     <row r="15">
@@ -8148,22 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4947</v>
+        <v>14.6229</v>
       </c>
       <c r="C15" t="n">
-        <v>18.7743</v>
+        <v>18.7327</v>
       </c>
       <c r="D15" t="n">
-        <v>26.108</v>
+        <v>26.7626</v>
       </c>
       <c r="E15" t="n">
-        <v>24.1029</v>
+        <v>24.2292</v>
       </c>
       <c r="F15" t="n">
-        <v>17.7336</v>
+        <v>17.928</v>
       </c>
       <c r="G15" t="n">
-        <v>20.1862</v>
+        <v>20.0326</v>
       </c>
     </row>
     <row r="16">
@@ -8171,22 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5183</v>
+        <v>14.5964</v>
       </c>
       <c r="C16" t="n">
-        <v>18.8875</v>
+        <v>18.9043</v>
       </c>
       <c r="D16" t="n">
-        <v>26.1323</v>
+        <v>26.3676</v>
       </c>
       <c r="E16" t="n">
-        <v>23.6841</v>
+        <v>23.8462</v>
       </c>
       <c r="F16" t="n">
-        <v>17.1781</v>
+        <v>16.954</v>
       </c>
       <c r="G16" t="n">
-        <v>19.3318</v>
+        <v>19.7359</v>
       </c>
     </row>
     <row r="17">
@@ -8194,22 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4554</v>
+        <v>14.5078</v>
       </c>
       <c r="C17" t="n">
-        <v>18.9796</v>
+        <v>19.011</v>
       </c>
       <c r="D17" t="n">
-        <v>26.2401</v>
+        <v>26.0954</v>
       </c>
       <c r="E17" t="n">
-        <v>23.7847</v>
+        <v>23.4431</v>
       </c>
       <c r="F17" t="n">
-        <v>16.6173</v>
+        <v>17.0668</v>
       </c>
       <c r="G17" t="n">
-        <v>19.114</v>
+        <v>19.1557</v>
       </c>
     </row>
   </sheetData>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0225</v>
+        <v>3.99278</v>
       </c>
       <c r="C2" t="n">
-        <v>7.37703</v>
+        <v>7.36819</v>
       </c>
       <c r="D2" t="n">
-        <v>8.37926</v>
+        <v>8.368370000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>5.76619</v>
+        <v>5.75836</v>
       </c>
       <c r="F2" t="n">
-        <v>6.06204</v>
+        <v>6.02733</v>
       </c>
       <c r="G2" t="n">
-        <v>7.70924</v>
+        <v>7.64771</v>
       </c>
     </row>
     <row r="3">
@@ -8295,22 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.0691</v>
+        <v>6.03608</v>
       </c>
       <c r="C3" t="n">
-        <v>8.345420000000001</v>
+        <v>8.36618</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1899</v>
+        <v>12.217</v>
       </c>
       <c r="E3" t="n">
-        <v>9.704689999999999</v>
+        <v>9.710459999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>9.174519999999999</v>
+        <v>9.169560000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>11.5114</v>
+        <v>11.5036</v>
       </c>
     </row>
     <row r="4">
@@ -8318,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.133839999999999</v>
+        <v>8.22321</v>
       </c>
       <c r="C4" t="n">
-        <v>10.7603</v>
+        <v>10.8161</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4142</v>
+        <v>16.4906</v>
       </c>
       <c r="E4" t="n">
-        <v>13.7935</v>
+        <v>13.8456</v>
       </c>
       <c r="F4" t="n">
-        <v>12.6133</v>
+        <v>12.6345</v>
       </c>
       <c r="G4" t="n">
-        <v>15.752</v>
+        <v>15.8057</v>
       </c>
     </row>
     <row r="5">
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0939</v>
+        <v>10.098</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1767</v>
+        <v>13.2382</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4583</v>
+        <v>20.4176</v>
       </c>
       <c r="E5" t="n">
-        <v>17.6823</v>
+        <v>17.6727</v>
       </c>
       <c r="F5" t="n">
-        <v>15.5308</v>
+        <v>15.6</v>
       </c>
       <c r="G5" t="n">
-        <v>19.5474</v>
+        <v>19.6246</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0576</v>
+        <v>11.9956</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7495</v>
+        <v>15.7378</v>
       </c>
       <c r="D6" t="n">
-        <v>24.3889</v>
+        <v>24.3748</v>
       </c>
       <c r="E6" t="n">
-        <v>21.5907</v>
+        <v>21.6162</v>
       </c>
       <c r="F6" t="n">
-        <v>18.1488</v>
+        <v>17.9567</v>
       </c>
       <c r="G6" t="n">
-        <v>22.8411</v>
+        <v>22.825</v>
       </c>
     </row>
     <row r="7">
@@ -8387,22 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.837</v>
+        <v>13.8461</v>
       </c>
       <c r="C7" t="n">
-        <v>18.3547</v>
+        <v>18.3469</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2624</v>
+        <v>28.2158</v>
       </c>
       <c r="E7" t="n">
-        <v>25.401</v>
+        <v>25.381</v>
       </c>
       <c r="F7" t="n">
-        <v>20.6039</v>
+        <v>20.3053</v>
       </c>
       <c r="G7" t="n">
-        <v>25.8971</v>
+        <v>25.6809</v>
       </c>
     </row>
     <row r="8">
@@ -8410,22 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6312</v>
+        <v>15.6317</v>
       </c>
       <c r="C8" t="n">
-        <v>21.2492</v>
+        <v>21.2737</v>
       </c>
       <c r="D8" t="n">
-        <v>32.3078</v>
+        <v>32.1412</v>
       </c>
       <c r="E8" t="n">
-        <v>29.1736</v>
+        <v>29.2248</v>
       </c>
       <c r="F8" t="n">
-        <v>22.5376</v>
+        <v>22.6832</v>
       </c>
       <c r="G8" t="n">
-        <v>28.5753</v>
+        <v>28.6563</v>
       </c>
     </row>
     <row r="9">
@@ -8433,22 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1951</v>
+        <v>18.2039</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8482</v>
+        <v>24.8632</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3158</v>
+        <v>38.3357</v>
       </c>
       <c r="E9" t="n">
-        <v>33.5801</v>
+        <v>33.5223</v>
       </c>
       <c r="F9" t="n">
-        <v>25.6442</v>
+        <v>25.959</v>
       </c>
       <c r="G9" t="n">
-        <v>31.2301</v>
+        <v>31.4063</v>
       </c>
     </row>
     <row r="10">
@@ -8456,22 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2645</v>
+        <v>17.2185</v>
       </c>
       <c r="C10" t="n">
-        <v>23.1194</v>
+        <v>23.1517</v>
       </c>
       <c r="D10" t="n">
-        <v>34.3586</v>
+        <v>35.3981</v>
       </c>
       <c r="E10" t="n">
-        <v>30.6661</v>
+        <v>30.7226</v>
       </c>
       <c r="F10" t="n">
-        <v>24.3828</v>
+        <v>24.4191</v>
       </c>
       <c r="G10" t="n">
-        <v>29.7298</v>
+        <v>29.2587</v>
       </c>
     </row>
     <row r="11">
@@ -8479,22 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1712</v>
+        <v>17.2046</v>
       </c>
       <c r="C11" t="n">
-        <v>22.8815</v>
+        <v>22.7533</v>
       </c>
       <c r="D11" t="n">
-        <v>35.055</v>
+        <v>35.0194</v>
       </c>
       <c r="E11" t="n">
-        <v>30.4701</v>
+        <v>30.2489</v>
       </c>
       <c r="F11" t="n">
-        <v>23.671</v>
+        <v>23.8147</v>
       </c>
       <c r="G11" t="n">
-        <v>28.6271</v>
+        <v>28.9396</v>
       </c>
     </row>
     <row r="12">
@@ -8502,22 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3991</v>
+        <v>17.3686</v>
       </c>
       <c r="C12" t="n">
-        <v>22.917</v>
+        <v>23.1547</v>
       </c>
       <c r="D12" t="n">
-        <v>35.1242</v>
+        <v>35.1129</v>
       </c>
       <c r="E12" t="n">
-        <v>30.8254</v>
+        <v>30.9121</v>
       </c>
       <c r="F12" t="n">
-        <v>22.7118</v>
+        <v>23.4123</v>
       </c>
       <c r="G12" t="n">
-        <v>27.472</v>
+        <v>27.2013</v>
       </c>
     </row>
     <row r="13">
@@ -8525,22 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6293</v>
+        <v>17.7312</v>
       </c>
       <c r="C13" t="n">
-        <v>23.2474</v>
+        <v>23.2335</v>
       </c>
       <c r="D13" t="n">
-        <v>35.324</v>
+        <v>35.2266</v>
       </c>
       <c r="E13" t="n">
-        <v>30.9939</v>
+        <v>31.4071</v>
       </c>
       <c r="F13" t="n">
-        <v>22.3077</v>
+        <v>22.1515</v>
       </c>
       <c r="G13" t="n">
-        <v>26.4789</v>
+        <v>26.6571</v>
       </c>
     </row>
     <row r="14">
@@ -8548,22 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0201</v>
+        <v>17.0004</v>
       </c>
       <c r="C14" t="n">
-        <v>23.4483</v>
+        <v>23.3394</v>
       </c>
       <c r="D14" t="n">
-        <v>34.1489</v>
+        <v>34.1309</v>
       </c>
       <c r="E14" t="n">
-        <v>30.1077</v>
+        <v>30.2384</v>
       </c>
       <c r="F14" t="n">
-        <v>21.3272</v>
+        <v>20.7577</v>
       </c>
       <c r="G14" t="n">
-        <v>24.9129</v>
+        <v>24.8795</v>
       </c>
     </row>
     <row r="15">
@@ -8571,22 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.7204</v>
+        <v>17.8514</v>
       </c>
       <c r="C15" t="n">
-        <v>23.5725</v>
+        <v>23.5486</v>
       </c>
       <c r="D15" t="n">
-        <v>34.6043</v>
+        <v>34.2728</v>
       </c>
       <c r="E15" t="n">
-        <v>30.7019</v>
+        <v>30.5576</v>
       </c>
       <c r="F15" t="n">
-        <v>20.7956</v>
+        <v>21.1074</v>
       </c>
       <c r="G15" t="n">
-        <v>24.5952</v>
+        <v>24.2996</v>
       </c>
     </row>
     <row r="16">
@@ -8594,22 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6436</v>
+        <v>17.7407</v>
       </c>
       <c r="C16" t="n">
-        <v>23.816</v>
+        <v>23.6864</v>
       </c>
       <c r="D16" t="n">
-        <v>34.3707</v>
+        <v>34.0596</v>
       </c>
       <c r="E16" t="n">
-        <v>30.618</v>
+        <v>30.1574</v>
       </c>
       <c r="F16" t="n">
-        <v>21.3207</v>
+        <v>20.6363</v>
       </c>
       <c r="G16" t="n">
-        <v>24.3941</v>
+        <v>23.7631</v>
       </c>
     </row>
     <row r="17">
@@ -8617,22 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6063</v>
+        <v>17.5248</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9123</v>
+        <v>23.9457</v>
       </c>
       <c r="D17" t="n">
-        <v>34.2036</v>
+        <v>33.9055</v>
       </c>
       <c r="E17" t="n">
-        <v>30.4041</v>
+        <v>29.9298</v>
       </c>
       <c r="F17" t="n">
-        <v>19.999</v>
+        <v>19.3916</v>
       </c>
       <c r="G17" t="n">
-        <v>23.6107</v>
+        <v>22.8293</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.37811</v>
+        <v>5.37199</v>
       </c>
       <c r="C2" t="n">
-        <v>5.87809</v>
+        <v>5.87815</v>
       </c>
       <c r="D2" t="n">
-        <v>6.5964</v>
+        <v>6.5927</v>
       </c>
       <c r="E2" t="n">
-        <v>4.7156</v>
+        <v>4.71265</v>
       </c>
       <c r="F2" t="n">
-        <v>6.14024</v>
+        <v>6.11753</v>
       </c>
       <c r="G2" t="n">
-        <v>7.1868</v>
+        <v>7.17268</v>
       </c>
     </row>
     <row r="3">
@@ -8718,22 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.96356</v>
+        <v>6.88452</v>
       </c>
       <c r="C3" t="n">
-        <v>7.24998</v>
+        <v>7.24207</v>
       </c>
       <c r="D3" t="n">
-        <v>9.87077</v>
+        <v>9.854810000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>7.98292</v>
+        <v>7.95553</v>
       </c>
       <c r="F3" t="n">
-        <v>9.239560000000001</v>
+        <v>9.162649999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>11.0544</v>
+        <v>10.975</v>
       </c>
     </row>
     <row r="4">
@@ -8741,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.936030000000001</v>
+        <v>8.86918</v>
       </c>
       <c r="C4" t="n">
-        <v>9.393190000000001</v>
+        <v>9.34647</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5845</v>
+        <v>13.52</v>
       </c>
       <c r="E4" t="n">
-        <v>11.4455</v>
+        <v>11.3796</v>
       </c>
       <c r="F4" t="n">
-        <v>12.6086</v>
+        <v>12.5692</v>
       </c>
       <c r="G4" t="n">
-        <v>15.2477</v>
+        <v>15.1753</v>
       </c>
     </row>
     <row r="5">
@@ -8764,22 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9175</v>
+        <v>10.9109</v>
       </c>
       <c r="C5" t="n">
-        <v>11.55</v>
+        <v>11.5798</v>
       </c>
       <c r="D5" t="n">
-        <v>17.2945</v>
+        <v>17.2488</v>
       </c>
       <c r="E5" t="n">
-        <v>14.854</v>
+        <v>14.8705</v>
       </c>
       <c r="F5" t="n">
-        <v>15.8736</v>
+        <v>15.8447</v>
       </c>
       <c r="G5" t="n">
-        <v>19.2735</v>
+        <v>19.344</v>
       </c>
     </row>
     <row r="6">
@@ -8787,22 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.9423</v>
+        <v>12.9456</v>
       </c>
       <c r="C6" t="n">
-        <v>13.8509</v>
+        <v>13.8584</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0083</v>
+        <v>21.0018</v>
       </c>
       <c r="E6" t="n">
-        <v>18.2529</v>
+        <v>18.2645</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0034</v>
+        <v>19.1003</v>
       </c>
       <c r="G6" t="n">
-        <v>23.3671</v>
+        <v>23.3248</v>
       </c>
     </row>
     <row r="7">
@@ -8810,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.9924</v>
+        <v>14.9727</v>
       </c>
       <c r="C7" t="n">
-        <v>16.1631</v>
+        <v>16.16</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7925</v>
+        <v>24.7345</v>
       </c>
       <c r="E7" t="n">
-        <v>21.6739</v>
+        <v>21.6449</v>
       </c>
       <c r="F7" t="n">
-        <v>22.2494</v>
+        <v>22.0965</v>
       </c>
       <c r="G7" t="n">
-        <v>27.1927</v>
+        <v>27.1747</v>
       </c>
     </row>
     <row r="8">
@@ -8833,22 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.2152</v>
+        <v>17.2141</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6644</v>
+        <v>18.6207</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5785</v>
+        <v>28.5573</v>
       </c>
       <c r="E8" t="n">
-        <v>24.9888</v>
+        <v>24.973</v>
       </c>
       <c r="F8" t="n">
-        <v>25.3905</v>
+        <v>25.2293</v>
       </c>
       <c r="G8" t="n">
-        <v>30.8975</v>
+        <v>30.9535</v>
       </c>
     </row>
     <row r="9">
@@ -8856,22 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2382</v>
+        <v>20.2574</v>
       </c>
       <c r="C9" t="n">
-        <v>21.4681</v>
+        <v>21.4905</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3906</v>
+        <v>33.3737</v>
       </c>
       <c r="E9" t="n">
-        <v>28.8379</v>
+        <v>28.9008</v>
       </c>
       <c r="F9" t="n">
-        <v>29.3715</v>
+        <v>29.313</v>
       </c>
       <c r="G9" t="n">
-        <v>35.4142</v>
+        <v>35.4292</v>
       </c>
     </row>
     <row r="10">
@@ -8879,22 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1198</v>
+        <v>19.2474</v>
       </c>
       <c r="C10" t="n">
-        <v>20.304</v>
+        <v>20.0455</v>
       </c>
       <c r="D10" t="n">
-        <v>30.8938</v>
+        <v>30.2176</v>
       </c>
       <c r="E10" t="n">
-        <v>26.7289</v>
+        <v>27.0722</v>
       </c>
       <c r="F10" t="n">
-        <v>27.4934</v>
+        <v>27.3874</v>
       </c>
       <c r="G10" t="n">
-        <v>32.5488</v>
+        <v>32.1434</v>
       </c>
     </row>
     <row r="11">
@@ -8902,22 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.9258</v>
+        <v>18.9038</v>
       </c>
       <c r="C11" t="n">
-        <v>19.8019</v>
+        <v>19.899</v>
       </c>
       <c r="D11" t="n">
-        <v>30.4465</v>
+        <v>30.7635</v>
       </c>
       <c r="E11" t="n">
-        <v>26.5665</v>
+        <v>26.6445</v>
       </c>
       <c r="F11" t="n">
-        <v>26.4627</v>
+        <v>26.8063</v>
       </c>
       <c r="G11" t="n">
-        <v>32.175</v>
+        <v>32.0252</v>
       </c>
     </row>
     <row r="12">
@@ -8925,22 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2504</v>
+        <v>19.2696</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0572</v>
+        <v>20.3693</v>
       </c>
       <c r="D12" t="n">
-        <v>30.6408</v>
+        <v>30.7358</v>
       </c>
       <c r="E12" t="n">
-        <v>26.914</v>
+        <v>26.7788</v>
       </c>
       <c r="F12" t="n">
-        <v>26.7009</v>
+        <v>27.2617</v>
       </c>
       <c r="G12" t="n">
-        <v>32.1841</v>
+        <v>32.1873</v>
       </c>
     </row>
     <row r="13">
@@ -8948,22 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4108</v>
+        <v>19.2677</v>
       </c>
       <c r="C13" t="n">
-        <v>20.3155</v>
+        <v>20.4998</v>
       </c>
       <c r="D13" t="n">
-        <v>30.9353</v>
+        <v>31.4559</v>
       </c>
       <c r="E13" t="n">
-        <v>27.1147</v>
+        <v>27.2054</v>
       </c>
       <c r="F13" t="n">
-        <v>26.8886</v>
+        <v>27.0476</v>
       </c>
       <c r="G13" t="n">
-        <v>32.7067</v>
+        <v>32.5727</v>
       </c>
     </row>
     <row r="14">
@@ -8971,22 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7079</v>
+        <v>18.792</v>
       </c>
       <c r="C14" t="n">
-        <v>20.5094</v>
+        <v>20.4044</v>
       </c>
       <c r="D14" t="n">
-        <v>30.1978</v>
+        <v>30.4103</v>
       </c>
       <c r="E14" t="n">
-        <v>26.0894</v>
+        <v>26.243</v>
       </c>
       <c r="F14" t="n">
-        <v>25.9764</v>
+        <v>25.9389</v>
       </c>
       <c r="G14" t="n">
-        <v>30.7193</v>
+        <v>30.6278</v>
       </c>
     </row>
     <row r="15">
@@ -8994,22 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.5136</v>
+        <v>19.382</v>
       </c>
       <c r="C15" t="n">
-        <v>20.6752</v>
+        <v>20.6278</v>
       </c>
       <c r="D15" t="n">
-        <v>30.928</v>
+        <v>31.2468</v>
       </c>
       <c r="E15" t="n">
-        <v>27.1216</v>
+        <v>26.2842</v>
       </c>
       <c r="F15" t="n">
-        <v>26.8477</v>
+        <v>26.1707</v>
       </c>
       <c r="G15" t="n">
-        <v>31.0995</v>
+        <v>31.1015</v>
       </c>
     </row>
     <row r="16">
@@ -9017,22 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3423</v>
+        <v>19.4681</v>
       </c>
       <c r="C16" t="n">
-        <v>20.8528</v>
+        <v>20.8955</v>
       </c>
       <c r="D16" t="n">
-        <v>31.3582</v>
+        <v>30.9023</v>
       </c>
       <c r="E16" t="n">
-        <v>26.6732</v>
+        <v>26.7222</v>
       </c>
       <c r="F16" t="n">
-        <v>26.1208</v>
+        <v>26.265</v>
       </c>
       <c r="G16" t="n">
-        <v>30.659</v>
+        <v>30.6429</v>
       </c>
     </row>
     <row r="17">
@@ -9040,22 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.5103</v>
+        <v>19.098</v>
       </c>
       <c r="C17" t="n">
-        <v>21.1091</v>
+        <v>21.1396</v>
       </c>
       <c r="D17" t="n">
-        <v>30.5943</v>
+        <v>30.4426</v>
       </c>
       <c r="E17" t="n">
-        <v>27.042</v>
+        <v>27.1601</v>
       </c>
       <c r="F17" t="n">
-        <v>25.5902</v>
+        <v>25.9636</v>
       </c>
       <c r="G17" t="n">
-        <v>30.5629</v>
+        <v>30.8108</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Parallel workload.xlsx
+++ b/gcc-x86/Parallel workload.xlsx
@@ -6580,22 +6580,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.24728</v>
+        <v>5.22253</v>
       </c>
       <c r="C2" t="n">
-        <v>5.07762</v>
+        <v>5.07696</v>
       </c>
       <c r="D2" t="n">
-        <v>6.02574</v>
+        <v>6.02106</v>
       </c>
       <c r="E2" t="n">
-        <v>4.33082</v>
+        <v>4.33331</v>
       </c>
       <c r="F2" t="n">
-        <v>5.70771</v>
+        <v>5.71264</v>
       </c>
       <c r="G2" t="n">
-        <v>6.31143</v>
+        <v>6.31176</v>
       </c>
     </row>
     <row r="3">
@@ -6603,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24736</v>
+        <v>6.43107</v>
       </c>
       <c r="C3" t="n">
-        <v>6.28427</v>
+        <v>6.41564</v>
       </c>
       <c r="D3" t="n">
-        <v>8.8972</v>
+        <v>8.92614</v>
       </c>
       <c r="E3" t="n">
-        <v>7.22735</v>
+        <v>7.26335</v>
       </c>
       <c r="F3" t="n">
-        <v>8.20698</v>
+        <v>8.28471</v>
       </c>
       <c r="G3" t="n">
-        <v>9.24211</v>
+        <v>9.340260000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6626,22 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.85306</v>
+        <v>7.86898</v>
       </c>
       <c r="C4" t="n">
-        <v>8.345890000000001</v>
+        <v>8.332280000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1591</v>
+        <v>12.2482</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3765</v>
+        <v>10.3808</v>
       </c>
       <c r="F4" t="n">
-        <v>10.9834</v>
+        <v>10.9387</v>
       </c>
       <c r="G4" t="n">
-        <v>12.627</v>
+        <v>12.614</v>
       </c>
     </row>
     <row r="5">
@@ -6649,22 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.29917</v>
+        <v>9.34722</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3748</v>
+        <v>10.4023</v>
       </c>
       <c r="D5" t="n">
-        <v>15.3818</v>
+        <v>15.3591</v>
       </c>
       <c r="E5" t="n">
-        <v>13.3673</v>
+        <v>13.3862</v>
       </c>
       <c r="F5" t="n">
-        <v>13.595</v>
+        <v>13.4554</v>
       </c>
       <c r="G5" t="n">
-        <v>15.9068</v>
+        <v>15.8044</v>
       </c>
     </row>
     <row r="6">
@@ -6672,22 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0788</v>
+        <v>11.0197</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5533</v>
+        <v>12.6163</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4182</v>
+        <v>18.4072</v>
       </c>
       <c r="E6" t="n">
-        <v>16.3386</v>
+        <v>16.3002</v>
       </c>
       <c r="F6" t="n">
-        <v>15.9825</v>
+        <v>15.9638</v>
       </c>
       <c r="G6" t="n">
-        <v>18.8165</v>
+        <v>18.8146</v>
       </c>
     </row>
     <row r="7">
@@ -6695,22 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6613</v>
+        <v>12.7083</v>
       </c>
       <c r="C7" t="n">
-        <v>14.7701</v>
+        <v>14.9761</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5288</v>
+        <v>21.6172</v>
       </c>
       <c r="E7" t="n">
-        <v>19.2564</v>
+        <v>19.2634</v>
       </c>
       <c r="F7" t="n">
-        <v>18.2886</v>
+        <v>18.2755</v>
       </c>
       <c r="G7" t="n">
-        <v>21.577</v>
+        <v>21.445</v>
       </c>
     </row>
     <row r="8">
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0075</v>
+        <v>14.0235</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1099</v>
+        <v>17.1154</v>
       </c>
       <c r="D8" t="n">
-        <v>24.3375</v>
+        <v>24.321</v>
       </c>
       <c r="E8" t="n">
-        <v>22.1512</v>
+        <v>22.1623</v>
       </c>
       <c r="F8" t="n">
-        <v>20.6446</v>
+        <v>20.7444</v>
       </c>
       <c r="G8" t="n">
-        <v>24.56</v>
+        <v>24.4768</v>
       </c>
     </row>
     <row r="9">
@@ -6741,22 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.498</v>
+        <v>16.509</v>
       </c>
       <c r="C9" t="n">
-        <v>19.7524</v>
+        <v>19.7549</v>
       </c>
       <c r="D9" t="n">
-        <v>28.3768</v>
+        <v>28.1772</v>
       </c>
       <c r="E9" t="n">
-        <v>25.2637</v>
+        <v>25.0703</v>
       </c>
       <c r="F9" t="n">
-        <v>23.6932</v>
+        <v>23.6973</v>
       </c>
       <c r="G9" t="n">
-        <v>27.2897</v>
+        <v>26.7802</v>
       </c>
     </row>
     <row r="10">
@@ -6764,22 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2207</v>
+        <v>14.0286</v>
       </c>
       <c r="C10" t="n">
-        <v>16.669</v>
+        <v>16.9283</v>
       </c>
       <c r="D10" t="n">
-        <v>23.1655</v>
+        <v>23.0955</v>
       </c>
       <c r="E10" t="n">
-        <v>20.4256</v>
+        <v>20.3487</v>
       </c>
       <c r="F10" t="n">
-        <v>19.852</v>
+        <v>19.631</v>
       </c>
       <c r="G10" t="n">
-        <v>22.4455</v>
+        <v>22.2228</v>
       </c>
     </row>
     <row r="11">
@@ -6787,22 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1289</v>
+        <v>14.1821</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9497</v>
+        <v>16.92</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5905</v>
+        <v>24.0644</v>
       </c>
       <c r="E11" t="n">
-        <v>20.4397</v>
+        <v>20.9326</v>
       </c>
       <c r="F11" t="n">
-        <v>19.9803</v>
+        <v>19.7542</v>
       </c>
       <c r="G11" t="n">
-        <v>23.1978</v>
+        <v>22.5089</v>
       </c>
     </row>
     <row r="12">
@@ -6810,22 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.7596</v>
+        <v>14.7228</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6029</v>
+        <v>17.6845</v>
       </c>
       <c r="D12" t="n">
-        <v>24.7307</v>
+        <v>25.1699</v>
       </c>
       <c r="E12" t="n">
-        <v>21.5694</v>
+        <v>21.4392</v>
       </c>
       <c r="F12" t="n">
-        <v>20.5116</v>
+        <v>20.231</v>
       </c>
       <c r="G12" t="n">
-        <v>23.268</v>
+        <v>22.9568</v>
       </c>
     </row>
     <row r="13">
@@ -6833,22 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1511</v>
+        <v>15.2052</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2103</v>
+        <v>18.4763</v>
       </c>
       <c r="D13" t="n">
-        <v>25.8342</v>
+        <v>25.7776</v>
       </c>
       <c r="E13" t="n">
-        <v>22.461</v>
+        <v>22.5717</v>
       </c>
       <c r="F13" t="n">
-        <v>21.0618</v>
+        <v>21.2892</v>
       </c>
       <c r="G13" t="n">
-        <v>22.8255</v>
+        <v>22.7434</v>
       </c>
     </row>
     <row r="14">
@@ -6856,22 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0577</v>
+        <v>15.0611</v>
       </c>
       <c r="C14" t="n">
-        <v>18.4168</v>
+        <v>18.3167</v>
       </c>
       <c r="D14" t="n">
-        <v>25.3651</v>
+        <v>24.7594</v>
       </c>
       <c r="E14" t="n">
-        <v>22.3011</v>
+        <v>21.6353</v>
       </c>
       <c r="F14" t="n">
-        <v>19.9178</v>
+        <v>20.4869</v>
       </c>
       <c r="G14" t="n">
-        <v>22.7174</v>
+        <v>22.4215</v>
       </c>
     </row>
     <row r="15">
@@ -6879,22 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.3241</v>
+        <v>15.31</v>
       </c>
       <c r="C15" t="n">
-        <v>18.4098</v>
+        <v>18.5589</v>
       </c>
       <c r="D15" t="n">
-        <v>24.2249</v>
+        <v>24.329</v>
       </c>
       <c r="E15" t="n">
-        <v>21.8983</v>
+        <v>22.5434</v>
       </c>
       <c r="F15" t="n">
-        <v>20.0253</v>
+        <v>19.6475</v>
       </c>
       <c r="G15" t="n">
-        <v>22.0514</v>
+        <v>23.0967</v>
       </c>
     </row>
     <row r="16">
@@ -6902,22 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4039</v>
+        <v>15.5943</v>
       </c>
       <c r="C16" t="n">
-        <v>18.9097</v>
+        <v>18.7364</v>
       </c>
       <c r="D16" t="n">
-        <v>24.9072</v>
+        <v>25.4707</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9324</v>
+        <v>21.9551</v>
       </c>
       <c r="F16" t="n">
-        <v>19.8385</v>
+        <v>20.5673</v>
       </c>
       <c r="G16" t="n">
-        <v>23.0131</v>
+        <v>23.195</v>
       </c>
     </row>
     <row r="17">
@@ -6925,22 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4261</v>
+        <v>15.1716</v>
       </c>
       <c r="C17" t="n">
-        <v>19.3488</v>
+        <v>19.0954</v>
       </c>
       <c r="D17" t="n">
-        <v>25.3394</v>
+        <v>24.9428</v>
       </c>
       <c r="E17" t="n">
-        <v>22.332</v>
+        <v>22.0339</v>
       </c>
       <c r="F17" t="n">
-        <v>19.4642</v>
+        <v>19.5574</v>
       </c>
       <c r="G17" t="n">
-        <v>21.6353</v>
+        <v>22.4568</v>
       </c>
     </row>
   </sheetData>
@@ -7003,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.76017</v>
+        <v>8.690630000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>8.699590000000001</v>
+        <v>8.69407</v>
       </c>
       <c r="D2" t="n">
-        <v>10.6275</v>
+        <v>10.6148</v>
       </c>
       <c r="E2" t="n">
-        <v>6.35738</v>
+        <v>6.35294</v>
       </c>
       <c r="F2" t="n">
-        <v>9.775219999999999</v>
+        <v>9.67754</v>
       </c>
       <c r="G2" t="n">
-        <v>11.7363</v>
+        <v>11.582</v>
       </c>
     </row>
     <row r="3">
@@ -7026,22 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.455909999999999</v>
+        <v>8.445489999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8.74051</v>
+        <v>8.680210000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9756</v>
+        <v>12.9543</v>
       </c>
       <c r="E3" t="n">
-        <v>9.82015</v>
+        <v>9.793010000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>11.6112</v>
+        <v>11.5308</v>
       </c>
       <c r="G3" t="n">
-        <v>13.9576</v>
+        <v>13.8842</v>
       </c>
     </row>
     <row r="4">
@@ -7049,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3026</v>
+        <v>10.2844</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1306</v>
+        <v>10.9715</v>
       </c>
       <c r="D4" t="n">
-        <v>17.1246</v>
+        <v>17.1585</v>
       </c>
       <c r="E4" t="n">
-        <v>13.8702</v>
+        <v>13.8663</v>
       </c>
       <c r="F4" t="n">
-        <v>14.9411</v>
+        <v>14.849</v>
       </c>
       <c r="G4" t="n">
-        <v>18.3516</v>
+        <v>18.3518</v>
       </c>
     </row>
     <row r="5">
@@ -7072,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0055</v>
+        <v>12.0303</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5303</v>
+        <v>13.3749</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0806</v>
+        <v>20.661</v>
       </c>
       <c r="E5" t="n">
-        <v>17.6597</v>
+        <v>17.6814</v>
       </c>
       <c r="F5" t="n">
-        <v>17.987</v>
+        <v>17.9822</v>
       </c>
       <c r="G5" t="n">
-        <v>22.3612</v>
+        <v>22.1642</v>
       </c>
     </row>
     <row r="6">
@@ -7095,22 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.1762</v>
+        <v>14.1527</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3022</v>
+        <v>16.2648</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0251</v>
+        <v>24.9711</v>
       </c>
       <c r="E6" t="n">
-        <v>21.4503</v>
+        <v>21.4081</v>
       </c>
       <c r="F6" t="n">
-        <v>20.7528</v>
+        <v>20.8792</v>
       </c>
       <c r="G6" t="n">
-        <v>25.8168</v>
+        <v>25.8449</v>
       </c>
     </row>
     <row r="7">
@@ -7118,22 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0849</v>
+        <v>16.1862</v>
       </c>
       <c r="C7" t="n">
-        <v>19.1435</v>
+        <v>18.8679</v>
       </c>
       <c r="D7" t="n">
-        <v>29.0918</v>
+        <v>29.0782</v>
       </c>
       <c r="E7" t="n">
-        <v>25.2472</v>
+        <v>25.1548</v>
       </c>
       <c r="F7" t="n">
-        <v>23.7898</v>
+        <v>24.0348</v>
       </c>
       <c r="G7" t="n">
-        <v>29.3427</v>
+        <v>29.6835</v>
       </c>
     </row>
     <row r="8">
@@ -7141,22 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8532</v>
+        <v>17.8397</v>
       </c>
       <c r="C8" t="n">
-        <v>21.8844</v>
+        <v>21.8231</v>
       </c>
       <c r="D8" t="n">
-        <v>32.2278</v>
+        <v>32.3094</v>
       </c>
       <c r="E8" t="n">
-        <v>28.6269</v>
+        <v>28.7983</v>
       </c>
       <c r="F8" t="n">
-        <v>26.1485</v>
+        <v>26.3522</v>
       </c>
       <c r="G8" t="n">
-        <v>32.8255</v>
+        <v>33.0209</v>
       </c>
     </row>
     <row r="9">
@@ -7164,22 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8811</v>
+        <v>20.8705</v>
       </c>
       <c r="C9" t="n">
-        <v>25.432</v>
+        <v>25.2513</v>
       </c>
       <c r="D9" t="n">
-        <v>37.6444</v>
+        <v>37.6962</v>
       </c>
       <c r="E9" t="n">
-        <v>32.2215</v>
+        <v>32.6894</v>
       </c>
       <c r="F9" t="n">
-        <v>30.4581</v>
+        <v>30.2152</v>
       </c>
       <c r="G9" t="n">
-        <v>36.6868</v>
+        <v>35.8303</v>
       </c>
     </row>
     <row r="10">
@@ -7187,22 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.0499</v>
+        <v>18.1974</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9744</v>
+        <v>21.9261</v>
       </c>
       <c r="D10" t="n">
-        <v>32.5703</v>
+        <v>32.601</v>
       </c>
       <c r="E10" t="n">
-        <v>26.2232</v>
+        <v>26.5023</v>
       </c>
       <c r="F10" t="n">
-        <v>26.6702</v>
+        <v>26.0711</v>
       </c>
       <c r="G10" t="n">
-        <v>31.3233</v>
+        <v>31.5252</v>
       </c>
     </row>
     <row r="11">
@@ -7210,22 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9398</v>
+        <v>18.2668</v>
       </c>
       <c r="C11" t="n">
-        <v>21.9054</v>
+        <v>21.9341</v>
       </c>
       <c r="D11" t="n">
-        <v>32.167</v>
+        <v>32.4909</v>
       </c>
       <c r="E11" t="n">
-        <v>27.0092</v>
+        <v>27.3801</v>
       </c>
       <c r="F11" t="n">
-        <v>26.4698</v>
+        <v>25.9456</v>
       </c>
       <c r="G11" t="n">
-        <v>29.0356</v>
+        <v>30.1606</v>
       </c>
     </row>
     <row r="12">
@@ -7233,22 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.6247</v>
+        <v>18.6704</v>
       </c>
       <c r="C12" t="n">
-        <v>22.5051</v>
+        <v>22.6171</v>
       </c>
       <c r="D12" t="n">
-        <v>32.6777</v>
+        <v>32.814</v>
       </c>
       <c r="E12" t="n">
-        <v>27.8245</v>
+        <v>27.7658</v>
       </c>
       <c r="F12" t="n">
-        <v>25.9403</v>
+        <v>25.8209</v>
       </c>
       <c r="G12" t="n">
-        <v>30.0243</v>
+        <v>29.3917</v>
       </c>
     </row>
     <row r="13">
@@ -7256,22 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1959</v>
+        <v>19.3182</v>
       </c>
       <c r="C13" t="n">
-        <v>23.3893</v>
+        <v>23.2398</v>
       </c>
       <c r="D13" t="n">
-        <v>33.8428</v>
+        <v>33.4933</v>
       </c>
       <c r="E13" t="n">
-        <v>28.092</v>
+        <v>29.0014</v>
       </c>
       <c r="F13" t="n">
-        <v>26.319</v>
+        <v>26.8736</v>
       </c>
       <c r="G13" t="n">
-        <v>30.864</v>
+        <v>30.837</v>
       </c>
     </row>
     <row r="14">
@@ -7279,22 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9017</v>
+        <v>19.0022</v>
       </c>
       <c r="C14" t="n">
-        <v>23.0235</v>
+        <v>23.0036</v>
       </c>
       <c r="D14" t="n">
-        <v>32.8483</v>
+        <v>32.323</v>
       </c>
       <c r="E14" t="n">
-        <v>28.2424</v>
+        <v>27.9906</v>
       </c>
       <c r="F14" t="n">
-        <v>25.6481</v>
+        <v>26.3911</v>
       </c>
       <c r="G14" t="n">
-        <v>30.9554</v>
+        <v>30.3469</v>
       </c>
     </row>
     <row r="15">
@@ -7302,22 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8543</v>
+        <v>19.1514</v>
       </c>
       <c r="C15" t="n">
-        <v>23.6044</v>
+        <v>23.1981</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1244</v>
+        <v>33.1865</v>
       </c>
       <c r="E15" t="n">
-        <v>28.1108</v>
+        <v>27.0832</v>
       </c>
       <c r="F15" t="n">
-        <v>25.2918</v>
+        <v>26.0595</v>
       </c>
       <c r="G15" t="n">
-        <v>29.602</v>
+        <v>30.2118</v>
       </c>
     </row>
     <row r="16">
@@ -7325,22 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5389</v>
+        <v>19.4028</v>
       </c>
       <c r="C16" t="n">
-        <v>24.0781</v>
+        <v>23.5587</v>
       </c>
       <c r="D16" t="n">
-        <v>32.6238</v>
+        <v>33.9413</v>
       </c>
       <c r="E16" t="n">
-        <v>27.1198</v>
+        <v>27.8968</v>
       </c>
       <c r="F16" t="n">
-        <v>26.074</v>
+        <v>25.6344</v>
       </c>
       <c r="G16" t="n">
-        <v>28.1816</v>
+        <v>27.9734</v>
       </c>
     </row>
     <row r="17">
@@ -7348,22 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.7508</v>
+        <v>19.3366</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0237</v>
+        <v>23.9032</v>
       </c>
       <c r="D17" t="n">
-        <v>32.4976</v>
+        <v>32.6203</v>
       </c>
       <c r="E17" t="n">
-        <v>28.9915</v>
+        <v>27.8447</v>
       </c>
       <c r="F17" t="n">
-        <v>24.2044</v>
+        <v>24.5739</v>
       </c>
       <c r="G17" t="n">
-        <v>28.458</v>
+        <v>28.6204</v>
       </c>
     </row>
   </sheetData>
@@ -7426,22 +7426,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.56167</v>
+        <v>6.55821</v>
       </c>
       <c r="C2" t="n">
-        <v>6.09802</v>
+        <v>6.10475</v>
       </c>
       <c r="D2" t="n">
-        <v>6.98518</v>
+        <v>6.98707</v>
       </c>
       <c r="E2" t="n">
-        <v>4.84266</v>
+        <v>4.845</v>
       </c>
       <c r="F2" t="n">
-        <v>6.76501</v>
+        <v>6.7568</v>
       </c>
       <c r="G2" t="n">
-        <v>7.71614</v>
+        <v>7.72004</v>
       </c>
     </row>
     <row r="3">
@@ -7449,22 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.26924</v>
+        <v>7.18868</v>
       </c>
       <c r="C3" t="n">
-        <v>7.29523</v>
+        <v>7.18476</v>
       </c>
       <c r="D3" t="n">
-        <v>9.91929</v>
+        <v>9.83254</v>
       </c>
       <c r="E3" t="n">
-        <v>7.96152</v>
+        <v>7.89818</v>
       </c>
       <c r="F3" t="n">
-        <v>9.42699</v>
+        <v>9.30974</v>
       </c>
       <c r="G3" t="n">
-        <v>11.1419</v>
+        <v>11.0349</v>
       </c>
     </row>
     <row r="4">
@@ -7472,22 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.076309999999999</v>
+        <v>9.16062</v>
       </c>
       <c r="C4" t="n">
-        <v>9.459440000000001</v>
+        <v>9.37435</v>
       </c>
       <c r="D4" t="n">
-        <v>13.576</v>
+        <v>13.6074</v>
       </c>
       <c r="E4" t="n">
-        <v>11.4108</v>
+        <v>11.4215</v>
       </c>
       <c r="F4" t="n">
-        <v>12.7631</v>
+        <v>12.7255</v>
       </c>
       <c r="G4" t="n">
-        <v>15.4036</v>
+        <v>15.4172</v>
       </c>
     </row>
     <row r="5">
@@ -7495,22 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9347</v>
+        <v>10.961</v>
       </c>
       <c r="C5" t="n">
-        <v>11.7036</v>
+        <v>11.6659</v>
       </c>
       <c r="D5" t="n">
-        <v>17.2832</v>
+        <v>17.1972</v>
       </c>
       <c r="E5" t="n">
-        <v>14.8215</v>
+        <v>14.82</v>
       </c>
       <c r="F5" t="n">
-        <v>16.1386</v>
+        <v>16.1352</v>
       </c>
       <c r="G5" t="n">
-        <v>19.6184</v>
+        <v>19.6359</v>
       </c>
     </row>
     <row r="6">
@@ -7518,22 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.9139</v>
+        <v>13.053</v>
       </c>
       <c r="C6" t="n">
-        <v>13.9716</v>
+        <v>14.0665</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7467</v>
+        <v>20.996</v>
       </c>
       <c r="E6" t="n">
-        <v>18.0366</v>
+        <v>18.1641</v>
       </c>
       <c r="F6" t="n">
-        <v>19.3385</v>
+        <v>19.3258</v>
       </c>
       <c r="G6" t="n">
-        <v>23.6061</v>
+        <v>23.6493</v>
       </c>
     </row>
     <row r="7">
@@ -7541,22 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.0875</v>
+        <v>15.1153</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3837</v>
+        <v>16.3504</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7969</v>
+        <v>24.7399</v>
       </c>
       <c r="E7" t="n">
-        <v>21.4721</v>
+        <v>21.4188</v>
       </c>
       <c r="F7" t="n">
-        <v>22.5266</v>
+        <v>22.4259</v>
       </c>
       <c r="G7" t="n">
-        <v>26.9981</v>
+        <v>26.9675</v>
       </c>
     </row>
     <row r="8">
@@ -7564,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.055</v>
+        <v>17.0413</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6948</v>
+        <v>18.6864</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0438</v>
+        <v>28.0252</v>
       </c>
       <c r="E8" t="n">
-        <v>24.6686</v>
+        <v>24.6576</v>
       </c>
       <c r="F8" t="n">
-        <v>25.4482</v>
+        <v>25.4235</v>
       </c>
       <c r="G8" t="n">
-        <v>30.9394</v>
+        <v>31.0528</v>
       </c>
     </row>
     <row r="9">
@@ -7587,22 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.755</v>
+        <v>19.7042</v>
       </c>
       <c r="C9" t="n">
-        <v>21.5754</v>
+        <v>21.4428</v>
       </c>
       <c r="D9" t="n">
-        <v>32.4432</v>
+        <v>32.3521</v>
       </c>
       <c r="E9" t="n">
-        <v>28.4171</v>
+        <v>28.1466</v>
       </c>
       <c r="F9" t="n">
-        <v>29.3</v>
+        <v>29.3554</v>
       </c>
       <c r="G9" t="n">
-        <v>35.3789</v>
+        <v>35.0147</v>
       </c>
     </row>
     <row r="10">
@@ -7610,22 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.295</v>
+        <v>17.0655</v>
       </c>
       <c r="C10" t="n">
-        <v>18.398</v>
+        <v>18.3827</v>
       </c>
       <c r="D10" t="n">
-        <v>27.4239</v>
+        <v>27.2823</v>
       </c>
       <c r="E10" t="n">
-        <v>22.0829</v>
+        <v>22.2071</v>
       </c>
       <c r="F10" t="n">
-        <v>24.4278</v>
+        <v>24.2215</v>
       </c>
       <c r="G10" t="n">
-        <v>28.8844</v>
+        <v>29.0611</v>
       </c>
     </row>
     <row r="11">
@@ -7633,22 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.993</v>
+        <v>16.9708</v>
       </c>
       <c r="C11" t="n">
-        <v>18.5622</v>
+        <v>18.4191</v>
       </c>
       <c r="D11" t="n">
-        <v>27.3154</v>
+        <v>27.3439</v>
       </c>
       <c r="E11" t="n">
-        <v>23.1772</v>
+        <v>23.0703</v>
       </c>
       <c r="F11" t="n">
-        <v>24.7679</v>
+        <v>25.0247</v>
       </c>
       <c r="G11" t="n">
-        <v>28.679</v>
+        <v>28.9329</v>
       </c>
     </row>
     <row r="12">
@@ -7656,22 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5846</v>
+        <v>17.4693</v>
       </c>
       <c r="C12" t="n">
-        <v>19.2272</v>
+        <v>19.1884</v>
       </c>
       <c r="D12" t="n">
-        <v>28.5899</v>
+        <v>28.5434</v>
       </c>
       <c r="E12" t="n">
-        <v>23.7339</v>
+        <v>24.7726</v>
       </c>
       <c r="F12" t="n">
-        <v>25.6763</v>
+        <v>25.8448</v>
       </c>
       <c r="G12" t="n">
-        <v>29.4666</v>
+        <v>29.1324</v>
       </c>
     </row>
     <row r="13">
@@ -7679,22 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3317</v>
+        <v>18.4641</v>
       </c>
       <c r="C13" t="n">
-        <v>19.568</v>
+        <v>20.0254</v>
       </c>
       <c r="D13" t="n">
-        <v>29.5276</v>
+        <v>28.8794</v>
       </c>
       <c r="E13" t="n">
-        <v>24.5869</v>
+        <v>24.3799</v>
       </c>
       <c r="F13" t="n">
-        <v>25.9018</v>
+        <v>26.1356</v>
       </c>
       <c r="G13" t="n">
-        <v>29.4809</v>
+        <v>30.8279</v>
       </c>
     </row>
     <row r="14">
@@ -7702,22 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.0056</v>
+        <v>18.1192</v>
       </c>
       <c r="C14" t="n">
-        <v>19.7104</v>
+        <v>19.7517</v>
       </c>
       <c r="D14" t="n">
-        <v>28.1187</v>
+        <v>28.6288</v>
       </c>
       <c r="E14" t="n">
-        <v>24.403</v>
+        <v>24.2785</v>
       </c>
       <c r="F14" t="n">
-        <v>26.1609</v>
+        <v>25.1211</v>
       </c>
       <c r="G14" t="n">
-        <v>28.1384</v>
+        <v>29.2492</v>
       </c>
     </row>
     <row r="15">
@@ -7725,22 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.105</v>
+        <v>17.7895</v>
       </c>
       <c r="C15" t="n">
-        <v>20.0568</v>
+        <v>19.9606</v>
       </c>
       <c r="D15" t="n">
-        <v>28.1951</v>
+        <v>27.9292</v>
       </c>
       <c r="E15" t="n">
-        <v>24.201</v>
+        <v>24.1905</v>
       </c>
       <c r="F15" t="n">
-        <v>25.4221</v>
+        <v>25.004</v>
       </c>
       <c r="G15" t="n">
-        <v>29.3188</v>
+        <v>28.1411</v>
       </c>
     </row>
     <row r="16">
@@ -7748,22 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1857</v>
+        <v>18.2673</v>
       </c>
       <c r="C16" t="n">
-        <v>20.4511</v>
+        <v>20.4415</v>
       </c>
       <c r="D16" t="n">
-        <v>27.9651</v>
+        <v>29.1383</v>
       </c>
       <c r="E16" t="n">
-        <v>24.8249</v>
+        <v>24.2434</v>
       </c>
       <c r="F16" t="n">
-        <v>25.7506</v>
+        <v>26.026</v>
       </c>
       <c r="G16" t="n">
-        <v>28.5483</v>
+        <v>28.6793</v>
       </c>
     </row>
     <row r="17">
@@ -7771,22 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.7947</v>
+        <v>18.8903</v>
       </c>
       <c r="C17" t="n">
-        <v>20.8821</v>
+        <v>20.9107</v>
       </c>
       <c r="D17" t="n">
-        <v>29.3736</v>
+        <v>27.9304</v>
       </c>
       <c r="E17" t="n">
-        <v>25.1378</v>
+        <v>24.5575</v>
       </c>
       <c r="F17" t="n">
-        <v>25.1029</v>
+        <v>25.3003</v>
       </c>
       <c r="G17" t="n">
-        <v>28.0344</v>
+        <v>28.5934</v>
       </c>
     </row>
   </sheetData>
@@ -7849,22 +7849,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.02701</v>
+        <v>3.023</v>
       </c>
       <c r="C2" t="n">
-        <v>4.5381</v>
+        <v>4.53489</v>
       </c>
       <c r="D2" t="n">
-        <v>5.19341</v>
+        <v>5.20383</v>
       </c>
       <c r="E2" t="n">
-        <v>4.02248</v>
+        <v>4.02531</v>
       </c>
       <c r="F2" t="n">
-        <v>4.21502</v>
+        <v>4.21978</v>
       </c>
       <c r="G2" t="n">
-        <v>4.86487</v>
+        <v>4.86513</v>
       </c>
     </row>
     <row r="3">
@@ -7872,22 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.85072</v>
+        <v>4.86781</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15634</v>
+        <v>6.15683</v>
       </c>
       <c r="D3" t="n">
-        <v>8.493359999999999</v>
+        <v>8.512740000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>7.15757</v>
+        <v>7.15549</v>
       </c>
       <c r="F3" t="n">
-        <v>6.86253</v>
+        <v>6.84948</v>
       </c>
       <c r="G3" t="n">
-        <v>8.036210000000001</v>
+        <v>8.04386</v>
       </c>
     </row>
     <row r="4">
@@ -7895,22 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.6062</v>
+        <v>6.62004</v>
       </c>
       <c r="C4" t="n">
-        <v>8.24592</v>
+        <v>8.26031</v>
       </c>
       <c r="D4" t="n">
-        <v>11.847</v>
+        <v>11.8469</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3254</v>
+        <v>10.3406</v>
       </c>
       <c r="F4" t="n">
-        <v>9.577019999999999</v>
+        <v>9.60036</v>
       </c>
       <c r="G4" t="n">
-        <v>11.3344</v>
+        <v>11.3327</v>
       </c>
     </row>
     <row r="5">
@@ -7918,22 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.14747</v>
+        <v>8.176080000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.2989</v>
+        <v>10.291</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0192</v>
+        <v>15.0529</v>
       </c>
       <c r="E5" t="n">
-        <v>13.3954</v>
+        <v>13.4027</v>
       </c>
       <c r="F5" t="n">
-        <v>12.1021</v>
+        <v>12.0939</v>
       </c>
       <c r="G5" t="n">
-        <v>14.2997</v>
+        <v>14.2652</v>
       </c>
     </row>
     <row r="6">
@@ -7941,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.707409999999999</v>
+        <v>9.750579999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>12.3989</v>
+        <v>12.3884</v>
       </c>
       <c r="D6" t="n">
-        <v>18.1056</v>
+        <v>18.0932</v>
       </c>
       <c r="E6" t="n">
-        <v>16.4336</v>
+        <v>16.4357</v>
       </c>
       <c r="F6" t="n">
-        <v>14.2609</v>
+        <v>14.1309</v>
       </c>
       <c r="G6" t="n">
-        <v>17.0382</v>
+        <v>17.0931</v>
       </c>
     </row>
     <row r="7">
@@ -7964,22 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.24</v>
+        <v>11.211</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5017</v>
+        <v>14.4953</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0811</v>
+        <v>21.0625</v>
       </c>
       <c r="E7" t="n">
-        <v>19.3889</v>
+        <v>19.4117</v>
       </c>
       <c r="F7" t="n">
-        <v>16.0521</v>
+        <v>16.2611</v>
       </c>
       <c r="G7" t="n">
-        <v>19.5264</v>
+        <v>19.5024</v>
       </c>
     </row>
     <row r="8">
@@ -7987,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6432</v>
+        <v>12.6155</v>
       </c>
       <c r="C8" t="n">
-        <v>16.7634</v>
+        <v>16.7596</v>
       </c>
       <c r="D8" t="n">
-        <v>24.0391</v>
+        <v>24.0314</v>
       </c>
       <c r="E8" t="n">
-        <v>22.3019</v>
+        <v>22.3076</v>
       </c>
       <c r="F8" t="n">
-        <v>18.1107</v>
+        <v>18.148</v>
       </c>
       <c r="G8" t="n">
-        <v>21.8243</v>
+        <v>21.8567</v>
       </c>
     </row>
     <row r="9">
@@ -8010,22 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.922</v>
+        <v>14.8546</v>
       </c>
       <c r="C9" t="n">
-        <v>19.7801</v>
+        <v>19.7569</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5954</v>
+        <v>28.685</v>
       </c>
       <c r="E9" t="n">
-        <v>25.723</v>
+        <v>25.7016</v>
       </c>
       <c r="F9" t="n">
-        <v>20.737</v>
+        <v>20.7141</v>
       </c>
       <c r="G9" t="n">
-        <v>24.0748</v>
+        <v>24.1258</v>
       </c>
     </row>
     <row r="10">
@@ -8033,22 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0668</v>
+        <v>14.3034</v>
       </c>
       <c r="C10" t="n">
-        <v>18.2873</v>
+        <v>18.1985</v>
       </c>
       <c r="D10" t="n">
-        <v>26.4281</v>
+        <v>26.8678</v>
       </c>
       <c r="E10" t="n">
-        <v>23.4918</v>
+        <v>23.8822</v>
       </c>
       <c r="F10" t="n">
-        <v>19.694</v>
+        <v>19.6154</v>
       </c>
       <c r="G10" t="n">
-        <v>23.0036</v>
+        <v>22.7523</v>
       </c>
     </row>
     <row r="11">
@@ -8056,22 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.2003</v>
+        <v>14.0618</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3333</v>
+        <v>18.1202</v>
       </c>
       <c r="D11" t="n">
-        <v>26.4003</v>
+        <v>26.4438</v>
       </c>
       <c r="E11" t="n">
-        <v>23.7509</v>
+        <v>23.2214</v>
       </c>
       <c r="F11" t="n">
-        <v>19.1534</v>
+        <v>19.5583</v>
       </c>
       <c r="G11" t="n">
-        <v>22.2306</v>
+        <v>21.9676</v>
       </c>
     </row>
     <row r="12">
@@ -8079,22 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2412</v>
+        <v>14.3163</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5308</v>
+        <v>18.3339</v>
       </c>
       <c r="D12" t="n">
-        <v>26.4268</v>
+        <v>26.655</v>
       </c>
       <c r="E12" t="n">
-        <v>23.801</v>
+        <v>23.7789</v>
       </c>
       <c r="F12" t="n">
-        <v>19.2256</v>
+        <v>19.0286</v>
       </c>
       <c r="G12" t="n">
-        <v>21.1738</v>
+        <v>21.6168</v>
       </c>
     </row>
     <row r="13">
@@ -8102,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5143</v>
+        <v>14.5593</v>
       </c>
       <c r="C13" t="n">
-        <v>18.5908</v>
+        <v>18.4632</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9129</v>
+        <v>26.6681</v>
       </c>
       <c r="E13" t="n">
-        <v>24.1741</v>
+        <v>24.2974</v>
       </c>
       <c r="F13" t="n">
-        <v>18.0764</v>
+        <v>18.2743</v>
       </c>
       <c r="G13" t="n">
-        <v>20.7671</v>
+        <v>20.9618</v>
       </c>
     </row>
     <row r="14">
@@ -8125,22 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.95</v>
+        <v>13.9738</v>
       </c>
       <c r="C14" t="n">
-        <v>18.6785</v>
+        <v>18.5562</v>
       </c>
       <c r="D14" t="n">
-        <v>25.7569</v>
+        <v>25.9298</v>
       </c>
       <c r="E14" t="n">
-        <v>23.5867</v>
+        <v>23.3457</v>
       </c>
       <c r="F14" t="n">
-        <v>17.6944</v>
+        <v>17.386</v>
       </c>
       <c r="G14" t="n">
-        <v>20.4046</v>
+        <v>19.9987</v>
       </c>
     </row>
     <row r="15">
@@ -8148,22 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6229</v>
+        <v>14.6283</v>
       </c>
       <c r="C15" t="n">
-        <v>18.7327</v>
+        <v>18.7482</v>
       </c>
       <c r="D15" t="n">
-        <v>26.7626</v>
+        <v>26.6613</v>
       </c>
       <c r="E15" t="n">
-        <v>24.2292</v>
+        <v>23.9804</v>
       </c>
       <c r="F15" t="n">
-        <v>17.928</v>
+        <v>17.6247</v>
       </c>
       <c r="G15" t="n">
-        <v>20.0326</v>
+        <v>19.7246</v>
       </c>
     </row>
     <row r="16">
@@ -8171,22 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5964</v>
+        <v>14.4149</v>
       </c>
       <c r="C16" t="n">
-        <v>18.9043</v>
+        <v>18.873</v>
       </c>
       <c r="D16" t="n">
-        <v>26.3676</v>
+        <v>26.4629</v>
       </c>
       <c r="E16" t="n">
-        <v>23.8462</v>
+        <v>23.4902</v>
       </c>
       <c r="F16" t="n">
-        <v>16.954</v>
+        <v>17.2245</v>
       </c>
       <c r="G16" t="n">
-        <v>19.7359</v>
+        <v>19.3422</v>
       </c>
     </row>
     <row r="17">
@@ -8194,22 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5078</v>
+        <v>14.3708</v>
       </c>
       <c r="C17" t="n">
-        <v>19.011</v>
+        <v>19.0571</v>
       </c>
       <c r="D17" t="n">
-        <v>26.0954</v>
+        <v>26.3627</v>
       </c>
       <c r="E17" t="n">
-        <v>23.4431</v>
+        <v>23.9068</v>
       </c>
       <c r="F17" t="n">
-        <v>17.0668</v>
+        <v>16.3883</v>
       </c>
       <c r="G17" t="n">
-        <v>19.1557</v>
+        <v>18.9868</v>
       </c>
     </row>
   </sheetData>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99278</v>
+        <v>4.03121</v>
       </c>
       <c r="C2" t="n">
-        <v>7.36819</v>
+        <v>7.37102</v>
       </c>
       <c r="D2" t="n">
-        <v>8.368370000000001</v>
+        <v>8.36957</v>
       </c>
       <c r="E2" t="n">
-        <v>5.75836</v>
+        <v>5.76396</v>
       </c>
       <c r="F2" t="n">
-        <v>6.02733</v>
+        <v>6.06399</v>
       </c>
       <c r="G2" t="n">
-        <v>7.64771</v>
+        <v>7.7161</v>
       </c>
     </row>
     <row r="3">
@@ -8295,22 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.03608</v>
+        <v>6.05753</v>
       </c>
       <c r="C3" t="n">
-        <v>8.36618</v>
+        <v>8.36065</v>
       </c>
       <c r="D3" t="n">
-        <v>12.217</v>
+        <v>12.2024</v>
       </c>
       <c r="E3" t="n">
-        <v>9.710459999999999</v>
+        <v>9.699630000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>9.169560000000001</v>
+        <v>9.124919999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>11.5036</v>
+        <v>11.4955</v>
       </c>
     </row>
     <row r="4">
@@ -8318,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.22321</v>
+        <v>8.115069999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>10.8161</v>
+        <v>10.755</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4906</v>
+        <v>16.4374</v>
       </c>
       <c r="E4" t="n">
-        <v>13.8456</v>
+        <v>13.7922</v>
       </c>
       <c r="F4" t="n">
-        <v>12.6345</v>
+        <v>12.5658</v>
       </c>
       <c r="G4" t="n">
-        <v>15.8057</v>
+        <v>15.7784</v>
       </c>
     </row>
     <row r="5">
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.098</v>
+        <v>10.0804</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2382</v>
+        <v>13.2071</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4176</v>
+        <v>20.4463</v>
       </c>
       <c r="E5" t="n">
-        <v>17.6727</v>
+        <v>17.7504</v>
       </c>
       <c r="F5" t="n">
-        <v>15.6</v>
+        <v>15.5307</v>
       </c>
       <c r="G5" t="n">
-        <v>19.6246</v>
+        <v>19.3736</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9956</v>
+        <v>12.0304</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7378</v>
+        <v>15.7358</v>
       </c>
       <c r="D6" t="n">
-        <v>24.3748</v>
+        <v>24.3417</v>
       </c>
       <c r="E6" t="n">
-        <v>21.6162</v>
+        <v>21.6127</v>
       </c>
       <c r="F6" t="n">
-        <v>17.9567</v>
+        <v>18.1643</v>
       </c>
       <c r="G6" t="n">
-        <v>22.825</v>
+        <v>22.8551</v>
       </c>
     </row>
     <row r="7">
@@ -8387,22 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.8461</v>
+        <v>13.8843</v>
       </c>
       <c r="C7" t="n">
-        <v>18.3469</v>
+        <v>18.3361</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2158</v>
+        <v>28.1864</v>
       </c>
       <c r="E7" t="n">
-        <v>25.381</v>
+        <v>25.4445</v>
       </c>
       <c r="F7" t="n">
-        <v>20.3053</v>
+        <v>20.4404</v>
       </c>
       <c r="G7" t="n">
-        <v>25.6809</v>
+        <v>25.8622</v>
       </c>
     </row>
     <row r="8">
@@ -8410,22 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6317</v>
+        <v>15.5704</v>
       </c>
       <c r="C8" t="n">
-        <v>21.2737</v>
+        <v>21.2248</v>
       </c>
       <c r="D8" t="n">
-        <v>32.1412</v>
+        <v>32.1798</v>
       </c>
       <c r="E8" t="n">
-        <v>29.2248</v>
+        <v>29.2013</v>
       </c>
       <c r="F8" t="n">
-        <v>22.6832</v>
+        <v>22.6228</v>
       </c>
       <c r="G8" t="n">
-        <v>28.6563</v>
+        <v>28.5999</v>
       </c>
     </row>
     <row r="9">
@@ -8433,22 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2039</v>
+        <v>18.1087</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8632</v>
+        <v>24.8325</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3357</v>
+        <v>38.3281</v>
       </c>
       <c r="E9" t="n">
-        <v>33.5223</v>
+        <v>33.4881</v>
       </c>
       <c r="F9" t="n">
-        <v>25.959</v>
+        <v>25.6367</v>
       </c>
       <c r="G9" t="n">
-        <v>31.4063</v>
+        <v>31.2516</v>
       </c>
     </row>
     <row r="10">
@@ -8456,22 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2185</v>
+        <v>17.2783</v>
       </c>
       <c r="C10" t="n">
-        <v>23.1517</v>
+        <v>23.0499</v>
       </c>
       <c r="D10" t="n">
-        <v>35.3981</v>
+        <v>34.7841</v>
       </c>
       <c r="E10" t="n">
-        <v>30.7226</v>
+        <v>31.5298</v>
       </c>
       <c r="F10" t="n">
-        <v>24.4191</v>
+        <v>24.4535</v>
       </c>
       <c r="G10" t="n">
-        <v>29.2587</v>
+        <v>29.422</v>
       </c>
     </row>
     <row r="11">
@@ -8479,22 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2046</v>
+        <v>17.1884</v>
       </c>
       <c r="C11" t="n">
-        <v>22.7533</v>
+        <v>22.6343</v>
       </c>
       <c r="D11" t="n">
-        <v>35.0194</v>
+        <v>35.1773</v>
       </c>
       <c r="E11" t="n">
-        <v>30.2489</v>
+        <v>31.1995</v>
       </c>
       <c r="F11" t="n">
-        <v>23.8147</v>
+        <v>23.7914</v>
       </c>
       <c r="G11" t="n">
-        <v>28.9396</v>
+        <v>27.9357</v>
       </c>
     </row>
     <row r="12">
@@ -8502,22 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3686</v>
+        <v>17.2982</v>
       </c>
       <c r="C12" t="n">
-        <v>23.1547</v>
+        <v>23.1398</v>
       </c>
       <c r="D12" t="n">
-        <v>35.1129</v>
+        <v>35.1001</v>
       </c>
       <c r="E12" t="n">
-        <v>30.9121</v>
+        <v>30.6318</v>
       </c>
       <c r="F12" t="n">
-        <v>23.4123</v>
+        <v>22.8965</v>
       </c>
       <c r="G12" t="n">
-        <v>27.2013</v>
+        <v>27.8319</v>
       </c>
     </row>
     <row r="13">
@@ -8525,22 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7312</v>
+        <v>17.5858</v>
       </c>
       <c r="C13" t="n">
-        <v>23.2335</v>
+        <v>23.2297</v>
       </c>
       <c r="D13" t="n">
-        <v>35.2266</v>
+        <v>35.0952</v>
       </c>
       <c r="E13" t="n">
-        <v>31.4071</v>
+        <v>31.3049</v>
       </c>
       <c r="F13" t="n">
-        <v>22.1515</v>
+        <v>22.2257</v>
       </c>
       <c r="G13" t="n">
-        <v>26.6571</v>
+        <v>26.2248</v>
       </c>
     </row>
     <row r="14">
@@ -8548,22 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0004</v>
+        <v>17.013</v>
       </c>
       <c r="C14" t="n">
-        <v>23.3394</v>
+        <v>23.2491</v>
       </c>
       <c r="D14" t="n">
-        <v>34.1309</v>
+        <v>33.8486</v>
       </c>
       <c r="E14" t="n">
-        <v>30.2384</v>
+        <v>30.6896</v>
       </c>
       <c r="F14" t="n">
-        <v>20.7577</v>
+        <v>21.0904</v>
       </c>
       <c r="G14" t="n">
-        <v>24.8795</v>
+        <v>25.021</v>
       </c>
     </row>
     <row r="15">
@@ -8571,22 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8514</v>
+        <v>17.6901</v>
       </c>
       <c r="C15" t="n">
-        <v>23.5486</v>
+        <v>23.4494</v>
       </c>
       <c r="D15" t="n">
-        <v>34.2728</v>
+        <v>34.6182</v>
       </c>
       <c r="E15" t="n">
-        <v>30.5576</v>
+        <v>30.6266</v>
       </c>
       <c r="F15" t="n">
-        <v>21.1074</v>
+        <v>20.7928</v>
       </c>
       <c r="G15" t="n">
-        <v>24.2996</v>
+        <v>24.515</v>
       </c>
     </row>
     <row r="16">
@@ -8594,22 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7407</v>
+        <v>17.6755</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6864</v>
+        <v>23.7934</v>
       </c>
       <c r="D16" t="n">
-        <v>34.0596</v>
+        <v>34.9339</v>
       </c>
       <c r="E16" t="n">
-        <v>30.1574</v>
+        <v>30.4428</v>
       </c>
       <c r="F16" t="n">
-        <v>20.6363</v>
+        <v>20.8832</v>
       </c>
       <c r="G16" t="n">
-        <v>23.7631</v>
+        <v>23.7013</v>
       </c>
     </row>
     <row r="17">
@@ -8617,22 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5248</v>
+        <v>17.4154</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9457</v>
+        <v>24.0261</v>
       </c>
       <c r="D17" t="n">
-        <v>33.9055</v>
+        <v>34.4261</v>
       </c>
       <c r="E17" t="n">
-        <v>29.9298</v>
+        <v>30.4245</v>
       </c>
       <c r="F17" t="n">
-        <v>19.3916</v>
+        <v>20.146</v>
       </c>
       <c r="G17" t="n">
-        <v>22.8293</v>
+        <v>22.9987</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.37199</v>
+        <v>5.36139</v>
       </c>
       <c r="C2" t="n">
-        <v>5.87815</v>
+        <v>5.88727</v>
       </c>
       <c r="D2" t="n">
-        <v>6.5927</v>
+        <v>6.60634</v>
       </c>
       <c r="E2" t="n">
-        <v>4.71265</v>
+        <v>4.72025</v>
       </c>
       <c r="F2" t="n">
-        <v>6.11753</v>
+        <v>6.1308</v>
       </c>
       <c r="G2" t="n">
-        <v>7.17268</v>
+        <v>7.20557</v>
       </c>
     </row>
     <row r="3">
@@ -8718,22 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.88452</v>
+        <v>6.87112</v>
       </c>
       <c r="C3" t="n">
-        <v>7.24207</v>
+        <v>7.16876</v>
       </c>
       <c r="D3" t="n">
-        <v>9.854810000000001</v>
+        <v>9.838699999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>7.95553</v>
+        <v>7.95966</v>
       </c>
       <c r="F3" t="n">
-        <v>9.162649999999999</v>
+        <v>9.1676</v>
       </c>
       <c r="G3" t="n">
-        <v>10.975</v>
+        <v>10.9594</v>
       </c>
     </row>
     <row r="4">
@@ -8741,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.86918</v>
+        <v>8.88969</v>
       </c>
       <c r="C4" t="n">
-        <v>9.34647</v>
+        <v>9.31615</v>
       </c>
       <c r="D4" t="n">
-        <v>13.52</v>
+        <v>13.5439</v>
       </c>
       <c r="E4" t="n">
-        <v>11.3796</v>
+        <v>11.3798</v>
       </c>
       <c r="F4" t="n">
-        <v>12.5692</v>
+        <v>12.5807</v>
       </c>
       <c r="G4" t="n">
-        <v>15.1753</v>
+        <v>15.1898</v>
       </c>
     </row>
     <row r="5">
@@ -8764,22 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9109</v>
+        <v>10.9158</v>
       </c>
       <c r="C5" t="n">
-        <v>11.5798</v>
+        <v>11.5397</v>
       </c>
       <c r="D5" t="n">
-        <v>17.2488</v>
+        <v>17.2707</v>
       </c>
       <c r="E5" t="n">
-        <v>14.8705</v>
+        <v>14.8174</v>
       </c>
       <c r="F5" t="n">
-        <v>15.8447</v>
+        <v>15.8558</v>
       </c>
       <c r="G5" t="n">
-        <v>19.344</v>
+        <v>19.3223</v>
       </c>
     </row>
     <row r="6">
@@ -8787,22 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.9456</v>
+        <v>12.9218</v>
       </c>
       <c r="C6" t="n">
-        <v>13.8584</v>
+        <v>13.8478</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0018</v>
+        <v>21.0196</v>
       </c>
       <c r="E6" t="n">
-        <v>18.2645</v>
+        <v>18.2595</v>
       </c>
       <c r="F6" t="n">
-        <v>19.1003</v>
+        <v>19.0716</v>
       </c>
       <c r="G6" t="n">
-        <v>23.3248</v>
+        <v>23.2884</v>
       </c>
     </row>
     <row r="7">
@@ -8810,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.9727</v>
+        <v>14.9721</v>
       </c>
       <c r="C7" t="n">
-        <v>16.16</v>
+        <v>16.1265</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7345</v>
+        <v>24.7488</v>
       </c>
       <c r="E7" t="n">
-        <v>21.6449</v>
+        <v>21.6313</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0965</v>
+        <v>22.1769</v>
       </c>
       <c r="G7" t="n">
-        <v>27.1747</v>
+        <v>27.1157</v>
       </c>
     </row>
     <row r="8">
@@ -8833,22 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.2141</v>
+        <v>17.183</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6207</v>
+        <v>18.6284</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5573</v>
+        <v>28.5246</v>
       </c>
       <c r="E8" t="n">
-        <v>24.973</v>
+        <v>25.0046</v>
       </c>
       <c r="F8" t="n">
-        <v>25.2293</v>
+        <v>25.3656</v>
       </c>
       <c r="G8" t="n">
-        <v>30.9535</v>
+        <v>30.9606</v>
       </c>
     </row>
     <row r="9">
@@ -8856,22 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2574</v>
+        <v>20.2249</v>
       </c>
       <c r="C9" t="n">
-        <v>21.4905</v>
+        <v>21.4758</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3737</v>
+        <v>33.3376</v>
       </c>
       <c r="E9" t="n">
-        <v>28.9008</v>
+        <v>28.8824</v>
       </c>
       <c r="F9" t="n">
-        <v>29.313</v>
+        <v>29.3418</v>
       </c>
       <c r="G9" t="n">
-        <v>35.4292</v>
+        <v>35.4514</v>
       </c>
     </row>
     <row r="10">
@@ -8879,22 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.2474</v>
+        <v>19.0824</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0455</v>
+        <v>20.3094</v>
       </c>
       <c r="D10" t="n">
-        <v>30.2176</v>
+        <v>30.9094</v>
       </c>
       <c r="E10" t="n">
-        <v>27.0722</v>
+        <v>26.6076</v>
       </c>
       <c r="F10" t="n">
-        <v>27.3874</v>
+        <v>27.5282</v>
       </c>
       <c r="G10" t="n">
-        <v>32.1434</v>
+        <v>32.6897</v>
       </c>
     </row>
     <row r="11">
@@ -8902,22 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.9038</v>
+        <v>19.1651</v>
       </c>
       <c r="C11" t="n">
-        <v>19.899</v>
+        <v>20.0472</v>
       </c>
       <c r="D11" t="n">
-        <v>30.7635</v>
+        <v>30.5988</v>
       </c>
       <c r="E11" t="n">
-        <v>26.6445</v>
+        <v>26.3453</v>
       </c>
       <c r="F11" t="n">
-        <v>26.8063</v>
+        <v>27.0238</v>
       </c>
       <c r="G11" t="n">
-        <v>32.0252</v>
+        <v>32.5231</v>
       </c>
     </row>
     <row r="12">
@@ -8925,22 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2696</v>
+        <v>19.2728</v>
       </c>
       <c r="C12" t="n">
-        <v>20.3693</v>
+        <v>20.0567</v>
       </c>
       <c r="D12" t="n">
-        <v>30.7358</v>
+        <v>30.8301</v>
       </c>
       <c r="E12" t="n">
-        <v>26.7788</v>
+        <v>26.6828</v>
       </c>
       <c r="F12" t="n">
-        <v>27.2617</v>
+        <v>27.188</v>
       </c>
       <c r="G12" t="n">
-        <v>32.1873</v>
+        <v>31.8549</v>
       </c>
     </row>
     <row r="13">
@@ -8948,22 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.2677</v>
+        <v>19.386</v>
       </c>
       <c r="C13" t="n">
-        <v>20.4998</v>
+        <v>20.5918</v>
       </c>
       <c r="D13" t="n">
-        <v>31.4559</v>
+        <v>31.3471</v>
       </c>
       <c r="E13" t="n">
-        <v>27.2054</v>
+        <v>26.9976</v>
       </c>
       <c r="F13" t="n">
-        <v>27.0476</v>
+        <v>26.8859</v>
       </c>
       <c r="G13" t="n">
-        <v>32.5727</v>
+        <v>32.464</v>
       </c>
     </row>
     <row r="14">
@@ -8971,22 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.792</v>
+        <v>18.7099</v>
       </c>
       <c r="C14" t="n">
-        <v>20.4044</v>
+        <v>20.4059</v>
       </c>
       <c r="D14" t="n">
-        <v>30.4103</v>
+        <v>30.3936</v>
       </c>
       <c r="E14" t="n">
-        <v>26.243</v>
+        <v>26.2747</v>
       </c>
       <c r="F14" t="n">
-        <v>25.9389</v>
+        <v>25.8492</v>
       </c>
       <c r="G14" t="n">
-        <v>30.6278</v>
+        <v>30.6102</v>
       </c>
     </row>
     <row r="15">
@@ -8994,22 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.382</v>
+        <v>19.4691</v>
       </c>
       <c r="C15" t="n">
-        <v>20.6278</v>
+        <v>20.639</v>
       </c>
       <c r="D15" t="n">
-        <v>31.2468</v>
+        <v>31.2524</v>
       </c>
       <c r="E15" t="n">
-        <v>26.2842</v>
+        <v>27.191</v>
       </c>
       <c r="F15" t="n">
-        <v>26.1707</v>
+        <v>25.863</v>
       </c>
       <c r="G15" t="n">
-        <v>31.1015</v>
+        <v>30.9769</v>
       </c>
     </row>
     <row r="16">
@@ -9017,22 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.4681</v>
+        <v>19.351</v>
       </c>
       <c r="C16" t="n">
-        <v>20.8955</v>
+        <v>20.8739</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9023</v>
+        <v>30.8488</v>
       </c>
       <c r="E16" t="n">
-        <v>26.7222</v>
+        <v>26.9489</v>
       </c>
       <c r="F16" t="n">
-        <v>26.265</v>
+        <v>26.486</v>
       </c>
       <c r="G16" t="n">
-        <v>30.6429</v>
+        <v>30.51</v>
       </c>
     </row>
     <row r="17">
@@ -9040,22 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.098</v>
+        <v>19.1382</v>
       </c>
       <c r="C17" t="n">
-        <v>21.1396</v>
+        <v>21.0219</v>
       </c>
       <c r="D17" t="n">
-        <v>30.4426</v>
+        <v>30.6563</v>
       </c>
       <c r="E17" t="n">
-        <v>27.1601</v>
+        <v>26.8079</v>
       </c>
       <c r="F17" t="n">
-        <v>25.9636</v>
+        <v>25.9512</v>
       </c>
       <c r="G17" t="n">
-        <v>30.8108</v>
+        <v>29.8573</v>
       </c>
     </row>
   </sheetData>
